--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E85696-650A-44CC-A306-345C104CD88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845DC0E-688C-4A67-AAD5-8189B615BE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="459">
   <si>
     <t>Namespace</t>
   </si>
@@ -1415,6 +1415,9 @@
   </si>
   <si>
     <t>Interface Forward Definition</t>
+  </si>
+  <si>
+    <t>TVSeasonEpisode</t>
   </si>
 </sst>
 </file>
@@ -5444,11 +5447,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G164"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5506,11 +5509,11 @@
         <v>309</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f>"I"&amp;J2&amp;B2</f>
+        <f t="shared" ref="D2:D33" si="0">"I"&amp;J2&amp;B2</f>
         <v>ITMDBItem</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>"T"&amp;J2&amp;B2</f>
+        <f t="shared" ref="E2:E33" si="1">"T"&amp;J2&amp;B2</f>
         <v>TTMDBItem</v>
       </c>
       <c r="F2" s="8" t="str">
@@ -5522,11 +5525,11 @@
         <v xml:space="preserve">  TTMDBItem = class;</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f>IF(C2="", "  "&amp;D2&amp;" = interface", "  "&amp;D2&amp;" = interface(I"&amp;J2&amp;C2&amp;")")</f>
+        <f t="shared" ref="H2:H33" si="2">IF(C2="", "  "&amp;D2&amp;" = interface", "  "&amp;D2&amp;" = interface(I"&amp;J2&amp;C2&amp;")")</f>
         <v xml:space="preserve">  ITMDBItem = interface</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>IF(C2="", "  "&amp;E2&amp;" = class(TInterfacedObject, "&amp;D2&amp;")", "  "&amp;E2&amp;" = class(T"&amp;J2&amp;C2&amp;", "&amp;D2&amp;")")</f>
+        <f t="shared" ref="I2:I33" si="3">IF(C2="", "  "&amp;E2&amp;" = class(TInterfacedObject, "&amp;D2&amp;")", "  "&amp;E2&amp;" = class(T"&amp;J2&amp;C2&amp;", "&amp;D2&amp;")")</f>
         <v xml:space="preserve">  TTMDBItem = class(TInterfacedObject, ITMDBItem)</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -5541,27 +5544,27 @@
         <v>310</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>"I"&amp;J3&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>ITMDBItems</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f>"T"&amp;J3&amp;B3</f>
+        <f t="shared" si="1"/>
         <v>TTMDBItems</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F56" si="0">"  "&amp;D3&amp;" = interface;"</f>
+        <f t="shared" ref="F3:F56" si="4">"  "&amp;D3&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBItems = interface;</v>
       </c>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G56" si="1">"  "&amp;E3&amp;" = class;"</f>
+        <f t="shared" ref="G3:G56" si="5">"  "&amp;E3&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBItems = class;</v>
       </c>
       <c r="H3" s="8" t="str">
-        <f>IF(C3="", "  "&amp;D3&amp;" = interface", "  "&amp;D3&amp;" = interface(I"&amp;J3&amp;C3&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBItems = interface</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f>IF(C3="", "  "&amp;E3&amp;" = class(TInterfacedObject, "&amp;D3&amp;")", "  "&amp;E3&amp;" = class(T"&amp;J3&amp;C3&amp;", "&amp;D3&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBItems = class(TInterfacedObject, ITMDBItems)</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -5576,27 +5579,27 @@
         <v>313</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f>"I"&amp;J4&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>ITMDBPage</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f>"T"&amp;J4&amp;B4</f>
+        <f t="shared" si="1"/>
         <v>TTMDBPage</v>
       </c>
       <c r="F4" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBPage = interface;</v>
       </c>
       <c r="G4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBPage = class;</v>
       </c>
       <c r="H4" s="8" t="str">
-        <f>IF(C4="", "  "&amp;D4&amp;" = interface", "  "&amp;D4&amp;" = interface(I"&amp;J4&amp;C4&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBPage = interface</v>
       </c>
       <c r="I4" s="8" t="str">
-        <f>IF(C4="", "  "&amp;E4&amp;" = class(TInterfacedObject, "&amp;D4&amp;")", "  "&amp;E4&amp;" = class(T"&amp;J4&amp;C4&amp;", "&amp;D4&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBPage = class(TInterfacedObject, ITMDBPage)</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -5611,27 +5614,27 @@
         <v>171</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f>"I"&amp;J5&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>ITMDBDetail</v>
       </c>
       <c r="E5" s="8" t="str">
-        <f>"T"&amp;J5&amp;B5</f>
+        <f t="shared" si="1"/>
         <v>TTMDBDetail</v>
       </c>
       <c r="F5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBDetail = interface;</v>
       </c>
       <c r="G5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBDetail = class;</v>
       </c>
       <c r="H5" s="8" t="str">
-        <f>IF(C5="", "  "&amp;D5&amp;" = interface", "  "&amp;D5&amp;" = interface(I"&amp;J5&amp;C5&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBDetail = interface</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f>IF(C5="", "  "&amp;E5&amp;" = class(TInterfacedObject, "&amp;D5&amp;")", "  "&amp;E5&amp;" = class(T"&amp;J5&amp;C5&amp;", "&amp;D5&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBDetail = class(TInterfacedObject, ITMDBDetail)</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -5649,27 +5652,27 @@
         <v>309</v>
       </c>
       <c r="D6" s="8" t="str">
-        <f>"I"&amp;J6&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>ITMDBMedium</v>
       </c>
       <c r="E6" s="8" t="str">
-        <f>"T"&amp;J6&amp;B6</f>
+        <f t="shared" si="1"/>
         <v>TTMDBMedium</v>
       </c>
       <c r="F6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBMedium = interface;</v>
       </c>
       <c r="G6" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBMedium = class;</v>
       </c>
       <c r="H6" s="8" t="str">
-        <f>IF(C6="", "  "&amp;D6&amp;" = interface", "  "&amp;D6&amp;" = interface(I"&amp;J6&amp;C6&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBMedium = interface(ITMDBItem)</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f>IF(C6="", "  "&amp;E6&amp;" = class(TInterfacedObject, "&amp;D6&amp;")", "  "&amp;E6&amp;" = class(T"&amp;J6&amp;C6&amp;", "&amp;D6&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBMedium = class(TTMDBItem, ITMDBMedium)</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -5687,27 +5690,27 @@
         <v>310</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>"I"&amp;J7&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>ITMDBMedia</v>
       </c>
       <c r="E7" s="8" t="str">
-        <f>"T"&amp;J7&amp;B7</f>
+        <f t="shared" si="1"/>
         <v>TTMDBMedia</v>
       </c>
       <c r="F7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBMedia = interface;</v>
       </c>
       <c r="G7" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBMedia = class;</v>
       </c>
       <c r="H7" s="8" t="str">
-        <f>IF(C7="", "  "&amp;D7&amp;" = interface", "  "&amp;D7&amp;" = interface(I"&amp;J7&amp;C7&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBMedia = interface(ITMDBItems)</v>
       </c>
       <c r="I7" s="8" t="str">
-        <f>IF(C7="", "  "&amp;E7&amp;" = class(TInterfacedObject, "&amp;D7&amp;")", "  "&amp;E7&amp;" = class(T"&amp;J7&amp;C7&amp;", "&amp;D7&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBMedia = class(TTMDBItems, ITMDBMedia)</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -5725,27 +5728,27 @@
         <v>313</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f>"I"&amp;J8&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>ITMDBMediaPage</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f>"T"&amp;J8&amp;B8</f>
+        <f t="shared" si="1"/>
         <v>TTMDBMediaPage</v>
       </c>
       <c r="F8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBMediaPage = interface;</v>
       </c>
       <c r="G8" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBMediaPage = class;</v>
       </c>
       <c r="H8" s="8" t="str">
-        <f>IF(C8="", "  "&amp;D8&amp;" = interface", "  "&amp;D8&amp;" = interface(I"&amp;J8&amp;C8&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBMediaPage = interface(ITMDBPage)</v>
       </c>
       <c r="I8" s="8" t="str">
-        <f>IF(C8="", "  "&amp;E8&amp;" = class(TInterfacedObject, "&amp;D8&amp;")", "  "&amp;E8&amp;" = class(T"&amp;J8&amp;C8&amp;", "&amp;D8&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBMediaPage = class(TTMDBPage, ITMDBMediaPage)</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -5763,27 +5766,27 @@
         <v>309</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>"I"&amp;J9&amp;B9</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAlternativeTitle</v>
       </c>
       <c r="E9" s="8" t="str">
-        <f>"T"&amp;J9&amp;B9</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAlternativeTitle</v>
       </c>
       <c r="F9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAlternativeTitle = interface;</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAlternativeTitle = class;</v>
       </c>
       <c r="H9" s="8" t="str">
-        <f>IF(C9="", "  "&amp;D9&amp;" = interface", "  "&amp;D9&amp;" = interface(I"&amp;J9&amp;C9&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAlternativeTitle = interface(ITMDBItem)</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f>IF(C9="", "  "&amp;E9&amp;" = class(TInterfacedObject, "&amp;D9&amp;")", "  "&amp;E9&amp;" = class(T"&amp;J9&amp;C9&amp;", "&amp;D9&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAlternativeTitle = class(TTMDBItem, ITMDBAlternativeTitle)</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -5801,27 +5804,27 @@
         <v>310</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>"I"&amp;J10&amp;B10</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAlternativeTitles</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f>"T"&amp;J10&amp;B10</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAlternativeTitles</v>
       </c>
       <c r="F10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAlternativeTitles = interface;</v>
       </c>
       <c r="G10" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAlternativeTitles = class;</v>
       </c>
       <c r="H10" s="8" t="str">
-        <f>IF(C10="", "  "&amp;D10&amp;" = interface", "  "&amp;D10&amp;" = interface(I"&amp;J10&amp;C10&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAlternativeTitles = interface(ITMDBItems)</v>
       </c>
       <c r="I10" s="8" t="str">
-        <f>IF(C10="", "  "&amp;E10&amp;" = class(TInterfacedObject, "&amp;D10&amp;")", "  "&amp;E10&amp;" = class(T"&amp;J10&amp;C10&amp;", "&amp;D10&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAlternativeTitles = class(TTMDBItems, ITMDBAlternativeTitles)</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -5836,27 +5839,27 @@
         <v>319</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>"I"&amp;J11&amp;B11</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAccountDetail</v>
       </c>
       <c r="E11" s="8" t="str">
-        <f>"T"&amp;J11&amp;B11</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAccountDetail</v>
       </c>
       <c r="F11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAccountDetail = interface;</v>
       </c>
       <c r="G11" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAccountDetail = class;</v>
       </c>
       <c r="H11" s="8" t="str">
-        <f>IF(C11="", "  "&amp;D11&amp;" = interface", "  "&amp;D11&amp;" = interface(I"&amp;J11&amp;C11&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAccountDetail = interface</v>
       </c>
       <c r="I11" s="8" t="str">
-        <f>IF(C11="", "  "&amp;E11&amp;" = class(TInterfacedObject, "&amp;D11&amp;")", "  "&amp;E11&amp;" = class(T"&amp;J11&amp;C11&amp;", "&amp;D11&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAccountDetail = class(TInterfacedObject, ITMDBAccountDetail)</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -5871,27 +5874,27 @@
         <v>320</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>"I"&amp;J12&amp;B12</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAccountAddFavoriteResult</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f>"T"&amp;J12&amp;B12</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAccountAddFavoriteResult</v>
       </c>
       <c r="F12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAccountAddFavoriteResult = interface;</v>
       </c>
       <c r="G12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAccountAddFavoriteResult = class;</v>
       </c>
       <c r="H12" s="8" t="str">
-        <f>IF(C12="", "  "&amp;D12&amp;" = interface", "  "&amp;D12&amp;" = interface(I"&amp;J12&amp;C12&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAccountAddFavoriteResult = interface</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f>IF(C12="", "  "&amp;E12&amp;" = class(TInterfacedObject, "&amp;D12&amp;")", "  "&amp;E12&amp;" = class(T"&amp;J12&amp;C12&amp;", "&amp;D12&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAccountAddFavoriteResult = class(TInterfacedObject, ITMDBAccountAddFavoriteResult)</v>
       </c>
       <c r="J12" s="8" t="s">
@@ -5906,27 +5909,27 @@
         <v>321</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>"I"&amp;J13&amp;B13</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAccountAddWatchlistResult</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f>"T"&amp;J13&amp;B13</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAccountAddWatchlistResult</v>
       </c>
       <c r="F13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAccountAddWatchlistResult = interface;</v>
       </c>
       <c r="G13" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAccountAddWatchlistResult = class;</v>
       </c>
       <c r="H13" s="8" t="str">
-        <f>IF(C13="", "  "&amp;D13&amp;" = interface", "  "&amp;D13&amp;" = interface(I"&amp;J13&amp;C13&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAccountAddWatchlistResult = interface</v>
       </c>
       <c r="I13" s="8" t="str">
-        <f>IF(C13="", "  "&amp;E13&amp;" = class(TInterfacedObject, "&amp;D13&amp;")", "  "&amp;E13&amp;" = class(T"&amp;J13&amp;C13&amp;", "&amp;D13&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAccountAddWatchlistResult = class(TInterfacedObject, ITMDBAccountAddWatchlistResult)</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -5941,27 +5944,27 @@
         <v>322</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f>"I"&amp;J14&amp;B14</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAccountStates</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f>"T"&amp;J14&amp;B14</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAccountStates</v>
       </c>
       <c r="F14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAccountStates = interface;</v>
       </c>
       <c r="G14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAccountStates = class;</v>
       </c>
       <c r="H14" s="8" t="str">
-        <f>IF(C14="", "  "&amp;D14&amp;" = interface", "  "&amp;D14&amp;" = interface(I"&amp;J14&amp;C14&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAccountStates = interface</v>
       </c>
       <c r="I14" s="8" t="str">
-        <f>IF(C14="", "  "&amp;E14&amp;" = class(TInterfacedObject, "&amp;D14&amp;")", "  "&amp;E14&amp;" = class(T"&amp;J14&amp;C14&amp;", "&amp;D14&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAccountStates = class(TInterfacedObject, ITMDBAccountStates)</v>
       </c>
       <c r="J14" s="8" t="s">
@@ -5976,27 +5979,27 @@
         <v>323</v>
       </c>
       <c r="D15" s="8" t="str">
-        <f>"I"&amp;J15&amp;B15</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAuthGuestSessionResult</v>
       </c>
       <c r="E15" s="8" t="str">
-        <f>"T"&amp;J15&amp;B15</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAuthGuestSessionResult</v>
       </c>
       <c r="F15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAuthGuestSessionResult = interface;</v>
       </c>
       <c r="G15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAuthGuestSessionResult = class;</v>
       </c>
       <c r="H15" s="8" t="str">
-        <f>IF(C15="", "  "&amp;D15&amp;" = interface", "  "&amp;D15&amp;" = interface(I"&amp;J15&amp;C15&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAuthGuestSessionResult = interface</v>
       </c>
       <c r="I15" s="8" t="str">
-        <f>IF(C15="", "  "&amp;E15&amp;" = class(TInterfacedObject, "&amp;D15&amp;")", "  "&amp;E15&amp;" = class(T"&amp;J15&amp;C15&amp;", "&amp;D15&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAuthGuestSessionResult = class(TInterfacedObject, ITMDBAuthGuestSessionResult)</v>
       </c>
       <c r="J15" s="8" t="s">
@@ -6011,27 +6014,27 @@
         <v>324</v>
       </c>
       <c r="D16" s="8" t="str">
-        <f>"I"&amp;J16&amp;B16</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAuthRequestTokenResult</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f>"T"&amp;J16&amp;B16</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAuthRequestTokenResult</v>
       </c>
       <c r="F16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAuthRequestTokenResult = interface;</v>
       </c>
       <c r="G16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAuthRequestTokenResult = class;</v>
       </c>
       <c r="H16" s="8" t="str">
-        <f>IF(C16="", "  "&amp;D16&amp;" = interface", "  "&amp;D16&amp;" = interface(I"&amp;J16&amp;C16&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAuthRequestTokenResult = interface</v>
       </c>
       <c r="I16" s="8" t="str">
-        <f>IF(C16="", "  "&amp;E16&amp;" = class(TInterfacedObject, "&amp;D16&amp;")", "  "&amp;E16&amp;" = class(T"&amp;J16&amp;C16&amp;", "&amp;D16&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAuthRequestTokenResult = class(TInterfacedObject, ITMDBAuthRequestTokenResult)</v>
       </c>
       <c r="J16" s="8" t="s">
@@ -6046,27 +6049,27 @@
         <v>325</v>
       </c>
       <c r="D17" s="8" t="str">
-        <f>"I"&amp;J17&amp;B17</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAuthSessionResult</v>
       </c>
       <c r="E17" s="8" t="str">
-        <f>"T"&amp;J17&amp;B17</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAuthSessionResult</v>
       </c>
       <c r="F17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAuthSessionResult = interface;</v>
       </c>
       <c r="G17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAuthSessionResult = class;</v>
       </c>
       <c r="H17" s="8" t="str">
-        <f>IF(C17="", "  "&amp;D17&amp;" = interface", "  "&amp;D17&amp;" = interface(I"&amp;J17&amp;C17&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAuthSessionResult = interface</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f>IF(C17="", "  "&amp;E17&amp;" = class(TInterfacedObject, "&amp;D17&amp;")", "  "&amp;E17&amp;" = class(T"&amp;J17&amp;C17&amp;", "&amp;D17&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAuthSessionResult = class(TInterfacedObject, ITMDBAuthSessionResult)</v>
       </c>
       <c r="J17" s="8" t="s">
@@ -6081,27 +6084,27 @@
         <v>326</v>
       </c>
       <c r="D18" s="8" t="str">
-        <f>"I"&amp;J18&amp;B18</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAuthSessionResultLogin</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f>"T"&amp;J18&amp;B18</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAuthSessionResultLogin</v>
       </c>
       <c r="F18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAuthSessionResultLogin = interface;</v>
       </c>
       <c r="G18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAuthSessionResultLogin = class;</v>
       </c>
       <c r="H18" s="8" t="str">
-        <f>IF(C18="", "  "&amp;D18&amp;" = interface", "  "&amp;D18&amp;" = interface(I"&amp;J18&amp;C18&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAuthSessionResultLogin = interface</v>
       </c>
       <c r="I18" s="8" t="str">
-        <f>IF(C18="", "  "&amp;E18&amp;" = class(TInterfacedObject, "&amp;D18&amp;")", "  "&amp;E18&amp;" = class(T"&amp;J18&amp;C18&amp;", "&amp;D18&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAuthSessionResultLogin = class(TInterfacedObject, ITMDBAuthSessionResultLogin)</v>
       </c>
       <c r="J18" s="8" t="s">
@@ -6116,27 +6119,27 @@
         <v>327</v>
       </c>
       <c r="D19" s="8" t="str">
-        <f>"I"&amp;J19&amp;B19</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAuthDeleteSessionResult</v>
       </c>
       <c r="E19" s="8" t="str">
-        <f>"T"&amp;J19&amp;B19</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAuthDeleteSessionResult</v>
       </c>
       <c r="F19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAuthDeleteSessionResult = interface;</v>
       </c>
       <c r="G19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAuthDeleteSessionResult = class;</v>
       </c>
       <c r="H19" s="8" t="str">
-        <f>IF(C19="", "  "&amp;D19&amp;" = interface", "  "&amp;D19&amp;" = interface(I"&amp;J19&amp;C19&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAuthDeleteSessionResult = interface</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f>IF(C19="", "  "&amp;E19&amp;" = class(TInterfacedObject, "&amp;D19&amp;")", "  "&amp;E19&amp;" = class(T"&amp;J19&amp;C19&amp;", "&amp;D19&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAuthDeleteSessionResult = class(TInterfacedObject, ITMDBAuthDeleteSessionResult)</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -6151,27 +6154,27 @@
         <v>328</v>
       </c>
       <c r="D20" s="8" t="str">
-        <f>"I"&amp;J20&amp;B20</f>
+        <f t="shared" si="0"/>
         <v>ITMDBAuthValidateKeyResult</v>
       </c>
       <c r="E20" s="8" t="str">
-        <f>"T"&amp;J20&amp;B20</f>
+        <f t="shared" si="1"/>
         <v>TTMDBAuthValidateKeyResult</v>
       </c>
       <c r="F20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBAuthValidateKeyResult = interface;</v>
       </c>
       <c r="G20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBAuthValidateKeyResult = class;</v>
       </c>
       <c r="H20" s="8" t="str">
-        <f>IF(C20="", "  "&amp;D20&amp;" = interface", "  "&amp;D20&amp;" = interface(I"&amp;J20&amp;C20&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBAuthValidateKeyResult = interface</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f>IF(C20="", "  "&amp;E20&amp;" = class(TInterfacedObject, "&amp;D20&amp;")", "  "&amp;E20&amp;" = class(T"&amp;J20&amp;C20&amp;", "&amp;D20&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBAuthValidateKeyResult = class(TInterfacedObject, ITMDBAuthValidateKeyResult)</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -6186,27 +6189,27 @@
         <v>329</v>
       </c>
       <c r="D21" s="8" t="str">
-        <f>"I"&amp;J21&amp;B21</f>
+        <f t="shared" si="0"/>
         <v>ITMDBCertification</v>
       </c>
       <c r="E21" s="8" t="str">
-        <f>"T"&amp;J21&amp;B21</f>
+        <f t="shared" si="1"/>
         <v>TTMDBCertification</v>
       </c>
       <c r="F21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCertification = interface;</v>
       </c>
       <c r="G21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCertification = class;</v>
       </c>
       <c r="H21" s="8" t="str">
-        <f>IF(C21="", "  "&amp;D21&amp;" = interface", "  "&amp;D21&amp;" = interface(I"&amp;J21&amp;C21&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBCertification = interface</v>
       </c>
       <c r="I21" s="8" t="str">
-        <f>IF(C21="", "  "&amp;E21&amp;" = class(TInterfacedObject, "&amp;D21&amp;")", "  "&amp;E21&amp;" = class(T"&amp;J21&amp;C21&amp;", "&amp;D21&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBCertification = class(TInterfacedObject, ITMDBCertification)</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -6221,27 +6224,27 @@
         <v>331</v>
       </c>
       <c r="D22" s="8" t="str">
-        <f>"I"&amp;J22&amp;B22</f>
+        <f t="shared" si="0"/>
         <v>ITMDBCertificationCountry</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f>"T"&amp;J22&amp;B22</f>
+        <f t="shared" si="1"/>
         <v>TTMDBCertificationCountry</v>
       </c>
       <c r="F22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCertificationCountry = interface;</v>
       </c>
       <c r="G22" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCertificationCountry = class;</v>
       </c>
       <c r="H22" s="8" t="str">
-        <f>IF(C22="", "  "&amp;D22&amp;" = interface", "  "&amp;D22&amp;" = interface(I"&amp;J22&amp;C22&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBCertificationCountry = interface</v>
       </c>
       <c r="I22" s="8" t="str">
-        <f>IF(C22="", "  "&amp;E22&amp;" = class(TInterfacedObject, "&amp;D22&amp;")", "  "&amp;E22&amp;" = class(T"&amp;J22&amp;C22&amp;", "&amp;D22&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBCertificationCountry = class(TInterfacedObject, ITMDBCertificationCountry)</v>
       </c>
       <c r="J22" s="8" t="s">
@@ -6256,27 +6259,27 @@
         <v>330</v>
       </c>
       <c r="D23" s="8" t="str">
-        <f>"I"&amp;J23&amp;B23</f>
+        <f t="shared" si="0"/>
         <v>ITMDBCertificationCountries</v>
       </c>
       <c r="E23" s="8" t="str">
-        <f>"T"&amp;J23&amp;B23</f>
+        <f t="shared" si="1"/>
         <v>TTMDBCertificationCountries</v>
       </c>
       <c r="F23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCertificationCountries = interface;</v>
       </c>
       <c r="G23" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCertificationCountries = class;</v>
       </c>
       <c r="H23" s="8" t="str">
-        <f>IF(C23="", "  "&amp;D23&amp;" = interface", "  "&amp;D23&amp;" = interface(I"&amp;J23&amp;C23&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBCertificationCountries = interface</v>
       </c>
       <c r="I23" s="8" t="str">
-        <f>IF(C23="", "  "&amp;E23&amp;" = class(TInterfacedObject, "&amp;D23&amp;")", "  "&amp;E23&amp;" = class(T"&amp;J23&amp;C23&amp;", "&amp;D23&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBCertificationCountries = class(TInterfacedObject, ITMDBCertificationCountries)</v>
       </c>
       <c r="J23" s="8" t="s">
@@ -6291,27 +6294,27 @@
         <v>332</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f>"I"&amp;J24&amp;B24</f>
+        <f t="shared" si="0"/>
         <v>ITMDBReleaseDate</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f>"T"&amp;J24&amp;B24</f>
+        <f t="shared" si="1"/>
         <v>TTMDBReleaseDate</v>
       </c>
       <c r="F24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBReleaseDate = interface;</v>
       </c>
       <c r="G24" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBReleaseDate = class;</v>
       </c>
       <c r="H24" s="8" t="str">
-        <f>IF(C24="", "  "&amp;D24&amp;" = interface", "  "&amp;D24&amp;" = interface(I"&amp;J24&amp;C24&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBReleaseDate = interface</v>
       </c>
       <c r="I24" s="8" t="str">
-        <f>IF(C24="", "  "&amp;E24&amp;" = class(TInterfacedObject, "&amp;D24&amp;")", "  "&amp;E24&amp;" = class(T"&amp;J24&amp;C24&amp;", "&amp;D24&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBReleaseDate = class(TInterfacedObject, ITMDBReleaseDate)</v>
       </c>
       <c r="J24" s="8" t="s">
@@ -6326,27 +6329,27 @@
         <v>333</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f>"I"&amp;J25&amp;B25</f>
+        <f t="shared" si="0"/>
         <v>ITMDBReleaseDateCountry</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f>"T"&amp;J25&amp;B25</f>
+        <f t="shared" si="1"/>
         <v>TTMDBReleaseDateCountry</v>
       </c>
       <c r="F25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBReleaseDateCountry = interface;</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBReleaseDateCountry = class;</v>
       </c>
       <c r="H25" s="8" t="str">
-        <f>IF(C25="", "  "&amp;D25&amp;" = interface", "  "&amp;D25&amp;" = interface(I"&amp;J25&amp;C25&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBReleaseDateCountry = interface</v>
       </c>
       <c r="I25" s="8" t="str">
-        <f>IF(C25="", "  "&amp;E25&amp;" = class(TInterfacedObject, "&amp;D25&amp;")", "  "&amp;E25&amp;" = class(T"&amp;J25&amp;C25&amp;", "&amp;D25&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBReleaseDateCountry = class(TInterfacedObject, ITMDBReleaseDateCountry)</v>
       </c>
       <c r="J25" s="8" t="s">
@@ -6361,27 +6364,27 @@
         <v>334</v>
       </c>
       <c r="D26" s="8" t="str">
-        <f>"I"&amp;J26&amp;B26</f>
+        <f t="shared" si="0"/>
         <v>ITMDBReleaseDateCountries</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f>"T"&amp;J26&amp;B26</f>
+        <f t="shared" si="1"/>
         <v>TTMDBReleaseDateCountries</v>
       </c>
       <c r="F26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBReleaseDateCountries = interface;</v>
       </c>
       <c r="G26" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBReleaseDateCountries = class;</v>
       </c>
       <c r="H26" s="8" t="str">
-        <f>IF(C26="", "  "&amp;D26&amp;" = interface", "  "&amp;D26&amp;" = interface(I"&amp;J26&amp;C26&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBReleaseDateCountries = interface</v>
       </c>
       <c r="I26" s="8" t="str">
-        <f>IF(C26="", "  "&amp;E26&amp;" = class(TInterfacedObject, "&amp;D26&amp;")", "  "&amp;E26&amp;" = class(T"&amp;J26&amp;C26&amp;", "&amp;D26&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBReleaseDateCountries = class(TInterfacedObject, ITMDBReleaseDateCountries)</v>
       </c>
       <c r="J26" s="8" t="s">
@@ -6396,27 +6399,27 @@
         <v>346</v>
       </c>
       <c r="D27" s="8" t="str">
-        <f>"I"&amp;J27&amp;B27</f>
+        <f t="shared" si="0"/>
         <v>ITMDBChangeValue</v>
       </c>
       <c r="E27" s="8" t="str">
-        <f>"T"&amp;J27&amp;B27</f>
+        <f t="shared" si="1"/>
         <v>TTMDBChangeValue</v>
       </c>
       <c r="F27" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBChangeValue = interface;</v>
       </c>
       <c r="G27" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBChangeValue = class;</v>
       </c>
       <c r="H27" s="8" t="str">
-        <f>IF(C27="", "  "&amp;D27&amp;" = interface", "  "&amp;D27&amp;" = interface(I"&amp;J27&amp;C27&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBChangeValue = interface</v>
       </c>
       <c r="I27" s="8" t="str">
-        <f>IF(C27="", "  "&amp;E27&amp;" = class(TInterfacedObject, "&amp;D27&amp;")", "  "&amp;E27&amp;" = class(T"&amp;J27&amp;C27&amp;", "&amp;D27&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBChangeValue = class(TInterfacedObject, ITMDBChangeValue)</v>
       </c>
       <c r="J27" s="8" t="s">
@@ -6431,27 +6434,27 @@
         <v>347</v>
       </c>
       <c r="D28" s="8" t="str">
-        <f>"I"&amp;J28&amp;B28</f>
+        <f t="shared" si="0"/>
         <v>ITMDBChangeRecord</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f>"T"&amp;J28&amp;B28</f>
+        <f t="shared" si="1"/>
         <v>TTMDBChangeRecord</v>
       </c>
       <c r="F28" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBChangeRecord = interface;</v>
       </c>
       <c r="G28" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBChangeRecord = class;</v>
       </c>
       <c r="H28" s="8" t="str">
-        <f>IF(C28="", "  "&amp;D28&amp;" = interface", "  "&amp;D28&amp;" = interface(I"&amp;J28&amp;C28&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBChangeRecord = interface</v>
       </c>
       <c r="I28" s="8" t="str">
-        <f>IF(C28="", "  "&amp;E28&amp;" = class(TInterfacedObject, "&amp;D28&amp;")", "  "&amp;E28&amp;" = class(T"&amp;J28&amp;C28&amp;", "&amp;D28&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBChangeRecord = class(TInterfacedObject, ITMDBChangeRecord)</v>
       </c>
       <c r="J28" s="8" t="s">
@@ -6469,27 +6472,27 @@
         <v>309</v>
       </c>
       <c r="D29" s="8" t="str">
-        <f>"I"&amp;J29&amp;B29</f>
+        <f t="shared" si="0"/>
         <v>ITMDBChange</v>
       </c>
       <c r="E29" s="8" t="str">
-        <f>"T"&amp;J29&amp;B29</f>
+        <f t="shared" si="1"/>
         <v>TTMDBChange</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBChange = interface;</v>
       </c>
       <c r="G29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBChange = class;</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f>IF(C29="", "  "&amp;D29&amp;" = interface", "  "&amp;D29&amp;" = interface(I"&amp;J29&amp;C29&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBChange = interface(ITMDBItem)</v>
       </c>
       <c r="I29" s="8" t="str">
-        <f>IF(C29="", "  "&amp;E29&amp;" = class(TInterfacedObject, "&amp;D29&amp;")", "  "&amp;E29&amp;" = class(T"&amp;J29&amp;C29&amp;", "&amp;D29&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBChange = class(TTMDBItem, ITMDBChange)</v>
       </c>
       <c r="J29" s="8" t="s">
@@ -6507,27 +6510,27 @@
         <v>310</v>
       </c>
       <c r="D30" s="8" t="str">
-        <f>"I"&amp;J30&amp;B30</f>
+        <f t="shared" si="0"/>
         <v>ITMDBChanges</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f>"T"&amp;J30&amp;B30</f>
+        <f t="shared" si="1"/>
         <v>TTMDBChanges</v>
       </c>
       <c r="F30" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBChanges = interface;</v>
       </c>
       <c r="G30" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBChanges = class;</v>
       </c>
       <c r="H30" s="8" t="str">
-        <f>IF(C30="", "  "&amp;D30&amp;" = interface", "  "&amp;D30&amp;" = interface(I"&amp;J30&amp;C30&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBChanges = interface(ITMDBItems)</v>
       </c>
       <c r="I30" s="8" t="str">
-        <f>IF(C30="", "  "&amp;E30&amp;" = class(TInterfacedObject, "&amp;D30&amp;")", "  "&amp;E30&amp;" = class(T"&amp;J30&amp;C30&amp;", "&amp;D30&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBChanges = class(TTMDBItems, ITMDBChanges)</v>
       </c>
       <c r="J30" s="8" t="s">
@@ -6545,27 +6548,27 @@
         <v>313</v>
       </c>
       <c r="D31" s="8" t="str">
-        <f>"I"&amp;J31&amp;B31</f>
+        <f t="shared" si="0"/>
         <v>ITMDBChangePage</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f>"T"&amp;J31&amp;B31</f>
+        <f t="shared" si="1"/>
         <v>TTMDBChangePage</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBChangePage = interface;</v>
       </c>
       <c r="G31" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBChangePage = class;</v>
       </c>
       <c r="H31" s="8" t="str">
-        <f>IF(C31="", "  "&amp;D31&amp;" = interface", "  "&amp;D31&amp;" = interface(I"&amp;J31&amp;C31&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBChangePage = interface(ITMDBPage)</v>
       </c>
       <c r="I31" s="8" t="str">
-        <f>IF(C31="", "  "&amp;E31&amp;" = class(TInterfacedObject, "&amp;D31&amp;")", "  "&amp;E31&amp;" = class(T"&amp;J31&amp;C31&amp;", "&amp;D31&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBChangePage = class(TTMDBPage, ITMDBChangePage)</v>
       </c>
       <c r="J31" s="8" t="s">
@@ -6583,27 +6586,27 @@
         <v>171</v>
       </c>
       <c r="D32" s="8" t="str">
-        <f>"I"&amp;J32&amp;B32</f>
+        <f t="shared" si="0"/>
         <v>ITMDBChangeDetail</v>
       </c>
       <c r="E32" s="8" t="str">
-        <f>"T"&amp;J32&amp;B32</f>
+        <f t="shared" si="1"/>
         <v>TTMDBChangeDetail</v>
       </c>
       <c r="F32" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBChangeDetail = interface;</v>
       </c>
       <c r="G32" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBChangeDetail = class;</v>
       </c>
       <c r="H32" s="8" t="str">
-        <f>IF(C32="", "  "&amp;D32&amp;" = interface", "  "&amp;D32&amp;" = interface(I"&amp;J32&amp;C32&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBChangeDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I32" s="8" t="str">
-        <f>IF(C32="", "  "&amp;E32&amp;" = class(TInterfacedObject, "&amp;D32&amp;")", "  "&amp;E32&amp;" = class(T"&amp;J32&amp;C32&amp;", "&amp;D32&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBChangeDetail = class(TTMDBDetail, ITMDBChangeDetail)</v>
       </c>
       <c r="J32" s="8" t="s">
@@ -6618,27 +6621,27 @@
         <v>338</v>
       </c>
       <c r="D33" s="8" t="str">
-        <f>"I"&amp;J33&amp;B33</f>
+        <f t="shared" si="0"/>
         <v>ITMDBTranslationData</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f>"T"&amp;J33&amp;B33</f>
+        <f t="shared" si="1"/>
         <v>TTMDBTranslationData</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBTranslationData = interface;</v>
       </c>
       <c r="G33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBTranslationData = class;</v>
       </c>
       <c r="H33" s="8" t="str">
-        <f>IF(C33="", "  "&amp;D33&amp;" = interface", "  "&amp;D33&amp;" = interface(I"&amp;J33&amp;C33&amp;")")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">  ITMDBTranslationData = interface</v>
       </c>
       <c r="I33" s="8" t="str">
-        <f>IF(C33="", "  "&amp;E33&amp;" = class(TInterfacedObject, "&amp;D33&amp;")", "  "&amp;E33&amp;" = class(T"&amp;J33&amp;C33&amp;", "&amp;D33&amp;")")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">  TTMDBTranslationData = class(TInterfacedObject, ITMDBTranslationData)</v>
       </c>
       <c r="J33" s="8" t="s">
@@ -6656,27 +6659,27 @@
         <v>338</v>
       </c>
       <c r="D34" s="8" t="str">
-        <f>"I"&amp;J34&amp;B34</f>
+        <f t="shared" ref="D34:D65" si="6">"I"&amp;J34&amp;B34</f>
         <v>ITMDBMovieTranslationData</v>
       </c>
       <c r="E34" s="8" t="str">
-        <f>"T"&amp;J34&amp;B34</f>
+        <f t="shared" ref="E34:E65" si="7">"T"&amp;J34&amp;B34</f>
         <v>TTMDBMovieTranslationData</v>
       </c>
       <c r="F34" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBMovieTranslationData = interface;</v>
       </c>
       <c r="G34" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBMovieTranslationData = class;</v>
       </c>
       <c r="H34" s="8" t="str">
-        <f>IF(C34="", "  "&amp;D34&amp;" = interface", "  "&amp;D34&amp;" = interface(I"&amp;J34&amp;C34&amp;")")</f>
+        <f t="shared" ref="H34:H65" si="8">IF(C34="", "  "&amp;D34&amp;" = interface", "  "&amp;D34&amp;" = interface(I"&amp;J34&amp;C34&amp;")")</f>
         <v xml:space="preserve">  ITMDBMovieTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="I34" s="8" t="str">
-        <f>IF(C34="", "  "&amp;E34&amp;" = class(TInterfacedObject, "&amp;D34&amp;")", "  "&amp;E34&amp;" = class(T"&amp;J34&amp;C34&amp;", "&amp;D34&amp;")")</f>
+        <f t="shared" ref="I34:I65" si="9">IF(C34="", "  "&amp;E34&amp;" = class(TInterfacedObject, "&amp;D34&amp;")", "  "&amp;E34&amp;" = class(T"&amp;J34&amp;C34&amp;", "&amp;D34&amp;")")</f>
         <v xml:space="preserve">  TTMDBMovieTranslationData = class(TTMDBTranslationData, ITMDBMovieTranslationData)</v>
       </c>
       <c r="J34" s="8" t="s">
@@ -6694,27 +6697,27 @@
         <v>338</v>
       </c>
       <c r="D35" s="8" t="str">
-        <f>"I"&amp;J35&amp;B35</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCollectionTranslationData</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f>"T"&amp;J35&amp;B35</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCollectionTranslationData</v>
       </c>
       <c r="F35" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCollectionTranslationData = interface;</v>
       </c>
       <c r="G35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCollectionTranslationData = class;</v>
       </c>
       <c r="H35" s="8" t="str">
-        <f>IF(C35="", "  "&amp;D35&amp;" = interface", "  "&amp;D35&amp;" = interface(I"&amp;J35&amp;C35&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCollectionTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="I35" s="8" t="str">
-        <f>IF(C35="", "  "&amp;E35&amp;" = class(TInterfacedObject, "&amp;D35&amp;")", "  "&amp;E35&amp;" = class(T"&amp;J35&amp;C35&amp;", "&amp;D35&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCollectionTranslationData = class(TTMDBTranslationData, ITMDBCollectionTranslationData)</v>
       </c>
       <c r="J35" s="8" t="s">
@@ -6732,27 +6735,27 @@
         <v>338</v>
       </c>
       <c r="D36" s="8" t="str">
-        <f>"I"&amp;J36&amp;B36</f>
+        <f t="shared" si="6"/>
         <v>ITMDBPersonTranslationData</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f>"T"&amp;J36&amp;B36</f>
+        <f t="shared" si="7"/>
         <v>TTMDBPersonTranslationData</v>
       </c>
       <c r="F36" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBPersonTranslationData = interface;</v>
       </c>
       <c r="G36" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBPersonTranslationData = class;</v>
       </c>
       <c r="H36" s="8" t="str">
-        <f>IF(C36="", "  "&amp;D36&amp;" = interface", "  "&amp;D36&amp;" = interface(I"&amp;J36&amp;C36&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBPersonTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="I36" s="8" t="str">
-        <f>IF(C36="", "  "&amp;E36&amp;" = class(TInterfacedObject, "&amp;D36&amp;")", "  "&amp;E36&amp;" = class(T"&amp;J36&amp;C36&amp;", "&amp;D36&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBPersonTranslationData = class(TTMDBTranslationData, ITMDBPersonTranslationData)</v>
       </c>
       <c r="J36" s="8" t="s">
@@ -6770,27 +6773,27 @@
         <v>338</v>
       </c>
       <c r="D37" s="8" t="str">
-        <f>"I"&amp;J37&amp;B37</f>
+        <f t="shared" si="6"/>
         <v>ITMDBTVSeriesTranslationData</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f>"T"&amp;J37&amp;B37</f>
+        <f t="shared" si="7"/>
         <v>TTMDBTVSeriesTranslationData</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBTVSeriesTranslationData = interface;</v>
       </c>
       <c r="G37" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBTVSeriesTranslationData = class;</v>
       </c>
       <c r="H37" s="8" t="str">
-        <f>IF(C37="", "  "&amp;D37&amp;" = interface", "  "&amp;D37&amp;" = interface(I"&amp;J37&amp;C37&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBTVSeriesTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f>IF(C37="", "  "&amp;E37&amp;" = class(TInterfacedObject, "&amp;D37&amp;")", "  "&amp;E37&amp;" = class(T"&amp;J37&amp;C37&amp;", "&amp;D37&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBTVSeriesTranslationData = class(TTMDBTranslationData, ITMDBTVSeriesTranslationData)</v>
       </c>
       <c r="J37" s="8" t="s">
@@ -6808,27 +6811,27 @@
         <v>338</v>
       </c>
       <c r="D38" s="8" t="str">
-        <f>"I"&amp;J38&amp;B38</f>
+        <f t="shared" si="6"/>
         <v>ITMDBTVSeasonTranslationData</v>
       </c>
       <c r="E38" s="8" t="str">
-        <f>"T"&amp;J38&amp;B38</f>
+        <f t="shared" si="7"/>
         <v>TTMDBTVSeasonTranslationData</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBTVSeasonTranslationData = interface;</v>
       </c>
       <c r="G38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBTVSeasonTranslationData = class;</v>
       </c>
       <c r="H38" s="8" t="str">
-        <f>IF(C38="", "  "&amp;D38&amp;" = interface", "  "&amp;D38&amp;" = interface(I"&amp;J38&amp;C38&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBTVSeasonTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="I38" s="8" t="str">
-        <f>IF(C38="", "  "&amp;E38&amp;" = class(TInterfacedObject, "&amp;D38&amp;")", "  "&amp;E38&amp;" = class(T"&amp;J38&amp;C38&amp;", "&amp;D38&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBTVSeasonTranslationData = class(TTMDBTranslationData, ITMDBTVSeasonTranslationData)</v>
       </c>
       <c r="J38" s="8" t="s">
@@ -6846,27 +6849,27 @@
         <v>338</v>
       </c>
       <c r="D39" s="8" t="str">
-        <f>"I"&amp;J39&amp;B39</f>
+        <f t="shared" si="6"/>
         <v>ITMDBTVEpisodeTranslationData</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f>"T"&amp;J39&amp;B39</f>
+        <f t="shared" si="7"/>
         <v>TTMDBTVEpisodeTranslationData</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBTVEpisodeTranslationData = interface;</v>
       </c>
       <c r="G39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBTVEpisodeTranslationData = class;</v>
       </c>
       <c r="H39" s="8" t="str">
-        <f>IF(C39="", "  "&amp;D39&amp;" = interface", "  "&amp;D39&amp;" = interface(I"&amp;J39&amp;C39&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBTVEpisodeTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="I39" s="8" t="str">
-        <f>IF(C39="", "  "&amp;E39&amp;" = class(TInterfacedObject, "&amp;D39&amp;")", "  "&amp;E39&amp;" = class(T"&amp;J39&amp;C39&amp;", "&amp;D39&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBTVEpisodeTranslationData = class(TTMDBTranslationData, ITMDBTVEpisodeTranslationData)</v>
       </c>
       <c r="J39" s="8" t="s">
@@ -6884,27 +6887,27 @@
         <v>309</v>
       </c>
       <c r="D40" s="8" t="str">
-        <f>"I"&amp;J40&amp;B40</f>
+        <f t="shared" si="6"/>
         <v>ITMDBTranslation</v>
       </c>
       <c r="E40" s="8" t="str">
-        <f>"T"&amp;J40&amp;B40</f>
+        <f t="shared" si="7"/>
         <v>TTMDBTranslation</v>
       </c>
       <c r="F40" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBTranslation = interface;</v>
       </c>
       <c r="G40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBTranslation = class;</v>
       </c>
       <c r="H40" s="8" t="str">
-        <f>IF(C40="", "  "&amp;D40&amp;" = interface", "  "&amp;D40&amp;" = interface(I"&amp;J40&amp;C40&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBTranslation = interface(ITMDBItem)</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f>IF(C40="", "  "&amp;E40&amp;" = class(TInterfacedObject, "&amp;D40&amp;")", "  "&amp;E40&amp;" = class(T"&amp;J40&amp;C40&amp;", "&amp;D40&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBTranslation = class(TTMDBItem, ITMDBTranslation)</v>
       </c>
       <c r="J40" s="8" t="s">
@@ -6922,27 +6925,27 @@
         <v>310</v>
       </c>
       <c r="D41" s="8" t="str">
-        <f>"I"&amp;J41&amp;B41</f>
+        <f t="shared" si="6"/>
         <v>ITMDBTranslations</v>
       </c>
       <c r="E41" s="8" t="str">
-        <f>"T"&amp;J41&amp;B41</f>
+        <f t="shared" si="7"/>
         <v>TTMDBTranslations</v>
       </c>
       <c r="F41" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBTranslations = interface;</v>
       </c>
       <c r="G41" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBTranslations = class;</v>
       </c>
       <c r="H41" s="8" t="str">
-        <f>IF(C41="", "  "&amp;D41&amp;" = interface", "  "&amp;D41&amp;" = interface(I"&amp;J41&amp;C41&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBTranslations = interface(ITMDBItems)</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f>IF(C41="", "  "&amp;E41&amp;" = class(TInterfacedObject, "&amp;D41&amp;")", "  "&amp;E41&amp;" = class(T"&amp;J41&amp;C41&amp;", "&amp;D41&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBTranslations = class(TTMDBItems, ITMDBTranslations)</v>
       </c>
       <c r="J41" s="8" t="s">
@@ -6960,27 +6963,27 @@
         <v>309</v>
       </c>
       <c r="D42" s="8" t="str">
-        <f>"I"&amp;J42&amp;B42</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCollection</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f>"T"&amp;J42&amp;B42</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCollection</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCollection = interface;</v>
       </c>
       <c r="G42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCollection = class;</v>
       </c>
       <c r="H42" s="8" t="str">
-        <f>IF(C42="", "  "&amp;D42&amp;" = interface", "  "&amp;D42&amp;" = interface(I"&amp;J42&amp;C42&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCollection = interface(ITMDBItem)</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f>IF(C42="", "  "&amp;E42&amp;" = class(TInterfacedObject, "&amp;D42&amp;")", "  "&amp;E42&amp;" = class(T"&amp;J42&amp;C42&amp;", "&amp;D42&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCollection = class(TTMDBItem, ITMDBCollection)</v>
       </c>
       <c r="J42" s="8" t="s">
@@ -6998,27 +7001,27 @@
         <v>310</v>
       </c>
       <c r="D43" s="8" t="str">
-        <f>"I"&amp;J43&amp;B43</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCollections</v>
       </c>
       <c r="E43" s="8" t="str">
-        <f>"T"&amp;J43&amp;B43</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCollections</v>
       </c>
       <c r="F43" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCollections = interface;</v>
       </c>
       <c r="G43" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCollections = class;</v>
       </c>
       <c r="H43" s="8" t="str">
-        <f>IF(C43="", "  "&amp;D43&amp;" = interface", "  "&amp;D43&amp;" = interface(I"&amp;J43&amp;C43&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCollections = interface(ITMDBItems)</v>
       </c>
       <c r="I43" s="8" t="str">
-        <f>IF(C43="", "  "&amp;E43&amp;" = class(TInterfacedObject, "&amp;D43&amp;")", "  "&amp;E43&amp;" = class(T"&amp;J43&amp;C43&amp;", "&amp;D43&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCollections = class(TTMDBItems, ITMDBCollections)</v>
       </c>
       <c r="J43" s="8" t="s">
@@ -7036,27 +7039,27 @@
         <v>313</v>
       </c>
       <c r="D44" s="8" t="str">
-        <f>"I"&amp;J44&amp;B44</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCollectionPage</v>
       </c>
       <c r="E44" s="8" t="str">
-        <f>"T"&amp;J44&amp;B44</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCollectionPage</v>
       </c>
       <c r="F44" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCollectionPage = interface;</v>
       </c>
       <c r="G44" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCollectionPage = class;</v>
       </c>
       <c r="H44" s="8" t="str">
-        <f>IF(C44="", "  "&amp;D44&amp;" = interface", "  "&amp;D44&amp;" = interface(I"&amp;J44&amp;C44&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCollectionPage = interface(ITMDBPage)</v>
       </c>
       <c r="I44" s="8" t="str">
-        <f>IF(C44="", "  "&amp;E44&amp;" = class(TInterfacedObject, "&amp;D44&amp;")", "  "&amp;E44&amp;" = class(T"&amp;J44&amp;C44&amp;", "&amp;D44&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCollectionPage = class(TTMDBPage, ITMDBCollectionPage)</v>
       </c>
       <c r="J44" s="8" t="s">
@@ -7071,27 +7074,27 @@
         <v>350</v>
       </c>
       <c r="D45" s="8" t="str">
-        <f>"I"&amp;J45&amp;B45</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCollectionPart</v>
       </c>
       <c r="E45" s="8" t="str">
-        <f>"T"&amp;J45&amp;B45</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCollectionPart</v>
       </c>
       <c r="F45" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCollectionPart = interface;</v>
       </c>
       <c r="G45" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCollectionPart = class;</v>
       </c>
       <c r="H45" s="8" t="str">
-        <f>IF(C45="", "  "&amp;D45&amp;" = interface", "  "&amp;D45&amp;" = interface(I"&amp;J45&amp;C45&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCollectionPart = interface</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f>IF(C45="", "  "&amp;E45&amp;" = class(TInterfacedObject, "&amp;D45&amp;")", "  "&amp;E45&amp;" = class(T"&amp;J45&amp;C45&amp;", "&amp;D45&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCollectionPart = class(TInterfacedObject, ITMDBCollectionPart)</v>
       </c>
       <c r="J45" s="8" t="s">
@@ -7109,27 +7112,27 @@
         <v>171</v>
       </c>
       <c r="D46" s="8" t="str">
-        <f>"I"&amp;J46&amp;B46</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCollectionDetail</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f>"T"&amp;J46&amp;B46</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCollectionDetail</v>
       </c>
       <c r="F46" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCollectionDetail = interface;</v>
       </c>
       <c r="G46" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCollectionDetail = class;</v>
       </c>
       <c r="H46" s="8" t="str">
-        <f>IF(C46="", "  "&amp;D46&amp;" = interface", "  "&amp;D46&amp;" = interface(I"&amp;J46&amp;C46&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCollectionDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I46" s="8" t="str">
-        <f>IF(C46="", "  "&amp;E46&amp;" = class(TInterfacedObject, "&amp;D46&amp;")", "  "&amp;E46&amp;" = class(T"&amp;J46&amp;C46&amp;", "&amp;D46&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCollectionDetail = class(TTMDBDetail, ITMDBCollectionDetail)</v>
       </c>
       <c r="J46" s="8" t="s">
@@ -7147,27 +7150,27 @@
         <v>309</v>
       </c>
       <c r="D47" s="8" t="str">
-        <f>"I"&amp;J47&amp;B47</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCompany</v>
       </c>
       <c r="E47" s="8" t="str">
-        <f>"T"&amp;J47&amp;B47</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCompany</v>
       </c>
       <c r="F47" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCompany = interface;</v>
       </c>
       <c r="G47" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCompany = class;</v>
       </c>
       <c r="H47" s="8" t="str">
-        <f>IF(C47="", "  "&amp;D47&amp;" = interface", "  "&amp;D47&amp;" = interface(I"&amp;J47&amp;C47&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCompany = interface(ITMDBItem)</v>
       </c>
       <c r="I47" s="8" t="str">
-        <f>IF(C47="", "  "&amp;E47&amp;" = class(TInterfacedObject, "&amp;D47&amp;")", "  "&amp;E47&amp;" = class(T"&amp;J47&amp;C47&amp;", "&amp;D47&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCompany = class(TTMDBItem, ITMDBCompany)</v>
       </c>
       <c r="J47" s="8" t="s">
@@ -7185,27 +7188,27 @@
         <v>310</v>
       </c>
       <c r="D48" s="8" t="str">
-        <f>"I"&amp;J48&amp;B48</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCompanies</v>
       </c>
       <c r="E48" s="8" t="str">
-        <f>"T"&amp;J48&amp;B48</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCompanies</v>
       </c>
       <c r="F48" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCompanies = interface;</v>
       </c>
       <c r="G48" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCompanies = class;</v>
       </c>
       <c r="H48" s="8" t="str">
-        <f>IF(C48="", "  "&amp;D48&amp;" = interface", "  "&amp;D48&amp;" = interface(I"&amp;J48&amp;C48&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCompanies = interface(ITMDBItems)</v>
       </c>
       <c r="I48" s="8" t="str">
-        <f>IF(C48="", "  "&amp;E48&amp;" = class(TInterfacedObject, "&amp;D48&amp;")", "  "&amp;E48&amp;" = class(T"&amp;J48&amp;C48&amp;", "&amp;D48&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCompanies = class(TTMDBItems, ITMDBCompanies)</v>
       </c>
       <c r="J48" s="8" t="s">
@@ -7223,27 +7226,27 @@
         <v>313</v>
       </c>
       <c r="D49" s="8" t="str">
-        <f>"I"&amp;J49&amp;B49</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCompanyPage</v>
       </c>
       <c r="E49" s="8" t="str">
-        <f>"T"&amp;J49&amp;B49</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCompanyPage</v>
       </c>
       <c r="F49" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCompanyPage = interface;</v>
       </c>
       <c r="G49" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCompanyPage = class;</v>
       </c>
       <c r="H49" s="8" t="str">
-        <f>IF(C49="", "  "&amp;D49&amp;" = interface", "  "&amp;D49&amp;" = interface(I"&amp;J49&amp;C49&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCompanyPage = interface(ITMDBPage)</v>
       </c>
       <c r="I49" s="8" t="str">
-        <f>IF(C49="", "  "&amp;E49&amp;" = class(TInterfacedObject, "&amp;D49&amp;")", "  "&amp;E49&amp;" = class(T"&amp;J49&amp;C49&amp;", "&amp;D49&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCompanyPage = class(TTMDBPage, ITMDBCompanyPage)</v>
       </c>
       <c r="J49" s="8" t="s">
@@ -7261,27 +7264,27 @@
         <v>171</v>
       </c>
       <c r="D50" s="8" t="str">
-        <f>"I"&amp;J50&amp;B50</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCompanyDetail</v>
       </c>
       <c r="E50" s="8" t="str">
-        <f>"T"&amp;J50&amp;B50</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCompanyDetail</v>
       </c>
       <c r="F50" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCompanyDetail = interface;</v>
       </c>
       <c r="G50" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCompanyDetail = class;</v>
       </c>
       <c r="H50" s="8" t="str">
-        <f>IF(C50="", "  "&amp;D50&amp;" = interface", "  "&amp;D50&amp;" = interface(I"&amp;J50&amp;C50&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCompanyDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I50" s="8" t="str">
-        <f>IF(C50="", "  "&amp;E50&amp;" = class(TInterfacedObject, "&amp;D50&amp;")", "  "&amp;E50&amp;" = class(T"&amp;J50&amp;C50&amp;", "&amp;D50&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCompanyDetail = class(TTMDBDetail, ITMDBCompanyDetail)</v>
       </c>
       <c r="J50" s="8" t="s">
@@ -7296,27 +7299,27 @@
         <v>353</v>
       </c>
       <c r="D51" s="8" t="str">
-        <f>"I"&amp;J51&amp;B51</f>
+        <f t="shared" si="6"/>
         <v>ITMDBConfigurationImages</v>
       </c>
       <c r="E51" s="8" t="str">
-        <f>"T"&amp;J51&amp;B51</f>
+        <f t="shared" si="7"/>
         <v>TTMDBConfigurationImages</v>
       </c>
       <c r="F51" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBConfigurationImages = interface;</v>
       </c>
       <c r="G51" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBConfigurationImages = class;</v>
       </c>
       <c r="H51" s="8" t="str">
-        <f>IF(C51="", "  "&amp;D51&amp;" = interface", "  "&amp;D51&amp;" = interface(I"&amp;J51&amp;C51&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBConfigurationImages = interface</v>
       </c>
       <c r="I51" s="8" t="str">
-        <f>IF(C51="", "  "&amp;E51&amp;" = class(TInterfacedObject, "&amp;D51&amp;")", "  "&amp;E51&amp;" = class(T"&amp;J51&amp;C51&amp;", "&amp;D51&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBConfigurationImages = class(TInterfacedObject, ITMDBConfigurationImages)</v>
       </c>
       <c r="J51" s="8" t="s">
@@ -7331,27 +7334,27 @@
         <v>90</v>
       </c>
       <c r="D52" s="8" t="str">
-        <f>"I"&amp;J52&amp;B52</f>
+        <f t="shared" si="6"/>
         <v>ITMDBConfiguration</v>
       </c>
       <c r="E52" s="8" t="str">
-        <f>"T"&amp;J52&amp;B52</f>
+        <f t="shared" si="7"/>
         <v>TTMDBConfiguration</v>
       </c>
       <c r="F52" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBConfiguration = interface;</v>
       </c>
       <c r="G52" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBConfiguration = class;</v>
       </c>
       <c r="H52" s="8" t="str">
-        <f>IF(C52="", "  "&amp;D52&amp;" = interface", "  "&amp;D52&amp;" = interface(I"&amp;J52&amp;C52&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBConfiguration = interface</v>
       </c>
       <c r="I52" s="8" t="str">
-        <f>IF(C52="", "  "&amp;E52&amp;" = class(TInterfacedObject, "&amp;D52&amp;")", "  "&amp;E52&amp;" = class(T"&amp;J52&amp;C52&amp;", "&amp;D52&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBConfiguration = class(TInterfacedObject, ITMDBConfiguration)</v>
       </c>
       <c r="J52" s="8" t="s">
@@ -7369,27 +7372,27 @@
         <v>309</v>
       </c>
       <c r="D53" s="8" t="str">
-        <f>"I"&amp;J53&amp;B53</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCountry</v>
       </c>
       <c r="E53" s="8" t="str">
-        <f>"T"&amp;J53&amp;B53</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCountry</v>
       </c>
       <c r="F53" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCountry = interface;</v>
       </c>
       <c r="G53" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCountry = class;</v>
       </c>
       <c r="H53" s="8" t="str">
-        <f>IF(C53="", "  "&amp;D53&amp;" = interface", "  "&amp;D53&amp;" = interface(I"&amp;J53&amp;C53&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCountry = interface(ITMDBItem)</v>
       </c>
       <c r="I53" s="8" t="str">
-        <f>IF(C53="", "  "&amp;E53&amp;" = class(TInterfacedObject, "&amp;D53&amp;")", "  "&amp;E53&amp;" = class(T"&amp;J53&amp;C53&amp;", "&amp;D53&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCountry = class(TTMDBItem, ITMDBCountry)</v>
       </c>
       <c r="J53" s="8" t="s">
@@ -7407,27 +7410,27 @@
         <v>310</v>
       </c>
       <c r="D54" s="8" t="str">
-        <f>"I"&amp;J54&amp;B54</f>
+        <f t="shared" si="6"/>
         <v>ITMDBCountries</v>
       </c>
       <c r="E54" s="8" t="str">
-        <f>"T"&amp;J54&amp;B54</f>
+        <f t="shared" si="7"/>
         <v>TTMDBCountries</v>
       </c>
       <c r="F54" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBCountries = interface;</v>
       </c>
       <c r="G54" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBCountries = class;</v>
       </c>
       <c r="H54" s="8" t="str">
-        <f>IF(C54="", "  "&amp;D54&amp;" = interface", "  "&amp;D54&amp;" = interface(I"&amp;J54&amp;C54&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBCountries = interface(ITMDBItems)</v>
       </c>
       <c r="I54" s="8" t="str">
-        <f>IF(C54="", "  "&amp;E54&amp;" = class(TInterfacedObject, "&amp;D54&amp;")", "  "&amp;E54&amp;" = class(T"&amp;J54&amp;C54&amp;", "&amp;D54&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBCountries = class(TTMDBItems, ITMDBCountries)</v>
       </c>
       <c r="J54" s="8" t="s">
@@ -7445,27 +7448,27 @@
         <v>309</v>
       </c>
       <c r="D55" s="8" t="str">
-        <f>"I"&amp;J55&amp;B55</f>
+        <f t="shared" si="6"/>
         <v>ITMDBJobDepartment</v>
       </c>
       <c r="E55" s="8" t="str">
-        <f>"T"&amp;J55&amp;B55</f>
+        <f t="shared" si="7"/>
         <v>TTMDBJobDepartment</v>
       </c>
       <c r="F55" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBJobDepartment = interface;</v>
       </c>
       <c r="G55" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBJobDepartment = class;</v>
       </c>
       <c r="H55" s="8" t="str">
-        <f>IF(C55="", "  "&amp;D55&amp;" = interface", "  "&amp;D55&amp;" = interface(I"&amp;J55&amp;C55&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBJobDepartment = interface(ITMDBItem)</v>
       </c>
       <c r="I55" s="8" t="str">
-        <f>IF(C55="", "  "&amp;E55&amp;" = class(TInterfacedObject, "&amp;D55&amp;")", "  "&amp;E55&amp;" = class(T"&amp;J55&amp;C55&amp;", "&amp;D55&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBJobDepartment = class(TTMDBItem, ITMDBJobDepartment)</v>
       </c>
       <c r="J55" s="8" t="s">
@@ -7483,27 +7486,27 @@
         <v>310</v>
       </c>
       <c r="D56" s="8" t="str">
-        <f>"I"&amp;J56&amp;B56</f>
+        <f t="shared" si="6"/>
         <v>ITMDBJobDepartments</v>
       </c>
       <c r="E56" s="8" t="str">
-        <f>"T"&amp;J56&amp;B56</f>
+        <f t="shared" si="7"/>
         <v>TTMDBJobDepartments</v>
       </c>
       <c r="F56" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">  ITMDBJobDepartments = interface;</v>
       </c>
       <c r="G56" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  TTMDBJobDepartments = class;</v>
       </c>
       <c r="H56" s="8" t="str">
-        <f>IF(C56="", "  "&amp;D56&amp;" = interface", "  "&amp;D56&amp;" = interface(I"&amp;J56&amp;C56&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBJobDepartments = interface(ITMDBItems)</v>
       </c>
       <c r="I56" s="8" t="str">
-        <f>IF(C56="", "  "&amp;E56&amp;" = class(TInterfacedObject, "&amp;D56&amp;")", "  "&amp;E56&amp;" = class(T"&amp;J56&amp;C56&amp;", "&amp;D56&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBJobDepartments = class(TTMDBItems, ITMDBJobDepartments)</v>
       </c>
       <c r="J56" s="8" t="s">
@@ -7521,27 +7524,27 @@
         <v>309</v>
       </c>
       <c r="D57" s="8" t="str">
-        <f>"I"&amp;J57&amp;B57</f>
+        <f t="shared" si="6"/>
         <v>ITMDBLanguage</v>
       </c>
       <c r="E57" s="8" t="str">
-        <f>"T"&amp;J57&amp;B57</f>
+        <f t="shared" si="7"/>
         <v>TTMDBLanguage</v>
       </c>
       <c r="F57" s="8" t="str">
-        <f t="shared" ref="F57:F120" si="2">"  "&amp;D57&amp;" = interface;"</f>
+        <f t="shared" ref="F57:F121" si="10">"  "&amp;D57&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBLanguage = interface;</v>
       </c>
       <c r="G57" s="8" t="str">
-        <f t="shared" ref="G57:G120" si="3">"  "&amp;E57&amp;" = class;"</f>
+        <f t="shared" ref="G57:G121" si="11">"  "&amp;E57&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBLanguage = class;</v>
       </c>
       <c r="H57" s="8" t="str">
-        <f>IF(C57="", "  "&amp;D57&amp;" = interface", "  "&amp;D57&amp;" = interface(I"&amp;J57&amp;C57&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBLanguage = interface(ITMDBItem)</v>
       </c>
       <c r="I57" s="8" t="str">
-        <f>IF(C57="", "  "&amp;E57&amp;" = class(TInterfacedObject, "&amp;D57&amp;")", "  "&amp;E57&amp;" = class(T"&amp;J57&amp;C57&amp;", "&amp;D57&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBLanguage = class(TTMDBItem, ITMDBLanguage)</v>
       </c>
       <c r="J57" s="8" t="s">
@@ -7559,27 +7562,27 @@
         <v>310</v>
       </c>
       <c r="D58" s="8" t="str">
-        <f>"I"&amp;J58&amp;B58</f>
+        <f t="shared" si="6"/>
         <v>ITMDBLanguages</v>
       </c>
       <c r="E58" s="8" t="str">
-        <f>"T"&amp;J58&amp;B58</f>
+        <f t="shared" si="7"/>
         <v>TTMDBLanguages</v>
       </c>
       <c r="F58" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBLanguages = interface;</v>
       </c>
       <c r="G58" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBLanguages = class;</v>
       </c>
       <c r="H58" s="8" t="str">
-        <f>IF(C58="", "  "&amp;D58&amp;" = interface", "  "&amp;D58&amp;" = interface(I"&amp;J58&amp;C58&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBLanguages = interface(ITMDBItems)</v>
       </c>
       <c r="I58" s="8" t="str">
-        <f>IF(C58="", "  "&amp;E58&amp;" = class(TInterfacedObject, "&amp;D58&amp;")", "  "&amp;E58&amp;" = class(T"&amp;J58&amp;C58&amp;", "&amp;D58&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBLanguages = class(TTMDBItems, ITMDBLanguages)</v>
       </c>
       <c r="J58" s="8" t="s">
@@ -7597,27 +7600,27 @@
         <v>309</v>
       </c>
       <c r="D59" s="8" t="str">
-        <f>"I"&amp;J59&amp;B59</f>
+        <f t="shared" si="6"/>
         <v>ITMDBTimezone</v>
       </c>
       <c r="E59" s="8" t="str">
-        <f>"T"&amp;J59&amp;B59</f>
+        <f t="shared" si="7"/>
         <v>TTMDBTimezone</v>
       </c>
       <c r="F59" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTimezone = interface;</v>
       </c>
       <c r="G59" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTimezone = class;</v>
       </c>
       <c r="H59" s="8" t="str">
-        <f>IF(C59="", "  "&amp;D59&amp;" = interface", "  "&amp;D59&amp;" = interface(I"&amp;J59&amp;C59&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBTimezone = interface(ITMDBItem)</v>
       </c>
       <c r="I59" s="8" t="str">
-        <f>IF(C59="", "  "&amp;E59&amp;" = class(TInterfacedObject, "&amp;D59&amp;")", "  "&amp;E59&amp;" = class(T"&amp;J59&amp;C59&amp;", "&amp;D59&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBTimezone = class(TTMDBItem, ITMDBTimezone)</v>
       </c>
       <c r="J59" s="8" t="s">
@@ -7635,27 +7638,27 @@
         <v>310</v>
       </c>
       <c r="D60" s="8" t="str">
-        <f>"I"&amp;J60&amp;B60</f>
+        <f t="shared" si="6"/>
         <v>ITMDBTimezones</v>
       </c>
       <c r="E60" s="8" t="str">
-        <f>"T"&amp;J60&amp;B60</f>
+        <f t="shared" si="7"/>
         <v>TTMDBTimezones</v>
       </c>
       <c r="F60" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTimezones = interface;</v>
       </c>
       <c r="G60" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTimezones = class;</v>
       </c>
       <c r="H60" s="8" t="str">
-        <f>IF(C60="", "  "&amp;D60&amp;" = interface", "  "&amp;D60&amp;" = interface(I"&amp;J60&amp;C60&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBTimezones = interface(ITMDBItems)</v>
       </c>
       <c r="I60" s="8" t="str">
-        <f>IF(C60="", "  "&amp;E60&amp;" = class(TInterfacedObject, "&amp;D60&amp;")", "  "&amp;E60&amp;" = class(T"&amp;J60&amp;C60&amp;", "&amp;D60&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBTimezones = class(TTMDBItems, ITMDBTimezones)</v>
       </c>
       <c r="J60" s="8" t="s">
@@ -7673,27 +7676,27 @@
         <v>309</v>
       </c>
       <c r="D61" s="8" t="str">
-        <f>"I"&amp;J61&amp;B61</f>
+        <f t="shared" si="6"/>
         <v>ITMDBGenre</v>
       </c>
       <c r="E61" s="8" t="str">
-        <f>"T"&amp;J61&amp;B61</f>
+        <f t="shared" si="7"/>
         <v>TTMDBGenre</v>
       </c>
       <c r="F61" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBGenre = interface;</v>
       </c>
       <c r="G61" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBGenre = class;</v>
       </c>
       <c r="H61" s="8" t="str">
-        <f>IF(C61="", "  "&amp;D61&amp;" = interface", "  "&amp;D61&amp;" = interface(I"&amp;J61&amp;C61&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBGenre = interface(ITMDBItem)</v>
       </c>
       <c r="I61" s="8" t="str">
-        <f>IF(C61="", "  "&amp;E61&amp;" = class(TInterfacedObject, "&amp;D61&amp;")", "  "&amp;E61&amp;" = class(T"&amp;J61&amp;C61&amp;", "&amp;D61&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBGenre = class(TTMDBItem, ITMDBGenre)</v>
       </c>
       <c r="J61" s="8" t="s">
@@ -7711,27 +7714,27 @@
         <v>310</v>
       </c>
       <c r="D62" s="8" t="str">
-        <f>"I"&amp;J62&amp;B62</f>
+        <f t="shared" si="6"/>
         <v>ITMDBGenres</v>
       </c>
       <c r="E62" s="8" t="str">
-        <f>"T"&amp;J62&amp;B62</f>
+        <f t="shared" si="7"/>
         <v>TTMDBGenres</v>
       </c>
       <c r="F62" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBGenres = interface;</v>
       </c>
       <c r="G62" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBGenres = class;</v>
       </c>
       <c r="H62" s="8" t="str">
-        <f>IF(C62="", "  "&amp;D62&amp;" = interface", "  "&amp;D62&amp;" = interface(I"&amp;J62&amp;C62&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBGenres = interface(ITMDBItems)</v>
       </c>
       <c r="I62" s="8" t="str">
-        <f>IF(C62="", "  "&amp;E62&amp;" = class(TInterfacedObject, "&amp;D62&amp;")", "  "&amp;E62&amp;" = class(T"&amp;J62&amp;C62&amp;", "&amp;D62&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBGenres = class(TTMDBItems, ITMDBGenres)</v>
       </c>
       <c r="J62" s="8" t="s">
@@ -7749,27 +7752,27 @@
         <v>309</v>
       </c>
       <c r="D63" s="8" t="str">
-        <f>"I"&amp;J63&amp;B63</f>
+        <f t="shared" si="6"/>
         <v>ITMDBKeyword</v>
       </c>
       <c r="E63" s="8" t="str">
-        <f>"T"&amp;J63&amp;B63</f>
+        <f t="shared" si="7"/>
         <v>TTMDBKeyword</v>
       </c>
       <c r="F63" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBKeyword = interface;</v>
       </c>
       <c r="G63" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBKeyword = class;</v>
       </c>
       <c r="H63" s="8" t="str">
-        <f>IF(C63="", "  "&amp;D63&amp;" = interface", "  "&amp;D63&amp;" = interface(I"&amp;J63&amp;C63&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBKeyword = interface(ITMDBItem)</v>
       </c>
       <c r="I63" s="8" t="str">
-        <f>IF(C63="", "  "&amp;E63&amp;" = class(TInterfacedObject, "&amp;D63&amp;")", "  "&amp;E63&amp;" = class(T"&amp;J63&amp;C63&amp;", "&amp;D63&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBKeyword = class(TTMDBItem, ITMDBKeyword)</v>
       </c>
       <c r="J63" s="8" t="s">
@@ -7787,27 +7790,27 @@
         <v>310</v>
       </c>
       <c r="D64" s="8" t="str">
-        <f>"I"&amp;J64&amp;B64</f>
+        <f t="shared" si="6"/>
         <v>ITMDBKeywords</v>
       </c>
       <c r="E64" s="8" t="str">
-        <f>"T"&amp;J64&amp;B64</f>
+        <f t="shared" si="7"/>
         <v>TTMDBKeywords</v>
       </c>
       <c r="F64" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBKeywords = interface;</v>
       </c>
       <c r="G64" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBKeywords = class;</v>
       </c>
       <c r="H64" s="8" t="str">
-        <f>IF(C64="", "  "&amp;D64&amp;" = interface", "  "&amp;D64&amp;" = interface(I"&amp;J64&amp;C64&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBKeywords = interface(ITMDBItems)</v>
       </c>
       <c r="I64" s="8" t="str">
-        <f>IF(C64="", "  "&amp;E64&amp;" = class(TInterfacedObject, "&amp;D64&amp;")", "  "&amp;E64&amp;" = class(T"&amp;J64&amp;C64&amp;", "&amp;D64&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBKeywords = class(TTMDBItems, ITMDBKeywords)</v>
       </c>
       <c r="J64" s="8" t="s">
@@ -7825,27 +7828,27 @@
         <v>313</v>
       </c>
       <c r="D65" s="8" t="str">
-        <f>"I"&amp;J65&amp;B65</f>
+        <f t="shared" si="6"/>
         <v>ITMDBKeywordPage</v>
       </c>
       <c r="E65" s="8" t="str">
-        <f>"T"&amp;J65&amp;B65</f>
+        <f t="shared" si="7"/>
         <v>TTMDBKeywordPage</v>
       </c>
       <c r="F65" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBKeywordPage = interface;</v>
       </c>
       <c r="G65" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBKeywordPage = class;</v>
       </c>
       <c r="H65" s="8" t="str">
-        <f>IF(C65="", "  "&amp;D65&amp;" = interface", "  "&amp;D65&amp;" = interface(I"&amp;J65&amp;C65&amp;")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  ITMDBKeywordPage = interface(ITMDBPage)</v>
       </c>
       <c r="I65" s="8" t="str">
-        <f>IF(C65="", "  "&amp;E65&amp;" = class(TInterfacedObject, "&amp;D65&amp;")", "  "&amp;E65&amp;" = class(T"&amp;J65&amp;C65&amp;", "&amp;D65&amp;")")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">  TTMDBKeywordPage = class(TTMDBPage, ITMDBKeywordPage)</v>
       </c>
       <c r="J65" s="8" t="s">
@@ -7863,27 +7866,27 @@
         <v>171</v>
       </c>
       <c r="D66" s="8" t="str">
-        <f>"I"&amp;J66&amp;B66</f>
+        <f t="shared" ref="D66:D97" si="12">"I"&amp;J66&amp;B66</f>
         <v>ITMDBKeywordDetail</v>
       </c>
       <c r="E66" s="8" t="str">
-        <f>"T"&amp;J66&amp;B66</f>
+        <f t="shared" ref="E66:E97" si="13">"T"&amp;J66&amp;B66</f>
         <v>TTMDBKeywordDetail</v>
       </c>
       <c r="F66" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBKeywordDetail = interface;</v>
       </c>
       <c r="G66" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBKeywordDetail = class;</v>
       </c>
       <c r="H66" s="8" t="str">
-        <f>IF(C66="", "  "&amp;D66&amp;" = interface", "  "&amp;D66&amp;" = interface(I"&amp;J66&amp;C66&amp;")")</f>
+        <f t="shared" ref="H66:H97" si="14">IF(C66="", "  "&amp;D66&amp;" = interface", "  "&amp;D66&amp;" = interface(I"&amp;J66&amp;C66&amp;")")</f>
         <v xml:space="preserve">  ITMDBKeywordDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I66" s="8" t="str">
-        <f>IF(C66="", "  "&amp;E66&amp;" = class(TInterfacedObject, "&amp;D66&amp;")", "  "&amp;E66&amp;" = class(T"&amp;J66&amp;C66&amp;", "&amp;D66&amp;")")</f>
+        <f t="shared" ref="I66:I97" si="15">IF(C66="", "  "&amp;E66&amp;" = class(TInterfacedObject, "&amp;D66&amp;")", "  "&amp;E66&amp;" = class(T"&amp;J66&amp;C66&amp;", "&amp;D66&amp;")")</f>
         <v xml:space="preserve">  TTMDBKeywordDetail = class(TTMDBDetail, ITMDBKeywordDetail)</v>
       </c>
       <c r="J66" s="8" t="s">
@@ -7901,27 +7904,27 @@
         <v>309</v>
       </c>
       <c r="D67" s="8" t="str">
-        <f>"I"&amp;J67&amp;B67</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMediaImage</v>
       </c>
       <c r="E67" s="8" t="str">
-        <f>"T"&amp;J67&amp;B67</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMediaImage</v>
       </c>
       <c r="F67" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBMediaImage = interface;</v>
       </c>
       <c r="G67" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBMediaImage = class;</v>
       </c>
       <c r="H67" s="8" t="str">
-        <f>IF(C67="", "  "&amp;D67&amp;" = interface", "  "&amp;D67&amp;" = interface(I"&amp;J67&amp;C67&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMediaImage = interface(ITMDBItem)</v>
       </c>
       <c r="I67" s="8" t="str">
-        <f>IF(C67="", "  "&amp;E67&amp;" = class(TInterfacedObject, "&amp;D67&amp;")", "  "&amp;E67&amp;" = class(T"&amp;J67&amp;C67&amp;", "&amp;D67&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMediaImage = class(TTMDBItem, ITMDBMediaImage)</v>
       </c>
       <c r="J67" s="8" t="s">
@@ -7939,27 +7942,27 @@
         <v>310</v>
       </c>
       <c r="D68" s="8" t="str">
-        <f>"I"&amp;J68&amp;B68</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMediaImages</v>
       </c>
       <c r="E68" s="8" t="str">
-        <f>"T"&amp;J68&amp;B68</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMediaImages</v>
       </c>
       <c r="F68" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBMediaImages = interface;</v>
       </c>
       <c r="G68" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBMediaImages = class;</v>
       </c>
       <c r="H68" s="8" t="str">
-        <f>IF(C68="", "  "&amp;D68&amp;" = interface", "  "&amp;D68&amp;" = interface(I"&amp;J68&amp;C68&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMediaImages = interface(ITMDBItems)</v>
       </c>
       <c r="I68" s="8" t="str">
-        <f>IF(C68="", "  "&amp;E68&amp;" = class(TInterfacedObject, "&amp;D68&amp;")", "  "&amp;E68&amp;" = class(T"&amp;J68&amp;C68&amp;", "&amp;D68&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMediaImages = class(TTMDBItems, ITMDBMediaImages)</v>
       </c>
       <c r="J68" s="8" t="s">
@@ -7974,27 +7977,27 @@
         <v>364</v>
       </c>
       <c r="D69" s="8" t="str">
-        <f>"I"&amp;J69&amp;B69</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMediaImageGroup</v>
       </c>
       <c r="E69" s="8" t="str">
-        <f>"T"&amp;J69&amp;B69</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMediaImageGroup</v>
       </c>
       <c r="F69" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBMediaImageGroup = interface;</v>
       </c>
       <c r="G69" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBMediaImageGroup = class;</v>
       </c>
       <c r="H69" s="8" t="str">
-        <f>IF(C69="", "  "&amp;D69&amp;" = interface", "  "&amp;D69&amp;" = interface(I"&amp;J69&amp;C69&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMediaImageGroup = interface</v>
       </c>
       <c r="I69" s="8" t="str">
-        <f>IF(C69="", "  "&amp;E69&amp;" = class(TInterfacedObject, "&amp;D69&amp;")", "  "&amp;E69&amp;" = class(T"&amp;J69&amp;C69&amp;", "&amp;D69&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMediaImageGroup = class(TInterfacedObject, ITMDBMediaImageGroup)</v>
       </c>
       <c r="J69" s="8" t="s">
@@ -8012,27 +8015,27 @@
         <v>309</v>
       </c>
       <c r="D70" s="8" t="str">
-        <f>"I"&amp;J70&amp;B70</f>
+        <f t="shared" si="12"/>
         <v>ITMDBVideo</v>
       </c>
       <c r="E70" s="8" t="str">
-        <f>"T"&amp;J70&amp;B70</f>
+        <f t="shared" si="13"/>
         <v>TTMDBVideo</v>
       </c>
       <c r="F70" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBVideo = interface;</v>
       </c>
       <c r="G70" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBVideo = class;</v>
       </c>
       <c r="H70" s="8" t="str">
-        <f>IF(C70="", "  "&amp;D70&amp;" = interface", "  "&amp;D70&amp;" = interface(I"&amp;J70&amp;C70&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBVideo = interface(ITMDBItem)</v>
       </c>
       <c r="I70" s="8" t="str">
-        <f>IF(C70="", "  "&amp;E70&amp;" = class(TInterfacedObject, "&amp;D70&amp;")", "  "&amp;E70&amp;" = class(T"&amp;J70&amp;C70&amp;", "&amp;D70&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBVideo = class(TTMDBItem, ITMDBVideo)</v>
       </c>
       <c r="J70" s="8" t="s">
@@ -8050,27 +8053,27 @@
         <v>310</v>
       </c>
       <c r="D71" s="8" t="str">
-        <f>"I"&amp;J71&amp;B71</f>
+        <f t="shared" si="12"/>
         <v>ITMDBVideos</v>
       </c>
       <c r="E71" s="8" t="str">
-        <f>"T"&amp;J71&amp;B71</f>
+        <f t="shared" si="13"/>
         <v>TTMDBVideos</v>
       </c>
       <c r="F71" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBVideos = interface;</v>
       </c>
       <c r="G71" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBVideos = class;</v>
       </c>
       <c r="H71" s="8" t="str">
-        <f>IF(C71="", "  "&amp;D71&amp;" = interface", "  "&amp;D71&amp;" = interface(I"&amp;J71&amp;C71&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBVideos = interface(ITMDBItems)</v>
       </c>
       <c r="I71" s="8" t="str">
-        <f>IF(C71="", "  "&amp;E71&amp;" = class(TInterfacedObject, "&amp;D71&amp;")", "  "&amp;E71&amp;" = class(T"&amp;J71&amp;C71&amp;", "&amp;D71&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBVideos = class(TTMDBItems, ITMDBVideos)</v>
       </c>
       <c r="J71" s="8" t="s">
@@ -8088,27 +8091,27 @@
         <v>314</v>
       </c>
       <c r="D72" s="8" t="str">
-        <f>"I"&amp;J72&amp;B72</f>
+        <f t="shared" si="12"/>
         <v>ITMDBPerson</v>
       </c>
       <c r="E72" s="8" t="str">
-        <f>"T"&amp;J72&amp;B72</f>
+        <f t="shared" si="13"/>
         <v>TTMDBPerson</v>
       </c>
       <c r="F72" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBPerson = interface;</v>
       </c>
       <c r="G72" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBPerson = class;</v>
       </c>
       <c r="H72" s="8" t="str">
-        <f>IF(C72="", "  "&amp;D72&amp;" = interface", "  "&amp;D72&amp;" = interface(I"&amp;J72&amp;C72&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBPerson = interface(ITMDBMedium)</v>
       </c>
       <c r="I72" s="8" t="str">
-        <f>IF(C72="", "  "&amp;E72&amp;" = class(TInterfacedObject, "&amp;D72&amp;")", "  "&amp;E72&amp;" = class(T"&amp;J72&amp;C72&amp;", "&amp;D72&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBPerson = class(TTMDBMedium, ITMDBPerson)</v>
       </c>
       <c r="J72" s="8" t="s">
@@ -8126,27 +8129,27 @@
         <v>315</v>
       </c>
       <c r="D73" s="8" t="str">
-        <f>"I"&amp;J73&amp;B73</f>
+        <f t="shared" si="12"/>
         <v>ITMDBPeople</v>
       </c>
       <c r="E73" s="8" t="str">
-        <f>"T"&amp;J73&amp;B73</f>
+        <f t="shared" si="13"/>
         <v>TTMDBPeople</v>
       </c>
       <c r="F73" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBPeople = interface;</v>
       </c>
       <c r="G73" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBPeople = class;</v>
       </c>
       <c r="H73" s="8" t="str">
-        <f>IF(C73="", "  "&amp;D73&amp;" = interface", "  "&amp;D73&amp;" = interface(I"&amp;J73&amp;C73&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBPeople = interface(ITMDBMedia)</v>
       </c>
       <c r="I73" s="8" t="str">
-        <f>IF(C73="", "  "&amp;E73&amp;" = class(TInterfacedObject, "&amp;D73&amp;")", "  "&amp;E73&amp;" = class(T"&amp;J73&amp;C73&amp;", "&amp;D73&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBPeople = class(TTMDBMedia, ITMDBPeople)</v>
       </c>
       <c r="J73" s="8" t="s">
@@ -8164,27 +8167,27 @@
         <v>316</v>
       </c>
       <c r="D74" s="8" t="str">
-        <f>"I"&amp;J74&amp;B74</f>
+        <f t="shared" si="12"/>
         <v>ITMDBPersonPage</v>
       </c>
       <c r="E74" s="8" t="str">
-        <f>"T"&amp;J74&amp;B74</f>
+        <f t="shared" si="13"/>
         <v>TTMDBPersonPage</v>
       </c>
       <c r="F74" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBPersonPage = interface;</v>
       </c>
       <c r="G74" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBPersonPage = class;</v>
       </c>
       <c r="H74" s="8" t="str">
-        <f>IF(C74="", "  "&amp;D74&amp;" = interface", "  "&amp;D74&amp;" = interface(I"&amp;J74&amp;C74&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBPersonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="I74" s="8" t="str">
-        <f>IF(C74="", "  "&amp;E74&amp;" = class(TInterfacedObject, "&amp;D74&amp;")", "  "&amp;E74&amp;" = class(T"&amp;J74&amp;C74&amp;", "&amp;D74&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBPersonPage = class(TTMDBMediaPage, ITMDBPersonPage)</v>
       </c>
       <c r="J74" s="8" t="s">
@@ -8202,27 +8205,27 @@
         <v>171</v>
       </c>
       <c r="D75" s="8" t="str">
-        <f>"I"&amp;J75&amp;B75</f>
+        <f t="shared" si="12"/>
         <v>ITMDBPersonDetail</v>
       </c>
       <c r="E75" s="8" t="str">
-        <f>"T"&amp;J75&amp;B75</f>
+        <f t="shared" si="13"/>
         <v>TTMDBPersonDetail</v>
       </c>
       <c r="F75" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBPersonDetail = interface;</v>
       </c>
       <c r="G75" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBPersonDetail = class;</v>
       </c>
       <c r="H75" s="8" t="str">
-        <f>IF(C75="", "  "&amp;D75&amp;" = interface", "  "&amp;D75&amp;" = interface(I"&amp;J75&amp;C75&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBPersonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I75" s="8" t="str">
-        <f>IF(C75="", "  "&amp;E75&amp;" = class(TInterfacedObject, "&amp;D75&amp;")", "  "&amp;E75&amp;" = class(T"&amp;J75&amp;C75&amp;", "&amp;D75&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBPersonDetail = class(TTMDBDetail, ITMDBPersonDetail)</v>
       </c>
       <c r="J75" s="8" t="s">
@@ -8240,27 +8243,27 @@
         <v>187</v>
       </c>
       <c r="D76" s="8" t="str">
-        <f>"I"&amp;J76&amp;B76</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCastPerson</v>
       </c>
       <c r="E76" s="8" t="str">
-        <f>"T"&amp;J76&amp;B76</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCastPerson</v>
       </c>
       <c r="F76" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBCastPerson = interface;</v>
       </c>
       <c r="G76" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBCastPerson = class;</v>
       </c>
       <c r="H76" s="8" t="str">
-        <f>IF(C76="", "  "&amp;D76&amp;" = interface", "  "&amp;D76&amp;" = interface(I"&amp;J76&amp;C76&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCastPerson = interface(ITMDBPerson)</v>
       </c>
       <c r="I76" s="8" t="str">
-        <f>IF(C76="", "  "&amp;E76&amp;" = class(TInterfacedObject, "&amp;D76&amp;")", "  "&amp;E76&amp;" = class(T"&amp;J76&amp;C76&amp;", "&amp;D76&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCastPerson = class(TTMDBPerson, ITMDBCastPerson)</v>
       </c>
       <c r="J76" s="8" t="s">
@@ -8278,27 +8281,27 @@
         <v>174</v>
       </c>
       <c r="D77" s="8" t="str">
-        <f>"I"&amp;J77&amp;B77</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCastPeople</v>
       </c>
       <c r="E77" s="8" t="str">
-        <f>"T"&amp;J77&amp;B77</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCastPeople</v>
       </c>
       <c r="F77" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBCastPeople = interface;</v>
       </c>
       <c r="G77" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBCastPeople = class;</v>
       </c>
       <c r="H77" s="8" t="str">
-        <f>IF(C77="", "  "&amp;D77&amp;" = interface", "  "&amp;D77&amp;" = interface(I"&amp;J77&amp;C77&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCastPeople = interface(ITMDBPeople)</v>
       </c>
       <c r="I77" s="8" t="str">
-        <f>IF(C77="", "  "&amp;E77&amp;" = class(TInterfacedObject, "&amp;D77&amp;")", "  "&amp;E77&amp;" = class(T"&amp;J77&amp;C77&amp;", "&amp;D77&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCastPeople = class(TTMDBPeople, ITMDBCastPeople)</v>
       </c>
       <c r="J77" s="8" t="s">
@@ -8316,27 +8319,27 @@
         <v>187</v>
       </c>
       <c r="D78" s="8" t="str">
-        <f>"I"&amp;J78&amp;B78</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCrewPerson</v>
       </c>
       <c r="E78" s="8" t="str">
-        <f>"T"&amp;J78&amp;B78</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCrewPerson</v>
       </c>
       <c r="F78" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBCrewPerson = interface;</v>
       </c>
       <c r="G78" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBCrewPerson = class;</v>
       </c>
       <c r="H78" s="8" t="str">
-        <f>IF(C78="", "  "&amp;D78&amp;" = interface", "  "&amp;D78&amp;" = interface(I"&amp;J78&amp;C78&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCrewPerson = interface(ITMDBPerson)</v>
       </c>
       <c r="I78" s="8" t="str">
-        <f>IF(C78="", "  "&amp;E78&amp;" = class(TInterfacedObject, "&amp;D78&amp;")", "  "&amp;E78&amp;" = class(T"&amp;J78&amp;C78&amp;", "&amp;D78&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCrewPerson = class(TTMDBPerson, ITMDBCrewPerson)</v>
       </c>
       <c r="J78" s="8" t="s">
@@ -8354,27 +8357,27 @@
         <v>174</v>
       </c>
       <c r="D79" s="8" t="str">
-        <f>"I"&amp;J79&amp;B79</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCrewPeople</v>
       </c>
       <c r="E79" s="8" t="str">
-        <f>"T"&amp;J79&amp;B79</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCrewPeople</v>
       </c>
       <c r="F79" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBCrewPeople = interface;</v>
       </c>
       <c r="G79" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBCrewPeople = class;</v>
       </c>
       <c r="H79" s="8" t="str">
-        <f>IF(C79="", "  "&amp;D79&amp;" = interface", "  "&amp;D79&amp;" = interface(I"&amp;J79&amp;C79&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCrewPeople = interface(ITMDBPeople)</v>
       </c>
       <c r="I79" s="8" t="str">
-        <f>IF(C79="", "  "&amp;E79&amp;" = class(TInterfacedObject, "&amp;D79&amp;")", "  "&amp;E79&amp;" = class(T"&amp;J79&amp;C79&amp;", "&amp;D79&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCrewPeople = class(TTMDBPeople, ITMDBCrewPeople)</v>
       </c>
       <c r="J79" s="8" t="s">
@@ -8389,27 +8392,27 @@
         <v>100</v>
       </c>
       <c r="D80" s="8" t="str">
-        <f>"I"&amp;J80&amp;B80</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCredits</v>
       </c>
       <c r="E80" s="8" t="str">
-        <f>"T"&amp;J80&amp;B80</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCredits</v>
       </c>
       <c r="F80" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBCredits = interface;</v>
       </c>
       <c r="G80" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBCredits = class;</v>
       </c>
       <c r="H80" s="8" t="str">
-        <f>IF(C80="", "  "&amp;D80&amp;" = interface", "  "&amp;D80&amp;" = interface(I"&amp;J80&amp;C80&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCredits = interface</v>
       </c>
       <c r="I80" s="8" t="str">
-        <f>IF(C80="", "  "&amp;E80&amp;" = class(TInterfacedObject, "&amp;D80&amp;")", "  "&amp;E80&amp;" = class(T"&amp;J80&amp;C80&amp;", "&amp;D80&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCredits = class(TInterfacedObject, ITMDBCredits)</v>
       </c>
       <c r="J80" s="8" t="s">
@@ -8427,27 +8430,27 @@
         <v>314</v>
       </c>
       <c r="D81" s="8" t="str">
-        <f>"I"&amp;J81&amp;B81</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMovie</v>
       </c>
       <c r="E81" s="8" t="str">
-        <f>"T"&amp;J81&amp;B81</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMovie</v>
       </c>
       <c r="F81" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBMovie = interface;</v>
       </c>
       <c r="G81" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBMovie = class;</v>
       </c>
       <c r="H81" s="8" t="str">
-        <f>IF(C81="", "  "&amp;D81&amp;" = interface", "  "&amp;D81&amp;" = interface(I"&amp;J81&amp;C81&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
       </c>
       <c r="I81" s="8" t="str">
-        <f>IF(C81="", "  "&amp;E81&amp;" = class(TInterfacedObject, "&amp;D81&amp;")", "  "&amp;E81&amp;" = class(T"&amp;J81&amp;C81&amp;", "&amp;D81&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
       </c>
       <c r="J81" s="8" t="s">
@@ -8465,27 +8468,27 @@
         <v>315</v>
       </c>
       <c r="D82" s="8" t="str">
-        <f>"I"&amp;J82&amp;B82</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMovies</v>
       </c>
       <c r="E82" s="8" t="str">
-        <f>"T"&amp;J82&amp;B82</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMovies</v>
       </c>
       <c r="F82" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBMovies = interface;</v>
       </c>
       <c r="G82" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBMovies = class;</v>
       </c>
       <c r="H82" s="8" t="str">
-        <f>IF(C82="", "  "&amp;D82&amp;" = interface", "  "&amp;D82&amp;" = interface(I"&amp;J82&amp;C82&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
       </c>
       <c r="I82" s="8" t="str">
-        <f>IF(C82="", "  "&amp;E82&amp;" = class(TInterfacedObject, "&amp;D82&amp;")", "  "&amp;E82&amp;" = class(T"&amp;J82&amp;C82&amp;", "&amp;D82&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
       </c>
       <c r="J82" s="8" t="s">
@@ -8503,27 +8506,27 @@
         <v>316</v>
       </c>
       <c r="D83" s="8" t="str">
-        <f>"I"&amp;J83&amp;B83</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMoviePage</v>
       </c>
       <c r="E83" s="8" t="str">
-        <f>"T"&amp;J83&amp;B83</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMoviePage</v>
       </c>
       <c r="F83" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
       </c>
       <c r="G83" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBMoviePage = class;</v>
       </c>
       <c r="H83" s="8" t="str">
-        <f>IF(C83="", "  "&amp;D83&amp;" = interface", "  "&amp;D83&amp;" = interface(I"&amp;J83&amp;C83&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="I83" s="8" t="str">
-        <f>IF(C83="", "  "&amp;E83&amp;" = class(TInterfacedObject, "&amp;D83&amp;")", "  "&amp;E83&amp;" = class(T"&amp;J83&amp;C83&amp;", "&amp;D83&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
       </c>
       <c r="J83" s="8" t="s">
@@ -8541,27 +8544,27 @@
         <v>123</v>
       </c>
       <c r="D84" s="8" t="str">
-        <f>"I"&amp;J84&amp;B84</f>
+        <f t="shared" si="12"/>
         <v>ITMDBRatedMovie</v>
       </c>
       <c r="E84" s="8" t="str">
-        <f>"T"&amp;J84&amp;B84</f>
+        <f t="shared" si="13"/>
         <v>TTMDBRatedMovie</v>
       </c>
       <c r="F84" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
       </c>
       <c r="G84" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
       </c>
       <c r="H84" s="8" t="str">
-        <f>IF(C84="", "  "&amp;D84&amp;" = interface", "  "&amp;D84&amp;" = interface(I"&amp;J84&amp;C84&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
       </c>
       <c r="I84" s="8" t="str">
-        <f>IF(C84="", "  "&amp;E84&amp;" = class(TInterfacedObject, "&amp;D84&amp;")", "  "&amp;E84&amp;" = class(T"&amp;J84&amp;C84&amp;", "&amp;D84&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
       </c>
       <c r="J84" s="8" t="s">
@@ -8579,27 +8582,27 @@
         <v>155</v>
       </c>
       <c r="D85" s="8" t="str">
-        <f>"I"&amp;J85&amp;B85</f>
+        <f t="shared" si="12"/>
         <v>ITMDBRatedMovies</v>
       </c>
       <c r="E85" s="8" t="str">
-        <f>"T"&amp;J85&amp;B85</f>
+        <f t="shared" si="13"/>
         <v>TTMDBRatedMovies</v>
       </c>
       <c r="F85" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
       </c>
       <c r="G85" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
       </c>
       <c r="H85" s="8" t="str">
-        <f>IF(C85="", "  "&amp;D85&amp;" = interface", "  "&amp;D85&amp;" = interface(I"&amp;J85&amp;C85&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
       </c>
       <c r="I85" s="8" t="str">
-        <f>IF(C85="", "  "&amp;E85&amp;" = class(TInterfacedObject, "&amp;D85&amp;")", "  "&amp;E85&amp;" = class(T"&amp;J85&amp;C85&amp;", "&amp;D85&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
       </c>
       <c r="J85" s="8" t="s">
@@ -8617,27 +8620,27 @@
         <v>372</v>
       </c>
       <c r="D86" s="8" t="str">
-        <f>"I"&amp;J86&amp;B86</f>
+        <f t="shared" si="12"/>
         <v>ITMDBRatedMoviePage</v>
       </c>
       <c r="E86" s="8" t="str">
-        <f>"T"&amp;J86&amp;B86</f>
+        <f t="shared" si="13"/>
         <v>TTMDBRatedMoviePage</v>
       </c>
       <c r="F86" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
       </c>
       <c r="G86" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
       </c>
       <c r="H86" s="8" t="str">
-        <f>IF(C86="", "  "&amp;D86&amp;" = interface", "  "&amp;D86&amp;" = interface(I"&amp;J86&amp;C86&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="I86" s="8" t="str">
-        <f>IF(C86="", "  "&amp;E86&amp;" = class(TInterfacedObject, "&amp;D86&amp;")", "  "&amp;E86&amp;" = class(T"&amp;J86&amp;C86&amp;", "&amp;D86&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
       </c>
       <c r="J86" s="8" t="s">
@@ -8652,27 +8655,27 @@
         <v>376</v>
       </c>
       <c r="D87" s="8" t="str">
-        <f>"I"&amp;J87&amp;B87</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMovieCollectionRef</v>
       </c>
       <c r="E87" s="8" t="str">
-        <f>"T"&amp;J87&amp;B87</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMovieCollectionRef</v>
       </c>
       <c r="F87" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
       </c>
       <c r="H87" s="8" t="str">
-        <f>IF(C87="", "  "&amp;D87&amp;" = interface", "  "&amp;D87&amp;" = interface(I"&amp;J87&amp;C87&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
       </c>
       <c r="I87" s="8" t="str">
-        <f>IF(C87="", "  "&amp;E87&amp;" = class(TInterfacedObject, "&amp;D87&amp;")", "  "&amp;E87&amp;" = class(T"&amp;J87&amp;C87&amp;", "&amp;D87&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
       </c>
       <c r="J87" s="8" t="s">
@@ -8690,27 +8693,27 @@
         <v>171</v>
       </c>
       <c r="D88" s="8" t="str">
-        <f>"I"&amp;J88&amp;B88</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMovieDetail</v>
       </c>
       <c r="E88" s="8" t="str">
-        <f>"T"&amp;J88&amp;B88</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMovieDetail</v>
       </c>
       <c r="F88" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
       </c>
       <c r="G88" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
       </c>
       <c r="H88" s="8" t="str">
-        <f>IF(C88="", "  "&amp;D88&amp;" = interface", "  "&amp;D88&amp;" = interface(I"&amp;J88&amp;C88&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I88" s="8" t="str">
-        <f>IF(C88="", "  "&amp;E88&amp;" = class(TInterfacedObject, "&amp;D88&amp;")", "  "&amp;E88&amp;" = class(T"&amp;J88&amp;C88&amp;", "&amp;D88&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
       </c>
       <c r="J88" s="8" t="s">
@@ -8725,27 +8728,27 @@
         <v>378</v>
       </c>
       <c r="D89" s="8" t="str">
-        <f>"I"&amp;J89&amp;B89</f>
+        <f t="shared" si="12"/>
         <v>ITMDBDateRange</v>
       </c>
       <c r="E89" s="8" t="str">
-        <f>"T"&amp;J89&amp;B89</f>
+        <f t="shared" si="13"/>
         <v>TTMDBDateRange</v>
       </c>
       <c r="F89" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBDateRange = interface;</v>
       </c>
       <c r="G89" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBDateRange = class;</v>
       </c>
       <c r="H89" s="8" t="str">
-        <f>IF(C89="", "  "&amp;D89&amp;" = interface", "  "&amp;D89&amp;" = interface(I"&amp;J89&amp;C89&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBDateRange = interface</v>
       </c>
       <c r="I89" s="8" t="str">
-        <f>IF(C89="", "  "&amp;E89&amp;" = class(TInterfacedObject, "&amp;D89&amp;")", "  "&amp;E89&amp;" = class(T"&amp;J89&amp;C89&amp;", "&amp;D89&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
       </c>
       <c r="J89" s="8" t="s">
@@ -8763,27 +8766,27 @@
         <v>372</v>
       </c>
       <c r="D90" s="8" t="str">
-        <f>"I"&amp;J90&amp;B90</f>
+        <f t="shared" si="12"/>
         <v>ITMDBDatedMoviePage</v>
       </c>
       <c r="E90" s="8" t="str">
-        <f>"T"&amp;J90&amp;B90</f>
+        <f t="shared" si="13"/>
         <v>TTMDBDatedMoviePage</v>
       </c>
       <c r="F90" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
       </c>
       <c r="G90" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
       </c>
       <c r="H90" s="8" t="str">
-        <f>IF(C90="", "  "&amp;D90&amp;" = interface", "  "&amp;D90&amp;" = interface(I"&amp;J90&amp;C90&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="I90" s="8" t="str">
-        <f>IF(C90="", "  "&amp;E90&amp;" = class(TInterfacedObject, "&amp;D90&amp;")", "  "&amp;E90&amp;" = class(T"&amp;J90&amp;C90&amp;", "&amp;D90&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
       </c>
       <c r="J90" s="8" t="s">
@@ -8801,27 +8804,27 @@
         <v>309</v>
       </c>
       <c r="D91" s="8" t="str">
-        <f>"I"&amp;J91&amp;B91</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTVNetwork</v>
       </c>
       <c r="E91" s="8" t="str">
-        <f>"T"&amp;J91&amp;B91</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTVNetwork</v>
       </c>
       <c r="F91" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVNetwork = interface;</v>
       </c>
       <c r="G91" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVNetwork = class;</v>
       </c>
       <c r="H91" s="8" t="str">
-        <f>IF(C91="", "  "&amp;D91&amp;" = interface", "  "&amp;D91&amp;" = interface(I"&amp;J91&amp;C91&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTVNetwork = interface(ITMDBItem)</v>
       </c>
       <c r="I91" s="8" t="str">
-        <f>IF(C91="", "  "&amp;E91&amp;" = class(TInterfacedObject, "&amp;D91&amp;")", "  "&amp;E91&amp;" = class(T"&amp;J91&amp;C91&amp;", "&amp;D91&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTVNetwork = class(TTMDBItem, ITMDBTVNetwork)</v>
       </c>
       <c r="J91" s="8" t="s">
@@ -8839,27 +8842,27 @@
         <v>310</v>
       </c>
       <c r="D92" s="8" t="str">
-        <f>"I"&amp;J92&amp;B92</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTVNetworks</v>
       </c>
       <c r="E92" s="8" t="str">
-        <f>"T"&amp;J92&amp;B92</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTVNetworks</v>
       </c>
       <c r="F92" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVNetworks = interface;</v>
       </c>
       <c r="G92" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVNetworks = class;</v>
       </c>
       <c r="H92" s="8" t="str">
-        <f>IF(C92="", "  "&amp;D92&amp;" = interface", "  "&amp;D92&amp;" = interface(I"&amp;J92&amp;C92&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTVNetworks = interface(ITMDBItems)</v>
       </c>
       <c r="I92" s="8" t="str">
-        <f>IF(C92="", "  "&amp;E92&amp;" = class(TInterfacedObject, "&amp;D92&amp;")", "  "&amp;E92&amp;" = class(T"&amp;J92&amp;C92&amp;", "&amp;D92&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTVNetworks = class(TTMDBItems, ITMDBTVNetworks)</v>
       </c>
       <c r="J92" s="8" t="s">
@@ -8877,27 +8880,27 @@
         <v>171</v>
       </c>
       <c r="D93" s="8" t="str">
-        <f>"I"&amp;J93&amp;B93</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTVNetworkDetail</v>
       </c>
       <c r="E93" s="8" t="str">
-        <f>"T"&amp;J93&amp;B93</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTVNetworkDetail</v>
       </c>
       <c r="F93" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVNetworkDetail = interface;</v>
       </c>
       <c r="G93" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVNetworkDetail = class;</v>
       </c>
       <c r="H93" s="8" t="str">
-        <f>IF(C93="", "  "&amp;D93&amp;" = interface", "  "&amp;D93&amp;" = interface(I"&amp;J93&amp;C93&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTVNetworkDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I93" s="8" t="str">
-        <f>IF(C93="", "  "&amp;E93&amp;" = class(TInterfacedObject, "&amp;D93&amp;")", "  "&amp;E93&amp;" = class(T"&amp;J93&amp;C93&amp;", "&amp;D93&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTVNetworkDetail = class(TTMDBDetail, ITMDBTVNetworkDetail)</v>
       </c>
       <c r="J93" s="8" t="s">
@@ -8915,27 +8918,27 @@
         <v>309</v>
       </c>
       <c r="D94" s="8" t="str">
-        <f>"I"&amp;J94&amp;B94</f>
+        <f t="shared" si="12"/>
         <v>ITMDBContentRating</v>
       </c>
       <c r="E94" s="8" t="str">
-        <f>"T"&amp;J94&amp;B94</f>
+        <f t="shared" si="13"/>
         <v>TTMDBContentRating</v>
       </c>
       <c r="F94" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBContentRating = interface;</v>
       </c>
       <c r="G94" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBContentRating = class;</v>
       </c>
       <c r="H94" s="8" t="str">
-        <f>IF(C94="", "  "&amp;D94&amp;" = interface", "  "&amp;D94&amp;" = interface(I"&amp;J94&amp;C94&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBContentRating = interface(ITMDBItem)</v>
       </c>
       <c r="I94" s="8" t="str">
-        <f>IF(C94="", "  "&amp;E94&amp;" = class(TInterfacedObject, "&amp;D94&amp;")", "  "&amp;E94&amp;" = class(T"&amp;J94&amp;C94&amp;", "&amp;D94&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBContentRating = class(TTMDBItem, ITMDBContentRating)</v>
       </c>
       <c r="J94" s="8" t="s">
@@ -8953,27 +8956,27 @@
         <v>310</v>
       </c>
       <c r="D95" s="8" t="str">
-        <f>"I"&amp;J95&amp;B95</f>
+        <f t="shared" si="12"/>
         <v>ITMDBContentRatings</v>
       </c>
       <c r="E95" s="8" t="str">
-        <f>"T"&amp;J95&amp;B95</f>
+        <f t="shared" si="13"/>
         <v>TTMDBContentRatings</v>
       </c>
       <c r="F95" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBContentRatings = interface;</v>
       </c>
       <c r="G95" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBContentRatings = class;</v>
       </c>
       <c r="H95" s="8" t="str">
-        <f>IF(C95="", "  "&amp;D95&amp;" = interface", "  "&amp;D95&amp;" = interface(I"&amp;J95&amp;C95&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBContentRatings = interface(ITMDBItems)</v>
       </c>
       <c r="I95" s="8" t="str">
-        <f>IF(C95="", "  "&amp;E95&amp;" = class(TInterfacedObject, "&amp;D95&amp;")", "  "&amp;E95&amp;" = class(T"&amp;J95&amp;C95&amp;", "&amp;D95&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBContentRatings = class(TTMDBItems, ITMDBContentRatings)</v>
       </c>
       <c r="J95" s="8" t="s">
@@ -8991,27 +8994,27 @@
         <v>314</v>
       </c>
       <c r="D96" s="8" t="str">
-        <f>"I"&amp;J96&amp;B96</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTVSerie</v>
       </c>
       <c r="E96" s="8" t="str">
-        <f>"T"&amp;J96&amp;B96</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTVSerie</v>
       </c>
       <c r="F96" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
       </c>
       <c r="G96" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVSerie = class;</v>
       </c>
       <c r="H96" s="8" t="str">
-        <f>IF(C96="", "  "&amp;D96&amp;" = interface", "  "&amp;D96&amp;" = interface(I"&amp;J96&amp;C96&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
       </c>
       <c r="I96" s="8" t="str">
-        <f>IF(C96="", "  "&amp;E96&amp;" = class(TInterfacedObject, "&amp;D96&amp;")", "  "&amp;E96&amp;" = class(T"&amp;J96&amp;C96&amp;", "&amp;D96&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
       </c>
       <c r="J96" s="8" t="s">
@@ -9029,27 +9032,27 @@
         <v>315</v>
       </c>
       <c r="D97" s="8" t="str">
-        <f>"I"&amp;J97&amp;B97</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTVSeries</v>
       </c>
       <c r="E97" s="8" t="str">
-        <f>"T"&amp;J97&amp;B97</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTVSeries</v>
       </c>
       <c r="F97" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
       </c>
       <c r="G97" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVSeries = class;</v>
       </c>
       <c r="H97" s="8" t="str">
-        <f>IF(C97="", "  "&amp;D97&amp;" = interface", "  "&amp;D97&amp;" = interface(I"&amp;J97&amp;C97&amp;")")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
       </c>
       <c r="I97" s="8" t="str">
-        <f>IF(C97="", "  "&amp;E97&amp;" = class(TInterfacedObject, "&amp;D97&amp;")", "  "&amp;E97&amp;" = class(T"&amp;J97&amp;C97&amp;", "&amp;D97&amp;")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
       </c>
       <c r="J97" s="8" t="s">
@@ -9067,27 +9070,27 @@
         <v>316</v>
       </c>
       <c r="D98" s="8" t="str">
-        <f>"I"&amp;J98&amp;B98</f>
+        <f t="shared" ref="D98:D130" si="16">"I"&amp;J98&amp;B98</f>
         <v>ITMDBTVSeriesPage</v>
       </c>
       <c r="E98" s="8" t="str">
-        <f>"T"&amp;J98&amp;B98</f>
+        <f t="shared" ref="E98:E130" si="17">"T"&amp;J98&amp;B98</f>
         <v>TTMDBTVSeriesPage</v>
       </c>
       <c r="F98" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
       </c>
       <c r="G98" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
       </c>
       <c r="H98" s="8" t="str">
-        <f>IF(C98="", "  "&amp;D98&amp;" = interface", "  "&amp;D98&amp;" = interface(I"&amp;J98&amp;C98&amp;")")</f>
+        <f t="shared" ref="H98:H130" si="18">IF(C98="", "  "&amp;D98&amp;" = interface", "  "&amp;D98&amp;" = interface(I"&amp;J98&amp;C98&amp;")")</f>
         <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="I98" s="8" t="str">
-        <f>IF(C98="", "  "&amp;E98&amp;" = class(TInterfacedObject, "&amp;D98&amp;")", "  "&amp;E98&amp;" = class(T"&amp;J98&amp;C98&amp;", "&amp;D98&amp;")")</f>
+        <f t="shared" ref="I98:I130" si="19">IF(C98="", "  "&amp;E98&amp;" = class(TInterfacedObject, "&amp;D98&amp;")", "  "&amp;E98&amp;" = class(T"&amp;J98&amp;C98&amp;", "&amp;D98&amp;")")</f>
         <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
       </c>
       <c r="J98" s="8" t="s">
@@ -9105,27 +9108,27 @@
         <v>383</v>
       </c>
       <c r="D99" s="8" t="str">
-        <f>"I"&amp;J99&amp;B99</f>
+        <f t="shared" si="16"/>
         <v>ITMDBRatedTVSerie</v>
       </c>
       <c r="E99" s="8" t="str">
-        <f>"T"&amp;J99&amp;B99</f>
+        <f t="shared" si="17"/>
         <v>TTMDBRatedTVSerie</v>
       </c>
       <c r="F99" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
       </c>
       <c r="G99" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
       </c>
       <c r="H99" s="8" t="str">
-        <f>IF(C99="", "  "&amp;D99&amp;" = interface", "  "&amp;D99&amp;" = interface(I"&amp;J99&amp;C99&amp;")")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
       </c>
       <c r="I99" s="8" t="str">
-        <f>IF(C99="", "  "&amp;E99&amp;" = class(TInterfacedObject, "&amp;D99&amp;")", "  "&amp;E99&amp;" = class(T"&amp;J99&amp;C99&amp;", "&amp;D99&amp;")")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
       </c>
       <c r="J99" s="8" t="s">
@@ -9143,27 +9146,27 @@
         <v>384</v>
       </c>
       <c r="D100" s="8" t="str">
-        <f>"I"&amp;J100&amp;B100</f>
+        <f t="shared" si="16"/>
         <v>ITMDBRatedTVSeries</v>
       </c>
       <c r="E100" s="8" t="str">
-        <f>"T"&amp;J100&amp;B100</f>
+        <f t="shared" si="17"/>
         <v>TTMDBRatedTVSeries</v>
       </c>
       <c r="F100" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
       </c>
       <c r="H100" s="8" t="str">
-        <f>IF(C100="", "  "&amp;D100&amp;" = interface", "  "&amp;D100&amp;" = interface(I"&amp;J100&amp;C100&amp;")")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
       </c>
       <c r="I100" s="8" t="str">
-        <f>IF(C100="", "  "&amp;E100&amp;" = class(TInterfacedObject, "&amp;D100&amp;")", "  "&amp;E100&amp;" = class(T"&amp;J100&amp;C100&amp;", "&amp;D100&amp;")")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
       </c>
       <c r="J100" s="8" t="s">
@@ -9181,27 +9184,27 @@
         <v>385</v>
       </c>
       <c r="D101" s="8" t="str">
-        <f>"I"&amp;J101&amp;B101</f>
+        <f t="shared" si="16"/>
         <v>ITMDBRatedTVSeriesPage</v>
       </c>
       <c r="E101" s="8" t="str">
-        <f>"T"&amp;J101&amp;B101</f>
+        <f t="shared" si="17"/>
         <v>TTMDBRatedTVSeriesPage</v>
       </c>
       <c r="F101" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
       </c>
       <c r="G101" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
       </c>
       <c r="H101" s="8" t="str">
-        <f>IF(C101="", "  "&amp;D101&amp;" = interface", "  "&amp;D101&amp;" = interface(I"&amp;J101&amp;C101&amp;")")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
       </c>
       <c r="I101" s="8" t="str">
-        <f>IF(C101="", "  "&amp;E101&amp;" = class(TInterfacedObject, "&amp;D101&amp;")", "  "&amp;E101&amp;" = class(T"&amp;J101&amp;C101&amp;", "&amp;D101&amp;")")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
       </c>
       <c r="J101" s="8" t="s">
@@ -9219,27 +9222,27 @@
         <v>171</v>
       </c>
       <c r="D102" s="8" t="str">
-        <f>"I"&amp;J102&amp;B102</f>
+        <f t="shared" si="16"/>
         <v>ITMDBTVSeriesDetail</v>
       </c>
       <c r="E102" s="8" t="str">
-        <f>"T"&amp;J102&amp;B102</f>
+        <f t="shared" si="17"/>
         <v>TTMDBTVSeriesDetail</v>
       </c>
       <c r="F102" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVSeriesDetail = interface;</v>
       </c>
       <c r="G102" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVSeriesDetail = class;</v>
       </c>
       <c r="H102" s="8" t="str">
-        <f>IF(C102="", "  "&amp;D102&amp;" = interface", "  "&amp;D102&amp;" = interface(I"&amp;J102&amp;C102&amp;")")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeriesDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I102" s="8" t="str">
-        <f>IF(C102="", "  "&amp;E102&amp;" = class(TInterfacedObject, "&amp;D102&amp;")", "  "&amp;E102&amp;" = class(T"&amp;J102&amp;C102&amp;", "&amp;D102&amp;")")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeriesDetail = class(TTMDBDetail, ITMDBTVSeriesDetail)</v>
       </c>
       <c r="J102" s="8" t="s">
@@ -9257,27 +9260,27 @@
         <v>314</v>
       </c>
       <c r="D103" s="8" t="str">
-        <f>"I"&amp;J103&amp;B103</f>
+        <f t="shared" si="16"/>
         <v>ITMDBTVSeason</v>
       </c>
       <c r="E103" s="8" t="str">
-        <f>"T"&amp;J103&amp;B103</f>
+        <f t="shared" si="17"/>
         <v>TTMDBTVSeason</v>
       </c>
       <c r="F103" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
       </c>
       <c r="G103" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVSeason = class;</v>
       </c>
       <c r="H103" s="8" t="str">
-        <f>IF(C103="", "  "&amp;D103&amp;" = interface", "  "&amp;D103&amp;" = interface(I"&amp;J103&amp;C103&amp;")")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
       </c>
       <c r="I103" s="8" t="str">
-        <f>IF(C103="", "  "&amp;E103&amp;" = class(TInterfacedObject, "&amp;D103&amp;")", "  "&amp;E103&amp;" = class(T"&amp;J103&amp;C103&amp;", "&amp;D103&amp;")")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
       </c>
       <c r="J103" s="8" t="s">
@@ -9295,27 +9298,27 @@
         <v>315</v>
       </c>
       <c r="D104" s="8" t="str">
-        <f>"I"&amp;J104&amp;B104</f>
+        <f t="shared" si="16"/>
         <v>ITMDBTVSeasons</v>
       </c>
       <c r="E104" s="8" t="str">
-        <f>"T"&amp;J104&amp;B104</f>
+        <f t="shared" si="17"/>
         <v>TTMDBTVSeasons</v>
       </c>
       <c r="F104" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
       </c>
       <c r="G104" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
       </c>
       <c r="H104" s="8" t="str">
-        <f>IF(C104="", "  "&amp;D104&amp;" = interface", "  "&amp;D104&amp;" = interface(I"&amp;J104&amp;C104&amp;")")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
       </c>
       <c r="I104" s="8" t="str">
-        <f>IF(C104="", "  "&amp;E104&amp;" = class(TInterfacedObject, "&amp;D104&amp;")", "  "&amp;E104&amp;" = class(T"&amp;J104&amp;C104&amp;", "&amp;D104&amp;")")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
       </c>
       <c r="J104" s="8" t="s">
@@ -9333,27 +9336,27 @@
         <v>316</v>
       </c>
       <c r="D105" s="8" t="str">
-        <f>"I"&amp;J105&amp;B105</f>
+        <f t="shared" si="16"/>
         <v>ITMDBTVSeasonPage</v>
       </c>
       <c r="E105" s="8" t="str">
-        <f>"T"&amp;J105&amp;B105</f>
+        <f t="shared" si="17"/>
         <v>TTMDBTVSeasonPage</v>
       </c>
       <c r="F105" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
       </c>
       <c r="G105" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
       </c>
       <c r="H105" s="8" t="str">
-        <f>IF(C105="", "  "&amp;D105&amp;" = interface", "  "&amp;D105&amp;" = interface(I"&amp;J105&amp;C105&amp;")")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="I105" s="8" t="str">
-        <f>IF(C105="", "  "&amp;E105&amp;" = class(TInterfacedObject, "&amp;D105&amp;")", "  "&amp;E105&amp;" = class(T"&amp;J105&amp;C105&amp;", "&amp;D105&amp;")")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
       </c>
       <c r="J105" s="8" t="s">
@@ -9371,27 +9374,27 @@
         <v>171</v>
       </c>
       <c r="D106" s="8" t="str">
-        <f>"I"&amp;J106&amp;B106</f>
+        <f t="shared" si="16"/>
         <v>ITMDBTVSeasonDetail</v>
       </c>
       <c r="E106" s="8" t="str">
-        <f>"T"&amp;J106&amp;B106</f>
+        <f t="shared" si="17"/>
         <v>TTMDBTVSeasonDetail</v>
       </c>
       <c r="F106" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
       </c>
       <c r="G106" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
       </c>
       <c r="H106" s="8" t="str">
-        <f>IF(C106="", "  "&amp;D106&amp;" = interface", "  "&amp;D106&amp;" = interface(I"&amp;J106&amp;C106&amp;")")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I106" s="8" t="str">
-        <f>IF(C106="", "  "&amp;E106&amp;" = class(TInterfacedObject, "&amp;D106&amp;")", "  "&amp;E106&amp;" = class(T"&amp;J106&amp;C106&amp;", "&amp;D106&amp;")")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
       </c>
       <c r="J106" s="8" t="s">
@@ -9400,37 +9403,37 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>314</v>
-      </c>
       <c r="D107" s="8" t="str">
-        <f>"I"&amp;J107&amp;B107</f>
-        <v>ITMDBTVEpisode</v>
+        <f t="shared" ref="D107" si="20">"I"&amp;J107&amp;B107</f>
+        <v>ITMDBTVSeasonEpisode</v>
       </c>
       <c r="E107" s="8" t="str">
-        <f>"T"&amp;J107&amp;B107</f>
-        <v>TTMDBTVEpisode</v>
+        <f t="shared" ref="E107" si="21">"T"&amp;J107&amp;B107</f>
+        <v>TTMDBTVSeasonEpisode</v>
       </c>
       <c r="F107" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
+        <f t="shared" ref="F107" si="22">"  "&amp;D107&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
       </c>
       <c r="G107" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
+        <f t="shared" ref="G107" si="23">"  "&amp;E107&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
       </c>
       <c r="H107" s="8" t="str">
-        <f>IF(C107="", "  "&amp;D107&amp;" = interface", "  "&amp;D107&amp;" = interface(I"&amp;J107&amp;C107&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
+        <f t="shared" ref="H107" si="24">IF(C107="", "  "&amp;D107&amp;" = interface", "  "&amp;D107&amp;" = interface(I"&amp;J107&amp;C107&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="I107" s="8" t="str">
-        <f>IF(C107="", "  "&amp;E107&amp;" = class(TInterfacedObject, "&amp;D107&amp;")", "  "&amp;E107&amp;" = class(T"&amp;J107&amp;C107&amp;", "&amp;D107&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
+        <f t="shared" ref="I107" si="25">IF(C107="", "  "&amp;E107&amp;" = class(TInterfacedObject, "&amp;D107&amp;")", "  "&amp;E107&amp;" = class(T"&amp;J107&amp;C107&amp;", "&amp;D107&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>301</v>
@@ -9441,34 +9444,34 @@
         <v>203</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D108" s="8" t="str">
-        <f>"I"&amp;J108&amp;B108</f>
-        <v>ITMDBTVEpisodes</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBTVEpisode</v>
       </c>
       <c r="E108" s="8" t="str">
-        <f>"T"&amp;J108&amp;B108</f>
-        <v>TTMDBTVEpisodes</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBTVEpisode</v>
       </c>
       <c r="F108" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
       </c>
       <c r="G108" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
       </c>
       <c r="H108" s="8" t="str">
-        <f>IF(C108="", "  "&amp;D108&amp;" = interface", "  "&amp;D108&amp;" = interface(I"&amp;J108&amp;C108&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
       </c>
       <c r="I108" s="8" t="str">
-        <f>IF(C108="", "  "&amp;E108&amp;" = class(TInterfacedObject, "&amp;D108&amp;")", "  "&amp;E108&amp;" = class(T"&amp;J108&amp;C108&amp;", "&amp;D108&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>301</v>
@@ -9479,34 +9482,34 @@
         <v>203</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D109" s="8" t="str">
-        <f>"I"&amp;J109&amp;B109</f>
-        <v>ITMDBTVEpisodePage</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBTVEpisodes</v>
       </c>
       <c r="E109" s="8" t="str">
-        <f>"T"&amp;J109&amp;B109</f>
-        <v>TTMDBTVEpisodePage</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBTVEpisodes</v>
       </c>
       <c r="F109" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
       </c>
       <c r="G109" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
       </c>
       <c r="H109" s="8" t="str">
-        <f>IF(C109="", "  "&amp;D109&amp;" = interface", "  "&amp;D109&amp;" = interface(I"&amp;J109&amp;C109&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
       </c>
       <c r="I109" s="8" t="str">
-        <f>IF(C109="", "  "&amp;E109&amp;" = class(TInterfacedObject, "&amp;D109&amp;")", "  "&amp;E109&amp;" = class(T"&amp;J109&amp;C109&amp;", "&amp;D109&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>301</v>
@@ -9517,34 +9520,34 @@
         <v>203</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="D110" s="8" t="str">
-        <f>"I"&amp;J110&amp;B110</f>
-        <v>ITMDBRatedTVEpisode</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBTVEpisodePage</v>
       </c>
       <c r="E110" s="8" t="str">
-        <f>"T"&amp;J110&amp;B110</f>
-        <v>TTMDBRatedTVEpisode</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBTVEpisodePage</v>
       </c>
       <c r="F110" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
       </c>
       <c r="G110" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
       </c>
       <c r="H110" s="8" t="str">
-        <f>IF(C110="", "  "&amp;D110&amp;" = interface", "  "&amp;D110&amp;" = interface(I"&amp;J110&amp;C110&amp;")")</f>
-        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="I110" s="8" t="str">
-        <f>IF(C110="", "  "&amp;E110&amp;" = class(TInterfacedObject, "&amp;D110&amp;")", "  "&amp;E110&amp;" = class(T"&amp;J110&amp;C110&amp;", "&amp;D110&amp;")")</f>
-        <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>301</v>
@@ -9555,34 +9558,34 @@
         <v>203</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D111" s="8" t="str">
-        <f>"I"&amp;J111&amp;B111</f>
-        <v>ITMDBRatedTVEpisodes</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBRatedTVEpisode</v>
       </c>
       <c r="E111" s="8" t="str">
-        <f>"T"&amp;J111&amp;B111</f>
-        <v>TTMDBRatedTVEpisodes</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBRatedTVEpisode</v>
       </c>
       <c r="F111" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
       </c>
       <c r="G111" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
       </c>
       <c r="H111" s="8" t="str">
-        <f>IF(C111="", "  "&amp;D111&amp;" = interface", "  "&amp;D111&amp;" = interface(I"&amp;J111&amp;C111&amp;")")</f>
-        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="I111" s="8" t="str">
-        <f>IF(C111="", "  "&amp;E111&amp;" = class(TInterfacedObject, "&amp;D111&amp;")", "  "&amp;E111&amp;" = class(T"&amp;J111&amp;C111&amp;", "&amp;D111&amp;")")</f>
-        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>301</v>
@@ -9593,34 +9596,34 @@
         <v>203</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="D112" s="8" t="str">
-        <f>"I"&amp;J112&amp;B112</f>
-        <v>ITMDBTVEpisodeDetail</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBRatedTVEpisodes</v>
       </c>
       <c r="E112" s="8" t="str">
-        <f>"T"&amp;J112&amp;B112</f>
-        <v>TTMDBTVEpisodeDetail</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBRatedTVEpisodes</v>
       </c>
       <c r="F112" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
       </c>
       <c r="G112" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
       </c>
       <c r="H112" s="8" t="str">
-        <f>IF(C112="", "  "&amp;D112&amp;" = interface", "  "&amp;D112&amp;" = interface(I"&amp;J112&amp;C112&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="I112" s="8" t="str">
-        <f>IF(C112="", "  "&amp;E112&amp;" = class(TInterfacedObject, "&amp;D112&amp;")", "  "&amp;E112&amp;" = class(T"&amp;J112&amp;C112&amp;", "&amp;D112&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
       </c>
       <c r="J112" s="8" t="s">
         <v>301</v>
@@ -9628,34 +9631,37 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D113" s="8" t="str">
-        <f>"I"&amp;J113&amp;B113</f>
-        <v>ITMDBTVEpisodeGroup</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBTVEpisodeDetail</v>
       </c>
       <c r="E113" s="8" t="str">
-        <f>"T"&amp;J113&amp;B113</f>
-        <v>TTMDBTVEpisodeGroup</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBTVEpisodeDetail</v>
       </c>
       <c r="F113" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
       </c>
       <c r="G113" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
       </c>
       <c r="H113" s="8" t="str">
-        <f>IF(C113="", "  "&amp;D113&amp;" = interface", "  "&amp;D113&amp;" = interface(I"&amp;J113&amp;C113&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I113" s="8" t="str">
-        <f>IF(C113="", "  "&amp;E113&amp;" = class(TInterfacedObject, "&amp;D113&amp;")", "  "&amp;E113&amp;" = class(T"&amp;J113&amp;C113&amp;", "&amp;D113&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>301</v>
@@ -9666,31 +9672,31 @@
         <v>205</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D114" s="8" t="str">
-        <f>"I"&amp;J114&amp;B114</f>
-        <v>ITMDBTVEpisodeGroups</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBTVEpisodeGroup</v>
       </c>
       <c r="E114" s="8" t="str">
-        <f>"T"&amp;J114&amp;B114</f>
-        <v>TTMDBTVEpisodeGroups</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBTVEpisodeGroup</v>
       </c>
       <c r="F114" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
       </c>
       <c r="G114" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
       </c>
       <c r="H114" s="8" t="str">
-        <f>IF(C114="", "  "&amp;D114&amp;" = interface", "  "&amp;D114&amp;" = interface(I"&amp;J114&amp;C114&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
       </c>
       <c r="I114" s="8" t="str">
-        <f>IF(C114="", "  "&amp;E114&amp;" = class(TInterfacedObject, "&amp;D114&amp;")", "  "&amp;E114&amp;" = class(T"&amp;J114&amp;C114&amp;", "&amp;D114&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>301</v>
@@ -9698,37 +9704,34 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="D115" s="8" t="str">
-        <f>"I"&amp;J115&amp;B115</f>
-        <v>ITMDBList</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBTVEpisodeGroups</v>
       </c>
       <c r="E115" s="8" t="str">
-        <f>"T"&amp;J115&amp;B115</f>
-        <v>TTMDBList</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBTVEpisodeGroups</v>
       </c>
       <c r="F115" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBList = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
       </c>
       <c r="G115" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBList = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
       </c>
       <c r="H115" s="8" t="str">
-        <f>IF(C115="", "  "&amp;D115&amp;" = interface", "  "&amp;D115&amp;" = interface(I"&amp;J115&amp;C115&amp;")")</f>
-        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
       </c>
       <c r="I115" s="8" t="str">
-        <f>IF(C115="", "  "&amp;E115&amp;" = class(TInterfacedObject, "&amp;D115&amp;")", "  "&amp;E115&amp;" = class(T"&amp;J115&amp;C115&amp;", "&amp;D115&amp;")")</f>
-        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>301</v>
@@ -9739,34 +9742,34 @@
         <v>8</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8" t="str">
-        <f>"I"&amp;J116&amp;B116</f>
-        <v>ITMDBLists</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBList</v>
       </c>
       <c r="E116" s="8" t="str">
-        <f>"T"&amp;J116&amp;B116</f>
-        <v>TTMDBLists</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBList</v>
       </c>
       <c r="F116" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBLists = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBList = interface;</v>
       </c>
       <c r="G116" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBLists = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBList = class;</v>
       </c>
       <c r="H116" s="8" t="str">
-        <f>IF(C116="", "  "&amp;D116&amp;" = interface", "  "&amp;D116&amp;" = interface(I"&amp;J116&amp;C116&amp;")")</f>
-        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
       </c>
       <c r="I116" s="8" t="str">
-        <f>IF(C116="", "  "&amp;E116&amp;" = class(TInterfacedObject, "&amp;D116&amp;")", "  "&amp;E116&amp;" = class(T"&amp;J116&amp;C116&amp;", "&amp;D116&amp;")")</f>
-        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>301</v>
@@ -9777,34 +9780,34 @@
         <v>8</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>403</v>
+        <v>8</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8" t="str">
-        <f>"I"&amp;J117&amp;B117</f>
-        <v>ITMDBListPage</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBLists</v>
       </c>
       <c r="E117" s="8" t="str">
-        <f>"T"&amp;J117&amp;B117</f>
-        <v>TTMDBListPage</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBLists</v>
       </c>
       <c r="F117" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBListPage = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBLists = interface;</v>
       </c>
       <c r="G117" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBListPage = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBLists = class;</v>
       </c>
       <c r="H117" s="8" t="str">
-        <f>IF(C117="", "  "&amp;D117&amp;" = interface", "  "&amp;D117&amp;" = interface(I"&amp;J117&amp;C117&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
       </c>
       <c r="I117" s="8" t="str">
-        <f>IF(C117="", "  "&amp;E117&amp;" = class(TInterfacedObject, "&amp;D117&amp;")", "  "&amp;E117&amp;" = class(T"&amp;J117&amp;C117&amp;", "&amp;D117&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>301</v>
@@ -9815,34 +9818,34 @@
         <v>8</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8" t="str">
-        <f>"I"&amp;J118&amp;B118</f>
-        <v>ITMDBListDetail</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBListPage</v>
       </c>
       <c r="E118" s="8" t="str">
-        <f>"T"&amp;J118&amp;B118</f>
-        <v>TTMDBListDetail</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBListPage</v>
       </c>
       <c r="F118" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBListPage = interface;</v>
       </c>
       <c r="G118" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBListDetail = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBListPage = class;</v>
       </c>
       <c r="H118" s="8" t="str">
-        <f>IF(C118="", "  "&amp;D118&amp;" = interface", "  "&amp;D118&amp;" = interface(I"&amp;J118&amp;C118&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
       </c>
       <c r="I118" s="8" t="str">
-        <f>IF(C118="", "  "&amp;E118&amp;" = class(TInterfacedObject, "&amp;D118&amp;")", "  "&amp;E118&amp;" = class(T"&amp;J118&amp;C118&amp;", "&amp;D118&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>301</v>
@@ -9850,34 +9853,37 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D119" s="8" t="str">
-        <f>"I"&amp;J119&amp;B119</f>
-        <v>ITMDBDiscoverMoviesParams</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBListDetail</v>
       </c>
       <c r="E119" s="8" t="str">
-        <f>"T"&amp;J119&amp;B119</f>
-        <v>TTMDBDiscoverMoviesParams</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBListDetail</v>
       </c>
       <c r="F119" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
       </c>
       <c r="G119" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBListDetail = class;</v>
       </c>
       <c r="H119" s="8" t="str">
-        <f>IF(C119="", "  "&amp;D119&amp;" = interface", "  "&amp;D119&amp;" = interface(I"&amp;J119&amp;C119&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="I119" s="8" t="str">
-        <f>IF(C119="", "  "&amp;E119&amp;" = class(TInterfacedObject, "&amp;D119&amp;")", "  "&amp;E119&amp;" = class(T"&amp;J119&amp;C119&amp;", "&amp;D119&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class(TInterfacedObject, ITMDBDiscoverMoviesParams)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>301</v>
@@ -9888,31 +9894,31 @@
         <v>122</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D120" s="8" t="str">
-        <f>"I"&amp;J120&amp;B120</f>
-        <v>ITMDBDiscoverTVParams</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBDiscoverMoviesParams</v>
       </c>
       <c r="E120" s="8" t="str">
-        <f>"T"&amp;J120&amp;B120</f>
-        <v>TTMDBDiscoverTVParams</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBDiscoverMoviesParams</v>
       </c>
       <c r="F120" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface;</v>
       </c>
       <c r="G120" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBDiscoverTVParams = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class;</v>
       </c>
       <c r="H120" s="8" t="str">
-        <f>IF(C120="", "  "&amp;D120&amp;" = interface", "  "&amp;D120&amp;" = interface(I"&amp;J120&amp;C120&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface</v>
       </c>
       <c r="I120" s="8" t="str">
-        <f>IF(C120="", "  "&amp;E120&amp;" = class(TInterfacedObject, "&amp;D120&amp;")", "  "&amp;E120&amp;" = class(T"&amp;J120&amp;C120&amp;", "&amp;D120&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVParams = class(TInterfacedObject, ITMDBDiscoverTVParams)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class(TInterfacedObject, ITMDBDiscoverMoviesParams)</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>301</v>
@@ -9923,34 +9929,31 @@
         <v>122</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>123</v>
+        <v>406</v>
       </c>
       <c r="D121" s="8" t="str">
-        <f>"I"&amp;J121&amp;B121</f>
-        <v>ITMDBDiscoverMovie</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBDiscoverTVParams</v>
       </c>
       <c r="E121" s="8" t="str">
-        <f>"T"&amp;J121&amp;B121</f>
-        <v>TTMDBDiscoverMovie</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBDiscoverTVParams</v>
       </c>
       <c r="F121" s="8" t="str">
-        <f t="shared" ref="F121:F184" si="4">"  "&amp;D121&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverMovie = interface;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface;</v>
       </c>
       <c r="G121" s="8" t="str">
-        <f t="shared" ref="G121:G184" si="5">"  "&amp;E121&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverMovie = class;</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  TTMDBDiscoverTVParams = class;</v>
       </c>
       <c r="H121" s="8" t="str">
-        <f>IF(C121="", "  "&amp;D121&amp;" = interface", "  "&amp;D121&amp;" = interface(I"&amp;J121&amp;C121&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMovie = interface(ITMDBMovie)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface</v>
       </c>
       <c r="I121" s="8" t="str">
-        <f>IF(C121="", "  "&amp;E121&amp;" = class(TInterfacedObject, "&amp;D121&amp;")", "  "&amp;E121&amp;" = class(T"&amp;J121&amp;C121&amp;", "&amp;D121&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMovie = class(TTMDBMovie, ITMDBDiscoverMovie)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBDiscoverTVParams = class(TInterfacedObject, ITMDBDiscoverTVParams)</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>301</v>
@@ -9961,34 +9964,34 @@
         <v>122</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D122" s="8" t="str">
-        <f>"I"&amp;J122&amp;B122</f>
-        <v>ITMDBDiscoverMovies</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBDiscoverMovie</v>
       </c>
       <c r="E122" s="8" t="str">
-        <f>"T"&amp;J122&amp;B122</f>
-        <v>TTMDBDiscoverMovies</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBDiscoverMovie</v>
       </c>
       <c r="F122" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBDiscoverMovies = interface;</v>
+        <f t="shared" ref="F122:F185" si="26">"  "&amp;D122&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBDiscoverMovie = interface;</v>
       </c>
       <c r="G122" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBDiscoverMovies = class;</v>
+        <f t="shared" ref="G122:G185" si="27">"  "&amp;E122&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBDiscoverMovie = class;</v>
       </c>
       <c r="H122" s="8" t="str">
-        <f>IF(C122="", "  "&amp;D122&amp;" = interface", "  "&amp;D122&amp;" = interface(I"&amp;J122&amp;C122&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMovies = interface(ITMDBMovies)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBDiscoverMovie = interface(ITMDBMovie)</v>
       </c>
       <c r="I122" s="8" t="str">
-        <f>IF(C122="", "  "&amp;E122&amp;" = class(TInterfacedObject, "&amp;D122&amp;")", "  "&amp;E122&amp;" = class(T"&amp;J122&amp;C122&amp;", "&amp;D122&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMovies = class(TTMDBMovies, ITMDBDiscoverMovies)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBDiscoverMovie = class(TTMDBMovie, ITMDBDiscoverMovie)</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>301</v>
@@ -9999,34 +10002,34 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="D123" s="8" t="str">
-        <f>"I"&amp;J123&amp;B123</f>
-        <v>ITMDBDiscoverMoviePage</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBDiscoverMovies</v>
       </c>
       <c r="E123" s="8" t="str">
-        <f>"T"&amp;J123&amp;B123</f>
-        <v>TTMDBDiscoverMoviePage</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBDiscoverMovies</v>
       </c>
       <c r="F123" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBDiscoverMoviePage = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBDiscoverMovies = interface;</v>
       </c>
       <c r="G123" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBDiscoverMoviePage = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBDiscoverMovies = class;</v>
       </c>
       <c r="H123" s="8" t="str">
-        <f>IF(C123="", "  "&amp;D123&amp;" = interface", "  "&amp;D123&amp;" = interface(I"&amp;J123&amp;C123&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMoviePage = interface(ITMDBMoviePage)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBDiscoverMovies = interface(ITMDBMovies)</v>
       </c>
       <c r="I123" s="8" t="str">
-        <f>IF(C123="", "  "&amp;E123&amp;" = class(TInterfacedObject, "&amp;D123&amp;")", "  "&amp;E123&amp;" = class(T"&amp;J123&amp;C123&amp;", "&amp;D123&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMoviePage = class(TTMDBMoviePage, ITMDBDiscoverMoviePage)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBDiscoverMovies = class(TTMDBMovies, ITMDBDiscoverMovies)</v>
       </c>
       <c r="J123" s="8" t="s">
         <v>301</v>
@@ -10037,34 +10040,34 @@
         <v>122</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D124" s="8" t="str">
-        <f>"I"&amp;J124&amp;B124</f>
-        <v>ITMDBDiscoverTVSerie</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBDiscoverMoviePage</v>
       </c>
       <c r="E124" s="8" t="str">
-        <f>"T"&amp;J124&amp;B124</f>
-        <v>TTMDBDiscoverTVSerie</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBDiscoverMoviePage</v>
       </c>
       <c r="F124" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBDiscoverTVSerie = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBDiscoverMoviePage = interface;</v>
       </c>
       <c r="G124" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBDiscoverTVSerie = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBDiscoverMoviePage = class;</v>
       </c>
       <c r="H124" s="8" t="str">
-        <f>IF(C124="", "  "&amp;D124&amp;" = interface", "  "&amp;D124&amp;" = interface(I"&amp;J124&amp;C124&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSerie = interface(ITMDBTVSerie)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBDiscoverMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="I124" s="8" t="str">
-        <f>IF(C124="", "  "&amp;E124&amp;" = class(TInterfacedObject, "&amp;D124&amp;")", "  "&amp;E124&amp;" = class(T"&amp;J124&amp;C124&amp;", "&amp;D124&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSerie = class(TTMDBTVSerie, ITMDBDiscoverTVSerie)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBDiscoverMoviePage = class(TTMDBMoviePage, ITMDBDiscoverMoviePage)</v>
       </c>
       <c r="J124" s="8" t="s">
         <v>301</v>
@@ -10075,34 +10078,34 @@
         <v>122</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D125" s="8" t="str">
-        <f>"I"&amp;J125&amp;B125</f>
-        <v>ITMDBDiscoverTVSeries</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBDiscoverTVSerie</v>
       </c>
       <c r="E125" s="8" t="str">
-        <f>"T"&amp;J125&amp;B125</f>
-        <v>TTMDBDiscoverTVSeries</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBDiscoverTVSerie</v>
       </c>
       <c r="F125" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBDiscoverTVSeries = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBDiscoverTVSerie = interface;</v>
       </c>
       <c r="G125" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBDiscoverTVSeries = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBDiscoverTVSerie = class;</v>
       </c>
       <c r="H125" s="8" t="str">
-        <f>IF(C125="", "  "&amp;D125&amp;" = interface", "  "&amp;D125&amp;" = interface(I"&amp;J125&amp;C125&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSeries = interface(ITMDBTVSeries)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBDiscoverTVSerie = interface(ITMDBTVSerie)</v>
       </c>
       <c r="I125" s="8" t="str">
-        <f>IF(C125="", "  "&amp;E125&amp;" = class(TInterfacedObject, "&amp;D125&amp;")", "  "&amp;E125&amp;" = class(T"&amp;J125&amp;C125&amp;", "&amp;D125&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSeries = class(TTMDBTVSeries, ITMDBDiscoverTVSeries)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBDiscoverTVSerie = class(TTMDBTVSerie, ITMDBDiscoverTVSerie)</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>301</v>
@@ -10113,34 +10116,34 @@
         <v>122</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D126" s="8" t="str">
-        <f>"I"&amp;J126&amp;B126</f>
-        <v>ITMDBDiscoverTVSeriesPage</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBDiscoverTVSeries</v>
       </c>
       <c r="E126" s="8" t="str">
-        <f>"T"&amp;J126&amp;B126</f>
-        <v>TTMDBDiscoverTVSeriesPage</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBDiscoverTVSeries</v>
       </c>
       <c r="F126" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBDiscoverTVSeriesPage = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBDiscoverTVSeries = interface;</v>
       </c>
       <c r="G126" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBDiscoverTVSeriesPage = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBDiscoverTVSeries = class;</v>
       </c>
       <c r="H126" s="8" t="str">
-        <f>IF(C126="", "  "&amp;D126&amp;" = interface", "  "&amp;D126&amp;" = interface(I"&amp;J126&amp;C126&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBDiscoverTVSeries = interface(ITMDBTVSeries)</v>
       </c>
       <c r="I126" s="8" t="str">
-        <f>IF(C126="", "  "&amp;E126&amp;" = class(TInterfacedObject, "&amp;D126&amp;")", "  "&amp;E126&amp;" = class(T"&amp;J126&amp;C126&amp;", "&amp;D126&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBDiscoverTVSeriesPage)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBDiscoverTVSeries = class(TTMDBTVSeries, ITMDBDiscoverTVSeries)</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>301</v>
@@ -10148,34 +10151,37 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="D127" s="8" t="str">
-        <f>"I"&amp;J127&amp;B127</f>
-        <v>ITMDBFindResults</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBDiscoverTVSeriesPage</v>
       </c>
       <c r="E127" s="8" t="str">
-        <f>"T"&amp;J127&amp;B127</f>
-        <v>TTMDBFindResults</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBDiscoverTVSeriesPage</v>
       </c>
       <c r="F127" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBFindResults = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBDiscoverTVSeriesPage = interface;</v>
       </c>
       <c r="G127" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBFindResults = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBDiscoverTVSeriesPage = class;</v>
       </c>
       <c r="H127" s="8" t="str">
-        <f>IF(C127="", "  "&amp;D127&amp;" = interface", "  "&amp;D127&amp;" = interface(I"&amp;J127&amp;C127&amp;")")</f>
-        <v xml:space="preserve">  ITMDBFindResults = interface</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBDiscoverTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
       </c>
       <c r="I127" s="8" t="str">
-        <f>IF(C127="", "  "&amp;E127&amp;" = class(TInterfacedObject, "&amp;D127&amp;")", "  "&amp;E127&amp;" = class(T"&amp;J127&amp;C127&amp;", "&amp;D127&amp;")")</f>
-        <v xml:space="preserve">  TTMDBFindResults = class(TInterfacedObject, ITMDBFindResults)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBDiscoverTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBDiscoverTVSeriesPage)</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>301</v>
@@ -10183,34 +10189,34 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D128" s="8" t="str">
-        <f>"I"&amp;J128&amp;B128</f>
-        <v>ITMDBWatchProviderPriority</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBFindResults</v>
       </c>
       <c r="E128" s="8" t="str">
-        <f>"T"&amp;J128&amp;B128</f>
-        <v>TTMDBWatchProviderPriority</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBFindResults</v>
       </c>
       <c r="F128" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBFindResults = interface;</v>
       </c>
       <c r="G128" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBFindResults = class;</v>
       </c>
       <c r="H128" s="8" t="str">
-        <f>IF(C128="", "  "&amp;D128&amp;" = interface", "  "&amp;D128&amp;" = interface(I"&amp;J128&amp;C128&amp;")")</f>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBFindResults = interface</v>
       </c>
       <c r="I128" s="8" t="str">
-        <f>IF(C128="", "  "&amp;E128&amp;" = class(TInterfacedObject, "&amp;D128&amp;")", "  "&amp;E128&amp;" = class(T"&amp;J128&amp;C128&amp;", "&amp;D128&amp;")")</f>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBFindResults = class(TInterfacedObject, ITMDBFindResults)</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>301</v>
@@ -10221,31 +10227,31 @@
         <v>166</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D129" s="8" t="str">
-        <f>"I"&amp;J129&amp;B129</f>
-        <v>ITMDBWatchProviderPriorities</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBWatchProviderPriority</v>
       </c>
       <c r="E129" s="8" t="str">
-        <f>"T"&amp;J129&amp;B129</f>
-        <v>TTMDBWatchProviderPriorities</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBWatchProviderPriority</v>
       </c>
       <c r="F129" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
       </c>
       <c r="G129" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
       </c>
       <c r="H129" s="8" t="str">
-        <f>IF(C129="", "  "&amp;D129&amp;" = interface", "  "&amp;D129&amp;" = interface(I"&amp;J129&amp;C129&amp;")")</f>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
       </c>
       <c r="I129" s="8" t="str">
-        <f>IF(C129="", "  "&amp;E129&amp;" = class(TInterfacedObject, "&amp;D129&amp;")", "  "&amp;E129&amp;" = class(T"&amp;J129&amp;C129&amp;", "&amp;D129&amp;")")</f>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>301</v>
@@ -10256,34 +10262,31 @@
         <v>166</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>309</v>
+        <v>413</v>
       </c>
       <c r="D130" s="8" t="str">
-        <f>"I"&amp;J130&amp;B130</f>
-        <v>ITMDBWatchProvider</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBWatchProviderPriorities</v>
       </c>
       <c r="E130" s="8" t="str">
-        <f>"T"&amp;J130&amp;B130</f>
-        <v>TTMDBWatchProvider</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBWatchProviderPriorities</v>
       </c>
       <c r="F130" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
       </c>
       <c r="G130" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
       </c>
       <c r="H130" s="8" t="str">
-        <f>IF(C130="", "  "&amp;D130&amp;" = interface", "  "&amp;D130&amp;" = interface(I"&amp;J130&amp;C130&amp;")")</f>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
       </c>
       <c r="I130" s="8" t="str">
-        <f>IF(C130="", "  "&amp;E130&amp;" = class(TInterfacedObject, "&amp;D130&amp;")", "  "&amp;E130&amp;" = class(T"&amp;J130&amp;C130&amp;", "&amp;D130&amp;")")</f>
-        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>301</v>
@@ -10294,34 +10297,34 @@
         <v>166</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D131" s="8" t="str">
-        <f>"I"&amp;J131&amp;B131</f>
-        <v>ITMDBWatchProviders</v>
+        <f t="shared" ref="D131:D162" si="28">"I"&amp;J131&amp;B131</f>
+        <v>ITMDBWatchProvider</v>
       </c>
       <c r="E131" s="8" t="str">
-        <f>"T"&amp;J131&amp;B131</f>
-        <v>TTMDBWatchProviders</v>
+        <f t="shared" ref="E131:E162" si="29">"T"&amp;J131&amp;B131</f>
+        <v>TTMDBWatchProvider</v>
       </c>
       <c r="F131" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
       </c>
       <c r="G131" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
       </c>
       <c r="H131" s="8" t="str">
-        <f>IF(C131="", "  "&amp;D131&amp;" = interface", "  "&amp;D131&amp;" = interface(I"&amp;J131&amp;C131&amp;")")</f>
-        <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
+        <f t="shared" ref="H131:H162" si="30">IF(C131="", "  "&amp;D131&amp;" = interface", "  "&amp;D131&amp;" = interface(I"&amp;J131&amp;C131&amp;")")</f>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="I131" s="8" t="str">
-        <f>IF(C131="", "  "&amp;E131&amp;" = class(TInterfacedObject, "&amp;D131&amp;")", "  "&amp;E131&amp;" = class(T"&amp;J131&amp;C131&amp;", "&amp;D131&amp;")")</f>
-        <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
+        <f t="shared" ref="I131:I162" si="31">IF(C131="", "  "&amp;E131&amp;" = class(TInterfacedObject, "&amp;D131&amp;")", "  "&amp;E131&amp;" = class(T"&amp;J131&amp;C131&amp;", "&amp;D131&amp;")")</f>
+        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>301</v>
@@ -10329,34 +10332,37 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="D132" s="8" t="str">
-        <f>"I"&amp;J132&amp;B132</f>
-        <v>ITMDBService</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBWatchProviders</v>
       </c>
       <c r="E132" s="8" t="str">
-        <f>"T"&amp;J132&amp;B132</f>
-        <v>TTMDBService</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBWatchProviders</v>
       </c>
       <c r="F132" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBService = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
       </c>
       <c r="G132" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBService = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
       </c>
       <c r="H132" s="8" t="str">
-        <f>IF(C132="", "  "&amp;D132&amp;" = interface", "  "&amp;D132&amp;" = interface(I"&amp;J132&amp;C132&amp;")")</f>
-        <v xml:space="preserve">  ITMDBService = interface</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
       </c>
       <c r="I132" s="8" t="str">
-        <f>IF(C132="", "  "&amp;E132&amp;" = class(TInterfacedObject, "&amp;D132&amp;")", "  "&amp;E132&amp;" = class(T"&amp;J132&amp;C132&amp;", "&amp;D132&amp;")")</f>
-        <v xml:space="preserve">  TTMDBService = class(TInterfacedObject, ITMDBService)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>301</v>
@@ -10367,34 +10373,31 @@
         <v>416</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D133" s="8" t="str">
-        <f>"I"&amp;J133&amp;B133</f>
-        <v>ITMDBServiceAccount</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBService</v>
       </c>
       <c r="E133" s="8" t="str">
-        <f>"T"&amp;J133&amp;B133</f>
-        <v>TTMDBServiceAccount</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBService</v>
       </c>
       <c r="F133" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceAccount = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBService = interface;</v>
       </c>
       <c r="G133" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceAccount = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBService = class;</v>
       </c>
       <c r="H133" s="8" t="str">
-        <f>IF(C133="", "  "&amp;D133&amp;" = interface", "  "&amp;D133&amp;" = interface(I"&amp;J133&amp;C133&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceAccount = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBService = interface</v>
       </c>
       <c r="I133" s="8" t="str">
-        <f>IF(C133="", "  "&amp;E133&amp;" = class(TInterfacedObject, "&amp;D133&amp;")", "  "&amp;E133&amp;" = class(T"&amp;J133&amp;C133&amp;", "&amp;D133&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceAccount = class(TTMDBITMDBService, ITMDBServiceAccount)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBService = class(TInterfacedObject, ITMDBService)</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>301</v>
@@ -10405,34 +10408,34 @@
         <v>416</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D134" s="8" t="str">
-        <f>"I"&amp;J134&amp;B134</f>
-        <v>ITMDBServiceAuthentication</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceAccount</v>
       </c>
       <c r="E134" s="8" t="str">
-        <f>"T"&amp;J134&amp;B134</f>
-        <v>TTMDBServiceAuthentication</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceAccount</v>
       </c>
       <c r="F134" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceAuthentication = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceAccount = interface;</v>
       </c>
       <c r="G134" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceAuthentication = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceAccount = class;</v>
       </c>
       <c r="H134" s="8" t="str">
-        <f>IF(C134="", "  "&amp;D134&amp;" = interface", "  "&amp;D134&amp;" = interface(I"&amp;J134&amp;C134&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceAuthentication = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceAccount = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I134" s="8" t="str">
-        <f>IF(C134="", "  "&amp;E134&amp;" = class(TInterfacedObject, "&amp;D134&amp;")", "  "&amp;E134&amp;" = class(T"&amp;J134&amp;C134&amp;", "&amp;D134&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceAuthentication = class(TTMDBITMDBService, ITMDBServiceAuthentication)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceAccount = class(TTMDBITMDBService, ITMDBServiceAccount)</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>301</v>
@@ -10443,34 +10446,34 @@
         <v>416</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D135" s="8" t="str">
-        <f>"I"&amp;J135&amp;B135</f>
-        <v>ITMDBServiceCertifications</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceAuthentication</v>
       </c>
       <c r="E135" s="8" t="str">
-        <f>"T"&amp;J135&amp;B135</f>
-        <v>TTMDBServiceCertifications</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceAuthentication</v>
       </c>
       <c r="F135" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceCertifications = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceAuthentication = interface;</v>
       </c>
       <c r="G135" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceCertifications = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceAuthentication = class;</v>
       </c>
       <c r="H135" s="8" t="str">
-        <f>IF(C135="", "  "&amp;D135&amp;" = interface", "  "&amp;D135&amp;" = interface(I"&amp;J135&amp;C135&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceCertifications = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceAuthentication = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I135" s="8" t="str">
-        <f>IF(C135="", "  "&amp;E135&amp;" = class(TInterfacedObject, "&amp;D135&amp;")", "  "&amp;E135&amp;" = class(T"&amp;J135&amp;C135&amp;", "&amp;D135&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceCertifications = class(TTMDBITMDBService, ITMDBServiceCertifications)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceAuthentication = class(TTMDBITMDBService, ITMDBServiceAuthentication)</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>301</v>
@@ -10481,34 +10484,34 @@
         <v>416</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D136" s="8" t="str">
-        <f>"I"&amp;J136&amp;B136</f>
-        <v>ITMDBServiceChanges</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceCertifications</v>
       </c>
       <c r="E136" s="8" t="str">
-        <f>"T"&amp;J136&amp;B136</f>
-        <v>TTMDBServiceChanges</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceCertifications</v>
       </c>
       <c r="F136" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceChanges = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceCertifications = interface;</v>
       </c>
       <c r="G136" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceChanges = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceCertifications = class;</v>
       </c>
       <c r="H136" s="8" t="str">
-        <f>IF(C136="", "  "&amp;D136&amp;" = interface", "  "&amp;D136&amp;" = interface(I"&amp;J136&amp;C136&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceChanges = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceCertifications = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I136" s="8" t="str">
-        <f>IF(C136="", "  "&amp;E136&amp;" = class(TInterfacedObject, "&amp;D136&amp;")", "  "&amp;E136&amp;" = class(T"&amp;J136&amp;C136&amp;", "&amp;D136&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceChanges = class(TTMDBITMDBService, ITMDBServiceChanges)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceCertifications = class(TTMDBITMDBService, ITMDBServiceCertifications)</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>301</v>
@@ -10519,34 +10522,34 @@
         <v>416</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D137" s="8" t="str">
-        <f>"I"&amp;J137&amp;B137</f>
-        <v>ITMDBServiceCollections</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceChanges</v>
       </c>
       <c r="E137" s="8" t="str">
-        <f>"T"&amp;J137&amp;B137</f>
-        <v>TTMDBServiceCollections</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceChanges</v>
       </c>
       <c r="F137" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceCollections = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceChanges = interface;</v>
       </c>
       <c r="G137" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceCollections = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceChanges = class;</v>
       </c>
       <c r="H137" s="8" t="str">
-        <f>IF(C137="", "  "&amp;D137&amp;" = interface", "  "&amp;D137&amp;" = interface(I"&amp;J137&amp;C137&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceCollections = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceChanges = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I137" s="8" t="str">
-        <f>IF(C137="", "  "&amp;E137&amp;" = class(TInterfacedObject, "&amp;D137&amp;")", "  "&amp;E137&amp;" = class(T"&amp;J137&amp;C137&amp;", "&amp;D137&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceCollections = class(TTMDBITMDBService, ITMDBServiceCollections)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceChanges = class(TTMDBITMDBService, ITMDBServiceChanges)</v>
       </c>
       <c r="J137" s="8" t="s">
         <v>301</v>
@@ -10557,34 +10560,34 @@
         <v>416</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D138" s="8" t="str">
-        <f>"I"&amp;J138&amp;B138</f>
-        <v>ITMDBServiceCompanies</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceCollections</v>
       </c>
       <c r="E138" s="8" t="str">
-        <f>"T"&amp;J138&amp;B138</f>
-        <v>TTMDBServiceCompanies</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceCollections</v>
       </c>
       <c r="F138" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceCompanies = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceCollections = interface;</v>
       </c>
       <c r="G138" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceCompanies = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceCollections = class;</v>
       </c>
       <c r="H138" s="8" t="str">
-        <f>IF(C138="", "  "&amp;D138&amp;" = interface", "  "&amp;D138&amp;" = interface(I"&amp;J138&amp;C138&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceCompanies = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceCollections = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I138" s="8" t="str">
-        <f>IF(C138="", "  "&amp;E138&amp;" = class(TInterfacedObject, "&amp;D138&amp;")", "  "&amp;E138&amp;" = class(T"&amp;J138&amp;C138&amp;", "&amp;D138&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceCompanies = class(TTMDBITMDBService, ITMDBServiceCompanies)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceCollections = class(TTMDBITMDBService, ITMDBServiceCollections)</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>301</v>
@@ -10595,34 +10598,34 @@
         <v>416</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D139" s="8" t="str">
-        <f>"I"&amp;J139&amp;B139</f>
-        <v>ITMDBServiceConfiguration</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceCompanies</v>
       </c>
       <c r="E139" s="8" t="str">
-        <f>"T"&amp;J139&amp;B139</f>
-        <v>TTMDBServiceConfiguration</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceCompanies</v>
       </c>
       <c r="F139" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceConfiguration = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceCompanies = interface;</v>
       </c>
       <c r="G139" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceConfiguration = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceCompanies = class;</v>
       </c>
       <c r="H139" s="8" t="str">
-        <f>IF(C139="", "  "&amp;D139&amp;" = interface", "  "&amp;D139&amp;" = interface(I"&amp;J139&amp;C139&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceConfiguration = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceCompanies = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I139" s="8" t="str">
-        <f>IF(C139="", "  "&amp;E139&amp;" = class(TInterfacedObject, "&amp;D139&amp;")", "  "&amp;E139&amp;" = class(T"&amp;J139&amp;C139&amp;", "&amp;D139&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceConfiguration = class(TTMDBITMDBService, ITMDBServiceConfiguration)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceCompanies = class(TTMDBITMDBService, ITMDBServiceCompanies)</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>301</v>
@@ -10633,34 +10636,34 @@
         <v>416</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D140" s="8" t="str">
-        <f>"I"&amp;J140&amp;B140</f>
-        <v>ITMDBServiceCredits</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceConfiguration</v>
       </c>
       <c r="E140" s="8" t="str">
-        <f>"T"&amp;J140&amp;B140</f>
-        <v>TTMDBServiceCredits</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceConfiguration</v>
       </c>
       <c r="F140" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceCredits = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceConfiguration = interface;</v>
       </c>
       <c r="G140" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceCredits = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceConfiguration = class;</v>
       </c>
       <c r="H140" s="8" t="str">
-        <f>IF(C140="", "  "&amp;D140&amp;" = interface", "  "&amp;D140&amp;" = interface(I"&amp;J140&amp;C140&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceCredits = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceConfiguration = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I140" s="8" t="str">
-        <f>IF(C140="", "  "&amp;E140&amp;" = class(TInterfacedObject, "&amp;D140&amp;")", "  "&amp;E140&amp;" = class(T"&amp;J140&amp;C140&amp;", "&amp;D140&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceCredits = class(TTMDBITMDBService, ITMDBServiceCredits)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceConfiguration = class(TTMDBITMDBService, ITMDBServiceConfiguration)</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>301</v>
@@ -10671,34 +10674,34 @@
         <v>416</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D141" s="8" t="str">
-        <f>"I"&amp;J141&amp;B141</f>
-        <v>ITMDBServiceDiscover</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceCredits</v>
       </c>
       <c r="E141" s="8" t="str">
-        <f>"T"&amp;J141&amp;B141</f>
-        <v>TTMDBServiceDiscover</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceCredits</v>
       </c>
       <c r="F141" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceDiscover = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceCredits = interface;</v>
       </c>
       <c r="G141" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceDiscover = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceCredits = class;</v>
       </c>
       <c r="H141" s="8" t="str">
-        <f>IF(C141="", "  "&amp;D141&amp;" = interface", "  "&amp;D141&amp;" = interface(I"&amp;J141&amp;C141&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceDiscover = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceCredits = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I141" s="8" t="str">
-        <f>IF(C141="", "  "&amp;E141&amp;" = class(TInterfacedObject, "&amp;D141&amp;")", "  "&amp;E141&amp;" = class(T"&amp;J141&amp;C141&amp;", "&amp;D141&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceDiscover = class(TTMDBITMDBService, ITMDBServiceDiscover)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceCredits = class(TTMDBITMDBService, ITMDBServiceCredits)</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>301</v>
@@ -10709,34 +10712,34 @@
         <v>416</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D142" s="8" t="str">
-        <f>"I"&amp;J142&amp;B142</f>
-        <v>ITMDBServiceFind</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceDiscover</v>
       </c>
       <c r="E142" s="8" t="str">
-        <f>"T"&amp;J142&amp;B142</f>
-        <v>TTMDBServiceFind</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceDiscover</v>
       </c>
       <c r="F142" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceFind = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceDiscover = interface;</v>
       </c>
       <c r="G142" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceFind = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceDiscover = class;</v>
       </c>
       <c r="H142" s="8" t="str">
-        <f>IF(C142="", "  "&amp;D142&amp;" = interface", "  "&amp;D142&amp;" = interface(I"&amp;J142&amp;C142&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceFind = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceDiscover = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I142" s="8" t="str">
-        <f>IF(C142="", "  "&amp;E142&amp;" = class(TInterfacedObject, "&amp;D142&amp;")", "  "&amp;E142&amp;" = class(T"&amp;J142&amp;C142&amp;", "&amp;D142&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceFind = class(TTMDBITMDBService, ITMDBServiceFind)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceDiscover = class(TTMDBITMDBService, ITMDBServiceDiscover)</v>
       </c>
       <c r="J142" s="8" t="s">
         <v>301</v>
@@ -10747,34 +10750,34 @@
         <v>416</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D143" s="8" t="str">
-        <f>"I"&amp;J143&amp;B143</f>
-        <v>ITMDBServiceGenres</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceFind</v>
       </c>
       <c r="E143" s="8" t="str">
-        <f>"T"&amp;J143&amp;B143</f>
-        <v>TTMDBServiceGenres</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceFind</v>
       </c>
       <c r="F143" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceGenres = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceFind = interface;</v>
       </c>
       <c r="G143" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceGenres = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceFind = class;</v>
       </c>
       <c r="H143" s="8" t="str">
-        <f>IF(C143="", "  "&amp;D143&amp;" = interface", "  "&amp;D143&amp;" = interface(I"&amp;J143&amp;C143&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceGenres = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceFind = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I143" s="8" t="str">
-        <f>IF(C143="", "  "&amp;E143&amp;" = class(TInterfacedObject, "&amp;D143&amp;")", "  "&amp;E143&amp;" = class(T"&amp;J143&amp;C143&amp;", "&amp;D143&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceGenres = class(TTMDBITMDBService, ITMDBServiceGenres)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceFind = class(TTMDBITMDBService, ITMDBServiceFind)</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>301</v>
@@ -10785,34 +10788,34 @@
         <v>416</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D144" s="8" t="str">
-        <f>"I"&amp;J144&amp;B144</f>
-        <v>ITMDBServiceGuestSessions</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceGenres</v>
       </c>
       <c r="E144" s="8" t="str">
-        <f>"T"&amp;J144&amp;B144</f>
-        <v>TTMDBServiceGuestSessions</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceGenres</v>
       </c>
       <c r="F144" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceGuestSessions = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceGenres = interface;</v>
       </c>
       <c r="G144" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceGuestSessions = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceGenres = class;</v>
       </c>
       <c r="H144" s="8" t="str">
-        <f>IF(C144="", "  "&amp;D144&amp;" = interface", "  "&amp;D144&amp;" = interface(I"&amp;J144&amp;C144&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceGuestSessions = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceGenres = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I144" s="8" t="str">
-        <f>IF(C144="", "  "&amp;E144&amp;" = class(TInterfacedObject, "&amp;D144&amp;")", "  "&amp;E144&amp;" = class(T"&amp;J144&amp;C144&amp;", "&amp;D144&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceGuestSessions = class(TTMDBITMDBService, ITMDBServiceGuestSessions)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceGenres = class(TTMDBITMDBService, ITMDBServiceGenres)</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>301</v>
@@ -10823,34 +10826,34 @@
         <v>416</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D145" s="8" t="str">
-        <f>"I"&amp;J145&amp;B145</f>
-        <v>ITMDBServiceKeywords</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceGuestSessions</v>
       </c>
       <c r="E145" s="8" t="str">
-        <f>"T"&amp;J145&amp;B145</f>
-        <v>TTMDBServiceKeywords</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceGuestSessions</v>
       </c>
       <c r="F145" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceKeywords = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceGuestSessions = interface;</v>
       </c>
       <c r="G145" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceKeywords = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceGuestSessions = class;</v>
       </c>
       <c r="H145" s="8" t="str">
-        <f>IF(C145="", "  "&amp;D145&amp;" = interface", "  "&amp;D145&amp;" = interface(I"&amp;J145&amp;C145&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceKeywords = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceGuestSessions = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I145" s="8" t="str">
-        <f>IF(C145="", "  "&amp;E145&amp;" = class(TInterfacedObject, "&amp;D145&amp;")", "  "&amp;E145&amp;" = class(T"&amp;J145&amp;C145&amp;", "&amp;D145&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceKeywords = class(TTMDBITMDBService, ITMDBServiceKeywords)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceGuestSessions = class(TTMDBITMDBService, ITMDBServiceGuestSessions)</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>301</v>
@@ -10861,34 +10864,34 @@
         <v>416</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D146" s="8" t="str">
-        <f>"I"&amp;J146&amp;B146</f>
-        <v>ITMDBServiceLists</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceKeywords</v>
       </c>
       <c r="E146" s="8" t="str">
-        <f>"T"&amp;J146&amp;B146</f>
-        <v>TTMDBServiceLists</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceKeywords</v>
       </c>
       <c r="F146" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceLists = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceKeywords = interface;</v>
       </c>
       <c r="G146" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceLists = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceKeywords = class;</v>
       </c>
       <c r="H146" s="8" t="str">
-        <f>IF(C146="", "  "&amp;D146&amp;" = interface", "  "&amp;D146&amp;" = interface(I"&amp;J146&amp;C146&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceLists = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceKeywords = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I146" s="8" t="str">
-        <f>IF(C146="", "  "&amp;E146&amp;" = class(TInterfacedObject, "&amp;D146&amp;")", "  "&amp;E146&amp;" = class(T"&amp;J146&amp;C146&amp;", "&amp;D146&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceLists = class(TTMDBITMDBService, ITMDBServiceLists)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceKeywords = class(TTMDBITMDBService, ITMDBServiceKeywords)</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>301</v>
@@ -10899,34 +10902,34 @@
         <v>416</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D147" s="8" t="str">
-        <f>"I"&amp;J147&amp;B147</f>
-        <v>ITMDBServiceMovieLists</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceLists</v>
       </c>
       <c r="E147" s="8" t="str">
-        <f>"T"&amp;J147&amp;B147</f>
-        <v>TTMDBServiceMovieLists</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceLists</v>
       </c>
       <c r="F147" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceMovieLists = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceLists = interface;</v>
       </c>
       <c r="G147" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceMovieLists = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceLists = class;</v>
       </c>
       <c r="H147" s="8" t="str">
-        <f>IF(C147="", "  "&amp;D147&amp;" = interface", "  "&amp;D147&amp;" = interface(I"&amp;J147&amp;C147&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceMovieLists = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceLists = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I147" s="8" t="str">
-        <f>IF(C147="", "  "&amp;E147&amp;" = class(TInterfacedObject, "&amp;D147&amp;")", "  "&amp;E147&amp;" = class(T"&amp;J147&amp;C147&amp;", "&amp;D147&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceMovieLists = class(TTMDBITMDBService, ITMDBServiceMovieLists)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceLists = class(TTMDBITMDBService, ITMDBServiceLists)</v>
       </c>
       <c r="J147" s="8" t="s">
         <v>301</v>
@@ -10937,34 +10940,34 @@
         <v>416</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D148" s="8" t="str">
-        <f>"I"&amp;J148&amp;B148</f>
-        <v>ITMDBServiceMovies</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceMovieLists</v>
       </c>
       <c r="E148" s="8" t="str">
-        <f>"T"&amp;J148&amp;B148</f>
-        <v>TTMDBServiceMovies</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceMovieLists</v>
       </c>
       <c r="F148" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceMovies = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceMovieLists = interface;</v>
       </c>
       <c r="G148" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceMovies = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceMovieLists = class;</v>
       </c>
       <c r="H148" s="8" t="str">
-        <f>IF(C148="", "  "&amp;D148&amp;" = interface", "  "&amp;D148&amp;" = interface(I"&amp;J148&amp;C148&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceMovies = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceMovieLists = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I148" s="8" t="str">
-        <f>IF(C148="", "  "&amp;E148&amp;" = class(TInterfacedObject, "&amp;D148&amp;")", "  "&amp;E148&amp;" = class(T"&amp;J148&amp;C148&amp;", "&amp;D148&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceMovies = class(TTMDBITMDBService, ITMDBServiceMovies)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceMovieLists = class(TTMDBITMDBService, ITMDBServiceMovieLists)</v>
       </c>
       <c r="J148" s="8" t="s">
         <v>301</v>
@@ -10975,34 +10978,34 @@
         <v>416</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D149" s="8" t="str">
-        <f>"I"&amp;J149&amp;B149</f>
-        <v>ITMDBServiceNetworks</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceMovies</v>
       </c>
       <c r="E149" s="8" t="str">
-        <f>"T"&amp;J149&amp;B149</f>
-        <v>TTMDBServiceNetworks</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceMovies</v>
       </c>
       <c r="F149" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceNetworks = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceMovies = interface;</v>
       </c>
       <c r="G149" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceNetworks = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceMovies = class;</v>
       </c>
       <c r="H149" s="8" t="str">
-        <f>IF(C149="", "  "&amp;D149&amp;" = interface", "  "&amp;D149&amp;" = interface(I"&amp;J149&amp;C149&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceNetworks = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceMovies = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I149" s="8" t="str">
-        <f>IF(C149="", "  "&amp;E149&amp;" = class(TInterfacedObject, "&amp;D149&amp;")", "  "&amp;E149&amp;" = class(T"&amp;J149&amp;C149&amp;", "&amp;D149&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceNetworks = class(TTMDBITMDBService, ITMDBServiceNetworks)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceMovies = class(TTMDBITMDBService, ITMDBServiceMovies)</v>
       </c>
       <c r="J149" s="8" t="s">
         <v>301</v>
@@ -11013,34 +11016,34 @@
         <v>416</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D150" s="8" t="str">
-        <f>"I"&amp;J150&amp;B150</f>
-        <v>ITMDBServicePeopleLists</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceNetworks</v>
       </c>
       <c r="E150" s="8" t="str">
-        <f>"T"&amp;J150&amp;B150</f>
-        <v>TTMDBServicePeopleLists</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceNetworks</v>
       </c>
       <c r="F150" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServicePeopleLists = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceNetworks = interface;</v>
       </c>
       <c r="G150" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServicePeopleLists = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceNetworks = class;</v>
       </c>
       <c r="H150" s="8" t="str">
-        <f>IF(C150="", "  "&amp;D150&amp;" = interface", "  "&amp;D150&amp;" = interface(I"&amp;J150&amp;C150&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServicePeopleLists = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceNetworks = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I150" s="8" t="str">
-        <f>IF(C150="", "  "&amp;E150&amp;" = class(TInterfacedObject, "&amp;D150&amp;")", "  "&amp;E150&amp;" = class(T"&amp;J150&amp;C150&amp;", "&amp;D150&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServicePeopleLists = class(TTMDBITMDBService, ITMDBServicePeopleLists)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceNetworks = class(TTMDBITMDBService, ITMDBServiceNetworks)</v>
       </c>
       <c r="J150" s="8" t="s">
         <v>301</v>
@@ -11051,34 +11054,34 @@
         <v>416</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D151" s="8" t="str">
-        <f>"I"&amp;J151&amp;B151</f>
-        <v>ITMDBServicePeople</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServicePeopleLists</v>
       </c>
       <c r="E151" s="8" t="str">
-        <f>"T"&amp;J151&amp;B151</f>
-        <v>TTMDBServicePeople</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServicePeopleLists</v>
       </c>
       <c r="F151" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServicePeople = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServicePeopleLists = interface;</v>
       </c>
       <c r="G151" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServicePeople = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServicePeopleLists = class;</v>
       </c>
       <c r="H151" s="8" t="str">
-        <f>IF(C151="", "  "&amp;D151&amp;" = interface", "  "&amp;D151&amp;" = interface(I"&amp;J151&amp;C151&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServicePeople = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServicePeopleLists = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I151" s="8" t="str">
-        <f>IF(C151="", "  "&amp;E151&amp;" = class(TInterfacedObject, "&amp;D151&amp;")", "  "&amp;E151&amp;" = class(T"&amp;J151&amp;C151&amp;", "&amp;D151&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServicePeople = class(TTMDBITMDBService, ITMDBServicePeople)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServicePeopleLists = class(TTMDBITMDBService, ITMDBServicePeopleLists)</v>
       </c>
       <c r="J151" s="8" t="s">
         <v>301</v>
@@ -11089,34 +11092,34 @@
         <v>416</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D152" s="8" t="str">
-        <f>"I"&amp;J152&amp;B152</f>
-        <v>ITMDBServiceReviews</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServicePeople</v>
       </c>
       <c r="E152" s="8" t="str">
-        <f>"T"&amp;J152&amp;B152</f>
-        <v>TTMDBServiceReviews</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServicePeople</v>
       </c>
       <c r="F152" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceReviews = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServicePeople = interface;</v>
       </c>
       <c r="G152" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceReviews = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServicePeople = class;</v>
       </c>
       <c r="H152" s="8" t="str">
-        <f>IF(C152="", "  "&amp;D152&amp;" = interface", "  "&amp;D152&amp;" = interface(I"&amp;J152&amp;C152&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceReviews = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServicePeople = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I152" s="8" t="str">
-        <f>IF(C152="", "  "&amp;E152&amp;" = class(TInterfacedObject, "&amp;D152&amp;")", "  "&amp;E152&amp;" = class(T"&amp;J152&amp;C152&amp;", "&amp;D152&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceReviews = class(TTMDBITMDBService, ITMDBServiceReviews)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServicePeople = class(TTMDBITMDBService, ITMDBServicePeople)</v>
       </c>
       <c r="J152" s="8" t="s">
         <v>301</v>
@@ -11127,34 +11130,34 @@
         <v>416</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D153" s="8" t="str">
-        <f>"I"&amp;J153&amp;B153</f>
-        <v>ITMDBServiceSearch</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceReviews</v>
       </c>
       <c r="E153" s="8" t="str">
-        <f>"T"&amp;J153&amp;B153</f>
-        <v>TTMDBServiceSearch</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceReviews</v>
       </c>
       <c r="F153" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceSearch = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceReviews = interface;</v>
       </c>
       <c r="G153" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceSearch = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceReviews = class;</v>
       </c>
       <c r="H153" s="8" t="str">
-        <f>IF(C153="", "  "&amp;D153&amp;" = interface", "  "&amp;D153&amp;" = interface(I"&amp;J153&amp;C153&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceSearch = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceReviews = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I153" s="8" t="str">
-        <f>IF(C153="", "  "&amp;E153&amp;" = class(TInterfacedObject, "&amp;D153&amp;")", "  "&amp;E153&amp;" = class(T"&amp;J153&amp;C153&amp;", "&amp;D153&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceSearch = class(TTMDBITMDBService, ITMDBServiceSearch)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceReviews = class(TTMDBITMDBService, ITMDBServiceReviews)</v>
       </c>
       <c r="J153" s="8" t="s">
         <v>301</v>
@@ -11165,34 +11168,34 @@
         <v>416</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D154" s="8" t="str">
-        <f>"I"&amp;J154&amp;B154</f>
-        <v>ITMDBServiceTrending</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceSearch</v>
       </c>
       <c r="E154" s="8" t="str">
-        <f>"T"&amp;J154&amp;B154</f>
-        <v>TTMDBServiceTrending</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceSearch</v>
       </c>
       <c r="F154" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceTrending = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceSearch = interface;</v>
       </c>
       <c r="G154" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceTrending = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceSearch = class;</v>
       </c>
       <c r="H154" s="8" t="str">
-        <f>IF(C154="", "  "&amp;D154&amp;" = interface", "  "&amp;D154&amp;" = interface(I"&amp;J154&amp;C154&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceTrending = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceSearch = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I154" s="8" t="str">
-        <f>IF(C154="", "  "&amp;E154&amp;" = class(TInterfacedObject, "&amp;D154&amp;")", "  "&amp;E154&amp;" = class(T"&amp;J154&amp;C154&amp;", "&amp;D154&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceTrending = class(TTMDBITMDBService, ITMDBServiceTrending)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceSearch = class(TTMDBITMDBService, ITMDBServiceSearch)</v>
       </c>
       <c r="J154" s="8" t="s">
         <v>301</v>
@@ -11203,34 +11206,34 @@
         <v>416</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D155" s="8" t="str">
-        <f>"I"&amp;J155&amp;B155</f>
-        <v>ITMDBServiceTVSeriesLists</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceTrending</v>
       </c>
       <c r="E155" s="8" t="str">
-        <f>"T"&amp;J155&amp;B155</f>
-        <v>TTMDBServiceTVSeriesLists</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceTrending</v>
       </c>
       <c r="F155" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeriesLists = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceTrending = interface;</v>
       </c>
       <c r="G155" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeriesLists = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceTrending = class;</v>
       </c>
       <c r="H155" s="8" t="str">
-        <f>IF(C155="", "  "&amp;D155&amp;" = interface", "  "&amp;D155&amp;" = interface(I"&amp;J155&amp;C155&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceTVSeriesLists = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceTrending = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I155" s="8" t="str">
-        <f>IF(C155="", "  "&amp;E155&amp;" = class(TInterfacedObject, "&amp;D155&amp;")", "  "&amp;E155&amp;" = class(T"&amp;J155&amp;C155&amp;", "&amp;D155&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceTVSeriesLists = class(TTMDBITMDBService, ITMDBServiceTVSeriesLists)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceTrending = class(TTMDBITMDBService, ITMDBServiceTrending)</v>
       </c>
       <c r="J155" s="8" t="s">
         <v>301</v>
@@ -11241,34 +11244,34 @@
         <v>416</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D156" s="8" t="str">
-        <f>"I"&amp;J156&amp;B156</f>
-        <v>ITMDBServiceTVSeries</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceTVSeriesLists</v>
       </c>
       <c r="E156" s="8" t="str">
-        <f>"T"&amp;J156&amp;B156</f>
-        <v>TTMDBServiceTVSeries</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceTVSeriesLists</v>
       </c>
       <c r="F156" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeries = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceTVSeriesLists = interface;</v>
       </c>
       <c r="G156" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeries = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceTVSeriesLists = class;</v>
       </c>
       <c r="H156" s="8" t="str">
-        <f>IF(C156="", "  "&amp;D156&amp;" = interface", "  "&amp;D156&amp;" = interface(I"&amp;J156&amp;C156&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceTVSeries = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceTVSeriesLists = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I156" s="8" t="str">
-        <f>IF(C156="", "  "&amp;E156&amp;" = class(TInterfacedObject, "&amp;D156&amp;")", "  "&amp;E156&amp;" = class(T"&amp;J156&amp;C156&amp;", "&amp;D156&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceTVSeries = class(TTMDBITMDBService, ITMDBServiceTVSeries)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceTVSeriesLists = class(TTMDBITMDBService, ITMDBServiceTVSeriesLists)</v>
       </c>
       <c r="J156" s="8" t="s">
         <v>301</v>
@@ -11279,34 +11282,34 @@
         <v>416</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D157" s="8" t="str">
-        <f>"I"&amp;J157&amp;B157</f>
-        <v>ITMDBServiceTVSeasons</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceTVSeries</v>
       </c>
       <c r="E157" s="8" t="str">
-        <f>"T"&amp;J157&amp;B157</f>
-        <v>TTMDBServiceTVSeasons</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceTVSeries</v>
       </c>
       <c r="F157" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeasons = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceTVSeries = interface;</v>
       </c>
       <c r="G157" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeasons = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceTVSeries = class;</v>
       </c>
       <c r="H157" s="8" t="str">
-        <f>IF(C157="", "  "&amp;D157&amp;" = interface", "  "&amp;D157&amp;" = interface(I"&amp;J157&amp;C157&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceTVSeasons = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceTVSeries = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I157" s="8" t="str">
-        <f>IF(C157="", "  "&amp;E157&amp;" = class(TInterfacedObject, "&amp;D157&amp;")", "  "&amp;E157&amp;" = class(T"&amp;J157&amp;C157&amp;", "&amp;D157&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceTVSeasons = class(TTMDBITMDBService, ITMDBServiceTVSeasons)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceTVSeries = class(TTMDBITMDBService, ITMDBServiceTVSeries)</v>
       </c>
       <c r="J157" s="8" t="s">
         <v>301</v>
@@ -11317,34 +11320,34 @@
         <v>416</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D158" s="8" t="str">
-        <f>"I"&amp;J158&amp;B158</f>
-        <v>ITMDBServiceTVEpisodes</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceTVSeasons</v>
       </c>
       <c r="E158" s="8" t="str">
-        <f>"T"&amp;J158&amp;B158</f>
-        <v>TTMDBServiceTVEpisodes</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceTVSeasons</v>
       </c>
       <c r="F158" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceTVEpisodes = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceTVSeasons = interface;</v>
       </c>
       <c r="G158" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceTVEpisodes = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceTVSeasons = class;</v>
       </c>
       <c r="H158" s="8" t="str">
-        <f>IF(C158="", "  "&amp;D158&amp;" = interface", "  "&amp;D158&amp;" = interface(I"&amp;J158&amp;C158&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceTVEpisodes = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceTVSeasons = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I158" s="8" t="str">
-        <f>IF(C158="", "  "&amp;E158&amp;" = class(TInterfacedObject, "&amp;D158&amp;")", "  "&amp;E158&amp;" = class(T"&amp;J158&amp;C158&amp;", "&amp;D158&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceTVEpisodes = class(TTMDBITMDBService, ITMDBServiceTVEpisodes)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceTVSeasons = class(TTMDBITMDBService, ITMDBServiceTVSeasons)</v>
       </c>
       <c r="J158" s="8" t="s">
         <v>301</v>
@@ -11355,34 +11358,34 @@
         <v>416</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D159" s="8" t="str">
-        <f>"I"&amp;J159&amp;B159</f>
-        <v>ITMDBServiceTVEpisodeGroups</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceTVEpisodes</v>
       </c>
       <c r="E159" s="8" t="str">
-        <f>"T"&amp;J159&amp;B159</f>
-        <v>TTMDBServiceTVEpisodeGroups</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceTVEpisodes</v>
       </c>
       <c r="F159" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceTVEpisodeGroups = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceTVEpisodes = interface;</v>
       </c>
       <c r="G159" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceTVEpisodeGroups = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceTVEpisodes = class;</v>
       </c>
       <c r="H159" s="8" t="str">
-        <f>IF(C159="", "  "&amp;D159&amp;" = interface", "  "&amp;D159&amp;" = interface(I"&amp;J159&amp;C159&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceTVEpisodeGroups = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceTVEpisodes = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I159" s="8" t="str">
-        <f>IF(C159="", "  "&amp;E159&amp;" = class(TInterfacedObject, "&amp;D159&amp;")", "  "&amp;E159&amp;" = class(T"&amp;J159&amp;C159&amp;", "&amp;D159&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceTVEpisodeGroups = class(TTMDBITMDBService, ITMDBServiceTVEpisodeGroups)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceTVEpisodes = class(TTMDBITMDBService, ITMDBServiceTVEpisodes)</v>
       </c>
       <c r="J159" s="8" t="s">
         <v>301</v>
@@ -11393,34 +11396,34 @@
         <v>416</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D160" s="8" t="str">
-        <f>"I"&amp;J160&amp;B160</f>
-        <v>ITMDBServiceWatchProviders</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceTVEpisodeGroups</v>
       </c>
       <c r="E160" s="8" t="str">
-        <f>"T"&amp;J160&amp;B160</f>
-        <v>TTMDBServiceWatchProviders</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceTVEpisodeGroups</v>
       </c>
       <c r="F160" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceWatchProviders = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceTVEpisodeGroups = interface;</v>
       </c>
       <c r="G160" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceWatchProviders = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceTVEpisodeGroups = class;</v>
       </c>
       <c r="H160" s="8" t="str">
-        <f>IF(C160="", "  "&amp;D160&amp;" = interface", "  "&amp;D160&amp;" = interface(I"&amp;J160&amp;C160&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceWatchProviders = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceTVEpisodeGroups = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I160" s="8" t="str">
-        <f>IF(C160="", "  "&amp;E160&amp;" = class(TInterfacedObject, "&amp;D160&amp;")", "  "&amp;E160&amp;" = class(T"&amp;J160&amp;C160&amp;", "&amp;D160&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceWatchProviders = class(TTMDBITMDBService, ITMDBServiceWatchProviders)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceTVEpisodeGroups = class(TTMDBITMDBService, ITMDBServiceTVEpisodeGroups)</v>
       </c>
       <c r="J160" s="8" t="s">
         <v>301</v>
@@ -11431,34 +11434,34 @@
         <v>416</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>417</v>
       </c>
       <c r="D161" s="8" t="str">
-        <f>"I"&amp;J161&amp;B161</f>
-        <v>ITMDBServiceImages</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceWatchProviders</v>
       </c>
       <c r="E161" s="8" t="str">
-        <f>"T"&amp;J161&amp;B161</f>
-        <v>TTMDBServiceImages</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceWatchProviders</v>
       </c>
       <c r="F161" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBServiceImages = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceWatchProviders = interface;</v>
       </c>
       <c r="G161" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBServiceImages = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceWatchProviders = class;</v>
       </c>
       <c r="H161" s="8" t="str">
-        <f>IF(C161="", "  "&amp;D161&amp;" = interface", "  "&amp;D161&amp;" = interface(I"&amp;J161&amp;C161&amp;")")</f>
-        <v xml:space="preserve">  ITMDBServiceImages = interface(ITMDBITMDBService)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceWatchProviders = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I161" s="8" t="str">
-        <f>IF(C161="", "  "&amp;E161&amp;" = class(TInterfacedObject, "&amp;D161&amp;")", "  "&amp;E161&amp;" = class(T"&amp;J161&amp;C161&amp;", "&amp;D161&amp;")")</f>
-        <v xml:space="preserve">  TTMDBServiceImages = class(TTMDBITMDBService, ITMDBServiceImages)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceWatchProviders = class(TTMDBITMDBService, ITMDBServiceWatchProviders)</v>
       </c>
       <c r="J161" s="8" t="s">
         <v>301</v>
@@ -11466,34 +11469,37 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>418</v>
+        <v>448</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="D162" s="8" t="str">
-        <f>"I"&amp;J162&amp;B162</f>
-        <v>ITMDBCache</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBServiceImages</v>
       </c>
       <c r="E162" s="8" t="str">
-        <f>"T"&amp;J162&amp;B162</f>
-        <v>TTMDBCache</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBServiceImages</v>
       </c>
       <c r="F162" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCache = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBServiceImages = interface;</v>
       </c>
       <c r="G162" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCache = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBServiceImages = class;</v>
       </c>
       <c r="H162" s="8" t="str">
-        <f>IF(C162="", "  "&amp;D162&amp;" = interface", "  "&amp;D162&amp;" = interface(I"&amp;J162&amp;C162&amp;")")</f>
-        <v xml:space="preserve">  ITMDBCache = interface</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBServiceImages = interface(ITMDBITMDBService)</v>
       </c>
       <c r="I162" s="8" t="str">
-        <f>IF(C162="", "  "&amp;E162&amp;" = class(TInterfacedObject, "&amp;D162&amp;")", "  "&amp;E162&amp;" = class(T"&amp;J162&amp;C162&amp;", "&amp;D162&amp;")")</f>
-        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBServiceImages = class(TTMDBITMDBService, ITMDBServiceImages)</v>
       </c>
       <c r="J162" s="8" t="s">
         <v>301</v>
@@ -11504,31 +11510,31 @@
         <v>455</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="D163" s="8" t="str">
-        <f>"I"&amp;J163&amp;B163</f>
-        <v>ITMDBLoginState</v>
+        <f t="shared" ref="D163:D194" si="32">"I"&amp;J163&amp;B163</f>
+        <v>ITMDBCache</v>
       </c>
       <c r="E163" s="8" t="str">
-        <f>"T"&amp;J163&amp;B163</f>
-        <v>TTMDBLoginState</v>
+        <f t="shared" ref="E163:E194" si="33">"T"&amp;J163&amp;B163</f>
+        <v>TTMDBCache</v>
       </c>
       <c r="F163" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBCache = interface;</v>
       </c>
       <c r="G163" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBCache = class;</v>
       </c>
       <c r="H163" s="8" t="str">
-        <f>IF(C163="", "  "&amp;D163&amp;" = interface", "  "&amp;D163&amp;" = interface(I"&amp;J163&amp;C163&amp;")")</f>
-        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+        <f t="shared" ref="H163:H194" si="34">IF(C163="", "  "&amp;D163&amp;" = interface", "  "&amp;D163&amp;" = interface(I"&amp;J163&amp;C163&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCache = interface</v>
       </c>
       <c r="I163" s="8" t="str">
-        <f>IF(C163="", "  "&amp;E163&amp;" = class(TInterfacedObject, "&amp;D163&amp;")", "  "&amp;E163&amp;" = class(T"&amp;J163&amp;C163&amp;", "&amp;D163&amp;")")</f>
-        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+        <f t="shared" ref="I163:I194" si="35">IF(C163="", "  "&amp;E163&amp;" = class(TInterfacedObject, "&amp;D163&amp;")", "  "&amp;E163&amp;" = class(T"&amp;J163&amp;C163&amp;", "&amp;D163&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
       </c>
       <c r="J163" s="8" t="s">
         <v>301</v>
@@ -11539,60 +11545,66 @@
         <v>455</v>
       </c>
       <c r="B164" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D164" s="8" t="str">
+        <f t="shared" si="32"/>
+        <v>ITMDBLoginState</v>
+      </c>
+      <c r="E164" s="8" t="str">
+        <f t="shared" si="33"/>
+        <v>TTMDBLoginState</v>
+      </c>
+      <c r="F164" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+      </c>
+      <c r="G164" s="8" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+      </c>
+      <c r="H164" s="8" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+      </c>
+      <c r="I164" s="8" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+      </c>
+      <c r="J164" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D164" s="8" t="str">
-        <f>"I"&amp;J164&amp;B164</f>
+      <c r="D165" s="8" t="str">
+        <f t="shared" si="32"/>
         <v>ITMDBClient</v>
       </c>
-      <c r="E164" s="8" t="str">
-        <f>"T"&amp;J164&amp;B164</f>
+      <c r="E165" s="8" t="str">
+        <f t="shared" si="33"/>
         <v>TTMDBClient</v>
       </c>
-      <c r="F164" s="8" t="str">
-        <f t="shared" si="4"/>
+      <c r="F165" s="8" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDBClient = interface;</v>
       </c>
-      <c r="G164" s="8" t="str">
-        <f t="shared" si="5"/>
+      <c r="G165" s="8" t="str">
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDBClient = class;</v>
       </c>
-      <c r="H164" s="8" t="str">
-        <f>IF(C164="", "  "&amp;D164&amp;" = interface", "  "&amp;D164&amp;" = interface(I"&amp;J164&amp;C164&amp;")")</f>
+      <c r="H165" s="8" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDBClient = interface</v>
       </c>
-      <c r="I164" s="8" t="str">
-        <f>IF(C164="", "  "&amp;E164&amp;" = class(TInterfacedObject, "&amp;D164&amp;")", "  "&amp;E164&amp;" = class(T"&amp;J164&amp;C164&amp;", "&amp;D164&amp;")")</f>
+      <c r="I165" s="8" t="str">
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
-      </c>
-      <c r="J164" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D165" s="8" t="str">
-        <f>"I"&amp;J165&amp;B165</f>
-        <v>ITMDB</v>
-      </c>
-      <c r="E165" s="8" t="str">
-        <f>"T"&amp;J165&amp;B165</f>
-        <v>TTMDB</v>
-      </c>
-      <c r="F165" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="G165" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="H165" s="8" t="str">
-        <f>IF(C165="", "  "&amp;D165&amp;" = interface", "  "&amp;D165&amp;" = interface(I"&amp;J165&amp;C165&amp;")")</f>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="I165" s="8" t="str">
-        <f>IF(C165="", "  "&amp;E165&amp;" = class(TInterfacedObject, "&amp;D165&amp;")", "  "&amp;E165&amp;" = class(T"&amp;J165&amp;C165&amp;", "&amp;D165&amp;")")</f>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J165" s="8" t="s">
         <v>301</v>
@@ -11600,27 +11612,27 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D166" s="8" t="str">
-        <f>"I"&amp;J166&amp;B166</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E166" s="8" t="str">
-        <f>"T"&amp;J166&amp;B166</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F166" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G166" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H166" s="8" t="str">
-        <f>IF(C166="", "  "&amp;D166&amp;" = interface", "  "&amp;D166&amp;" = interface(I"&amp;J166&amp;C166&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I166" s="8" t="str">
-        <f>IF(C166="", "  "&amp;E166&amp;" = class(TInterfacedObject, "&amp;D166&amp;")", "  "&amp;E166&amp;" = class(T"&amp;J166&amp;C166&amp;", "&amp;D166&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J166" s="8" t="s">
@@ -11629,27 +11641,27 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D167" s="8" t="str">
-        <f>"I"&amp;J167&amp;B167</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E167" s="8" t="str">
-        <f>"T"&amp;J167&amp;B167</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F167" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G167" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H167" s="8" t="str">
-        <f>IF(C167="", "  "&amp;D167&amp;" = interface", "  "&amp;D167&amp;" = interface(I"&amp;J167&amp;C167&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I167" s="8" t="str">
-        <f>IF(C167="", "  "&amp;E167&amp;" = class(TInterfacedObject, "&amp;D167&amp;")", "  "&amp;E167&amp;" = class(T"&amp;J167&amp;C167&amp;", "&amp;D167&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J167" s="8" t="s">
@@ -11658,27 +11670,27 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D168" s="8" t="str">
-        <f>"I"&amp;J168&amp;B168</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E168" s="8" t="str">
-        <f>"T"&amp;J168&amp;B168</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F168" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G168" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H168" s="8" t="str">
-        <f>IF(C168="", "  "&amp;D168&amp;" = interface", "  "&amp;D168&amp;" = interface(I"&amp;J168&amp;C168&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I168" s="8" t="str">
-        <f>IF(C168="", "  "&amp;E168&amp;" = class(TInterfacedObject, "&amp;D168&amp;")", "  "&amp;E168&amp;" = class(T"&amp;J168&amp;C168&amp;", "&amp;D168&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J168" s="8" t="s">
@@ -11687,27 +11699,27 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D169" s="8" t="str">
-        <f>"I"&amp;J169&amp;B169</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E169" s="8" t="str">
-        <f>"T"&amp;J169&amp;B169</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F169" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G169" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H169" s="8" t="str">
-        <f>IF(C169="", "  "&amp;D169&amp;" = interface", "  "&amp;D169&amp;" = interface(I"&amp;J169&amp;C169&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I169" s="8" t="str">
-        <f>IF(C169="", "  "&amp;E169&amp;" = class(TInterfacedObject, "&amp;D169&amp;")", "  "&amp;E169&amp;" = class(T"&amp;J169&amp;C169&amp;", "&amp;D169&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J169" s="8" t="s">
@@ -11716,27 +11728,27 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D170" s="8" t="str">
-        <f>"I"&amp;J170&amp;B170</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E170" s="8" t="str">
-        <f>"T"&amp;J170&amp;B170</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F170" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G170" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H170" s="8" t="str">
-        <f>IF(C170="", "  "&amp;D170&amp;" = interface", "  "&amp;D170&amp;" = interface(I"&amp;J170&amp;C170&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I170" s="8" t="str">
-        <f>IF(C170="", "  "&amp;E170&amp;" = class(TInterfacedObject, "&amp;D170&amp;")", "  "&amp;E170&amp;" = class(T"&amp;J170&amp;C170&amp;", "&amp;D170&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J170" s="8" t="s">
@@ -11745,27 +11757,27 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D171" s="8" t="str">
-        <f>"I"&amp;J171&amp;B171</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E171" s="8" t="str">
-        <f>"T"&amp;J171&amp;B171</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F171" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G171" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H171" s="8" t="str">
-        <f>IF(C171="", "  "&amp;D171&amp;" = interface", "  "&amp;D171&amp;" = interface(I"&amp;J171&amp;C171&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I171" s="8" t="str">
-        <f>IF(C171="", "  "&amp;E171&amp;" = class(TInterfacedObject, "&amp;D171&amp;")", "  "&amp;E171&amp;" = class(T"&amp;J171&amp;C171&amp;", "&amp;D171&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J171" s="8" t="s">
@@ -11774,27 +11786,27 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D172" s="8" t="str">
-        <f>"I"&amp;J172&amp;B172</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E172" s="8" t="str">
-        <f>"T"&amp;J172&amp;B172</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F172" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G172" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H172" s="8" t="str">
-        <f>IF(C172="", "  "&amp;D172&amp;" = interface", "  "&amp;D172&amp;" = interface(I"&amp;J172&amp;C172&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I172" s="8" t="str">
-        <f>IF(C172="", "  "&amp;E172&amp;" = class(TInterfacedObject, "&amp;D172&amp;")", "  "&amp;E172&amp;" = class(T"&amp;J172&amp;C172&amp;", "&amp;D172&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J172" s="8" t="s">
@@ -11803,27 +11815,27 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D173" s="8" t="str">
-        <f>"I"&amp;J173&amp;B173</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E173" s="8" t="str">
-        <f>"T"&amp;J173&amp;B173</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F173" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G173" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H173" s="8" t="str">
-        <f>IF(C173="", "  "&amp;D173&amp;" = interface", "  "&amp;D173&amp;" = interface(I"&amp;J173&amp;C173&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I173" s="8" t="str">
-        <f>IF(C173="", "  "&amp;E173&amp;" = class(TInterfacedObject, "&amp;D173&amp;")", "  "&amp;E173&amp;" = class(T"&amp;J173&amp;C173&amp;", "&amp;D173&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J173" s="8" t="s">
@@ -11832,27 +11844,27 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D174" s="8" t="str">
-        <f>"I"&amp;J174&amp;B174</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E174" s="8" t="str">
-        <f>"T"&amp;J174&amp;B174</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F174" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G174" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H174" s="8" t="str">
-        <f>IF(C174="", "  "&amp;D174&amp;" = interface", "  "&amp;D174&amp;" = interface(I"&amp;J174&amp;C174&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I174" s="8" t="str">
-        <f>IF(C174="", "  "&amp;E174&amp;" = class(TInterfacedObject, "&amp;D174&amp;")", "  "&amp;E174&amp;" = class(T"&amp;J174&amp;C174&amp;", "&amp;D174&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J174" s="8" t="s">
@@ -11861,27 +11873,27 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D175" s="8" t="str">
-        <f>"I"&amp;J175&amp;B175</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E175" s="8" t="str">
-        <f>"T"&amp;J175&amp;B175</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F175" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G175" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H175" s="8" t="str">
-        <f>IF(C175="", "  "&amp;D175&amp;" = interface", "  "&amp;D175&amp;" = interface(I"&amp;J175&amp;C175&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I175" s="8" t="str">
-        <f>IF(C175="", "  "&amp;E175&amp;" = class(TInterfacedObject, "&amp;D175&amp;")", "  "&amp;E175&amp;" = class(T"&amp;J175&amp;C175&amp;", "&amp;D175&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J175" s="8" t="s">
@@ -11890,27 +11902,27 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D176" s="8" t="str">
-        <f>"I"&amp;J176&amp;B176</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E176" s="8" t="str">
-        <f>"T"&amp;J176&amp;B176</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F176" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G176" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H176" s="8" t="str">
-        <f>IF(C176="", "  "&amp;D176&amp;" = interface", "  "&amp;D176&amp;" = interface(I"&amp;J176&amp;C176&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I176" s="8" t="str">
-        <f>IF(C176="", "  "&amp;E176&amp;" = class(TInterfacedObject, "&amp;D176&amp;")", "  "&amp;E176&amp;" = class(T"&amp;J176&amp;C176&amp;", "&amp;D176&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J176" s="8" t="s">
@@ -11919,27 +11931,27 @@
     </row>
     <row r="177" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D177" s="8" t="str">
-        <f>"I"&amp;J177&amp;B177</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E177" s="8" t="str">
-        <f>"T"&amp;J177&amp;B177</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F177" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G177" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H177" s="8" t="str">
-        <f>IF(C177="", "  "&amp;D177&amp;" = interface", "  "&amp;D177&amp;" = interface(I"&amp;J177&amp;C177&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I177" s="8" t="str">
-        <f>IF(C177="", "  "&amp;E177&amp;" = class(TInterfacedObject, "&amp;D177&amp;")", "  "&amp;E177&amp;" = class(T"&amp;J177&amp;C177&amp;", "&amp;D177&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J177" s="8" t="s">
@@ -11948,27 +11960,27 @@
     </row>
     <row r="178" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D178" s="8" t="str">
-        <f>"I"&amp;J178&amp;B178</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E178" s="8" t="str">
-        <f>"T"&amp;J178&amp;B178</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F178" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G178" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H178" s="8" t="str">
-        <f>IF(C178="", "  "&amp;D178&amp;" = interface", "  "&amp;D178&amp;" = interface(I"&amp;J178&amp;C178&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I178" s="8" t="str">
-        <f>IF(C178="", "  "&amp;E178&amp;" = class(TInterfacedObject, "&amp;D178&amp;")", "  "&amp;E178&amp;" = class(T"&amp;J178&amp;C178&amp;", "&amp;D178&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J178" s="8" t="s">
@@ -11977,27 +11989,27 @@
     </row>
     <row r="179" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D179" s="8" t="str">
-        <f>"I"&amp;J179&amp;B179</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E179" s="8" t="str">
-        <f>"T"&amp;J179&amp;B179</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F179" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G179" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H179" s="8" t="str">
-        <f>IF(C179="", "  "&amp;D179&amp;" = interface", "  "&amp;D179&amp;" = interface(I"&amp;J179&amp;C179&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I179" s="8" t="str">
-        <f>IF(C179="", "  "&amp;E179&amp;" = class(TInterfacedObject, "&amp;D179&amp;")", "  "&amp;E179&amp;" = class(T"&amp;J179&amp;C179&amp;", "&amp;D179&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J179" s="8" t="s">
@@ -12006,27 +12018,27 @@
     </row>
     <row r="180" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D180" s="8" t="str">
-        <f>"I"&amp;J180&amp;B180</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E180" s="8" t="str">
-        <f>"T"&amp;J180&amp;B180</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F180" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G180" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H180" s="8" t="str">
-        <f>IF(C180="", "  "&amp;D180&amp;" = interface", "  "&amp;D180&amp;" = interface(I"&amp;J180&amp;C180&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I180" s="8" t="str">
-        <f>IF(C180="", "  "&amp;E180&amp;" = class(TInterfacedObject, "&amp;D180&amp;")", "  "&amp;E180&amp;" = class(T"&amp;J180&amp;C180&amp;", "&amp;D180&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J180" s="8" t="s">
@@ -12035,27 +12047,27 @@
     </row>
     <row r="181" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D181" s="8" t="str">
-        <f>"I"&amp;J181&amp;B181</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E181" s="8" t="str">
-        <f>"T"&amp;J181&amp;B181</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F181" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G181" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H181" s="8" t="str">
-        <f>IF(C181="", "  "&amp;D181&amp;" = interface", "  "&amp;D181&amp;" = interface(I"&amp;J181&amp;C181&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I181" s="8" t="str">
-        <f>IF(C181="", "  "&amp;E181&amp;" = class(TInterfacedObject, "&amp;D181&amp;")", "  "&amp;E181&amp;" = class(T"&amp;J181&amp;C181&amp;", "&amp;D181&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J181" s="8" t="s">
@@ -12064,27 +12076,27 @@
     </row>
     <row r="182" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D182" s="8" t="str">
-        <f>"I"&amp;J182&amp;B182</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E182" s="8" t="str">
-        <f>"T"&amp;J182&amp;B182</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F182" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G182" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H182" s="8" t="str">
-        <f>IF(C182="", "  "&amp;D182&amp;" = interface", "  "&amp;D182&amp;" = interface(I"&amp;J182&amp;C182&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I182" s="8" t="str">
-        <f>IF(C182="", "  "&amp;E182&amp;" = class(TInterfacedObject, "&amp;D182&amp;")", "  "&amp;E182&amp;" = class(T"&amp;J182&amp;C182&amp;", "&amp;D182&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J182" s="8" t="s">
@@ -12093,27 +12105,27 @@
     </row>
     <row r="183" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D183" s="8" t="str">
-        <f>"I"&amp;J183&amp;B183</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E183" s="8" t="str">
-        <f>"T"&amp;J183&amp;B183</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F183" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G183" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H183" s="8" t="str">
-        <f>IF(C183="", "  "&amp;D183&amp;" = interface", "  "&amp;D183&amp;" = interface(I"&amp;J183&amp;C183&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I183" s="8" t="str">
-        <f>IF(C183="", "  "&amp;E183&amp;" = class(TInterfacedObject, "&amp;D183&amp;")", "  "&amp;E183&amp;" = class(T"&amp;J183&amp;C183&amp;", "&amp;D183&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J183" s="8" t="s">
@@ -12122,27 +12134,27 @@
     </row>
     <row r="184" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D184" s="8" t="str">
-        <f>"I"&amp;J184&amp;B184</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E184" s="8" t="str">
-        <f>"T"&amp;J184&amp;B184</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F184" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G184" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H184" s="8" t="str">
-        <f>IF(C184="", "  "&amp;D184&amp;" = interface", "  "&amp;D184&amp;" = interface(I"&amp;J184&amp;C184&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I184" s="8" t="str">
-        <f>IF(C184="", "  "&amp;E184&amp;" = class(TInterfacedObject, "&amp;D184&amp;")", "  "&amp;E184&amp;" = class(T"&amp;J184&amp;C184&amp;", "&amp;D184&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J184" s="8" t="s">
@@ -12151,27 +12163,27 @@
     </row>
     <row r="185" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D185" s="8" t="str">
-        <f>"I"&amp;J185&amp;B185</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E185" s="8" t="str">
-        <f>"T"&amp;J185&amp;B185</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F185" s="8" t="str">
-        <f t="shared" ref="F185:F201" si="6">"  "&amp;D185&amp;" = interface;"</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G185" s="8" t="str">
-        <f t="shared" ref="G185:G201" si="7">"  "&amp;E185&amp;" = class;"</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H185" s="8" t="str">
-        <f>IF(C185="", "  "&amp;D185&amp;" = interface", "  "&amp;D185&amp;" = interface(I"&amp;J185&amp;C185&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I185" s="8" t="str">
-        <f>IF(C185="", "  "&amp;E185&amp;" = class(TInterfacedObject, "&amp;D185&amp;")", "  "&amp;E185&amp;" = class(T"&amp;J185&amp;C185&amp;", "&amp;D185&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J185" s="8" t="s">
@@ -12180,27 +12192,27 @@
     </row>
     <row r="186" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D186" s="8" t="str">
-        <f>"I"&amp;J186&amp;B186</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E186" s="8" t="str">
-        <f>"T"&amp;J186&amp;B186</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F186" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F186:F202" si="36">"  "&amp;D186&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G186" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G186:G202" si="37">"  "&amp;E186&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H186" s="8" t="str">
-        <f>IF(C186="", "  "&amp;D186&amp;" = interface", "  "&amp;D186&amp;" = interface(I"&amp;J186&amp;C186&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I186" s="8" t="str">
-        <f>IF(C186="", "  "&amp;E186&amp;" = class(TInterfacedObject, "&amp;D186&amp;")", "  "&amp;E186&amp;" = class(T"&amp;J186&amp;C186&amp;", "&amp;D186&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J186" s="8" t="s">
@@ -12209,27 +12221,27 @@
     </row>
     <row r="187" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D187" s="8" t="str">
-        <f>"I"&amp;J187&amp;B187</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E187" s="8" t="str">
-        <f>"T"&amp;J187&amp;B187</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F187" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G187" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H187" s="8" t="str">
-        <f>IF(C187="", "  "&amp;D187&amp;" = interface", "  "&amp;D187&amp;" = interface(I"&amp;J187&amp;C187&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I187" s="8" t="str">
-        <f>IF(C187="", "  "&amp;E187&amp;" = class(TInterfacedObject, "&amp;D187&amp;")", "  "&amp;E187&amp;" = class(T"&amp;J187&amp;C187&amp;", "&amp;D187&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J187" s="8" t="s">
@@ -12238,27 +12250,27 @@
     </row>
     <row r="188" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D188" s="8" t="str">
-        <f>"I"&amp;J188&amp;B188</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E188" s="8" t="str">
-        <f>"T"&amp;J188&amp;B188</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F188" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G188" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H188" s="8" t="str">
-        <f>IF(C188="", "  "&amp;D188&amp;" = interface", "  "&amp;D188&amp;" = interface(I"&amp;J188&amp;C188&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I188" s="8" t="str">
-        <f>IF(C188="", "  "&amp;E188&amp;" = class(TInterfacedObject, "&amp;D188&amp;")", "  "&amp;E188&amp;" = class(T"&amp;J188&amp;C188&amp;", "&amp;D188&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J188" s="8" t="s">
@@ -12267,27 +12279,27 @@
     </row>
     <row r="189" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D189" s="8" t="str">
-        <f>"I"&amp;J189&amp;B189</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E189" s="8" t="str">
-        <f>"T"&amp;J189&amp;B189</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F189" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G189" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H189" s="8" t="str">
-        <f>IF(C189="", "  "&amp;D189&amp;" = interface", "  "&amp;D189&amp;" = interface(I"&amp;J189&amp;C189&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I189" s="8" t="str">
-        <f>IF(C189="", "  "&amp;E189&amp;" = class(TInterfacedObject, "&amp;D189&amp;")", "  "&amp;E189&amp;" = class(T"&amp;J189&amp;C189&amp;", "&amp;D189&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J189" s="8" t="s">
@@ -12296,27 +12308,27 @@
     </row>
     <row r="190" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D190" s="8" t="str">
-        <f>"I"&amp;J190&amp;B190</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E190" s="8" t="str">
-        <f>"T"&amp;J190&amp;B190</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F190" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G190" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H190" s="8" t="str">
-        <f>IF(C190="", "  "&amp;D190&amp;" = interface", "  "&amp;D190&amp;" = interface(I"&amp;J190&amp;C190&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I190" s="8" t="str">
-        <f>IF(C190="", "  "&amp;E190&amp;" = class(TInterfacedObject, "&amp;D190&amp;")", "  "&amp;E190&amp;" = class(T"&amp;J190&amp;C190&amp;", "&amp;D190&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J190" s="8" t="s">
@@ -12325,27 +12337,27 @@
     </row>
     <row r="191" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D191" s="8" t="str">
-        <f>"I"&amp;J191&amp;B191</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E191" s="8" t="str">
-        <f>"T"&amp;J191&amp;B191</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F191" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G191" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H191" s="8" t="str">
-        <f>IF(C191="", "  "&amp;D191&amp;" = interface", "  "&amp;D191&amp;" = interface(I"&amp;J191&amp;C191&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I191" s="8" t="str">
-        <f>IF(C191="", "  "&amp;E191&amp;" = class(TInterfacedObject, "&amp;D191&amp;")", "  "&amp;E191&amp;" = class(T"&amp;J191&amp;C191&amp;", "&amp;D191&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J191" s="8" t="s">
@@ -12354,27 +12366,27 @@
     </row>
     <row r="192" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D192" s="8" t="str">
-        <f>"I"&amp;J192&amp;B192</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E192" s="8" t="str">
-        <f>"T"&amp;J192&amp;B192</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F192" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G192" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H192" s="8" t="str">
-        <f>IF(C192="", "  "&amp;D192&amp;" = interface", "  "&amp;D192&amp;" = interface(I"&amp;J192&amp;C192&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I192" s="8" t="str">
-        <f>IF(C192="", "  "&amp;E192&amp;" = class(TInterfacedObject, "&amp;D192&amp;")", "  "&amp;E192&amp;" = class(T"&amp;J192&amp;C192&amp;", "&amp;D192&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J192" s="8" t="s">
@@ -12383,27 +12395,27 @@
     </row>
     <row r="193" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D193" s="8" t="str">
-        <f>"I"&amp;J193&amp;B193</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E193" s="8" t="str">
-        <f>"T"&amp;J193&amp;B193</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F193" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G193" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H193" s="8" t="str">
-        <f>IF(C193="", "  "&amp;D193&amp;" = interface", "  "&amp;D193&amp;" = interface(I"&amp;J193&amp;C193&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I193" s="8" t="str">
-        <f>IF(C193="", "  "&amp;E193&amp;" = class(TInterfacedObject, "&amp;D193&amp;")", "  "&amp;E193&amp;" = class(T"&amp;J193&amp;C193&amp;", "&amp;D193&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J193" s="8" t="s">
@@ -12412,27 +12424,27 @@
     </row>
     <row r="194" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D194" s="8" t="str">
-        <f>"I"&amp;J194&amp;B194</f>
+        <f t="shared" si="32"/>
         <v>ITMDB</v>
       </c>
       <c r="E194" s="8" t="str">
-        <f>"T"&amp;J194&amp;B194</f>
+        <f t="shared" si="33"/>
         <v>TTMDB</v>
       </c>
       <c r="F194" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G194" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H194" s="8" t="str">
-        <f>IF(C194="", "  "&amp;D194&amp;" = interface", "  "&amp;D194&amp;" = interface(I"&amp;J194&amp;C194&amp;")")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I194" s="8" t="str">
-        <f>IF(C194="", "  "&amp;E194&amp;" = class(TInterfacedObject, "&amp;D194&amp;")", "  "&amp;E194&amp;" = class(T"&amp;J194&amp;C194&amp;", "&amp;D194&amp;")")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J194" s="8" t="s">
@@ -12441,27 +12453,27 @@
     </row>
     <row r="195" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D195" s="8" t="str">
-        <f>"I"&amp;J195&amp;B195</f>
+        <f t="shared" ref="D195:D202" si="38">"I"&amp;J195&amp;B195</f>
         <v>ITMDB</v>
       </c>
       <c r="E195" s="8" t="str">
-        <f>"T"&amp;J195&amp;B195</f>
+        <f t="shared" ref="E195:E202" si="39">"T"&amp;J195&amp;B195</f>
         <v>TTMDB</v>
       </c>
       <c r="F195" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G195" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H195" s="8" t="str">
-        <f>IF(C195="", "  "&amp;D195&amp;" = interface", "  "&amp;D195&amp;" = interface(I"&amp;J195&amp;C195&amp;")")</f>
+        <f t="shared" ref="H195:H202" si="40">IF(C195="", "  "&amp;D195&amp;" = interface", "  "&amp;D195&amp;" = interface(I"&amp;J195&amp;C195&amp;")")</f>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I195" s="8" t="str">
-        <f>IF(C195="", "  "&amp;E195&amp;" = class(TInterfacedObject, "&amp;D195&amp;")", "  "&amp;E195&amp;" = class(T"&amp;J195&amp;C195&amp;", "&amp;D195&amp;")")</f>
+        <f t="shared" ref="I195:I226" si="41">IF(C195="", "  "&amp;E195&amp;" = class(TInterfacedObject, "&amp;D195&amp;")", "  "&amp;E195&amp;" = class(T"&amp;J195&amp;C195&amp;", "&amp;D195&amp;")")</f>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J195" s="8" t="s">
@@ -12470,27 +12482,27 @@
     </row>
     <row r="196" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D196" s="8" t="str">
-        <f>"I"&amp;J196&amp;B196</f>
+        <f t="shared" si="38"/>
         <v>ITMDB</v>
       </c>
       <c r="E196" s="8" t="str">
-        <f>"T"&amp;J196&amp;B196</f>
+        <f t="shared" si="39"/>
         <v>TTMDB</v>
       </c>
       <c r="F196" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G196" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H196" s="8" t="str">
-        <f>IF(C196="", "  "&amp;D196&amp;" = interface", "  "&amp;D196&amp;" = interface(I"&amp;J196&amp;C196&amp;")")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I196" s="8" t="str">
-        <f>IF(C196="", "  "&amp;E196&amp;" = class(TInterfacedObject, "&amp;D196&amp;")", "  "&amp;E196&amp;" = class(T"&amp;J196&amp;C196&amp;", "&amp;D196&amp;")")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J196" s="8" t="s">
@@ -12499,27 +12511,27 @@
     </row>
     <row r="197" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D197" s="8" t="str">
-        <f>"I"&amp;J197&amp;B197</f>
+        <f t="shared" si="38"/>
         <v>ITMDB</v>
       </c>
       <c r="E197" s="8" t="str">
-        <f>"T"&amp;J197&amp;B197</f>
+        <f t="shared" si="39"/>
         <v>TTMDB</v>
       </c>
       <c r="F197" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G197" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H197" s="8" t="str">
-        <f>IF(C197="", "  "&amp;D197&amp;" = interface", "  "&amp;D197&amp;" = interface(I"&amp;J197&amp;C197&amp;")")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I197" s="8" t="str">
-        <f>IF(C197="", "  "&amp;E197&amp;" = class(TInterfacedObject, "&amp;D197&amp;")", "  "&amp;E197&amp;" = class(T"&amp;J197&amp;C197&amp;", "&amp;D197&amp;")")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J197" s="8" t="s">
@@ -12528,27 +12540,27 @@
     </row>
     <row r="198" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D198" s="8" t="str">
-        <f>"I"&amp;J198&amp;B198</f>
+        <f t="shared" si="38"/>
         <v>ITMDB</v>
       </c>
       <c r="E198" s="8" t="str">
-        <f>"T"&amp;J198&amp;B198</f>
+        <f t="shared" si="39"/>
         <v>TTMDB</v>
       </c>
       <c r="F198" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G198" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H198" s="8" t="str">
-        <f>IF(C198="", "  "&amp;D198&amp;" = interface", "  "&amp;D198&amp;" = interface(I"&amp;J198&amp;C198&amp;")")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I198" s="8" t="str">
-        <f>IF(C198="", "  "&amp;E198&amp;" = class(TInterfacedObject, "&amp;D198&amp;")", "  "&amp;E198&amp;" = class(T"&amp;J198&amp;C198&amp;", "&amp;D198&amp;")")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J198" s="8" t="s">
@@ -12557,27 +12569,27 @@
     </row>
     <row r="199" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D199" s="8" t="str">
-        <f>"I"&amp;J199&amp;B199</f>
+        <f t="shared" si="38"/>
         <v>ITMDB</v>
       </c>
       <c r="E199" s="8" t="str">
-        <f>"T"&amp;J199&amp;B199</f>
+        <f t="shared" si="39"/>
         <v>TTMDB</v>
       </c>
       <c r="F199" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G199" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H199" s="8" t="str">
-        <f>IF(C199="", "  "&amp;D199&amp;" = interface", "  "&amp;D199&amp;" = interface(I"&amp;J199&amp;C199&amp;")")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I199" s="8" t="str">
-        <f>IF(C199="", "  "&amp;E199&amp;" = class(TInterfacedObject, "&amp;D199&amp;")", "  "&amp;E199&amp;" = class(T"&amp;J199&amp;C199&amp;", "&amp;D199&amp;")")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J199" s="8" t="s">
@@ -12586,27 +12598,27 @@
     </row>
     <row r="200" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D200" s="8" t="str">
-        <f>"I"&amp;J200&amp;B200</f>
+        <f t="shared" si="38"/>
         <v>ITMDB</v>
       </c>
       <c r="E200" s="8" t="str">
-        <f>"T"&amp;J200&amp;B200</f>
+        <f t="shared" si="39"/>
         <v>TTMDB</v>
       </c>
       <c r="F200" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G200" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H200" s="8" t="str">
-        <f>IF(C200="", "  "&amp;D200&amp;" = interface", "  "&amp;D200&amp;" = interface(I"&amp;J200&amp;C200&amp;")")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I200" s="8" t="str">
-        <f>IF(C200="", "  "&amp;E200&amp;" = class(TInterfacedObject, "&amp;D200&amp;")", "  "&amp;E200&amp;" = class(T"&amp;J200&amp;C200&amp;", "&amp;D200&amp;")")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J200" s="8" t="s">
@@ -12615,30 +12627,59 @@
     </row>
     <row r="201" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D201" s="8" t="str">
-        <f>"I"&amp;J201&amp;B201</f>
+        <f t="shared" si="38"/>
         <v>ITMDB</v>
       </c>
       <c r="E201" s="8" t="str">
-        <f>"T"&amp;J201&amp;B201</f>
+        <f t="shared" si="39"/>
         <v>TTMDB</v>
       </c>
       <c r="F201" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="G201" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="H201" s="8" t="str">
-        <f>IF(C201="", "  "&amp;D201&amp;" = interface", "  "&amp;D201&amp;" = interface(I"&amp;J201&amp;C201&amp;")")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="I201" s="8" t="str">
-        <f>IF(C201="", "  "&amp;E201&amp;" = class(TInterfacedObject, "&amp;D201&amp;")", "  "&amp;E201&amp;" = class(T"&amp;J201&amp;C201&amp;", "&amp;D201&amp;")")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="J201" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="202" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D202" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="E202" s="8" t="str">
+        <f t="shared" si="39"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="F202" s="8" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="G202" s="8" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  TTMDB = class;</v>
+      </c>
+      <c r="H202" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">  ITMDB = interface</v>
+      </c>
+      <c r="I202" s="8" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
+      </c>
+      <c r="J202" s="8" t="s">
         <v>301</v>
       </c>
     </row>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F7F3D-A118-47B0-AA81-FA248BE7FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8E242-2448-40EC-A887-FC39F9CCC2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="466">
   <si>
     <t>Namespace</t>
   </si>
@@ -1433,6 +1433,12 @@
   </si>
   <si>
     <t>TVSeasonEpisodes</t>
+  </si>
+  <si>
+    <t>ITMDBDiscoverMoviePage</t>
+  </si>
+  <si>
+    <t>ITMDBDiscoverTVPage</t>
   </si>
 </sst>
 </file>
@@ -1913,9 +1919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,6 +2832,9 @@
       <c r="E39" t="s">
         <v>132</v>
       </c>
+      <c r="F39" t="s">
+        <v>464</v>
+      </c>
       <c r="G39" s="4" t="s">
         <v>78</v>
       </c>
@@ -2848,6 +2857,9 @@
       </c>
       <c r="E40" t="s">
         <v>133</v>
+      </c>
+      <c r="F40" t="s">
+        <v>465</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>78</v>
@@ -5498,9 +5510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7105,11 +7117,11 @@
       <c r="C36" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>78</v>
+      <c r="D36" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>78</v>
@@ -7152,11 +7164,11 @@
       <c r="C37" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>78</v>
+      <c r="D37" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>78</v>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8E242-2448-40EC-A887-FC39F9CCC2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFDFE4-B0E3-49EB-BF6B-D3EF4CD0226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="467">
   <si>
     <t>Namespace</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>ITMDBDiscoverTVPage</t>
+  </si>
+  <si>
+    <t>ExternalIDs</t>
   </si>
 </sst>
 </file>
@@ -1920,8 +1923,8 @@
   <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,8 +3424,8 @@
       <c r="F65" t="s">
         <v>241</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>78</v>
+      <c r="G65" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5508,11 +5511,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5589,11 +5592,11 @@
         <v>459</v>
       </c>
       <c r="G2" s="8" t="str">
-        <f t="shared" ref="G2:G61" si="0">"I"&amp;M2&amp;B2</f>
+        <f t="shared" ref="G2:G62" si="0">"I"&amp;M2&amp;B2</f>
         <v>ITMDBItem</v>
       </c>
       <c r="H2" s="8" t="str">
-        <f t="shared" ref="H2:H61" si="1">"T"&amp;M2&amp;B2</f>
+        <f t="shared" ref="H2:H62" si="1">"T"&amp;M2&amp;B2</f>
         <v>TTMDBItem</v>
       </c>
       <c r="I2" s="8" t="str">
@@ -5605,11 +5608,11 @@
         <v xml:space="preserve">  TTMDBItem = class;</v>
       </c>
       <c r="K2" s="8" t="str">
-        <f t="shared" ref="K2:K61" si="2">IF(C2="", "  "&amp;G2&amp;" = interface", "  "&amp;G2&amp;" = interface(I"&amp;M2&amp;C2&amp;")")</f>
+        <f t="shared" ref="K2:K62" si="2">IF(C2="", "  "&amp;G2&amp;" = interface", "  "&amp;G2&amp;" = interface(I"&amp;M2&amp;C2&amp;")")</f>
         <v xml:space="preserve">  ITMDBItem = interface</v>
       </c>
       <c r="L2" s="8" t="str">
-        <f t="shared" ref="L2:L61" si="3">IF(C2="", "  "&amp;H2&amp;" = class(TInterfacedObject, "&amp;G2&amp;")", "  "&amp;H2&amp;" = class(T"&amp;M2&amp;C2&amp;", "&amp;G2&amp;")")</f>
+        <f t="shared" ref="L2:L62" si="3">IF(C2="", "  "&amp;H2&amp;" = class(TInterfacedObject, "&amp;G2&amp;")", "  "&amp;H2&amp;" = class(T"&amp;M2&amp;C2&amp;", "&amp;G2&amp;")")</f>
         <v xml:space="preserve">  TTMDBItem = class(TInterfacedObject, ITMDBItem)</v>
       </c>
       <c r="M2" s="8" t="s">
@@ -5641,11 +5644,11 @@
         <v>TTMDBItems</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I76" si="4">"  "&amp;G3&amp;" = interface;"</f>
+        <f t="shared" ref="I3:I77" si="4">"  "&amp;G3&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBItems = interface;</v>
       </c>
       <c r="J3" s="8" t="str">
-        <f t="shared" ref="J3:J76" si="5">"  "&amp;H3&amp;" = class;"</f>
+        <f t="shared" ref="J3:J77" si="5">"  "&amp;H3&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBItems = class;</v>
       </c>
       <c r="K3" s="8" t="str">
@@ -6562,8 +6565,8 @@
       <c r="B24" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>78</v>
+      <c r="D24" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>78</v>
@@ -6606,8 +6609,8 @@
       <c r="B25" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>78</v>
+      <c r="D25" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>78</v>
@@ -7297,13 +7300,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>309</v>
+        <v>466</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>459</v>
@@ -7311,35 +7311,8 @@
       <c r="E40" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G40" s="8" t="str">
-        <f>"I"&amp;M40&amp;B40</f>
-        <v>ITMDBGenre</v>
-      </c>
-      <c r="H40" s="8" t="str">
-        <f>"T"&amp;M40&amp;B40</f>
-        <v>TTMDBGenre</v>
-      </c>
-      <c r="I40" s="8" t="str">
-        <f>"  "&amp;G40&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBGenre = interface;</v>
-      </c>
-      <c r="J40" s="8" t="str">
-        <f>"  "&amp;H40&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBGenre = class;</v>
-      </c>
-      <c r="K40" s="8" t="str">
-        <f>IF(C40="", "  "&amp;G40&amp;" = interface", "  "&amp;G40&amp;" = interface(I"&amp;M40&amp;C40&amp;")")</f>
-        <v xml:space="preserve">  ITMDBGenre = interface(ITMDBItem)</v>
-      </c>
-      <c r="L40" s="8" t="str">
-        <f>IF(C40="", "  "&amp;H40&amp;" = class(TInterfacedObject, "&amp;G40&amp;")", "  "&amp;H40&amp;" = class(T"&amp;M40&amp;C40&amp;", "&amp;G40&amp;")")</f>
-        <v xml:space="preserve">  TTMDBGenre = class(TTMDBItem, ITMDBGenre)</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>301</v>
+      <c r="F40" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -7347,10 +7320,10 @@
         <v>134</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>459</v>
@@ -7363,27 +7336,27 @@
       </c>
       <c r="G41" s="8" t="str">
         <f>"I"&amp;M41&amp;B41</f>
-        <v>ITMDBGenres</v>
+        <v>ITMDBGenre</v>
       </c>
       <c r="H41" s="8" t="str">
         <f>"T"&amp;M41&amp;B41</f>
-        <v>TTMDBGenres</v>
+        <v>TTMDBGenre</v>
       </c>
       <c r="I41" s="8" t="str">
         <f>"  "&amp;G41&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBGenres = interface;</v>
+        <v xml:space="preserve">  ITMDBGenre = interface;</v>
       </c>
       <c r="J41" s="8" t="str">
         <f>"  "&amp;H41&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBGenres = class;</v>
+        <v xml:space="preserve">  TTMDBGenre = class;</v>
       </c>
       <c r="K41" s="8" t="str">
         <f>IF(C41="", "  "&amp;G41&amp;" = interface", "  "&amp;G41&amp;" = interface(I"&amp;M41&amp;C41&amp;")")</f>
-        <v xml:space="preserve">  ITMDBGenres = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBGenre = interface(ITMDBItem)</v>
       </c>
       <c r="L41" s="8" t="str">
         <f>IF(C41="", "  "&amp;H41&amp;" = class(TInterfacedObject, "&amp;G41&amp;")", "  "&amp;H41&amp;" = class(T"&amp;M41&amp;C41&amp;", "&amp;G41&amp;")")</f>
-        <v xml:space="preserve">  TTMDBGenres = class(TTMDBItems, ITMDBGenres)</v>
+        <v xml:space="preserve">  TTMDBGenre = class(TTMDBItem, ITMDBGenre)</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>301</v>
@@ -7391,13 +7364,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>362</v>
+        <v>134</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>459</v>
@@ -7405,32 +7378,32 @@
       <c r="E42" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>297</v>
+      <c r="F42" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="G42" s="8" t="str">
         <f>"I"&amp;M42&amp;B42</f>
-        <v>ITMDBMediaImage</v>
+        <v>ITMDBGenres</v>
       </c>
       <c r="H42" s="8" t="str">
         <f>"T"&amp;M42&amp;B42</f>
-        <v>TTMDBMediaImage</v>
+        <v>TTMDBGenres</v>
       </c>
       <c r="I42" s="8" t="str">
         <f>"  "&amp;G42&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBMediaImage = interface;</v>
+        <v xml:space="preserve">  ITMDBGenres = interface;</v>
       </c>
       <c r="J42" s="8" t="str">
         <f>"  "&amp;H42&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBMediaImage = class;</v>
+        <v xml:space="preserve">  TTMDBGenres = class;</v>
       </c>
       <c r="K42" s="8" t="str">
         <f>IF(C42="", "  "&amp;G42&amp;" = interface", "  "&amp;G42&amp;" = interface(I"&amp;M42&amp;C42&amp;")")</f>
-        <v xml:space="preserve">  ITMDBMediaImage = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBGenres = interface(ITMDBItems)</v>
       </c>
       <c r="L42" s="8" t="str">
         <f>IF(C42="", "  "&amp;H42&amp;" = class(TInterfacedObject, "&amp;G42&amp;")", "  "&amp;H42&amp;" = class(T"&amp;M42&amp;C42&amp;", "&amp;G42&amp;")")</f>
-        <v xml:space="preserve">  TTMDBMediaImage = class(TTMDBItem, ITMDBMediaImage)</v>
+        <v xml:space="preserve">  TTMDBGenres = class(TTMDBItems, ITMDBGenres)</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>301</v>
@@ -7441,10 +7414,10 @@
         <v>87</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>459</v>
@@ -7457,27 +7430,27 @@
       </c>
       <c r="G43" s="8" t="str">
         <f>"I"&amp;M43&amp;B43</f>
-        <v>ITMDBMediaImages</v>
+        <v>ITMDBMediaImage</v>
       </c>
       <c r="H43" s="8" t="str">
         <f>"T"&amp;M43&amp;B43</f>
-        <v>TTMDBMediaImages</v>
+        <v>TTMDBMediaImage</v>
       </c>
       <c r="I43" s="8" t="str">
         <f>"  "&amp;G43&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBMediaImages = interface;</v>
+        <v xml:space="preserve">  ITMDBMediaImage = interface;</v>
       </c>
       <c r="J43" s="8" t="str">
         <f>"  "&amp;H43&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBMediaImages = class;</v>
+        <v xml:space="preserve">  TTMDBMediaImage = class;</v>
       </c>
       <c r="K43" s="8" t="str">
         <f>IF(C43="", "  "&amp;G43&amp;" = interface", "  "&amp;G43&amp;" = interface(I"&amp;M43&amp;C43&amp;")")</f>
-        <v xml:space="preserve">  ITMDBMediaImages = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBMediaImage = interface(ITMDBItem)</v>
       </c>
       <c r="L43" s="8" t="str">
         <f>IF(C43="", "  "&amp;H43&amp;" = class(TInterfacedObject, "&amp;G43&amp;")", "  "&amp;H43&amp;" = class(T"&amp;M43&amp;C43&amp;", "&amp;G43&amp;")")</f>
-        <v xml:space="preserve">  TTMDBMediaImages = class(TTMDBItems, ITMDBMediaImages)</v>
+        <v xml:space="preserve">  TTMDBMediaImage = class(TTMDBItem, ITMDBMediaImage)</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>301</v>
@@ -7488,7 +7461,10 @@
         <v>87</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>459</v>
@@ -7501,27 +7477,27 @@
       </c>
       <c r="G44" s="8" t="str">
         <f>"I"&amp;M44&amp;B44</f>
-        <v>ITMDBMediaImageGroup</v>
+        <v>ITMDBMediaImages</v>
       </c>
       <c r="H44" s="8" t="str">
         <f>"T"&amp;M44&amp;B44</f>
-        <v>TTMDBMediaImageGroup</v>
+        <v>TTMDBMediaImages</v>
       </c>
       <c r="I44" s="8" t="str">
         <f>"  "&amp;G44&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBMediaImageGroup = interface;</v>
+        <v xml:space="preserve">  ITMDBMediaImages = interface;</v>
       </c>
       <c r="J44" s="8" t="str">
         <f>"  "&amp;H44&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBMediaImageGroup = class;</v>
+        <v xml:space="preserve">  TTMDBMediaImages = class;</v>
       </c>
       <c r="K44" s="8" t="str">
         <f>IF(C44="", "  "&amp;G44&amp;" = interface", "  "&amp;G44&amp;" = interface(I"&amp;M44&amp;C44&amp;")")</f>
-        <v xml:space="preserve">  ITMDBMediaImageGroup = interface</v>
+        <v xml:space="preserve">  ITMDBMediaImages = interface(ITMDBItems)</v>
       </c>
       <c r="L44" s="8" t="str">
         <f>IF(C44="", "  "&amp;H44&amp;" = class(TInterfacedObject, "&amp;G44&amp;")", "  "&amp;H44&amp;" = class(T"&amp;M44&amp;C44&amp;", "&amp;G44&amp;")")</f>
-        <v xml:space="preserve">  TTMDBMediaImageGroup = class(TInterfacedObject, ITMDBMediaImageGroup)</v>
+        <v xml:space="preserve">  TTMDBMediaImages = class(TTMDBItems, ITMDBMediaImages)</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>301</v>
@@ -7529,13 +7505,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>459</v>
@@ -7548,27 +7521,27 @@
       </c>
       <c r="G45" s="8" t="str">
         <f>"I"&amp;M45&amp;B45</f>
-        <v>ITMDBJobDepartment</v>
+        <v>ITMDBMediaImageGroup</v>
       </c>
       <c r="H45" s="8" t="str">
         <f>"T"&amp;M45&amp;B45</f>
-        <v>TTMDBJobDepartment</v>
+        <v>TTMDBMediaImageGroup</v>
       </c>
       <c r="I45" s="8" t="str">
         <f>"  "&amp;G45&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBJobDepartment = interface;</v>
+        <v xml:space="preserve">  ITMDBMediaImageGroup = interface;</v>
       </c>
       <c r="J45" s="8" t="str">
         <f>"  "&amp;H45&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBJobDepartment = class;</v>
+        <v xml:space="preserve">  TTMDBMediaImageGroup = class;</v>
       </c>
       <c r="K45" s="8" t="str">
         <f>IF(C45="", "  "&amp;G45&amp;" = interface", "  "&amp;G45&amp;" = interface(I"&amp;M45&amp;C45&amp;")")</f>
-        <v xml:space="preserve">  ITMDBJobDepartment = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBMediaImageGroup = interface</v>
       </c>
       <c r="L45" s="8" t="str">
         <f>IF(C45="", "  "&amp;H45&amp;" = class(TInterfacedObject, "&amp;G45&amp;")", "  "&amp;H45&amp;" = class(T"&amp;M45&amp;C45&amp;", "&amp;G45&amp;")")</f>
-        <v xml:space="preserve">  TTMDBJobDepartment = class(TTMDBItem, ITMDBJobDepartment)</v>
+        <v xml:space="preserve">  TTMDBMediaImageGroup = class(TInterfacedObject, ITMDBMediaImageGroup)</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>301</v>
@@ -7579,10 +7552,10 @@
         <v>93</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>459</v>
@@ -7595,27 +7568,27 @@
       </c>
       <c r="G46" s="8" t="str">
         <f>"I"&amp;M46&amp;B46</f>
-        <v>ITMDBJobDepartments</v>
+        <v>ITMDBJobDepartment</v>
       </c>
       <c r="H46" s="8" t="str">
         <f>"T"&amp;M46&amp;B46</f>
-        <v>TTMDBJobDepartments</v>
+        <v>TTMDBJobDepartment</v>
       </c>
       <c r="I46" s="8" t="str">
         <f>"  "&amp;G46&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBJobDepartments = interface;</v>
+        <v xml:space="preserve">  ITMDBJobDepartment = interface;</v>
       </c>
       <c r="J46" s="8" t="str">
         <f>"  "&amp;H46&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBJobDepartments = class;</v>
+        <v xml:space="preserve">  TTMDBJobDepartment = class;</v>
       </c>
       <c r="K46" s="8" t="str">
         <f>IF(C46="", "  "&amp;G46&amp;" = interface", "  "&amp;G46&amp;" = interface(I"&amp;M46&amp;C46&amp;")")</f>
-        <v xml:space="preserve">  ITMDBJobDepartments = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBJobDepartment = interface(ITMDBItem)</v>
       </c>
       <c r="L46" s="8" t="str">
         <f>IF(C46="", "  "&amp;H46&amp;" = class(TInterfacedObject, "&amp;G46&amp;")", "  "&amp;H46&amp;" = class(T"&amp;M46&amp;C46&amp;", "&amp;G46&amp;")")</f>
-        <v xml:space="preserve">  TTMDBJobDepartments = class(TTMDBItems, ITMDBJobDepartments)</v>
+        <v xml:space="preserve">  TTMDBJobDepartment = class(TTMDBItem, ITMDBJobDepartment)</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>301</v>
@@ -7623,13 +7596,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>185</v>
+        <v>356</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>459</v>
@@ -7637,32 +7610,32 @@
       <c r="E47" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>459</v>
+      <c r="F47" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G47" s="8" t="str">
         <f>"I"&amp;M47&amp;B47</f>
-        <v>ITMDBKeyword</v>
+        <v>ITMDBJobDepartments</v>
       </c>
       <c r="H47" s="8" t="str">
         <f>"T"&amp;M47&amp;B47</f>
-        <v>TTMDBKeyword</v>
+        <v>TTMDBJobDepartments</v>
       </c>
       <c r="I47" s="8" t="str">
         <f>"  "&amp;G47&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBKeyword = interface;</v>
+        <v xml:space="preserve">  ITMDBJobDepartments = interface;</v>
       </c>
       <c r="J47" s="8" t="str">
         <f>"  "&amp;H47&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBKeyword = class;</v>
+        <v xml:space="preserve">  TTMDBJobDepartments = class;</v>
       </c>
       <c r="K47" s="8" t="str">
         <f>IF(C47="", "  "&amp;G47&amp;" = interface", "  "&amp;G47&amp;" = interface(I"&amp;M47&amp;C47&amp;")")</f>
-        <v xml:space="preserve">  ITMDBKeyword = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBJobDepartments = interface(ITMDBItems)</v>
       </c>
       <c r="L47" s="8" t="str">
         <f>IF(C47="", "  "&amp;H47&amp;" = class(TInterfacedObject, "&amp;G47&amp;")", "  "&amp;H47&amp;" = class(T"&amp;M47&amp;C47&amp;", "&amp;G47&amp;")")</f>
-        <v xml:space="preserve">  TTMDBKeyword = class(TTMDBItem, ITMDBKeyword)</v>
+        <v xml:space="preserve">  TTMDBJobDepartments = class(TTMDBItems, ITMDBJobDepartments)</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>301</v>
@@ -7673,10 +7646,10 @@
         <v>138</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>459</v>
@@ -7689,27 +7662,27 @@
       </c>
       <c r="G48" s="8" t="str">
         <f>"I"&amp;M48&amp;B48</f>
-        <v>ITMDBKeywords</v>
+        <v>ITMDBKeyword</v>
       </c>
       <c r="H48" s="8" t="str">
         <f>"T"&amp;M48&amp;B48</f>
-        <v>TTMDBKeywords</v>
+        <v>TTMDBKeyword</v>
       </c>
       <c r="I48" s="8" t="str">
         <f>"  "&amp;G48&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBKeywords = interface;</v>
+        <v xml:space="preserve">  ITMDBKeyword = interface;</v>
       </c>
       <c r="J48" s="8" t="str">
         <f>"  "&amp;H48&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBKeywords = class;</v>
+        <v xml:space="preserve">  TTMDBKeyword = class;</v>
       </c>
       <c r="K48" s="8" t="str">
         <f>IF(C48="", "  "&amp;G48&amp;" = interface", "  "&amp;G48&amp;" = interface(I"&amp;M48&amp;C48&amp;")")</f>
-        <v xml:space="preserve">  ITMDBKeywords = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBKeyword = interface(ITMDBItem)</v>
       </c>
       <c r="L48" s="8" t="str">
         <f>IF(C48="", "  "&amp;H48&amp;" = class(TInterfacedObject, "&amp;G48&amp;")", "  "&amp;H48&amp;" = class(T"&amp;M48&amp;C48&amp;", "&amp;G48&amp;")")</f>
-        <v xml:space="preserve">  TTMDBKeywords = class(TTMDBItems, ITMDBKeywords)</v>
+        <v xml:space="preserve">  TTMDBKeyword = class(TTMDBItem, ITMDBKeyword)</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>301</v>
@@ -7720,10 +7693,10 @@
         <v>138</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>360</v>
+        <v>138</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>459</v>
@@ -7736,27 +7709,27 @@
       </c>
       <c r="G49" s="8" t="str">
         <f>"I"&amp;M49&amp;B49</f>
-        <v>ITMDBKeywordPage</v>
+        <v>ITMDBKeywords</v>
       </c>
       <c r="H49" s="8" t="str">
         <f>"T"&amp;M49&amp;B49</f>
-        <v>TTMDBKeywordPage</v>
+        <v>TTMDBKeywords</v>
       </c>
       <c r="I49" s="8" t="str">
         <f>"  "&amp;G49&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBKeywordPage = interface;</v>
+        <v xml:space="preserve">  ITMDBKeywords = interface;</v>
       </c>
       <c r="J49" s="8" t="str">
         <f>"  "&amp;H49&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBKeywordPage = class;</v>
+        <v xml:space="preserve">  TTMDBKeywords = class;</v>
       </c>
       <c r="K49" s="8" t="str">
         <f>IF(C49="", "  "&amp;G49&amp;" = interface", "  "&amp;G49&amp;" = interface(I"&amp;M49&amp;C49&amp;")")</f>
-        <v xml:space="preserve">  ITMDBKeywordPage = interface(ITMDBPage)</v>
+        <v xml:space="preserve">  ITMDBKeywords = interface(ITMDBItems)</v>
       </c>
       <c r="L49" s="8" t="str">
         <f>IF(C49="", "  "&amp;H49&amp;" = class(TInterfacedObject, "&amp;G49&amp;")", "  "&amp;H49&amp;" = class(T"&amp;M49&amp;C49&amp;", "&amp;G49&amp;")")</f>
-        <v xml:space="preserve">  TTMDBKeywordPage = class(TTMDBPage, ITMDBKeywordPage)</v>
+        <v xml:space="preserve">  TTMDBKeywords = class(TTMDBItems, ITMDBKeywords)</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>301</v>
@@ -7767,10 +7740,10 @@
         <v>138</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>459</v>
@@ -7783,27 +7756,27 @@
       </c>
       <c r="G50" s="8" t="str">
         <f>"I"&amp;M50&amp;B50</f>
-        <v>ITMDBKeywordDetail</v>
+        <v>ITMDBKeywordPage</v>
       </c>
       <c r="H50" s="8" t="str">
         <f>"T"&amp;M50&amp;B50</f>
-        <v>TTMDBKeywordDetail</v>
+        <v>TTMDBKeywordPage</v>
       </c>
       <c r="I50" s="8" t="str">
         <f>"  "&amp;G50&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBKeywordDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBKeywordPage = interface;</v>
       </c>
       <c r="J50" s="8" t="str">
         <f>"  "&amp;H50&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBKeywordDetail = class;</v>
+        <v xml:space="preserve">  TTMDBKeywordPage = class;</v>
       </c>
       <c r="K50" s="8" t="str">
         <f>IF(C50="", "  "&amp;G50&amp;" = interface", "  "&amp;G50&amp;" = interface(I"&amp;M50&amp;C50&amp;")")</f>
-        <v xml:space="preserve">  ITMDBKeywordDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBKeywordPage = interface(ITMDBPage)</v>
       </c>
       <c r="L50" s="8" t="str">
         <f>IF(C50="", "  "&amp;H50&amp;" = class(TInterfacedObject, "&amp;G50&amp;")", "  "&amp;H50&amp;" = class(T"&amp;M50&amp;C50&amp;", "&amp;G50&amp;")")</f>
-        <v xml:space="preserve">  TTMDBKeywordDetail = class(TTMDBDetail, ITMDBKeywordDetail)</v>
+        <v xml:space="preserve">  TTMDBKeywordPage = class(TTMDBPage, ITMDBKeywordPage)</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>301</v>
@@ -7811,13 +7784,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>459</v>
@@ -7830,27 +7803,27 @@
       </c>
       <c r="G51" s="8" t="str">
         <f>"I"&amp;M51&amp;B51</f>
-        <v>ITMDBLanguage</v>
+        <v>ITMDBKeywordDetail</v>
       </c>
       <c r="H51" s="8" t="str">
         <f>"T"&amp;M51&amp;B51</f>
-        <v>TTMDBLanguage</v>
+        <v>TTMDBKeywordDetail</v>
       </c>
       <c r="I51" s="8" t="str">
         <f>"  "&amp;G51&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBLanguage = interface;</v>
+        <v xml:space="preserve">  ITMDBKeywordDetail = interface;</v>
       </c>
       <c r="J51" s="8" t="str">
         <f>"  "&amp;H51&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBLanguage = class;</v>
+        <v xml:space="preserve">  TTMDBKeywordDetail = class;</v>
       </c>
       <c r="K51" s="8" t="str">
         <f>IF(C51="", "  "&amp;G51&amp;" = interface", "  "&amp;G51&amp;" = interface(I"&amp;M51&amp;C51&amp;")")</f>
-        <v xml:space="preserve">  ITMDBLanguage = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBKeywordDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L51" s="8" t="str">
         <f>IF(C51="", "  "&amp;H51&amp;" = class(TInterfacedObject, "&amp;G51&amp;")", "  "&amp;H51&amp;" = class(T"&amp;M51&amp;C51&amp;", "&amp;G51&amp;")")</f>
-        <v xml:space="preserve">  TTMDBLanguage = class(TTMDBItem, ITMDBLanguage)</v>
+        <v xml:space="preserve">  TTMDBKeywordDetail = class(TTMDBDetail, ITMDBKeywordDetail)</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>301</v>
@@ -7861,10 +7834,10 @@
         <v>94</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>459</v>
@@ -7877,27 +7850,27 @@
       </c>
       <c r="G52" s="8" t="str">
         <f>"I"&amp;M52&amp;B52</f>
-        <v>ITMDBLanguages</v>
+        <v>ITMDBLanguage</v>
       </c>
       <c r="H52" s="8" t="str">
         <f>"T"&amp;M52&amp;B52</f>
-        <v>TTMDBLanguages</v>
+        <v>TTMDBLanguage</v>
       </c>
       <c r="I52" s="8" t="str">
         <f>"  "&amp;G52&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBLanguages = interface;</v>
+        <v xml:space="preserve">  ITMDBLanguage = interface;</v>
       </c>
       <c r="J52" s="8" t="str">
         <f>"  "&amp;H52&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBLanguages = class;</v>
+        <v xml:space="preserve">  TTMDBLanguage = class;</v>
       </c>
       <c r="K52" s="8" t="str">
         <f>IF(C52="", "  "&amp;G52&amp;" = interface", "  "&amp;G52&amp;" = interface(I"&amp;M52&amp;C52&amp;")")</f>
-        <v xml:space="preserve">  ITMDBLanguages = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBLanguage = interface(ITMDBItem)</v>
       </c>
       <c r="L52" s="8" t="str">
         <f>IF(C52="", "  "&amp;H52&amp;" = class(TInterfacedObject, "&amp;G52&amp;")", "  "&amp;H52&amp;" = class(T"&amp;M52&amp;C52&amp;", "&amp;G52&amp;")")</f>
-        <v xml:space="preserve">  TTMDBLanguages = class(TTMDBItems, ITMDBLanguages)</v>
+        <v xml:space="preserve">  TTMDBLanguage = class(TTMDBItem, ITMDBLanguage)</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>301</v>
@@ -7905,13 +7878,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>450</v>
+        <v>94</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>459</v>
@@ -7924,27 +7897,27 @@
       </c>
       <c r="G53" s="8" t="str">
         <f>"I"&amp;M53&amp;B53</f>
-        <v>ITMDBTVNetwork</v>
+        <v>ITMDBLanguages</v>
       </c>
       <c r="H53" s="8" t="str">
         <f>"T"&amp;M53&amp;B53</f>
-        <v>TTMDBTVNetwork</v>
+        <v>TTMDBLanguages</v>
       </c>
       <c r="I53" s="8" t="str">
         <f>"  "&amp;G53&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVNetwork = interface;</v>
+        <v xml:space="preserve">  ITMDBLanguages = interface;</v>
       </c>
       <c r="J53" s="8" t="str">
         <f>"  "&amp;H53&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVNetwork = class;</v>
+        <v xml:space="preserve">  TTMDBLanguages = class;</v>
       </c>
       <c r="K53" s="8" t="str">
         <f>IF(C53="", "  "&amp;G53&amp;" = interface", "  "&amp;G53&amp;" = interface(I"&amp;M53&amp;C53&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVNetwork = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBLanguages = interface(ITMDBItems)</v>
       </c>
       <c r="L53" s="8" t="str">
         <f>IF(C53="", "  "&amp;H53&amp;" = class(TInterfacedObject, "&amp;G53&amp;")", "  "&amp;H53&amp;" = class(T"&amp;M53&amp;C53&amp;", "&amp;G53&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVNetwork = class(TTMDBItem, ITMDBTVNetwork)</v>
+        <v xml:space="preserve">  TTMDBLanguages = class(TTMDBItems, ITMDBLanguages)</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>301</v>
@@ -7955,10 +7928,10 @@
         <v>380</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>459</v>
@@ -7966,32 +7939,32 @@
       <c r="E54" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>297</v>
+      <c r="F54" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="G54" s="8" t="str">
         <f>"I"&amp;M54&amp;B54</f>
-        <v>ITMDBTVNetworks</v>
+        <v>ITMDBTVNetwork</v>
       </c>
       <c r="H54" s="8" t="str">
         <f>"T"&amp;M54&amp;B54</f>
-        <v>TTMDBTVNetworks</v>
+        <v>TTMDBTVNetwork</v>
       </c>
       <c r="I54" s="8" t="str">
         <f>"  "&amp;G54&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVNetworks = interface;</v>
+        <v xml:space="preserve">  ITMDBTVNetwork = interface;</v>
       </c>
       <c r="J54" s="8" t="str">
         <f>"  "&amp;H54&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVNetworks = class;</v>
+        <v xml:space="preserve">  TTMDBTVNetwork = class;</v>
       </c>
       <c r="K54" s="8" t="str">
         <f>IF(C54="", "  "&amp;G54&amp;" = interface", "  "&amp;G54&amp;" = interface(I"&amp;M54&amp;C54&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVNetworks = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBTVNetwork = interface(ITMDBItem)</v>
       </c>
       <c r="L54" s="8" t="str">
         <f>IF(C54="", "  "&amp;H54&amp;" = class(TInterfacedObject, "&amp;G54&amp;")", "  "&amp;H54&amp;" = class(T"&amp;M54&amp;C54&amp;", "&amp;G54&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVNetworks = class(TTMDBItems, ITMDBTVNetworks)</v>
+        <v xml:space="preserve">  TTMDBTVNetwork = class(TTMDBItem, ITMDBTVNetwork)</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>301</v>
@@ -8002,10 +7975,10 @@
         <v>380</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>459</v>
@@ -8018,27 +7991,27 @@
       </c>
       <c r="G55" s="8" t="str">
         <f>"I"&amp;M55&amp;B55</f>
-        <v>ITMDBTVNetworkDetail</v>
+        <v>ITMDBTVNetworks</v>
       </c>
       <c r="H55" s="8" t="str">
         <f>"T"&amp;M55&amp;B55</f>
-        <v>TTMDBTVNetworkDetail</v>
+        <v>TTMDBTVNetworks</v>
       </c>
       <c r="I55" s="8" t="str">
         <f>"  "&amp;G55&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVNetworkDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBTVNetworks = interface;</v>
       </c>
       <c r="J55" s="8" t="str">
         <f>"  "&amp;H55&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVNetworkDetail = class;</v>
+        <v xml:space="preserve">  TTMDBTVNetworks = class;</v>
       </c>
       <c r="K55" s="8" t="str">
         <f>IF(C55="", "  "&amp;G55&amp;" = interface", "  "&amp;G55&amp;" = interface(I"&amp;M55&amp;C55&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVNetworkDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBTVNetworks = interface(ITMDBItems)</v>
       </c>
       <c r="L55" s="8" t="str">
         <f>IF(C55="", "  "&amp;H55&amp;" = class(TInterfacedObject, "&amp;G55&amp;")", "  "&amp;H55&amp;" = class(T"&amp;M55&amp;C55&amp;", "&amp;G55&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVNetworkDetail = class(TTMDBDetail, ITMDBTVNetworkDetail)</v>
+        <v xml:space="preserve">  TTMDBTVNetworks = class(TTMDBItems, ITMDBTVNetworks)</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>301</v>
@@ -8046,13 +8019,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>96</v>
+        <v>380</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>459</v>
@@ -8065,27 +8038,27 @@
       </c>
       <c r="G56" s="8" t="str">
         <f>"I"&amp;M56&amp;B56</f>
-        <v>ITMDBTimezone</v>
+        <v>ITMDBTVNetworkDetail</v>
       </c>
       <c r="H56" s="8" t="str">
         <f>"T"&amp;M56&amp;B56</f>
-        <v>TTMDBTimezone</v>
+        <v>TTMDBTVNetworkDetail</v>
       </c>
       <c r="I56" s="8" t="str">
         <f>"  "&amp;G56&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTimezone = interface;</v>
+        <v xml:space="preserve">  ITMDBTVNetworkDetail = interface;</v>
       </c>
       <c r="J56" s="8" t="str">
         <f>"  "&amp;H56&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTimezone = class;</v>
+        <v xml:space="preserve">  TTMDBTVNetworkDetail = class;</v>
       </c>
       <c r="K56" s="8" t="str">
         <f>IF(C56="", "  "&amp;G56&amp;" = interface", "  "&amp;G56&amp;" = interface(I"&amp;M56&amp;C56&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTimezone = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBTVNetworkDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L56" s="8" t="str">
         <f>IF(C56="", "  "&amp;H56&amp;" = class(TInterfacedObject, "&amp;G56&amp;")", "  "&amp;H56&amp;" = class(T"&amp;M56&amp;C56&amp;", "&amp;G56&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTimezone = class(TTMDBItem, ITMDBTimezone)</v>
+        <v xml:space="preserve">  TTMDBTVNetworkDetail = class(TTMDBDetail, ITMDBTVNetworkDetail)</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>301</v>
@@ -8096,10 +8069,10 @@
         <v>96</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>459</v>
@@ -8112,27 +8085,27 @@
       </c>
       <c r="G57" s="8" t="str">
         <f>"I"&amp;M57&amp;B57</f>
-        <v>ITMDBTimezones</v>
+        <v>ITMDBTimezone</v>
       </c>
       <c r="H57" s="8" t="str">
         <f>"T"&amp;M57&amp;B57</f>
-        <v>TTMDBTimezones</v>
+        <v>TTMDBTimezone</v>
       </c>
       <c r="I57" s="8" t="str">
         <f>"  "&amp;G57&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTimezones = interface;</v>
+        <v xml:space="preserve">  ITMDBTimezone = interface;</v>
       </c>
       <c r="J57" s="8" t="str">
         <f>"  "&amp;H57&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTimezones = class;</v>
+        <v xml:space="preserve">  TTMDBTimezone = class;</v>
       </c>
       <c r="K57" s="8" t="str">
         <f>IF(C57="", "  "&amp;G57&amp;" = interface", "  "&amp;G57&amp;" = interface(I"&amp;M57&amp;C57&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTimezones = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBTimezone = interface(ITMDBItem)</v>
       </c>
       <c r="L57" s="8" t="str">
         <f>IF(C57="", "  "&amp;H57&amp;" = class(TInterfacedObject, "&amp;G57&amp;")", "  "&amp;H57&amp;" = class(T"&amp;M57&amp;C57&amp;", "&amp;G57&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTimezones = class(TTMDBItems, ITMDBTimezones)</v>
+        <v xml:space="preserve">  TTMDBTimezone = class(TTMDBItem, ITMDBTimezone)</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>301</v>
@@ -8140,10 +8113,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>332</v>
+        <v>96</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>459</v>
@@ -8151,32 +8127,32 @@
       <c r="E58" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>459</v>
+      <c r="F58" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G58" s="8" t="str">
         <f>"I"&amp;M58&amp;B58</f>
-        <v>ITMDBReleaseDate</v>
+        <v>ITMDBTimezones</v>
       </c>
       <c r="H58" s="8" t="str">
         <f>"T"&amp;M58&amp;B58</f>
-        <v>TTMDBReleaseDate</v>
+        <v>TTMDBTimezones</v>
       </c>
       <c r="I58" s="8" t="str">
         <f>"  "&amp;G58&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReleaseDate = interface;</v>
+        <v xml:space="preserve">  ITMDBTimezones = interface;</v>
       </c>
       <c r="J58" s="8" t="str">
         <f>"  "&amp;H58&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReleaseDate = class;</v>
+        <v xml:space="preserve">  TTMDBTimezones = class;</v>
       </c>
       <c r="K58" s="8" t="str">
         <f>IF(C58="", "  "&amp;G58&amp;" = interface", "  "&amp;G58&amp;" = interface(I"&amp;M58&amp;C58&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReleaseDate = interface</v>
+        <v xml:space="preserve">  ITMDBTimezones = interface(ITMDBItems)</v>
       </c>
       <c r="L58" s="8" t="str">
         <f>IF(C58="", "  "&amp;H58&amp;" = class(TInterfacedObject, "&amp;G58&amp;")", "  "&amp;H58&amp;" = class(T"&amp;M58&amp;C58&amp;", "&amp;G58&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReleaseDate = class(TInterfacedObject, ITMDBReleaseDate)</v>
+        <v xml:space="preserve">  TTMDBTimezones = class(TTMDBItems, ITMDBTimezones)</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>301</v>
@@ -8187,7 +8163,7 @@
         <v>162</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>459</v>
@@ -8200,27 +8176,27 @@
       </c>
       <c r="G59" s="8" t="str">
         <f>"I"&amp;M59&amp;B59</f>
-        <v>ITMDBReleaseDateCountry</v>
+        <v>ITMDBReleaseDate</v>
       </c>
       <c r="H59" s="8" t="str">
         <f>"T"&amp;M59&amp;B59</f>
-        <v>TTMDBReleaseDateCountry</v>
+        <v>TTMDBReleaseDate</v>
       </c>
       <c r="I59" s="8" t="str">
         <f>"  "&amp;G59&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReleaseDateCountry = interface;</v>
+        <v xml:space="preserve">  ITMDBReleaseDate = interface;</v>
       </c>
       <c r="J59" s="8" t="str">
         <f>"  "&amp;H59&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReleaseDateCountry = class;</v>
+        <v xml:space="preserve">  TTMDBReleaseDate = class;</v>
       </c>
       <c r="K59" s="8" t="str">
         <f>IF(C59="", "  "&amp;G59&amp;" = interface", "  "&amp;G59&amp;" = interface(I"&amp;M59&amp;C59&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReleaseDateCountry = interface</v>
+        <v xml:space="preserve">  ITMDBReleaseDate = interface</v>
       </c>
       <c r="L59" s="8" t="str">
         <f>IF(C59="", "  "&amp;H59&amp;" = class(TInterfacedObject, "&amp;G59&amp;")", "  "&amp;H59&amp;" = class(T"&amp;M59&amp;C59&amp;", "&amp;G59&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReleaseDateCountry = class(TInterfacedObject, ITMDBReleaseDateCountry)</v>
+        <v xml:space="preserve">  TTMDBReleaseDate = class(TInterfacedObject, ITMDBReleaseDate)</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>301</v>
@@ -8231,7 +8207,7 @@
         <v>162</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>459</v>
@@ -8244,27 +8220,27 @@
       </c>
       <c r="G60" s="8" t="str">
         <f>"I"&amp;M60&amp;B60</f>
-        <v>ITMDBReleaseDateCountries</v>
+        <v>ITMDBReleaseDateCountry</v>
       </c>
       <c r="H60" s="8" t="str">
         <f>"T"&amp;M60&amp;B60</f>
-        <v>TTMDBReleaseDateCountries</v>
+        <v>TTMDBReleaseDateCountry</v>
       </c>
       <c r="I60" s="8" t="str">
         <f>"  "&amp;G60&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReleaseDateCountries = interface;</v>
+        <v xml:space="preserve">  ITMDBReleaseDateCountry = interface;</v>
       </c>
       <c r="J60" s="8" t="str">
         <f>"  "&amp;H60&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReleaseDateCountries = class;</v>
+        <v xml:space="preserve">  TTMDBReleaseDateCountry = class;</v>
       </c>
       <c r="K60" s="8" t="str">
         <f>IF(C60="", "  "&amp;G60&amp;" = interface", "  "&amp;G60&amp;" = interface(I"&amp;M60&amp;C60&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReleaseDateCountries = interface</v>
+        <v xml:space="preserve">  ITMDBReleaseDateCountry = interface</v>
       </c>
       <c r="L60" s="8" t="str">
         <f>IF(C60="", "  "&amp;H60&amp;" = class(TInterfacedObject, "&amp;G60&amp;")", "  "&amp;H60&amp;" = class(T"&amp;M60&amp;C60&amp;", "&amp;G60&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReleaseDateCountries = class(TInterfacedObject, ITMDBReleaseDateCountries)</v>
+        <v xml:space="preserve">  TTMDBReleaseDateCountry = class(TInterfacedObject, ITMDBReleaseDateCountry)</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>301</v>
@@ -8272,10 +8248,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>459</v>
@@ -8283,32 +8259,32 @@
       <c r="E61" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F61" s="13" t="s">
-        <v>297</v>
+      <c r="F61" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="G61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ITMDBTranslationData</v>
+        <f>"I"&amp;M61&amp;B61</f>
+        <v>ITMDBReleaseDateCountries</v>
       </c>
       <c r="H61" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>TTMDBTranslationData</v>
+        <f>"T"&amp;M61&amp;B61</f>
+        <v>TTMDBReleaseDateCountries</v>
       </c>
       <c r="I61" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBTranslationData = interface;</v>
+        <f>"  "&amp;G61&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBReleaseDateCountries = interface;</v>
       </c>
       <c r="J61" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBTranslationData = class;</v>
+        <f>"  "&amp;H61&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBReleaseDateCountries = class;</v>
       </c>
       <c r="K61" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">  ITMDBTranslationData = interface</v>
+        <f>IF(C61="", "  "&amp;G61&amp;" = interface", "  "&amp;G61&amp;" = interface(I"&amp;M61&amp;C61&amp;")")</f>
+        <v xml:space="preserve">  ITMDBReleaseDateCountries = interface</v>
       </c>
       <c r="L61" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  TTMDBTranslationData = class(TInterfacedObject, ITMDBTranslationData)</v>
+        <f>IF(C61="", "  "&amp;H61&amp;" = class(TInterfacedObject, "&amp;G61&amp;")", "  "&amp;H61&amp;" = class(T"&amp;M61&amp;C61&amp;", "&amp;G61&amp;")")</f>
+        <v xml:space="preserve">  TTMDBReleaseDateCountries = class(TInterfacedObject, ITMDBReleaseDateCountries)</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>301</v>
@@ -8319,9 +8295,6 @@
         <v>88</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C62" s="10" t="s">
         <v>338</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -8334,28 +8307,28 @@
         <v>297</v>
       </c>
       <c r="G62" s="8" t="str">
-        <f t="shared" ref="G62:G76" si="6">"I"&amp;M62&amp;B62</f>
-        <v>ITMDBMovieTranslationData</v>
+        <f t="shared" si="0"/>
+        <v>ITMDBTranslationData</v>
       </c>
       <c r="H62" s="8" t="str">
-        <f t="shared" ref="H62:H76" si="7">"T"&amp;M62&amp;B62</f>
-        <v>TTMDBMovieTranslationData</v>
+        <f t="shared" si="1"/>
+        <v>TTMDBTranslationData</v>
       </c>
       <c r="I62" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBMovieTranslationData = interface;</v>
+        <v xml:space="preserve">  ITMDBTranslationData = interface;</v>
       </c>
       <c r="J62" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBMovieTranslationData = class;</v>
+        <v xml:space="preserve">  TTMDBTranslationData = class;</v>
       </c>
       <c r="K62" s="8" t="str">
-        <f t="shared" ref="K62:K76" si="8">IF(C62="", "  "&amp;G62&amp;" = interface", "  "&amp;G62&amp;" = interface(I"&amp;M62&amp;C62&amp;")")</f>
-        <v xml:space="preserve">  ITMDBMovieTranslationData = interface(ITMDBTranslationData)</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  ITMDBTranslationData = interface</v>
       </c>
       <c r="L62" s="8" t="str">
-        <f t="shared" ref="L62:L76" si="9">IF(C62="", "  "&amp;H62&amp;" = class(TInterfacedObject, "&amp;G62&amp;")", "  "&amp;H62&amp;" = class(T"&amp;M62&amp;C62&amp;", "&amp;G62&amp;")")</f>
-        <v xml:space="preserve">  TTMDBMovieTranslationData = class(TTMDBTranslationData, ITMDBMovieTranslationData)</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  TTMDBTranslationData = class(TInterfacedObject, ITMDBTranslationData)</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>301</v>
@@ -8366,7 +8339,7 @@
         <v>88</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>338</v>
@@ -8381,28 +8354,28 @@
         <v>297</v>
       </c>
       <c r="G63" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ITMDBCollectionTranslationData</v>
+        <f t="shared" ref="G63:G77" si="6">"I"&amp;M63&amp;B63</f>
+        <v>ITMDBMovieTranslationData</v>
       </c>
       <c r="H63" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>TTMDBCollectionTranslationData</v>
+        <f t="shared" ref="H63:H77" si="7">"T"&amp;M63&amp;B63</f>
+        <v>TTMDBMovieTranslationData</v>
       </c>
       <c r="I63" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCollectionTranslationData = interface;</v>
+        <v xml:space="preserve">  ITMDBMovieTranslationData = interface;</v>
       </c>
       <c r="J63" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCollectionTranslationData = class;</v>
+        <v xml:space="preserve">  TTMDBMovieTranslationData = class;</v>
       </c>
       <c r="K63" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBCollectionTranslationData = interface(ITMDBTranslationData)</v>
+        <f t="shared" ref="K63:K77" si="8">IF(C63="", "  "&amp;G63&amp;" = interface", "  "&amp;G63&amp;" = interface(I"&amp;M63&amp;C63&amp;")")</f>
+        <v xml:space="preserve">  ITMDBMovieTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L63" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBCollectionTranslationData = class(TTMDBTranslationData, ITMDBCollectionTranslationData)</v>
+        <f t="shared" ref="L63:L77" si="9">IF(C63="", "  "&amp;H63&amp;" = class(TInterfacedObject, "&amp;G63&amp;")", "  "&amp;H63&amp;" = class(T"&amp;M63&amp;C63&amp;", "&amp;G63&amp;")")</f>
+        <v xml:space="preserve">  TTMDBMovieTranslationData = class(TTMDBTranslationData, ITMDBMovieTranslationData)</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>301</v>
@@ -8413,7 +8386,7 @@
         <v>88</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>338</v>
@@ -8429,27 +8402,27 @@
       </c>
       <c r="G64" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBPersonTranslationData</v>
+        <v>ITMDBCollectionTranslationData</v>
       </c>
       <c r="H64" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBPersonTranslationData</v>
+        <v>TTMDBCollectionTranslationData</v>
       </c>
       <c r="I64" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBPersonTranslationData = interface;</v>
+        <v xml:space="preserve">  ITMDBCollectionTranslationData = interface;</v>
       </c>
       <c r="J64" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBPersonTranslationData = class;</v>
+        <v xml:space="preserve">  TTMDBCollectionTranslationData = class;</v>
       </c>
       <c r="K64" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBPersonTranslationData = interface(ITMDBTranslationData)</v>
+        <v xml:space="preserve">  ITMDBCollectionTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L64" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBPersonTranslationData = class(TTMDBTranslationData, ITMDBPersonTranslationData)</v>
+        <v xml:space="preserve">  TTMDBCollectionTranslationData = class(TTMDBTranslationData, ITMDBCollectionTranslationData)</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>301</v>
@@ -8460,7 +8433,7 @@
         <v>88</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>338</v>
@@ -8476,27 +8449,27 @@
       </c>
       <c r="G65" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBTVSeriesTranslationData</v>
+        <v>ITMDBPersonTranslationData</v>
       </c>
       <c r="H65" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBTVSeriesTranslationData</v>
+        <v>TTMDBPersonTranslationData</v>
       </c>
       <c r="I65" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBTVSeriesTranslationData = interface;</v>
+        <v xml:space="preserve">  ITMDBPersonTranslationData = interface;</v>
       </c>
       <c r="J65" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBTVSeriesTranslationData = class;</v>
+        <v xml:space="preserve">  TTMDBPersonTranslationData = class;</v>
       </c>
       <c r="K65" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBTVSeriesTranslationData = interface(ITMDBTranslationData)</v>
+        <v xml:space="preserve">  ITMDBPersonTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L65" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBTVSeriesTranslationData = class(TTMDBTranslationData, ITMDBTVSeriesTranslationData)</v>
+        <v xml:space="preserve">  TTMDBPersonTranslationData = class(TTMDBTranslationData, ITMDBPersonTranslationData)</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>301</v>
@@ -8507,7 +8480,7 @@
         <v>88</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>338</v>
@@ -8523,27 +8496,27 @@
       </c>
       <c r="G66" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBTVSeasonTranslationData</v>
+        <v>ITMDBTVSeriesTranslationData</v>
       </c>
       <c r="H66" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBTVSeasonTranslationData</v>
+        <v>TTMDBTVSeriesTranslationData</v>
       </c>
       <c r="I66" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBTVSeasonTranslationData = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeriesTranslationData = interface;</v>
       </c>
       <c r="J66" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBTVSeasonTranslationData = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeriesTranslationData = class;</v>
       </c>
       <c r="K66" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBTVSeasonTranslationData = interface(ITMDBTranslationData)</v>
+        <v xml:space="preserve">  ITMDBTVSeriesTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L66" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBTVSeasonTranslationData = class(TTMDBTranslationData, ITMDBTVSeasonTranslationData)</v>
+        <v xml:space="preserve">  TTMDBTVSeriesTranslationData = class(TTMDBTranslationData, ITMDBTVSeriesTranslationData)</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>301</v>
@@ -8554,7 +8527,7 @@
         <v>88</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>338</v>
@@ -8570,27 +8543,27 @@
       </c>
       <c r="G67" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBTVEpisodeTranslationData</v>
+        <v>ITMDBTVSeasonTranslationData</v>
       </c>
       <c r="H67" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBTVEpisodeTranslationData</v>
+        <v>TTMDBTVSeasonTranslationData</v>
       </c>
       <c r="I67" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeTranslationData = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasonTranslationData = interface;</v>
       </c>
       <c r="J67" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeTranslationData = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasonTranslationData = class;</v>
       </c>
       <c r="K67" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeTranslationData = interface(ITMDBTranslationData)</v>
+        <v xml:space="preserve">  ITMDBTVSeasonTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L67" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeTranslationData = class(TTMDBTranslationData, ITMDBTVEpisodeTranslationData)</v>
+        <v xml:space="preserve">  TTMDBTVSeasonTranslationData = class(TTMDBTranslationData, ITMDBTVSeasonTranslationData)</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>301</v>
@@ -8601,10 +8574,10 @@
         <v>88</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>459</v>
@@ -8617,27 +8590,27 @@
       </c>
       <c r="G68" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBTranslation</v>
+        <v>ITMDBTVEpisodeTranslationData</v>
       </c>
       <c r="H68" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBTranslation</v>
+        <v>TTMDBTVEpisodeTranslationData</v>
       </c>
       <c r="I68" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBTranslation = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeTranslationData = interface;</v>
       </c>
       <c r="J68" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBTranslation = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeTranslationData = class;</v>
       </c>
       <c r="K68" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBTranslation = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L68" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBTranslation = class(TTMDBItem, ITMDBTranslation)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeTranslationData = class(TTMDBTranslationData, ITMDBTVEpisodeTranslationData)</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>301</v>
@@ -8648,10 +8621,10 @@
         <v>88</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>88</v>
+        <v>345</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>459</v>
@@ -8664,27 +8637,27 @@
       </c>
       <c r="G69" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBTranslations</v>
+        <v>ITMDBTranslation</v>
       </c>
       <c r="H69" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBTranslations</v>
+        <v>TTMDBTranslation</v>
       </c>
       <c r="I69" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBTranslations = interface;</v>
+        <v xml:space="preserve">  ITMDBTranslation = interface;</v>
       </c>
       <c r="J69" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBTranslations = class;</v>
+        <v xml:space="preserve">  TTMDBTranslation = class;</v>
       </c>
       <c r="K69" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBTranslations = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBTranslation = interface(ITMDBItem)</v>
       </c>
       <c r="L69" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBTranslations = class(TTMDBItems, ITMDBTranslations)</v>
+        <v xml:space="preserve">  TTMDBTranslation = class(TTMDBItem, ITMDBTranslation)</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>301</v>
@@ -8692,13 +8665,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>459</v>
@@ -8706,32 +8679,32 @@
       <c r="E70" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>459</v>
+      <c r="F70" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G70" s="8" t="str">
-        <f>"I"&amp;M70&amp;B70</f>
-        <v>ITMDBVideo</v>
+        <f t="shared" si="6"/>
+        <v>ITMDBTranslations</v>
       </c>
       <c r="H70" s="8" t="str">
-        <f>"T"&amp;M70&amp;B70</f>
-        <v>TTMDBVideo</v>
+        <f t="shared" si="7"/>
+        <v>TTMDBTranslations</v>
       </c>
       <c r="I70" s="8" t="str">
-        <f>"  "&amp;G70&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBVideo = interface;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  ITMDBTranslations = interface;</v>
       </c>
       <c r="J70" s="8" t="str">
-        <f>"  "&amp;H70&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBVideo = class;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  TTMDBTranslations = class;</v>
       </c>
       <c r="K70" s="8" t="str">
-        <f>IF(C70="", "  "&amp;G70&amp;" = interface", "  "&amp;G70&amp;" = interface(I"&amp;M70&amp;C70&amp;")")</f>
-        <v xml:space="preserve">  ITMDBVideo = interface(ITMDBItem)</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  ITMDBTranslations = interface(ITMDBItems)</v>
       </c>
       <c r="L70" s="8" t="str">
-        <f>IF(C70="", "  "&amp;H70&amp;" = class(TInterfacedObject, "&amp;G70&amp;")", "  "&amp;H70&amp;" = class(T"&amp;M70&amp;C70&amp;", "&amp;G70&amp;")")</f>
-        <v xml:space="preserve">  TTMDBVideo = class(TTMDBItem, ITMDBVideo)</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  TTMDBTranslations = class(TTMDBItems, ITMDBTranslations)</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>301</v>
@@ -8742,10 +8715,10 @@
         <v>165</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>459</v>
@@ -8758,27 +8731,27 @@
       </c>
       <c r="G71" s="8" t="str">
         <f>"I"&amp;M71&amp;B71</f>
-        <v>ITMDBVideos</v>
+        <v>ITMDBVideo</v>
       </c>
       <c r="H71" s="8" t="str">
         <f>"T"&amp;M71&amp;B71</f>
-        <v>TTMDBVideos</v>
+        <v>TTMDBVideo</v>
       </c>
       <c r="I71" s="8" t="str">
         <f>"  "&amp;G71&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBVideos = interface;</v>
+        <v xml:space="preserve">  ITMDBVideo = interface;</v>
       </c>
       <c r="J71" s="8" t="str">
         <f>"  "&amp;H71&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBVideos = class;</v>
+        <v xml:space="preserve">  TTMDBVideo = class;</v>
       </c>
       <c r="K71" s="8" t="str">
         <f>IF(C71="", "  "&amp;G71&amp;" = interface", "  "&amp;G71&amp;" = interface(I"&amp;M71&amp;C71&amp;")")</f>
-        <v xml:space="preserve">  ITMDBVideos = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBVideo = interface(ITMDBItem)</v>
       </c>
       <c r="L71" s="8" t="str">
         <f>IF(C71="", "  "&amp;H71&amp;" = class(TInterfacedObject, "&amp;G71&amp;")", "  "&amp;H71&amp;" = class(T"&amp;M71&amp;C71&amp;", "&amp;G71&amp;")")</f>
-        <v xml:space="preserve">  TTMDBVideos = class(TTMDBItems, ITMDBVideos)</v>
+        <v xml:space="preserve">  TTMDBVideo = class(TTMDBItem, ITMDBVideo)</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>301</v>
@@ -8786,13 +8759,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>459</v>
@@ -8804,28 +8777,28 @@
         <v>459</v>
       </c>
       <c r="G72" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ITMDBCollection</v>
+        <f>"I"&amp;M72&amp;B72</f>
+        <v>ITMDBVideos</v>
       </c>
       <c r="H72" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>TTMDBCollection</v>
+        <f>"T"&amp;M72&amp;B72</f>
+        <v>TTMDBVideos</v>
       </c>
       <c r="I72" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCollection = interface;</v>
+        <f>"  "&amp;G72&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBVideos = interface;</v>
       </c>
       <c r="J72" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCollection = class;</v>
+        <f>"  "&amp;H72&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBVideos = class;</v>
       </c>
       <c r="K72" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBCollection = interface(ITMDBItem)</v>
+        <f>IF(C72="", "  "&amp;G72&amp;" = interface", "  "&amp;G72&amp;" = interface(I"&amp;M72&amp;C72&amp;")")</f>
+        <v xml:space="preserve">  ITMDBVideos = interface(ITMDBItems)</v>
       </c>
       <c r="L72" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBCollection = class(TTMDBItem, ITMDBCollection)</v>
+        <f>IF(C72="", "  "&amp;H72&amp;" = class(TInterfacedObject, "&amp;G72&amp;")", "  "&amp;H72&amp;" = class(T"&amp;M72&amp;C72&amp;", "&amp;G72&amp;")")</f>
+        <v xml:space="preserve">  TTMDBVideos = class(TTMDBItems, ITMDBVideos)</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>301</v>
@@ -8836,10 +8809,10 @@
         <v>86</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>459</v>
@@ -8852,27 +8825,27 @@
       </c>
       <c r="G73" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBCollections</v>
+        <v>ITMDBCollection</v>
       </c>
       <c r="H73" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBCollections</v>
+        <v>TTMDBCollection</v>
       </c>
       <c r="I73" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCollections = interface;</v>
+        <v xml:space="preserve">  ITMDBCollection = interface;</v>
       </c>
       <c r="J73" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCollections = class;</v>
+        <v xml:space="preserve">  TTMDBCollection = class;</v>
       </c>
       <c r="K73" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBCollections = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBCollection = interface(ITMDBItem)</v>
       </c>
       <c r="L73" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBCollections = class(TTMDBItems, ITMDBCollections)</v>
+        <v xml:space="preserve">  TTMDBCollection = class(TTMDBItem, ITMDBCollection)</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>301</v>
@@ -8883,10 +8856,10 @@
         <v>86</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>348</v>
+        <v>86</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>459</v>
@@ -8899,27 +8872,27 @@
       </c>
       <c r="G74" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBCollectionPage</v>
+        <v>ITMDBCollections</v>
       </c>
       <c r="H74" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBCollectionPage</v>
+        <v>TTMDBCollections</v>
       </c>
       <c r="I74" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCollectionPage = interface;</v>
+        <v xml:space="preserve">  ITMDBCollections = interface;</v>
       </c>
       <c r="J74" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCollectionPage = class;</v>
+        <v xml:space="preserve">  TTMDBCollections = class;</v>
       </c>
       <c r="K74" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBCollectionPage = interface(ITMDBPage)</v>
+        <v xml:space="preserve">  ITMDBCollections = interface(ITMDBItems)</v>
       </c>
       <c r="L74" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBCollectionPage = class(TTMDBPage, ITMDBCollectionPage)</v>
+        <v xml:space="preserve">  TTMDBCollections = class(TTMDBItems, ITMDBCollections)</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>301</v>
@@ -8930,7 +8903,10 @@
         <v>86</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>459</v>
@@ -8943,27 +8919,27 @@
       </c>
       <c r="G75" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBCollectionPart</v>
+        <v>ITMDBCollectionPage</v>
       </c>
       <c r="H75" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBCollectionPart</v>
+        <v>TTMDBCollectionPage</v>
       </c>
       <c r="I75" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCollectionPart = interface;</v>
+        <v xml:space="preserve">  ITMDBCollectionPage = interface;</v>
       </c>
       <c r="J75" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCollectionPart = class;</v>
+        <v xml:space="preserve">  TTMDBCollectionPage = class;</v>
       </c>
       <c r="K75" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBCollectionPart = interface</v>
+        <v xml:space="preserve">  ITMDBCollectionPage = interface(ITMDBPage)</v>
       </c>
       <c r="L75" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBCollectionPart = class(TInterfacedObject, ITMDBCollectionPart)</v>
+        <v xml:space="preserve">  TTMDBCollectionPage = class(TTMDBPage, ITMDBCollectionPage)</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>301</v>
@@ -8974,10 +8950,7 @@
         <v>86</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>459</v>
@@ -8990,27 +8963,27 @@
       </c>
       <c r="G76" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>ITMDBCollectionDetail</v>
+        <v>ITMDBCollectionPart</v>
       </c>
       <c r="H76" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>TTMDBCollectionDetail</v>
+        <v>TTMDBCollectionPart</v>
       </c>
       <c r="I76" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCollectionDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBCollectionPart = interface;</v>
       </c>
       <c r="J76" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCollectionDetail = class;</v>
+        <v xml:space="preserve">  TTMDBCollectionPart = class;</v>
       </c>
       <c r="K76" s="8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">  ITMDBCollectionDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBCollectionPart = interface</v>
       </c>
       <c r="L76" s="8" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">  TTMDBCollectionDetail = class(TTMDBDetail, ITMDBCollectionDetail)</v>
+        <v xml:space="preserve">  TTMDBCollectionPart = class(TInterfacedObject, ITMDBCollectionPart)</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>301</v>
@@ -9018,43 +8991,46 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>404</v>
+        <v>349</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>78</v>
+      <c r="E77" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="G77" s="8" t="str">
-        <f>"I"&amp;M77&amp;B77</f>
-        <v>ITMDBDiscoverMoviesParams</v>
+        <f t="shared" si="6"/>
+        <v>ITMDBCollectionDetail</v>
       </c>
       <c r="H77" s="8" t="str">
-        <f>"T"&amp;M77&amp;B77</f>
-        <v>TTMDBDiscoverMoviesParams</v>
+        <f t="shared" si="7"/>
+        <v>TTMDBCollectionDetail</v>
       </c>
       <c r="I77" s="8" t="str">
-        <f>"  "&amp;G77&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface;</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  ITMDBCollectionDetail = interface;</v>
       </c>
       <c r="J77" s="8" t="str">
-        <f>"  "&amp;H77&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class;</v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  TTMDBCollectionDetail = class;</v>
       </c>
       <c r="K77" s="8" t="str">
-        <f>IF(C77="", "  "&amp;G77&amp;" = interface", "  "&amp;G77&amp;" = interface(I"&amp;M77&amp;C77&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">  ITMDBCollectionDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L77" s="8" t="str">
-        <f>IF(C77="", "  "&amp;H77&amp;" = class(TInterfacedObject, "&amp;G77&amp;")", "  "&amp;H77&amp;" = class(T"&amp;M77&amp;C77&amp;", "&amp;G77&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class(TInterfacedObject, ITMDBDiscoverMoviesParams)</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  TTMDBCollectionDetail = class(TTMDBDetail, ITMDBCollectionDetail)</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>301</v>
@@ -9065,40 +9041,40 @@
         <v>122</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>78</v>
+      <c r="E78" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G78" s="8" t="str">
         <f>"I"&amp;M78&amp;B78</f>
-        <v>ITMDBDiscoverTVParams</v>
+        <v>ITMDBDiscoverMoviesParams</v>
       </c>
       <c r="H78" s="8" t="str">
         <f>"T"&amp;M78&amp;B78</f>
-        <v>TTMDBDiscoverTVParams</v>
+        <v>TTMDBDiscoverMoviesParams</v>
       </c>
       <c r="I78" s="8" t="str">
         <f>"  "&amp;G78&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface;</v>
       </c>
       <c r="J78" s="8" t="str">
         <f>"  "&amp;H78&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVParams = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class;</v>
       </c>
       <c r="K78" s="8" t="str">
         <f>IF(C78="", "  "&amp;G78&amp;" = interface", "  "&amp;G78&amp;" = interface(I"&amp;M78&amp;C78&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface</v>
+        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface</v>
       </c>
       <c r="L78" s="8" t="str">
         <f>IF(C78="", "  "&amp;H78&amp;" = class(TInterfacedObject, "&amp;G78&amp;")", "  "&amp;H78&amp;" = class(T"&amp;M78&amp;C78&amp;", "&amp;G78&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVParams = class(TInterfacedObject, ITMDBDiscoverTVParams)</v>
+        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class(TInterfacedObject, ITMDBDiscoverMoviesParams)</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>301</v>
@@ -9109,43 +9085,40 @@
         <v>122</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>123</v>
+        <v>405</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>78</v>
+      <c r="E79" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G79" s="8" t="str">
         <f>"I"&amp;M79&amp;B79</f>
-        <v>ITMDBDiscoverMovie</v>
+        <v>ITMDBDiscoverTVParams</v>
       </c>
       <c r="H79" s="8" t="str">
         <f>"T"&amp;M79&amp;B79</f>
-        <v>TTMDBDiscoverMovie</v>
+        <v>TTMDBDiscoverTVParams</v>
       </c>
       <c r="I79" s="8" t="str">
         <f>"  "&amp;G79&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverMovie = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface;</v>
       </c>
       <c r="J79" s="8" t="str">
         <f>"  "&amp;H79&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverMovie = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVParams = class;</v>
       </c>
       <c r="K79" s="8" t="str">
         <f>IF(C79="", "  "&amp;G79&amp;" = interface", "  "&amp;G79&amp;" = interface(I"&amp;M79&amp;C79&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMovie = interface(ITMDBMovie)</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface</v>
       </c>
       <c r="L79" s="8" t="str">
         <f>IF(C79="", "  "&amp;H79&amp;" = class(TInterfacedObject, "&amp;G79&amp;")", "  "&amp;H79&amp;" = class(T"&amp;M79&amp;C79&amp;", "&amp;G79&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMovie = class(TTMDBMovie, ITMDBDiscoverMovie)</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVParams = class(TInterfacedObject, ITMDBDiscoverTVParams)</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>301</v>
@@ -9156,10 +9129,10 @@
         <v>122</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>459</v>
@@ -9172,27 +9145,27 @@
       </c>
       <c r="G80" s="8" t="str">
         <f>"I"&amp;M80&amp;B80</f>
-        <v>ITMDBDiscoverMovies</v>
+        <v>ITMDBDiscoverMovie</v>
       </c>
       <c r="H80" s="8" t="str">
         <f>"T"&amp;M80&amp;B80</f>
-        <v>TTMDBDiscoverMovies</v>
+        <v>TTMDBDiscoverMovie</v>
       </c>
       <c r="I80" s="8" t="str">
         <f>"  "&amp;G80&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverMovie = interface;</v>
       </c>
       <c r="J80" s="8" t="str">
         <f>"  "&amp;H80&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverMovies = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverMovie = class;</v>
       </c>
       <c r="K80" s="8" t="str">
         <f>IF(C80="", "  "&amp;G80&amp;" = interface", "  "&amp;G80&amp;" = interface(I"&amp;M80&amp;C80&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMovies = interface(ITMDBMovies)</v>
+        <v xml:space="preserve">  ITMDBDiscoverMovie = interface(ITMDBMovie)</v>
       </c>
       <c r="L80" s="8" t="str">
         <f>IF(C80="", "  "&amp;H80&amp;" = class(TInterfacedObject, "&amp;G80&amp;")", "  "&amp;H80&amp;" = class(T"&amp;M80&amp;C80&amp;", "&amp;G80&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMovies = class(TTMDBMovies, ITMDBDiscoverMovies)</v>
+        <v xml:space="preserve">  TTMDBDiscoverMovie = class(TTMDBMovie, ITMDBDiscoverMovie)</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>301</v>
@@ -9203,10 +9176,10 @@
         <v>122</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>406</v>
+        <v>132</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>459</v>
@@ -9219,27 +9192,27 @@
       </c>
       <c r="G81" s="8" t="str">
         <f>"I"&amp;M81&amp;B81</f>
-        <v>ITMDBDiscoverMoviePage</v>
+        <v>ITMDBDiscoverMovies</v>
       </c>
       <c r="H81" s="8" t="str">
         <f>"T"&amp;M81&amp;B81</f>
-        <v>TTMDBDiscoverMoviePage</v>
+        <v>TTMDBDiscoverMovies</v>
       </c>
       <c r="I81" s="8" t="str">
         <f>"  "&amp;G81&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverMovies = interface;</v>
       </c>
       <c r="J81" s="8" t="str">
         <f>"  "&amp;H81&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverMovies = class;</v>
       </c>
       <c r="K81" s="8" t="str">
         <f>IF(C81="", "  "&amp;G81&amp;" = interface", "  "&amp;G81&amp;" = interface(I"&amp;M81&amp;C81&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMoviePage = interface(ITMDBMoviePage)</v>
+        <v xml:space="preserve">  ITMDBDiscoverMovies = interface(ITMDBMovies)</v>
       </c>
       <c r="L81" s="8" t="str">
         <f>IF(C81="", "  "&amp;H81&amp;" = class(TInterfacedObject, "&amp;G81&amp;")", "  "&amp;H81&amp;" = class(T"&amp;M81&amp;C81&amp;", "&amp;G81&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMoviePage = class(TTMDBMoviePage, ITMDBDiscoverMoviePage)</v>
+        <v xml:space="preserve">  TTMDBDiscoverMovies = class(TTMDBMovies, ITMDBDiscoverMovies)</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>301</v>
@@ -9250,10 +9223,10 @@
         <v>122</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>459</v>
@@ -9266,27 +9239,27 @@
       </c>
       <c r="G82" s="8" t="str">
         <f>"I"&amp;M82&amp;B82</f>
-        <v>ITMDBDiscoverTVSerie</v>
+        <v>ITMDBDiscoverMoviePage</v>
       </c>
       <c r="H82" s="8" t="str">
         <f>"T"&amp;M82&amp;B82</f>
-        <v>TTMDBDiscoverTVSerie</v>
+        <v>TTMDBDiscoverMoviePage</v>
       </c>
       <c r="I82" s="8" t="str">
         <f>"  "&amp;G82&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSerie = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverMoviePage = interface;</v>
       </c>
       <c r="J82" s="8" t="str">
         <f>"  "&amp;H82&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSerie = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverMoviePage = class;</v>
       </c>
       <c r="K82" s="8" t="str">
         <f>IF(C82="", "  "&amp;G82&amp;" = interface", "  "&amp;G82&amp;" = interface(I"&amp;M82&amp;C82&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSerie = interface(ITMDBTVSerie)</v>
+        <v xml:space="preserve">  ITMDBDiscoverMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L82" s="8" t="str">
         <f>IF(C82="", "  "&amp;H82&amp;" = class(TInterfacedObject, "&amp;G82&amp;")", "  "&amp;H82&amp;" = class(T"&amp;M82&amp;C82&amp;", "&amp;G82&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSerie = class(TTMDBTVSerie, ITMDBDiscoverTVSerie)</v>
+        <v xml:space="preserve">  TTMDBDiscoverMoviePage = class(TTMDBMoviePage, ITMDBDiscoverMoviePage)</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>301</v>
@@ -9297,10 +9270,10 @@
         <v>122</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>459</v>
@@ -9313,27 +9286,27 @@
       </c>
       <c r="G83" s="8" t="str">
         <f>"I"&amp;M83&amp;B83</f>
-        <v>ITMDBDiscoverTVSeries</v>
+        <v>ITMDBDiscoverTVSerie</v>
       </c>
       <c r="H83" s="8" t="str">
         <f>"T"&amp;M83&amp;B83</f>
-        <v>TTMDBDiscoverTVSeries</v>
+        <v>TTMDBDiscoverTVSerie</v>
       </c>
       <c r="I83" s="8" t="str">
         <f>"  "&amp;G83&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVSerie = interface;</v>
       </c>
       <c r="J83" s="8" t="str">
         <f>"  "&amp;H83&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVSerie = class;</v>
       </c>
       <c r="K83" s="8" t="str">
         <f>IF(C83="", "  "&amp;G83&amp;" = interface", "  "&amp;G83&amp;" = interface(I"&amp;M83&amp;C83&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSeries = interface(ITMDBTVSeries)</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVSerie = interface(ITMDBTVSerie)</v>
       </c>
       <c r="L83" s="8" t="str">
         <f>IF(C83="", "  "&amp;H83&amp;" = class(TInterfacedObject, "&amp;G83&amp;")", "  "&amp;H83&amp;" = class(T"&amp;M83&amp;C83&amp;", "&amp;G83&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSeries = class(TTMDBTVSeries, ITMDBDiscoverTVSeries)</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVSerie = class(TTMDBTVSerie, ITMDBDiscoverTVSerie)</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>301</v>
@@ -9344,10 +9317,10 @@
         <v>122</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>459</v>
@@ -9360,27 +9333,27 @@
       </c>
       <c r="G84" s="8" t="str">
         <f>"I"&amp;M84&amp;B84</f>
-        <v>ITMDBDiscoverTVSeriesPage</v>
+        <v>ITMDBDiscoverTVSeries</v>
       </c>
       <c r="H84" s="8" t="str">
         <f>"T"&amp;M84&amp;B84</f>
-        <v>TTMDBDiscoverTVSeriesPage</v>
+        <v>TTMDBDiscoverTVSeries</v>
       </c>
       <c r="I84" s="8" t="str">
         <f>"  "&amp;G84&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSeriesPage = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVSeries = interface;</v>
       </c>
       <c r="J84" s="8" t="str">
         <f>"  "&amp;H84&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSeriesPage = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVSeries = class;</v>
       </c>
       <c r="K84" s="8" t="str">
         <f>IF(C84="", "  "&amp;G84&amp;" = interface", "  "&amp;G84&amp;" = interface(I"&amp;M84&amp;C84&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVSeries = interface(ITMDBTVSeries)</v>
       </c>
       <c r="L84" s="8" t="str">
         <f>IF(C84="", "  "&amp;H84&amp;" = class(TInterfacedObject, "&amp;G84&amp;")", "  "&amp;H84&amp;" = class(T"&amp;M84&amp;C84&amp;", "&amp;G84&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBDiscoverTVSeriesPage)</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVSeries = class(TTMDBTVSeries, ITMDBDiscoverTVSeries)</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>301</v>
@@ -9388,10 +9361,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>459</v>
@@ -9404,27 +9380,27 @@
       </c>
       <c r="G85" s="8" t="str">
         <f>"I"&amp;M85&amp;B85</f>
-        <v>ITMDBFindResults</v>
+        <v>ITMDBDiscoverTVSeriesPage</v>
       </c>
       <c r="H85" s="8" t="str">
         <f>"T"&amp;M85&amp;B85</f>
-        <v>TTMDBFindResults</v>
+        <v>TTMDBDiscoverTVSeriesPage</v>
       </c>
       <c r="I85" s="8" t="str">
         <f>"  "&amp;G85&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBFindResults = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVSeriesPage = interface;</v>
       </c>
       <c r="J85" s="8" t="str">
         <f>"  "&amp;H85&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBFindResults = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVSeriesPage = class;</v>
       </c>
       <c r="K85" s="8" t="str">
         <f>IF(C85="", "  "&amp;G85&amp;" = interface", "  "&amp;G85&amp;" = interface(I"&amp;M85&amp;C85&amp;")")</f>
-        <v xml:space="preserve">  ITMDBFindResults = interface</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
       </c>
       <c r="L85" s="8" t="str">
         <f>IF(C85="", "  "&amp;H85&amp;" = class(TInterfacedObject, "&amp;G85&amp;")", "  "&amp;H85&amp;" = class(T"&amp;M85&amp;C85&amp;", "&amp;G85&amp;")")</f>
-        <v xml:space="preserve">  TTMDBFindResults = class(TInterfacedObject, ITMDBFindResults)</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBDiscoverTVSeriesPage)</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>301</v>
@@ -9432,46 +9408,43 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>314</v>
+        <v>410</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>297</v>
+      <c r="E86" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G86" s="8" t="str">
-        <f t="shared" ref="G86:G110" si="10">"I"&amp;M86&amp;B86</f>
-        <v>ITMDBPerson</v>
+        <f>"I"&amp;M86&amp;B86</f>
+        <v>ITMDBFindResults</v>
       </c>
       <c r="H86" s="8" t="str">
-        <f t="shared" ref="H86:H110" si="11">"T"&amp;M86&amp;B86</f>
-        <v>TTMDBPerson</v>
+        <f>"T"&amp;M86&amp;B86</f>
+        <v>TTMDBFindResults</v>
       </c>
       <c r="I86" s="8" t="str">
-        <f t="shared" ref="I86:I129" si="12">"  "&amp;G86&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBPerson = interface;</v>
+        <f>"  "&amp;G86&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBFindResults = interface;</v>
       </c>
       <c r="J86" s="8" t="str">
-        <f t="shared" ref="J86:J129" si="13">"  "&amp;H86&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBPerson = class;</v>
+        <f>"  "&amp;H86&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBFindResults = class;</v>
       </c>
       <c r="K86" s="8" t="str">
-        <f t="shared" ref="K86:K110" si="14">IF(C86="", "  "&amp;G86&amp;" = interface", "  "&amp;G86&amp;" = interface(I"&amp;M86&amp;C86&amp;")")</f>
-        <v xml:space="preserve">  ITMDBPerson = interface(ITMDBMedium)</v>
+        <f>IF(C86="", "  "&amp;G86&amp;" = interface", "  "&amp;G86&amp;" = interface(I"&amp;M86&amp;C86&amp;")")</f>
+        <v xml:space="preserve">  ITMDBFindResults = interface</v>
       </c>
       <c r="L86" s="8" t="str">
-        <f t="shared" ref="L86:L110" si="15">IF(C86="", "  "&amp;H86&amp;" = class(TInterfacedObject, "&amp;G86&amp;")", "  "&amp;H86&amp;" = class(T"&amp;M86&amp;C86&amp;", "&amp;G86&amp;")")</f>
-        <v xml:space="preserve">  TTMDBPerson = class(TTMDBMedium, ITMDBPerson)</v>
+        <f>IF(C86="", "  "&amp;H86&amp;" = class(TInterfacedObject, "&amp;G86&amp;")", "  "&amp;H86&amp;" = class(T"&amp;M86&amp;C86&amp;", "&amp;G86&amp;")")</f>
+        <v xml:space="preserve">  TTMDBFindResults = class(TInterfacedObject, ITMDBFindResults)</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>301</v>
@@ -9482,10 +9455,10 @@
         <v>174</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>459</v>
@@ -9497,28 +9470,28 @@
         <v>297</v>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>ITMDBPeople</v>
+        <f t="shared" ref="G87:G111" si="10">"I"&amp;M87&amp;B87</f>
+        <v>ITMDBPerson</v>
       </c>
       <c r="H87" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>TTMDBPeople</v>
+        <f t="shared" ref="H87:H111" si="11">"T"&amp;M87&amp;B87</f>
+        <v>TTMDBPerson</v>
       </c>
       <c r="I87" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBPeople = interface;</v>
+        <f t="shared" ref="I87:I130" si="12">"  "&amp;G87&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBPerson = interface;</v>
       </c>
       <c r="J87" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBPeople = class;</v>
+        <f t="shared" ref="J87:J130" si="13">"  "&amp;H87&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBPerson = class;</v>
       </c>
       <c r="K87" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBPeople = interface(ITMDBMedia)</v>
+        <f t="shared" ref="K87:K111" si="14">IF(C87="", "  "&amp;G87&amp;" = interface", "  "&amp;G87&amp;" = interface(I"&amp;M87&amp;C87&amp;")")</f>
+        <v xml:space="preserve">  ITMDBPerson = interface(ITMDBMedium)</v>
       </c>
       <c r="L87" s="8" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBPeople = class(TTMDBMedia, ITMDBPeople)</v>
+        <f t="shared" ref="L87:L111" si="15">IF(C87="", "  "&amp;H87&amp;" = class(TInterfacedObject, "&amp;G87&amp;")", "  "&amp;H87&amp;" = class(T"&amp;M87&amp;C87&amp;", "&amp;G87&amp;")")</f>
+        <v xml:space="preserve">  TTMDBPerson = class(TTMDBMedium, ITMDBPerson)</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>301</v>
@@ -9529,10 +9502,10 @@
         <v>174</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>366</v>
+        <v>174</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>459</v>
@@ -9545,27 +9518,27 @@
       </c>
       <c r="G88" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBPersonPage</v>
+        <v>ITMDBPeople</v>
       </c>
       <c r="H88" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBPersonPage</v>
+        <v>TTMDBPeople</v>
       </c>
       <c r="I88" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBPersonPage = interface;</v>
+        <v xml:space="preserve">  ITMDBPeople = interface;</v>
       </c>
       <c r="J88" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBPersonPage = class;</v>
+        <v xml:space="preserve">  TTMDBPeople = class;</v>
       </c>
       <c r="K88" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBPersonPage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBPeople = interface(ITMDBMedia)</v>
       </c>
       <c r="L88" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBPersonPage = class(TTMDBMediaPage, ITMDBPersonPage)</v>
+        <v xml:space="preserve">  TTMDBPeople = class(TTMDBMedia, ITMDBPeople)</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>301</v>
@@ -9576,43 +9549,43 @@
         <v>174</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>78</v>
+        <v>316</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G89" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBPersonDetail</v>
+        <v>ITMDBPersonPage</v>
       </c>
       <c r="H89" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBPersonDetail</v>
+        <v>TTMDBPersonPage</v>
       </c>
       <c r="I89" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBPersonDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBPersonPage = interface;</v>
       </c>
       <c r="J89" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBPersonDetail = class;</v>
+        <v xml:space="preserve">  TTMDBPersonPage = class;</v>
       </c>
       <c r="K89" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBPersonDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBPersonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L89" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBPersonDetail = class(TTMDBDetail, ITMDBPersonDetail)</v>
+        <v xml:space="preserve">  TTMDBPersonPage = class(TTMDBMediaPage, ITMDBPersonPage)</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>301</v>
@@ -9620,46 +9593,46 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>297</v>
+        <v>171</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G90" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBCastPerson</v>
+        <v>ITMDBPersonDetail</v>
       </c>
       <c r="H90" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBCastPerson</v>
+        <v>TTMDBPersonDetail</v>
       </c>
       <c r="I90" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBCastPerson = interface;</v>
+        <v xml:space="preserve">  ITMDBPersonDetail = interface;</v>
       </c>
       <c r="J90" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBCastPerson = class;</v>
+        <v xml:space="preserve">  TTMDBPersonDetail = class;</v>
       </c>
       <c r="K90" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBCastPerson = interface(ITMDBPerson)</v>
+        <v xml:space="preserve">  ITMDBPersonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L90" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBCastPerson = class(TTMDBPerson, ITMDBCastPerson)</v>
+        <v xml:space="preserve">  TTMDBPersonDetail = class(TTMDBDetail, ITMDBPersonDetail)</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>301</v>
@@ -9670,10 +9643,10 @@
         <v>100</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>459</v>
@@ -9686,27 +9659,27 @@
       </c>
       <c r="G91" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBCastPeople</v>
+        <v>ITMDBCastPerson</v>
       </c>
       <c r="H91" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBCastPeople</v>
+        <v>TTMDBCastPerson</v>
       </c>
       <c r="I91" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBCastPeople = interface;</v>
+        <v xml:space="preserve">  ITMDBCastPerson = interface;</v>
       </c>
       <c r="J91" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBCastPeople = class;</v>
+        <v xml:space="preserve">  TTMDBCastPerson = class;</v>
       </c>
       <c r="K91" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBCastPeople = interface(ITMDBPeople)</v>
+        <v xml:space="preserve">  ITMDBCastPerson = interface(ITMDBPerson)</v>
       </c>
       <c r="L91" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBCastPeople = class(TTMDBPeople, ITMDBCastPeople)</v>
+        <v xml:space="preserve">  TTMDBCastPerson = class(TTMDBPerson, ITMDBCastPerson)</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>301</v>
@@ -9717,10 +9690,10 @@
         <v>100</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>459</v>
@@ -9733,27 +9706,27 @@
       </c>
       <c r="G92" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBCrewPerson</v>
+        <v>ITMDBCastPeople</v>
       </c>
       <c r="H92" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBCrewPerson</v>
+        <v>TTMDBCastPeople</v>
       </c>
       <c r="I92" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBCrewPerson = interface;</v>
+        <v xml:space="preserve">  ITMDBCastPeople = interface;</v>
       </c>
       <c r="J92" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBCrewPerson = class;</v>
+        <v xml:space="preserve">  TTMDBCastPeople = class;</v>
       </c>
       <c r="K92" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBCrewPerson = interface(ITMDBPerson)</v>
+        <v xml:space="preserve">  ITMDBCastPeople = interface(ITMDBPeople)</v>
       </c>
       <c r="L92" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBCrewPerson = class(TTMDBPerson, ITMDBCrewPerson)</v>
+        <v xml:space="preserve">  TTMDBCastPeople = class(TTMDBPeople, ITMDBCastPeople)</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>301</v>
@@ -9764,10 +9737,10 @@
         <v>100</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>459</v>
@@ -9780,27 +9753,27 @@
       </c>
       <c r="G93" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBCrewPeople</v>
+        <v>ITMDBCrewPerson</v>
       </c>
       <c r="H93" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBCrewPeople</v>
+        <v>TTMDBCrewPerson</v>
       </c>
       <c r="I93" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBCrewPeople = interface;</v>
+        <v xml:space="preserve">  ITMDBCrewPerson = interface;</v>
       </c>
       <c r="J93" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBCrewPeople = class;</v>
+        <v xml:space="preserve">  TTMDBCrewPerson = class;</v>
       </c>
       <c r="K93" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBCrewPeople = interface(ITMDBPeople)</v>
+        <v xml:space="preserve">  ITMDBCrewPerson = interface(ITMDBPerson)</v>
       </c>
       <c r="L93" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBCrewPeople = class(TTMDBPeople, ITMDBCrewPeople)</v>
+        <v xml:space="preserve">  TTMDBCrewPerson = class(TTMDBPerson, ITMDBCrewPerson)</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>301</v>
@@ -9811,7 +9784,10 @@
         <v>100</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>100</v>
+        <v>371</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>459</v>
@@ -9824,27 +9800,27 @@
       </c>
       <c r="G94" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBCredits</v>
+        <v>ITMDBCrewPeople</v>
       </c>
       <c r="H94" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBCredits</v>
+        <v>TTMDBCrewPeople</v>
       </c>
       <c r="I94" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBCredits = interface;</v>
+        <v xml:space="preserve">  ITMDBCrewPeople = interface;</v>
       </c>
       <c r="J94" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBCredits = class;</v>
+        <v xml:space="preserve">  TTMDBCrewPeople = class;</v>
       </c>
       <c r="K94" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBCredits = interface</v>
+        <v xml:space="preserve">  ITMDBCrewPeople = interface(ITMDBPeople)</v>
       </c>
       <c r="L94" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBCredits = class(TInterfacedObject, ITMDBCredits)</v>
+        <v xml:space="preserve">  TTMDBCrewPeople = class(TTMDBPeople, ITMDBCrewPeople)</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>301</v>
@@ -9852,13 +9828,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>459</v>
@@ -9866,32 +9839,32 @@
       <c r="E95" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F95" s="12" t="s">
-        <v>78</v>
+      <c r="F95" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G95" s="8" t="str">
-        <f>"I"&amp;M95&amp;B95</f>
-        <v>ITMDBList</v>
+        <f t="shared" si="10"/>
+        <v>ITMDBCredits</v>
       </c>
       <c r="H95" s="8" t="str">
-        <f>"T"&amp;M95&amp;B95</f>
-        <v>TTMDBList</v>
+        <f t="shared" si="11"/>
+        <v>TTMDBCredits</v>
       </c>
       <c r="I95" s="8" t="str">
-        <f>"  "&amp;G95&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBList = interface;</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">  ITMDBCredits = interface;</v>
       </c>
       <c r="J95" s="8" t="str">
-        <f>"  "&amp;H95&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBList = class;</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  TTMDBCredits = class;</v>
       </c>
       <c r="K95" s="8" t="str">
-        <f>IF(C95="", "  "&amp;G95&amp;" = interface", "  "&amp;G95&amp;" = interface(I"&amp;M95&amp;C95&amp;")")</f>
-        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  ITMDBCredits = interface</v>
       </c>
       <c r="L95" s="8" t="str">
-        <f>IF(C95="", "  "&amp;H95&amp;" = class(TInterfacedObject, "&amp;G95&amp;")", "  "&amp;H95&amp;" = class(T"&amp;M95&amp;C95&amp;", "&amp;G95&amp;")")</f>
-        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  TTMDBCredits = class(TInterfacedObject, ITMDBCredits)</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>301</v>
@@ -9902,10 +9875,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>459</v>
@@ -9918,27 +9891,27 @@
       </c>
       <c r="G96" s="8" t="str">
         <f>"I"&amp;M96&amp;B96</f>
-        <v>ITMDBLists</v>
+        <v>ITMDBList</v>
       </c>
       <c r="H96" s="8" t="str">
         <f>"T"&amp;M96&amp;B96</f>
-        <v>TTMDBLists</v>
+        <v>TTMDBList</v>
       </c>
       <c r="I96" s="8" t="str">
         <f>"  "&amp;G96&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBLists = interface;</v>
+        <v xml:space="preserve">  ITMDBList = interface;</v>
       </c>
       <c r="J96" s="8" t="str">
         <f>"  "&amp;H96&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBLists = class;</v>
+        <v xml:space="preserve">  TTMDBList = class;</v>
       </c>
       <c r="K96" s="8" t="str">
         <f>IF(C96="", "  "&amp;G96&amp;" = interface", "  "&amp;G96&amp;" = interface(I"&amp;M96&amp;C96&amp;")")</f>
-        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
       </c>
       <c r="L96" s="8" t="str">
         <f>IF(C96="", "  "&amp;H96&amp;" = class(TInterfacedObject, "&amp;G96&amp;")", "  "&amp;H96&amp;" = class(T"&amp;M96&amp;C96&amp;", "&amp;G96&amp;")")</f>
-        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
+        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>301</v>
@@ -9949,10 +9922,10 @@
         <v>8</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>402</v>
+        <v>8</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>459</v>
@@ -9965,27 +9938,27 @@
       </c>
       <c r="G97" s="8" t="str">
         <f>"I"&amp;M97&amp;B97</f>
-        <v>ITMDBListPage</v>
+        <v>ITMDBLists</v>
       </c>
       <c r="H97" s="8" t="str">
         <f>"T"&amp;M97&amp;B97</f>
-        <v>TTMDBListPage</v>
+        <v>TTMDBLists</v>
       </c>
       <c r="I97" s="8" t="str">
         <f>"  "&amp;G97&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBListPage = interface;</v>
+        <v xml:space="preserve">  ITMDBLists = interface;</v>
       </c>
       <c r="J97" s="8" t="str">
         <f>"  "&amp;H97&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBListPage = class;</v>
+        <v xml:space="preserve">  TTMDBLists = class;</v>
       </c>
       <c r="K97" s="8" t="str">
         <f>IF(C97="", "  "&amp;G97&amp;" = interface", "  "&amp;G97&amp;" = interface(I"&amp;M97&amp;C97&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
+        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
       </c>
       <c r="L97" s="8" t="str">
         <f>IF(C97="", "  "&amp;H97&amp;" = class(TInterfacedObject, "&amp;G97&amp;")", "  "&amp;H97&amp;" = class(T"&amp;M97&amp;C97&amp;", "&amp;G97&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
+        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>301</v>
@@ -9996,10 +9969,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>459</v>
@@ -10012,27 +9985,27 @@
       </c>
       <c r="G98" s="8" t="str">
         <f>"I"&amp;M98&amp;B98</f>
-        <v>ITMDBListDetail</v>
+        <v>ITMDBListPage</v>
       </c>
       <c r="H98" s="8" t="str">
         <f>"T"&amp;M98&amp;B98</f>
-        <v>TTMDBListDetail</v>
+        <v>TTMDBListPage</v>
       </c>
       <c r="I98" s="8" t="str">
         <f>"  "&amp;G98&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBListPage = interface;</v>
       </c>
       <c r="J98" s="8" t="str">
         <f>"  "&amp;H98&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBListDetail = class;</v>
+        <v xml:space="preserve">  TTMDBListPage = class;</v>
       </c>
       <c r="K98" s="8" t="str">
         <f>IF(C98="", "  "&amp;G98&amp;" = interface", "  "&amp;G98&amp;" = interface(I"&amp;M98&amp;C98&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
       </c>
       <c r="L98" s="8" t="str">
         <f>IF(C98="", "  "&amp;H98&amp;" = class(TInterfacedObject, "&amp;G98&amp;")", "  "&amp;H98&amp;" = class(T"&amp;M98&amp;C98&amp;", "&amp;G98&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
+        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>301</v>
@@ -10040,13 +10013,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>123</v>
+        <v>403</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>459</v>
@@ -10054,32 +10027,32 @@
       <c r="E99" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F99" s="14" t="s">
-        <v>459</v>
+      <c r="F99" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G99" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>ITMDBMovie</v>
+        <f>"I"&amp;M99&amp;B99</f>
+        <v>ITMDBListDetail</v>
       </c>
       <c r="H99" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>TTMDBMovie</v>
+        <f>"T"&amp;M99&amp;B99</f>
+        <v>TTMDBListDetail</v>
       </c>
       <c r="I99" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBMovie = interface;</v>
+        <f>"  "&amp;G99&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
       </c>
       <c r="J99" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBMovie = class;</v>
+        <f>"  "&amp;H99&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBListDetail = class;</v>
       </c>
       <c r="K99" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
+        <f>IF(C99="", "  "&amp;G99&amp;" = interface", "  "&amp;G99&amp;" = interface(I"&amp;M99&amp;C99&amp;")")</f>
+        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L99" s="8" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
+        <f>IF(C99="", "  "&amp;H99&amp;" = class(TInterfacedObject, "&amp;G99&amp;")", "  "&amp;H99&amp;" = class(T"&amp;M99&amp;C99&amp;", "&amp;G99&amp;")")</f>
+        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>301</v>
@@ -10090,10 +10063,10 @@
         <v>155</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>459</v>
@@ -10106,27 +10079,27 @@
       </c>
       <c r="G100" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBMovies</v>
+        <v>ITMDBMovie</v>
       </c>
       <c r="H100" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBMovies</v>
+        <v>TTMDBMovie</v>
       </c>
       <c r="I100" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBMovie = interface;</v>
       </c>
       <c r="J100" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBMovies = class;</v>
+        <v xml:space="preserve">  TTMDBMovie = class;</v>
       </c>
       <c r="K100" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
       </c>
       <c r="L100" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
+        <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>301</v>
@@ -10137,10 +10110,10 @@
         <v>155</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>459</v>
@@ -10153,27 +10126,27 @@
       </c>
       <c r="G101" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBMoviePage</v>
+        <v>ITMDBMovies</v>
       </c>
       <c r="H101" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBMoviePage</v>
+        <v>TTMDBMovies</v>
       </c>
       <c r="I101" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBMovies = interface;</v>
       </c>
       <c r="J101" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBMovies = class;</v>
       </c>
       <c r="K101" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
       </c>
       <c r="L101" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
+        <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>301</v>
@@ -10184,10 +10157,10 @@
         <v>155</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>123</v>
+        <v>316</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>459</v>
@@ -10195,32 +10168,32 @@
       <c r="E102" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F102" s="12" t="s">
-        <v>78</v>
+      <c r="F102" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="G102" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBRatedMovie</v>
+        <v>ITMDBMoviePage</v>
       </c>
       <c r="H102" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBRatedMovie</v>
+        <v>TTMDBMoviePage</v>
       </c>
       <c r="I102" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
+        <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
       </c>
       <c r="J102" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
+        <v xml:space="preserve">  TTMDBMoviePage = class;</v>
       </c>
       <c r="K102" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
+        <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L102" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
+        <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>301</v>
@@ -10231,10 +10204,10 @@
         <v>155</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>459</v>
@@ -10247,27 +10220,27 @@
       </c>
       <c r="G103" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBRatedMovies</v>
+        <v>ITMDBRatedMovie</v>
       </c>
       <c r="H103" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBRatedMovies</v>
+        <v>TTMDBRatedMovie</v>
       </c>
       <c r="I103" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
       </c>
       <c r="J103" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
       </c>
       <c r="K103" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
+        <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
       </c>
       <c r="L103" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
+        <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>301</v>
@@ -10278,10 +10251,10 @@
         <v>155</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>459</v>
@@ -10294,27 +10267,27 @@
       </c>
       <c r="G104" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBRatedMoviePage</v>
+        <v>ITMDBRatedMovies</v>
       </c>
       <c r="H104" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBRatedMoviePage</v>
+        <v>TTMDBRatedMovies</v>
       </c>
       <c r="I104" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
       </c>
       <c r="J104" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
       </c>
       <c r="K104" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
+        <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
       </c>
       <c r="L104" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
+        <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>301</v>
@@ -10325,7 +10298,10 @@
         <v>155</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>459</v>
@@ -10338,27 +10314,27 @@
       </c>
       <c r="G105" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBMovieCollectionRef</v>
+        <v>ITMDBRatedMoviePage</v>
       </c>
       <c r="H105" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBMovieCollectionRef</v>
+        <v>TTMDBRatedMoviePage</v>
       </c>
       <c r="I105" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
       </c>
       <c r="J105" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
       </c>
       <c r="K105" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
+        <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L105" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
+        <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>301</v>
@@ -10369,10 +10345,7 @@
         <v>155</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>171</v>
+        <v>376</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>459</v>
@@ -10380,32 +10353,32 @@
       <c r="E106" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F106" s="15" t="s">
-        <v>298</v>
+      <c r="F106" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G106" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBMovieDetail</v>
+        <v>ITMDBMovieCollectionRef</v>
       </c>
       <c r="H106" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBMovieDetail</v>
+        <v>TTMDBMovieCollectionRef</v>
       </c>
       <c r="I106" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
       </c>
       <c r="J106" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
+        <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
       </c>
       <c r="K106" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
       </c>
       <c r="L106" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
+        <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>301</v>
@@ -10413,10 +10386,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>459</v>
@@ -10424,32 +10400,32 @@
       <c r="E107" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F107" s="12" t="s">
-        <v>78</v>
+      <c r="F107" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="G107" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBDateRange</v>
+        <v>ITMDBMovieDetail</v>
       </c>
       <c r="H107" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBDateRange</v>
+        <v>TTMDBMovieDetail</v>
       </c>
       <c r="I107" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBDateRange = interface;</v>
+        <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
       </c>
       <c r="J107" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBDateRange = class;</v>
+        <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
       </c>
       <c r="K107" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBDateRange = interface</v>
+        <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L107" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
+        <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>301</v>
@@ -10460,10 +10436,7 @@
         <v>149</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>459</v>
@@ -10476,27 +10449,27 @@
       </c>
       <c r="G108" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBDatedMoviePage</v>
+        <v>ITMDBDateRange</v>
       </c>
       <c r="H108" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBDatedMoviePage</v>
+        <v>TTMDBDateRange</v>
       </c>
       <c r="I108" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBDateRange = interface;</v>
       </c>
       <c r="J108" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBDateRange = class;</v>
       </c>
       <c r="K108" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
+        <v xml:space="preserve">  ITMDBDateRange = interface</v>
       </c>
       <c r="L108" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
+        <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>301</v>
@@ -10504,46 +10477,46 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>297</v>
+        <v>372</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G109" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBTVSerie</v>
+        <v>ITMDBDatedMoviePage</v>
       </c>
       <c r="H109" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBTVSerie</v>
+        <v>TTMDBDatedMoviePage</v>
       </c>
       <c r="I109" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
+        <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
       </c>
       <c r="J109" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVSerie = class;</v>
+        <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
       </c>
       <c r="K109" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
+        <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L109" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
+        <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>301</v>
@@ -10554,43 +10527,43 @@
         <v>195</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>459</v>
+        <v>314</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>297</v>
       </c>
       <c r="G110" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>ITMDBTVSeries</v>
+        <v>ITMDBTVSerie</v>
       </c>
       <c r="H110" s="8" t="str">
         <f t="shared" si="11"/>
-        <v>TTMDBTVSeries</v>
+        <v>TTMDBTVSerie</v>
       </c>
       <c r="I110" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
       </c>
       <c r="J110" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBTVSerie = class;</v>
       </c>
       <c r="K110" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
       </c>
       <c r="L110" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
+        <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>301</v>
@@ -10601,10 +10574,10 @@
         <v>195</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>459</v>
@@ -10612,32 +10585,32 @@
       <c r="E111" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F111" s="12" t="s">
-        <v>78</v>
+      <c r="F111" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G111" s="8" t="str">
-        <f t="shared" ref="G111:G131" si="16">"I"&amp;M111&amp;B111</f>
-        <v>ITMDBTVSeriesPage</v>
+        <f t="shared" si="10"/>
+        <v>ITMDBTVSeries</v>
       </c>
       <c r="H111" s="8" t="str">
-        <f t="shared" ref="H111:H131" si="17">"T"&amp;M111&amp;B111</f>
-        <v>TTMDBTVSeriesPage</v>
+        <f t="shared" si="11"/>
+        <v>TTMDBTVSeries</v>
       </c>
       <c r="I111" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
       </c>
       <c r="J111" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeries = class;</v>
       </c>
       <c r="K111" s="8" t="str">
-        <f t="shared" ref="K111:K131" si="18">IF(C111="", "  "&amp;G111&amp;" = interface", "  "&amp;G111&amp;" = interface(I"&amp;M111&amp;C111&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
       </c>
       <c r="L111" s="8" t="str">
-        <f t="shared" ref="L111:L131" si="19">IF(C111="", "  "&amp;H111&amp;" = class(TInterfacedObject, "&amp;G111&amp;")", "  "&amp;H111&amp;" = class(T"&amp;M111&amp;C111&amp;", "&amp;G111&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>301</v>
@@ -10648,10 +10621,10 @@
         <v>195</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>459</v>
@@ -10663,28 +10636,28 @@
         <v>78</v>
       </c>
       <c r="G112" s="8" t="str">
-        <f t="shared" si="16"/>
-        <v>ITMDBRatedTVSerie</v>
+        <f t="shared" ref="G112:G132" si="16">"I"&amp;M112&amp;B112</f>
+        <v>ITMDBTVSeriesPage</v>
       </c>
       <c r="H112" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>TTMDBRatedTVSerie</v>
+        <f t="shared" ref="H112:H132" si="17">"T"&amp;M112&amp;B112</f>
+        <v>TTMDBTVSeriesPage</v>
       </c>
       <c r="I112" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
       </c>
       <c r="J112" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
       </c>
       <c r="K112" s="8" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
+        <f t="shared" ref="K112:K132" si="18">IF(C112="", "  "&amp;G112&amp;" = interface", "  "&amp;G112&amp;" = interface(I"&amp;M112&amp;C112&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L112" s="8" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
+        <f t="shared" ref="L112:L132" si="19">IF(C112="", "  "&amp;H112&amp;" = class(TInterfacedObject, "&amp;G112&amp;")", "  "&amp;H112&amp;" = class(T"&amp;M112&amp;C112&amp;", "&amp;G112&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>301</v>
@@ -10695,10 +10668,10 @@
         <v>195</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>459</v>
@@ -10711,27 +10684,27 @@
       </c>
       <c r="G113" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedTVSeries</v>
+        <v>ITMDBRatedTVSerie</v>
       </c>
       <c r="H113" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedTVSeries</v>
+        <v>TTMDBRatedTVSerie</v>
       </c>
       <c r="I113" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
       </c>
       <c r="J113" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
       </c>
       <c r="K113" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
+        <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
       </c>
       <c r="L113" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
+        <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
       </c>
       <c r="M113" s="8" t="s">
         <v>301</v>
@@ -10742,10 +10715,10 @@
         <v>195</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>459</v>
@@ -10758,27 +10731,27 @@
       </c>
       <c r="G114" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedTVSeriesPage</v>
+        <v>ITMDBRatedTVSeries</v>
       </c>
       <c r="H114" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedTVSeriesPage</v>
+        <v>TTMDBRatedTVSeries</v>
       </c>
       <c r="I114" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
       </c>
       <c r="J114" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
       </c>
       <c r="K114" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
       </c>
       <c r="L114" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>301</v>
@@ -10789,43 +10762,43 @@
         <v>195</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>458</v>
+        <v>388</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>298</v>
+        <v>385</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVSerieDetail</v>
+        <v>ITMDBRatedTVSeriesPage</v>
       </c>
       <c r="H115" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVSerieDetail</v>
+        <v>TTMDBRatedTVSeriesPage</v>
       </c>
       <c r="I115" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVSerieDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
       </c>
       <c r="J115" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVSerieDetail = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
       </c>
       <c r="K115" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSerieDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
       </c>
       <c r="L115" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSerieDetail = class(TTMDBDetail, ITMDBTVSerieDetail)</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
       </c>
       <c r="M115" s="8" t="s">
         <v>301</v>
@@ -10833,46 +10806,46 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>78</v>
+        <v>171</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G116" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVSeason</v>
+        <v>ITMDBTVSerieDetail</v>
       </c>
       <c r="H116" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVSeason</v>
+        <v>TTMDBTVSerieDetail</v>
       </c>
       <c r="I116" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSerieDetail = interface;</v>
       </c>
       <c r="J116" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVSeason = class;</v>
+        <v xml:space="preserve">  TTMDBTVSerieDetail = class;</v>
       </c>
       <c r="K116" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
+        <v xml:space="preserve">  ITMDBTVSerieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L116" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
+        <v xml:space="preserve">  TTMDBTVSerieDetail = class(TTMDBDetail, ITMDBTVSerieDetail)</v>
       </c>
       <c r="M116" s="8" t="s">
         <v>301</v>
@@ -10883,10 +10856,10 @@
         <v>201</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>459</v>
@@ -10899,27 +10872,27 @@
       </c>
       <c r="G117" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVSeasons</v>
+        <v>ITMDBTVSeason</v>
       </c>
       <c r="H117" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVSeasons</v>
+        <v>TTMDBTVSeason</v>
       </c>
       <c r="I117" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
       </c>
       <c r="J117" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeason = class;</v>
       </c>
       <c r="K117" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
       </c>
       <c r="L117" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
+        <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
       </c>
       <c r="M117" s="8" t="s">
         <v>301</v>
@@ -10930,10 +10903,10 @@
         <v>201</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>459</v>
@@ -10946,27 +10919,27 @@
       </c>
       <c r="G118" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVSeasonPage</v>
+        <v>ITMDBTVSeasons</v>
       </c>
       <c r="H118" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVSeasonPage</v>
+        <v>TTMDBTVSeasons</v>
       </c>
       <c r="I118" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
       </c>
       <c r="J118" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
       </c>
       <c r="K118" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
       </c>
       <c r="L118" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
+        <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>301</v>
@@ -10977,13 +10950,13 @@
         <v>201</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>298</v>
+        <v>316</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>78</v>
@@ -10993,27 +10966,27 @@
       </c>
       <c r="G119" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVSeasonDetail</v>
+        <v>ITMDBTVSeasonPage</v>
       </c>
       <c r="H119" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVSeasonDetail</v>
+        <v>TTMDBTVSeasonPage</v>
       </c>
       <c r="I119" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
       </c>
       <c r="J119" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
       </c>
       <c r="K119" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L119" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
+        <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
       </c>
       <c r="M119" s="8" t="s">
         <v>301</v>
@@ -11024,12 +10997,12 @@
         <v>201</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D120" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" s="15" t="s">
         <v>298</v>
       </c>
       <c r="E120" s="12" t="s">
@@ -11039,28 +11012,28 @@
         <v>78</v>
       </c>
       <c r="G120" s="8" t="str">
-        <f t="shared" ref="G120" si="20">"I"&amp;M120&amp;B120</f>
-        <v>ITMDBTVSeasonEpisode</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBTVSeasonDetail</v>
       </c>
       <c r="H120" s="8" t="str">
-        <f t="shared" ref="H120" si="21">"T"&amp;M120&amp;B120</f>
-        <v>TTMDBTVSeasonEpisode</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBTVSeasonDetail</v>
       </c>
       <c r="I120" s="8" t="str">
-        <f t="shared" ref="I120" si="22">"  "&amp;G120&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
       </c>
       <c r="J120" s="8" t="str">
-        <f t="shared" ref="J120" si="23">"  "&amp;H120&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
       </c>
       <c r="K120" s="8" t="str">
-        <f t="shared" ref="K120" si="24">IF(C120="", "  "&amp;G120&amp;" = interface", "  "&amp;G120&amp;" = interface(I"&amp;M120&amp;C120&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L120" s="8" t="str">
-        <f t="shared" ref="L120" si="25">IF(C120="", "  "&amp;H120&amp;" = class(TInterfacedObject, "&amp;G120&amp;")", "  "&amp;H120&amp;" = class(T"&amp;M120&amp;C120&amp;", "&amp;G120&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>301</v>
@@ -11071,12 +11044,12 @@
         <v>201</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="D121" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D121" s="16" t="s">
         <v>298</v>
       </c>
       <c r="E121" s="12" t="s">
@@ -11086,28 +11059,28 @@
         <v>78</v>
       </c>
       <c r="G121" s="8" t="str">
-        <f t="shared" ref="G121" si="26">"I"&amp;M121&amp;B121</f>
-        <v>ITMDBTVSeasonEpisodes</v>
+        <f t="shared" ref="G121" si="20">"I"&amp;M121&amp;B121</f>
+        <v>ITMDBTVSeasonEpisode</v>
       </c>
       <c r="H121" s="8" t="str">
-        <f t="shared" ref="H121" si="27">"T"&amp;M121&amp;B121</f>
-        <v>TTMDBTVSeasonEpisodes</v>
+        <f t="shared" ref="H121" si="21">"T"&amp;M121&amp;B121</f>
+        <v>TTMDBTVSeasonEpisode</v>
       </c>
       <c r="I121" s="8" t="str">
-        <f t="shared" ref="I121" si="28">"  "&amp;G121&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface;</v>
+        <f t="shared" ref="I121" si="22">"  "&amp;G121&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
       </c>
       <c r="J121" s="8" t="str">
-        <f t="shared" ref="J121" si="29">"  "&amp;H121&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class;</v>
+        <f t="shared" ref="J121" si="23">"  "&amp;H121&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
       </c>
       <c r="K121" s="8" t="str">
-        <f t="shared" ref="K121" si="30">IF(C121="", "  "&amp;G121&amp;" = interface", "  "&amp;G121&amp;" = interface(I"&amp;M121&amp;C121&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface(ITMDBTVEpisodes)</v>
+        <f t="shared" ref="K121" si="24">IF(C121="", "  "&amp;G121&amp;" = interface", "  "&amp;G121&amp;" = interface(I"&amp;M121&amp;C121&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="L121" s="8" t="str">
-        <f t="shared" ref="L121" si="31">IF(C121="", "  "&amp;H121&amp;" = class(TInterfacedObject, "&amp;G121&amp;")", "  "&amp;H121&amp;" = class(T"&amp;M121&amp;C121&amp;", "&amp;G121&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class(TTMDBTVEpisodes, ITMDBTVSeasonEpisodes)</v>
+        <f t="shared" ref="L121" si="25">IF(C121="", "  "&amp;H121&amp;" = class(TInterfacedObject, "&amp;G121&amp;")", "  "&amp;H121&amp;" = class(T"&amp;M121&amp;C121&amp;", "&amp;G121&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
       </c>
       <c r="M121" s="8" t="s">
         <v>301</v>
@@ -11115,46 +11088,46 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>459</v>
+        <v>394</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G122" s="8" t="str">
-        <f t="shared" si="16"/>
-        <v>ITMDBTVEpisode</v>
+        <f t="shared" ref="G122" si="26">"I"&amp;M122&amp;B122</f>
+        <v>ITMDBTVSeasonEpisodes</v>
       </c>
       <c r="H122" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>TTMDBTVEpisode</v>
+        <f t="shared" ref="H122" si="27">"T"&amp;M122&amp;B122</f>
+        <v>TTMDBTVSeasonEpisodes</v>
       </c>
       <c r="I122" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
+        <f t="shared" ref="I122" si="28">"  "&amp;G122&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface;</v>
       </c>
       <c r="J122" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
+        <f t="shared" ref="J122" si="29">"  "&amp;H122&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class;</v>
       </c>
       <c r="K122" s="8" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
+        <f t="shared" ref="K122" si="30">IF(C122="", "  "&amp;G122&amp;" = interface", "  "&amp;G122&amp;" = interface(I"&amp;M122&amp;C122&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="L122" s="8" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
+        <f t="shared" ref="L122" si="31">IF(C122="", "  "&amp;H122&amp;" = class(TInterfacedObject, "&amp;G122&amp;")", "  "&amp;H122&amp;" = class(T"&amp;M122&amp;C122&amp;", "&amp;G122&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class(TTMDBTVEpisodes, ITMDBTVSeasonEpisodes)</v>
       </c>
       <c r="M122" s="8" t="s">
         <v>301</v>
@@ -11165,10 +11138,10 @@
         <v>203</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>459</v>
@@ -11181,27 +11154,27 @@
       </c>
       <c r="G123" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVEpisodes</v>
+        <v>ITMDBTVEpisode</v>
       </c>
       <c r="H123" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVEpisodes</v>
+        <v>TTMDBTVEpisode</v>
       </c>
       <c r="I123" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
       </c>
       <c r="J123" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
       </c>
       <c r="K123" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
       </c>
       <c r="L123" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
+        <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
       </c>
       <c r="M123" s="8" t="s">
         <v>301</v>
@@ -11212,10 +11185,10 @@
         <v>203</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>459</v>
@@ -11228,27 +11201,27 @@
       </c>
       <c r="G124" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVEpisodePage</v>
+        <v>ITMDBTVEpisodes</v>
       </c>
       <c r="H124" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVEpisodePage</v>
+        <v>TTMDBTVEpisodes</v>
       </c>
       <c r="I124" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
       </c>
       <c r="J124" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
       </c>
       <c r="K124" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
       </c>
       <c r="L124" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
       </c>
       <c r="M124" s="8" t="s">
         <v>301</v>
@@ -11259,10 +11232,10 @@
         <v>203</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>459</v>
@@ -11275,27 +11248,27 @@
       </c>
       <c r="G125" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedTVEpisode</v>
+        <v>ITMDBTVEpisodePage</v>
       </c>
       <c r="H125" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedTVEpisode</v>
+        <v>TTMDBTVEpisodePage</v>
       </c>
       <c r="I125" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
       </c>
       <c r="J125" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
       </c>
       <c r="K125" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
+        <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L125" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
       </c>
       <c r="M125" s="8" t="s">
         <v>301</v>
@@ -11306,10 +11279,10 @@
         <v>203</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>459</v>
@@ -11322,27 +11295,27 @@
       </c>
       <c r="G126" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedTVEpisodes</v>
+        <v>ITMDBRatedTVEpisode</v>
       </c>
       <c r="H126" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedTVEpisodes</v>
+        <v>TTMDBRatedTVEpisode</v>
       </c>
       <c r="I126" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
       </c>
       <c r="J126" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
       </c>
       <c r="K126" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="L126" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
       </c>
       <c r="M126" s="8" t="s">
         <v>301</v>
@@ -11353,43 +11326,43 @@
         <v>203</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>298</v>
+        <v>394</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G127" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVEpisodeDetail</v>
+        <v>ITMDBRatedTVEpisodes</v>
       </c>
       <c r="H127" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVEpisodeDetail</v>
+        <v>TTMDBRatedTVEpisodes</v>
       </c>
       <c r="I127" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
       </c>
       <c r="J127" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
       </c>
       <c r="K127" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="L127" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
       </c>
       <c r="M127" s="8" t="s">
         <v>301</v>
@@ -11397,43 +11370,46 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>459</v>
+        <v>398</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G128" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVEpisodeGroup</v>
+        <v>ITMDBTVEpisodeDetail</v>
       </c>
       <c r="H128" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVEpisodeGroup</v>
+        <v>TTMDBTVEpisodeDetail</v>
       </c>
       <c r="I128" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
       </c>
       <c r="J128" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
       </c>
       <c r="K128" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L128" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
       </c>
       <c r="M128" s="8" t="s">
         <v>301</v>
@@ -11444,7 +11420,7 @@
         <v>205</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>459</v>
@@ -11457,27 +11433,27 @@
       </c>
       <c r="G129" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVEpisodeGroups</v>
+        <v>ITMDBTVEpisodeGroup</v>
       </c>
       <c r="H129" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVEpisodeGroups</v>
+        <v>TTMDBTVEpisodeGroup</v>
       </c>
       <c r="I129" s="8" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
       </c>
       <c r="J129" s="8" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
       </c>
       <c r="K129" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
       </c>
       <c r="L129" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
       </c>
       <c r="M129" s="8" t="s">
         <v>301</v>
@@ -11485,10 +11461,10 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D130" s="14" t="s">
         <v>459</v>
@@ -11501,27 +11477,27 @@
       </c>
       <c r="G130" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBWatchProviderPriority</v>
+        <v>ITMDBTVEpisodeGroups</v>
       </c>
       <c r="H130" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBWatchProviderPriority</v>
+        <v>TTMDBTVEpisodeGroups</v>
       </c>
       <c r="I130" s="8" t="str">
-        <f t="shared" ref="I130:I186" si="32">"  "&amp;G130&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
       </c>
       <c r="J130" s="8" t="str">
-        <f t="shared" ref="J130:J186" si="33">"  "&amp;H130&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
       </c>
       <c r="K130" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
       </c>
       <c r="L130" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
       </c>
       <c r="M130" s="8" t="s">
         <v>301</v>
@@ -11532,7 +11508,7 @@
         <v>166</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>459</v>
@@ -11545,27 +11521,27 @@
       </c>
       <c r="G131" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBWatchProviderPriorities</v>
+        <v>ITMDBWatchProviderPriority</v>
       </c>
       <c r="H131" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBWatchProviderPriorities</v>
+        <v>TTMDBWatchProviderPriority</v>
       </c>
       <c r="I131" s="8" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
+        <f t="shared" ref="I131:I187" si="32">"  "&amp;G131&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
       </c>
       <c r="J131" s="8" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
+        <f t="shared" ref="J131:J187" si="33">"  "&amp;H131&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
       </c>
       <c r="K131" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
       </c>
       <c r="L131" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
       </c>
       <c r="M131" s="8" t="s">
         <v>301</v>
@@ -11576,10 +11552,7 @@
         <v>166</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>459</v>
@@ -11591,28 +11564,28 @@
         <v>78</v>
       </c>
       <c r="G132" s="8" t="str">
-        <f t="shared" ref="G132:G163" si="34">"I"&amp;M132&amp;B132</f>
-        <v>ITMDBWatchProvider</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBWatchProviderPriorities</v>
       </c>
       <c r="H132" s="8" t="str">
-        <f t="shared" ref="H132:H163" si="35">"T"&amp;M132&amp;B132</f>
-        <v>TTMDBWatchProvider</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBWatchProviderPriorities</v>
       </c>
       <c r="I132" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
       </c>
       <c r="J132" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
       </c>
       <c r="K132" s="8" t="str">
-        <f t="shared" ref="K132:K163" si="36">IF(C132="", "  "&amp;G132&amp;" = interface", "  "&amp;G132&amp;" = interface(I"&amp;M132&amp;C132&amp;")")</f>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
       </c>
       <c r="L132" s="8" t="str">
-        <f t="shared" ref="L132:L163" si="37">IF(C132="", "  "&amp;H132&amp;" = class(TInterfacedObject, "&amp;G132&amp;")", "  "&amp;H132&amp;" = class(T"&amp;M132&amp;C132&amp;", "&amp;G132&amp;")")</f>
-        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
       </c>
       <c r="M132" s="8" t="s">
         <v>301</v>
@@ -11623,84 +11596,90 @@
         <v>166</v>
       </c>
       <c r="B133" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G133" s="8" t="str">
+        <f t="shared" ref="G133:G164" si="34">"I"&amp;M133&amp;B133</f>
+        <v>ITMDBWatchProvider</v>
+      </c>
+      <c r="H133" s="8" t="str">
+        <f t="shared" ref="H133:H164" si="35">"T"&amp;M133&amp;B133</f>
+        <v>TTMDBWatchProvider</v>
+      </c>
+      <c r="I133" s="8" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
+      </c>
+      <c r="J133" s="8" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
+      </c>
+      <c r="K133" s="8" t="str">
+        <f t="shared" ref="K133:K164" si="36">IF(C133="", "  "&amp;G133&amp;" = interface", "  "&amp;G133&amp;" = interface(I"&amp;M133&amp;C133&amp;")")</f>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
+      </c>
+      <c r="L133" s="8" t="str">
+        <f t="shared" ref="L133:L164" si="37">IF(C133="", "  "&amp;H133&amp;" = class(TInterfacedObject, "&amp;G133&amp;")", "  "&amp;H133&amp;" = class(T"&amp;M133&amp;C133&amp;", "&amp;G133&amp;")")</f>
+        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D133" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G133" s="8" t="str">
+      <c r="D134" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G134" s="8" t="str">
         <f t="shared" si="34"/>
         <v>ITMDBWatchProviders</v>
       </c>
-      <c r="H133" s="8" t="str">
+      <c r="H134" s="8" t="str">
         <f t="shared" si="35"/>
         <v>TTMDBWatchProviders</v>
       </c>
-      <c r="I133" s="8" t="str">
+      <c r="I134" s="8" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
       </c>
-      <c r="J133" s="8" t="str">
+      <c r="J134" s="8" t="str">
         <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
       </c>
-      <c r="K133" s="8" t="str">
+      <c r="K134" s="8" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
       </c>
-      <c r="L133" s="8" t="str">
+      <c r="L134" s="8" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
-      </c>
-      <c r="M133" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G134" s="8" t="str">
-        <f t="shared" si="34"/>
-        <v>ITMDBService</v>
-      </c>
-      <c r="H134" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>TTMDBService</v>
-      </c>
-      <c r="I134" s="8" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBService = interface;</v>
-      </c>
-      <c r="J134" s="8" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBService = class;</v>
-      </c>
-      <c r="K134" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBService = interface</v>
-      </c>
-      <c r="L134" s="8" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBService = class(TInterfacedObject, ITMDBService)</v>
       </c>
       <c r="M134" s="8" t="s">
         <v>301</v>
@@ -11711,43 +11690,37 @@
         <v>415</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>459</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="G135" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceAccount</v>
+        <v>ITMDBService</v>
       </c>
       <c r="H135" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceAccount</v>
+        <v>TTMDBService</v>
       </c>
       <c r="I135" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceAccount = interface;</v>
+        <v xml:space="preserve">  ITMDBService = interface;</v>
       </c>
       <c r="J135" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceAccount = class;</v>
+        <v xml:space="preserve">  TTMDBService = class;</v>
       </c>
       <c r="K135" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceAccount = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBService = interface</v>
       </c>
       <c r="L135" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceAccount = class(TTMDBITMDBService, ITMDBServiceAccount)</v>
+        <v xml:space="preserve">  TTMDBService = class(TInterfacedObject, ITMDBService)</v>
       </c>
       <c r="M135" s="8" t="s">
         <v>301</v>
@@ -11758,7 +11731,7 @@
         <v>415</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>416</v>
@@ -11774,27 +11747,27 @@
       </c>
       <c r="G136" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceAuthentication</v>
+        <v>ITMDBServiceAccount</v>
       </c>
       <c r="H136" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceAuthentication</v>
+        <v>TTMDBServiceAccount</v>
       </c>
       <c r="I136" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceAuthentication = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceAccount = interface;</v>
       </c>
       <c r="J136" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceAuthentication = class;</v>
+        <v xml:space="preserve">  TTMDBServiceAccount = class;</v>
       </c>
       <c r="K136" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceAuthentication = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceAccount = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L136" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceAuthentication = class(TTMDBITMDBService, ITMDBServiceAuthentication)</v>
+        <v xml:space="preserve">  TTMDBServiceAccount = class(TTMDBITMDBService, ITMDBServiceAccount)</v>
       </c>
       <c r="M136" s="8" t="s">
         <v>301</v>
@@ -11805,7 +11778,7 @@
         <v>415</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>416</v>
@@ -11816,32 +11789,32 @@
       <c r="E137" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F137" s="14" t="s">
-        <v>459</v>
+      <c r="F137" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G137" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceCertifications</v>
+        <v>ITMDBServiceAuthentication</v>
       </c>
       <c r="H137" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceCertifications</v>
+        <v>TTMDBServiceAuthentication</v>
       </c>
       <c r="I137" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceCertifications = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceAuthentication = interface;</v>
       </c>
       <c r="J137" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceCertifications = class;</v>
+        <v xml:space="preserve">  TTMDBServiceAuthentication = class;</v>
       </c>
       <c r="K137" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceCertifications = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceAuthentication = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L137" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceCertifications = class(TTMDBITMDBService, ITMDBServiceCertifications)</v>
+        <v xml:space="preserve">  TTMDBServiceAuthentication = class(TTMDBITMDBService, ITMDBServiceAuthentication)</v>
       </c>
       <c r="M137" s="8" t="s">
         <v>301</v>
@@ -11852,43 +11825,43 @@
         <v>415</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D138" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>78</v>
+      <c r="D138" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="G138" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceChanges</v>
+        <v>ITMDBServiceCertifications</v>
       </c>
       <c r="H138" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceChanges</v>
+        <v>TTMDBServiceCertifications</v>
       </c>
       <c r="I138" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceChanges = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceCertifications = interface;</v>
       </c>
       <c r="J138" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceChanges = class;</v>
+        <v xml:space="preserve">  TTMDBServiceCertifications = class;</v>
       </c>
       <c r="K138" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceChanges = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceCertifications = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L138" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceChanges = class(TTMDBITMDBService, ITMDBServiceChanges)</v>
+        <v xml:space="preserve">  TTMDBServiceCertifications = class(TTMDBITMDBService, ITMDBServiceCertifications)</v>
       </c>
       <c r="M138" s="8" t="s">
         <v>301</v>
@@ -11899,43 +11872,43 @@
         <v>415</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D139" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>297</v>
+      <c r="D139" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G139" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceCollections</v>
+        <v>ITMDBServiceChanges</v>
       </c>
       <c r="H139" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceCollections</v>
+        <v>TTMDBServiceChanges</v>
       </c>
       <c r="I139" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceCollections = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceChanges = interface;</v>
       </c>
       <c r="J139" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceCollections = class;</v>
+        <v xml:space="preserve">  TTMDBServiceChanges = class;</v>
       </c>
       <c r="K139" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceCollections = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceChanges = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L139" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceCollections = class(TTMDBITMDBService, ITMDBServiceCollections)</v>
+        <v xml:space="preserve">  TTMDBServiceChanges = class(TTMDBITMDBService, ITMDBServiceChanges)</v>
       </c>
       <c r="M139" s="8" t="s">
         <v>301</v>
@@ -11946,7 +11919,7 @@
         <v>415</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>416</v>
@@ -11962,27 +11935,27 @@
       </c>
       <c r="G140" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceCompanies</v>
+        <v>ITMDBServiceCollections</v>
       </c>
       <c r="H140" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceCompanies</v>
+        <v>TTMDBServiceCollections</v>
       </c>
       <c r="I140" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceCompanies = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceCollections = interface;</v>
       </c>
       <c r="J140" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceCompanies = class;</v>
+        <v xml:space="preserve">  TTMDBServiceCollections = class;</v>
       </c>
       <c r="K140" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceCompanies = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceCollections = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L140" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceCompanies = class(TTMDBITMDBService, ITMDBServiceCompanies)</v>
+        <v xml:space="preserve">  TTMDBServiceCollections = class(TTMDBITMDBService, ITMDBServiceCollections)</v>
       </c>
       <c r="M140" s="8" t="s">
         <v>301</v>
@@ -11993,7 +11966,7 @@
         <v>415</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>416</v>
@@ -12009,27 +11982,27 @@
       </c>
       <c r="G141" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceConfiguration</v>
+        <v>ITMDBServiceCompanies</v>
       </c>
       <c r="H141" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceConfiguration</v>
+        <v>TTMDBServiceCompanies</v>
       </c>
       <c r="I141" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceConfiguration = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceCompanies = interface;</v>
       </c>
       <c r="J141" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceConfiguration = class;</v>
+        <v xml:space="preserve">  TTMDBServiceCompanies = class;</v>
       </c>
       <c r="K141" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceConfiguration = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceCompanies = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L141" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceConfiguration = class(TTMDBITMDBService, ITMDBServiceConfiguration)</v>
+        <v xml:space="preserve">  TTMDBServiceCompanies = class(TTMDBITMDBService, ITMDBServiceCompanies)</v>
       </c>
       <c r="M141" s="8" t="s">
         <v>301</v>
@@ -12040,43 +12013,43 @@
         <v>415</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D142" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>78</v>
+      <c r="D142" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G142" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceCredits</v>
+        <v>ITMDBServiceConfiguration</v>
       </c>
       <c r="H142" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceCredits</v>
+        <v>TTMDBServiceConfiguration</v>
       </c>
       <c r="I142" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceCredits = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceConfiguration = interface;</v>
       </c>
       <c r="J142" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceCredits = class;</v>
+        <v xml:space="preserve">  TTMDBServiceConfiguration = class;</v>
       </c>
       <c r="K142" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceCredits = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceConfiguration = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L142" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceCredits = class(TTMDBITMDBService, ITMDBServiceCredits)</v>
+        <v xml:space="preserve">  TTMDBServiceConfiguration = class(TTMDBITMDBService, ITMDBServiceConfiguration)</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>301</v>
@@ -12087,7 +12060,7 @@
         <v>415</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>416</v>
@@ -12103,27 +12076,27 @@
       </c>
       <c r="G143" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceDiscover</v>
+        <v>ITMDBServiceCredits</v>
       </c>
       <c r="H143" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceDiscover</v>
+        <v>TTMDBServiceCredits</v>
       </c>
       <c r="I143" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceDiscover = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceCredits = interface;</v>
       </c>
       <c r="J143" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceDiscover = class;</v>
+        <v xml:space="preserve">  TTMDBServiceCredits = class;</v>
       </c>
       <c r="K143" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceDiscover = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceCredits = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L143" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceDiscover = class(TTMDBITMDBService, ITMDBServiceDiscover)</v>
+        <v xml:space="preserve">  TTMDBServiceCredits = class(TTMDBITMDBService, ITMDBServiceCredits)</v>
       </c>
       <c r="M143" s="8" t="s">
         <v>301</v>
@@ -12134,43 +12107,43 @@
         <v>415</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D144" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>459</v>
+      <c r="D144" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G144" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceFind</v>
+        <v>ITMDBServiceDiscover</v>
       </c>
       <c r="H144" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceFind</v>
+        <v>TTMDBServiceDiscover</v>
       </c>
       <c r="I144" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceFind = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceDiscover = interface;</v>
       </c>
       <c r="J144" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceFind = class;</v>
+        <v xml:space="preserve">  TTMDBServiceDiscover = class;</v>
       </c>
       <c r="K144" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceFind = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceDiscover = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L144" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceFind = class(TTMDBITMDBService, ITMDBServiceFind)</v>
+        <v xml:space="preserve">  TTMDBServiceDiscover = class(TTMDBITMDBService, ITMDBServiceDiscover)</v>
       </c>
       <c r="M144" s="8" t="s">
         <v>301</v>
@@ -12181,7 +12154,7 @@
         <v>415</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>416</v>
@@ -12192,32 +12165,32 @@
       <c r="E145" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F145" s="14" t="s">
-        <v>459</v>
+      <c r="F145" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G145" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceGenres</v>
+        <v>ITMDBServiceFind</v>
       </c>
       <c r="H145" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceGenres</v>
+        <v>TTMDBServiceFind</v>
       </c>
       <c r="I145" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceGenres = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceFind = interface;</v>
       </c>
       <c r="J145" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceGenres = class;</v>
+        <v xml:space="preserve">  TTMDBServiceFind = class;</v>
       </c>
       <c r="K145" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceGenres = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceFind = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L145" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceGenres = class(TTMDBITMDBService, ITMDBServiceGenres)</v>
+        <v xml:space="preserve">  TTMDBServiceFind = class(TTMDBITMDBService, ITMDBServiceFind)</v>
       </c>
       <c r="M145" s="8" t="s">
         <v>301</v>
@@ -12228,43 +12201,43 @@
         <v>415</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D146" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>78</v>
+      <c r="D146" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="G146" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceGuestSessions</v>
+        <v>ITMDBServiceGenres</v>
       </c>
       <c r="H146" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceGuestSessions</v>
+        <v>TTMDBServiceGenres</v>
       </c>
       <c r="I146" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceGuestSessions = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceGenres = interface;</v>
       </c>
       <c r="J146" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceGuestSessions = class;</v>
+        <v xml:space="preserve">  TTMDBServiceGenres = class;</v>
       </c>
       <c r="K146" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceGuestSessions = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceGenres = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L146" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceGuestSessions = class(TTMDBITMDBService, ITMDBServiceGuestSessions)</v>
+        <v xml:space="preserve">  TTMDBServiceGenres = class(TTMDBITMDBService, ITMDBServiceGenres)</v>
       </c>
       <c r="M146" s="8" t="s">
         <v>301</v>
@@ -12275,43 +12248,43 @@
         <v>415</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D147" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E147" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>298</v>
+      <c r="D147" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G147" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceKeywords</v>
+        <v>ITMDBServiceGuestSessions</v>
       </c>
       <c r="H147" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceKeywords</v>
+        <v>TTMDBServiceGuestSessions</v>
       </c>
       <c r="I147" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceKeywords = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceGuestSessions = interface;</v>
       </c>
       <c r="J147" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceKeywords = class;</v>
+        <v xml:space="preserve">  TTMDBServiceGuestSessions = class;</v>
       </c>
       <c r="K147" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceKeywords = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceGuestSessions = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L147" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceKeywords = class(TTMDBITMDBService, ITMDBServiceKeywords)</v>
+        <v xml:space="preserve">  TTMDBServiceGuestSessions = class(TTMDBITMDBService, ITMDBServiceGuestSessions)</v>
       </c>
       <c r="M147" s="8" t="s">
         <v>301</v>
@@ -12322,43 +12295,43 @@
         <v>415</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F148" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="G148" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceLists</v>
+        <v>ITMDBServiceKeywords</v>
       </c>
       <c r="H148" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceLists</v>
+        <v>TTMDBServiceKeywords</v>
       </c>
       <c r="I148" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceLists = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceKeywords = interface;</v>
       </c>
       <c r="J148" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceLists = class;</v>
+        <v xml:space="preserve">  TTMDBServiceKeywords = class;</v>
       </c>
       <c r="K148" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceLists = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceKeywords = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L148" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceLists = class(TTMDBITMDBService, ITMDBServiceLists)</v>
+        <v xml:space="preserve">  TTMDBServiceKeywords = class(TTMDBITMDBService, ITMDBServiceKeywords)</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>301</v>
@@ -12369,43 +12342,43 @@
         <v>415</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D149" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>459</v>
+      <c r="D149" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G149" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceMovieLists</v>
+        <v>ITMDBServiceLists</v>
       </c>
       <c r="H149" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceMovieLists</v>
+        <v>TTMDBServiceLists</v>
       </c>
       <c r="I149" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceMovieLists = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceLists = interface;</v>
       </c>
       <c r="J149" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceMovieLists = class;</v>
+        <v xml:space="preserve">  TTMDBServiceLists = class;</v>
       </c>
       <c r="K149" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceMovieLists = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceLists = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L149" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceMovieLists = class(TTMDBITMDBService, ITMDBServiceMovieLists)</v>
+        <v xml:space="preserve">  TTMDBServiceLists = class(TTMDBITMDBService, ITMDBServiceLists)</v>
       </c>
       <c r="M149" s="8" t="s">
         <v>301</v>
@@ -12416,43 +12389,43 @@
         <v>415</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D150" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F150" s="15" t="s">
-        <v>298</v>
+      <c r="D150" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G150" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceMovies</v>
+        <v>ITMDBServiceMovieLists</v>
       </c>
       <c r="H150" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceMovies</v>
+        <v>TTMDBServiceMovieLists</v>
       </c>
       <c r="I150" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceMovieLists = interface;</v>
       </c>
       <c r="J150" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceMovies = class;</v>
+        <v xml:space="preserve">  TTMDBServiceMovieLists = class;</v>
       </c>
       <c r="K150" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceMovies = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceMovieLists = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L150" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceMovies = class(TTMDBITMDBService, ITMDBServiceMovies)</v>
+        <v xml:space="preserve">  TTMDBServiceMovieLists = class(TTMDBITMDBService, ITMDBServiceMovieLists)</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>301</v>
@@ -12463,43 +12436,43 @@
         <v>415</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D151" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="F151" s="14" t="s">
-        <v>459</v>
+      <c r="D151" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="G151" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceNetworks</v>
+        <v>ITMDBServiceMovies</v>
       </c>
       <c r="H151" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceNetworks</v>
+        <v>TTMDBServiceMovies</v>
       </c>
       <c r="I151" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceNetworks = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceMovies = interface;</v>
       </c>
       <c r="J151" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceNetworks = class;</v>
+        <v xml:space="preserve">  TTMDBServiceMovies = class;</v>
       </c>
       <c r="K151" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceNetworks = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceMovies = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L151" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceNetworks = class(TTMDBITMDBService, ITMDBServiceNetworks)</v>
+        <v xml:space="preserve">  TTMDBServiceMovies = class(TTMDBITMDBService, ITMDBServiceMovies)</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>301</v>
@@ -12510,43 +12483,43 @@
         <v>415</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>78</v>
+      <c r="D152" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="G152" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServicePeopleLists</v>
+        <v>ITMDBServiceNetworks</v>
       </c>
       <c r="H152" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServicePeopleLists</v>
+        <v>TTMDBServiceNetworks</v>
       </c>
       <c r="I152" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServicePeopleLists = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceNetworks = interface;</v>
       </c>
       <c r="J152" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServicePeopleLists = class;</v>
+        <v xml:space="preserve">  TTMDBServiceNetworks = class;</v>
       </c>
       <c r="K152" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServicePeopleLists = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceNetworks = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L152" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServicePeopleLists = class(TTMDBITMDBService, ITMDBServicePeopleLists)</v>
+        <v xml:space="preserve">  TTMDBServiceNetworks = class(TTMDBITMDBService, ITMDBServiceNetworks)</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>301</v>
@@ -12557,43 +12530,43 @@
         <v>415</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D153" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>298</v>
+      <c r="D153" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G153" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServicePeople</v>
+        <v>ITMDBServicePeopleLists</v>
       </c>
       <c r="H153" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServicePeople</v>
+        <v>TTMDBServicePeopleLists</v>
       </c>
       <c r="I153" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServicePeople = interface;</v>
+        <v xml:space="preserve">  ITMDBServicePeopleLists = interface;</v>
       </c>
       <c r="J153" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServicePeople = class;</v>
+        <v xml:space="preserve">  TTMDBServicePeopleLists = class;</v>
       </c>
       <c r="K153" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServicePeople = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServicePeopleLists = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L153" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServicePeople = class(TTMDBITMDBService, ITMDBServicePeople)</v>
+        <v xml:space="preserve">  TTMDBServicePeopleLists = class(TTMDBITMDBService, ITMDBServicePeopleLists)</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>301</v>
@@ -12604,43 +12577,43 @@
         <v>415</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D154" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>78</v>
+      <c r="D154" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G154" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceReviews</v>
+        <v>ITMDBServicePeople</v>
       </c>
       <c r="H154" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceReviews</v>
+        <v>TTMDBServicePeople</v>
       </c>
       <c r="I154" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceReviews = interface;</v>
+        <v xml:space="preserve">  ITMDBServicePeople = interface;</v>
       </c>
       <c r="J154" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceReviews = class;</v>
+        <v xml:space="preserve">  TTMDBServicePeople = class;</v>
       </c>
       <c r="K154" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceReviews = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServicePeople = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L154" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceReviews = class(TTMDBITMDBService, ITMDBServiceReviews)</v>
+        <v xml:space="preserve">  TTMDBServicePeople = class(TTMDBITMDBService, ITMDBServicePeople)</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>301</v>
@@ -12651,43 +12624,43 @@
         <v>415</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D155" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E155" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="F155" s="13" t="s">
-        <v>297</v>
+      <c r="D155" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G155" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceSearch</v>
+        <v>ITMDBServiceReviews</v>
       </c>
       <c r="H155" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceSearch</v>
+        <v>TTMDBServiceReviews</v>
       </c>
       <c r="I155" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceSearch = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceReviews = interface;</v>
       </c>
       <c r="J155" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceSearch = class;</v>
+        <v xml:space="preserve">  TTMDBServiceReviews = class;</v>
       </c>
       <c r="K155" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceSearch = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceReviews = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L155" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceSearch = class(TTMDBITMDBService, ITMDBServiceSearch)</v>
+        <v xml:space="preserve">  TTMDBServiceReviews = class(TTMDBITMDBService, ITMDBServiceReviews)</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>301</v>
@@ -12698,43 +12671,43 @@
         <v>415</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D156" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E156" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>78</v>
+      <c r="D156" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="G156" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceTrending</v>
+        <v>ITMDBServiceSearch</v>
       </c>
       <c r="H156" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceTrending</v>
+        <v>TTMDBServiceSearch</v>
       </c>
       <c r="I156" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceTrending = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceSearch = interface;</v>
       </c>
       <c r="J156" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceTrending = class;</v>
+        <v xml:space="preserve">  TTMDBServiceSearch = class;</v>
       </c>
       <c r="K156" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceTrending = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceSearch = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L156" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceTrending = class(TTMDBITMDBService, ITMDBServiceTrending)</v>
+        <v xml:space="preserve">  TTMDBServiceSearch = class(TTMDBITMDBService, ITMDBServiceSearch)</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>301</v>
@@ -12745,43 +12718,43 @@
         <v>415</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D157" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>78</v>
+      <c r="D157" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G157" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceTVSeriesLists</v>
+        <v>ITMDBServiceTrending</v>
       </c>
       <c r="H157" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceTVSeriesLists</v>
+        <v>TTMDBServiceTrending</v>
       </c>
       <c r="I157" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeriesLists = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceTrending = interface;</v>
       </c>
       <c r="J157" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeriesLists = class;</v>
+        <v xml:space="preserve">  TTMDBServiceTrending = class;</v>
       </c>
       <c r="K157" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeriesLists = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceTrending = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L157" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeriesLists = class(TTMDBITMDBService, ITMDBServiceTVSeriesLists)</v>
+        <v xml:space="preserve">  TTMDBServiceTrending = class(TTMDBITMDBService, ITMDBServiceTrending)</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>301</v>
@@ -12792,43 +12765,43 @@
         <v>415</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D158" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F158" s="15" t="s">
-        <v>298</v>
+      <c r="D158" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G158" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceTVSeries</v>
+        <v>ITMDBServiceTVSeriesLists</v>
       </c>
       <c r="H158" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceTVSeries</v>
+        <v>TTMDBServiceTVSeriesLists</v>
       </c>
       <c r="I158" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceTVSeriesLists = interface;</v>
       </c>
       <c r="J158" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBServiceTVSeriesLists = class;</v>
       </c>
       <c r="K158" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeries = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceTVSeriesLists = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L158" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeries = class(TTMDBITMDBService, ITMDBServiceTVSeries)</v>
+        <v xml:space="preserve">  TTMDBServiceTVSeriesLists = class(TTMDBITMDBService, ITMDBServiceTVSeriesLists)</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>301</v>
@@ -12839,43 +12812,43 @@
         <v>415</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D159" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>78</v>
+      <c r="D159" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="G159" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceTVSeasons</v>
+        <v>ITMDBServiceTVSeries</v>
       </c>
       <c r="H159" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceTVSeasons</v>
+        <v>TTMDBServiceTVSeries</v>
       </c>
       <c r="I159" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeasons = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceTVSeries = interface;</v>
       </c>
       <c r="J159" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeasons = class;</v>
+        <v xml:space="preserve">  TTMDBServiceTVSeries = class;</v>
       </c>
       <c r="K159" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceTVSeasons = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceTVSeries = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L159" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceTVSeasons = class(TTMDBITMDBService, ITMDBServiceTVSeasons)</v>
+        <v xml:space="preserve">  TTMDBServiceTVSeries = class(TTMDBITMDBService, ITMDBServiceTVSeries)</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>301</v>
@@ -12886,7 +12859,7 @@
         <v>415</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>416</v>
@@ -12902,27 +12875,27 @@
       </c>
       <c r="G160" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceTVEpisodes</v>
+        <v>ITMDBServiceTVSeasons</v>
       </c>
       <c r="H160" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceTVEpisodes</v>
+        <v>TTMDBServiceTVSeasons</v>
       </c>
       <c r="I160" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceTVSeasons = interface;</v>
       </c>
       <c r="J160" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBServiceTVSeasons = class;</v>
       </c>
       <c r="K160" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceTVEpisodes = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceTVSeasons = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L160" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceTVEpisodes = class(TTMDBITMDBService, ITMDBServiceTVEpisodes)</v>
+        <v xml:space="preserve">  TTMDBServiceTVSeasons = class(TTMDBITMDBService, ITMDBServiceTVSeasons)</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>301</v>
@@ -12933,43 +12906,43 @@
         <v>415</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D161" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>298</v>
+      <c r="D161" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G161" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceTVEpisodeGroups</v>
+        <v>ITMDBServiceTVEpisodes</v>
       </c>
       <c r="H161" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceTVEpisodeGroups</v>
+        <v>TTMDBServiceTVEpisodes</v>
       </c>
       <c r="I161" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceTVEpisodeGroups = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceTVEpisodes = interface;</v>
       </c>
       <c r="J161" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceTVEpisodeGroups = class;</v>
+        <v xml:space="preserve">  TTMDBServiceTVEpisodes = class;</v>
       </c>
       <c r="K161" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceTVEpisodeGroups = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceTVEpisodes = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L161" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceTVEpisodeGroups = class(TTMDBITMDBService, ITMDBServiceTVEpisodeGroups)</v>
+        <v xml:space="preserve">  TTMDBServiceTVEpisodes = class(TTMDBITMDBService, ITMDBServiceTVEpisodes)</v>
       </c>
       <c r="M161" s="8" t="s">
         <v>301</v>
@@ -12980,43 +12953,43 @@
         <v>415</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D162" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>459</v>
+      <c r="D162" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G162" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceWatchProviders</v>
+        <v>ITMDBServiceTVEpisodeGroups</v>
       </c>
       <c r="H162" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceWatchProviders</v>
+        <v>TTMDBServiceTVEpisodeGroups</v>
       </c>
       <c r="I162" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceWatchProviders = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceTVEpisodeGroups = interface;</v>
       </c>
       <c r="J162" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceWatchProviders = class;</v>
+        <v xml:space="preserve">  TTMDBServiceTVEpisodeGroups = class;</v>
       </c>
       <c r="K162" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceWatchProviders = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceTVEpisodeGroups = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L162" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceWatchProviders = class(TTMDBITMDBService, ITMDBServiceWatchProviders)</v>
+        <v xml:space="preserve">  TTMDBServiceTVEpisodeGroups = class(TTMDBITMDBService, ITMDBServiceTVEpisodeGroups)</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>301</v>
@@ -13027,7 +13000,7 @@
         <v>415</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>416</v>
@@ -13043,27 +13016,27 @@
       </c>
       <c r="G163" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>ITMDBServiceImages</v>
+        <v>ITMDBServiceWatchProviders</v>
       </c>
       <c r="H163" s="8" t="str">
         <f t="shared" si="35"/>
-        <v>TTMDBServiceImages</v>
+        <v>TTMDBServiceWatchProviders</v>
       </c>
       <c r="I163" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBServiceImages = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceWatchProviders = interface;</v>
       </c>
       <c r="J163" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBServiceImages = class;</v>
+        <v xml:space="preserve">  TTMDBServiceWatchProviders = class;</v>
       </c>
       <c r="K163" s="8" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  ITMDBServiceImages = interface(ITMDBITMDBService)</v>
+        <v xml:space="preserve">  ITMDBServiceWatchProviders = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L163" s="8" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">  TTMDBServiceImages = class(TTMDBITMDBService, ITMDBServiceImages)</v>
+        <v xml:space="preserve">  TTMDBServiceWatchProviders = class(TTMDBITMDBService, ITMDBServiceWatchProviders)</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>301</v>
@@ -13071,10 +13044,13 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>417</v>
+        <v>447</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>459</v>
@@ -13082,32 +13058,32 @@
       <c r="E164" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F164" s="13" t="s">
-        <v>297</v>
+      <c r="F164" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G164" s="8" t="str">
-        <f t="shared" ref="G164:G195" si="38">"I"&amp;M164&amp;B164</f>
-        <v>ITMDBCache</v>
+        <f t="shared" si="34"/>
+        <v>ITMDBServiceImages</v>
       </c>
       <c r="H164" s="8" t="str">
-        <f t="shared" ref="H164:H195" si="39">"T"&amp;M164&amp;B164</f>
-        <v>TTMDBCache</v>
+        <f t="shared" si="35"/>
+        <v>TTMDBServiceImages</v>
       </c>
       <c r="I164" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBCache = interface;</v>
+        <v xml:space="preserve">  ITMDBServiceImages = interface;</v>
       </c>
       <c r="J164" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBCache = class;</v>
+        <v xml:space="preserve">  TTMDBServiceImages = class;</v>
       </c>
       <c r="K164" s="8" t="str">
-        <f t="shared" ref="K164:K195" si="40">IF(C164="", "  "&amp;G164&amp;" = interface", "  "&amp;G164&amp;" = interface(I"&amp;M164&amp;C164&amp;")")</f>
-        <v xml:space="preserve">  ITMDBCache = interface</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">  ITMDBServiceImages = interface(ITMDBITMDBService)</v>
       </c>
       <c r="L164" s="8" t="str">
-        <f t="shared" ref="L164:L195" si="41">IF(C164="", "  "&amp;H164&amp;" = class(TInterfacedObject, "&amp;G164&amp;")", "  "&amp;H164&amp;" = class(T"&amp;M164&amp;C164&amp;", "&amp;G164&amp;")")</f>
-        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  TTMDBServiceImages = class(TTMDBITMDBService, ITMDBServiceImages)</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>301</v>
@@ -13118,7 +13094,7 @@
         <v>454</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>459</v>
@@ -13130,28 +13106,28 @@
         <v>297</v>
       </c>
       <c r="G165" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v>ITMDBLoginState</v>
+        <f t="shared" ref="G165:G196" si="38">"I"&amp;M165&amp;B165</f>
+        <v>ITMDBCache</v>
       </c>
       <c r="H165" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v>TTMDBLoginState</v>
+        <f t="shared" ref="H165:H196" si="39">"T"&amp;M165&amp;B165</f>
+        <v>TTMDBCache</v>
       </c>
       <c r="I165" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+        <v xml:space="preserve">  ITMDBCache = interface;</v>
       </c>
       <c r="J165" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+        <v xml:space="preserve">  TTMDBCache = class;</v>
       </c>
       <c r="K165" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+        <f t="shared" ref="K165:K196" si="40">IF(C165="", "  "&amp;G165&amp;" = interface", "  "&amp;G165&amp;" = interface(I"&amp;M165&amp;C165&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCache = interface</v>
       </c>
       <c r="L165" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+        <f t="shared" ref="L165:L196" si="41">IF(C165="", "  "&amp;H165&amp;" = class(TInterfacedObject, "&amp;G165&amp;")", "  "&amp;H165&amp;" = class(T"&amp;M165&amp;C165&amp;", "&amp;G165&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>301</v>
@@ -13162,7 +13138,7 @@
         <v>454</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>459</v>
@@ -13175,56 +13151,71 @@
       </c>
       <c r="G166" s="8" t="str">
         <f t="shared" si="38"/>
-        <v>ITMDBClient</v>
+        <v>ITMDBLoginState</v>
       </c>
       <c r="H166" s="8" t="str">
         <f t="shared" si="39"/>
-        <v>TTMDBClient</v>
+        <v>TTMDBLoginState</v>
       </c>
       <c r="I166" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDBClient = interface;</v>
+        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
       </c>
       <c r="J166" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDBClient = class;</v>
+        <v xml:space="preserve">  TTMDBLoginState = class;</v>
       </c>
       <c r="K166" s="8" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">  ITMDBClient = interface</v>
+        <v xml:space="preserve">  ITMDBLoginState = interface</v>
       </c>
       <c r="L166" s="8" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
+        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="G167" s="8" t="str">
         <f t="shared" si="38"/>
-        <v>ITMDB</v>
+        <v>ITMDBClient</v>
       </c>
       <c r="H167" s="8" t="str">
         <f t="shared" si="39"/>
-        <v>TTMDB</v>
+        <v>TTMDBClient</v>
       </c>
       <c r="I167" s="8" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
+        <v xml:space="preserve">  ITMDBClient = interface;</v>
       </c>
       <c r="J167" s="8" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
+        <v xml:space="preserve">  TTMDBClient = class;</v>
       </c>
       <c r="K167" s="8" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
+        <v xml:space="preserve">  ITMDBClient = interface</v>
       </c>
       <c r="L167" s="8" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
+        <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>301</v>
@@ -13791,11 +13782,11 @@
         <v>TTMDB</v>
       </c>
       <c r="I187" s="8" t="str">
-        <f t="shared" ref="I187:I203" si="42">"  "&amp;G187&amp;" = interface;"</f>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J187" s="8" t="str">
-        <f t="shared" ref="J187:J203" si="43">"  "&amp;H187&amp;" = class;"</f>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K187" s="8" t="str">
@@ -13820,11 +13811,11 @@
         <v>TTMDB</v>
       </c>
       <c r="I188" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="I188:I204" si="42">"  "&amp;G188&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J188" s="8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="J188:J204" si="43">"  "&amp;H188&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K188" s="8" t="str">
@@ -14044,11 +14035,11 @@
     </row>
     <row r="196" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G196" s="8" t="str">
-        <f t="shared" ref="G196:G203" si="44">"I"&amp;M196&amp;B196</f>
+        <f t="shared" si="38"/>
         <v>ITMDB</v>
       </c>
       <c r="H196" s="8" t="str">
-        <f t="shared" ref="H196:H203" si="45">"T"&amp;M196&amp;B196</f>
+        <f t="shared" si="39"/>
         <v>TTMDB</v>
       </c>
       <c r="I196" s="8" t="str">
@@ -14060,11 +14051,11 @@
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K196" s="8" t="str">
-        <f t="shared" ref="K196:K203" si="46">IF(C196="", "  "&amp;G196&amp;" = interface", "  "&amp;G196&amp;" = interface(I"&amp;M196&amp;C196&amp;")")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L196" s="8" t="str">
-        <f t="shared" ref="L196:L227" si="47">IF(C196="", "  "&amp;H196&amp;" = class(TInterfacedObject, "&amp;G196&amp;")", "  "&amp;H196&amp;" = class(T"&amp;M196&amp;C196&amp;", "&amp;G196&amp;")")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M196" s="8" t="s">
@@ -14073,11 +14064,11 @@
     </row>
     <row r="197" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G197" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="G197:G204" si="44">"I"&amp;M197&amp;B197</f>
         <v>ITMDB</v>
       </c>
       <c r="H197" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="H197:H204" si="45">"T"&amp;M197&amp;B197</f>
         <v>TTMDB</v>
       </c>
       <c r="I197" s="8" t="str">
@@ -14089,11 +14080,11 @@
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K197" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="K197:K204" si="46">IF(C197="", "  "&amp;G197&amp;" = interface", "  "&amp;G197&amp;" = interface(I"&amp;M197&amp;C197&amp;")")</f>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L197" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="L197:L228" si="47">IF(C197="", "  "&amp;H197&amp;" = class(TInterfacedObject, "&amp;G197&amp;")", "  "&amp;H197&amp;" = class(T"&amp;M197&amp;C197&amp;", "&amp;G197&amp;")")</f>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M197" s="8" t="s">
@@ -14271,6 +14262,35 @@
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M203" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="204" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G204" s="8" t="str">
+        <f t="shared" si="44"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H204" s="8" t="str">
+        <f t="shared" si="45"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I204" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J204" s="8" t="str">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">  TTMDB = class;</v>
+      </c>
+      <c r="K204" s="8" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">  ITMDB = interface</v>
+      </c>
+      <c r="L204" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
+      </c>
+      <c r="M204" s="8" t="s">
         <v>301</v>
       </c>
     </row>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C978D9F3-F55B-4B42-A1CB-EAE69C50710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE9B7A7-4DA4-46C8-B010-5548BE35FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="449">
   <si>
     <t>Namespace</t>
   </si>
@@ -1869,8 +1869,8 @@
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,7 +2998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3252,14 +3252,11 @@
       <c r="F60" t="s">
         <v>205</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H60" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3282,7 +3279,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3305,7 +3302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3328,7 +3325,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108E71C-3AC4-49B6-BD00-9EAFDD1A8703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D50CC-28D4-45C4-B2D6-2C75D295258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="451">
   <si>
     <t>Namespace</t>
   </si>
@@ -1391,6 +1391,9 @@
   </si>
   <si>
     <t>ChangeRefPage</t>
+  </si>
+  <si>
+    <t>CreditDetail</t>
   </si>
 </sst>
 </file>
@@ -1871,9 +1874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,8 +2767,8 @@
       <c r="F38" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>74</v>
+      <c r="G38" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3761,8 +3764,8 @@
       <c r="F82" t="s">
         <v>221</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>74</v>
+      <c r="G82" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4456,8 +4459,8 @@
       <c r="F113" t="s">
         <v>78</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>74</v>
+      <c r="G113" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4479,8 +4482,8 @@
       <c r="F114" t="s">
         <v>249</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>74</v>
+      <c r="G114" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4548,8 +4551,8 @@
       <c r="F117" t="s">
         <v>212</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>74</v>
+      <c r="G117" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4617,8 +4620,8 @@
       <c r="F120" t="s">
         <v>248</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>74</v>
+      <c r="G120" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4640,8 +4643,8 @@
       <c r="F121" t="s">
         <v>55</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>74</v>
+      <c r="G121" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4663,8 +4666,8 @@
       <c r="F122" t="s">
         <v>54</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>74</v>
+      <c r="G122" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4686,8 +4689,8 @@
       <c r="F123" t="s">
         <v>215</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>74</v>
+      <c r="G123" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5342,11 +5345,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9066,27 +9069,27 @@
         <v>255</v>
       </c>
       <c r="G82" s="8" t="str">
-        <f t="shared" ref="G82:G111" si="16">"I"&amp;M82&amp;B82</f>
+        <f t="shared" ref="G82:G112" si="16">"I"&amp;M82&amp;B82</f>
         <v>ITMDBPerson</v>
       </c>
       <c r="H82" s="8" t="str">
-        <f t="shared" ref="H82:H111" si="17">"T"&amp;M82&amp;B82</f>
+        <f t="shared" ref="H82:H112" si="17">"T"&amp;M82&amp;B82</f>
         <v>TTMDBPerson</v>
       </c>
       <c r="I82" s="8" t="str">
-        <f t="shared" ref="I82:I130" si="18">"  "&amp;G82&amp;" = interface;"</f>
+        <f t="shared" ref="I82:I131" si="18">"  "&amp;G82&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBPerson = interface;</v>
       </c>
       <c r="J82" s="8" t="str">
-        <f t="shared" ref="J82:J130" si="19">"  "&amp;H82&amp;" = class;"</f>
+        <f t="shared" ref="J82:J131" si="19">"  "&amp;H82&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBPerson = class;</v>
       </c>
       <c r="K82" s="8" t="str">
-        <f t="shared" ref="K82:K111" si="20">IF(C82="", "  "&amp;G82&amp;" = interface", "  "&amp;G82&amp;" = interface(I"&amp;M82&amp;C82&amp;")")</f>
+        <f t="shared" ref="K82:K112" si="20">IF(C82="", "  "&amp;G82&amp;" = interface", "  "&amp;G82&amp;" = interface(I"&amp;M82&amp;C82&amp;")")</f>
         <v xml:space="preserve">  ITMDBPerson = interface(ITMDBMedium)</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" ref="L82:L111" si="21">IF(C82="", "  "&amp;H82&amp;" = class(TInterfacedObject, "&amp;G82&amp;")", "  "&amp;H82&amp;" = class(T"&amp;M82&amp;C82&amp;", "&amp;G82&amp;")")</f>
+        <f t="shared" ref="L82:L112" si="21">IF(C82="", "  "&amp;H82&amp;" = class(TInterfacedObject, "&amp;G82&amp;")", "  "&amp;H82&amp;" = class(T"&amp;M82&amp;C82&amp;", "&amp;G82&amp;")")</f>
         <v xml:space="preserve">  TTMDBPerson = class(TTMDBMedium, ITMDBPerson)</v>
       </c>
       <c r="M82" s="8" t="s">
@@ -9468,13 +9471,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>378</v>
@@ -9486,28 +9486,28 @@
         <v>74</v>
       </c>
       <c r="G91" s="8" t="str">
-        <f>"I"&amp;M91&amp;B91</f>
-        <v>ITMDBList</v>
+        <f t="shared" ref="G91" si="22">"I"&amp;M91&amp;B91</f>
+        <v>ITMDBCreditDetail</v>
       </c>
       <c r="H91" s="8" t="str">
-        <f>"T"&amp;M91&amp;B91</f>
-        <v>TTMDBList</v>
+        <f t="shared" ref="H91" si="23">"T"&amp;M91&amp;B91</f>
+        <v>TTMDBCreditDetail</v>
       </c>
       <c r="I91" s="8" t="str">
-        <f>"  "&amp;G91&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBList = interface;</v>
+        <f t="shared" ref="I91" si="24">"  "&amp;G91&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBCreditDetail = interface;</v>
       </c>
       <c r="J91" s="8" t="str">
-        <f>"  "&amp;H91&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBList = class;</v>
+        <f t="shared" ref="J91" si="25">"  "&amp;H91&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBCreditDetail = class;</v>
       </c>
       <c r="K91" s="8" t="str">
-        <f>IF(C91="", "  "&amp;G91&amp;" = interface", "  "&amp;G91&amp;" = interface(I"&amp;M91&amp;C91&amp;")")</f>
-        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
+        <f t="shared" ref="K91" si="26">IF(C91="", "  "&amp;G91&amp;" = interface", "  "&amp;G91&amp;" = interface(I"&amp;M91&amp;C91&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCreditDetail = interface</v>
       </c>
       <c r="L91" s="8" t="str">
-        <f>IF(C91="", "  "&amp;H91&amp;" = class(TInterfacedObject, "&amp;G91&amp;")", "  "&amp;H91&amp;" = class(T"&amp;M91&amp;C91&amp;", "&amp;G91&amp;")")</f>
-        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
+        <f t="shared" ref="L91" si="27">IF(C91="", "  "&amp;H91&amp;" = class(TInterfacedObject, "&amp;G91&amp;")", "  "&amp;H91&amp;" = class(T"&amp;M91&amp;C91&amp;", "&amp;G91&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCreditDetail = class(TInterfacedObject, ITMDBCreditDetail)</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>259</v>
@@ -9518,10 +9518,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>8</v>
+        <v>357</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>378</v>
@@ -9534,27 +9534,27 @@
       </c>
       <c r="G92" s="8" t="str">
         <f>"I"&amp;M92&amp;B92</f>
-        <v>ITMDBLists</v>
+        <v>ITMDBList</v>
       </c>
       <c r="H92" s="8" t="str">
         <f>"T"&amp;M92&amp;B92</f>
-        <v>TTMDBLists</v>
+        <v>TTMDBList</v>
       </c>
       <c r="I92" s="8" t="str">
         <f>"  "&amp;G92&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBLists = interface;</v>
+        <v xml:space="preserve">  ITMDBList = interface;</v>
       </c>
       <c r="J92" s="8" t="str">
         <f>"  "&amp;H92&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBLists = class;</v>
+        <v xml:space="preserve">  TTMDBList = class;</v>
       </c>
       <c r="K92" s="8" t="str">
         <f>IF(C92="", "  "&amp;G92&amp;" = interface", "  "&amp;G92&amp;" = interface(I"&amp;M92&amp;C92&amp;")")</f>
-        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
       </c>
       <c r="L92" s="8" t="str">
         <f>IF(C92="", "  "&amp;H92&amp;" = class(TInterfacedObject, "&amp;G92&amp;")", "  "&amp;H92&amp;" = class(T"&amp;M92&amp;C92&amp;", "&amp;G92&amp;")")</f>
-        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
+        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>259</v>
@@ -9565,10 +9565,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>358</v>
+        <v>8</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>378</v>
@@ -9581,27 +9581,27 @@
       </c>
       <c r="G93" s="8" t="str">
         <f>"I"&amp;M93&amp;B93</f>
-        <v>ITMDBListPage</v>
+        <v>ITMDBLists</v>
       </c>
       <c r="H93" s="8" t="str">
         <f>"T"&amp;M93&amp;B93</f>
-        <v>TTMDBListPage</v>
+        <v>TTMDBLists</v>
       </c>
       <c r="I93" s="8" t="str">
         <f>"  "&amp;G93&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBListPage = interface;</v>
+        <v xml:space="preserve">  ITMDBLists = interface;</v>
       </c>
       <c r="J93" s="8" t="str">
         <f>"  "&amp;H93&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBListPage = class;</v>
+        <v xml:space="preserve">  TTMDBLists = class;</v>
       </c>
       <c r="K93" s="8" t="str">
         <f>IF(C93="", "  "&amp;G93&amp;" = interface", "  "&amp;G93&amp;" = interface(I"&amp;M93&amp;C93&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
+        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
       </c>
       <c r="L93" s="8" t="str">
         <f>IF(C93="", "  "&amp;H93&amp;" = class(TInterfacedObject, "&amp;G93&amp;")", "  "&amp;H93&amp;" = class(T"&amp;M93&amp;C93&amp;", "&amp;G93&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
+        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>259</v>
@@ -9612,10 +9612,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>378</v>
@@ -9628,27 +9628,27 @@
       </c>
       <c r="G94" s="8" t="str">
         <f>"I"&amp;M94&amp;B94</f>
-        <v>ITMDBListDetail</v>
+        <v>ITMDBListPage</v>
       </c>
       <c r="H94" s="8" t="str">
         <f>"T"&amp;M94&amp;B94</f>
-        <v>TTMDBListDetail</v>
+        <v>TTMDBListPage</v>
       </c>
       <c r="I94" s="8" t="str">
         <f>"  "&amp;G94&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBListPage = interface;</v>
       </c>
       <c r="J94" s="8" t="str">
         <f>"  "&amp;H94&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBListDetail = class;</v>
+        <v xml:space="preserve">  TTMDBListPage = class;</v>
       </c>
       <c r="K94" s="8" t="str">
         <f>IF(C94="", "  "&amp;G94&amp;" = interface", "  "&amp;G94&amp;" = interface(I"&amp;M94&amp;C94&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
       </c>
       <c r="L94" s="8" t="str">
         <f>IF(C94="", "  "&amp;H94&amp;" = class(TInterfacedObject, "&amp;G94&amp;")", "  "&amp;H94&amp;" = class(T"&amp;M94&amp;C94&amp;", "&amp;G94&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
+        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>259</v>
@@ -9656,10 +9656,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>386</v>
+        <v>359</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>378</v>
@@ -9667,32 +9670,32 @@
       <c r="E95" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>255</v>
+      <c r="F95" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G95" s="8" t="str">
         <f>"I"&amp;M95&amp;B95</f>
-        <v>ITMDBReviewAuthor</v>
+        <v>ITMDBListDetail</v>
       </c>
       <c r="H95" s="8" t="str">
         <f>"T"&amp;M95&amp;B95</f>
-        <v>TTMDBReviewAuthor</v>
+        <v>TTMDBListDetail</v>
       </c>
       <c r="I95" s="8" t="str">
         <f>"  "&amp;G95&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewAuthor = interface;</v>
+        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
       </c>
       <c r="J95" s="8" t="str">
         <f>"  "&amp;H95&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewAuthor = class;</v>
+        <v xml:space="preserve">  TTMDBListDetail = class;</v>
       </c>
       <c r="K95" s="8" t="str">
         <f>IF(C95="", "  "&amp;G95&amp;" = interface", "  "&amp;G95&amp;" = interface(I"&amp;M95&amp;C95&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewAuthor = interface</v>
+        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L95" s="8" t="str">
         <f>IF(C95="", "  "&amp;H95&amp;" = class(TInterfacedObject, "&amp;G95&amp;")", "  "&amp;H95&amp;" = class(T"&amp;M95&amp;C95&amp;", "&amp;G95&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewAuthor = class(TInterfacedObject, ITMDBReviewAuthor)</v>
+        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>259</v>
@@ -9703,10 +9706,7 @@
         <v>147</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>378</v>
@@ -9719,27 +9719,27 @@
       </c>
       <c r="G96" s="8" t="str">
         <f>"I"&amp;M96&amp;B96</f>
-        <v>ITMDBReview</v>
+        <v>ITMDBReviewAuthor</v>
       </c>
       <c r="H96" s="8" t="str">
         <f>"T"&amp;M96&amp;B96</f>
-        <v>TTMDBReview</v>
+        <v>TTMDBReviewAuthor</v>
       </c>
       <c r="I96" s="8" t="str">
         <f>"  "&amp;G96&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReview = interface;</v>
+        <v xml:space="preserve">  ITMDBReviewAuthor = interface;</v>
       </c>
       <c r="J96" s="8" t="str">
         <f>"  "&amp;H96&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReview = class;</v>
+        <v xml:space="preserve">  TTMDBReviewAuthor = class;</v>
       </c>
       <c r="K96" s="8" t="str">
         <f>IF(C96="", "  "&amp;G96&amp;" = interface", "  "&amp;G96&amp;" = interface(I"&amp;M96&amp;C96&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReview = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBReviewAuthor = interface</v>
       </c>
       <c r="L96" s="8" t="str">
         <f>IF(C96="", "  "&amp;H96&amp;" = class(TInterfacedObject, "&amp;G96&amp;")", "  "&amp;H96&amp;" = class(T"&amp;M96&amp;C96&amp;", "&amp;G96&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReview = class(TTMDBItem, ITMDBReview)</v>
+        <v xml:space="preserve">  TTMDBReviewAuthor = class(TInterfacedObject, ITMDBReviewAuthor)</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>259</v>
@@ -9750,10 +9750,10 @@
         <v>147</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>378</v>
@@ -9766,27 +9766,27 @@
       </c>
       <c r="G97" s="8" t="str">
         <f>"I"&amp;M97&amp;B97</f>
-        <v>ITMDBReviews</v>
+        <v>ITMDBReview</v>
       </c>
       <c r="H97" s="8" t="str">
         <f>"T"&amp;M97&amp;B97</f>
-        <v>TTMDBReviews</v>
+        <v>TTMDBReview</v>
       </c>
       <c r="I97" s="8" t="str">
         <f>"  "&amp;G97&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviews = interface;</v>
+        <v xml:space="preserve">  ITMDBReview = interface;</v>
       </c>
       <c r="J97" s="8" t="str">
         <f>"  "&amp;H97&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviews = class;</v>
+        <v xml:space="preserve">  TTMDBReview = class;</v>
       </c>
       <c r="K97" s="8" t="str">
         <f>IF(C97="", "  "&amp;G97&amp;" = interface", "  "&amp;G97&amp;" = interface(I"&amp;M97&amp;C97&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviews = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBReview = interface(ITMDBItem)</v>
       </c>
       <c r="L97" s="8" t="str">
         <f>IF(C97="", "  "&amp;H97&amp;" = class(TInterfacedObject, "&amp;G97&amp;")", "  "&amp;H97&amp;" = class(T"&amp;M97&amp;C97&amp;", "&amp;G97&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviews = class(TTMDBItems, ITMDBReviews)</v>
+        <v xml:space="preserve">  TTMDBReview = class(TTMDBItem, ITMDBReview)</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>259</v>
@@ -9797,10 +9797,10 @@
         <v>147</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>385</v>
+        <v>147</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>378</v>
@@ -9813,27 +9813,27 @@
       </c>
       <c r="G98" s="8" t="str">
         <f>"I"&amp;M98&amp;B98</f>
-        <v>ITMDBReviewPage</v>
+        <v>ITMDBReviews</v>
       </c>
       <c r="H98" s="8" t="str">
         <f>"T"&amp;M98&amp;B98</f>
-        <v>TTMDBReviewPage</v>
+        <v>TTMDBReviews</v>
       </c>
       <c r="I98" s="8" t="str">
         <f>"  "&amp;G98&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewPage = interface;</v>
+        <v xml:space="preserve">  ITMDBReviews = interface;</v>
       </c>
       <c r="J98" s="8" t="str">
         <f>"  "&amp;H98&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewPage = class;</v>
+        <v xml:space="preserve">  TTMDBReviews = class;</v>
       </c>
       <c r="K98" s="8" t="str">
         <f>IF(C98="", "  "&amp;G98&amp;" = interface", "  "&amp;G98&amp;" = interface(I"&amp;M98&amp;C98&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewPage = interface(ITMDBPage)</v>
+        <v xml:space="preserve">  ITMDBReviews = interface(ITMDBItems)</v>
       </c>
       <c r="L98" s="8" t="str">
         <f>IF(C98="", "  "&amp;H98&amp;" = class(TInterfacedObject, "&amp;G98&amp;")", "  "&amp;H98&amp;" = class(T"&amp;M98&amp;C98&amp;", "&amp;G98&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewPage = class(TTMDBPage, ITMDBReviewPage)</v>
+        <v xml:space="preserve">  TTMDBReviews = class(TTMDBItems, ITMDBReviews)</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>259</v>
@@ -9844,7 +9844,10 @@
         <v>147</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>378</v>
@@ -9852,32 +9855,32 @@
       <c r="E99" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F99" s="12" t="s">
-        <v>74</v>
+      <c r="F99" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G99" s="8" t="str">
         <f>"I"&amp;M99&amp;B99</f>
-        <v>ITMDBReviewDetail</v>
+        <v>ITMDBReviewPage</v>
       </c>
       <c r="H99" s="8" t="str">
         <f>"T"&amp;M99&amp;B99</f>
-        <v>TTMDBReviewDetail</v>
+        <v>TTMDBReviewPage</v>
       </c>
       <c r="I99" s="8" t="str">
         <f>"  "&amp;G99&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBReviewPage = interface;</v>
       </c>
       <c r="J99" s="8" t="str">
         <f>"  "&amp;H99&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewDetail = class;</v>
+        <v xml:space="preserve">  TTMDBReviewPage = class;</v>
       </c>
       <c r="K99" s="8" t="str">
         <f>IF(C99="", "  "&amp;G99&amp;" = interface", "  "&amp;G99&amp;" = interface(I"&amp;M99&amp;C99&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewDetail = interface</v>
+        <v xml:space="preserve">  ITMDBReviewPage = interface(ITMDBPage)</v>
       </c>
       <c r="L99" s="8" t="str">
         <f>IF(C99="", "  "&amp;H99&amp;" = class(TInterfacedObject, "&amp;G99&amp;")", "  "&amp;H99&amp;" = class(T"&amp;M99&amp;C99&amp;", "&amp;G99&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewDetail = class(TInterfacedObject, ITMDBReviewDetail)</v>
+        <v xml:space="preserve">  TTMDBReviewPage = class(TTMDBPage, ITMDBReviewPage)</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>259</v>
@@ -9885,13 +9888,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>378</v>
@@ -9899,32 +9899,32 @@
       <c r="E100" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F100" s="14" t="s">
-        <v>378</v>
+      <c r="F100" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f t="shared" si="16"/>
-        <v>ITMDBMovie</v>
+        <f>"I"&amp;M100&amp;B100</f>
+        <v>ITMDBReviewDetail</v>
       </c>
       <c r="H100" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>TTMDBMovie</v>
+        <f>"T"&amp;M100&amp;B100</f>
+        <v>TTMDBReviewDetail</v>
       </c>
       <c r="I100" s="8" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMovie = interface;</v>
+        <f>"  "&amp;G100&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBReviewDetail = interface;</v>
       </c>
       <c r="J100" s="8" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMovie = class;</v>
+        <f>"  "&amp;H100&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBReviewDetail = class;</v>
       </c>
       <c r="K100" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
+        <f>IF(C100="", "  "&amp;G100&amp;" = interface", "  "&amp;G100&amp;" = interface(I"&amp;M100&amp;C100&amp;")")</f>
+        <v xml:space="preserve">  ITMDBReviewDetail = interface</v>
       </c>
       <c r="L100" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
+        <f>IF(C100="", "  "&amp;H100&amp;" = class(TInterfacedObject, "&amp;G100&amp;")", "  "&amp;H100&amp;" = class(T"&amp;M100&amp;C100&amp;", "&amp;G100&amp;")")</f>
+        <v xml:space="preserve">  TTMDBReviewDetail = class(TInterfacedObject, ITMDBReviewDetail)</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>259</v>
@@ -9935,10 +9935,10 @@
         <v>140</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>378</v>
@@ -9951,27 +9951,27 @@
       </c>
       <c r="G101" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMovies</v>
+        <v>ITMDBMovie</v>
       </c>
       <c r="H101" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMovies</v>
+        <v>TTMDBMovie</v>
       </c>
       <c r="I101" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBMovie = interface;</v>
       </c>
       <c r="J101" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMovies = class;</v>
+        <v xml:space="preserve">  TTMDBMovie = class;</v>
       </c>
       <c r="K101" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
       </c>
       <c r="L101" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
+        <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>259</v>
@@ -9982,10 +9982,10 @@
         <v>140</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>378</v>
@@ -9998,27 +9998,27 @@
       </c>
       <c r="G102" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMoviePage</v>
+        <v>ITMDBMovies</v>
       </c>
       <c r="H102" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMoviePage</v>
+        <v>TTMDBMovies</v>
       </c>
       <c r="I102" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBMovies = interface;</v>
       </c>
       <c r="J102" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBMovies = class;</v>
       </c>
       <c r="K102" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
       </c>
       <c r="L102" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
+        <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>259</v>
@@ -10029,10 +10029,10 @@
         <v>140</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>378</v>
@@ -10040,32 +10040,32 @@
       <c r="E103" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F103" s="12" t="s">
-        <v>74</v>
+      <c r="F103" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G103" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedMovie</v>
+        <v>ITMDBMoviePage</v>
       </c>
       <c r="H103" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedMovie</v>
+        <v>TTMDBMoviePage</v>
       </c>
       <c r="I103" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
+        <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
       </c>
       <c r="J103" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
+        <v xml:space="preserve">  TTMDBMoviePage = class;</v>
       </c>
       <c r="K103" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
+        <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L103" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
+        <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>259</v>
@@ -10076,10 +10076,10 @@
         <v>140</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>378</v>
@@ -10092,27 +10092,27 @@
       </c>
       <c r="G104" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedMovies</v>
+        <v>ITMDBRatedMovie</v>
       </c>
       <c r="H104" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedMovies</v>
+        <v>TTMDBRatedMovie</v>
       </c>
       <c r="I104" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
       </c>
       <c r="J104" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
       </c>
       <c r="K104" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
+        <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
       </c>
       <c r="L104" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
+        <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>259</v>
@@ -10123,10 +10123,10 @@
         <v>140</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>378</v>
@@ -10139,27 +10139,27 @@
       </c>
       <c r="G105" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedMoviePage</v>
+        <v>ITMDBRatedMovies</v>
       </c>
       <c r="H105" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedMoviePage</v>
+        <v>TTMDBRatedMovies</v>
       </c>
       <c r="I105" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
       </c>
       <c r="J105" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
       </c>
       <c r="K105" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
+        <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
       </c>
       <c r="L105" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
+        <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>259</v>
@@ -10170,7 +10170,10 @@
         <v>140</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>378</v>
@@ -10183,27 +10186,27 @@
       </c>
       <c r="G106" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMovieCollectionRef</v>
+        <v>ITMDBRatedMoviePage</v>
       </c>
       <c r="H106" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMovieCollectionRef</v>
+        <v>TTMDBRatedMoviePage</v>
       </c>
       <c r="I106" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
       </c>
       <c r="J106" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
       </c>
       <c r="K106" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
+        <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L106" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
+        <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>259</v>
@@ -10214,10 +10217,7 @@
         <v>140</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>154</v>
+        <v>332</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>378</v>
@@ -10225,32 +10225,32 @@
       <c r="E107" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F107" s="15" t="s">
-        <v>256</v>
+      <c r="F107" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G107" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMovieDetail</v>
+        <v>ITMDBMovieCollectionRef</v>
       </c>
       <c r="H107" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMovieDetail</v>
+        <v>TTMDBMovieCollectionRef</v>
       </c>
       <c r="I107" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
       </c>
       <c r="J107" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
+        <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
       </c>
       <c r="K107" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
       </c>
       <c r="L107" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
+        <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>259</v>
@@ -10258,10 +10258,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>378</v>
@@ -10269,32 +10272,32 @@
       <c r="E108" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F108" s="12" t="s">
-        <v>74</v>
+      <c r="F108" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G108" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBDateRange</v>
+        <v>ITMDBMovieDetail</v>
       </c>
       <c r="H108" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBDateRange</v>
+        <v>TTMDBMovieDetail</v>
       </c>
       <c r="I108" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBDateRange = interface;</v>
+        <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
       </c>
       <c r="J108" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBDateRange = class;</v>
+        <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
       </c>
       <c r="K108" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBDateRange = interface</v>
+        <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L108" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
+        <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>259</v>
@@ -10305,10 +10308,7 @@
         <v>135</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>378</v>
@@ -10321,27 +10321,27 @@
       </c>
       <c r="G109" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBDatedMoviePage</v>
+        <v>ITMDBDateRange</v>
       </c>
       <c r="H109" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBDatedMoviePage</v>
+        <v>TTMDBDateRange</v>
       </c>
       <c r="I109" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBDateRange = interface;</v>
       </c>
       <c r="J109" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBDateRange = class;</v>
       </c>
       <c r="K109" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
+        <v xml:space="preserve">  ITMDBDateRange = interface</v>
       </c>
       <c r="L109" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
+        <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>259</v>
@@ -10349,46 +10349,46 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>255</v>
+        <v>328</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G110" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVSerie</v>
+        <v>ITMDBDatedMoviePage</v>
       </c>
       <c r="H110" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVSerie</v>
+        <v>TTMDBDatedMoviePage</v>
       </c>
       <c r="I110" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
+        <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
       </c>
       <c r="J110" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSerie = class;</v>
+        <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
       </c>
       <c r="K110" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
+        <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L110" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
+        <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>259</v>
@@ -10399,43 +10399,43 @@
         <v>172</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>378</v>
+        <v>272</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G111" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVSeries</v>
+        <v>ITMDBTVSerie</v>
       </c>
       <c r="H111" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVSeries</v>
+        <v>TTMDBTVSerie</v>
       </c>
       <c r="I111" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
       </c>
       <c r="J111" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBTVSerie = class;</v>
       </c>
       <c r="K111" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
       </c>
       <c r="L111" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
+        <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>259</v>
@@ -10446,10 +10446,10 @@
         <v>172</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>378</v>
@@ -10457,32 +10457,32 @@
       <c r="E112" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F112" s="12" t="s">
-        <v>74</v>
+      <c r="F112" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G112" s="8" t="str">
-        <f t="shared" ref="G112:G132" si="22">"I"&amp;M112&amp;B112</f>
-        <v>ITMDBTVSeriesPage</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBTVSeries</v>
       </c>
       <c r="H112" s="8" t="str">
-        <f t="shared" ref="H112:H132" si="23">"T"&amp;M112&amp;B112</f>
-        <v>TTMDBTVSeriesPage</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBTVSeries</v>
       </c>
       <c r="I112" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
       </c>
       <c r="J112" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeries = class;</v>
       </c>
       <c r="K112" s="8" t="str">
-        <f t="shared" ref="K112:K132" si="24">IF(C112="", "  "&amp;G112&amp;" = interface", "  "&amp;G112&amp;" = interface(I"&amp;M112&amp;C112&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
       </c>
       <c r="L112" s="8" t="str">
-        <f t="shared" ref="L112:L132" si="25">IF(C112="", "  "&amp;H112&amp;" = class(TInterfacedObject, "&amp;G112&amp;")", "  "&amp;H112&amp;" = class(T"&amp;M112&amp;C112&amp;", "&amp;G112&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>259</v>
@@ -10493,10 +10493,10 @@
         <v>172</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>378</v>
@@ -10508,28 +10508,28 @@
         <v>74</v>
       </c>
       <c r="G113" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBRatedTVSerie</v>
+        <f t="shared" ref="G113:G133" si="28">"I"&amp;M113&amp;B113</f>
+        <v>ITMDBTVSeriesPage</v>
       </c>
       <c r="H113" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBRatedTVSerie</v>
+        <f t="shared" ref="H113:H133" si="29">"T"&amp;M113&amp;B113</f>
+        <v>TTMDBTVSeriesPage</v>
       </c>
       <c r="I113" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
       </c>
       <c r="J113" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
       </c>
       <c r="K113" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
+        <f t="shared" ref="K113:K133" si="30">IF(C113="", "  "&amp;G113&amp;" = interface", "  "&amp;G113&amp;" = interface(I"&amp;M113&amp;C113&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L113" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
+        <f t="shared" ref="L113:L133" si="31">IF(C113="", "  "&amp;H113&amp;" = class(TInterfacedObject, "&amp;G113&amp;")", "  "&amp;H113&amp;" = class(T"&amp;M113&amp;C113&amp;", "&amp;G113&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
       </c>
       <c r="M113" s="8" t="s">
         <v>259</v>
@@ -10540,10 +10540,10 @@
         <v>172</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>378</v>
@@ -10555,28 +10555,28 @@
         <v>74</v>
       </c>
       <c r="G114" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBRatedTVSeries</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBRatedTVSerie</v>
       </c>
       <c r="H114" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBRatedTVSeries</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBRatedTVSerie</v>
       </c>
       <c r="I114" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
       </c>
       <c r="J114" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
       </c>
       <c r="K114" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
       </c>
       <c r="L114" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>259</v>
@@ -10587,10 +10587,10 @@
         <v>172</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>378</v>
@@ -10602,28 +10602,28 @@
         <v>74</v>
       </c>
       <c r="G115" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBRatedTVSeriesPage</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBRatedTVSeries</v>
       </c>
       <c r="H115" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBRatedTVSeriesPage</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBRatedTVSeries</v>
       </c>
       <c r="I115" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
       </c>
       <c r="J115" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
       </c>
       <c r="K115" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
       </c>
       <c r="L115" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
       </c>
       <c r="M115" s="8" t="s">
         <v>259</v>
@@ -10634,43 +10634,43 @@
         <v>172</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>256</v>
+        <v>341</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G116" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVSerieDetail</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBRatedTVSeriesPage</v>
       </c>
       <c r="H116" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVSerieDetail</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBRatedTVSeriesPage</v>
       </c>
       <c r="I116" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSerieDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
       </c>
       <c r="J116" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSerieDetail = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
       </c>
       <c r="K116" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVSerieDetail = interface(ITMDBDetail)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
       </c>
       <c r="L116" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVSerieDetail = class(TTMDBDetail, ITMDBTVSerieDetail)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
       </c>
       <c r="M116" s="8" t="s">
         <v>259</v>
@@ -10678,46 +10678,46 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>74</v>
+        <v>154</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G117" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVSeason</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVSerieDetail</v>
       </c>
       <c r="H117" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVSeason</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVSerieDetail</v>
       </c>
       <c r="I117" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSerieDetail = interface;</v>
       </c>
       <c r="J117" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeason = class;</v>
+        <v xml:space="preserve">  TTMDBTVSerieDetail = class;</v>
       </c>
       <c r="K117" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVSerieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L117" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVSerieDetail = class(TTMDBDetail, ITMDBTVSerieDetail)</v>
       </c>
       <c r="M117" s="8" t="s">
         <v>259</v>
@@ -10728,10 +10728,10 @@
         <v>177</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>378</v>
@@ -10743,28 +10743,28 @@
         <v>74</v>
       </c>
       <c r="G118" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVSeasons</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVSeason</v>
       </c>
       <c r="H118" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVSeasons</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVSeason</v>
       </c>
       <c r="I118" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
       </c>
       <c r="J118" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeason = class;</v>
       </c>
       <c r="K118" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
       </c>
       <c r="L118" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>259</v>
@@ -10775,10 +10775,10 @@
         <v>177</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>378</v>
@@ -10790,28 +10790,28 @@
         <v>74</v>
       </c>
       <c r="G119" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVSeasonPage</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVSeasons</v>
       </c>
       <c r="H119" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVSeasonPage</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVSeasons</v>
       </c>
       <c r="I119" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
       </c>
       <c r="J119" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
       </c>
       <c r="K119" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
       </c>
       <c r="L119" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
       </c>
       <c r="M119" s="8" t="s">
         <v>259</v>
@@ -10822,13 +10822,13 @@
         <v>177</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>256</v>
+        <v>274</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>74</v>
@@ -10837,28 +10837,28 @@
         <v>74</v>
       </c>
       <c r="G120" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVSeasonDetail</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVSeasonPage</v>
       </c>
       <c r="H120" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVSeasonDetail</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVSeasonPage</v>
       </c>
       <c r="I120" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
       </c>
       <c r="J120" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
       </c>
       <c r="K120" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L120" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>259</v>
@@ -10869,12 +10869,12 @@
         <v>177</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D121" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="15" t="s">
         <v>256</v>
       </c>
       <c r="E121" s="12" t="s">
@@ -10884,28 +10884,28 @@
         <v>74</v>
       </c>
       <c r="G121" s="8" t="str">
-        <f t="shared" ref="G121" si="26">"I"&amp;M121&amp;B121</f>
-        <v>ITMDBTVSeasonEpisode</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVSeasonDetail</v>
       </c>
       <c r="H121" s="8" t="str">
-        <f t="shared" ref="H121" si="27">"T"&amp;M121&amp;B121</f>
-        <v>TTMDBTVSeasonEpisode</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVSeasonDetail</v>
       </c>
       <c r="I121" s="8" t="str">
-        <f t="shared" ref="I121" si="28">"  "&amp;G121&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
       </c>
       <c r="J121" s="8" t="str">
-        <f t="shared" ref="J121" si="29">"  "&amp;H121&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
       </c>
       <c r="K121" s="8" t="str">
-        <f t="shared" ref="K121" si="30">IF(C121="", "  "&amp;G121&amp;" = interface", "  "&amp;G121&amp;" = interface(I"&amp;M121&amp;C121&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L121" s="8" t="str">
-        <f t="shared" ref="L121" si="31">IF(C121="", "  "&amp;H121&amp;" = class(TInterfacedObject, "&amp;G121&amp;")", "  "&amp;H121&amp;" = class(T"&amp;M121&amp;C121&amp;", "&amp;G121&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
       </c>
       <c r="M121" s="8" t="s">
         <v>259</v>
@@ -10916,12 +10916,12 @@
         <v>177</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D122" s="16" t="s">
         <v>256</v>
       </c>
       <c r="E122" s="12" t="s">
@@ -10932,27 +10932,27 @@
       </c>
       <c r="G122" s="8" t="str">
         <f t="shared" ref="G122" si="32">"I"&amp;M122&amp;B122</f>
-        <v>ITMDBTVSeasonEpisodes</v>
+        <v>ITMDBTVSeasonEpisode</v>
       </c>
       <c r="H122" s="8" t="str">
         <f t="shared" ref="H122" si="33">"T"&amp;M122&amp;B122</f>
-        <v>TTMDBTVSeasonEpisodes</v>
+        <v>TTMDBTVSeasonEpisode</v>
       </c>
       <c r="I122" s="8" t="str">
         <f t="shared" ref="I122" si="34">"  "&amp;G122&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
       </c>
       <c r="J122" s="8" t="str">
         <f t="shared" ref="J122" si="35">"  "&amp;H122&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
       </c>
       <c r="K122" s="8" t="str">
         <f t="shared" ref="K122" si="36">IF(C122="", "  "&amp;G122&amp;" = interface", "  "&amp;G122&amp;" = interface(I"&amp;M122&amp;C122&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface(ITMDBTVEpisodes)</v>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="L122" s="8" t="str">
         <f t="shared" ref="L122" si="37">IF(C122="", "  "&amp;H122&amp;" = class(TInterfacedObject, "&amp;G122&amp;")", "  "&amp;H122&amp;" = class(T"&amp;M122&amp;C122&amp;", "&amp;G122&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class(TTMDBTVEpisodes, ITMDBTVSeasonEpisodes)</v>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
       </c>
       <c r="M122" s="8" t="s">
         <v>259</v>
@@ -10960,46 +10960,46 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>378</v>
+        <v>350</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G123" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVEpisode</v>
+        <f t="shared" ref="G123" si="38">"I"&amp;M123&amp;B123</f>
+        <v>ITMDBTVSeasonEpisodes</v>
       </c>
       <c r="H123" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVEpisode</v>
+        <f t="shared" ref="H123" si="39">"T"&amp;M123&amp;B123</f>
+        <v>TTMDBTVSeasonEpisodes</v>
       </c>
       <c r="I123" s="8" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
+        <f t="shared" ref="I123" si="40">"  "&amp;G123&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface;</v>
       </c>
       <c r="J123" s="8" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
+        <f t="shared" ref="J123" si="41">"  "&amp;H123&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class;</v>
       </c>
       <c r="K123" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
+        <f t="shared" ref="K123" si="42">IF(C123="", "  "&amp;G123&amp;" = interface", "  "&amp;G123&amp;" = interface(I"&amp;M123&amp;C123&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="L123" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
+        <f t="shared" ref="L123" si="43">IF(C123="", "  "&amp;H123&amp;" = class(TInterfacedObject, "&amp;G123&amp;")", "  "&amp;H123&amp;" = class(T"&amp;M123&amp;C123&amp;", "&amp;G123&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class(TTMDBTVEpisodes, ITMDBTVSeasonEpisodes)</v>
       </c>
       <c r="M123" s="8" t="s">
         <v>259</v>
@@ -11010,10 +11010,10 @@
         <v>178</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>378</v>
@@ -11025,28 +11025,28 @@
         <v>74</v>
       </c>
       <c r="G124" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVEpisodes</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVEpisode</v>
       </c>
       <c r="H124" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVEpisodes</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVEpisode</v>
       </c>
       <c r="I124" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
       </c>
       <c r="J124" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
       </c>
       <c r="K124" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
       </c>
       <c r="L124" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
       </c>
       <c r="M124" s="8" t="s">
         <v>259</v>
@@ -11057,10 +11057,10 @@
         <v>178</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>378</v>
@@ -11072,28 +11072,28 @@
         <v>74</v>
       </c>
       <c r="G125" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVEpisodePage</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVEpisodes</v>
       </c>
       <c r="H125" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVEpisodePage</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVEpisodes</v>
       </c>
       <c r="I125" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
       </c>
       <c r="J125" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
       </c>
       <c r="K125" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
       </c>
       <c r="L125" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
       </c>
       <c r="M125" s="8" t="s">
         <v>259</v>
@@ -11104,10 +11104,10 @@
         <v>178</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>378</v>
@@ -11119,28 +11119,28 @@
         <v>74</v>
       </c>
       <c r="G126" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBRatedTVEpisode</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVEpisodePage</v>
       </c>
       <c r="H126" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBRatedTVEpisode</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVEpisodePage</v>
       </c>
       <c r="I126" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
       </c>
       <c r="J126" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
       </c>
       <c r="K126" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L126" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
       </c>
       <c r="M126" s="8" t="s">
         <v>259</v>
@@ -11151,10 +11151,10 @@
         <v>178</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>378</v>
@@ -11166,28 +11166,28 @@
         <v>74</v>
       </c>
       <c r="G127" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBRatedTVEpisodes</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBRatedTVEpisode</v>
       </c>
       <c r="H127" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBRatedTVEpisodes</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBRatedTVEpisode</v>
       </c>
       <c r="I127" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
       </c>
       <c r="J127" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
       </c>
       <c r="K127" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="L127" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
       </c>
       <c r="M127" s="8" t="s">
         <v>259</v>
@@ -11198,43 +11198,43 @@
         <v>178</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>256</v>
+        <v>350</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G128" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVEpisodeDetail</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBRatedTVEpisodes</v>
       </c>
       <c r="H128" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVEpisodeDetail</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBRatedTVEpisodes</v>
       </c>
       <c r="I128" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
       </c>
       <c r="J128" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
       </c>
       <c r="K128" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="L128" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
       </c>
       <c r="M128" s="8" t="s">
         <v>259</v>
@@ -11242,43 +11242,46 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>378</v>
+        <v>354</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G129" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVEpisodeGroup</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVEpisodeDetail</v>
       </c>
       <c r="H129" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVEpisodeGroup</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVEpisodeDetail</v>
       </c>
       <c r="I129" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
       </c>
       <c r="J129" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
       </c>
       <c r="K129" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L129" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
       </c>
       <c r="M129" s="8" t="s">
         <v>259</v>
@@ -11289,7 +11292,7 @@
         <v>179</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D130" s="14" t="s">
         <v>378</v>
@@ -11301,28 +11304,28 @@
         <v>74</v>
       </c>
       <c r="G130" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBTVEpisodeGroups</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVEpisodeGroup</v>
       </c>
       <c r="H130" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBTVEpisodeGroups</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVEpisodeGroup</v>
       </c>
       <c r="I130" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
       </c>
       <c r="J130" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
       </c>
       <c r="K130" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
       </c>
       <c r="L130" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
       </c>
       <c r="M130" s="8" t="s">
         <v>259</v>
@@ -11330,10 +11333,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>378</v>
@@ -11345,28 +11348,28 @@
         <v>74</v>
       </c>
       <c r="G131" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBWatchProviderPriority</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVEpisodeGroups</v>
       </c>
       <c r="H131" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBWatchProviderPriority</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVEpisodeGroups</v>
       </c>
       <c r="I131" s="8" t="str">
-        <f t="shared" ref="I131:I186" si="38">"  "&amp;G131&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
       </c>
       <c r="J131" s="8" t="str">
-        <f t="shared" ref="J131:J186" si="39">"  "&amp;H131&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
       </c>
       <c r="K131" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
       </c>
       <c r="L131" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
       </c>
       <c r="M131" s="8" t="s">
         <v>259</v>
@@ -11377,7 +11380,7 @@
         <v>150</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>378</v>
@@ -11389,28 +11392,28 @@
         <v>74</v>
       </c>
       <c r="G132" s="8" t="str">
-        <f t="shared" si="22"/>
-        <v>ITMDBWatchProviderPriorities</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBWatchProviderPriority</v>
       </c>
       <c r="H132" s="8" t="str">
-        <f t="shared" si="23"/>
-        <v>TTMDBWatchProviderPriorities</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBWatchProviderPriority</v>
       </c>
       <c r="I132" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
+        <f t="shared" ref="I132:I187" si="44">"  "&amp;G132&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
       </c>
       <c r="J132" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
+        <f t="shared" ref="J132:J187" si="45">"  "&amp;H132&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
       </c>
       <c r="K132" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
       </c>
       <c r="L132" s="8" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
       </c>
       <c r="M132" s="8" t="s">
         <v>259</v>
@@ -11421,10 +11424,7 @@
         <v>150</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>378</v>
@@ -11436,28 +11436,28 @@
         <v>74</v>
       </c>
       <c r="G133" s="8" t="str">
-        <f t="shared" ref="G133:G163" si="40">"I"&amp;M133&amp;B133</f>
-        <v>ITMDBWatchProvider</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBWatchProviderPriorities</v>
       </c>
       <c r="H133" s="8" t="str">
-        <f t="shared" ref="H133:H163" si="41">"T"&amp;M133&amp;B133</f>
-        <v>TTMDBWatchProvider</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBWatchProviderPriorities</v>
       </c>
       <c r="I133" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
       </c>
       <c r="J133" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
       </c>
       <c r="K133" s="8" t="str">
-        <f t="shared" ref="K133:K163" si="42">IF(C133="", "  "&amp;G133&amp;" = interface", "  "&amp;G133&amp;" = interface(I"&amp;M133&amp;C133&amp;")")</f>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
       </c>
       <c r="L133" s="8" t="str">
-        <f t="shared" ref="L133:L163" si="43">IF(C133="", "  "&amp;H133&amp;" = class(TInterfacedObject, "&amp;G133&amp;")", "  "&amp;H133&amp;" = class(T"&amp;M133&amp;C133&amp;", "&amp;G133&amp;")")</f>
-        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
       </c>
       <c r="M133" s="8" t="s">
         <v>259</v>
@@ -11468,10 +11468,10 @@
         <v>150</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>378</v>
@@ -11483,28 +11483,28 @@
         <v>74</v>
       </c>
       <c r="G134" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBWatchProviders</v>
+        <f t="shared" ref="G134:G164" si="46">"I"&amp;M134&amp;B134</f>
+        <v>ITMDBWatchProvider</v>
       </c>
       <c r="H134" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBWatchProviders</v>
+        <f t="shared" ref="H134:H164" si="47">"T"&amp;M134&amp;B134</f>
+        <v>TTMDBWatchProvider</v>
       </c>
       <c r="I134" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
       </c>
       <c r="J134" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
       </c>
       <c r="K134" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
+        <f t="shared" ref="K134:K164" si="48">IF(C134="", "  "&amp;G134&amp;" = interface", "  "&amp;G134&amp;" = interface(I"&amp;M134&amp;C134&amp;")")</f>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L134" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
+        <f t="shared" ref="L134:L164" si="49">IF(C134="", "  "&amp;H134&amp;" = class(TInterfacedObject, "&amp;G134&amp;")", "  "&amp;H134&amp;" = class(T"&amp;M134&amp;C134&amp;", "&amp;G134&amp;")")</f>
+        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
       </c>
       <c r="M134" s="8" t="s">
         <v>259</v>
@@ -11512,10 +11512,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>389</v>
+        <v>150</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>0</v>
+        <v>366</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>378</v>
@@ -11523,29 +11526,32 @@
       <c r="E135" s="14" t="s">
         <v>378</v>
       </c>
+      <c r="F135" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="G135" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespace</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBWatchProviders</v>
       </c>
       <c r="H135" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespace</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBWatchProviders</v>
       </c>
       <c r="I135" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
       </c>
       <c r="J135" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespace = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
       </c>
       <c r="K135" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
       </c>
       <c r="L135" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
       </c>
       <c r="M135" s="8" t="s">
         <v>259</v>
@@ -11556,10 +11562,7 @@
         <v>389</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>378</v>
@@ -11567,32 +11570,29 @@
       <c r="E136" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F136" s="13" t="s">
-        <v>255</v>
-      </c>
       <c r="G136" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceAccount</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespace</v>
       </c>
       <c r="H136" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceAccount</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespace</v>
       </c>
       <c r="I136" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
       </c>
       <c r="J136" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespace = class;</v>
       </c>
       <c r="K136" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespace = interface</v>
       </c>
       <c r="L136" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
       </c>
       <c r="M136" s="8" t="s">
         <v>259</v>
@@ -11603,7 +11603,7 @@
         <v>389</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>391</v>
@@ -11618,28 +11618,28 @@
         <v>255</v>
       </c>
       <c r="G137" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceAuthentication</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceAccount</v>
       </c>
       <c r="H137" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceAuthentication</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceAccount</v>
       </c>
       <c r="I137" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
       </c>
       <c r="J137" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
       </c>
       <c r="K137" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L137" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
       </c>
       <c r="M137" s="8" t="s">
         <v>259</v>
@@ -11650,7 +11650,7 @@
         <v>389</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>391</v>
@@ -11661,32 +11661,32 @@
       <c r="E138" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F138" s="14" t="s">
-        <v>378</v>
+      <c r="F138" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G138" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceCertifications</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceAuthentication</v>
       </c>
       <c r="H138" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceCertifications</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceAuthentication</v>
       </c>
       <c r="I138" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
       </c>
       <c r="J138" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
       </c>
       <c r="K138" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L138" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
       </c>
       <c r="M138" s="8" t="s">
         <v>259</v>
@@ -11697,43 +11697,43 @@
         <v>389</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D139" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>74</v>
+      <c r="D139" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G139" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceChanges</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceCertifications</v>
       </c>
       <c r="H139" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceChanges</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceCertifications</v>
       </c>
       <c r="I139" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
       </c>
       <c r="J139" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
       </c>
       <c r="K139" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L139" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
       </c>
       <c r="M139" s="8" t="s">
         <v>259</v>
@@ -11744,43 +11744,43 @@
         <v>389</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D140" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>255</v>
+      <c r="D140" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G140" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceCollections</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceChanges</v>
       </c>
       <c r="H140" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceCollections</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceChanges</v>
       </c>
       <c r="I140" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
       </c>
       <c r="J140" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
       </c>
       <c r="K140" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L140" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
       </c>
       <c r="M140" s="8" t="s">
         <v>259</v>
@@ -11791,7 +11791,7 @@
         <v>389</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>391</v>
@@ -11806,28 +11806,28 @@
         <v>255</v>
       </c>
       <c r="G141" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceCompanies</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceCollections</v>
       </c>
       <c r="H141" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceCompanies</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceCollections</v>
       </c>
       <c r="I141" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
       </c>
       <c r="J141" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
       </c>
       <c r="K141" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L141" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
       </c>
       <c r="M141" s="8" t="s">
         <v>259</v>
@@ -11838,7 +11838,7 @@
         <v>389</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>391</v>
@@ -11853,28 +11853,28 @@
         <v>255</v>
       </c>
       <c r="G142" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceConfiguration</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceCompanies</v>
       </c>
       <c r="H142" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceConfiguration</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceCompanies</v>
       </c>
       <c r="I142" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
       </c>
       <c r="J142" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
       </c>
       <c r="K142" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L142" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>259</v>
@@ -11885,43 +11885,43 @@
         <v>389</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D143" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>74</v>
+      <c r="D143" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G143" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceCredits</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceConfiguration</v>
       </c>
       <c r="H143" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceCredits</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceConfiguration</v>
       </c>
       <c r="I143" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
       </c>
       <c r="J143" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
       </c>
       <c r="K143" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L143" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
       </c>
       <c r="M143" s="8" t="s">
         <v>259</v>
@@ -11932,7 +11932,7 @@
         <v>389</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>391</v>
@@ -11947,28 +11947,28 @@
         <v>74</v>
       </c>
       <c r="G144" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceDiscover</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceCredits</v>
       </c>
       <c r="H144" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceDiscover</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceCredits</v>
       </c>
       <c r="I144" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
       </c>
       <c r="J144" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
       </c>
       <c r="K144" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L144" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
       </c>
       <c r="M144" s="8" t="s">
         <v>259</v>
@@ -11979,43 +11979,43 @@
         <v>389</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D145" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>378</v>
+      <c r="D145" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G145" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceFind</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceDiscover</v>
       </c>
       <c r="H145" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceFind</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceDiscover</v>
       </c>
       <c r="I145" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
       </c>
       <c r="J145" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
       </c>
       <c r="K145" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L145" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
       </c>
       <c r="M145" s="8" t="s">
         <v>259</v>
@@ -12026,7 +12026,7 @@
         <v>389</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>391</v>
@@ -12037,32 +12037,32 @@
       <c r="E146" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F146" s="14" t="s">
-        <v>378</v>
+      <c r="F146" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G146" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceGenres</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceFind</v>
       </c>
       <c r="H146" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceGenres</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceFind</v>
       </c>
       <c r="I146" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
       </c>
       <c r="J146" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
       </c>
       <c r="K146" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L146" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
       </c>
       <c r="M146" s="8" t="s">
         <v>259</v>
@@ -12073,43 +12073,43 @@
         <v>389</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D147" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>74</v>
+      <c r="D147" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G147" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceGuestSessions</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceGenres</v>
       </c>
       <c r="H147" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceGuestSessions</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceGenres</v>
       </c>
       <c r="I147" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
       </c>
       <c r="J147" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
       </c>
       <c r="K147" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L147" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
       </c>
       <c r="M147" s="8" t="s">
         <v>259</v>
@@ -12120,43 +12120,43 @@
         <v>389</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D148" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F148" s="15" t="s">
-        <v>256</v>
+      <c r="D148" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G148" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceKeywords</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceGuestSessions</v>
       </c>
       <c r="H148" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceKeywords</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceGuestSessions</v>
       </c>
       <c r="I148" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
       </c>
       <c r="J148" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
       </c>
       <c r="K148" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L148" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>259</v>
@@ -12167,43 +12167,43 @@
         <v>389</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="D149" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F149" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E149" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="G149" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceLists</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceKeywords</v>
       </c>
       <c r="H149" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceLists</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceKeywords</v>
       </c>
       <c r="I149" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
       </c>
       <c r="J149" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
       </c>
       <c r="K149" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L149" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
       </c>
       <c r="M149" s="8" t="s">
         <v>259</v>
@@ -12214,43 +12214,43 @@
         <v>389</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D150" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>378</v>
+      <c r="D150" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G150" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceMovieLists</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceLists</v>
       </c>
       <c r="H150" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceMovieLists</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceLists</v>
       </c>
       <c r="I150" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
       </c>
       <c r="J150" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
       </c>
       <c r="K150" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L150" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>259</v>
@@ -12261,43 +12261,43 @@
         <v>389</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D151" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>256</v>
+      <c r="D151" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G151" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceMovies</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceMovieLists</v>
       </c>
       <c r="H151" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceMovies</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceMovieLists</v>
       </c>
       <c r="I151" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
       </c>
       <c r="J151" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
       </c>
       <c r="K151" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L151" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>259</v>
@@ -12308,43 +12308,43 @@
         <v>389</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D152" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F152" s="14" t="s">
-        <v>378</v>
+      <c r="D152" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G152" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceNetworks</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceMovies</v>
       </c>
       <c r="H152" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceNetworks</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceMovies</v>
       </c>
       <c r="I152" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
       </c>
       <c r="J152" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
       </c>
       <c r="K152" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L152" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>259</v>
@@ -12355,43 +12355,43 @@
         <v>389</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D153" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>74</v>
+      <c r="D153" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G153" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespacePeopleLists</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceNetworks</v>
       </c>
       <c r="H153" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespacePeopleLists</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceNetworks</v>
       </c>
       <c r="I153" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
       </c>
       <c r="J153" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
       </c>
       <c r="K153" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L153" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>259</v>
@@ -12402,43 +12402,43 @@
         <v>389</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D154" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>256</v>
+      <c r="D154" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G154" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespacePeople</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespacePeopleLists</v>
       </c>
       <c r="H154" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespacePeople</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespacePeopleLists</v>
       </c>
       <c r="I154" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
       </c>
       <c r="J154" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
       </c>
       <c r="K154" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L154" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>259</v>
@@ -12449,43 +12449,43 @@
         <v>389</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D155" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>74</v>
+      <c r="D155" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G155" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceReviews</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespacePeople</v>
       </c>
       <c r="H155" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceReviews</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespacePeople</v>
       </c>
       <c r="I155" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
       </c>
       <c r="J155" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
       </c>
       <c r="K155" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L155" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>259</v>
@@ -12496,43 +12496,43 @@
         <v>389</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D156" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E156" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>255</v>
+      <c r="D156" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G156" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceSearch</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceReviews</v>
       </c>
       <c r="H156" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceSearch</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceReviews</v>
       </c>
       <c r="I156" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
       </c>
       <c r="J156" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
       </c>
       <c r="K156" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L156" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>259</v>
@@ -12543,7 +12543,7 @@
         <v>389</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>391</v>
@@ -12554,32 +12554,32 @@
       <c r="E157" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F157" s="12" t="s">
-        <v>74</v>
+      <c r="F157" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G157" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceTrending</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceSearch</v>
       </c>
       <c r="H157" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceTrending</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceSearch</v>
       </c>
       <c r="I157" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
       </c>
       <c r="J157" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
       </c>
       <c r="K157" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L157" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>259</v>
@@ -12590,43 +12590,43 @@
         <v>389</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D158" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>74</v>
+      <c r="D158" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G158" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceTVSeriesLists</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceTrending</v>
       </c>
       <c r="H158" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceTVSeriesLists</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceTrending</v>
       </c>
       <c r="I158" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
       </c>
       <c r="J158" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
       </c>
       <c r="K158" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L158" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>259</v>
@@ -12637,43 +12637,43 @@
         <v>389</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D159" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F159" s="15" t="s">
-        <v>256</v>
+      <c r="D159" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G159" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceTVSeries</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="H159" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceTVSeries</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="I159" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
       </c>
       <c r="J159" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
       </c>
       <c r="K159" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L159" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>259</v>
@@ -12684,43 +12684,43 @@
         <v>389</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D160" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>74</v>
+      <c r="D160" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G160" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceTVSeasons</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceTVSeries</v>
       </c>
       <c r="H160" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceTVSeasons</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceTVSeries</v>
       </c>
       <c r="I160" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
       </c>
       <c r="J160" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
       </c>
       <c r="K160" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L160" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>259</v>
@@ -12731,7 +12731,7 @@
         <v>389</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>391</v>
@@ -12746,28 +12746,28 @@
         <v>74</v>
       </c>
       <c r="G161" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceTVEpisodes</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceTVSeasons</v>
       </c>
       <c r="H161" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceTVEpisodes</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceTVSeasons</v>
       </c>
       <c r="I161" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
       </c>
       <c r="J161" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
       </c>
       <c r="K161" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L161" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
       </c>
       <c r="M161" s="8" t="s">
         <v>259</v>
@@ -12778,43 +12778,43 @@
         <v>389</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D162" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>256</v>
+      <c r="D162" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G162" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceTVEpisodeGroups</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceTVEpisodes</v>
       </c>
       <c r="H162" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceTVEpisodeGroups</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceTVEpisodes</v>
       </c>
       <c r="I162" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
       </c>
       <c r="J162" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
       </c>
       <c r="K162" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L162" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>259</v>
@@ -12825,43 +12825,43 @@
         <v>389</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D163" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E163" s="14" t="s">
-        <v>378</v>
+      <c r="D163" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G163" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>ITMDBNamespaceWatchProviders</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="H163" s="8" t="str">
-        <f t="shared" si="41"/>
-        <v>TTMDBNamespaceWatchProviders</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="I163" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
       </c>
       <c r="J163" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
       </c>
       <c r="K163" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L163" s="8" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>259</v>
@@ -12869,10 +12869,13 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>367</v>
+        <v>418</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>378</v>
@@ -12880,32 +12883,32 @@
       <c r="E164" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F164" s="13" t="s">
-        <v>255</v>
+      <c r="F164" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G164" s="8" t="str">
-        <f t="shared" ref="G164:G195" si="44">"I"&amp;M164&amp;B164</f>
-        <v>ITMDBCache</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceWatchProviders</v>
       </c>
       <c r="H164" s="8" t="str">
-        <f t="shared" ref="H164:H195" si="45">"T"&amp;M164&amp;B164</f>
-        <v>TTMDBCache</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceWatchProviders</v>
       </c>
       <c r="I164" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBCache = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
       </c>
       <c r="J164" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBCache = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
       </c>
       <c r="K164" s="8" t="str">
-        <f t="shared" ref="K164:K195" si="46">IF(C164="", "  "&amp;G164&amp;" = interface", "  "&amp;G164&amp;" = interface(I"&amp;M164&amp;C164&amp;")")</f>
-        <v xml:space="preserve">  ITMDBCache = interface</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L164" s="8" t="str">
-        <f t="shared" ref="L164:L195" si="47">IF(C164="", "  "&amp;H164&amp;" = class(TInterfacedObject, "&amp;G164&amp;")", "  "&amp;H164&amp;" = class(T"&amp;M164&amp;C164&amp;", "&amp;G164&amp;")")</f>
-        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>259</v>
@@ -12916,7 +12919,7 @@
         <v>373</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>378</v>
@@ -12928,28 +12931,28 @@
         <v>255</v>
       </c>
       <c r="G165" s="8" t="str">
+        <f t="shared" ref="G165:G196" si="50">"I"&amp;M165&amp;B165</f>
+        <v>ITMDBCache</v>
+      </c>
+      <c r="H165" s="8" t="str">
+        <f t="shared" ref="H165:H196" si="51">"T"&amp;M165&amp;B165</f>
+        <v>TTMDBCache</v>
+      </c>
+      <c r="I165" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDBLoginState</v>
-      </c>
-      <c r="H165" s="8" t="str">
+        <v xml:space="preserve">  ITMDBCache = interface;</v>
+      </c>
+      <c r="J165" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDBLoginState</v>
-      </c>
-      <c r="I165" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
-      </c>
-      <c r="J165" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+        <v xml:space="preserve">  TTMDBCache = class;</v>
       </c>
       <c r="K165" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+        <f t="shared" ref="K165:K196" si="52">IF(C165="", "  "&amp;G165&amp;" = interface", "  "&amp;G165&amp;" = interface(I"&amp;M165&amp;C165&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCache = interface</v>
       </c>
       <c r="L165" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+        <f t="shared" ref="L165:L196" si="53">IF(C165="", "  "&amp;H165&amp;" = class(TInterfacedObject, "&amp;G165&amp;")", "  "&amp;H165&amp;" = class(T"&amp;M165&amp;C165&amp;", "&amp;G165&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>259</v>
@@ -12960,7 +12963,7 @@
         <v>373</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>378</v>
@@ -12972,57 +12975,72 @@
         <v>255</v>
       </c>
       <c r="G166" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDBLoginState</v>
+      </c>
+      <c r="H166" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDBLoginState</v>
+      </c>
+      <c r="I166" s="8" t="str">
         <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+      </c>
+      <c r="J166" s="8" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+      </c>
+      <c r="K166" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+      </c>
+      <c r="L166" s="8" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+      </c>
+      <c r="M166" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G167" s="8" t="str">
+        <f t="shared" si="50"/>
         <v>ITMDBClient</v>
       </c>
-      <c r="H166" s="8" t="str">
+      <c r="H167" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDBClient</v>
+      </c>
+      <c r="I167" s="8" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBClient = interface;</v>
+      </c>
+      <c r="J167" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDBClient</v>
-      </c>
-      <c r="I166" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDBClient = interface;</v>
-      </c>
-      <c r="J166" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDBClient = class;</v>
       </c>
-      <c r="K166" s="8" t="str">
-        <f t="shared" si="46"/>
+      <c r="K167" s="8" t="str">
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDBClient = interface</v>
       </c>
-      <c r="L166" s="8" t="str">
-        <f t="shared" si="47"/>
+      <c r="L167" s="8" t="str">
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
-      </c>
-      <c r="M166" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G167" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H167" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I167" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J167" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K167" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L167" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>259</v>
@@ -13030,27 +13048,27 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G168" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H168" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I168" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H168" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J168" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I168" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J168" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K168" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L168" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M168" s="8" t="s">
@@ -13059,27 +13077,27 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G169" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H169" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I169" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H169" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J169" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I169" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J169" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K169" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L169" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M169" s="8" t="s">
@@ -13088,27 +13106,27 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G170" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H170" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I170" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H170" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J170" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I170" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J170" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K170" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L170" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M170" s="8" t="s">
@@ -13117,27 +13135,27 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G171" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H171" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I171" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H171" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J171" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I171" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J171" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K171" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L171" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M171" s="8" t="s">
@@ -13146,27 +13164,27 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G172" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H172" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I172" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H172" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J172" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I172" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J172" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K172" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L172" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M172" s="8" t="s">
@@ -13175,27 +13193,27 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G173" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H173" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I173" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H173" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J173" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I173" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J173" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K173" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L173" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M173" s="8" t="s">
@@ -13204,27 +13222,27 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G174" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H174" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I174" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H174" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J174" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I174" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J174" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K174" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L174" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M174" s="8" t="s">
@@ -13233,27 +13251,27 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G175" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H175" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I175" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H175" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J175" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I175" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J175" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K175" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L175" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M175" s="8" t="s">
@@ -13262,27 +13280,27 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G176" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H176" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I176" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H176" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J176" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I176" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J176" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K176" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L176" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M176" s="8" t="s">
@@ -13291,27 +13309,27 @@
     </row>
     <row r="177" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G177" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H177" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I177" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H177" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J177" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I177" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J177" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K177" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L177" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M177" s="8" t="s">
@@ -13320,27 +13338,27 @@
     </row>
     <row r="178" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G178" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H178" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I178" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H178" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J178" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I178" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J178" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K178" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L178" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M178" s="8" t="s">
@@ -13349,27 +13367,27 @@
     </row>
     <row r="179" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G179" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H179" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I179" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H179" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J179" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I179" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J179" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K179" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L179" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M179" s="8" t="s">
@@ -13378,27 +13396,27 @@
     </row>
     <row r="180" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G180" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H180" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I180" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H180" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J180" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I180" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J180" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K180" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L180" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M180" s="8" t="s">
@@ -13407,27 +13425,27 @@
     </row>
     <row r="181" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G181" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H181" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I181" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H181" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J181" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I181" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J181" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K181" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L181" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M181" s="8" t="s">
@@ -13436,27 +13454,27 @@
     </row>
     <row r="182" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G182" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H182" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I182" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H182" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J182" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I182" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J182" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K182" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L182" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M182" s="8" t="s">
@@ -13465,27 +13483,27 @@
     </row>
     <row r="183" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G183" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H183" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I183" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H183" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J183" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I183" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J183" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K183" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L183" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M183" s="8" t="s">
@@ -13494,27 +13512,27 @@
     </row>
     <row r="184" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G184" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H184" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I184" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H184" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J184" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I184" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J184" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K184" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L184" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M184" s="8" t="s">
@@ -13523,27 +13541,27 @@
     </row>
     <row r="185" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G185" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H185" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I185" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H185" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J185" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I185" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J185" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K185" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L185" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M185" s="8" t="s">
@@ -13552,27 +13570,27 @@
     </row>
     <row r="186" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G186" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H186" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I186" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H186" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J186" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I186" s="8" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J186" s="8" t="str">
-        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K186" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L186" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M186" s="8" t="s">
@@ -13581,27 +13599,27 @@
     </row>
     <row r="187" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G187" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H187" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I187" s="8" t="str">
         <f t="shared" si="44"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H187" s="8" t="str">
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J187" s="8" t="str">
         <f t="shared" si="45"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I187" s="8" t="str">
-        <f t="shared" ref="I187:I203" si="48">"  "&amp;G187&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J187" s="8" t="str">
-        <f t="shared" ref="J187:J203" si="49">"  "&amp;H187&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K187" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L187" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M187" s="8" t="s">
@@ -13610,27 +13628,27 @@
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G188" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H188" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I188" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="I188:I204" si="54">"  "&amp;G188&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J188" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="J188:J204" si="55">"  "&amp;H188&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K188" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L188" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M188" s="8" t="s">
@@ -13639,27 +13657,27 @@
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G189" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H189" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I189" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J189" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K189" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L189" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M189" s="8" t="s">
@@ -13668,27 +13686,27 @@
     </row>
     <row r="190" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G190" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H190" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I190" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J190" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K190" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L190" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M190" s="8" t="s">
@@ -13697,27 +13715,27 @@
     </row>
     <row r="191" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G191" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H191" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I191" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J191" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K191" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L191" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M191" s="8" t="s">
@@ -13726,27 +13744,27 @@
     </row>
     <row r="192" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G192" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H192" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I192" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J192" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K192" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L192" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M192" s="8" t="s">
@@ -13755,27 +13773,27 @@
     </row>
     <row r="193" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G193" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H193" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I193" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J193" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K193" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L193" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M193" s="8" t="s">
@@ -13784,27 +13802,27 @@
     </row>
     <row r="194" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G194" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H194" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I194" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J194" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K194" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L194" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M194" s="8" t="s">
@@ -13813,27 +13831,27 @@
     </row>
     <row r="195" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G195" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H195" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I195" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J195" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K195" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L195" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M195" s="8" t="s">
@@ -13842,27 +13860,27 @@
     </row>
     <row r="196" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G196" s="8" t="str">
-        <f t="shared" ref="G196:G203" si="50">"I"&amp;M196&amp;B196</f>
+        <f t="shared" si="50"/>
         <v>ITMDB</v>
       </c>
       <c r="H196" s="8" t="str">
-        <f t="shared" ref="H196:H203" si="51">"T"&amp;M196&amp;B196</f>
+        <f t="shared" si="51"/>
         <v>TTMDB</v>
       </c>
       <c r="I196" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J196" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K196" s="8" t="str">
-        <f t="shared" ref="K196:K203" si="52">IF(C196="", "  "&amp;G196&amp;" = interface", "  "&amp;G196&amp;" = interface(I"&amp;M196&amp;C196&amp;")")</f>
+        <f t="shared" si="52"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L196" s="8" t="str">
-        <f t="shared" ref="L196:L227" si="53">IF(C196="", "  "&amp;H196&amp;" = class(TInterfacedObject, "&amp;G196&amp;")", "  "&amp;H196&amp;" = class(T"&amp;M196&amp;C196&amp;", "&amp;G196&amp;")")</f>
+        <f t="shared" si="53"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M196" s="8" t="s">
@@ -13871,27 +13889,27 @@
     </row>
     <row r="197" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G197" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="G197:G204" si="56">"I"&amp;M197&amp;B197</f>
         <v>ITMDB</v>
       </c>
       <c r="H197" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H197:H204" si="57">"T"&amp;M197&amp;B197</f>
         <v>TTMDB</v>
       </c>
       <c r="I197" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J197" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K197" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="K197:K204" si="58">IF(C197="", "  "&amp;G197&amp;" = interface", "  "&amp;G197&amp;" = interface(I"&amp;M197&amp;C197&amp;")")</f>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L197" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="L197:L228" si="59">IF(C197="", "  "&amp;H197&amp;" = class(TInterfacedObject, "&amp;G197&amp;")", "  "&amp;H197&amp;" = class(T"&amp;M197&amp;C197&amp;", "&amp;G197&amp;")")</f>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M197" s="8" t="s">
@@ -13900,27 +13918,27 @@
     </row>
     <row r="198" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G198" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H198" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I198" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J198" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K198" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L198" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M198" s="8" t="s">
@@ -13929,27 +13947,27 @@
     </row>
     <row r="199" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G199" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H199" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I199" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J199" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K199" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L199" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M199" s="8" t="s">
@@ -13958,27 +13976,27 @@
     </row>
     <row r="200" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G200" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H200" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I200" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J200" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K200" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L200" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M200" s="8" t="s">
@@ -13987,27 +14005,27 @@
     </row>
     <row r="201" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G201" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H201" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I201" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J201" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K201" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L201" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M201" s="8" t="s">
@@ -14016,27 +14034,27 @@
     </row>
     <row r="202" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G202" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H202" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I202" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J202" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K202" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L202" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M202" s="8" t="s">
@@ -14045,30 +14063,59 @@
     </row>
     <row r="203" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G203" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H203" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I203" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J203" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K203" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L203" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M203" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="204" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G204" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H204" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I204" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J204" s="8" t="str">
+        <f t="shared" si="55"/>
+        <v xml:space="preserve">  TTMDB = class;</v>
+      </c>
+      <c r="K204" s="8" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">  ITMDB = interface</v>
+      </c>
+      <c r="L204" s="8" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
+      </c>
+      <c r="M204" s="8" t="s">
         <v>259</v>
       </c>
     </row>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D50CC-28D4-45C4-B2D6-2C75D295258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10A057C-0682-4005-806C-B9487672CA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="452">
   <si>
     <t>Namespace</t>
   </si>
@@ -1394,6 +1394,9 @@
   </si>
   <si>
     <t>CreditDetail</t>
+  </si>
+  <si>
+    <t>ITMDBAggregateCredits</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2911,8 +2914,8 @@
       <c r="F44" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>74</v>
+      <c r="G44" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2934,8 +2937,8 @@
       <c r="F45" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>74</v>
+      <c r="G45" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2957,8 +2960,8 @@
       <c r="F46" t="s">
         <v>58</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>74</v>
+      <c r="G46" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3787,8 +3790,8 @@
       <c r="F83" t="s">
         <v>226</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>74</v>
+      <c r="G83" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4005,8 +4008,8 @@
       <c r="F93" t="s">
         <v>227</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>74</v>
+      <c r="G93" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4278,8 +4281,11 @@
       <c r="E105" t="s">
         <v>242</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>74</v>
+      <c r="F105" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4298,8 +4304,11 @@
       <c r="E106" t="s">
         <v>246</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>74</v>
+      <c r="F106" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4321,8 +4330,8 @@
       <c r="F107" t="s">
         <v>54</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>74</v>
+      <c r="G107" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4344,8 +4353,8 @@
       <c r="F108" t="s">
         <v>54</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>74</v>
+      <c r="G108" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4413,6 +4422,9 @@
       <c r="E111" t="s">
         <v>243</v>
       </c>
+      <c r="F111" t="s">
+        <v>451</v>
+      </c>
       <c r="G111" s="4" t="s">
         <v>74</v>
       </c>
@@ -4732,8 +4744,8 @@
       <c r="F125" t="s">
         <v>54</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>74</v>
+      <c r="G125" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5347,9 +5359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9015,8 +9027,8 @@
       <c r="D81" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="E81" s="12" t="s">
-        <v>74</v>
+      <c r="E81" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>74</v>
@@ -9200,11 +9212,11 @@
       <c r="C85" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D85" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>256</v>
+      <c r="D85" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>74</v>
@@ -9253,8 +9265,8 @@
       <c r="E86" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>255</v>
+      <c r="F86" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G86" s="8" t="str">
         <f t="shared" si="16"/>
@@ -9300,8 +9312,8 @@
       <c r="E87" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>255</v>
+      <c r="F87" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G87" s="8" t="str">
         <f t="shared" si="16"/>
@@ -9347,8 +9359,8 @@
       <c r="E88" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>255</v>
+      <c r="F88" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G88" s="8" t="str">
         <f t="shared" si="16"/>
@@ -9394,8 +9406,8 @@
       <c r="E89" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>255</v>
+      <c r="F89" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G89" s="8" t="str">
         <f t="shared" si="16"/>
@@ -9438,8 +9450,8 @@
       <c r="E90" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>255</v>
+      <c r="F90" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G90" s="8" t="str">
         <f t="shared" si="16"/>
@@ -11749,11 +11761,11 @@
       <c r="C140" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D140" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>74</v>
+      <c r="D140" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>74</v>
@@ -11937,11 +11949,11 @@
       <c r="C144" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D144" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>74</v>
+      <c r="D144" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>74</v>
@@ -11984,11 +11996,11 @@
       <c r="C145" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D145" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>74</v>
+      <c r="D145" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>74</v>
@@ -12125,11 +12137,11 @@
       <c r="C148" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D148" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>74</v>
+      <c r="D148" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>74</v>
@@ -12178,8 +12190,8 @@
       <c r="E149" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="F149" s="15" t="s">
-        <v>256</v>
+      <c r="F149" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="G149" s="8" t="str">
         <f t="shared" si="46"/>
@@ -12219,8 +12231,8 @@
       <c r="C150" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D150" s="15" t="s">
-        <v>256</v>
+      <c r="D150" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>74</v>
@@ -12407,11 +12419,11 @@
       <c r="C154" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D154" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>74</v>
+      <c r="D154" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>74</v>
@@ -12501,11 +12513,11 @@
       <c r="C156" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D156" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>74</v>
+      <c r="D156" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>74</v>
@@ -12642,11 +12654,11 @@
       <c r="C159" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D159" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>74</v>
+      <c r="D159" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>74</v>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10A057C-0682-4005-806C-B9487672CA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA9873-82FF-4B9F-8650-DAABC268FCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -1877,9 +1877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3813,8 +3813,8 @@
       <c r="F84" t="s">
         <v>78</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>74</v>
+      <c r="G84" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3856,8 +3856,8 @@
       <c r="F86" t="s">
         <v>212</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>74</v>
+      <c r="G86" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,8 +3879,8 @@
       <c r="F87" t="s">
         <v>101</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>74</v>
+      <c r="G87" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3902,8 +3902,8 @@
       <c r="F88" t="s">
         <v>226</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>74</v>
+      <c r="G88" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3985,8 +3985,8 @@
       <c r="F92" t="s">
         <v>102</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>74</v>
+      <c r="G92" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5359,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA9873-82FF-4B9F-8650-DAABC268FCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA454345-CCF0-4761-94FA-13425575DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="453">
   <si>
     <t>Namespace</t>
   </si>
@@ -961,9 +961,6 @@
     <t>CollectionDetail</t>
   </si>
   <si>
-    <t>CollectionPart</t>
-  </si>
-  <si>
     <t>CompanyPage</t>
   </si>
   <si>
@@ -1397,13 +1394,19 @@
   </si>
   <si>
     <t>ITMDBAggregateCredits</t>
+  </si>
+  <si>
+    <t>ITMDBTVSeasonDetail</t>
+  </si>
+  <si>
+    <t>ITMDBEpisodeDetail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,19 +1418,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1498,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1533,12 +1523,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1879,7 +1863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1951,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -1977,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -2000,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -2023,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -2046,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -2069,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -2092,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -2115,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -2138,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -2161,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2184,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -2207,7 +2191,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2230,7 +2214,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -2253,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -2276,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -2299,7 +2283,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -2322,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -2345,7 +2329,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -2368,7 +2352,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -2391,7 +2375,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -2414,7 +2398,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2437,7 +2421,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2460,7 +2444,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2483,7 +2467,7 @@
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -2506,7 +2490,7 @@
         <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
@@ -2529,7 +2513,7 @@
         <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
@@ -2552,7 +2536,7 @@
         <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -2575,7 +2559,7 @@
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D30" t="s">
         <v>87</v>
@@ -2598,7 +2582,7 @@
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D31" t="s">
         <v>83</v>
@@ -2621,7 +2605,7 @@
         <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -2644,7 +2628,7 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
@@ -2667,7 +2651,7 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
         <v>89</v>
@@ -2690,7 +2674,7 @@
         <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D35" t="s">
         <v>90</v>
@@ -2713,7 +2697,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D36" t="s">
         <v>91</v>
@@ -2736,7 +2720,7 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D37" t="s">
         <v>92</v>
@@ -2759,7 +2743,7 @@
         <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -2782,7 +2766,7 @@
         <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2808,7 +2792,7 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
@@ -2834,7 +2818,7 @@
         <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D41" t="s">
         <v>119</v>
@@ -2857,7 +2841,7 @@
         <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -2880,7 +2864,7 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D43" t="s">
         <v>30</v>
@@ -2903,7 +2887,7 @@
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -2926,7 +2910,7 @@
         <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2949,7 +2933,7 @@
         <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -2972,7 +2956,7 @@
         <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -2995,7 +2979,7 @@
         <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D48" t="s">
         <v>128</v>
@@ -3015,7 +2999,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D49" t="s">
         <v>129</v>
@@ -3035,7 +3019,7 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D50" t="s">
         <v>130</v>
@@ -3055,7 +3039,7 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D51" t="s">
         <v>131</v>
@@ -3075,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D52" t="s">
         <v>132</v>
@@ -3095,7 +3079,7 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D53" t="s">
         <v>133</v>
@@ -3115,7 +3099,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -3138,7 +3122,7 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D55" t="s">
         <v>134</v>
@@ -3158,7 +3142,7 @@
         <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D56" t="s">
         <v>136</v>
@@ -3181,7 +3165,7 @@
         <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D57" t="s">
         <v>137</v>
@@ -3204,7 +3188,7 @@
         <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D58" t="s">
         <v>138</v>
@@ -3227,7 +3211,7 @@
         <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -3250,7 +3234,7 @@
         <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -3273,7 +3257,7 @@
         <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D61" t="s">
         <v>141</v>
@@ -3296,7 +3280,7 @@
         <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -3319,7 +3303,7 @@
         <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
@@ -3342,7 +3326,7 @@
         <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D64" t="s">
         <v>93</v>
@@ -3365,7 +3349,7 @@
         <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D65" t="s">
         <v>143</v>
@@ -3388,7 +3372,7 @@
         <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D66" t="s">
         <v>83</v>
@@ -3411,7 +3395,7 @@
         <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D67" t="s">
         <v>127</v>
@@ -3434,7 +3418,7 @@
         <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D68" t="s">
         <v>144</v>
@@ -3457,7 +3441,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -3480,7 +3464,7 @@
         <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D70" t="s">
         <v>145</v>
@@ -3503,7 +3487,7 @@
         <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D71" t="s">
         <v>146</v>
@@ -3526,7 +3510,7 @@
         <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D72" t="s">
         <v>147</v>
@@ -3535,7 +3519,7 @@
         <v>202</v>
       </c>
       <c r="F72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>255</v>
@@ -3549,7 +3533,7 @@
         <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D73" t="s">
         <v>148</v>
@@ -3572,7 +3556,7 @@
         <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D74" t="s">
         <v>84</v>
@@ -3595,7 +3579,7 @@
         <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D75" t="s">
         <v>149</v>
@@ -3618,7 +3602,7 @@
         <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D76" t="s">
         <v>150</v>
@@ -3641,7 +3625,7 @@
         <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D77" t="s">
         <v>151</v>
@@ -3664,7 +3648,7 @@
         <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D78" t="s">
         <v>152</v>
@@ -3687,7 +3671,7 @@
         <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -3710,7 +3694,7 @@
         <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D80" t="s">
         <v>87</v>
@@ -3733,7 +3717,7 @@
         <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -3756,7 +3740,7 @@
         <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D82" t="s">
         <v>137</v>
@@ -3779,7 +3763,7 @@
         <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -3802,7 +3786,7 @@
         <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
@@ -3825,7 +3809,7 @@
         <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D85" t="s">
         <v>157</v>
@@ -3845,7 +3829,7 @@
         <v>156</v>
       </c>
       <c r="C86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D86" t="s">
         <v>143</v>
@@ -3868,7 +3852,7 @@
         <v>156</v>
       </c>
       <c r="C87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D87" t="s">
         <v>83</v>
@@ -3891,7 +3875,7 @@
         <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D88" t="s">
         <v>144</v>
@@ -3914,7 +3898,7 @@
         <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D89" t="s">
         <v>158</v>
@@ -3934,7 +3918,7 @@
         <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D90" t="s">
         <v>159</v>
@@ -3954,7 +3938,7 @@
         <v>156</v>
       </c>
       <c r="C91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D91" t="s">
         <v>160</v>
@@ -3974,7 +3958,7 @@
         <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D92" t="s">
         <v>84</v>
@@ -3997,7 +3981,7 @@
         <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -4020,7 +4004,7 @@
         <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D94" t="s">
         <v>162</v>
@@ -4043,7 +4027,7 @@
         <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D95" t="s">
         <v>163</v>
@@ -4066,7 +4050,7 @@
         <v>161</v>
       </c>
       <c r="C96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D96" t="s">
         <v>164</v>
@@ -4089,7 +4073,7 @@
         <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D97" t="s">
         <v>115</v>
@@ -4112,7 +4096,7 @@
         <v>161</v>
       </c>
       <c r="C98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D98" t="s">
         <v>165</v>
@@ -4135,7 +4119,7 @@
         <v>161</v>
       </c>
       <c r="C99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D99" t="s">
         <v>166</v>
@@ -4158,7 +4142,7 @@
         <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D100" t="s">
         <v>116</v>
@@ -4181,7 +4165,7 @@
         <v>167</v>
       </c>
       <c r="C101" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D101" t="s">
         <v>168</v>
@@ -4204,7 +4188,7 @@
         <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D102" t="s">
         <v>140</v>
@@ -4227,7 +4211,7 @@
         <v>167</v>
       </c>
       <c r="C103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D103" t="s">
         <v>156</v>
@@ -4250,7 +4234,7 @@
         <v>167</v>
       </c>
       <c r="C104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D104" t="s">
         <v>116</v>
@@ -4273,7 +4257,7 @@
         <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D105" t="s">
         <v>170</v>
@@ -4296,7 +4280,7 @@
         <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D106" t="s">
         <v>171</v>
@@ -4319,7 +4303,7 @@
         <v>169</v>
       </c>
       <c r="C107" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D107" t="s">
         <v>137</v>
@@ -4342,7 +4326,7 @@
         <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D108" t="s">
         <v>138</v>
@@ -4365,7 +4349,7 @@
         <v>172</v>
       </c>
       <c r="C109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -4391,7 +4375,7 @@
         <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D110" t="s">
         <v>141</v>
@@ -4414,7 +4398,7 @@
         <v>172</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D111" t="s">
         <v>173</v>
@@ -4423,7 +4407,7 @@
         <v>243</v>
       </c>
       <c r="F111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>74</v>
@@ -4437,7 +4421,7 @@
         <v>172</v>
       </c>
       <c r="C112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D112" t="s">
         <v>142</v>
@@ -4460,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="C113" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
@@ -4483,7 +4467,7 @@
         <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D114" t="s">
         <v>174</v>
@@ -4506,7 +4490,7 @@
         <v>172</v>
       </c>
       <c r="C115" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D115" t="s">
         <v>93</v>
@@ -4529,7 +4513,7 @@
         <v>172</v>
       </c>
       <c r="C116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D116" t="s">
         <v>175</v>
@@ -4552,7 +4536,7 @@
         <v>172</v>
       </c>
       <c r="C117" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D117" t="s">
         <v>143</v>
@@ -4575,7 +4559,7 @@
         <v>172</v>
       </c>
       <c r="C118" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D118" t="s">
         <v>83</v>
@@ -4598,7 +4582,7 @@
         <v>172</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D119" t="s">
         <v>127</v>
@@ -4621,7 +4605,7 @@
         <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D120" t="s">
         <v>144</v>
@@ -4644,7 +4628,7 @@
         <v>172</v>
       </c>
       <c r="C121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -4667,7 +4651,7 @@
         <v>172</v>
       </c>
       <c r="C122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D122" t="s">
         <v>145</v>
@@ -4690,7 +4674,7 @@
         <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D123" t="s">
         <v>147</v>
@@ -4713,7 +4697,7 @@
         <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D124" t="s">
         <v>176</v>
@@ -4733,7 +4717,7 @@
         <v>172</v>
       </c>
       <c r="C125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D125" t="s">
         <v>148</v>
@@ -4756,7 +4740,7 @@
         <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D126" t="s">
         <v>84</v>
@@ -4779,7 +4763,7 @@
         <v>172</v>
       </c>
       <c r="C127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D127" t="s">
         <v>149</v>
@@ -4802,7 +4786,7 @@
         <v>172</v>
       </c>
       <c r="C128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D128" t="s">
         <v>150</v>
@@ -4825,7 +4809,7 @@
         <v>172</v>
       </c>
       <c r="C129" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D129" t="s">
         <v>151</v>
@@ -4845,7 +4829,7 @@
         <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D130" t="s">
         <v>152</v>
@@ -4865,13 +4849,16 @@
         <v>177</v>
       </c>
       <c r="C131" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
       </c>
       <c r="E131" t="s">
         <v>33</v>
+      </c>
+      <c r="F131" t="s">
+        <v>451</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>74</v>
@@ -4885,13 +4872,16 @@
         <v>177</v>
       </c>
       <c r="C132" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D132" t="s">
         <v>141</v>
       </c>
       <c r="E132" t="s">
         <v>192</v>
+      </c>
+      <c r="F132" t="s">
+        <v>210</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>74</v>
@@ -4905,13 +4895,16 @@
         <v>177</v>
       </c>
       <c r="C133" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D133" t="s">
         <v>173</v>
       </c>
       <c r="E133" t="s">
         <v>243</v>
+      </c>
+      <c r="F133" t="s">
+        <v>450</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>74</v>
@@ -4925,13 +4918,16 @@
         <v>177</v>
       </c>
       <c r="C134" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D134" t="s">
         <v>27</v>
       </c>
       <c r="E134" t="s">
         <v>196</v>
+      </c>
+      <c r="F134" t="s">
+        <v>78</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>74</v>
@@ -4945,7 +4941,7 @@
         <v>177</v>
       </c>
       <c r="C135" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D135" t="s">
         <v>93</v>
@@ -4965,13 +4961,16 @@
         <v>177</v>
       </c>
       <c r="C136" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D136" t="s">
         <v>143</v>
       </c>
       <c r="E136" t="s">
         <v>194</v>
+      </c>
+      <c r="F136" t="s">
+        <v>212</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>74</v>
@@ -4985,13 +4984,16 @@
         <v>177</v>
       </c>
       <c r="C137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D137" t="s">
         <v>83</v>
       </c>
       <c r="E137" t="s">
         <v>94</v>
+      </c>
+      <c r="F137" t="s">
+        <v>101</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>74</v>
@@ -5005,13 +5007,16 @@
         <v>177</v>
       </c>
       <c r="C138" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D138" t="s">
         <v>84</v>
       </c>
       <c r="E138" t="s">
         <v>95</v>
+      </c>
+      <c r="F138" t="s">
+        <v>102</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>74</v>
@@ -5025,13 +5030,16 @@
         <v>177</v>
       </c>
       <c r="C139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D139" t="s">
         <v>149</v>
       </c>
       <c r="E139" t="s">
         <v>204</v>
+      </c>
+      <c r="F139" t="s">
+        <v>216</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>74</v>
@@ -5045,7 +5053,7 @@
         <v>177</v>
       </c>
       <c r="C140" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D140" t="s">
         <v>150</v>
@@ -5065,13 +5073,16 @@
         <v>178</v>
       </c>
       <c r="C141" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
       </c>
       <c r="E141" t="s">
         <v>33</v>
+      </c>
+      <c r="F141" t="s">
+        <v>452</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>74</v>
@@ -5085,13 +5096,16 @@
         <v>178</v>
       </c>
       <c r="C142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D142" t="s">
         <v>141</v>
       </c>
       <c r="E142" t="s">
         <v>192</v>
+      </c>
+      <c r="F142" t="s">
+        <v>210</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>74</v>
@@ -5105,13 +5119,16 @@
         <v>178</v>
       </c>
       <c r="C143" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D143" t="s">
         <v>27</v>
       </c>
       <c r="E143" t="s">
         <v>196</v>
+      </c>
+      <c r="F143" t="s">
+        <v>78</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>74</v>
@@ -5125,7 +5142,7 @@
         <v>178</v>
       </c>
       <c r="C144" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D144" t="s">
         <v>93</v>
@@ -5145,13 +5162,16 @@
         <v>178</v>
       </c>
       <c r="C145" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D145" t="s">
         <v>143</v>
       </c>
       <c r="E145" t="s">
         <v>194</v>
+      </c>
+      <c r="F145" t="s">
+        <v>212</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>74</v>
@@ -5165,13 +5185,16 @@
         <v>178</v>
       </c>
       <c r="C146" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D146" t="s">
         <v>83</v>
       </c>
       <c r="E146" t="s">
         <v>94</v>
+      </c>
+      <c r="F146" t="s">
+        <v>101</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>74</v>
@@ -5185,13 +5208,16 @@
         <v>178</v>
       </c>
       <c r="C147" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D147" t="s">
         <v>84</v>
       </c>
       <c r="E147" t="s">
         <v>95</v>
+      </c>
+      <c r="F147" t="s">
+        <v>102</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>74</v>
@@ -5205,13 +5231,16 @@
         <v>178</v>
       </c>
       <c r="C148" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D148" t="s">
         <v>149</v>
       </c>
       <c r="E148" t="s">
         <v>204</v>
+      </c>
+      <c r="F148" t="s">
+        <v>216</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>74</v>
@@ -5225,7 +5254,7 @@
         <v>178</v>
       </c>
       <c r="C149" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D149" t="s">
         <v>151</v>
@@ -5245,7 +5274,7 @@
         <v>178</v>
       </c>
       <c r="C150" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D150" t="s">
         <v>152</v>
@@ -5265,7 +5294,7 @@
         <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D151" t="s">
         <v>3</v>
@@ -5288,7 +5317,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D152" t="s">
         <v>180</v>
@@ -5311,7 +5340,7 @@
         <v>150</v>
       </c>
       <c r="C153" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D153" t="s">
         <v>181</v>
@@ -5334,7 +5363,7 @@
         <v>150</v>
       </c>
       <c r="C154" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D154" t="s">
         <v>182</v>
@@ -5357,11 +5386,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5391,13 +5420,13 @@
         <v>266</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>262</v>
@@ -5406,10 +5435,10 @@
         <v>263</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>264</v>
@@ -5429,13 +5458,13 @@
         <v>267</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G2" s="8" t="str">
         <f t="shared" ref="G2:G63" si="0">"I"&amp;M2&amp;B2</f>
@@ -5473,13 +5502,13 @@
         <v>268</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5490,11 +5519,11 @@
         <v>TTMDBItems</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f t="shared" ref="I3:I78" si="4">"  "&amp;G3&amp;" = interface;"</f>
+        <f t="shared" ref="I3:I77" si="4">"  "&amp;G3&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBItems = interface;</v>
       </c>
       <c r="J3" s="8" t="str">
-        <f t="shared" ref="J3:J78" si="5">"  "&amp;H3&amp;" = class;"</f>
+        <f t="shared" ref="J3:J77" si="5">"  "&amp;H3&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBItems = class;</v>
       </c>
       <c r="K3" s="8" t="str">
@@ -5517,13 +5546,13 @@
         <v>271</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5561,13 +5590,13 @@
         <v>154</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5608,13 +5637,13 @@
         <v>267</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5655,13 +5684,13 @@
         <v>268</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5702,13 +5731,13 @@
         <v>271</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5746,13 +5775,13 @@
         <v>277</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5790,13 +5819,13 @@
         <v>278</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5834,13 +5863,13 @@
         <v>279</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5878,13 +5907,13 @@
         <v>280</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5922,13 +5951,13 @@
         <v>281</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5966,13 +5995,13 @@
         <v>282</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6010,13 +6039,13 @@
         <v>283</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6054,13 +6083,13 @@
         <v>284</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6098,13 +6127,13 @@
         <v>285</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6142,13 +6171,13 @@
         <v>286</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6189,13 +6218,13 @@
         <v>267</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G19" s="8" t="str">
         <f>"I"&amp;M19&amp;B19</f>
@@ -6236,13 +6265,13 @@
         <v>268</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" s="8" t="str">
         <f>"I"&amp;M20&amp;B20</f>
@@ -6280,13 +6309,13 @@
         <v>287</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6324,13 +6353,13 @@
         <v>289</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6368,13 +6397,13 @@
         <v>288</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6412,10 +6441,10 @@
         <v>302</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>74</v>
@@ -6456,10 +6485,10 @@
         <v>303</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>74</v>
@@ -6503,10 +6532,10 @@
         <v>267</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>74</v>
@@ -6550,10 +6579,10 @@
         <v>268</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>74</v>
@@ -6591,16 +6620,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>74</v>
@@ -6638,16 +6667,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>74</v>
@@ -6685,16 +6714,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>271</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>74</v>
@@ -6738,10 +6767,10 @@
         <v>267</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>255</v>
@@ -6785,10 +6814,10 @@
         <v>268</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>255</v>
@@ -6826,16 +6855,16 @@
         <v>85</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>271</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>255</v>
@@ -6873,16 +6902,16 @@
         <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>255</v>
@@ -6920,13 +6949,13 @@
         <v>86</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>74</v>
@@ -6967,10 +6996,10 @@
         <v>86</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>74</v>
@@ -7008,16 +7037,16 @@
         <v>174</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>74</v>
@@ -7055,16 +7084,16 @@
         <v>174</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>74</v>
@@ -7102,19 +7131,19 @@
         <v>88</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G39" s="8" t="str">
         <f>"I"&amp;M39&amp;B39</f>
@@ -7155,13 +7184,13 @@
         <v>268</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G40" s="8" t="str">
         <f>"I"&amp;M40&amp;B40</f>
@@ -7196,16 +7225,43 @@
         <v>143</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>255</v>
+      </c>
+      <c r="G41" s="8" t="str">
+        <f>"I"&amp;M41&amp;B41</f>
+        <v>ITMDBExternalIDs</v>
+      </c>
+      <c r="H41" s="8" t="str">
+        <f>"T"&amp;M41&amp;B41</f>
+        <v>TTMDBExternalIDs</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>"  "&amp;G41&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBExternalIDs = interface;</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f>"  "&amp;H41&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBExternalIDs = class;</v>
+      </c>
+      <c r="K41" s="8" t="str">
+        <f>IF(C41="", "  "&amp;G41&amp;" = interface", "  "&amp;G41&amp;" = interface(I"&amp;M41&amp;C41&amp;")")</f>
+        <v xml:space="preserve">  ITMDBExternalIDs = interface</v>
+      </c>
+      <c r="L41" s="8" t="str">
+        <f>IF(C41="", "  "&amp;H41&amp;" = class(TInterfacedObject, "&amp;G41&amp;")", "  "&amp;H41&amp;" = class(T"&amp;M41&amp;C41&amp;", "&amp;G41&amp;")")</f>
+        <v xml:space="preserve">  TTMDBExternalIDs = class(TInterfacedObject, ITMDBExternalIDs)</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -7213,19 +7269,19 @@
         <v>124</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G42" s="8" t="str">
         <f>"I"&amp;M42&amp;B42</f>
@@ -7266,13 +7322,13 @@
         <v>268</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G43" s="8" t="str">
         <f>"I"&amp;M43&amp;B43</f>
@@ -7307,16 +7363,16 @@
         <v>83</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>255</v>
@@ -7354,16 +7410,16 @@
         <v>83</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>255</v>
@@ -7401,13 +7457,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>255</v>
@@ -7445,16 +7501,16 @@
         <v>89</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>255</v>
@@ -7492,16 +7548,16 @@
         <v>89</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>255</v>
@@ -7545,13 +7601,13 @@
         <v>267</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G49" s="8" t="str">
         <f>"I"&amp;M49&amp;B49</f>
@@ -7592,13 +7648,13 @@
         <v>268</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G50" s="8" t="str">
         <f>"I"&amp;M50&amp;B50</f>
@@ -7633,19 +7689,19 @@
         <v>127</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>271</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G51" s="8" t="str">
         <f>"I"&amp;M51&amp;B51</f>
@@ -7680,19 +7736,19 @@
         <v>127</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G52" s="8" t="str">
         <f>"I"&amp;M52&amp;B52</f>
@@ -7727,19 +7783,19 @@
         <v>90</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G53" s="8" t="str">
         <f>"I"&amp;M53&amp;B53</f>
@@ -7780,13 +7836,13 @@
         <v>268</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G54" s="8" t="str">
         <f>"I"&amp;M54&amp;B54</f>
@@ -7818,22 +7874,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G55" s="8" t="str">
         <f>"I"&amp;M55&amp;B55</f>
@@ -7865,19 +7921,19 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>255</v>
@@ -7912,19 +7968,19 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>255</v>
@@ -7962,16 +8018,16 @@
         <v>92</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>255</v>
@@ -8015,10 +8071,10 @@
         <v>268</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>255</v>
@@ -8059,13 +8115,13 @@
         <v>290</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G60" s="8" t="str">
         <f>"I"&amp;M60&amp;B60</f>
@@ -8103,13 +8159,13 @@
         <v>291</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G61" s="8" t="str">
         <f>"I"&amp;M61&amp;B61</f>
@@ -8147,13 +8203,13 @@
         <v>292</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G62" s="8" t="str">
         <f>"I"&amp;M62&amp;B62</f>
@@ -8191,10 +8247,10 @@
         <v>294</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>255</v>
@@ -8238,20 +8294,20 @@
         <v>294</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G64" s="8" t="str">
-        <f t="shared" ref="G64:G78" si="12">"I"&amp;M64&amp;B64</f>
+        <f t="shared" ref="G64:G77" si="12">"I"&amp;M64&amp;B64</f>
         <v>ITMDBMovieTranslationData</v>
       </c>
       <c r="H64" s="8" t="str">
-        <f t="shared" ref="H64:H78" si="13">"T"&amp;M64&amp;B64</f>
+        <f t="shared" ref="H64:H77" si="13">"T"&amp;M64&amp;B64</f>
         <v>TTMDBMovieTranslationData</v>
       </c>
       <c r="I64" s="8" t="str">
@@ -8263,11 +8319,11 @@
         <v xml:space="preserve">  TTMDBMovieTranslationData = class;</v>
       </c>
       <c r="K64" s="8" t="str">
-        <f t="shared" ref="K64:K78" si="14">IF(C64="", "  "&amp;G64&amp;" = interface", "  "&amp;G64&amp;" = interface(I"&amp;M64&amp;C64&amp;")")</f>
+        <f t="shared" ref="K64:K77" si="14">IF(C64="", "  "&amp;G64&amp;" = interface", "  "&amp;G64&amp;" = interface(I"&amp;M64&amp;C64&amp;")")</f>
         <v xml:space="preserve">  ITMDBMovieTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L64" s="8" t="str">
-        <f t="shared" ref="L64:L78" si="15">IF(C64="", "  "&amp;H64&amp;" = class(TInterfacedObject, "&amp;G64&amp;")", "  "&amp;H64&amp;" = class(T"&amp;M64&amp;C64&amp;", "&amp;G64&amp;")")</f>
+        <f t="shared" ref="L64:L77" si="15">IF(C64="", "  "&amp;H64&amp;" = class(TInterfacedObject, "&amp;G64&amp;")", "  "&amp;H64&amp;" = class(T"&amp;M64&amp;C64&amp;", "&amp;G64&amp;")")</f>
         <v xml:space="preserve">  TTMDBMovieTranslationData = class(TTMDBTranslationData, ITMDBMovieTranslationData)</v>
       </c>
       <c r="M64" s="8" t="s">
@@ -8285,10 +8341,10 @@
         <v>294</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>255</v>
@@ -8332,10 +8388,10 @@
         <v>294</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>255</v>
@@ -8379,10 +8435,10 @@
         <v>294</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>255</v>
@@ -8426,10 +8482,10 @@
         <v>294</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>255</v>
@@ -8473,10 +8529,10 @@
         <v>294</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>255</v>
@@ -8520,10 +8576,10 @@
         <v>267</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>255</v>
@@ -8567,10 +8623,10 @@
         <v>268</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>255</v>
@@ -8608,19 +8664,19 @@
         <v>149</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G72" s="8" t="str">
         <f>"I"&amp;M72&amp;B72</f>
@@ -8661,13 +8717,13 @@
         <v>268</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G73" s="8" t="str">
         <f>"I"&amp;M73&amp;B73</f>
@@ -8708,13 +8764,13 @@
         <v>267</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G74" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8755,13 +8811,13 @@
         <v>268</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G75" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8802,13 +8858,13 @@
         <v>271</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G76" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8843,40 +8899,43 @@
         <v>82</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G77" s="8" t="str">
         <f t="shared" si="12"/>
-        <v>ITMDBCollectionPart</v>
+        <v>ITMDBCollectionDetail</v>
       </c>
       <c r="H77" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>TTMDBCollectionPart</v>
+        <v>TTMDBCollectionDetail</v>
       </c>
       <c r="I77" s="8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCollectionPart = interface;</v>
+        <v xml:space="preserve">  ITMDBCollectionDetail = interface;</v>
       </c>
       <c r="J77" s="8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCollectionPart = class;</v>
+        <v xml:space="preserve">  TTMDBCollectionDetail = class;</v>
       </c>
       <c r="K77" s="8" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBCollectionPart = interface</v>
+        <v xml:space="preserve">  ITMDBCollectionDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L77" s="8" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBCollectionPart = class(TInterfacedObject, ITMDBCollectionPart)</v>
+        <v xml:space="preserve">  TTMDBCollectionDetail = class(TTMDBDetail, ITMDBCollectionDetail)</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>259</v>
@@ -8884,46 +8943,43 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>154</v>
+        <v>359</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G78" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>ITMDBCollectionDetail</v>
+        <f>"I"&amp;M78&amp;B78</f>
+        <v>ITMDBDiscoverMoviesParams</v>
       </c>
       <c r="H78" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>TTMDBCollectionDetail</v>
+        <f>"T"&amp;M78&amp;B78</f>
+        <v>TTMDBDiscoverMoviesParams</v>
       </c>
       <c r="I78" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">  ITMDBCollectionDetail = interface;</v>
+        <f>"  "&amp;G78&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface;</v>
       </c>
       <c r="J78" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  TTMDBCollectionDetail = class;</v>
+        <f>"  "&amp;H78&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class;</v>
       </c>
       <c r="K78" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">  ITMDBCollectionDetail = interface(ITMDBDetail)</v>
+        <f>IF(C78="", "  "&amp;G78&amp;" = interface", "  "&amp;G78&amp;" = interface(I"&amp;M78&amp;C78&amp;")")</f>
+        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface</v>
       </c>
       <c r="L78" s="8" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">  TTMDBCollectionDetail = class(TTMDBDetail, ITMDBCollectionDetail)</v>
+        <f>IF(C78="", "  "&amp;H78&amp;" = class(TInterfacedObject, "&amp;G78&amp;")", "  "&amp;H78&amp;" = class(T"&amp;M78&amp;C78&amp;", "&amp;G78&amp;")")</f>
+        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class(TInterfacedObject, ITMDBDiscoverMoviesParams)</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>259</v>
@@ -8937,37 +8993,37 @@
         <v>360</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G79" s="8" t="str">
         <f>"I"&amp;M79&amp;B79</f>
-        <v>ITMDBDiscoverMoviesParams</v>
+        <v>ITMDBDiscoverTVParams</v>
       </c>
       <c r="H79" s="8" t="str">
         <f>"T"&amp;M79&amp;B79</f>
-        <v>TTMDBDiscoverMoviesParams</v>
+        <v>TTMDBDiscoverTVParams</v>
       </c>
       <c r="I79" s="8" t="str">
         <f>"  "&amp;G79&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface;</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface;</v>
       </c>
       <c r="J79" s="8" t="str">
         <f>"  "&amp;H79&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class;</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVParams = class;</v>
       </c>
       <c r="K79" s="8" t="str">
         <f>IF(C79="", "  "&amp;G79&amp;" = interface", "  "&amp;G79&amp;" = interface(I"&amp;M79&amp;C79&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverMoviesParams = interface</v>
+        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface</v>
       </c>
       <c r="L79" s="8" t="str">
         <f>IF(C79="", "  "&amp;H79&amp;" = class(TInterfacedObject, "&amp;G79&amp;")", "  "&amp;H79&amp;" = class(T"&amp;M79&amp;C79&amp;", "&amp;G79&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverMoviesParams = class(TInterfacedObject, ITMDBDiscoverMoviesParams)</v>
+        <v xml:space="preserve">  TTMDBDiscoverTVParams = class(TInterfacedObject, ITMDBDiscoverTVParams)</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>259</v>
@@ -8975,43 +9031,43 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>361</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G80" s="8" t="str">
         <f>"I"&amp;M80&amp;B80</f>
-        <v>ITMDBDiscoverTVParams</v>
+        <v>ITMDBFindResults</v>
       </c>
       <c r="H80" s="8" t="str">
         <f>"T"&amp;M80&amp;B80</f>
-        <v>TTMDBDiscoverTVParams</v>
+        <v>TTMDBFindResults</v>
       </c>
       <c r="I80" s="8" t="str">
         <f>"  "&amp;G80&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface;</v>
+        <v xml:space="preserve">  ITMDBFindResults = interface;</v>
       </c>
       <c r="J80" s="8" t="str">
         <f>"  "&amp;H80&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVParams = class;</v>
+        <v xml:space="preserve">  TTMDBFindResults = class;</v>
       </c>
       <c r="K80" s="8" t="str">
         <f>IF(C80="", "  "&amp;G80&amp;" = interface", "  "&amp;G80&amp;" = interface(I"&amp;M80&amp;C80&amp;")")</f>
-        <v xml:space="preserve">  ITMDBDiscoverTVParams = interface</v>
+        <v xml:space="preserve">  ITMDBFindResults = interface</v>
       </c>
       <c r="L80" s="8" t="str">
         <f>IF(C80="", "  "&amp;H80&amp;" = class(TInterfacedObject, "&amp;G80&amp;")", "  "&amp;H80&amp;" = class(T"&amp;M80&amp;C80&amp;", "&amp;G80&amp;")")</f>
-        <v xml:space="preserve">  TTMDBDiscoverTVParams = class(TInterfacedObject, ITMDBDiscoverTVParams)</v>
+        <v xml:space="preserve">  TTMDBFindResults = class(TInterfacedObject, ITMDBFindResults)</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>259</v>
@@ -9019,43 +9075,46 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>362</v>
+        <v>166</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G81" s="8" t="str">
-        <f>"I"&amp;M81&amp;B81</f>
-        <v>ITMDBFindResults</v>
+        <f t="shared" ref="G81:G111" si="16">"I"&amp;M81&amp;B81</f>
+        <v>ITMDBPerson</v>
       </c>
       <c r="H81" s="8" t="str">
-        <f>"T"&amp;M81&amp;B81</f>
-        <v>TTMDBFindResults</v>
+        <f t="shared" ref="H81:H111" si="17">"T"&amp;M81&amp;B81</f>
+        <v>TTMDBPerson</v>
       </c>
       <c r="I81" s="8" t="str">
-        <f>"  "&amp;G81&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBFindResults = interface;</v>
+        <f t="shared" ref="I81:I130" si="18">"  "&amp;G81&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBPerson = interface;</v>
       </c>
       <c r="J81" s="8" t="str">
-        <f>"  "&amp;H81&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBFindResults = class;</v>
+        <f t="shared" ref="J81:J130" si="19">"  "&amp;H81&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBPerson = class;</v>
       </c>
       <c r="K81" s="8" t="str">
-        <f>IF(C81="", "  "&amp;G81&amp;" = interface", "  "&amp;G81&amp;" = interface(I"&amp;M81&amp;C81&amp;")")</f>
-        <v xml:space="preserve">  ITMDBFindResults = interface</v>
+        <f t="shared" ref="K81:K111" si="20">IF(C81="", "  "&amp;G81&amp;" = interface", "  "&amp;G81&amp;" = interface(I"&amp;M81&amp;C81&amp;")")</f>
+        <v xml:space="preserve">  ITMDBPerson = interface(ITMDBMedium)</v>
       </c>
       <c r="L81" s="8" t="str">
-        <f>IF(C81="", "  "&amp;H81&amp;" = class(TInterfacedObject, "&amp;G81&amp;")", "  "&amp;H81&amp;" = class(T"&amp;M81&amp;C81&amp;", "&amp;G81&amp;")")</f>
-        <v xml:space="preserve">  TTMDBFindResults = class(TInterfacedObject, ITMDBFindResults)</v>
+        <f t="shared" ref="L81:L111" si="21">IF(C81="", "  "&amp;H81&amp;" = class(TInterfacedObject, "&amp;G81&amp;")", "  "&amp;H81&amp;" = class(T"&amp;M81&amp;C81&amp;", "&amp;G81&amp;")")</f>
+        <v xml:space="preserve">  TTMDBPerson = class(TTMDBMedium, ITMDBPerson)</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>259</v>
@@ -9066,43 +9125,43 @@
         <v>156</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G82" s="8" t="str">
-        <f t="shared" ref="G82:G112" si="16">"I"&amp;M82&amp;B82</f>
-        <v>ITMDBPerson</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBPeople</v>
       </c>
       <c r="H82" s="8" t="str">
-        <f t="shared" ref="H82:H112" si="17">"T"&amp;M82&amp;B82</f>
-        <v>TTMDBPerson</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBPeople</v>
       </c>
       <c r="I82" s="8" t="str">
-        <f t="shared" ref="I82:I131" si="18">"  "&amp;G82&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBPerson = interface;</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBPeople = interface;</v>
       </c>
       <c r="J82" s="8" t="str">
-        <f t="shared" ref="J82:J131" si="19">"  "&amp;H82&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBPerson = class;</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBPeople = class;</v>
       </c>
       <c r="K82" s="8" t="str">
-        <f t="shared" ref="K82:K112" si="20">IF(C82="", "  "&amp;G82&amp;" = interface", "  "&amp;G82&amp;" = interface(I"&amp;M82&amp;C82&amp;")")</f>
-        <v xml:space="preserve">  ITMDBPerson = interface(ITMDBMedium)</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  ITMDBPeople = interface(ITMDBMedia)</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" ref="L82:L112" si="21">IF(C82="", "  "&amp;H82&amp;" = class(TInterfacedObject, "&amp;G82&amp;")", "  "&amp;H82&amp;" = class(T"&amp;M82&amp;C82&amp;", "&amp;G82&amp;")")</f>
-        <v xml:space="preserve">  TTMDBPerson = class(TTMDBMedium, ITMDBPerson)</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  TTMDBPeople = class(TTMDBMedia, ITMDBPeople)</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>259</v>
@@ -9113,43 +9172,43 @@
         <v>156</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>156</v>
+        <v>321</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G83" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBPeople</v>
+        <v>ITMDBPersonPage</v>
       </c>
       <c r="H83" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBPeople</v>
+        <v>TTMDBPersonPage</v>
       </c>
       <c r="I83" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBPeople = interface;</v>
+        <v xml:space="preserve">  ITMDBPersonPage = interface;</v>
       </c>
       <c r="J83" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBPeople = class;</v>
+        <v xml:space="preserve">  TTMDBPersonPage = class;</v>
       </c>
       <c r="K83" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBPeople = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBPersonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L83" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBPeople = class(TTMDBMedia, ITMDBPeople)</v>
+        <v xml:space="preserve">  TTMDBPersonPage = class(TTMDBMediaPage, ITMDBPersonPage)</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>259</v>
@@ -9163,40 +9222,40 @@
         <v>322</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>255</v>
+        <v>377</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G84" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBPersonPage</v>
+        <v>ITMDBPersonDetail</v>
       </c>
       <c r="H84" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBPersonPage</v>
+        <v>TTMDBPersonDetail</v>
       </c>
       <c r="I84" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBPersonPage = interface;</v>
+        <v xml:space="preserve">  ITMDBPersonDetail = interface;</v>
       </c>
       <c r="J84" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBPersonPage = class;</v>
+        <v xml:space="preserve">  TTMDBPersonDetail = class;</v>
       </c>
       <c r="K84" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBPersonPage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBPersonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L84" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBPersonPage = class(TTMDBMediaPage, ITMDBPersonPage)</v>
+        <v xml:space="preserve">  TTMDBPersonDetail = class(TTMDBDetail, ITMDBPersonDetail)</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>259</v>
@@ -9204,46 +9263,46 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>323</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G85" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBPersonDetail</v>
+        <v>ITMDBCastPerson</v>
       </c>
       <c r="H85" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBPersonDetail</v>
+        <v>TTMDBCastPerson</v>
       </c>
       <c r="I85" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBPersonDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBCastPerson = interface;</v>
       </c>
       <c r="J85" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBPersonDetail = class;</v>
+        <v xml:space="preserve">  TTMDBCastPerson = class;</v>
       </c>
       <c r="K85" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBPersonDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBCastPerson = interface(ITMDBPerson)</v>
       </c>
       <c r="L85" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBPersonDetail = class(TTMDBDetail, ITMDBPersonDetail)</v>
+        <v xml:space="preserve">  TTMDBCastPerson = class(TTMDBPerson, ITMDBCastPerson)</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>259</v>
@@ -9257,40 +9316,40 @@
         <v>324</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G86" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBCastPerson</v>
+        <v>ITMDBCastPeople</v>
       </c>
       <c r="H86" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBCastPerson</v>
+        <v>TTMDBCastPeople</v>
       </c>
       <c r="I86" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBCastPerson = interface;</v>
+        <v xml:space="preserve">  ITMDBCastPeople = interface;</v>
       </c>
       <c r="J86" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBCastPerson = class;</v>
+        <v xml:space="preserve">  TTMDBCastPeople = class;</v>
       </c>
       <c r="K86" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBCastPerson = interface(ITMDBPerson)</v>
+        <v xml:space="preserve">  ITMDBCastPeople = interface(ITMDBPeople)</v>
       </c>
       <c r="L86" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBCastPerson = class(TTMDBPerson, ITMDBCastPerson)</v>
+        <v xml:space="preserve">  TTMDBCastPeople = class(TTMDBPeople, ITMDBCastPeople)</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>259</v>
@@ -9304,40 +9363,40 @@
         <v>325</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G87" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBCastPeople</v>
+        <v>ITMDBCrewPerson</v>
       </c>
       <c r="H87" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBCastPeople</v>
+        <v>TTMDBCrewPerson</v>
       </c>
       <c r="I87" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBCastPeople = interface;</v>
+        <v xml:space="preserve">  ITMDBCrewPerson = interface;</v>
       </c>
       <c r="J87" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBCastPeople = class;</v>
+        <v xml:space="preserve">  TTMDBCrewPerson = class;</v>
       </c>
       <c r="K87" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBCastPeople = interface(ITMDBPeople)</v>
+        <v xml:space="preserve">  ITMDBCrewPerson = interface(ITMDBPerson)</v>
       </c>
       <c r="L87" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBCastPeople = class(TTMDBPeople, ITMDBCastPeople)</v>
+        <v xml:space="preserve">  TTMDBCrewPerson = class(TTMDBPerson, ITMDBCrewPerson)</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>259</v>
@@ -9351,40 +9410,40 @@
         <v>326</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G88" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBCrewPerson</v>
+        <v>ITMDBCrewPeople</v>
       </c>
       <c r="H88" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBCrewPerson</v>
+        <v>TTMDBCrewPeople</v>
       </c>
       <c r="I88" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBCrewPerson = interface;</v>
+        <v xml:space="preserve">  ITMDBCrewPeople = interface;</v>
       </c>
       <c r="J88" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBCrewPerson = class;</v>
+        <v xml:space="preserve">  TTMDBCrewPeople = class;</v>
       </c>
       <c r="K88" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBCrewPerson = interface(ITMDBPerson)</v>
+        <v xml:space="preserve">  ITMDBCrewPeople = interface(ITMDBPeople)</v>
       </c>
       <c r="L88" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBCrewPerson = class(TTMDBPerson, ITMDBCrewPerson)</v>
+        <v xml:space="preserve">  TTMDBCrewPeople = class(TTMDBPeople, ITMDBCrewPeople)</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>259</v>
@@ -9395,43 +9454,40 @@
         <v>93</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G89" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBCrewPeople</v>
+        <v>ITMDBCredits</v>
       </c>
       <c r="H89" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBCrewPeople</v>
+        <v>TTMDBCredits</v>
       </c>
       <c r="I89" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBCrewPeople = interface;</v>
+        <v xml:space="preserve">  ITMDBCredits = interface;</v>
       </c>
       <c r="J89" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBCrewPeople = class;</v>
+        <v xml:space="preserve">  TTMDBCredits = class;</v>
       </c>
       <c r="K89" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBCrewPeople = interface(ITMDBPeople)</v>
+        <v xml:space="preserve">  ITMDBCredits = interface</v>
       </c>
       <c r="L89" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBCrewPeople = class(TTMDBPeople, ITMDBCrewPeople)</v>
+        <v xml:space="preserve">  TTMDBCredits = class(TInterfacedObject, ITMDBCredits)</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>259</v>
@@ -9442,40 +9498,40 @@
         <v>93</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>93</v>
+        <v>449</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G90" s="8" t="str">
-        <f t="shared" si="16"/>
-        <v>ITMDBCredits</v>
+        <f t="shared" ref="G90" si="22">"I"&amp;M90&amp;B90</f>
+        <v>ITMDBCreditDetail</v>
       </c>
       <c r="H90" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>TTMDBCredits</v>
+        <f t="shared" ref="H90" si="23">"T"&amp;M90&amp;B90</f>
+        <v>TTMDBCreditDetail</v>
       </c>
       <c r="I90" s="8" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBCredits = interface;</v>
+        <f t="shared" ref="I90" si="24">"  "&amp;G90&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBCreditDetail = interface;</v>
       </c>
       <c r="J90" s="8" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBCredits = class;</v>
+        <f t="shared" ref="J90" si="25">"  "&amp;H90&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBCreditDetail = class;</v>
       </c>
       <c r="K90" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBCredits = interface</v>
+        <f t="shared" ref="K90" si="26">IF(C90="", "  "&amp;G90&amp;" = interface", "  "&amp;G90&amp;" = interface(I"&amp;M90&amp;C90&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCreditDetail = interface</v>
       </c>
       <c r="L90" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBCredits = class(TInterfacedObject, ITMDBCredits)</v>
+        <f t="shared" ref="L90" si="27">IF(C90="", "  "&amp;H90&amp;" = class(TInterfacedObject, "&amp;G90&amp;")", "  "&amp;H90&amp;" = class(T"&amp;M90&amp;C90&amp;", "&amp;G90&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCreditDetail = class(TInterfacedObject, ITMDBCreditDetail)</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>259</v>
@@ -9483,43 +9539,46 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>450</v>
+        <v>356</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G91" s="8" t="str">
-        <f t="shared" ref="G91" si="22">"I"&amp;M91&amp;B91</f>
-        <v>ITMDBCreditDetail</v>
+        <f>"I"&amp;M91&amp;B91</f>
+        <v>ITMDBList</v>
       </c>
       <c r="H91" s="8" t="str">
-        <f t="shared" ref="H91" si="23">"T"&amp;M91&amp;B91</f>
-        <v>TTMDBCreditDetail</v>
+        <f>"T"&amp;M91&amp;B91</f>
+        <v>TTMDBList</v>
       </c>
       <c r="I91" s="8" t="str">
-        <f t="shared" ref="I91" si="24">"  "&amp;G91&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBCreditDetail = interface;</v>
+        <f>"  "&amp;G91&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBList = interface;</v>
       </c>
       <c r="J91" s="8" t="str">
-        <f t="shared" ref="J91" si="25">"  "&amp;H91&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBCreditDetail = class;</v>
+        <f>"  "&amp;H91&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBList = class;</v>
       </c>
       <c r="K91" s="8" t="str">
-        <f t="shared" ref="K91" si="26">IF(C91="", "  "&amp;G91&amp;" = interface", "  "&amp;G91&amp;" = interface(I"&amp;M91&amp;C91&amp;")")</f>
-        <v xml:space="preserve">  ITMDBCreditDetail = interface</v>
+        <f>IF(C91="", "  "&amp;G91&amp;" = interface", "  "&amp;G91&amp;" = interface(I"&amp;M91&amp;C91&amp;")")</f>
+        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
       </c>
       <c r="L91" s="8" t="str">
-        <f t="shared" ref="L91" si="27">IF(C91="", "  "&amp;H91&amp;" = class(TInterfacedObject, "&amp;G91&amp;")", "  "&amp;H91&amp;" = class(T"&amp;M91&amp;C91&amp;", "&amp;G91&amp;")")</f>
-        <v xml:space="preserve">  TTMDBCreditDetail = class(TInterfacedObject, ITMDBCreditDetail)</v>
+        <f>IF(C91="", "  "&amp;H91&amp;" = class(TInterfacedObject, "&amp;G91&amp;")", "  "&amp;H91&amp;" = class(T"&amp;M91&amp;C91&amp;", "&amp;G91&amp;")")</f>
+        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>259</v>
@@ -9530,43 +9589,43 @@
         <v>8</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>357</v>
+        <v>8</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G92" s="8" t="str">
         <f>"I"&amp;M92&amp;B92</f>
-        <v>ITMDBList</v>
+        <v>ITMDBLists</v>
       </c>
       <c r="H92" s="8" t="str">
         <f>"T"&amp;M92&amp;B92</f>
-        <v>TTMDBList</v>
+        <v>TTMDBLists</v>
       </c>
       <c r="I92" s="8" t="str">
         <f>"  "&amp;G92&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBList = interface;</v>
+        <v xml:space="preserve">  ITMDBLists = interface;</v>
       </c>
       <c r="J92" s="8" t="str">
         <f>"  "&amp;H92&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBList = class;</v>
+        <v xml:space="preserve">  TTMDBLists = class;</v>
       </c>
       <c r="K92" s="8" t="str">
         <f>IF(C92="", "  "&amp;G92&amp;" = interface", "  "&amp;G92&amp;" = interface(I"&amp;M92&amp;C92&amp;")")</f>
-        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
       </c>
       <c r="L92" s="8" t="str">
         <f>IF(C92="", "  "&amp;H92&amp;" = class(TInterfacedObject, "&amp;G92&amp;")", "  "&amp;H92&amp;" = class(T"&amp;M92&amp;C92&amp;", "&amp;G92&amp;")")</f>
-        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
+        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>259</v>
@@ -9577,43 +9636,43 @@
         <v>8</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>8</v>
+        <v>357</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G93" s="8" t="str">
         <f>"I"&amp;M93&amp;B93</f>
-        <v>ITMDBLists</v>
+        <v>ITMDBListPage</v>
       </c>
       <c r="H93" s="8" t="str">
         <f>"T"&amp;M93&amp;B93</f>
-        <v>TTMDBLists</v>
+        <v>TTMDBListPage</v>
       </c>
       <c r="I93" s="8" t="str">
         <f>"  "&amp;G93&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBLists = interface;</v>
+        <v xml:space="preserve">  ITMDBListPage = interface;</v>
       </c>
       <c r="J93" s="8" t="str">
         <f>"  "&amp;H93&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBLists = class;</v>
+        <v xml:space="preserve">  TTMDBListPage = class;</v>
       </c>
       <c r="K93" s="8" t="str">
         <f>IF(C93="", "  "&amp;G93&amp;" = interface", "  "&amp;G93&amp;" = interface(I"&amp;M93&amp;C93&amp;")")</f>
-        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
       </c>
       <c r="L93" s="8" t="str">
         <f>IF(C93="", "  "&amp;H93&amp;" = class(TInterfacedObject, "&amp;G93&amp;")", "  "&amp;H93&amp;" = class(T"&amp;M93&amp;C93&amp;", "&amp;G93&amp;")")</f>
-        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
+        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>259</v>
@@ -9627,40 +9686,40 @@
         <v>358</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G94" s="8" t="str">
         <f>"I"&amp;M94&amp;B94</f>
-        <v>ITMDBListPage</v>
+        <v>ITMDBListDetail</v>
       </c>
       <c r="H94" s="8" t="str">
         <f>"T"&amp;M94&amp;B94</f>
-        <v>TTMDBListPage</v>
+        <v>TTMDBListDetail</v>
       </c>
       <c r="I94" s="8" t="str">
         <f>"  "&amp;G94&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBListPage = interface;</v>
+        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
       </c>
       <c r="J94" s="8" t="str">
         <f>"  "&amp;H94&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBListPage = class;</v>
+        <v xml:space="preserve">  TTMDBListDetail = class;</v>
       </c>
       <c r="K94" s="8" t="str">
         <f>IF(C94="", "  "&amp;G94&amp;" = interface", "  "&amp;G94&amp;" = interface(I"&amp;M94&amp;C94&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
+        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L94" s="8" t="str">
         <f>IF(C94="", "  "&amp;H94&amp;" = class(TInterfacedObject, "&amp;G94&amp;")", "  "&amp;H94&amp;" = class(T"&amp;M94&amp;C94&amp;", "&amp;G94&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
+        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>259</v>
@@ -9668,46 +9727,43 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>154</v>
+        <v>385</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G95" s="8" t="str">
         <f>"I"&amp;M95&amp;B95</f>
-        <v>ITMDBListDetail</v>
+        <v>ITMDBReviewAuthor</v>
       </c>
       <c r="H95" s="8" t="str">
         <f>"T"&amp;M95&amp;B95</f>
-        <v>TTMDBListDetail</v>
+        <v>TTMDBReviewAuthor</v>
       </c>
       <c r="I95" s="8" t="str">
         <f>"  "&amp;G95&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBReviewAuthor = interface;</v>
       </c>
       <c r="J95" s="8" t="str">
         <f>"  "&amp;H95&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBListDetail = class;</v>
+        <v xml:space="preserve">  TTMDBReviewAuthor = class;</v>
       </c>
       <c r="K95" s="8" t="str">
         <f>IF(C95="", "  "&amp;G95&amp;" = interface", "  "&amp;G95&amp;" = interface(I"&amp;M95&amp;C95&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBReviewAuthor = interface</v>
       </c>
       <c r="L95" s="8" t="str">
         <f>IF(C95="", "  "&amp;H95&amp;" = class(TInterfacedObject, "&amp;G95&amp;")", "  "&amp;H95&amp;" = class(T"&amp;M95&amp;C95&amp;", "&amp;G95&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
+        <v xml:space="preserve">  TTMDBReviewAuthor = class(TInterfacedObject, ITMDBReviewAuthor)</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>259</v>
@@ -9718,40 +9774,43 @@
         <v>147</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G96" s="8" t="str">
         <f>"I"&amp;M96&amp;B96</f>
-        <v>ITMDBReviewAuthor</v>
+        <v>ITMDBReview</v>
       </c>
       <c r="H96" s="8" t="str">
         <f>"T"&amp;M96&amp;B96</f>
-        <v>TTMDBReviewAuthor</v>
+        <v>TTMDBReview</v>
       </c>
       <c r="I96" s="8" t="str">
         <f>"  "&amp;G96&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewAuthor = interface;</v>
+        <v xml:space="preserve">  ITMDBReview = interface;</v>
       </c>
       <c r="J96" s="8" t="str">
         <f>"  "&amp;H96&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewAuthor = class;</v>
+        <v xml:space="preserve">  TTMDBReview = class;</v>
       </c>
       <c r="K96" s="8" t="str">
         <f>IF(C96="", "  "&amp;G96&amp;" = interface", "  "&amp;G96&amp;" = interface(I"&amp;M96&amp;C96&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewAuthor = interface</v>
+        <v xml:space="preserve">  ITMDBReview = interface(ITMDBItem)</v>
       </c>
       <c r="L96" s="8" t="str">
         <f>IF(C96="", "  "&amp;H96&amp;" = class(TInterfacedObject, "&amp;G96&amp;")", "  "&amp;H96&amp;" = class(T"&amp;M96&amp;C96&amp;", "&amp;G96&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewAuthor = class(TInterfacedObject, ITMDBReviewAuthor)</v>
+        <v xml:space="preserve">  TTMDBReview = class(TTMDBItem, ITMDBReview)</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>259</v>
@@ -9762,43 +9821,43 @@
         <v>147</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>384</v>
+        <v>147</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G97" s="8" t="str">
         <f>"I"&amp;M97&amp;B97</f>
-        <v>ITMDBReview</v>
+        <v>ITMDBReviews</v>
       </c>
       <c r="H97" s="8" t="str">
         <f>"T"&amp;M97&amp;B97</f>
-        <v>TTMDBReview</v>
+        <v>TTMDBReviews</v>
       </c>
       <c r="I97" s="8" t="str">
         <f>"  "&amp;G97&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReview = interface;</v>
+        <v xml:space="preserve">  ITMDBReviews = interface;</v>
       </c>
       <c r="J97" s="8" t="str">
         <f>"  "&amp;H97&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReview = class;</v>
+        <v xml:space="preserve">  TTMDBReviews = class;</v>
       </c>
       <c r="K97" s="8" t="str">
         <f>IF(C97="", "  "&amp;G97&amp;" = interface", "  "&amp;G97&amp;" = interface(I"&amp;M97&amp;C97&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReview = interface(ITMDBItem)</v>
+        <v xml:space="preserve">  ITMDBReviews = interface(ITMDBItems)</v>
       </c>
       <c r="L97" s="8" t="str">
         <f>IF(C97="", "  "&amp;H97&amp;" = class(TInterfacedObject, "&amp;G97&amp;")", "  "&amp;H97&amp;" = class(T"&amp;M97&amp;C97&amp;", "&amp;G97&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReview = class(TTMDBItem, ITMDBReview)</v>
+        <v xml:space="preserve">  TTMDBReviews = class(TTMDBItems, ITMDBReviews)</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>259</v>
@@ -9809,43 +9868,43 @@
         <v>147</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G98" s="8" t="str">
         <f>"I"&amp;M98&amp;B98</f>
-        <v>ITMDBReviews</v>
+        <v>ITMDBReviewPage</v>
       </c>
       <c r="H98" s="8" t="str">
         <f>"T"&amp;M98&amp;B98</f>
-        <v>TTMDBReviews</v>
+        <v>TTMDBReviewPage</v>
       </c>
       <c r="I98" s="8" t="str">
         <f>"  "&amp;G98&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviews = interface;</v>
+        <v xml:space="preserve">  ITMDBReviewPage = interface;</v>
       </c>
       <c r="J98" s="8" t="str">
         <f>"  "&amp;H98&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviews = class;</v>
+        <v xml:space="preserve">  TTMDBReviewPage = class;</v>
       </c>
       <c r="K98" s="8" t="str">
         <f>IF(C98="", "  "&amp;G98&amp;" = interface", "  "&amp;G98&amp;" = interface(I"&amp;M98&amp;C98&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviews = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBReviewPage = interface(ITMDBPage)</v>
       </c>
       <c r="L98" s="8" t="str">
         <f>IF(C98="", "  "&amp;H98&amp;" = class(TInterfacedObject, "&amp;G98&amp;")", "  "&amp;H98&amp;" = class(T"&amp;M98&amp;C98&amp;", "&amp;G98&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviews = class(TTMDBItems, ITMDBReviews)</v>
+        <v xml:space="preserve">  TTMDBReviewPage = class(TTMDBPage, ITMDBReviewPage)</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>259</v>
@@ -9856,43 +9915,40 @@
         <v>147</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>255</v>
+        <v>377</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G99" s="8" t="str">
         <f>"I"&amp;M99&amp;B99</f>
-        <v>ITMDBReviewPage</v>
+        <v>ITMDBReviewDetail</v>
       </c>
       <c r="H99" s="8" t="str">
         <f>"T"&amp;M99&amp;B99</f>
-        <v>TTMDBReviewPage</v>
+        <v>TTMDBReviewDetail</v>
       </c>
       <c r="I99" s="8" t="str">
         <f>"  "&amp;G99&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewPage = interface;</v>
+        <v xml:space="preserve">  ITMDBReviewDetail = interface;</v>
       </c>
       <c r="J99" s="8" t="str">
         <f>"  "&amp;H99&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewPage = class;</v>
+        <v xml:space="preserve">  TTMDBReviewDetail = class;</v>
       </c>
       <c r="K99" s="8" t="str">
         <f>IF(C99="", "  "&amp;G99&amp;" = interface", "  "&amp;G99&amp;" = interface(I"&amp;M99&amp;C99&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewPage = interface(ITMDBPage)</v>
+        <v xml:space="preserve">  ITMDBReviewDetail = interface</v>
       </c>
       <c r="L99" s="8" t="str">
         <f>IF(C99="", "  "&amp;H99&amp;" = class(TInterfacedObject, "&amp;G99&amp;")", "  "&amp;H99&amp;" = class(T"&amp;M99&amp;C99&amp;", "&amp;G99&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewPage = class(TTMDBPage, ITMDBReviewPage)</v>
+        <v xml:space="preserve">  TTMDBReviewDetail = class(TInterfacedObject, ITMDBReviewDetail)</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>259</v>
@@ -9900,43 +9956,46 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>388</v>
+        <v>115</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f>"I"&amp;M100&amp;B100</f>
-        <v>ITMDBReviewDetail</v>
+        <f t="shared" si="16"/>
+        <v>ITMDBMovie</v>
       </c>
       <c r="H100" s="8" t="str">
-        <f>"T"&amp;M100&amp;B100</f>
-        <v>TTMDBReviewDetail</v>
+        <f t="shared" si="17"/>
+        <v>TTMDBMovie</v>
       </c>
       <c r="I100" s="8" t="str">
-        <f>"  "&amp;G100&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewDetail = interface;</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBMovie = interface;</v>
       </c>
       <c r="J100" s="8" t="str">
-        <f>"  "&amp;H100&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewDetail = class;</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBMovie = class;</v>
       </c>
       <c r="K100" s="8" t="str">
-        <f>IF(C100="", "  "&amp;G100&amp;" = interface", "  "&amp;G100&amp;" = interface(I"&amp;M100&amp;C100&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewDetail = interface</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
       </c>
       <c r="L100" s="8" t="str">
-        <f>IF(C100="", "  "&amp;H100&amp;" = class(TInterfacedObject, "&amp;G100&amp;")", "  "&amp;H100&amp;" = class(T"&amp;M100&amp;C100&amp;", "&amp;G100&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewDetail = class(TInterfacedObject, ITMDBReviewDetail)</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>259</v>
@@ -9947,43 +10006,43 @@
         <v>140</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G101" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMovie</v>
+        <v>ITMDBMovies</v>
       </c>
       <c r="H101" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMovie</v>
+        <v>TTMDBMovies</v>
       </c>
       <c r="I101" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMovie = interface;</v>
+        <v xml:space="preserve">  ITMDBMovies = interface;</v>
       </c>
       <c r="J101" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMovie = class;</v>
+        <v xml:space="preserve">  TTMDBMovies = class;</v>
       </c>
       <c r="K101" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
+        <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
       </c>
       <c r="L101" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
+        <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>259</v>
@@ -9994,43 +10053,43 @@
         <v>140</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G102" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMovies</v>
+        <v>ITMDBMoviePage</v>
       </c>
       <c r="H102" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMovies</v>
+        <v>TTMDBMoviePage</v>
       </c>
       <c r="I102" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
       </c>
       <c r="J102" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMovies = class;</v>
+        <v xml:space="preserve">  TTMDBMoviePage = class;</v>
       </c>
       <c r="K102" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L102" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
+        <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>259</v>
@@ -10044,40 +10103,40 @@
         <v>328</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G103" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMoviePage</v>
+        <v>ITMDBRatedMovie</v>
       </c>
       <c r="H103" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMoviePage</v>
+        <v>TTMDBRatedMovie</v>
       </c>
       <c r="I103" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
       </c>
       <c r="J103" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
       </c>
       <c r="K103" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
       </c>
       <c r="L103" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
+        <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>259</v>
@@ -10091,40 +10150,40 @@
         <v>329</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G104" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedMovie</v>
+        <v>ITMDBRatedMovies</v>
       </c>
       <c r="H104" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedMovie</v>
+        <v>TTMDBRatedMovies</v>
       </c>
       <c r="I104" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
       </c>
       <c r="J104" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
       </c>
       <c r="K104" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
+        <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
       </c>
       <c r="L104" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
+        <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>259</v>
@@ -10138,40 +10197,40 @@
         <v>330</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F105" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G105" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedMovies</v>
+        <v>ITMDBRatedMoviePage</v>
       </c>
       <c r="H105" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedMovies</v>
+        <v>TTMDBRatedMoviePage</v>
       </c>
       <c r="I105" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
       </c>
       <c r="J105" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
+        <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
       </c>
       <c r="K105" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
+        <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L105" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
+        <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>259</v>
@@ -10184,41 +10243,38 @@
       <c r="B106" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="D106" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F106" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G106" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBRatedMoviePage</v>
+        <v>ITMDBMovieCollectionRef</v>
       </c>
       <c r="H106" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBRatedMoviePage</v>
+        <v>TTMDBMovieCollectionRef</v>
       </c>
       <c r="I106" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
       </c>
       <c r="J106" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
       </c>
       <c r="K106" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
+        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
       </c>
       <c r="L106" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
+        <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>259</v>
@@ -10231,38 +10287,41 @@
       <c r="B107" s="10" t="s">
         <v>332</v>
       </c>
+      <c r="C107" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="D107" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G107" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMovieCollectionRef</v>
+        <v>ITMDBMovieDetail</v>
       </c>
       <c r="H107" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMovieCollectionRef</v>
+        <v>TTMDBMovieDetail</v>
       </c>
       <c r="I107" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
+        <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
       </c>
       <c r="J107" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
+        <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
       </c>
       <c r="K107" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
+        <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L107" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
+        <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>259</v>
@@ -10270,46 +10329,43 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="D108" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>256</v>
+        <v>377</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G108" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBMovieDetail</v>
+        <v>ITMDBDateRange</v>
       </c>
       <c r="H108" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBMovieDetail</v>
+        <v>TTMDBDateRange</v>
       </c>
       <c r="I108" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBDateRange = interface;</v>
       </c>
       <c r="J108" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
+        <v xml:space="preserve">  TTMDBDateRange = class;</v>
       </c>
       <c r="K108" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBDateRange = interface</v>
       </c>
       <c r="L108" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
+        <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>259</v>
@@ -10322,38 +10378,41 @@
       <c r="B109" s="10" t="s">
         <v>334</v>
       </c>
+      <c r="C109" s="10" t="s">
+        <v>327</v>
+      </c>
       <c r="D109" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G109" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBDateRange</v>
+        <v>ITMDBDatedMoviePage</v>
       </c>
       <c r="H109" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBDateRange</v>
+        <v>TTMDBDatedMoviePage</v>
       </c>
       <c r="I109" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBDateRange = interface;</v>
+        <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
       </c>
       <c r="J109" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBDateRange = class;</v>
+        <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
       </c>
       <c r="K109" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBDateRange = interface</v>
+        <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L109" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
+        <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>259</v>
@@ -10361,46 +10420,46 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>74</v>
+        <v>272</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G110" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBDatedMoviePage</v>
+        <v>ITMDBTVSerie</v>
       </c>
       <c r="H110" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBDatedMoviePage</v>
+        <v>TTMDBTVSerie</v>
       </c>
       <c r="I110" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
       </c>
       <c r="J110" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
+        <v xml:space="preserve">  TTMDBTVSerie = class;</v>
       </c>
       <c r="K110" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
+        <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
       </c>
       <c r="L110" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
+        <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>259</v>
@@ -10414,40 +10473,40 @@
         <v>339</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>256</v>
+        <v>273</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G111" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>ITMDBTVSerie</v>
+        <v>ITMDBTVSeries</v>
       </c>
       <c r="H111" s="8" t="str">
         <f t="shared" si="17"/>
-        <v>TTMDBTVSerie</v>
+        <v>TTMDBTVSeries</v>
       </c>
       <c r="I111" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
       </c>
       <c r="J111" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSerie = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeries = class;</v>
       </c>
       <c r="K111" s="8" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
+        <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
       </c>
       <c r="L111" s="8" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
+        <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>259</v>
@@ -10461,40 +10520,40 @@
         <v>340</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>255</v>
+        <v>377</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G112" s="8" t="str">
-        <f t="shared" si="16"/>
-        <v>ITMDBTVSeries</v>
+        <f t="shared" ref="G112:G132" si="28">"I"&amp;M112&amp;B112</f>
+        <v>ITMDBTVSeriesPage</v>
       </c>
       <c r="H112" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>TTMDBTVSeries</v>
+        <f t="shared" ref="H112:H132" si="29">"T"&amp;M112&amp;B112</f>
+        <v>TTMDBTVSeriesPage</v>
       </c>
       <c r="I112" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
       </c>
       <c r="J112" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
       </c>
       <c r="K112" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
+        <f t="shared" ref="K112:K132" si="30">IF(C112="", "  "&amp;G112&amp;" = interface", "  "&amp;G112&amp;" = interface(I"&amp;M112&amp;C112&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L112" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
+        <f t="shared" ref="L112:L132" si="31">IF(C112="", "  "&amp;H112&amp;" = class(TInterfacedObject, "&amp;G112&amp;")", "  "&amp;H112&amp;" = class(T"&amp;M112&amp;C112&amp;", "&amp;G112&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>259</v>
@@ -10508,40 +10567,40 @@
         <v>341</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F113" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G113" s="8" t="str">
-        <f t="shared" ref="G113:G133" si="28">"I"&amp;M113&amp;B113</f>
-        <v>ITMDBTVSeriesPage</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBRatedTVSerie</v>
       </c>
       <c r="H113" s="8" t="str">
-        <f t="shared" ref="H113:H133" si="29">"T"&amp;M113&amp;B113</f>
-        <v>TTMDBTVSeriesPage</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBRatedTVSerie</v>
       </c>
       <c r="I113" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
       </c>
       <c r="J113" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
       </c>
       <c r="K113" s="8" t="str">
-        <f t="shared" ref="K113:K133" si="30">IF(C113="", "  "&amp;G113&amp;" = interface", "  "&amp;G113&amp;" = interface(I"&amp;M113&amp;C113&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
       </c>
       <c r="L113" s="8" t="str">
-        <f t="shared" ref="L113:L133" si="31">IF(C113="", "  "&amp;H113&amp;" = class(TInterfacedObject, "&amp;G113&amp;")", "  "&amp;H113&amp;" = class(T"&amp;M113&amp;C113&amp;", "&amp;G113&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
       </c>
       <c r="M113" s="8" t="s">
         <v>259</v>
@@ -10558,37 +10617,37 @@
         <v>339</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G114" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBRatedTVSerie</v>
+        <v>ITMDBRatedTVSeries</v>
       </c>
       <c r="H114" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBRatedTVSerie</v>
+        <v>TTMDBRatedTVSeries</v>
       </c>
       <c r="I114" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
       </c>
       <c r="J114" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
       </c>
       <c r="K114" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
       </c>
       <c r="L114" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>259</v>
@@ -10605,37 +10664,37 @@
         <v>340</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBRatedTVSeries</v>
+        <v>ITMDBRatedTVSeriesPage</v>
       </c>
       <c r="H115" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBRatedTVSeries</v>
+        <v>TTMDBRatedTVSeriesPage</v>
       </c>
       <c r="I115" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
       </c>
       <c r="J115" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
       </c>
       <c r="K115" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
+        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
       </c>
       <c r="L115" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
+        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
       </c>
       <c r="M115" s="8" t="s">
         <v>259</v>
@@ -10646,43 +10705,43 @@
         <v>172</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>378</v>
+        <v>154</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F116" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G116" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBRatedTVSeriesPage</v>
+        <v>ITMDBTVSerieDetail</v>
       </c>
       <c r="H116" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBRatedTVSeriesPage</v>
+        <v>TTMDBTVSerieDetail</v>
       </c>
       <c r="I116" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSerieDetail = interface;</v>
       </c>
       <c r="J116" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
+        <v xml:space="preserve">  TTMDBTVSerieDetail = class;</v>
       </c>
       <c r="K116" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
+        <v xml:space="preserve">  ITMDBTVSerieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L116" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
+        <v xml:space="preserve">  TTMDBTVSerieDetail = class(TTMDBDetail, ITMDBTVSerieDetail)</v>
       </c>
       <c r="M116" s="8" t="s">
         <v>259</v>
@@ -10690,46 +10749,46 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G117" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVSerieDetail</v>
+        <v>ITMDBTVSeason</v>
       </c>
       <c r="H117" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVSerieDetail</v>
+        <v>TTMDBTVSeason</v>
       </c>
       <c r="I117" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSerieDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
       </c>
       <c r="J117" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSerieDetail = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeason = class;</v>
       </c>
       <c r="K117" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVSerieDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
       </c>
       <c r="L117" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVSerieDetail = class(TTMDBDetail, ITMDBTVSerieDetail)</v>
+        <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
       </c>
       <c r="M117" s="8" t="s">
         <v>259</v>
@@ -10743,10 +10802,10 @@
         <v>345</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>74</v>
@@ -10756,27 +10815,27 @@
       </c>
       <c r="G118" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVSeason</v>
+        <v>ITMDBTVSeasons</v>
       </c>
       <c r="H118" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVSeason</v>
+        <v>TTMDBTVSeasons</v>
       </c>
       <c r="I118" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
       </c>
       <c r="J118" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeason = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
       </c>
       <c r="K118" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
+        <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
       </c>
       <c r="L118" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
+        <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>259</v>
@@ -10790,10 +10849,10 @@
         <v>346</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>74</v>
@@ -10803,27 +10862,27 @@
       </c>
       <c r="G119" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVSeasons</v>
+        <v>ITMDBTVSeasonPage</v>
       </c>
       <c r="H119" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVSeasons</v>
+        <v>TTMDBTVSeasonPage</v>
       </c>
       <c r="I119" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
       </c>
       <c r="J119" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
       </c>
       <c r="K119" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L119" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
+        <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
       </c>
       <c r="M119" s="8" t="s">
         <v>259</v>
@@ -10837,10 +10896,10 @@
         <v>347</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>74</v>
@@ -10850,27 +10909,27 @@
       </c>
       <c r="G120" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVSeasonPage</v>
+        <v>ITMDBTVSeasonDetail</v>
       </c>
       <c r="H120" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVSeasonPage</v>
+        <v>TTMDBTVSeasonDetail</v>
       </c>
       <c r="I120" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
+        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
       </c>
       <c r="J120" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
+        <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
       </c>
       <c r="K120" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L120" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
+        <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>259</v>
@@ -10881,13 +10940,13 @@
         <v>177</v>
       </c>
       <c r="B121" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>256</v>
+      <c r="D121" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>74</v>
@@ -10896,28 +10955,28 @@
         <v>74</v>
       </c>
       <c r="G121" s="8" t="str">
-        <f t="shared" si="28"/>
-        <v>ITMDBTVSeasonDetail</v>
+        <f t="shared" ref="G121" si="32">"I"&amp;M121&amp;B121</f>
+        <v>ITMDBTVSeasonEpisode</v>
       </c>
       <c r="H121" s="8" t="str">
-        <f t="shared" si="29"/>
-        <v>TTMDBTVSeasonDetail</v>
+        <f t="shared" ref="H121" si="33">"T"&amp;M121&amp;B121</f>
+        <v>TTMDBTVSeasonEpisode</v>
       </c>
       <c r="I121" s="8" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
+        <f t="shared" ref="I121" si="34">"  "&amp;G121&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
       </c>
       <c r="J121" s="8" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
+        <f t="shared" ref="J121" si="35">"  "&amp;H121&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
       </c>
       <c r="K121" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
+        <f t="shared" ref="K121" si="36">IF(C121="", "  "&amp;G121&amp;" = interface", "  "&amp;G121&amp;" = interface(I"&amp;M121&amp;C121&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="L121" s="8" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
+        <f t="shared" ref="L121" si="37">IF(C121="", "  "&amp;H121&amp;" = class(TInterfacedObject, "&amp;G121&amp;")", "  "&amp;H121&amp;" = class(T"&amp;M121&amp;C121&amp;", "&amp;G121&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
       </c>
       <c r="M121" s="8" t="s">
         <v>259</v>
@@ -10928,13 +10987,13 @@
         <v>177</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>256</v>
+      <c r="D122" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>74</v>
@@ -10943,28 +11002,28 @@
         <v>74</v>
       </c>
       <c r="G122" s="8" t="str">
-        <f t="shared" ref="G122" si="32">"I"&amp;M122&amp;B122</f>
-        <v>ITMDBTVSeasonEpisode</v>
+        <f t="shared" ref="G122" si="38">"I"&amp;M122&amp;B122</f>
+        <v>ITMDBTVSeasonEpisodes</v>
       </c>
       <c r="H122" s="8" t="str">
-        <f t="shared" ref="H122" si="33">"T"&amp;M122&amp;B122</f>
-        <v>TTMDBTVSeasonEpisode</v>
+        <f t="shared" ref="H122" si="39">"T"&amp;M122&amp;B122</f>
+        <v>TTMDBTVSeasonEpisodes</v>
       </c>
       <c r="I122" s="8" t="str">
-        <f t="shared" ref="I122" si="34">"  "&amp;G122&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
+        <f t="shared" ref="I122" si="40">"  "&amp;G122&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface;</v>
       </c>
       <c r="J122" s="8" t="str">
-        <f t="shared" ref="J122" si="35">"  "&amp;H122&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
+        <f t="shared" ref="J122" si="41">"  "&amp;H122&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class;</v>
       </c>
       <c r="K122" s="8" t="str">
-        <f t="shared" ref="K122" si="36">IF(C122="", "  "&amp;G122&amp;" = interface", "  "&amp;G122&amp;" = interface(I"&amp;M122&amp;C122&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
+        <f t="shared" ref="K122" si="42">IF(C122="", "  "&amp;G122&amp;" = interface", "  "&amp;G122&amp;" = interface(I"&amp;M122&amp;C122&amp;")")</f>
+        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="L122" s="8" t="str">
-        <f t="shared" ref="L122" si="37">IF(C122="", "  "&amp;H122&amp;" = class(TInterfacedObject, "&amp;G122&amp;")", "  "&amp;H122&amp;" = class(T"&amp;M122&amp;C122&amp;", "&amp;G122&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
+        <f t="shared" ref="L122" si="43">IF(C122="", "  "&amp;H122&amp;" = class(TInterfacedObject, "&amp;G122&amp;")", "  "&amp;H122&amp;" = class(T"&amp;M122&amp;C122&amp;", "&amp;G122&amp;")")</f>
+        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class(TTMDBTVEpisodes, ITMDBTVSeasonEpisodes)</v>
       </c>
       <c r="M122" s="8" t="s">
         <v>259</v>
@@ -10972,46 +11031,46 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>74</v>
+        <v>272</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G123" s="8" t="str">
-        <f t="shared" ref="G123" si="38">"I"&amp;M123&amp;B123</f>
-        <v>ITMDBTVSeasonEpisodes</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBTVEpisode</v>
       </c>
       <c r="H123" s="8" t="str">
-        <f t="shared" ref="H123" si="39">"T"&amp;M123&amp;B123</f>
-        <v>TTMDBTVSeasonEpisodes</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBTVEpisode</v>
       </c>
       <c r="I123" s="8" t="str">
-        <f t="shared" ref="I123" si="40">"  "&amp;G123&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface;</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
       </c>
       <c r="J123" s="8" t="str">
-        <f t="shared" ref="J123" si="41">"  "&amp;H123&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class;</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
       </c>
       <c r="K123" s="8" t="str">
-        <f t="shared" ref="K123" si="42">IF(C123="", "  "&amp;G123&amp;" = interface", "  "&amp;G123&amp;" = interface(I"&amp;M123&amp;C123&amp;")")</f>
-        <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface(ITMDBTVEpisodes)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
       </c>
       <c r="L123" s="8" t="str">
-        <f t="shared" ref="L123" si="43">IF(C123="", "  "&amp;H123&amp;" = class(TInterfacedObject, "&amp;G123&amp;")", "  "&amp;H123&amp;" = class(T"&amp;M123&amp;C123&amp;", "&amp;G123&amp;")")</f>
-        <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class(TTMDBTVEpisodes, ITMDBTVSeasonEpisodes)</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
       </c>
       <c r="M123" s="8" t="s">
         <v>259</v>
@@ -11025,40 +11084,40 @@
         <v>349</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G124" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVEpisode</v>
+        <v>ITMDBTVEpisodes</v>
       </c>
       <c r="H124" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVEpisode</v>
+        <v>TTMDBTVEpisodes</v>
       </c>
       <c r="I124" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
       </c>
       <c r="J124" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
       </c>
       <c r="K124" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
+        <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
       </c>
       <c r="L124" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
       </c>
       <c r="M124" s="8" t="s">
         <v>259</v>
@@ -11072,40 +11131,40 @@
         <v>350</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G125" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVEpisodes</v>
+        <v>ITMDBTVEpisodePage</v>
       </c>
       <c r="H125" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVEpisodes</v>
+        <v>TTMDBTVEpisodePage</v>
       </c>
       <c r="I125" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
       </c>
       <c r="J125" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
       </c>
       <c r="K125" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
+        <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L125" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
       </c>
       <c r="M125" s="8" t="s">
         <v>259</v>
@@ -11119,40 +11178,40 @@
         <v>351</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G126" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVEpisodePage</v>
+        <v>ITMDBRatedTVEpisode</v>
       </c>
       <c r="H126" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVEpisodePage</v>
+        <v>TTMDBRatedTVEpisode</v>
       </c>
       <c r="I126" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
       </c>
       <c r="J126" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
       </c>
       <c r="K126" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="L126" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
       </c>
       <c r="M126" s="8" t="s">
         <v>259</v>
@@ -11169,37 +11228,37 @@
         <v>349</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G127" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBRatedTVEpisode</v>
+        <v>ITMDBRatedTVEpisodes</v>
       </c>
       <c r="H127" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBRatedTVEpisode</v>
+        <v>TTMDBRatedTVEpisodes</v>
       </c>
       <c r="I127" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
       </c>
       <c r="J127" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
       </c>
       <c r="K127" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
+        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="L127" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
+        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
       </c>
       <c r="M127" s="8" t="s">
         <v>259</v>
@@ -11213,40 +11272,40 @@
         <v>353</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>378</v>
+        <v>154</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G128" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBRatedTVEpisodes</v>
+        <v>ITMDBTVEpisodeDetail</v>
       </c>
       <c r="H128" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBRatedTVEpisodes</v>
+        <v>TTMDBTVEpisodeDetail</v>
       </c>
       <c r="I128" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
       </c>
       <c r="J128" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
       </c>
       <c r="K128" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L128" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
       </c>
       <c r="M128" s="8" t="s">
         <v>259</v>
@@ -11254,46 +11313,43 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>256</v>
+      <c r="D129" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G129" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVEpisodeDetail</v>
+        <v>ITMDBTVEpisodeGroup</v>
       </c>
       <c r="H129" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVEpisodeDetail</v>
+        <v>TTMDBTVEpisodeGroup</v>
       </c>
       <c r="I129" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
       </c>
       <c r="J129" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
       </c>
       <c r="K129" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
       </c>
       <c r="L129" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
       </c>
       <c r="M129" s="8" t="s">
         <v>259</v>
@@ -11307,37 +11363,37 @@
         <v>355</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G130" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVEpisodeGroup</v>
+        <v>ITMDBTVEpisodeGroups</v>
       </c>
       <c r="H130" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVEpisodeGroup</v>
+        <v>TTMDBTVEpisodeGroups</v>
       </c>
       <c r="I130" s="8" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
       </c>
       <c r="J130" s="8" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
       </c>
       <c r="K130" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
+        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
       </c>
       <c r="L130" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
+        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
       </c>
       <c r="M130" s="8" t="s">
         <v>259</v>
@@ -11345,43 +11401,43 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G131" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBTVEpisodeGroups</v>
+        <v>ITMDBWatchProviderPriority</v>
       </c>
       <c r="H131" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBTVEpisodeGroups</v>
+        <v>TTMDBWatchProviderPriority</v>
       </c>
       <c r="I131" s="8" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
+        <f t="shared" ref="I131:I186" si="44">"  "&amp;G131&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
       </c>
       <c r="J131" s="8" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
+        <f t="shared" ref="J131:J186" si="45">"  "&amp;H131&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
       </c>
       <c r="K131" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
       </c>
       <c r="L131" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
       </c>
       <c r="M131" s="8" t="s">
         <v>259</v>
@@ -11395,37 +11451,37 @@
         <v>363</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G132" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>ITMDBWatchProviderPriority</v>
+        <v>ITMDBWatchProviderPriorities</v>
       </c>
       <c r="H132" s="8" t="str">
         <f t="shared" si="29"/>
-        <v>TTMDBWatchProviderPriority</v>
+        <v>TTMDBWatchProviderPriorities</v>
       </c>
       <c r="I132" s="8" t="str">
-        <f t="shared" ref="I132:I187" si="44">"  "&amp;G132&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
       </c>
       <c r="J132" s="8" t="str">
-        <f t="shared" ref="J132:J187" si="45">"  "&amp;H132&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
       </c>
       <c r="K132" s="8" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
       </c>
       <c r="L132" s="8" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
       </c>
       <c r="M132" s="8" t="s">
         <v>259</v>
@@ -11438,38 +11494,41 @@
       <c r="B133" s="10" t="s">
         <v>364</v>
       </c>
+      <c r="C133" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="D133" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G133" s="8" t="str">
-        <f t="shared" si="28"/>
-        <v>ITMDBWatchProviderPriorities</v>
+        <f t="shared" ref="G133:G163" si="46">"I"&amp;M133&amp;B133</f>
+        <v>ITMDBWatchProvider</v>
       </c>
       <c r="H133" s="8" t="str">
-        <f t="shared" si="29"/>
-        <v>TTMDBWatchProviderPriorities</v>
+        <f t="shared" ref="H133:H163" si="47">"T"&amp;M133&amp;B133</f>
+        <v>TTMDBWatchProvider</v>
       </c>
       <c r="I133" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
       </c>
       <c r="J133" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
+        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
       </c>
       <c r="K133" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
+        <f t="shared" ref="K133:K163" si="48">IF(C133="", "  "&amp;G133&amp;" = interface", "  "&amp;G133&amp;" = interface(I"&amp;M133&amp;C133&amp;")")</f>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L133" s="8" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
+        <f t="shared" ref="L133:L163" si="49">IF(C133="", "  "&amp;H133&amp;" = class(TInterfacedObject, "&amp;G133&amp;")", "  "&amp;H133&amp;" = class(T"&amp;M133&amp;C133&amp;", "&amp;G133&amp;")")</f>
+        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
       </c>
       <c r="M133" s="8" t="s">
         <v>259</v>
@@ -11483,40 +11542,40 @@
         <v>365</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G134" s="8" t="str">
-        <f t="shared" ref="G134:G164" si="46">"I"&amp;M134&amp;B134</f>
-        <v>ITMDBWatchProvider</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBWatchProviders</v>
       </c>
       <c r="H134" s="8" t="str">
-        <f t="shared" ref="H134:H164" si="47">"T"&amp;M134&amp;B134</f>
-        <v>TTMDBWatchProvider</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBWatchProviders</v>
       </c>
       <c r="I134" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
+        <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
       </c>
       <c r="J134" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
+        <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
       </c>
       <c r="K134" s="8" t="str">
-        <f t="shared" ref="K134:K164" si="48">IF(C134="", "  "&amp;G134&amp;" = interface", "  "&amp;G134&amp;" = interface(I"&amp;M134&amp;C134&amp;")")</f>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
       </c>
       <c r="L134" s="8" t="str">
-        <f t="shared" ref="L134:L164" si="49">IF(C134="", "  "&amp;H134&amp;" = class(TInterfacedObject, "&amp;G134&amp;")", "  "&amp;H134&amp;" = class(T"&amp;M134&amp;C134&amp;", "&amp;G134&amp;")")</f>
-        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
       </c>
       <c r="M134" s="8" t="s">
         <v>259</v>
@@ -11524,46 +11583,40 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>150</v>
+        <v>388</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="G135" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBWatchProviders</v>
+        <v>ITMDBNamespace</v>
       </c>
       <c r="H135" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBWatchProviders</v>
+        <v>TTMDBNamespace</v>
       </c>
       <c r="I135" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
       </c>
       <c r="J135" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
+        <v xml:space="preserve">  TTMDBNamespace = class;</v>
       </c>
       <c r="K135" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
+        <v xml:space="preserve">  ITMDBNamespace = interface</v>
       </c>
       <c r="L135" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
+        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
       </c>
       <c r="M135" s="8" t="s">
         <v>259</v>
@@ -11571,40 +11624,46 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>0</v>
+      <c r="C136" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G136" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespace</v>
+        <v>ITMDBNamespaceAccount</v>
       </c>
       <c r="H136" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespace</v>
+        <v>TTMDBNamespaceAccount</v>
       </c>
       <c r="I136" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
       </c>
       <c r="J136" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespace = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
       </c>
       <c r="K136" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface</v>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L136" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
       </c>
       <c r="M136" s="8" t="s">
         <v>259</v>
@@ -11612,46 +11671,46 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B137" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="D137" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G137" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceAccount</v>
+        <v>ITMDBNamespaceAuthentication</v>
       </c>
       <c r="H137" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceAccount</v>
+        <v>TTMDBNamespaceAuthentication</v>
       </c>
       <c r="I137" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
       </c>
       <c r="J137" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
       </c>
       <c r="K137" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L137" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
       </c>
       <c r="M137" s="8" t="s">
         <v>259</v>
@@ -11659,46 +11718,46 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>255</v>
+        <v>377</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G138" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceAuthentication</v>
+        <v>ITMDBNamespaceCertifications</v>
       </c>
       <c r="H138" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceAuthentication</v>
+        <v>TTMDBNamespaceCertifications</v>
       </c>
       <c r="I138" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
       </c>
       <c r="J138" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
       </c>
       <c r="K138" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L138" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
       </c>
       <c r="M138" s="8" t="s">
         <v>259</v>
@@ -11706,46 +11765,46 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F139" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G139" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCertifications</v>
+        <v>ITMDBNamespaceChanges</v>
       </c>
       <c r="H139" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCertifications</v>
+        <v>TTMDBNamespaceChanges</v>
       </c>
       <c r="I139" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
       </c>
       <c r="J139" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
       </c>
       <c r="K139" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L139" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
       </c>
       <c r="M139" s="8" t="s">
         <v>259</v>
@@ -11753,46 +11812,46 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G140" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceChanges</v>
+        <v>ITMDBNamespaceCollections</v>
       </c>
       <c r="H140" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceChanges</v>
+        <v>TTMDBNamespaceCollections</v>
       </c>
       <c r="I140" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
       </c>
       <c r="J140" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
       </c>
       <c r="K140" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L140" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
       </c>
       <c r="M140" s="8" t="s">
         <v>259</v>
@@ -11800,46 +11859,46 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F141" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G141" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCollections</v>
+        <v>ITMDBNamespaceCompanies</v>
       </c>
       <c r="H141" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCollections</v>
+        <v>TTMDBNamespaceCompanies</v>
       </c>
       <c r="I141" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
       </c>
       <c r="J141" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
       </c>
       <c r="K141" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L141" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
       </c>
       <c r="M141" s="8" t="s">
         <v>259</v>
@@ -11847,46 +11906,46 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F142" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G142" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCompanies</v>
+        <v>ITMDBNamespaceConfiguration</v>
       </c>
       <c r="H142" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCompanies</v>
+        <v>TTMDBNamespaceConfiguration</v>
       </c>
       <c r="I142" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
       </c>
       <c r="J142" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
       </c>
       <c r="K142" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L142" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>259</v>
@@ -11894,46 +11953,46 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>397</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>255</v>
+        <v>377</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G143" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceConfiguration</v>
+        <v>ITMDBNamespaceCredits</v>
       </c>
       <c r="H143" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceConfiguration</v>
+        <v>TTMDBNamespaceCredits</v>
       </c>
       <c r="I143" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
       </c>
       <c r="J143" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
       </c>
       <c r="K143" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L143" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
       </c>
       <c r="M143" s="8" t="s">
         <v>259</v>
@@ -11941,46 +12000,46 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G144" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCredits</v>
+        <v>ITMDBNamespaceDiscover</v>
       </c>
       <c r="H144" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCredits</v>
+        <v>TTMDBNamespaceDiscover</v>
       </c>
       <c r="I144" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
       </c>
       <c r="J144" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
       </c>
       <c r="K144" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L144" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
       </c>
       <c r="M144" s="8" t="s">
         <v>259</v>
@@ -11988,46 +12047,46 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>399</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G145" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceDiscover</v>
+        <v>ITMDBNamespaceFind</v>
       </c>
       <c r="H145" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceDiscover</v>
+        <v>TTMDBNamespaceFind</v>
       </c>
       <c r="I145" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
       </c>
       <c r="J145" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
       </c>
       <c r="K145" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L145" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
       </c>
       <c r="M145" s="8" t="s">
         <v>259</v>
@@ -12035,46 +12094,46 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G146" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceFind</v>
+        <v>ITMDBNamespaceGenres</v>
       </c>
       <c r="H146" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceFind</v>
+        <v>TTMDBNamespaceGenres</v>
       </c>
       <c r="I146" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
       </c>
       <c r="J146" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
       </c>
       <c r="K146" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L146" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
       </c>
       <c r="M146" s="8" t="s">
         <v>259</v>
@@ -12082,46 +12141,46 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>401</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G147" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceGenres</v>
+        <v>ITMDBNamespaceGuestSessions</v>
       </c>
       <c r="H147" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceGenres</v>
+        <v>TTMDBNamespaceGuestSessions</v>
       </c>
       <c r="I147" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
       </c>
       <c r="J147" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
       </c>
       <c r="K147" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L147" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
       </c>
       <c r="M147" s="8" t="s">
         <v>259</v>
@@ -12129,46 +12188,46 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>402</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G148" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceGuestSessions</v>
+        <v>ITMDBNamespaceKeywords</v>
       </c>
       <c r="H148" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceGuestSessions</v>
+        <v>TTMDBNamespaceKeywords</v>
       </c>
       <c r="I148" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
       </c>
       <c r="J148" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
       </c>
       <c r="K148" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L148" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>259</v>
@@ -12176,46 +12235,46 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>403</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>378</v>
+        <v>390</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G149" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceKeywords</v>
+        <v>ITMDBNamespaceLists</v>
       </c>
       <c r="H149" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceKeywords</v>
+        <v>TTMDBNamespaceLists</v>
       </c>
       <c r="I149" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
       </c>
       <c r="J149" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
       </c>
       <c r="K149" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L149" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
       </c>
       <c r="M149" s="8" t="s">
         <v>259</v>
@@ -12223,46 +12282,46 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>74</v>
+        <v>390</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G150" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceLists</v>
+        <v>ITMDBNamespaceMovieLists</v>
       </c>
       <c r="H150" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceLists</v>
+        <v>TTMDBNamespaceMovieLists</v>
       </c>
       <c r="I150" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
       </c>
       <c r="J150" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
       </c>
       <c r="K150" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L150" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>259</v>
@@ -12270,46 +12329,46 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>405</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>74</v>
+        <v>390</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G151" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceMovieLists</v>
+        <v>ITMDBNamespaceMovies</v>
       </c>
       <c r="H151" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceMovieLists</v>
+        <v>TTMDBNamespaceMovies</v>
       </c>
       <c r="I151" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
       </c>
       <c r="J151" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
       </c>
       <c r="K151" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L151" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>259</v>
@@ -12317,46 +12376,46 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E152" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>256</v>
+        <v>390</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G152" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceMovies</v>
+        <v>ITMDBNamespaceNetworks</v>
       </c>
       <c r="H152" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceMovies</v>
+        <v>TTMDBNamespaceNetworks</v>
       </c>
       <c r="I152" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
       </c>
       <c r="J152" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
       </c>
       <c r="K152" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L152" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>259</v>
@@ -12364,46 +12423,46 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>407</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G153" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceNetworks</v>
+        <v>ITMDBNamespacePeopleLists</v>
       </c>
       <c r="H153" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceNetworks</v>
+        <v>TTMDBNamespacePeopleLists</v>
       </c>
       <c r="I153" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
       </c>
       <c r="J153" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
       </c>
       <c r="K153" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L153" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>259</v>
@@ -12411,46 +12470,46 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>378</v>
+        <v>390</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G154" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespacePeopleLists</v>
+        <v>ITMDBNamespacePeople</v>
       </c>
       <c r="H154" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespacePeopleLists</v>
+        <v>TTMDBNamespacePeople</v>
       </c>
       <c r="I154" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
       </c>
       <c r="J154" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
       </c>
       <c r="K154" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L154" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>259</v>
@@ -12458,46 +12517,46 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>409</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>256</v>
+        <v>390</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G155" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespacePeople</v>
+        <v>ITMDBNamespaceReviews</v>
       </c>
       <c r="H155" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespacePeople</v>
+        <v>TTMDBNamespaceReviews</v>
       </c>
       <c r="I155" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
       </c>
       <c r="J155" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
       </c>
       <c r="K155" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L155" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>259</v>
@@ -12505,46 +12564,46 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G156" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceReviews</v>
+        <v>ITMDBNamespaceSearch</v>
       </c>
       <c r="H156" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceReviews</v>
+        <v>TTMDBNamespaceSearch</v>
       </c>
       <c r="I156" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
       </c>
       <c r="J156" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
       </c>
       <c r="K156" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L156" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>259</v>
@@ -12552,46 +12611,46 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>411</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>255</v>
+        <v>377</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G157" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceSearch</v>
+        <v>ITMDBNamespaceTrending</v>
       </c>
       <c r="H157" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceSearch</v>
+        <v>TTMDBNamespaceTrending</v>
       </c>
       <c r="I157" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
       </c>
       <c r="J157" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
       </c>
       <c r="K157" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L157" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>259</v>
@@ -12599,46 +12658,46 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F158" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G158" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTrending</v>
+        <v>ITMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="H158" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTrending</v>
+        <v>TTMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="I158" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
       </c>
       <c r="J158" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
       </c>
       <c r="K158" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L158" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>259</v>
@@ -12646,46 +12705,46 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E159" s="14" t="s">
-        <v>378</v>
+        <v>390</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G159" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeriesLists</v>
+        <v>ITMDBNamespaceTVSeries</v>
       </c>
       <c r="H159" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeriesLists</v>
+        <v>TTMDBNamespaceTVSeries</v>
       </c>
       <c r="I159" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
       </c>
       <c r="J159" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
       </c>
       <c r="K159" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L159" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>259</v>
@@ -12693,13 +12752,13 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>414</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>256</v>
@@ -12707,32 +12766,32 @@
       <c r="E160" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F160" s="15" t="s">
-        <v>256</v>
+      <c r="F160" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G160" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeries</v>
+        <v>ITMDBNamespaceTVSeasons</v>
       </c>
       <c r="H160" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeries</v>
+        <v>TTMDBNamespaceTVSeasons</v>
       </c>
       <c r="I160" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
       </c>
       <c r="J160" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
       </c>
       <c r="K160" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L160" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>259</v>
@@ -12740,13 +12799,13 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>415</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>74</v>
@@ -12759,27 +12818,27 @@
       </c>
       <c r="G161" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeasons</v>
+        <v>ITMDBNamespaceTVEpisodes</v>
       </c>
       <c r="H161" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeasons</v>
+        <v>TTMDBNamespaceTVEpisodes</v>
       </c>
       <c r="I161" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
       </c>
       <c r="J161" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
       </c>
       <c r="K161" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L161" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
       </c>
       <c r="M161" s="8" t="s">
         <v>259</v>
@@ -12787,46 +12846,46 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>74</v>
+        <v>390</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G162" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVEpisodes</v>
+        <v>ITMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="H162" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVEpisodes</v>
+        <v>TTMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="I162" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
       </c>
       <c r="J162" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
       </c>
       <c r="K162" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L162" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>259</v>
@@ -12834,46 +12893,46 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>256</v>
+        <v>390</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G163" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVEpisodeGroups</v>
+        <v>ITMDBNamespaceWatchProviders</v>
       </c>
       <c r="H163" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVEpisodeGroups</v>
+        <v>TTMDBNamespaceWatchProviders</v>
       </c>
       <c r="I163" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
       </c>
       <c r="J163" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
       </c>
       <c r="K163" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L163" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>259</v>
@@ -12881,46 +12940,43 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F164" s="12" t="s">
-        <v>74</v>
+        <v>377</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G164" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceWatchProviders</v>
+        <f t="shared" ref="G164:G195" si="50">"I"&amp;M164&amp;B164</f>
+        <v>ITMDBCache</v>
       </c>
       <c r="H164" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceWatchProviders</v>
+        <f t="shared" ref="H164:H195" si="51">"T"&amp;M164&amp;B164</f>
+        <v>TTMDBCache</v>
       </c>
       <c r="I164" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
+        <v xml:space="preserve">  ITMDBCache = interface;</v>
       </c>
       <c r="J164" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
+        <v xml:space="preserve">  TTMDBCache = class;</v>
       </c>
       <c r="K164" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" ref="K164:K195" si="52">IF(C164="", "  "&amp;G164&amp;" = interface", "  "&amp;G164&amp;" = interface(I"&amp;M164&amp;C164&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCache = interface</v>
       </c>
       <c r="L164" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
+        <f t="shared" ref="L164:L195" si="53">IF(C164="", "  "&amp;H164&amp;" = class(TInterfacedObject, "&amp;G164&amp;")", "  "&amp;H164&amp;" = class(T"&amp;M164&amp;C164&amp;", "&amp;G164&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>259</v>
@@ -12928,43 +12984,43 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>367</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F165" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G165" s="8" t="str">
-        <f t="shared" ref="G165:G196" si="50">"I"&amp;M165&amp;B165</f>
-        <v>ITMDBCache</v>
+        <f t="shared" si="50"/>
+        <v>ITMDBLoginState</v>
       </c>
       <c r="H165" s="8" t="str">
-        <f t="shared" ref="H165:H196" si="51">"T"&amp;M165&amp;B165</f>
-        <v>TTMDBCache</v>
+        <f t="shared" si="51"/>
+        <v>TTMDBLoginState</v>
       </c>
       <c r="I165" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBCache = interface;</v>
+        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
       </c>
       <c r="J165" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBCache = class;</v>
+        <v xml:space="preserve">  TTMDBLoginState = class;</v>
       </c>
       <c r="K165" s="8" t="str">
-        <f t="shared" ref="K165:K196" si="52">IF(C165="", "  "&amp;G165&amp;" = interface", "  "&amp;G165&amp;" = interface(I"&amp;M165&amp;C165&amp;")")</f>
-        <v xml:space="preserve">  ITMDBCache = interface</v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface</v>
       </c>
       <c r="L165" s="8" t="str">
-        <f t="shared" ref="L165:L196" si="53">IF(C165="", "  "&amp;H165&amp;" = class(TInterfacedObject, "&amp;G165&amp;")", "  "&amp;H165&amp;" = class(T"&amp;M165&amp;C165&amp;", "&amp;G165&amp;")")</f>
-        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>259</v>
@@ -12972,87 +13028,72 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>368</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F166" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G166" s="8" t="str">
         <f t="shared" si="50"/>
-        <v>ITMDBLoginState</v>
+        <v>ITMDBClient</v>
       </c>
       <c r="H166" s="8" t="str">
         <f t="shared" si="51"/>
-        <v>TTMDBLoginState</v>
+        <v>TTMDBClient</v>
       </c>
       <c r="I166" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+        <v xml:space="preserve">  ITMDBClient = interface;</v>
       </c>
       <c r="J166" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+        <v xml:space="preserve">  TTMDBClient = class;</v>
       </c>
       <c r="K166" s="8" t="str">
         <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+        <v xml:space="preserve">  ITMDBClient = interface</v>
       </c>
       <c r="L166" s="8" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+        <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>255</v>
-      </c>
       <c r="G167" s="8" t="str">
         <f t="shared" si="50"/>
-        <v>ITMDBClient</v>
+        <v>ITMDB</v>
       </c>
       <c r="H167" s="8" t="str">
         <f t="shared" si="51"/>
-        <v>TTMDBClient</v>
+        <v>TTMDB</v>
       </c>
       <c r="I167" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBClient = interface;</v>
+        <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J167" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBClient = class;</v>
+        <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K167" s="8" t="str">
         <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDBClient = interface</v>
+        <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L167" s="8" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
+        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>259</v>
@@ -13619,11 +13660,11 @@
         <v>TTMDB</v>
       </c>
       <c r="I187" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="I187:I203" si="54">"  "&amp;G187&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J187" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="J187:J203" si="55">"  "&amp;H187&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K187" s="8" t="str">
@@ -13648,11 +13689,11 @@
         <v>TTMDB</v>
       </c>
       <c r="I188" s="8" t="str">
-        <f t="shared" ref="I188:I204" si="54">"  "&amp;G188&amp;" = interface;"</f>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J188" s="8" t="str">
-        <f t="shared" ref="J188:J204" si="55">"  "&amp;H188&amp;" = class;"</f>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K188" s="8" t="str">
@@ -13872,11 +13913,11 @@
     </row>
     <row r="196" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G196" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="G196:G203" si="56">"I"&amp;M196&amp;B196</f>
         <v>ITMDB</v>
       </c>
       <c r="H196" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H196:H203" si="57">"T"&amp;M196&amp;B196</f>
         <v>TTMDB</v>
       </c>
       <c r="I196" s="8" t="str">
@@ -13888,11 +13929,11 @@
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K196" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="K196:K203" si="58">IF(C196="", "  "&amp;G196&amp;" = interface", "  "&amp;G196&amp;" = interface(I"&amp;M196&amp;C196&amp;")")</f>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L196" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="L196:L227" si="59">IF(C196="", "  "&amp;H196&amp;" = class(TInterfacedObject, "&amp;G196&amp;")", "  "&amp;H196&amp;" = class(T"&amp;M196&amp;C196&amp;", "&amp;G196&amp;")")</f>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M196" s="8" t="s">
@@ -13901,11 +13942,11 @@
     </row>
     <row r="197" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G197" s="8" t="str">
-        <f t="shared" ref="G197:G204" si="56">"I"&amp;M197&amp;B197</f>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H197" s="8" t="str">
-        <f t="shared" ref="H197:H204" si="57">"T"&amp;M197&amp;B197</f>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I197" s="8" t="str">
@@ -13917,11 +13958,11 @@
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K197" s="8" t="str">
-        <f t="shared" ref="K197:K204" si="58">IF(C197="", "  "&amp;G197&amp;" = interface", "  "&amp;G197&amp;" = interface(I"&amp;M197&amp;C197&amp;")")</f>
+        <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L197" s="8" t="str">
-        <f t="shared" ref="L197:L228" si="59">IF(C197="", "  "&amp;H197&amp;" = class(TInterfacedObject, "&amp;G197&amp;")", "  "&amp;H197&amp;" = class(T"&amp;M197&amp;C197&amp;", "&amp;G197&amp;")")</f>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M197" s="8" t="s">
@@ -14099,35 +14140,6 @@
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M203" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="204" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G204" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H204" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I204" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J204" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K204" s="8" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L204" s="8" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M204" s="8" t="s">
         <v>259</v>
       </c>
     </row>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA454345-CCF0-4761-94FA-13425575DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FE346-61ED-489A-8763-B5F671D32EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -1861,9 +1861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85:F86"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5388,9 +5388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10760,8 +10760,8 @@
       <c r="D117" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E117" s="12" t="s">
-        <v>74</v>
+      <c r="E117" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>74</v>
@@ -10807,8 +10807,8 @@
       <c r="D118" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E118" s="12" t="s">
-        <v>74</v>
+      <c r="E118" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>74</v>
@@ -10854,8 +10854,8 @@
       <c r="D119" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E119" s="12" t="s">
-        <v>74</v>
+      <c r="E119" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>74</v>
@@ -10901,8 +10901,8 @@
       <c r="D120" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E120" s="12" t="s">
-        <v>74</v>
+      <c r="E120" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>74</v>
@@ -10948,8 +10948,8 @@
       <c r="D121" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E121" s="12" t="s">
-        <v>74</v>
+      <c r="E121" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F121" s="12" t="s">
         <v>74</v>
@@ -10995,8 +10995,8 @@
       <c r="D122" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E122" s="12" t="s">
-        <v>74</v>
+      <c r="E122" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>74</v>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FE346-61ED-489A-8763-B5F671D32EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186BF4C0-0B7C-4354-B3F2-26212CD1541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="457">
   <si>
     <t>Namespace</t>
   </si>
@@ -1400,6 +1400,18 @@
   </si>
   <si>
     <t>ITMDBEpisodeDetail</t>
+  </si>
+  <si>
+    <t>ITMDBMediaWatchProviders</t>
+  </si>
+  <si>
+    <t>GetDetail</t>
+  </si>
+  <si>
+    <t>MediaWatchProvider</t>
+  </si>
+  <si>
+    <t>MediaWatchProviders</t>
   </si>
 </sst>
 </file>
@@ -1861,9 +1873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3623,7 @@
         <v>207</v>
       </c>
       <c r="F76" t="s">
-        <v>217</v>
+        <v>453</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>74</v>
@@ -4795,7 +4807,7 @@
         <v>207</v>
       </c>
       <c r="F128" t="s">
-        <v>217</v>
+        <v>453</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>74</v>
@@ -4855,13 +4867,13 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>454</v>
       </c>
       <c r="F131" t="s">
         <v>451</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>74</v>
+      <c r="G131" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5061,6 +5073,9 @@
       <c r="E140" t="s">
         <v>207</v>
       </c>
+      <c r="F140" t="s">
+        <v>453</v>
+      </c>
       <c r="G140" s="4" t="s">
         <v>74</v>
       </c>
@@ -5079,13 +5094,13 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>454</v>
       </c>
       <c r="F141" t="s">
         <v>452</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>74</v>
+      <c r="G141" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5386,11 +5401,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11274,11 +11289,11 @@
       <c r="C128" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D128" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>256</v>
+      <c r="D128" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>74</v>
@@ -11424,11 +11439,11 @@
         <v>TTMDBWatchProviderPriority</v>
       </c>
       <c r="I131" s="8" t="str">
-        <f t="shared" ref="I131:I186" si="44">"  "&amp;G131&amp;" = interface;"</f>
+        <f t="shared" ref="I131:I170" si="44">"  "&amp;G131&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
       </c>
       <c r="J131" s="8" t="str">
-        <f t="shared" ref="J131:J186" si="45">"  "&amp;H131&amp;" = class;"</f>
+        <f t="shared" ref="J131:J170" si="45">"  "&amp;H131&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
       </c>
       <c r="K131" s="8" t="str">
@@ -11507,11 +11522,11 @@
         <v>74</v>
       </c>
       <c r="G133" s="8" t="str">
-        <f t="shared" ref="G133:G163" si="46">"I"&amp;M133&amp;B133</f>
+        <f t="shared" ref="G133:G165" si="46">"I"&amp;M133&amp;B133</f>
         <v>ITMDBWatchProvider</v>
       </c>
       <c r="H133" s="8" t="str">
-        <f t="shared" ref="H133:H163" si="47">"T"&amp;M133&amp;B133</f>
+        <f t="shared" ref="H133:H165" si="47">"T"&amp;M133&amp;B133</f>
         <v>TTMDBWatchProvider</v>
       </c>
       <c r="I133" s="8" t="str">
@@ -11523,11 +11538,11 @@
         <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
       </c>
       <c r="K133" s="8" t="str">
-        <f t="shared" ref="K133:K163" si="48">IF(C133="", "  "&amp;G133&amp;" = interface", "  "&amp;G133&amp;" = interface(I"&amp;M133&amp;C133&amp;")")</f>
+        <f t="shared" ref="K133:K165" si="48">IF(C133="", "  "&amp;G133&amp;" = interface", "  "&amp;G133&amp;" = interface(I"&amp;M133&amp;C133&amp;")")</f>
         <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L133" s="8" t="str">
-        <f t="shared" ref="L133:L163" si="49">IF(C133="", "  "&amp;H133&amp;" = class(TInterfacedObject, "&amp;G133&amp;")", "  "&amp;H133&amp;" = class(T"&amp;M133&amp;C133&amp;", "&amp;G133&amp;")")</f>
+        <f t="shared" ref="L133:L165" si="49">IF(C133="", "  "&amp;H133&amp;" = class(TInterfacedObject, "&amp;G133&amp;")", "  "&amp;H133&amp;" = class(T"&amp;M133&amp;C133&amp;", "&amp;G133&amp;")")</f>
         <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
       </c>
       <c r="M133" s="8" t="s">
@@ -11583,40 +11598,46 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>377</v>
+        <v>455</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G135" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespace</v>
+        <f t="shared" ref="G135:G136" si="50">"I"&amp;M135&amp;B135</f>
+        <v>ITMDBMediaWatchProvider</v>
       </c>
       <c r="H135" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespace</v>
+        <f t="shared" ref="H135:H136" si="51">"T"&amp;M135&amp;B135</f>
+        <v>TTMDBMediaWatchProvider</v>
       </c>
       <c r="I135" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
+        <f t="shared" ref="I135:I136" si="52">"  "&amp;G135&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBMediaWatchProvider = interface;</v>
       </c>
       <c r="J135" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespace = class;</v>
+        <f t="shared" ref="J135:J136" si="53">"  "&amp;H135&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBMediaWatchProvider = class;</v>
       </c>
       <c r="K135" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface</v>
+        <f t="shared" ref="K135:K136" si="54">IF(C135="", "  "&amp;G135&amp;" = interface", "  "&amp;G135&amp;" = interface(I"&amp;M135&amp;C135&amp;")")</f>
+        <v xml:space="preserve">  ITMDBMediaWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L135" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
+        <f t="shared" ref="L135:L136" si="55">IF(C135="", "  "&amp;H135&amp;" = class(TInterfacedObject, "&amp;G135&amp;")", "  "&amp;H135&amp;" = class(T"&amp;M135&amp;C135&amp;", "&amp;G135&amp;")")</f>
+        <v xml:space="preserve">  TTMDBMediaWatchProvider = class(TTMDBItem, ITMDBMediaWatchProvider)</v>
       </c>
       <c r="M135" s="8" t="s">
         <v>259</v>
@@ -11624,46 +11645,46 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>255</v>
+        <v>268</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G136" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceAccount</v>
+        <f t="shared" si="50"/>
+        <v>ITMDBMediaWatchProviders</v>
       </c>
       <c r="H136" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceAccount</v>
+        <f t="shared" si="51"/>
+        <v>TTMDBMediaWatchProviders</v>
       </c>
       <c r="I136" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">  ITMDBMediaWatchProviders = interface;</v>
       </c>
       <c r="J136" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">  TTMDBMediaWatchProviders = class;</v>
       </c>
       <c r="K136" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">  ITMDBMediaWatchProviders = interface(ITMDBItems)</v>
       </c>
       <c r="L136" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve">  TTMDBMediaWatchProviders = class(TTMDBItems, ITMDBMediaWatchProviders)</v>
       </c>
       <c r="M136" s="8" t="s">
         <v>259</v>
@@ -11674,10 +11695,7 @@
         <v>388</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>377</v>
@@ -11685,32 +11703,32 @@
       <c r="E137" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F137" s="13" t="s">
-        <v>255</v>
+      <c r="F137" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G137" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceAuthentication</v>
+        <v>ITMDBNamespace</v>
       </c>
       <c r="H137" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceAuthentication</v>
+        <v>TTMDBNamespace</v>
       </c>
       <c r="I137" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
       </c>
       <c r="J137" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
+        <v xml:space="preserve">  TTMDBNamespace = class;</v>
       </c>
       <c r="K137" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespace = interface</v>
       </c>
       <c r="L137" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
+        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
       </c>
       <c r="M137" s="8" t="s">
         <v>259</v>
@@ -11721,7 +11739,7 @@
         <v>388</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>390</v>
@@ -11732,32 +11750,32 @@
       <c r="E138" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F138" s="14" t="s">
-        <v>377</v>
+      <c r="F138" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G138" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCertifications</v>
+        <v>ITMDBNamespaceAccount</v>
       </c>
       <c r="H138" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCertifications</v>
+        <v>TTMDBNamespaceAccount</v>
       </c>
       <c r="I138" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
       </c>
       <c r="J138" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
       </c>
       <c r="K138" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L138" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
       </c>
       <c r="M138" s="8" t="s">
         <v>259</v>
@@ -11768,7 +11786,7 @@
         <v>388</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>390</v>
@@ -11779,32 +11797,32 @@
       <c r="E139" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F139" s="12" t="s">
-        <v>74</v>
+      <c r="F139" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G139" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceChanges</v>
+        <v>ITMDBNamespaceAuthentication</v>
       </c>
       <c r="H139" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceChanges</v>
+        <v>TTMDBNamespaceAuthentication</v>
       </c>
       <c r="I139" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
       </c>
       <c r="J139" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
       </c>
       <c r="K139" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L139" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
       </c>
       <c r="M139" s="8" t="s">
         <v>259</v>
@@ -11815,7 +11833,7 @@
         <v>388</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>390</v>
@@ -11826,32 +11844,32 @@
       <c r="E140" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F140" s="13" t="s">
-        <v>255</v>
+      <c r="F140" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G140" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCollections</v>
+        <v>ITMDBNamespaceCertifications</v>
       </c>
       <c r="H140" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCollections</v>
+        <v>TTMDBNamespaceCertifications</v>
       </c>
       <c r="I140" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
       </c>
       <c r="J140" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
       </c>
       <c r="K140" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L140" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
       </c>
       <c r="M140" s="8" t="s">
         <v>259</v>
@@ -11862,7 +11880,7 @@
         <v>388</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>390</v>
@@ -11873,32 +11891,32 @@
       <c r="E141" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F141" s="13" t="s">
-        <v>255</v>
+      <c r="F141" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G141" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCompanies</v>
+        <v>ITMDBNamespaceChanges</v>
       </c>
       <c r="H141" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCompanies</v>
+        <v>TTMDBNamespaceChanges</v>
       </c>
       <c r="I141" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
       </c>
       <c r="J141" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
       </c>
       <c r="K141" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L141" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
       </c>
       <c r="M141" s="8" t="s">
         <v>259</v>
@@ -11909,7 +11927,7 @@
         <v>388</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>390</v>
@@ -11925,27 +11943,27 @@
       </c>
       <c r="G142" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceConfiguration</v>
+        <v>ITMDBNamespaceCollections</v>
       </c>
       <c r="H142" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceConfiguration</v>
+        <v>TTMDBNamespaceCollections</v>
       </c>
       <c r="I142" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
       </c>
       <c r="J142" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
       </c>
       <c r="K142" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L142" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>259</v>
@@ -11956,7 +11974,7 @@
         <v>388</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>390</v>
@@ -11967,32 +11985,32 @@
       <c r="E143" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F143" s="12" t="s">
-        <v>74</v>
+      <c r="F143" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G143" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCredits</v>
+        <v>ITMDBNamespaceCompanies</v>
       </c>
       <c r="H143" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCredits</v>
+        <v>TTMDBNamespaceCompanies</v>
       </c>
       <c r="I143" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
       </c>
       <c r="J143" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
       </c>
       <c r="K143" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L143" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
       </c>
       <c r="M143" s="8" t="s">
         <v>259</v>
@@ -12003,7 +12021,7 @@
         <v>388</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>390</v>
@@ -12014,32 +12032,32 @@
       <c r="E144" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F144" s="12" t="s">
-        <v>74</v>
+      <c r="F144" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G144" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceDiscover</v>
+        <v>ITMDBNamespaceConfiguration</v>
       </c>
       <c r="H144" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceDiscover</v>
+        <v>TTMDBNamespaceConfiguration</v>
       </c>
       <c r="I144" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
       </c>
       <c r="J144" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
       </c>
       <c r="K144" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L144" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
       </c>
       <c r="M144" s="8" t="s">
         <v>259</v>
@@ -12050,7 +12068,7 @@
         <v>388</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>390</v>
@@ -12066,27 +12084,27 @@
       </c>
       <c r="G145" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceFind</v>
+        <v>ITMDBNamespaceCredits</v>
       </c>
       <c r="H145" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceFind</v>
+        <v>TTMDBNamespaceCredits</v>
       </c>
       <c r="I145" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
       </c>
       <c r="J145" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
       </c>
       <c r="K145" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L145" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
       </c>
       <c r="M145" s="8" t="s">
         <v>259</v>
@@ -12097,7 +12115,7 @@
         <v>388</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>390</v>
@@ -12108,32 +12126,32 @@
       <c r="E146" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F146" s="14" t="s">
-        <v>377</v>
+      <c r="F146" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G146" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceGenres</v>
+        <v>ITMDBNamespaceDiscover</v>
       </c>
       <c r="H146" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceGenres</v>
+        <v>TTMDBNamespaceDiscover</v>
       </c>
       <c r="I146" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
       </c>
       <c r="J146" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
       </c>
       <c r="K146" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L146" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
       </c>
       <c r="M146" s="8" t="s">
         <v>259</v>
@@ -12144,7 +12162,7 @@
         <v>388</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>390</v>
@@ -12160,27 +12178,27 @@
       </c>
       <c r="G147" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceGuestSessions</v>
+        <v>ITMDBNamespaceFind</v>
       </c>
       <c r="H147" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceGuestSessions</v>
+        <v>TTMDBNamespaceFind</v>
       </c>
       <c r="I147" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
       </c>
       <c r="J147" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
       </c>
       <c r="K147" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L147" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
       </c>
       <c r="M147" s="8" t="s">
         <v>259</v>
@@ -12191,7 +12209,7 @@
         <v>388</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>390</v>
@@ -12207,27 +12225,27 @@
       </c>
       <c r="G148" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceKeywords</v>
+        <v>ITMDBNamespaceGenres</v>
       </c>
       <c r="H148" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceKeywords</v>
+        <v>TTMDBNamespaceGenres</v>
       </c>
       <c r="I148" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
       </c>
       <c r="J148" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
       </c>
       <c r="K148" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L148" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>259</v>
@@ -12238,43 +12256,43 @@
         <v>388</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D149" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>74</v>
+      <c r="D149" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G149" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceLists</v>
+        <v>ITMDBNamespaceGuestSessions</v>
       </c>
       <c r="H149" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceLists</v>
+        <v>TTMDBNamespaceGuestSessions</v>
       </c>
       <c r="I149" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
       </c>
       <c r="J149" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
       </c>
       <c r="K149" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L149" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
       </c>
       <c r="M149" s="8" t="s">
         <v>259</v>
@@ -12285,7 +12303,7 @@
         <v>388</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>390</v>
@@ -12296,32 +12314,32 @@
       <c r="E150" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F150" s="12" t="s">
-        <v>74</v>
+      <c r="F150" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G150" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceMovieLists</v>
+        <v>ITMDBNamespaceKeywords</v>
       </c>
       <c r="H150" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceMovieLists</v>
+        <v>TTMDBNamespaceKeywords</v>
       </c>
       <c r="I150" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
       </c>
       <c r="J150" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
       </c>
       <c r="K150" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L150" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>259</v>
@@ -12332,43 +12350,43 @@
         <v>388</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D151" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>256</v>
+      <c r="D151" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G151" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceMovies</v>
+        <v>ITMDBNamespaceLists</v>
       </c>
       <c r="H151" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceMovies</v>
+        <v>TTMDBNamespaceLists</v>
       </c>
       <c r="I151" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
       </c>
       <c r="J151" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
       </c>
       <c r="K151" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L151" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>259</v>
@@ -12379,7 +12397,7 @@
         <v>388</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>390</v>
@@ -12390,32 +12408,32 @@
       <c r="E152" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F152" s="14" t="s">
-        <v>377</v>
+      <c r="F152" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G152" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceNetworks</v>
+        <v>ITMDBNamespaceMovieLists</v>
       </c>
       <c r="H152" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceNetworks</v>
+        <v>TTMDBNamespaceMovieLists</v>
       </c>
       <c r="I152" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
       </c>
       <c r="J152" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
       </c>
       <c r="K152" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L152" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>259</v>
@@ -12426,43 +12444,43 @@
         <v>388</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D153" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E153" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>74</v>
+      <c r="D153" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G153" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespacePeopleLists</v>
+        <v>ITMDBNamespaceMovies</v>
       </c>
       <c r="H153" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespacePeopleLists</v>
+        <v>TTMDBNamespaceMovies</v>
       </c>
       <c r="I153" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
       </c>
       <c r="J153" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
       </c>
       <c r="K153" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L153" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>259</v>
@@ -12473,43 +12491,43 @@
         <v>388</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D154" s="15" t="s">
+      <c r="D154" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F154" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F154" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="G154" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespacePeople</v>
+        <v>ITMDBNamespaceNetworks</v>
       </c>
       <c r="H154" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespacePeople</v>
+        <v>TTMDBNamespaceNetworks</v>
       </c>
       <c r="I154" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
       </c>
       <c r="J154" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
       </c>
       <c r="K154" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L154" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>259</v>
@@ -12520,7 +12538,7 @@
         <v>388</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>390</v>
@@ -12536,27 +12554,27 @@
       </c>
       <c r="G155" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceReviews</v>
+        <v>ITMDBNamespacePeopleLists</v>
       </c>
       <c r="H155" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceReviews</v>
+        <v>TTMDBNamespacePeopleLists</v>
       </c>
       <c r="I155" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
       </c>
       <c r="J155" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
       </c>
       <c r="K155" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L155" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>259</v>
@@ -12567,43 +12585,43 @@
         <v>388</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D156" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E156" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>255</v>
+      <c r="D156" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G156" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceSearch</v>
+        <v>ITMDBNamespacePeople</v>
       </c>
       <c r="H156" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceSearch</v>
+        <v>TTMDBNamespacePeople</v>
       </c>
       <c r="I156" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
       </c>
       <c r="J156" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
       </c>
       <c r="K156" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L156" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>259</v>
@@ -12614,7 +12632,7 @@
         <v>388</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>390</v>
@@ -12630,27 +12648,27 @@
       </c>
       <c r="G157" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTrending</v>
+        <v>ITMDBNamespaceReviews</v>
       </c>
       <c r="H157" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTrending</v>
+        <v>TTMDBNamespaceReviews</v>
       </c>
       <c r="I157" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
       </c>
       <c r="J157" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
       </c>
       <c r="K157" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L157" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>259</v>
@@ -12661,7 +12679,7 @@
         <v>388</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>390</v>
@@ -12672,32 +12690,32 @@
       <c r="E158" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F158" s="12" t="s">
-        <v>74</v>
+      <c r="F158" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G158" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeriesLists</v>
+        <v>ITMDBNamespaceSearch</v>
       </c>
       <c r="H158" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeriesLists</v>
+        <v>TTMDBNamespaceSearch</v>
       </c>
       <c r="I158" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
       </c>
       <c r="J158" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
       </c>
       <c r="K158" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L158" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>259</v>
@@ -12708,43 +12726,43 @@
         <v>388</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D159" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>256</v>
+      <c r="D159" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G159" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeries</v>
+        <v>ITMDBNamespaceTrending</v>
       </c>
       <c r="H159" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeries</v>
+        <v>TTMDBNamespaceTrending</v>
       </c>
       <c r="I159" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
       </c>
       <c r="J159" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
       </c>
       <c r="K159" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L159" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>259</v>
@@ -12755,43 +12773,43 @@
         <v>388</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D160" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E160" s="15" t="s">
-        <v>256</v>
+      <c r="D160" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G160" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeasons</v>
+        <v>ITMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="H160" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeasons</v>
+        <v>TTMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="I160" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
       </c>
       <c r="J160" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
       </c>
       <c r="K160" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L160" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>259</v>
@@ -12802,43 +12820,43 @@
         <v>388</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D161" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>74</v>
+      <c r="D161" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G161" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVEpisodes</v>
+        <v>ITMDBNamespaceTVSeries</v>
       </c>
       <c r="H161" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVEpisodes</v>
+        <v>TTMDBNamespaceTVSeries</v>
       </c>
       <c r="I161" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
       </c>
       <c r="J161" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
       </c>
       <c r="K161" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L161" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
       </c>
       <c r="M161" s="8" t="s">
         <v>259</v>
@@ -12849,7 +12867,7 @@
         <v>388</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>390</v>
@@ -12865,27 +12883,27 @@
       </c>
       <c r="G162" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVEpisodeGroups</v>
+        <v>ITMDBNamespaceTVSeasons</v>
       </c>
       <c r="H162" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVEpisodeGroups</v>
+        <v>TTMDBNamespaceTVSeasons</v>
       </c>
       <c r="I162" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
       </c>
       <c r="J162" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
       </c>
       <c r="K162" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L162" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>259</v>
@@ -12896,43 +12914,43 @@
         <v>388</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D163" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E163" s="14" t="s">
-        <v>377</v>
+      <c r="D163" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G163" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>ITMDBNamespaceWatchProviders</v>
+        <v>ITMDBNamespaceTVEpisodes</v>
       </c>
       <c r="H163" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>TTMDBNamespaceWatchProviders</v>
+        <v>TTMDBNamespaceTVEpisodes</v>
       </c>
       <c r="I163" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
       </c>
       <c r="J163" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
       </c>
       <c r="K163" s="8" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L163" s="8" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>259</v>
@@ -12940,43 +12958,46 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D164" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E164" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F164" s="13" t="s">
-        <v>255</v>
+        <v>416</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G164" s="8" t="str">
-        <f t="shared" ref="G164:G195" si="50">"I"&amp;M164&amp;B164</f>
-        <v>ITMDBCache</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="H164" s="8" t="str">
-        <f t="shared" ref="H164:H195" si="51">"T"&amp;M164&amp;B164</f>
-        <v>TTMDBCache</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="I164" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBCache = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
       </c>
       <c r="J164" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBCache = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
       </c>
       <c r="K164" s="8" t="str">
-        <f t="shared" ref="K164:K195" si="52">IF(C164="", "  "&amp;G164&amp;" = interface", "  "&amp;G164&amp;" = interface(I"&amp;M164&amp;C164&amp;")")</f>
-        <v xml:space="preserve">  ITMDBCache = interface</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L164" s="8" t="str">
-        <f t="shared" ref="L164:L195" si="53">IF(C164="", "  "&amp;H164&amp;" = class(TInterfacedObject, "&amp;G164&amp;")", "  "&amp;H164&amp;" = class(T"&amp;M164&amp;C164&amp;", "&amp;G164&amp;")")</f>
-        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>259</v>
@@ -12984,10 +13005,13 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>367</v>
+        <v>417</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>377</v>
@@ -12995,32 +13019,32 @@
       <c r="E165" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F165" s="13" t="s">
-        <v>255</v>
+      <c r="F165" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G165" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDBLoginState</v>
+        <f t="shared" si="46"/>
+        <v>ITMDBNamespaceWatchProviders</v>
       </c>
       <c r="H165" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDBLoginState</v>
+        <f t="shared" si="47"/>
+        <v>TTMDBNamespaceWatchProviders</v>
       </c>
       <c r="I165" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
       </c>
       <c r="J165" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
       </c>
       <c r="K165" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L165" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>259</v>
@@ -13031,7 +13055,7 @@
         <v>372</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>377</v>
@@ -13043,86 +13067,116 @@
         <v>255</v>
       </c>
       <c r="G166" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDBClient</v>
+        <f t="shared" ref="G166:G170" si="56">"I"&amp;M166&amp;B166</f>
+        <v>ITMDBCache</v>
       </c>
       <c r="H166" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDBClient</v>
+        <f t="shared" ref="H166:H170" si="57">"T"&amp;M166&amp;B166</f>
+        <v>TTMDBCache</v>
       </c>
       <c r="I166" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBClient = interface;</v>
+        <v xml:space="preserve">  ITMDBCache = interface;</v>
       </c>
       <c r="J166" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBClient = class;</v>
+        <v xml:space="preserve">  TTMDBCache = class;</v>
       </c>
       <c r="K166" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDBClient = interface</v>
+        <f t="shared" ref="K166:K170" si="58">IF(C166="", "  "&amp;G166&amp;" = interface", "  "&amp;G166&amp;" = interface(I"&amp;M166&amp;C166&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCache = interface</v>
       </c>
       <c r="L166" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
+        <f t="shared" ref="L166:L170" si="59">IF(C166="", "  "&amp;H166&amp;" = class(TInterfacedObject, "&amp;G166&amp;")", "  "&amp;H166&amp;" = class(T"&amp;M166&amp;C166&amp;", "&amp;G166&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="G167" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
+        <f t="shared" si="56"/>
+        <v>ITMDBLoginState</v>
       </c>
       <c r="H167" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
+        <f t="shared" si="57"/>
+        <v>TTMDBLoginState</v>
       </c>
       <c r="I167" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
+        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
       </c>
       <c r="J167" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
+        <v xml:space="preserve">  TTMDBLoginState = class;</v>
       </c>
       <c r="K167" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface</v>
       </c>
       <c r="L167" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="G168" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
+        <f t="shared" si="56"/>
+        <v>ITMDBClient</v>
       </c>
       <c r="H168" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
+        <f t="shared" si="57"/>
+        <v>TTMDBClient</v>
       </c>
       <c r="I168" s="8" t="str">
         <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
+        <v xml:space="preserve">  ITMDBClient = interface;</v>
       </c>
       <c r="J168" s="8" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
+        <v xml:space="preserve">  TTMDBClient = class;</v>
       </c>
       <c r="K168" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">  ITMDBClient = interface</v>
       </c>
       <c r="L168" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
       </c>
       <c r="M168" s="8" t="s">
         <v>259</v>
@@ -13130,11 +13184,11 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G169" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H169" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I169" s="8" t="str">
@@ -13146,11 +13200,11 @@
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K169" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L169" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M169" s="8" t="s">
@@ -13159,11 +13213,11 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G170" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>ITMDB</v>
       </c>
       <c r="H170" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>TTMDB</v>
       </c>
       <c r="I170" s="8" t="str">
@@ -13175,971 +13229,14 @@
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K170" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L170" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M170" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G171" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H171" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I171" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J171" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K171" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L171" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M171" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G172" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H172" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I172" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J172" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K172" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L172" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M172" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G173" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H173" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I173" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J173" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K173" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L173" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M173" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G174" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H174" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I174" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J174" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K174" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L174" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M174" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G175" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H175" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I175" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J175" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K175" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L175" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M175" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G176" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H176" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I176" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J176" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K176" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L176" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M176" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="177" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G177" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H177" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I177" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J177" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K177" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L177" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M177" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="178" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G178" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H178" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I178" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J178" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K178" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L178" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M178" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="179" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G179" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H179" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I179" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J179" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K179" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L179" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M179" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="180" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G180" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H180" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I180" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J180" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K180" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L180" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M180" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="181" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G181" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H181" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I181" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J181" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K181" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L181" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M181" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="182" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G182" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H182" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I182" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J182" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K182" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L182" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M182" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="183" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G183" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H183" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I183" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J183" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K183" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L183" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M183" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="184" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G184" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H184" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I184" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J184" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K184" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L184" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M184" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="185" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G185" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H185" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I185" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J185" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K185" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L185" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M185" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="186" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G186" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H186" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I186" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J186" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K186" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L186" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M186" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="187" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G187" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H187" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I187" s="8" t="str">
-        <f t="shared" ref="I187:I203" si="54">"  "&amp;G187&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J187" s="8" t="str">
-        <f t="shared" ref="J187:J203" si="55">"  "&amp;H187&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K187" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L187" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M187" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="188" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G188" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H188" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I188" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J188" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K188" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L188" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M188" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="189" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G189" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H189" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I189" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J189" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K189" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L189" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M189" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="190" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G190" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H190" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I190" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J190" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K190" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L190" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M190" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="191" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G191" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H191" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I191" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J191" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K191" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L191" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M191" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="192" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G192" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H192" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I192" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J192" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K192" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L192" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M192" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="193" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G193" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H193" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I193" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J193" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K193" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L193" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M193" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="194" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G194" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H194" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I194" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J194" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K194" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L194" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M194" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="195" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G195" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H195" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I195" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J195" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K195" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L195" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M195" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="196" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G196" s="8" t="str">
-        <f t="shared" ref="G196:G203" si="56">"I"&amp;M196&amp;B196</f>
-        <v>ITMDB</v>
-      </c>
-      <c r="H196" s="8" t="str">
-        <f t="shared" ref="H196:H203" si="57">"T"&amp;M196&amp;B196</f>
-        <v>TTMDB</v>
-      </c>
-      <c r="I196" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J196" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K196" s="8" t="str">
-        <f t="shared" ref="K196:K203" si="58">IF(C196="", "  "&amp;G196&amp;" = interface", "  "&amp;G196&amp;" = interface(I"&amp;M196&amp;C196&amp;")")</f>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L196" s="8" t="str">
-        <f t="shared" ref="L196:L227" si="59">IF(C196="", "  "&amp;H196&amp;" = class(TInterfacedObject, "&amp;G196&amp;")", "  "&amp;H196&amp;" = class(T"&amp;M196&amp;C196&amp;", "&amp;G196&amp;")")</f>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M196" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="197" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G197" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H197" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I197" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J197" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K197" s="8" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
-      <c r="L197" s="8" t="str">
+      <c r="L170" s="8" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
-      <c r="M197" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="198" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G198" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H198" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I198" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J198" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K198" s="8" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L198" s="8" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M198" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="199" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G199" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H199" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I199" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J199" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K199" s="8" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L199" s="8" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M199" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="200" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G200" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H200" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I200" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J200" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K200" s="8" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L200" s="8" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M200" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="201" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G201" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H201" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I201" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J201" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K201" s="8" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L201" s="8" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M201" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="202" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G202" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H202" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I202" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J202" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K202" s="8" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L202" s="8" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M202" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="203" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G203" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDB</v>
-      </c>
-      <c r="H203" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDB</v>
-      </c>
-      <c r="I203" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
-      </c>
-      <c r="J203" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
-      </c>
-      <c r="K203" s="8" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
-      </c>
-      <c r="L203" s="8" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
-      </c>
-      <c r="M203" s="8" t="s">
+      <c r="M170" s="8" t="s">
         <v>259</v>
       </c>
     </row>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186BF4C0-0B7C-4354-B3F2-26212CD1541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B882D4B6-6D65-40BE-A9CF-AD0C7714B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
     <sheet name="Interface and Object List" sheetId="2" r:id="rId2"/>
+    <sheet name="Append to Response" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Append to Response'!$A$1:$G$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Endpoint Implementation Status'!$A$1:$H$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Interface and Object List'!$A$1:$L$2</definedName>
   </definedNames>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="489">
   <si>
     <t>Namespace</t>
   </si>
@@ -1412,6 +1414,102 @@
   </si>
   <si>
     <t>MediaWatchProviders</t>
+  </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>Result Type</t>
+  </si>
+  <si>
+    <t>Interfaced Object</t>
+  </si>
+  <si>
+    <t>TTMDBMovieDetail</t>
+  </si>
+  <si>
+    <t>ReleaseDates</t>
+  </si>
+  <si>
+    <t>TTMDBPersonDetail</t>
+  </si>
+  <si>
+    <t>CombinedCredits</t>
+  </si>
+  <si>
+    <t>MovieCredits</t>
+  </si>
+  <si>
+    <t>TVCredits</t>
+  </si>
+  <si>
+    <t>ITMDBReleaseDates</t>
+  </si>
+  <si>
+    <t>ITMDBCombinedCredits</t>
+  </si>
+  <si>
+    <t>TTMDBTVSerieDetail</t>
+  </si>
+  <si>
+    <t>AggregateCredits</t>
+  </si>
+  <si>
+    <t>EpisodeGroups</t>
+  </si>
+  <si>
+    <t>ScreenedTheatrically</t>
+  </si>
+  <si>
+    <t>ITMDBScreenedTheatricallyItems</t>
+  </si>
+  <si>
+    <t>ITMDBTVEpisodeDetail</t>
+  </si>
+  <si>
+    <t>Implementation Signature</t>
+  </si>
+  <si>
+    <t>Interface Signature</t>
+  </si>
+  <si>
+    <t>AggregateCastPerson</t>
+  </si>
+  <si>
+    <t>AggregateCastPeople</t>
+  </si>
+  <si>
+    <t>AggregateCrewPerson</t>
+  </si>
+  <si>
+    <t>AggregateCrewPeople</t>
+  </si>
+  <si>
+    <t>CreditRole</t>
+  </si>
+  <si>
+    <t>CreditRoles</t>
+  </si>
+  <si>
+    <t>CreditJob</t>
+  </si>
+  <si>
+    <t>CreditJobs</t>
+  </si>
+  <si>
+    <t>ScreenedTheatricallyRef</t>
+  </si>
+  <si>
+    <t>CombinedCastCredit</t>
+  </si>
+  <si>
+    <t>CombinedCastCredits</t>
+  </si>
+  <si>
+    <t>CombinedCrewCredit</t>
+  </si>
+  <si>
+    <t>CombinedCrewCredits</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1472,6 +1570,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1500,7 +1604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1537,6 +1641,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1874,8 +1986,8 @@
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,8 +2625,8 @@
       <c r="F27" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>255</v>
+      <c r="G27" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3829,8 +3941,11 @@
       <c r="E85" t="s">
         <v>222</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>74</v>
+      <c r="F85" t="s">
+        <v>467</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3918,8 +4033,11 @@
       <c r="E89" t="s">
         <v>223</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>74</v>
+      <c r="F89" t="s">
+        <v>467</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,8 +4056,11 @@
       <c r="E90" t="s">
         <v>224</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>74</v>
+      <c r="F90" t="s">
+        <v>467</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,8 +4542,8 @@
       <c r="F111" t="s">
         <v>450</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>74</v>
+      <c r="G111" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4536,8 +4657,8 @@
       <c r="F116" t="s">
         <v>250</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>74</v>
+      <c r="G116" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4717,8 +4838,8 @@
       <c r="E124" t="s">
         <v>247</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>74</v>
+      <c r="G124" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,8 +5016,8 @@
       <c r="F132" t="s">
         <v>210</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>74</v>
+      <c r="G132" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4918,8 +5039,8 @@
       <c r="F133" t="s">
         <v>450</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>74</v>
+      <c r="G133" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4941,8 +5062,8 @@
       <c r="F134" t="s">
         <v>78</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>74</v>
+      <c r="G134" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4961,8 +5082,11 @@
       <c r="E135" t="s">
         <v>197</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>74</v>
+      <c r="F135" t="s">
+        <v>211</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4984,8 +5108,8 @@
       <c r="F136" t="s">
         <v>212</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>74</v>
+      <c r="G136" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5007,8 +5131,8 @@
       <c r="F137" t="s">
         <v>101</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>74</v>
+      <c r="G137" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5030,8 +5154,8 @@
       <c r="F138" t="s">
         <v>102</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>74</v>
+      <c r="G138" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5053,8 +5177,8 @@
       <c r="F139" t="s">
         <v>216</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>74</v>
+      <c r="G139" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5122,8 +5246,8 @@
       <c r="F142" t="s">
         <v>210</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>74</v>
+      <c r="G142" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5145,8 +5269,8 @@
       <c r="F143" t="s">
         <v>78</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>74</v>
+      <c r="G143" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5165,8 +5289,11 @@
       <c r="E144" t="s">
         <v>197</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>74</v>
+      <c r="F144" t="s">
+        <v>211</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5188,8 +5315,8 @@
       <c r="F145" t="s">
         <v>212</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>74</v>
+      <c r="G145" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5211,8 +5338,8 @@
       <c r="F146" t="s">
         <v>101</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>74</v>
+      <c r="G146" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5234,8 +5361,8 @@
       <c r="F147" t="s">
         <v>102</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>74</v>
+      <c r="G147" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5257,8 +5384,8 @@
       <c r="F148" t="s">
         <v>216</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>74</v>
+      <c r="G148" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5401,16 +5528,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.140625" style="12" customWidth="1"/>
@@ -9108,27 +9235,27 @@
         <v>255</v>
       </c>
       <c r="G81" s="8" t="str">
-        <f t="shared" ref="G81:G111" si="16">"I"&amp;M81&amp;B81</f>
+        <f t="shared" ref="G81:G125" si="16">"I"&amp;M81&amp;B81</f>
         <v>ITMDBPerson</v>
       </c>
       <c r="H81" s="8" t="str">
-        <f t="shared" ref="H81:H111" si="17">"T"&amp;M81&amp;B81</f>
+        <f t="shared" ref="H81:H125" si="17">"T"&amp;M81&amp;B81</f>
         <v>TTMDBPerson</v>
       </c>
       <c r="I81" s="8" t="str">
-        <f t="shared" ref="I81:I130" si="18">"  "&amp;G81&amp;" = interface;"</f>
+        <f t="shared" ref="I81:I146" si="18">"  "&amp;G81&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBPerson = interface;</v>
       </c>
       <c r="J81" s="8" t="str">
-        <f t="shared" ref="J81:J130" si="19">"  "&amp;H81&amp;" = class;"</f>
+        <f t="shared" ref="J81:J146" si="19">"  "&amp;H81&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBPerson = class;</v>
       </c>
       <c r="K81" s="8" t="str">
-        <f t="shared" ref="K81:K111" si="20">IF(C81="", "  "&amp;G81&amp;" = interface", "  "&amp;G81&amp;" = interface(I"&amp;M81&amp;C81&amp;")")</f>
+        <f t="shared" ref="K81:K125" si="20">IF(C81="", "  "&amp;G81&amp;" = interface", "  "&amp;G81&amp;" = interface(I"&amp;M81&amp;C81&amp;")")</f>
         <v xml:space="preserve">  ITMDBPerson = interface(ITMDBMedium)</v>
       </c>
       <c r="L81" s="8" t="str">
-        <f t="shared" ref="L81:L111" si="21">IF(C81="", "  "&amp;H81&amp;" = class(TInterfacedObject, "&amp;G81&amp;")", "  "&amp;H81&amp;" = class(T"&amp;M81&amp;C81&amp;", "&amp;G81&amp;")")</f>
+        <f t="shared" ref="L81:L125" si="21">IF(C81="", "  "&amp;H81&amp;" = class(TInterfacedObject, "&amp;G81&amp;")", "  "&amp;H81&amp;" = class(T"&amp;M81&amp;C81&amp;", "&amp;G81&amp;")")</f>
         <v xml:space="preserve">  TTMDBPerson = class(TTMDBMedium, ITMDBPerson)</v>
       </c>
       <c r="M81" s="8" t="s">
@@ -9525,27 +9652,27 @@
         <v>74</v>
       </c>
       <c r="G90" s="8" t="str">
-        <f t="shared" ref="G90" si="22">"I"&amp;M90&amp;B90</f>
+        <f t="shared" ref="G90:G99" si="22">"I"&amp;M90&amp;B90</f>
         <v>ITMDBCreditDetail</v>
       </c>
       <c r="H90" s="8" t="str">
-        <f t="shared" ref="H90" si="23">"T"&amp;M90&amp;B90</f>
+        <f t="shared" ref="H90:H99" si="23">"T"&amp;M90&amp;B90</f>
         <v>TTMDBCreditDetail</v>
       </c>
       <c r="I90" s="8" t="str">
-        <f t="shared" ref="I90" si="24">"  "&amp;G90&amp;" = interface;"</f>
+        <f t="shared" ref="I90:I99" si="24">"  "&amp;G90&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBCreditDetail = interface;</v>
       </c>
       <c r="J90" s="8" t="str">
-        <f t="shared" ref="J90" si="25">"  "&amp;H90&amp;" = class;"</f>
+        <f t="shared" ref="J90:J99" si="25">"  "&amp;H90&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBCreditDetail = class;</v>
       </c>
       <c r="K90" s="8" t="str">
-        <f t="shared" ref="K90" si="26">IF(C90="", "  "&amp;G90&amp;" = interface", "  "&amp;G90&amp;" = interface(I"&amp;M90&amp;C90&amp;")")</f>
+        <f t="shared" ref="K90:K99" si="26">IF(C90="", "  "&amp;G90&amp;" = interface", "  "&amp;G90&amp;" = interface(I"&amp;M90&amp;C90&amp;")")</f>
         <v xml:space="preserve">  ITMDBCreditDetail = interface</v>
       </c>
       <c r="L90" s="8" t="str">
-        <f t="shared" ref="L90" si="27">IF(C90="", "  "&amp;H90&amp;" = class(TInterfacedObject, "&amp;G90&amp;")", "  "&amp;H90&amp;" = class(T"&amp;M90&amp;C90&amp;", "&amp;G90&amp;")")</f>
+        <f t="shared" ref="L90:L99" si="27">IF(C90="", "  "&amp;H90&amp;" = class(TInterfacedObject, "&amp;G90&amp;")", "  "&amp;H90&amp;" = class(T"&amp;M90&amp;C90&amp;", "&amp;G90&amp;")")</f>
         <v xml:space="preserve">  TTMDBCreditDetail = class(TInterfacedObject, ITMDBCreditDetail)</v>
       </c>
       <c r="M90" s="8" t="s">
@@ -9554,10 +9681,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>356</v>
+        <v>480</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>267</v>
@@ -9572,28 +9699,28 @@
         <v>74</v>
       </c>
       <c r="G91" s="8" t="str">
-        <f>"I"&amp;M91&amp;B91</f>
-        <v>ITMDBList</v>
+        <f t="shared" ref="G91:G92" si="28">"I"&amp;M91&amp;B91</f>
+        <v>ITMDBCreditRole</v>
       </c>
       <c r="H91" s="8" t="str">
-        <f>"T"&amp;M91&amp;B91</f>
-        <v>TTMDBList</v>
+        <f t="shared" ref="H91:H92" si="29">"T"&amp;M91&amp;B91</f>
+        <v>TTMDBCreditRole</v>
       </c>
       <c r="I91" s="8" t="str">
-        <f>"  "&amp;G91&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBList = interface;</v>
+        <f t="shared" ref="I91:I92" si="30">"  "&amp;G91&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBCreditRole = interface;</v>
       </c>
       <c r="J91" s="8" t="str">
-        <f>"  "&amp;H91&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBList = class;</v>
+        <f t="shared" ref="J91:J92" si="31">"  "&amp;H91&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBCreditRole = class;</v>
       </c>
       <c r="K91" s="8" t="str">
-        <f>IF(C91="", "  "&amp;G91&amp;" = interface", "  "&amp;G91&amp;" = interface(I"&amp;M91&amp;C91&amp;")")</f>
-        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
+        <f t="shared" ref="K91:K92" si="32">IF(C91="", "  "&amp;G91&amp;" = interface", "  "&amp;G91&amp;" = interface(I"&amp;M91&amp;C91&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCreditRole = interface(ITMDBItem)</v>
       </c>
       <c r="L91" s="8" t="str">
-        <f>IF(C91="", "  "&amp;H91&amp;" = class(TInterfacedObject, "&amp;G91&amp;")", "  "&amp;H91&amp;" = class(T"&amp;M91&amp;C91&amp;", "&amp;G91&amp;")")</f>
-        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
+        <f t="shared" ref="L91:L92" si="33">IF(C91="", "  "&amp;H91&amp;" = class(TInterfacedObject, "&amp;G91&amp;")", "  "&amp;H91&amp;" = class(T"&amp;M91&amp;C91&amp;", "&amp;G91&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCreditRole = class(TTMDBItem, ITMDBCreditRole)</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>259</v>
@@ -9601,10 +9728,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>8</v>
+        <v>481</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>268</v>
@@ -9619,28 +9746,28 @@
         <v>74</v>
       </c>
       <c r="G92" s="8" t="str">
-        <f>"I"&amp;M92&amp;B92</f>
-        <v>ITMDBLists</v>
+        <f t="shared" si="28"/>
+        <v>ITMDBCreditRoles</v>
       </c>
       <c r="H92" s="8" t="str">
-        <f>"T"&amp;M92&amp;B92</f>
-        <v>TTMDBLists</v>
+        <f t="shared" si="29"/>
+        <v>TTMDBCreditRoles</v>
       </c>
       <c r="I92" s="8" t="str">
-        <f>"  "&amp;G92&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBLists = interface;</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">  ITMDBCreditRoles = interface;</v>
       </c>
       <c r="J92" s="8" t="str">
-        <f>"  "&amp;H92&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBLists = class;</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">  TTMDBCreditRoles = class;</v>
       </c>
       <c r="K92" s="8" t="str">
-        <f>IF(C92="", "  "&amp;G92&amp;" = interface", "  "&amp;G92&amp;" = interface(I"&amp;M92&amp;C92&amp;")")</f>
-        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  ITMDBCreditRoles = interface(ITMDBItems)</v>
       </c>
       <c r="L92" s="8" t="str">
-        <f>IF(C92="", "  "&amp;H92&amp;" = class(TInterfacedObject, "&amp;G92&amp;")", "  "&amp;H92&amp;" = class(T"&amp;M92&amp;C92&amp;", "&amp;G92&amp;")")</f>
-        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">  TTMDBCreditRoles = class(TTMDBItems, ITMDBCreditRoles)</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>259</v>
@@ -9648,13 +9775,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>357</v>
+        <v>482</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>377</v>
@@ -9666,28 +9793,28 @@
         <v>74</v>
       </c>
       <c r="G93" s="8" t="str">
-        <f>"I"&amp;M93&amp;B93</f>
-        <v>ITMDBListPage</v>
+        <f t="shared" ref="G93:G94" si="34">"I"&amp;M93&amp;B93</f>
+        <v>ITMDBCreditJob</v>
       </c>
       <c r="H93" s="8" t="str">
-        <f>"T"&amp;M93&amp;B93</f>
-        <v>TTMDBListPage</v>
+        <f t="shared" ref="H93:H94" si="35">"T"&amp;M93&amp;B93</f>
+        <v>TTMDBCreditJob</v>
       </c>
       <c r="I93" s="8" t="str">
-        <f>"  "&amp;G93&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBListPage = interface;</v>
+        <f t="shared" ref="I93:I94" si="36">"  "&amp;G93&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBCreditJob = interface;</v>
       </c>
       <c r="J93" s="8" t="str">
-        <f>"  "&amp;H93&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBListPage = class;</v>
+        <f t="shared" ref="J93:J94" si="37">"  "&amp;H93&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBCreditJob = class;</v>
       </c>
       <c r="K93" s="8" t="str">
-        <f>IF(C93="", "  "&amp;G93&amp;" = interface", "  "&amp;G93&amp;" = interface(I"&amp;M93&amp;C93&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
+        <f t="shared" ref="K93:K94" si="38">IF(C93="", "  "&amp;G93&amp;" = interface", "  "&amp;G93&amp;" = interface(I"&amp;M93&amp;C93&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCreditJob = interface(ITMDBItem)</v>
       </c>
       <c r="L93" s="8" t="str">
-        <f>IF(C93="", "  "&amp;H93&amp;" = class(TInterfacedObject, "&amp;G93&amp;")", "  "&amp;H93&amp;" = class(T"&amp;M93&amp;C93&amp;", "&amp;G93&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
+        <f t="shared" ref="L93:L94" si="39">IF(C93="", "  "&amp;H93&amp;" = class(TInterfacedObject, "&amp;G93&amp;")", "  "&amp;H93&amp;" = class(T"&amp;M93&amp;C93&amp;", "&amp;G93&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCreditJob = class(TTMDBItem, ITMDBCreditJob)</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>259</v>
@@ -9695,13 +9822,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>358</v>
+        <v>483</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>377</v>
@@ -9713,28 +9840,28 @@
         <v>74</v>
       </c>
       <c r="G94" s="8" t="str">
-        <f>"I"&amp;M94&amp;B94</f>
-        <v>ITMDBListDetail</v>
+        <f t="shared" si="34"/>
+        <v>ITMDBCreditJobs</v>
       </c>
       <c r="H94" s="8" t="str">
-        <f>"T"&amp;M94&amp;B94</f>
-        <v>TTMDBListDetail</v>
+        <f t="shared" si="35"/>
+        <v>TTMDBCreditJobs</v>
       </c>
       <c r="I94" s="8" t="str">
-        <f>"  "&amp;G94&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">  ITMDBCreditJobs = interface;</v>
       </c>
       <c r="J94" s="8" t="str">
-        <f>"  "&amp;H94&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBListDetail = class;</v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">  TTMDBCreditJobs = class;</v>
       </c>
       <c r="K94" s="8" t="str">
-        <f>IF(C94="", "  "&amp;G94&amp;" = interface", "  "&amp;G94&amp;" = interface(I"&amp;M94&amp;C94&amp;")")</f>
-        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">  ITMDBCreditJobs = interface(ITMDBItems)</v>
       </c>
       <c r="L94" s="8" t="str">
-        <f>IF(C94="", "  "&amp;H94&amp;" = class(TInterfacedObject, "&amp;G94&amp;")", "  "&amp;H94&amp;" = class(T"&amp;M94&amp;C94&amp;", "&amp;G94&amp;")")</f>
-        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">  TTMDBCreditJobs = class(TTMDBItems, ITMDBCreditJobs)</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>259</v>
@@ -9742,10 +9869,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>385</v>
+        <v>476</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>377</v>
@@ -9753,32 +9883,32 @@
       <c r="E95" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>255</v>
+      <c r="F95" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G95" s="8" t="str">
-        <f>"I"&amp;M95&amp;B95</f>
-        <v>ITMDBReviewAuthor</v>
+        <f t="shared" si="22"/>
+        <v>ITMDBAggregateCastPerson</v>
       </c>
       <c r="H95" s="8" t="str">
-        <f>"T"&amp;M95&amp;B95</f>
-        <v>TTMDBReviewAuthor</v>
+        <f t="shared" si="23"/>
+        <v>TTMDBAggregateCastPerson</v>
       </c>
       <c r="I95" s="8" t="str">
-        <f>"  "&amp;G95&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewAuthor = interface;</v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  ITMDBAggregateCastPerson = interface;</v>
       </c>
       <c r="J95" s="8" t="str">
-        <f>"  "&amp;H95&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewAuthor = class;</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  TTMDBAggregateCastPerson = class;</v>
       </c>
       <c r="K95" s="8" t="str">
-        <f>IF(C95="", "  "&amp;G95&amp;" = interface", "  "&amp;G95&amp;" = interface(I"&amp;M95&amp;C95&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewAuthor = interface</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBAggregateCastPerson = interface(ITMDBCastPerson)</v>
       </c>
       <c r="L95" s="8" t="str">
-        <f>IF(C95="", "  "&amp;H95&amp;" = class(TInterfacedObject, "&amp;G95&amp;")", "  "&amp;H95&amp;" = class(T"&amp;M95&amp;C95&amp;", "&amp;G95&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewAuthor = class(TInterfacedObject, ITMDBReviewAuthor)</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBAggregateCastPerson = class(TTMDBCastPerson, ITMDBAggregateCastPerson)</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>259</v>
@@ -9786,13 +9916,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>377</v>
@@ -9800,32 +9930,32 @@
       <c r="E96" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>255</v>
+      <c r="F96" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G96" s="8" t="str">
-        <f>"I"&amp;M96&amp;B96</f>
-        <v>ITMDBReview</v>
+        <f t="shared" si="22"/>
+        <v>ITMDBAggregateCastPeople</v>
       </c>
       <c r="H96" s="8" t="str">
-        <f>"T"&amp;M96&amp;B96</f>
-        <v>TTMDBReview</v>
+        <f t="shared" si="23"/>
+        <v>TTMDBAggregateCastPeople</v>
       </c>
       <c r="I96" s="8" t="str">
-        <f>"  "&amp;G96&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReview = interface;</v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  ITMDBAggregateCastPeople = interface;</v>
       </c>
       <c r="J96" s="8" t="str">
-        <f>"  "&amp;H96&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReview = class;</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  TTMDBAggregateCastPeople = class;</v>
       </c>
       <c r="K96" s="8" t="str">
-        <f>IF(C96="", "  "&amp;G96&amp;" = interface", "  "&amp;G96&amp;" = interface(I"&amp;M96&amp;C96&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReview = interface(ITMDBItem)</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBAggregateCastPeople = interface(ITMDBCastPeople)</v>
       </c>
       <c r="L96" s="8" t="str">
-        <f>IF(C96="", "  "&amp;H96&amp;" = class(TInterfacedObject, "&amp;G96&amp;")", "  "&amp;H96&amp;" = class(T"&amp;M96&amp;C96&amp;", "&amp;G96&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReview = class(TTMDBItem, ITMDBReview)</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBAggregateCastPeople = class(TTMDBCastPeople, ITMDBAggregateCastPeople)</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>259</v>
@@ -9833,13 +9963,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>147</v>
+        <v>478</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>377</v>
@@ -9847,32 +9977,32 @@
       <c r="E97" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>255</v>
+      <c r="F97" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G97" s="8" t="str">
-        <f>"I"&amp;M97&amp;B97</f>
-        <v>ITMDBReviews</v>
+        <f t="shared" si="22"/>
+        <v>ITMDBAggregateCrewPerson</v>
       </c>
       <c r="H97" s="8" t="str">
-        <f>"T"&amp;M97&amp;B97</f>
-        <v>TTMDBReviews</v>
+        <f t="shared" si="23"/>
+        <v>TTMDBAggregateCrewPerson</v>
       </c>
       <c r="I97" s="8" t="str">
-        <f>"  "&amp;G97&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviews = interface;</v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  ITMDBAggregateCrewPerson = interface;</v>
       </c>
       <c r="J97" s="8" t="str">
-        <f>"  "&amp;H97&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviews = class;</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  TTMDBAggregateCrewPerson = class;</v>
       </c>
       <c r="K97" s="8" t="str">
-        <f>IF(C97="", "  "&amp;G97&amp;" = interface", "  "&amp;G97&amp;" = interface(I"&amp;M97&amp;C97&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviews = interface(ITMDBItems)</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBAggregateCrewPerson = interface(ITMDBCrewPerson)</v>
       </c>
       <c r="L97" s="8" t="str">
-        <f>IF(C97="", "  "&amp;H97&amp;" = class(TInterfacedObject, "&amp;G97&amp;")", "  "&amp;H97&amp;" = class(T"&amp;M97&amp;C97&amp;", "&amp;G97&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviews = class(TTMDBItems, ITMDBReviews)</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBAggregateCrewPerson = class(TTMDBCrewPerson, ITMDBAggregateCrewPerson)</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>259</v>
@@ -9880,13 +10010,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>384</v>
+        <v>479</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>377</v>
@@ -9894,32 +10024,32 @@
       <c r="E98" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>255</v>
+      <c r="F98" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G98" s="8" t="str">
-        <f>"I"&amp;M98&amp;B98</f>
-        <v>ITMDBReviewPage</v>
+        <f t="shared" si="22"/>
+        <v>ITMDBAggregateCrewPeople</v>
       </c>
       <c r="H98" s="8" t="str">
-        <f>"T"&amp;M98&amp;B98</f>
-        <v>TTMDBReviewPage</v>
+        <f t="shared" si="23"/>
+        <v>TTMDBAggregateCrewPeople</v>
       </c>
       <c r="I98" s="8" t="str">
-        <f>"  "&amp;G98&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewPage = interface;</v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  ITMDBAggregateCrewPeople = interface;</v>
       </c>
       <c r="J98" s="8" t="str">
-        <f>"  "&amp;H98&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewPage = class;</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  TTMDBAggregateCrewPeople = class;</v>
       </c>
       <c r="K98" s="8" t="str">
-        <f>IF(C98="", "  "&amp;G98&amp;" = interface", "  "&amp;G98&amp;" = interface(I"&amp;M98&amp;C98&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewPage = interface(ITMDBPage)</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBAggregateCrewPeople = interface(ITMDBCrewPeople)</v>
       </c>
       <c r="L98" s="8" t="str">
-        <f>IF(C98="", "  "&amp;H98&amp;" = class(TInterfacedObject, "&amp;G98&amp;")", "  "&amp;H98&amp;" = class(T"&amp;M98&amp;C98&amp;", "&amp;G98&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewPage = class(TTMDBPage, ITMDBReviewPage)</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBAggregateCrewPeople = class(TTMDBCrewPeople, ITMDBAggregateCrewPeople)</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>259</v>
@@ -9927,10 +10057,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>377</v>
@@ -9942,28 +10072,28 @@
         <v>74</v>
       </c>
       <c r="G99" s="8" t="str">
-        <f>"I"&amp;M99&amp;B99</f>
-        <v>ITMDBReviewDetail</v>
+        <f t="shared" si="22"/>
+        <v>ITMDBAggregateCredits</v>
       </c>
       <c r="H99" s="8" t="str">
-        <f>"T"&amp;M99&amp;B99</f>
-        <v>TTMDBReviewDetail</v>
+        <f t="shared" si="23"/>
+        <v>TTMDBAggregateCredits</v>
       </c>
       <c r="I99" s="8" t="str">
-        <f>"  "&amp;G99&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBReviewDetail = interface;</v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">  ITMDBAggregateCredits = interface;</v>
       </c>
       <c r="J99" s="8" t="str">
-        <f>"  "&amp;H99&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBReviewDetail = class;</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  TTMDBAggregateCredits = class;</v>
       </c>
       <c r="K99" s="8" t="str">
-        <f>IF(C99="", "  "&amp;G99&amp;" = interface", "  "&amp;G99&amp;" = interface(I"&amp;M99&amp;C99&amp;")")</f>
-        <v xml:space="preserve">  ITMDBReviewDetail = interface</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">  ITMDBAggregateCredits = interface</v>
       </c>
       <c r="L99" s="8" t="str">
-        <f>IF(C99="", "  "&amp;H99&amp;" = class(TInterfacedObject, "&amp;G99&amp;")", "  "&amp;H99&amp;" = class(T"&amp;M99&amp;C99&amp;", "&amp;G99&amp;")")</f>
-        <v xml:space="preserve">  TTMDBReviewDetail = class(TInterfacedObject, ITMDBReviewDetail)</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">  TTMDBAggregateCredits = class(TInterfacedObject, ITMDBAggregateCredits)</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>259</v>
@@ -9971,10 +10101,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>115</v>
+        <v>485</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>272</v>
@@ -9985,2173 +10115,2173 @@
       <c r="E100" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F100" s="14" t="s">
-        <v>377</v>
+      <c r="F100" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G100" s="8" t="str">
+        <f t="shared" ref="G100:G101" si="40">"I"&amp;M100&amp;B100</f>
+        <v>ITMDBCombinedCastCredit</v>
+      </c>
+      <c r="H100" s="8" t="str">
+        <f t="shared" ref="H100:H101" si="41">"T"&amp;M100&amp;B100</f>
+        <v>TTMDBCombinedCastCredit</v>
+      </c>
+      <c r="I100" s="8" t="str">
+        <f t="shared" ref="I100:I101" si="42">"  "&amp;G100&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBCombinedCastCredit = interface;</v>
+      </c>
+      <c r="J100" s="8" t="str">
+        <f t="shared" ref="J100:J101" si="43">"  "&amp;H100&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBCombinedCastCredit = class;</v>
+      </c>
+      <c r="K100" s="8" t="str">
+        <f t="shared" ref="K100:K101" si="44">IF(C100="", "  "&amp;G100&amp;" = interface", "  "&amp;G100&amp;" = interface(I"&amp;M100&amp;C100&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCombinedCastCredit = interface(ITMDBMedium)</v>
+      </c>
+      <c r="L100" s="8" t="str">
+        <f t="shared" ref="L100:L101" si="45">IF(C100="", "  "&amp;H100&amp;" = class(TInterfacedObject, "&amp;G100&amp;")", "  "&amp;H100&amp;" = class(T"&amp;M100&amp;C100&amp;", "&amp;G100&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCombinedCastCredit = class(TTMDBMedium, ITMDBCombinedCastCredit)</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>ITMDBCombinedCastCredits</v>
+      </c>
+      <c r="H101" s="8" t="str">
+        <f t="shared" si="41"/>
+        <v>TTMDBCombinedCastCredits</v>
+      </c>
+      <c r="I101" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">  ITMDBCombinedCastCredits = interface;</v>
+      </c>
+      <c r="J101" s="8" t="str">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">  TTMDBCombinedCastCredits = class;</v>
+      </c>
+      <c r="K101" s="8" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">  ITMDBCombinedCastCredits = interface(ITMDBMedia)</v>
+      </c>
+      <c r="L101" s="8" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">  TTMDBCombinedCastCredits = class(TTMDBMedia, ITMDBCombinedCastCredits)</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" s="8" t="str">
+        <f t="shared" ref="G102:G103" si="46">"I"&amp;M102&amp;B102</f>
+        <v>ITMDBCombinedCrewCredit</v>
+      </c>
+      <c r="H102" s="8" t="str">
+        <f t="shared" ref="H102:H103" si="47">"T"&amp;M102&amp;B102</f>
+        <v>TTMDBCombinedCrewCredit</v>
+      </c>
+      <c r="I102" s="8" t="str">
+        <f t="shared" ref="I102:I103" si="48">"  "&amp;G102&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBCombinedCrewCredit = interface;</v>
+      </c>
+      <c r="J102" s="8" t="str">
+        <f t="shared" ref="J102:J103" si="49">"  "&amp;H102&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBCombinedCrewCredit = class;</v>
+      </c>
+      <c r="K102" s="8" t="str">
+        <f t="shared" ref="K102:K103" si="50">IF(C102="", "  "&amp;G102&amp;" = interface", "  "&amp;G102&amp;" = interface(I"&amp;M102&amp;C102&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCombinedCrewCredit = interface(ITMDBMedium)</v>
+      </c>
+      <c r="L102" s="8" t="str">
+        <f t="shared" ref="L102:L103" si="51">IF(C102="", "  "&amp;H102&amp;" = class(TInterfacedObject, "&amp;G102&amp;")", "  "&amp;H102&amp;" = class(T"&amp;M102&amp;C102&amp;", "&amp;G102&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCombinedCrewCredit = class(TTMDBMedium, ITMDBCombinedCrewCredit)</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G103" s="8" t="str">
+        <f t="shared" si="46"/>
+        <v>ITMDBCombinedCrewCredits</v>
+      </c>
+      <c r="H103" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>TTMDBCombinedCrewCredits</v>
+      </c>
+      <c r="I103" s="8" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">  ITMDBCombinedCrewCredits = interface;</v>
+      </c>
+      <c r="J103" s="8" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve">  TTMDBCombinedCrewCredits = class;</v>
+      </c>
+      <c r="K103" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">  ITMDBCombinedCrewCredits = interface(ITMDBMedia)</v>
+      </c>
+      <c r="L103" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">  TTMDBCombinedCrewCredits = class(TTMDBMedia, ITMDBCombinedCrewCredits)</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104" s="8" t="str">
+        <f t="shared" ref="G104" si="52">"I"&amp;M104&amp;B104</f>
+        <v>ITMDBCombinedCredits</v>
+      </c>
+      <c r="H104" s="8" t="str">
+        <f t="shared" ref="H104" si="53">"T"&amp;M104&amp;B104</f>
+        <v>TTMDBCombinedCredits</v>
+      </c>
+      <c r="I104" s="8" t="str">
+        <f t="shared" ref="I104" si="54">"  "&amp;G104&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBCombinedCredits = interface;</v>
+      </c>
+      <c r="J104" s="8" t="str">
+        <f t="shared" ref="J104" si="55">"  "&amp;H104&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBCombinedCredits = class;</v>
+      </c>
+      <c r="K104" s="8" t="str">
+        <f t="shared" ref="K104" si="56">IF(C104="", "  "&amp;G104&amp;" = interface", "  "&amp;G104&amp;" = interface(I"&amp;M104&amp;C104&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCombinedCredits = interface</v>
+      </c>
+      <c r="L104" s="8" t="str">
+        <f t="shared" ref="L104" si="57">IF(C104="", "  "&amp;H104&amp;" = class(TInterfacedObject, "&amp;G104&amp;")", "  "&amp;H104&amp;" = class(T"&amp;M104&amp;C104&amp;", "&amp;G104&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCombinedCredits = class(TInterfacedObject, ITMDBCombinedCredits)</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G105" s="8" t="str">
+        <f>"I"&amp;M105&amp;B105</f>
+        <v>ITMDBList</v>
+      </c>
+      <c r="H105" s="8" t="str">
+        <f>"T"&amp;M105&amp;B105</f>
+        <v>TTMDBList</v>
+      </c>
+      <c r="I105" s="8" t="str">
+        <f>"  "&amp;G105&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBList = interface;</v>
+      </c>
+      <c r="J105" s="8" t="str">
+        <f>"  "&amp;H105&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBList = class;</v>
+      </c>
+      <c r="K105" s="8" t="str">
+        <f>IF(C105="", "  "&amp;G105&amp;" = interface", "  "&amp;G105&amp;" = interface(I"&amp;M105&amp;C105&amp;")")</f>
+        <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
+      </c>
+      <c r="L105" s="8" t="str">
+        <f>IF(C105="", "  "&amp;H105&amp;" = class(TInterfacedObject, "&amp;G105&amp;")", "  "&amp;H105&amp;" = class(T"&amp;M105&amp;C105&amp;", "&amp;G105&amp;")")</f>
+        <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G106" s="8" t="str">
+        <f>"I"&amp;M106&amp;B106</f>
+        <v>ITMDBLists</v>
+      </c>
+      <c r="H106" s="8" t="str">
+        <f>"T"&amp;M106&amp;B106</f>
+        <v>TTMDBLists</v>
+      </c>
+      <c r="I106" s="8" t="str">
+        <f>"  "&amp;G106&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBLists = interface;</v>
+      </c>
+      <c r="J106" s="8" t="str">
+        <f>"  "&amp;H106&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBLists = class;</v>
+      </c>
+      <c r="K106" s="8" t="str">
+        <f>IF(C106="", "  "&amp;G106&amp;" = interface", "  "&amp;G106&amp;" = interface(I"&amp;M106&amp;C106&amp;")")</f>
+        <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
+      </c>
+      <c r="L106" s="8" t="str">
+        <f>IF(C106="", "  "&amp;H106&amp;" = class(TInterfacedObject, "&amp;G106&amp;")", "  "&amp;H106&amp;" = class(T"&amp;M106&amp;C106&amp;", "&amp;G106&amp;")")</f>
+        <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G107" s="8" t="str">
+        <f>"I"&amp;M107&amp;B107</f>
+        <v>ITMDBListPage</v>
+      </c>
+      <c r="H107" s="8" t="str">
+        <f>"T"&amp;M107&amp;B107</f>
+        <v>TTMDBListPage</v>
+      </c>
+      <c r="I107" s="8" t="str">
+        <f>"  "&amp;G107&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBListPage = interface;</v>
+      </c>
+      <c r="J107" s="8" t="str">
+        <f>"  "&amp;H107&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBListPage = class;</v>
+      </c>
+      <c r="K107" s="8" t="str">
+        <f>IF(C107="", "  "&amp;G107&amp;" = interface", "  "&amp;G107&amp;" = interface(I"&amp;M107&amp;C107&amp;")")</f>
+        <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
+      </c>
+      <c r="L107" s="8" t="str">
+        <f>IF(C107="", "  "&amp;H107&amp;" = class(TInterfacedObject, "&amp;G107&amp;")", "  "&amp;H107&amp;" = class(T"&amp;M107&amp;C107&amp;", "&amp;G107&amp;")")</f>
+        <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108" s="8" t="str">
+        <f>"I"&amp;M108&amp;B108</f>
+        <v>ITMDBListDetail</v>
+      </c>
+      <c r="H108" s="8" t="str">
+        <f>"T"&amp;M108&amp;B108</f>
+        <v>TTMDBListDetail</v>
+      </c>
+      <c r="I108" s="8" t="str">
+        <f>"  "&amp;G108&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBListDetail = interface;</v>
+      </c>
+      <c r="J108" s="8" t="str">
+        <f>"  "&amp;H108&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBListDetail = class;</v>
+      </c>
+      <c r="K108" s="8" t="str">
+        <f>IF(C108="", "  "&amp;G108&amp;" = interface", "  "&amp;G108&amp;" = interface(I"&amp;M108&amp;C108&amp;")")</f>
+        <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
+      </c>
+      <c r="L108" s="8" t="str">
+        <f>IF(C108="", "  "&amp;H108&amp;" = class(TInterfacedObject, "&amp;G108&amp;")", "  "&amp;H108&amp;" = class(T"&amp;M108&amp;C108&amp;", "&amp;G108&amp;")")</f>
+        <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G109" s="8" t="str">
+        <f>"I"&amp;M109&amp;B109</f>
+        <v>ITMDBReviewAuthor</v>
+      </c>
+      <c r="H109" s="8" t="str">
+        <f>"T"&amp;M109&amp;B109</f>
+        <v>TTMDBReviewAuthor</v>
+      </c>
+      <c r="I109" s="8" t="str">
+        <f>"  "&amp;G109&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBReviewAuthor = interface;</v>
+      </c>
+      <c r="J109" s="8" t="str">
+        <f>"  "&amp;H109&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBReviewAuthor = class;</v>
+      </c>
+      <c r="K109" s="8" t="str">
+        <f>IF(C109="", "  "&amp;G109&amp;" = interface", "  "&amp;G109&amp;" = interface(I"&amp;M109&amp;C109&amp;")")</f>
+        <v xml:space="preserve">  ITMDBReviewAuthor = interface</v>
+      </c>
+      <c r="L109" s="8" t="str">
+        <f>IF(C109="", "  "&amp;H109&amp;" = class(TInterfacedObject, "&amp;G109&amp;")", "  "&amp;H109&amp;" = class(T"&amp;M109&amp;C109&amp;", "&amp;G109&amp;")")</f>
+        <v xml:space="preserve">  TTMDBReviewAuthor = class(TInterfacedObject, ITMDBReviewAuthor)</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G110" s="8" t="str">
+        <f>"I"&amp;M110&amp;B110</f>
+        <v>ITMDBReview</v>
+      </c>
+      <c r="H110" s="8" t="str">
+        <f>"T"&amp;M110&amp;B110</f>
+        <v>TTMDBReview</v>
+      </c>
+      <c r="I110" s="8" t="str">
+        <f>"  "&amp;G110&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBReview = interface;</v>
+      </c>
+      <c r="J110" s="8" t="str">
+        <f>"  "&amp;H110&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBReview = class;</v>
+      </c>
+      <c r="K110" s="8" t="str">
+        <f>IF(C110="", "  "&amp;G110&amp;" = interface", "  "&amp;G110&amp;" = interface(I"&amp;M110&amp;C110&amp;")")</f>
+        <v xml:space="preserve">  ITMDBReview = interface(ITMDBItem)</v>
+      </c>
+      <c r="L110" s="8" t="str">
+        <f>IF(C110="", "  "&amp;H110&amp;" = class(TInterfacedObject, "&amp;G110&amp;")", "  "&amp;H110&amp;" = class(T"&amp;M110&amp;C110&amp;", "&amp;G110&amp;")")</f>
+        <v xml:space="preserve">  TTMDBReview = class(TTMDBItem, ITMDBReview)</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G111" s="8" t="str">
+        <f>"I"&amp;M111&amp;B111</f>
+        <v>ITMDBReviews</v>
+      </c>
+      <c r="H111" s="8" t="str">
+        <f>"T"&amp;M111&amp;B111</f>
+        <v>TTMDBReviews</v>
+      </c>
+      <c r="I111" s="8" t="str">
+        <f>"  "&amp;G111&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBReviews = interface;</v>
+      </c>
+      <c r="J111" s="8" t="str">
+        <f>"  "&amp;H111&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBReviews = class;</v>
+      </c>
+      <c r="K111" s="8" t="str">
+        <f>IF(C111="", "  "&amp;G111&amp;" = interface", "  "&amp;G111&amp;" = interface(I"&amp;M111&amp;C111&amp;")")</f>
+        <v xml:space="preserve">  ITMDBReviews = interface(ITMDBItems)</v>
+      </c>
+      <c r="L111" s="8" t="str">
+        <f>IF(C111="", "  "&amp;H111&amp;" = class(TInterfacedObject, "&amp;G111&amp;")", "  "&amp;H111&amp;" = class(T"&amp;M111&amp;C111&amp;", "&amp;G111&amp;")")</f>
+        <v xml:space="preserve">  TTMDBReviews = class(TTMDBItems, ITMDBReviews)</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G112" s="8" t="str">
+        <f>"I"&amp;M112&amp;B112</f>
+        <v>ITMDBReviewPage</v>
+      </c>
+      <c r="H112" s="8" t="str">
+        <f>"T"&amp;M112&amp;B112</f>
+        <v>TTMDBReviewPage</v>
+      </c>
+      <c r="I112" s="8" t="str">
+        <f>"  "&amp;G112&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBReviewPage = interface;</v>
+      </c>
+      <c r="J112" s="8" t="str">
+        <f>"  "&amp;H112&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBReviewPage = class;</v>
+      </c>
+      <c r="K112" s="8" t="str">
+        <f>IF(C112="", "  "&amp;G112&amp;" = interface", "  "&amp;G112&amp;" = interface(I"&amp;M112&amp;C112&amp;")")</f>
+        <v xml:space="preserve">  ITMDBReviewPage = interface(ITMDBPage)</v>
+      </c>
+      <c r="L112" s="8" t="str">
+        <f>IF(C112="", "  "&amp;H112&amp;" = class(TInterfacedObject, "&amp;G112&amp;")", "  "&amp;H112&amp;" = class(T"&amp;M112&amp;C112&amp;", "&amp;G112&amp;")")</f>
+        <v xml:space="preserve">  TTMDBReviewPage = class(TTMDBPage, ITMDBReviewPage)</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" s="8" t="str">
+        <f>"I"&amp;M113&amp;B113</f>
+        <v>ITMDBReviewDetail</v>
+      </c>
+      <c r="H113" s="8" t="str">
+        <f>"T"&amp;M113&amp;B113</f>
+        <v>TTMDBReviewDetail</v>
+      </c>
+      <c r="I113" s="8" t="str">
+        <f>"  "&amp;G113&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBReviewDetail = interface;</v>
+      </c>
+      <c r="J113" s="8" t="str">
+        <f>"  "&amp;H113&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBReviewDetail = class;</v>
+      </c>
+      <c r="K113" s="8" t="str">
+        <f>IF(C113="", "  "&amp;G113&amp;" = interface", "  "&amp;G113&amp;" = interface(I"&amp;M113&amp;C113&amp;")")</f>
+        <v xml:space="preserve">  ITMDBReviewDetail = interface</v>
+      </c>
+      <c r="L113" s="8" t="str">
+        <f>IF(C113="", "  "&amp;H113&amp;" = class(TInterfacedObject, "&amp;G113&amp;")", "  "&amp;H113&amp;" = class(T"&amp;M113&amp;C113&amp;", "&amp;G113&amp;")")</f>
+        <v xml:space="preserve">  TTMDBReviewDetail = class(TInterfacedObject, ITMDBReviewDetail)</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G114" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBMovie</v>
       </c>
-      <c r="H100" s="8" t="str">
+      <c r="H114" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBMovie</v>
       </c>
-      <c r="I100" s="8" t="str">
+      <c r="I114" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBMovie = interface;</v>
       </c>
-      <c r="J100" s="8" t="str">
+      <c r="J114" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBMovie = class;</v>
       </c>
-      <c r="K100" s="8" t="str">
+      <c r="K114" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
       </c>
-      <c r="L100" s="8" t="str">
+      <c r="L114" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
       </c>
-      <c r="M100" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="M114" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G101" s="8" t="str">
+      <c r="D115" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G115" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBMovies</v>
       </c>
-      <c r="H101" s="8" t="str">
+      <c r="H115" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBMovies</v>
       </c>
-      <c r="I101" s="8" t="str">
+      <c r="I115" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBMovies = interface;</v>
       </c>
-      <c r="J101" s="8" t="str">
+      <c r="J115" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBMovies = class;</v>
       </c>
-      <c r="K101" s="8" t="str">
+      <c r="K115" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
       </c>
-      <c r="L101" s="8" t="str">
+      <c r="L115" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
       </c>
-      <c r="M101" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="M115" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B116" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D102" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G102" s="8" t="str">
+      <c r="D116" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G116" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBMoviePage</v>
       </c>
-      <c r="H102" s="8" t="str">
+      <c r="H116" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBMoviePage</v>
       </c>
-      <c r="I102" s="8" t="str">
+      <c r="I116" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
       </c>
-      <c r="J102" s="8" t="str">
+      <c r="J116" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBMoviePage = class;</v>
       </c>
-      <c r="K102" s="8" t="str">
+      <c r="K116" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
       </c>
-      <c r="L102" s="8" t="str">
+      <c r="L116" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
       </c>
-      <c r="M102" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="M116" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D103" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F103" s="12" t="s">
+      <c r="D117" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F117" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G103" s="8" t="str">
+      <c r="G117" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBRatedMovie</v>
       </c>
-      <c r="H103" s="8" t="str">
+      <c r="H117" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBRatedMovie</v>
       </c>
-      <c r="I103" s="8" t="str">
+      <c r="I117" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
       </c>
-      <c r="J103" s="8" t="str">
+      <c r="J117" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
       </c>
-      <c r="K103" s="8" t="str">
+      <c r="K117" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
       </c>
-      <c r="L103" s="8" t="str">
+      <c r="L117" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
       </c>
-      <c r="M103" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="M117" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B118" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C118" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D104" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F104" s="12" t="s">
+      <c r="D118" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G104" s="8" t="str">
+      <c r="G118" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBRatedMovies</v>
       </c>
-      <c r="H104" s="8" t="str">
+      <c r="H118" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBRatedMovies</v>
       </c>
-      <c r="I104" s="8" t="str">
+      <c r="I118" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
       </c>
-      <c r="J104" s="8" t="str">
+      <c r="J118" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
       </c>
-      <c r="K104" s="8" t="str">
+      <c r="K118" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
       </c>
-      <c r="L104" s="8" t="str">
+      <c r="L118" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
       </c>
-      <c r="M104" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="M118" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F105" s="12" t="s">
+      <c r="D119" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F119" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G105" s="8" t="str">
+      <c r="G119" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBRatedMoviePage</v>
       </c>
-      <c r="H105" s="8" t="str">
+      <c r="H119" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBRatedMoviePage</v>
       </c>
-      <c r="I105" s="8" t="str">
+      <c r="I119" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
       </c>
-      <c r="J105" s="8" t="str">
+      <c r="J119" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
       </c>
-      <c r="K105" s="8" t="str">
+      <c r="K119" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
-      <c r="L105" s="8" t="str">
+      <c r="L119" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
       </c>
-      <c r="M105" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="M119" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B120" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F106" s="12" t="s">
+      <c r="D120" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F120" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G106" s="8" t="str">
+      <c r="G120" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBMovieCollectionRef</v>
       </c>
-      <c r="H106" s="8" t="str">
+      <c r="H120" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBMovieCollectionRef</v>
       </c>
-      <c r="I106" s="8" t="str">
+      <c r="I120" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
       </c>
-      <c r="J106" s="8" t="str">
+      <c r="J120" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
       </c>
-      <c r="K106" s="8" t="str">
+      <c r="K120" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
       </c>
-      <c r="L106" s="8" t="str">
+      <c r="L120" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
       </c>
-      <c r="M106" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="M120" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D107" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F107" s="15" t="s">
+      <c r="D121" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F121" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G107" s="8" t="str">
+      <c r="G121" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBMovieDetail</v>
       </c>
-      <c r="H107" s="8" t="str">
+      <c r="H121" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBMovieDetail</v>
       </c>
-      <c r="I107" s="8" t="str">
+      <c r="I121" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
       </c>
-      <c r="J107" s="8" t="str">
+      <c r="J121" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
       </c>
-      <c r="K107" s="8" t="str">
+      <c r="K121" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
       </c>
-      <c r="L107" s="8" t="str">
+      <c r="L121" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
       </c>
-      <c r="M107" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="M121" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B122" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F108" s="12" t="s">
+      <c r="D122" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F122" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G108" s="8" t="str">
+      <c r="G122" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBDateRange</v>
       </c>
-      <c r="H108" s="8" t="str">
+      <c r="H122" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBDateRange</v>
       </c>
-      <c r="I108" s="8" t="str">
+      <c r="I122" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBDateRange = interface;</v>
       </c>
-      <c r="J108" s="8" t="str">
+      <c r="J122" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBDateRange = class;</v>
       </c>
-      <c r="K108" s="8" t="str">
+      <c r="K122" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBDateRange = interface</v>
       </c>
-      <c r="L108" s="8" t="str">
+      <c r="L122" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
       </c>
-      <c r="M108" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="M122" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D109" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F109" s="12" t="s">
+      <c r="D123" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F123" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G109" s="8" t="str">
+      <c r="G123" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBDatedMoviePage</v>
       </c>
-      <c r="H109" s="8" t="str">
+      <c r="H123" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBDatedMoviePage</v>
       </c>
-      <c r="I109" s="8" t="str">
+      <c r="I123" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
       </c>
-      <c r="J109" s="8" t="str">
+      <c r="J123" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
       </c>
-      <c r="K109" s="8" t="str">
+      <c r="K123" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
-      <c r="L109" s="8" t="str">
+      <c r="L123" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
       </c>
-      <c r="M109" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="M123" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B124" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D124" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="E124" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G110" s="8" t="str">
+      <c r="F124" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G124" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBTVSerie</v>
       </c>
-      <c r="H110" s="8" t="str">
+      <c r="H124" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBTVSerie</v>
       </c>
-      <c r="I110" s="8" t="str">
+      <c r="I124" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
       </c>
-      <c r="J110" s="8" t="str">
+      <c r="J124" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSerie = class;</v>
       </c>
-      <c r="K110" s="8" t="str">
+      <c r="K124" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
       </c>
-      <c r="L110" s="8" t="str">
+      <c r="L124" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
       </c>
-      <c r="M110" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="M124" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B125" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D111" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G111" s="8" t="str">
+      <c r="D125" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G125" s="8" t="str">
         <f t="shared" si="16"/>
         <v>ITMDBTVSeries</v>
       </c>
-      <c r="H111" s="8" t="str">
+      <c r="H125" s="8" t="str">
         <f t="shared" si="17"/>
         <v>TTMDBTVSeries</v>
       </c>
-      <c r="I111" s="8" t="str">
+      <c r="I125" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
       </c>
-      <c r="J111" s="8" t="str">
+      <c r="J125" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeries = class;</v>
       </c>
-      <c r="K111" s="8" t="str">
+      <c r="K125" s="8" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
       </c>
-      <c r="L111" s="8" t="str">
+      <c r="L125" s="8" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
       </c>
-      <c r="M111" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="M125" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G112" s="8" t="str">
-        <f t="shared" ref="G112:G132" si="28">"I"&amp;M112&amp;B112</f>
+      <c r="D126" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G126" s="8" t="str">
+        <f t="shared" ref="G126:G148" si="58">"I"&amp;M126&amp;B126</f>
         <v>ITMDBTVSeriesPage</v>
       </c>
-      <c r="H112" s="8" t="str">
-        <f t="shared" ref="H112:H132" si="29">"T"&amp;M112&amp;B112</f>
+      <c r="H126" s="8" t="str">
+        <f t="shared" ref="H126:H148" si="59">"T"&amp;M126&amp;B126</f>
         <v>TTMDBTVSeriesPage</v>
       </c>
-      <c r="I112" s="8" t="str">
+      <c r="I126" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
       </c>
-      <c r="J112" s="8" t="str">
+      <c r="J126" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
       </c>
-      <c r="K112" s="8" t="str">
-        <f t="shared" ref="K112:K132" si="30">IF(C112="", "  "&amp;G112&amp;" = interface", "  "&amp;G112&amp;" = interface(I"&amp;M112&amp;C112&amp;")")</f>
+      <c r="K126" s="8" t="str">
+        <f t="shared" ref="K126:K148" si="60">IF(C126="", "  "&amp;G126&amp;" = interface", "  "&amp;G126&amp;" = interface(I"&amp;M126&amp;C126&amp;")")</f>
         <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
       </c>
-      <c r="L112" s="8" t="str">
-        <f t="shared" ref="L112:L132" si="31">IF(C112="", "  "&amp;H112&amp;" = class(TInterfacedObject, "&amp;G112&amp;")", "  "&amp;H112&amp;" = class(T"&amp;M112&amp;C112&amp;", "&amp;G112&amp;")")</f>
+      <c r="L126" s="8" t="str">
+        <f t="shared" ref="L126:L148" si="61">IF(C126="", "  "&amp;H126&amp;" = class(TInterfacedObject, "&amp;G126&amp;")", "  "&amp;H126&amp;" = class(T"&amp;M126&amp;C126&amp;", "&amp;G126&amp;")")</f>
         <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
       </c>
-      <c r="M112" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="M126" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B127" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D113" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F113" s="12" t="s">
+      <c r="D127" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F127" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G113" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G127" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBRatedTVSerie</v>
       </c>
-      <c r="H113" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H127" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBRatedTVSerie</v>
       </c>
-      <c r="I113" s="8" t="str">
+      <c r="I127" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
       </c>
-      <c r="J113" s="8" t="str">
+      <c r="J127" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
       </c>
-      <c r="K113" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K127" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
       </c>
-      <c r="L113" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L127" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
       </c>
-      <c r="M113" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="M127" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B128" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D114" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F114" s="12" t="s">
+      <c r="D128" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F128" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G114" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G128" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBRatedTVSeries</v>
       </c>
-      <c r="H114" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H128" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBRatedTVSeries</v>
       </c>
-      <c r="I114" s="8" t="str">
+      <c r="I128" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
       </c>
-      <c r="J114" s="8" t="str">
+      <c r="J128" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
       </c>
-      <c r="K114" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K128" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
       </c>
-      <c r="L114" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L128" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
       </c>
-      <c r="M114" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="M128" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B129" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D115" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F115" s="12" t="s">
+      <c r="D129" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F129" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G115" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G129" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBRatedTVSeriesPage</v>
       </c>
-      <c r="H115" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H129" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBRatedTVSeriesPage</v>
       </c>
-      <c r="I115" s="8" t="str">
+      <c r="I129" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
       </c>
-      <c r="J115" s="8" t="str">
+      <c r="J129" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
       </c>
-      <c r="K115" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K129" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
       </c>
-      <c r="L115" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L129" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
       </c>
-      <c r="M115" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="M129" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B130" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D130" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="E130" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F116" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G116" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="F130" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G130" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVSerieDetail</v>
       </c>
-      <c r="H116" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H130" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVSerieDetail</v>
       </c>
-      <c r="I116" s="8" t="str">
+      <c r="I130" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSerieDetail = interface;</v>
       </c>
-      <c r="J116" s="8" t="str">
+      <c r="J130" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSerieDetail = class;</v>
       </c>
-      <c r="K116" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K130" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVSerieDetail = interface(ITMDBDetail)</v>
       </c>
-      <c r="L116" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L130" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVSerieDetail = class(TTMDBDetail, ITMDBTVSerieDetail)</v>
       </c>
-      <c r="M116" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="M130" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G131" s="8" t="str">
+        <f t="shared" ref="G131" si="62">"I"&amp;M131&amp;B131</f>
+        <v>ITMDBScreenedTheatricallyRef</v>
+      </c>
+      <c r="H131" s="8" t="str">
+        <f t="shared" ref="H131" si="63">"T"&amp;M131&amp;B131</f>
+        <v>TTMDBScreenedTheatricallyRef</v>
+      </c>
+      <c r="I131" s="8" t="str">
+        <f t="shared" ref="I131" si="64">"  "&amp;G131&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBScreenedTheatricallyRef = interface;</v>
+      </c>
+      <c r="J131" s="8" t="str">
+        <f t="shared" ref="J131" si="65">"  "&amp;H131&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBScreenedTheatricallyRef = class;</v>
+      </c>
+      <c r="K131" s="8" t="str">
+        <f t="shared" ref="K131" si="66">IF(C131="", "  "&amp;G131&amp;" = interface", "  "&amp;G131&amp;" = interface(I"&amp;M131&amp;C131&amp;")")</f>
+        <v xml:space="preserve">  ITMDBScreenedTheatricallyRef = interface(ITMDBItem)</v>
+      </c>
+      <c r="L131" s="8" t="str">
+        <f t="shared" ref="L131" si="67">IF(C131="", "  "&amp;H131&amp;" = class(TInterfacedObject, "&amp;G131&amp;")", "  "&amp;H131&amp;" = class(T"&amp;M131&amp;C131&amp;", "&amp;G131&amp;")")</f>
+        <v xml:space="preserve">  TTMDBScreenedTheatricallyRef = class(TTMDBItem, ITMDBScreenedTheatricallyRef)</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G132" s="8" t="str">
+        <f t="shared" ref="G132" si="68">"I"&amp;M132&amp;B132</f>
+        <v>ITMDBScreenedTheatrically</v>
+      </c>
+      <c r="H132" s="8" t="str">
+        <f t="shared" ref="H132" si="69">"T"&amp;M132&amp;B132</f>
+        <v>TTMDBScreenedTheatrically</v>
+      </c>
+      <c r="I132" s="8" t="str">
+        <f t="shared" ref="I132" si="70">"  "&amp;G132&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBScreenedTheatrically = interface;</v>
+      </c>
+      <c r="J132" s="8" t="str">
+        <f t="shared" ref="J132" si="71">"  "&amp;H132&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBScreenedTheatrically = class;</v>
+      </c>
+      <c r="K132" s="8" t="str">
+        <f t="shared" ref="K132" si="72">IF(C132="", "  "&amp;G132&amp;" = interface", "  "&amp;G132&amp;" = interface(I"&amp;M132&amp;C132&amp;")")</f>
+        <v xml:space="preserve">  ITMDBScreenedTheatrically = interface(ITMDBItems)</v>
+      </c>
+      <c r="L132" s="8" t="str">
+        <f t="shared" ref="L132" si="73">IF(C132="", "  "&amp;H132&amp;" = class(TInterfacedObject, "&amp;G132&amp;")", "  "&amp;H132&amp;" = class(T"&amp;M132&amp;C132&amp;", "&amp;G132&amp;")")</f>
+        <v xml:space="preserve">  TTMDBScreenedTheatrically = class(TTMDBItems, ITMDBScreenedTheatrically)</v>
+      </c>
+      <c r="M132" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B133" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D117" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F117" s="12" t="s">
+      <c r="D133" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F133" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G117" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G133" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVSeason</v>
       </c>
-      <c r="H117" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H133" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVSeason</v>
       </c>
-      <c r="I117" s="8" t="str">
+      <c r="I133" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
       </c>
-      <c r="J117" s="8" t="str">
+      <c r="J133" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeason = class;</v>
       </c>
-      <c r="K117" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K133" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
       </c>
-      <c r="L117" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L133" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
       </c>
-      <c r="M117" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="M133" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B134" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D118" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F118" s="12" t="s">
+      <c r="D134" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F134" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G118" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G134" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVSeasons</v>
       </c>
-      <c r="H118" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H134" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVSeasons</v>
       </c>
-      <c r="I118" s="8" t="str">
+      <c r="I134" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
       </c>
-      <c r="J118" s="8" t="str">
+      <c r="J134" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
       </c>
-      <c r="K118" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K134" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
       </c>
-      <c r="L118" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L134" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
       </c>
-      <c r="M118" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="M134" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F119" s="12" t="s">
+      <c r="D135" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F135" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G119" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G135" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVSeasonPage</v>
       </c>
-      <c r="H119" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H135" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVSeasonPage</v>
       </c>
-      <c r="I119" s="8" t="str">
+      <c r="I135" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
       </c>
-      <c r="J119" s="8" t="str">
+      <c r="J135" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
       </c>
-      <c r="K119" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K135" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
       </c>
-      <c r="L119" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L135" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
       </c>
-      <c r="M119" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="M135" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B136" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D120" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F120" s="12" t="s">
+      <c r="D136" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F136" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G120" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G136" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVSeasonDetail</v>
       </c>
-      <c r="H120" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H136" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVSeasonDetail</v>
       </c>
-      <c r="I120" s="8" t="str">
+      <c r="I136" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
       </c>
-      <c r="J120" s="8" t="str">
+      <c r="J136" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
       </c>
-      <c r="K120" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K136" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
       </c>
-      <c r="L120" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L136" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
       </c>
-      <c r="M120" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="M136" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D121" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F121" s="12" t="s">
+      <c r="D137" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F137" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G121" s="8" t="str">
-        <f t="shared" ref="G121" si="32">"I"&amp;M121&amp;B121</f>
+      <c r="G137" s="8" t="str">
+        <f t="shared" ref="G137" si="74">"I"&amp;M137&amp;B137</f>
         <v>ITMDBTVSeasonEpisode</v>
       </c>
-      <c r="H121" s="8" t="str">
-        <f t="shared" ref="H121" si="33">"T"&amp;M121&amp;B121</f>
+      <c r="H137" s="8" t="str">
+        <f t="shared" ref="H137" si="75">"T"&amp;M137&amp;B137</f>
         <v>TTMDBTVSeasonEpisode</v>
       </c>
-      <c r="I121" s="8" t="str">
-        <f t="shared" ref="I121" si="34">"  "&amp;G121&amp;" = interface;"</f>
+      <c r="I137" s="8" t="str">
+        <f t="shared" ref="I137" si="76">"  "&amp;G137&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
       </c>
-      <c r="J121" s="8" t="str">
-        <f t="shared" ref="J121" si="35">"  "&amp;H121&amp;" = class;"</f>
+      <c r="J137" s="8" t="str">
+        <f t="shared" ref="J137" si="77">"  "&amp;H137&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
       </c>
-      <c r="K121" s="8" t="str">
-        <f t="shared" ref="K121" si="36">IF(C121="", "  "&amp;G121&amp;" = interface", "  "&amp;G121&amp;" = interface(I"&amp;M121&amp;C121&amp;")")</f>
+      <c r="K137" s="8" t="str">
+        <f t="shared" ref="K137" si="78">IF(C137="", "  "&amp;G137&amp;" = interface", "  "&amp;G137&amp;" = interface(I"&amp;M137&amp;C137&amp;")")</f>
         <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
       </c>
-      <c r="L121" s="8" t="str">
-        <f t="shared" ref="L121" si="37">IF(C121="", "  "&amp;H121&amp;" = class(TInterfacedObject, "&amp;G121&amp;")", "  "&amp;H121&amp;" = class(T"&amp;M121&amp;C121&amp;", "&amp;G121&amp;")")</f>
+      <c r="L137" s="8" t="str">
+        <f t="shared" ref="L137" si="79">IF(C137="", "  "&amp;H137&amp;" = class(TInterfacedObject, "&amp;G137&amp;")", "  "&amp;H137&amp;" = class(T"&amp;M137&amp;C137&amp;", "&amp;G137&amp;")")</f>
         <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
       </c>
-      <c r="M121" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="M137" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B138" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D122" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F122" s="12" t="s">
+      <c r="D138" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F138" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G122" s="8" t="str">
-        <f t="shared" ref="G122" si="38">"I"&amp;M122&amp;B122</f>
+      <c r="G138" s="8" t="str">
+        <f t="shared" ref="G138" si="80">"I"&amp;M138&amp;B138</f>
         <v>ITMDBTVSeasonEpisodes</v>
       </c>
-      <c r="H122" s="8" t="str">
-        <f t="shared" ref="H122" si="39">"T"&amp;M122&amp;B122</f>
+      <c r="H138" s="8" t="str">
+        <f t="shared" ref="H138" si="81">"T"&amp;M138&amp;B138</f>
         <v>TTMDBTVSeasonEpisodes</v>
       </c>
-      <c r="I122" s="8" t="str">
-        <f t="shared" ref="I122" si="40">"  "&amp;G122&amp;" = interface;"</f>
+      <c r="I138" s="8" t="str">
+        <f t="shared" ref="I138" si="82">"  "&amp;G138&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface;</v>
       </c>
-      <c r="J122" s="8" t="str">
-        <f t="shared" ref="J122" si="41">"  "&amp;H122&amp;" = class;"</f>
+      <c r="J138" s="8" t="str">
+        <f t="shared" ref="J138" si="83">"  "&amp;H138&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class;</v>
       </c>
-      <c r="K122" s="8" t="str">
-        <f t="shared" ref="K122" si="42">IF(C122="", "  "&amp;G122&amp;" = interface", "  "&amp;G122&amp;" = interface(I"&amp;M122&amp;C122&amp;")")</f>
+      <c r="K138" s="8" t="str">
+        <f t="shared" ref="K138" si="84">IF(C138="", "  "&amp;G138&amp;" = interface", "  "&amp;G138&amp;" = interface(I"&amp;M138&amp;C138&amp;")")</f>
         <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
-      <c r="L122" s="8" t="str">
-        <f t="shared" ref="L122" si="43">IF(C122="", "  "&amp;H122&amp;" = class(TInterfacedObject, "&amp;G122&amp;")", "  "&amp;H122&amp;" = class(T"&amp;M122&amp;C122&amp;", "&amp;G122&amp;")")</f>
+      <c r="L138" s="8" t="str">
+        <f t="shared" ref="L138" si="85">IF(C138="", "  "&amp;H138&amp;" = class(TInterfacedObject, "&amp;G138&amp;")", "  "&amp;H138&amp;" = class(T"&amp;M138&amp;C138&amp;", "&amp;G138&amp;")")</f>
         <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class(TTMDBTVEpisodes, ITMDBTVSeasonEpisodes)</v>
       </c>
-      <c r="M122" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="M138" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B139" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D123" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F123" s="12" t="s">
+      <c r="D139" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F139" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G123" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G139" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVEpisode</v>
       </c>
-      <c r="H123" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H139" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVEpisode</v>
       </c>
-      <c r="I123" s="8" t="str">
+      <c r="I139" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
       </c>
-      <c r="J123" s="8" t="str">
+      <c r="J139" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
       </c>
-      <c r="K123" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K139" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
       </c>
-      <c r="L123" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L139" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
       </c>
-      <c r="M123" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="M139" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B140" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D124" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F124" s="12" t="s">
+      <c r="D140" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F140" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G124" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G140" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVEpisodes</v>
       </c>
-      <c r="H124" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H140" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVEpisodes</v>
       </c>
-      <c r="I124" s="8" t="str">
+      <c r="I140" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
       </c>
-      <c r="J124" s="8" t="str">
+      <c r="J140" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
       </c>
-      <c r="K124" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K140" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
       </c>
-      <c r="L124" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L140" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
       </c>
-      <c r="M124" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="M140" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C141" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D125" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F125" s="12" t="s">
+      <c r="D141" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F141" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G125" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G141" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVEpisodePage</v>
       </c>
-      <c r="H125" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H141" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVEpisodePage</v>
       </c>
-      <c r="I125" s="8" t="str">
+      <c r="I141" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
       </c>
-      <c r="J125" s="8" t="str">
+      <c r="J141" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
       </c>
-      <c r="K125" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K141" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
       </c>
-      <c r="L125" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L141" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
       </c>
-      <c r="M125" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="M141" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B142" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D126" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F126" s="12" t="s">
+      <c r="D142" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F142" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G126" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G142" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBRatedTVEpisode</v>
       </c>
-      <c r="H126" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H142" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBRatedTVEpisode</v>
       </c>
-      <c r="I126" s="8" t="str">
+      <c r="I142" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
       </c>
-      <c r="J126" s="8" t="str">
+      <c r="J142" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
       </c>
-      <c r="K126" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K142" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
       </c>
-      <c r="L126" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L142" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
       </c>
-      <c r="M126" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="M142" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D127" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F127" s="12" t="s">
+      <c r="D143" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F143" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G127" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G143" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBRatedTVEpisodes</v>
       </c>
-      <c r="H127" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H143" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBRatedTVEpisodes</v>
       </c>
-      <c r="I127" s="8" t="str">
+      <c r="I143" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
       </c>
-      <c r="J127" s="8" t="str">
+      <c r="J143" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
       </c>
-      <c r="K127" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K143" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
-      <c r="L127" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L143" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
       </c>
-      <c r="M127" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="M143" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B144" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C144" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D128" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F128" s="12" t="s">
+      <c r="D144" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F144" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G128" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G144" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVEpisodeDetail</v>
       </c>
-      <c r="H128" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H144" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVEpisodeDetail</v>
       </c>
-      <c r="I128" s="8" t="str">
+      <c r="I144" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
       </c>
-      <c r="J128" s="8" t="str">
+      <c r="J144" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
       </c>
-      <c r="K128" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K144" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
       </c>
-      <c r="L128" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L144" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
       </c>
-      <c r="M128" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="M144" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F129" s="12" t="s">
+      <c r="D145" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F145" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G129" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G145" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVEpisodeGroup</v>
       </c>
-      <c r="H129" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H145" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVEpisodeGroup</v>
       </c>
-      <c r="I129" s="8" t="str">
+      <c r="I145" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
       </c>
-      <c r="J129" s="8" t="str">
+      <c r="J145" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
       </c>
-      <c r="K129" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K145" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
       </c>
-      <c r="L129" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L145" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
       </c>
-      <c r="M129" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="M145" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D130" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F130" s="12" t="s">
+      <c r="D146" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F146" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G130" s="8" t="str">
-        <f t="shared" si="28"/>
+      <c r="G146" s="8" t="str">
+        <f t="shared" si="58"/>
         <v>ITMDBTVEpisodeGroups</v>
       </c>
-      <c r="H130" s="8" t="str">
-        <f t="shared" si="29"/>
+      <c r="H146" s="8" t="str">
+        <f t="shared" si="59"/>
         <v>TTMDBTVEpisodeGroups</v>
       </c>
-      <c r="I130" s="8" t="str">
+      <c r="I146" s="8" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
       </c>
-      <c r="J130" s="8" t="str">
+      <c r="J146" s="8" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
       </c>
-      <c r="K130" s="8" t="str">
-        <f t="shared" si="30"/>
+      <c r="K146" s="8" t="str">
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
       </c>
-      <c r="L130" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="L146" s="8" t="str">
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
-      </c>
-      <c r="M130" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G131" s="8" t="str">
-        <f t="shared" si="28"/>
-        <v>ITMDBWatchProviderPriority</v>
-      </c>
-      <c r="H131" s="8" t="str">
-        <f t="shared" si="29"/>
-        <v>TTMDBWatchProviderPriority</v>
-      </c>
-      <c r="I131" s="8" t="str">
-        <f t="shared" ref="I131:I170" si="44">"  "&amp;G131&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
-      </c>
-      <c r="J131" s="8" t="str">
-        <f t="shared" ref="J131:J170" si="45">"  "&amp;H131&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
-      </c>
-      <c r="K131" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
-      </c>
-      <c r="L131" s="8" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
-      </c>
-      <c r="M131" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G132" s="8" t="str">
-        <f t="shared" si="28"/>
-        <v>ITMDBWatchProviderPriorities</v>
-      </c>
-      <c r="H132" s="8" t="str">
-        <f t="shared" si="29"/>
-        <v>TTMDBWatchProviderPriorities</v>
-      </c>
-      <c r="I132" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
-      </c>
-      <c r="J132" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
-      </c>
-      <c r="K132" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
-      </c>
-      <c r="L132" s="8" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
-      </c>
-      <c r="M132" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G133" s="8" t="str">
-        <f t="shared" ref="G133:G165" si="46">"I"&amp;M133&amp;B133</f>
-        <v>ITMDBWatchProvider</v>
-      </c>
-      <c r="H133" s="8" t="str">
-        <f t="shared" ref="H133:H165" si="47">"T"&amp;M133&amp;B133</f>
-        <v>TTMDBWatchProvider</v>
-      </c>
-      <c r="I133" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
-      </c>
-      <c r="J133" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
-      </c>
-      <c r="K133" s="8" t="str">
-        <f t="shared" ref="K133:K165" si="48">IF(C133="", "  "&amp;G133&amp;" = interface", "  "&amp;G133&amp;" = interface(I"&amp;M133&amp;C133&amp;")")</f>
-        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
-      </c>
-      <c r="L133" s="8" t="str">
-        <f t="shared" ref="L133:L165" si="49">IF(C133="", "  "&amp;H133&amp;" = class(TInterfacedObject, "&amp;G133&amp;")", "  "&amp;H133&amp;" = class(T"&amp;M133&amp;C133&amp;", "&amp;G133&amp;")")</f>
-        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
-      </c>
-      <c r="M133" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G134" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBWatchProviders</v>
-      </c>
-      <c r="H134" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBWatchProviders</v>
-      </c>
-      <c r="I134" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
-      </c>
-      <c r="J134" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
-      </c>
-      <c r="K134" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
-      </c>
-      <c r="L134" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
-      </c>
-      <c r="M134" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G135" s="8" t="str">
-        <f t="shared" ref="G135:G136" si="50">"I"&amp;M135&amp;B135</f>
-        <v>ITMDBMediaWatchProvider</v>
-      </c>
-      <c r="H135" s="8" t="str">
-        <f t="shared" ref="H135:H136" si="51">"T"&amp;M135&amp;B135</f>
-        <v>TTMDBMediaWatchProvider</v>
-      </c>
-      <c r="I135" s="8" t="str">
-        <f t="shared" ref="I135:I136" si="52">"  "&amp;G135&amp;" = interface;"</f>
-        <v xml:space="preserve">  ITMDBMediaWatchProvider = interface;</v>
-      </c>
-      <c r="J135" s="8" t="str">
-        <f t="shared" ref="J135:J136" si="53">"  "&amp;H135&amp;" = class;"</f>
-        <v xml:space="preserve">  TTMDBMediaWatchProvider = class;</v>
-      </c>
-      <c r="K135" s="8" t="str">
-        <f t="shared" ref="K135:K136" si="54">IF(C135="", "  "&amp;G135&amp;" = interface", "  "&amp;G135&amp;" = interface(I"&amp;M135&amp;C135&amp;")")</f>
-        <v xml:space="preserve">  ITMDBMediaWatchProvider = interface(ITMDBItem)</v>
-      </c>
-      <c r="L135" s="8" t="str">
-        <f t="shared" ref="L135:L136" si="55">IF(C135="", "  "&amp;H135&amp;" = class(TInterfacedObject, "&amp;G135&amp;")", "  "&amp;H135&amp;" = class(T"&amp;M135&amp;C135&amp;", "&amp;G135&amp;")")</f>
-        <v xml:space="preserve">  TTMDBMediaWatchProvider = class(TTMDBItem, ITMDBMediaWatchProvider)</v>
-      </c>
-      <c r="M135" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G136" s="8" t="str">
-        <f t="shared" si="50"/>
-        <v>ITMDBMediaWatchProviders</v>
-      </c>
-      <c r="H136" s="8" t="str">
-        <f t="shared" si="51"/>
-        <v>TTMDBMediaWatchProviders</v>
-      </c>
-      <c r="I136" s="8" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">  ITMDBMediaWatchProviders = interface;</v>
-      </c>
-      <c r="J136" s="8" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">  TTMDBMediaWatchProviders = class;</v>
-      </c>
-      <c r="K136" s="8" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve">  ITMDBMediaWatchProviders = interface(ITMDBItems)</v>
-      </c>
-      <c r="L136" s="8" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve">  TTMDBMediaWatchProviders = class(TTMDBItems, ITMDBMediaWatchProviders)</v>
-      </c>
-      <c r="M136" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G137" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespace</v>
-      </c>
-      <c r="H137" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespace</v>
-      </c>
-      <c r="I137" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
-      </c>
-      <c r="J137" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespace = class;</v>
-      </c>
-      <c r="K137" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface</v>
-      </c>
-      <c r="L137" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
-      </c>
-      <c r="M137" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G138" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceAccount</v>
-      </c>
-      <c r="H138" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceAccount</v>
-      </c>
-      <c r="I138" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
-      </c>
-      <c r="J138" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
-      </c>
-      <c r="K138" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L138" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
-      </c>
-      <c r="M138" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G139" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceAuthentication</v>
-      </c>
-      <c r="H139" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceAuthentication</v>
-      </c>
-      <c r="I139" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
-      </c>
-      <c r="J139" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
-      </c>
-      <c r="K139" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L139" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
-      </c>
-      <c r="M139" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G140" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCertifications</v>
-      </c>
-      <c r="H140" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCertifications</v>
-      </c>
-      <c r="I140" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
-      </c>
-      <c r="J140" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
-      </c>
-      <c r="K140" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L140" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
-      </c>
-      <c r="M140" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G141" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceChanges</v>
-      </c>
-      <c r="H141" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceChanges</v>
-      </c>
-      <c r="I141" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
-      </c>
-      <c r="J141" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
-      </c>
-      <c r="K141" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L141" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
-      </c>
-      <c r="M141" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G142" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCollections</v>
-      </c>
-      <c r="H142" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCollections</v>
-      </c>
-      <c r="I142" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
-      </c>
-      <c r="J142" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
-      </c>
-      <c r="K142" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L142" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
-      </c>
-      <c r="M142" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G143" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCompanies</v>
-      </c>
-      <c r="H143" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCompanies</v>
-      </c>
-      <c r="I143" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
-      </c>
-      <c r="J143" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
-      </c>
-      <c r="K143" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L143" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
-      </c>
-      <c r="M143" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G144" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceConfiguration</v>
-      </c>
-      <c r="H144" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceConfiguration</v>
-      </c>
-      <c r="I144" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
-      </c>
-      <c r="J144" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
-      </c>
-      <c r="K144" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L144" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
-      </c>
-      <c r="M144" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F145" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G145" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceCredits</v>
-      </c>
-      <c r="H145" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceCredits</v>
-      </c>
-      <c r="I145" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
-      </c>
-      <c r="J145" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
-      </c>
-      <c r="K145" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L145" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
-      </c>
-      <c r="M145" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G146" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceDiscover</v>
-      </c>
-      <c r="H146" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceDiscover</v>
-      </c>
-      <c r="I146" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
-      </c>
-      <c r="J146" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
-      </c>
-      <c r="K146" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
-      </c>
-      <c r="L146" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
       </c>
       <c r="M146" s="8" t="s">
         <v>259</v>
@@ -12159,13 +12289,10 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="D147" s="14" t="s">
         <v>377</v>
@@ -12177,28 +12304,28 @@
         <v>74</v>
       </c>
       <c r="G147" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceFind</v>
+        <f t="shared" si="58"/>
+        <v>ITMDBWatchProviderPriority</v>
       </c>
       <c r="H147" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceFind</v>
+        <f t="shared" si="59"/>
+        <v>TTMDBWatchProviderPriority</v>
       </c>
       <c r="I147" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
+        <f t="shared" ref="I147:I186" si="86">"  "&amp;G147&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
       </c>
       <c r="J147" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
+        <f t="shared" ref="J147:J186" si="87">"  "&amp;H147&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
       </c>
       <c r="K147" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
       </c>
       <c r="L147" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
       </c>
       <c r="M147" s="8" t="s">
         <v>259</v>
@@ -12206,13 +12333,10 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="D148" s="14" t="s">
         <v>377</v>
@@ -12220,32 +12344,32 @@
       <c r="E148" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F148" s="14" t="s">
-        <v>377</v>
+      <c r="F148" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G148" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceGenres</v>
+        <f t="shared" si="58"/>
+        <v>ITMDBWatchProviderPriorities</v>
       </c>
       <c r="H148" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceGenres</v>
+        <f t="shared" si="59"/>
+        <v>TTMDBWatchProviderPriorities</v>
       </c>
       <c r="I148" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
       </c>
       <c r="J148" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
       </c>
       <c r="K148" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
       </c>
       <c r="L148" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>259</v>
@@ -12253,13 +12377,13 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="D149" s="14" t="s">
         <v>377</v>
@@ -12271,28 +12395,28 @@
         <v>74</v>
       </c>
       <c r="G149" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceGuestSessions</v>
+        <f t="shared" ref="G149:G181" si="88">"I"&amp;M149&amp;B149</f>
+        <v>ITMDBWatchProvider</v>
       </c>
       <c r="H149" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceGuestSessions</v>
+        <f t="shared" ref="H149:H181" si="89">"T"&amp;M149&amp;B149</f>
+        <v>TTMDBWatchProvider</v>
       </c>
       <c r="I149" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
       </c>
       <c r="J149" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
       </c>
       <c r="K149" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" ref="K149:K181" si="90">IF(C149="", "  "&amp;G149&amp;" = interface", "  "&amp;G149&amp;" = interface(I"&amp;M149&amp;C149&amp;")")</f>
+        <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L149" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
+        <f t="shared" ref="L149:L181" si="91">IF(C149="", "  "&amp;H149&amp;" = class(TInterfacedObject, "&amp;G149&amp;")", "  "&amp;H149&amp;" = class(T"&amp;M149&amp;C149&amp;", "&amp;G149&amp;")")</f>
+        <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
       </c>
       <c r="M149" s="8" t="s">
         <v>259</v>
@@ -12300,13 +12424,13 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="D150" s="14" t="s">
         <v>377</v>
@@ -12314,32 +12438,32 @@
       <c r="E150" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F150" s="14" t="s">
-        <v>377</v>
+      <c r="F150" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G150" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceKeywords</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBWatchProviders</v>
       </c>
       <c r="H150" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceKeywords</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBWatchProviders</v>
       </c>
       <c r="I150" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
       </c>
       <c r="J150" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
       </c>
       <c r="K150" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
       </c>
       <c r="L150" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>259</v>
@@ -12347,13 +12471,13 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>74</v>
@@ -12365,28 +12489,28 @@
         <v>74</v>
       </c>
       <c r="G151" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceLists</v>
+        <f t="shared" ref="G151:G152" si="92">"I"&amp;M151&amp;B151</f>
+        <v>ITMDBMediaWatchProvider</v>
       </c>
       <c r="H151" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceLists</v>
+        <f t="shared" ref="H151:H152" si="93">"T"&amp;M151&amp;B151</f>
+        <v>TTMDBMediaWatchProvider</v>
       </c>
       <c r="I151" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
+        <f t="shared" ref="I151:I152" si="94">"  "&amp;G151&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBMediaWatchProvider = interface;</v>
       </c>
       <c r="J151" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
+        <f t="shared" ref="J151:J152" si="95">"  "&amp;H151&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBMediaWatchProvider = class;</v>
       </c>
       <c r="K151" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" ref="K151:K152" si="96">IF(C151="", "  "&amp;G151&amp;" = interface", "  "&amp;G151&amp;" = interface(I"&amp;M151&amp;C151&amp;")")</f>
+        <v xml:space="preserve">  ITMDBMediaWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L151" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
+        <f t="shared" ref="L151:L152" si="97">IF(C151="", "  "&amp;H151&amp;" = class(TInterfacedObject, "&amp;G151&amp;")", "  "&amp;H151&amp;" = class(T"&amp;M151&amp;C151&amp;", "&amp;G151&amp;")")</f>
+        <v xml:space="preserve">  TTMDBMediaWatchProvider = class(TTMDBItem, ITMDBMediaWatchProvider)</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>259</v>
@@ -12394,46 +12518,46 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E152" s="14" t="s">
-        <v>377</v>
+        <v>268</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G152" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceMovieLists</v>
+        <f t="shared" si="92"/>
+        <v>ITMDBMediaWatchProviders</v>
       </c>
       <c r="H152" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceMovieLists</v>
+        <f t="shared" si="93"/>
+        <v>TTMDBMediaWatchProviders</v>
       </c>
       <c r="I152" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
+        <f t="shared" si="94"/>
+        <v xml:space="preserve">  ITMDBMediaWatchProviders = interface;</v>
       </c>
       <c r="J152" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
+        <f t="shared" si="95"/>
+        <v xml:space="preserve">  TTMDBMediaWatchProviders = class;</v>
       </c>
       <c r="K152" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="96"/>
+        <v xml:space="preserve">  ITMDBMediaWatchProviders = interface(ITMDBItems)</v>
       </c>
       <c r="L152" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
+        <f t="shared" si="97"/>
+        <v xml:space="preserve">  TTMDBMediaWatchProviders = class(TTMDBItems, ITMDBMediaWatchProviders)</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>259</v>
@@ -12444,43 +12568,40 @@
         <v>388</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>256</v>
+        <v>0</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G153" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceMovies</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespace</v>
       </c>
       <c r="H153" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceMovies</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespace</v>
       </c>
       <c r="I153" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
       </c>
       <c r="J153" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespace = class;</v>
       </c>
       <c r="K153" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespace = interface</v>
       </c>
       <c r="L153" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>259</v>
@@ -12491,7 +12612,7 @@
         <v>388</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>390</v>
@@ -12502,32 +12623,32 @@
       <c r="E154" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F154" s="15" t="s">
-        <v>256</v>
+      <c r="F154" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G154" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceNetworks</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceAccount</v>
       </c>
       <c r="H154" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceNetworks</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceAccount</v>
       </c>
       <c r="I154" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
       </c>
       <c r="J154" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
       </c>
       <c r="K154" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L154" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>259</v>
@@ -12538,7 +12659,7 @@
         <v>388</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>390</v>
@@ -12549,32 +12670,32 @@
       <c r="E155" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F155" s="12" t="s">
-        <v>74</v>
+      <c r="F155" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G155" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespacePeopleLists</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceAuthentication</v>
       </c>
       <c r="H155" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespacePeopleLists</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceAuthentication</v>
       </c>
       <c r="I155" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
       </c>
       <c r="J155" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
       </c>
       <c r="K155" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L155" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>259</v>
@@ -12585,43 +12706,43 @@
         <v>388</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D156" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E156" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>74</v>
+      <c r="D156" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G156" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespacePeople</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceCertifications</v>
       </c>
       <c r="H156" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespacePeople</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceCertifications</v>
       </c>
       <c r="I156" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
       </c>
       <c r="J156" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
       </c>
       <c r="K156" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L156" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>259</v>
@@ -12632,7 +12753,7 @@
         <v>388</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>390</v>
@@ -12647,28 +12768,28 @@
         <v>74</v>
       </c>
       <c r="G157" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceReviews</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceChanges</v>
       </c>
       <c r="H157" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceReviews</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceChanges</v>
       </c>
       <c r="I157" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
       </c>
       <c r="J157" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
       </c>
       <c r="K157" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L157" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>259</v>
@@ -12679,7 +12800,7 @@
         <v>388</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>390</v>
@@ -12694,28 +12815,28 @@
         <v>255</v>
       </c>
       <c r="G158" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceSearch</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceCollections</v>
       </c>
       <c r="H158" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceSearch</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceCollections</v>
       </c>
       <c r="I158" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
       </c>
       <c r="J158" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
       </c>
       <c r="K158" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L158" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>259</v>
@@ -12726,7 +12847,7 @@
         <v>388</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>390</v>
@@ -12737,32 +12858,32 @@
       <c r="E159" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F159" s="12" t="s">
-        <v>74</v>
+      <c r="F159" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G159" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTrending</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceCompanies</v>
       </c>
       <c r="H159" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTrending</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceCompanies</v>
       </c>
       <c r="I159" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
       </c>
       <c r="J159" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
       </c>
       <c r="K159" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L159" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>259</v>
@@ -12773,7 +12894,7 @@
         <v>388</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>390</v>
@@ -12784,32 +12905,32 @@
       <c r="E160" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F160" s="12" t="s">
-        <v>74</v>
+      <c r="F160" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G160" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeriesLists</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceConfiguration</v>
       </c>
       <c r="H160" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeriesLists</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceConfiguration</v>
       </c>
       <c r="I160" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
       </c>
       <c r="J160" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
       </c>
       <c r="K160" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L160" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>259</v>
@@ -12820,43 +12941,43 @@
         <v>388</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D161" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>256</v>
+      <c r="D161" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G161" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeries</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceCredits</v>
       </c>
       <c r="H161" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeries</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceCredits</v>
       </c>
       <c r="I161" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
       </c>
       <c r="J161" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
       </c>
       <c r="K161" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L161" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
       </c>
       <c r="M161" s="8" t="s">
         <v>259</v>
@@ -12867,43 +12988,43 @@
         <v>388</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D162" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>256</v>
+      <c r="D162" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G162" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVSeasons</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceDiscover</v>
       </c>
       <c r="H162" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVSeasons</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceDiscover</v>
       </c>
       <c r="I162" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
       </c>
       <c r="J162" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
       </c>
       <c r="K162" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L162" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>259</v>
@@ -12914,43 +13035,43 @@
         <v>388</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D163" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>256</v>
+      <c r="D163" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G163" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVEpisodes</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceFind</v>
       </c>
       <c r="H163" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVEpisodes</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceFind</v>
       </c>
       <c r="I163" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
       </c>
       <c r="J163" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
       </c>
       <c r="K163" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L163" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>259</v>
@@ -12961,43 +13082,43 @@
         <v>388</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D164" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E164" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F164" s="12" t="s">
-        <v>74</v>
+      <c r="D164" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G164" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceTVEpisodeGroups</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceGenres</v>
       </c>
       <c r="H164" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceTVEpisodeGroups</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceGenres</v>
       </c>
       <c r="I164" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
       </c>
       <c r="J164" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
       </c>
       <c r="K164" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L164" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>259</v>
@@ -13008,7 +13129,7 @@
         <v>388</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C165" s="10" t="s">
         <v>390</v>
@@ -13023,28 +13144,28 @@
         <v>74</v>
       </c>
       <c r="G165" s="8" t="str">
-        <f t="shared" si="46"/>
-        <v>ITMDBNamespaceWatchProviders</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceGuestSessions</v>
       </c>
       <c r="H165" s="8" t="str">
-        <f t="shared" si="47"/>
-        <v>TTMDBNamespaceWatchProviders</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceGuestSessions</v>
       </c>
       <c r="I165" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
       </c>
       <c r="J165" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
       </c>
       <c r="K165" s="8" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L165" s="8" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>259</v>
@@ -13052,10 +13173,13 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>366</v>
+        <v>402</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>377</v>
@@ -13063,32 +13187,32 @@
       <c r="E166" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F166" s="13" t="s">
-        <v>255</v>
+      <c r="F166" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G166" s="8" t="str">
-        <f t="shared" ref="G166:G170" si="56">"I"&amp;M166&amp;B166</f>
-        <v>ITMDBCache</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceKeywords</v>
       </c>
       <c r="H166" s="8" t="str">
-        <f t="shared" ref="H166:H170" si="57">"T"&amp;M166&amp;B166</f>
-        <v>TTMDBCache</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceKeywords</v>
       </c>
       <c r="I166" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBCache = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
       </c>
       <c r="J166" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBCache = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
       </c>
       <c r="K166" s="8" t="str">
-        <f t="shared" ref="K166:K170" si="58">IF(C166="", "  "&amp;G166&amp;" = interface", "  "&amp;G166&amp;" = interface(I"&amp;M166&amp;C166&amp;")")</f>
-        <v xml:space="preserve">  ITMDBCache = interface</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L166" s="8" t="str">
-        <f t="shared" ref="L166:L170" si="59">IF(C166="", "  "&amp;H166&amp;" = class(TInterfacedObject, "&amp;G166&amp;")", "  "&amp;H166&amp;" = class(T"&amp;M166&amp;C166&amp;", "&amp;G166&amp;")")</f>
-        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>259</v>
@@ -13096,43 +13220,46 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>255</v>
+        <v>403</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G167" s="8" t="str">
-        <f t="shared" si="56"/>
-        <v>ITMDBLoginState</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceLists</v>
       </c>
       <c r="H167" s="8" t="str">
-        <f t="shared" si="57"/>
-        <v>TTMDBLoginState</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceLists</v>
       </c>
       <c r="I167" s="8" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
       </c>
       <c r="J167" s="8" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
       </c>
       <c r="K167" s="8" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L167" s="8" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>259</v>
@@ -13140,103 +13267,849 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G168" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceMovieLists</v>
+      </c>
+      <c r="H168" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceMovieLists</v>
+      </c>
+      <c r="I168" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
+      </c>
+      <c r="J168" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
+      </c>
+      <c r="K168" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L168" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
+      </c>
+      <c r="M168" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G169" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceMovies</v>
+      </c>
+      <c r="H169" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceMovies</v>
+      </c>
+      <c r="I169" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
+      </c>
+      <c r="J169" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
+      </c>
+      <c r="K169" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L169" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
+      </c>
+      <c r="M169" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F170" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G170" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceNetworks</v>
+      </c>
+      <c r="H170" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceNetworks</v>
+      </c>
+      <c r="I170" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
+      </c>
+      <c r="J170" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
+      </c>
+      <c r="K170" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L170" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
+      </c>
+      <c r="M170" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G171" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespacePeopleLists</v>
+      </c>
+      <c r="H171" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespacePeopleLists</v>
+      </c>
+      <c r="I171" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
+      </c>
+      <c r="J171" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
+      </c>
+      <c r="K171" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L171" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
+      </c>
+      <c r="M171" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F172" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G172" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespacePeople</v>
+      </c>
+      <c r="H172" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespacePeople</v>
+      </c>
+      <c r="I172" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
+      </c>
+      <c r="J172" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
+      </c>
+      <c r="K172" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L172" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
+      </c>
+      <c r="M172" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G173" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceReviews</v>
+      </c>
+      <c r="H173" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceReviews</v>
+      </c>
+      <c r="I173" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
+      </c>
+      <c r="J173" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
+      </c>
+      <c r="K173" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L173" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
+      </c>
+      <c r="M173" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G174" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceSearch</v>
+      </c>
+      <c r="H174" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceSearch</v>
+      </c>
+      <c r="I174" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
+      </c>
+      <c r="J174" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
+      </c>
+      <c r="K174" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L174" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
+      </c>
+      <c r="M174" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G175" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceTrending</v>
+      </c>
+      <c r="H175" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceTrending</v>
+      </c>
+      <c r="I175" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
+      </c>
+      <c r="J175" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
+      </c>
+      <c r="K175" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L175" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
+      </c>
+      <c r="M175" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G176" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceTVSeriesLists</v>
+      </c>
+      <c r="H176" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceTVSeriesLists</v>
+      </c>
+      <c r="I176" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
+      </c>
+      <c r="J176" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
+      </c>
+      <c r="K176" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L176" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
+      </c>
+      <c r="M176" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G177" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceTVSeries</v>
+      </c>
+      <c r="H177" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceTVSeries</v>
+      </c>
+      <c r="I177" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
+      </c>
+      <c r="J177" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
+      </c>
+      <c r="K177" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L177" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
+      </c>
+      <c r="M177" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G178" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceTVSeasons</v>
+      </c>
+      <c r="H178" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceTVSeasons</v>
+      </c>
+      <c r="I178" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
+      </c>
+      <c r="J178" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
+      </c>
+      <c r="K178" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L178" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
+      </c>
+      <c r="M178" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G179" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceTVEpisodes</v>
+      </c>
+      <c r="H179" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceTVEpisodes</v>
+      </c>
+      <c r="I179" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
+      </c>
+      <c r="J179" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
+      </c>
+      <c r="K179" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L179" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
+      </c>
+      <c r="M179" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G180" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceTVEpisodeGroups</v>
+      </c>
+      <c r="H180" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceTVEpisodeGroups</v>
+      </c>
+      <c r="I180" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
+      </c>
+      <c r="J180" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
+      </c>
+      <c r="K180" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L180" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
+      </c>
+      <c r="M180" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G181" s="8" t="str">
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceWatchProviders</v>
+      </c>
+      <c r="H181" s="8" t="str">
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceWatchProviders</v>
+      </c>
+      <c r="I181" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
+      </c>
+      <c r="J181" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
+      </c>
+      <c r="K181" s="8" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
+      </c>
+      <c r="L181" s="8" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
+      </c>
+      <c r="M181" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B182" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G182" s="8" t="str">
+        <f t="shared" ref="G182:G186" si="98">"I"&amp;M182&amp;B182</f>
+        <v>ITMDBCache</v>
+      </c>
+      <c r="H182" s="8" t="str">
+        <f t="shared" ref="H182:H186" si="99">"T"&amp;M182&amp;B182</f>
+        <v>TTMDBCache</v>
+      </c>
+      <c r="I182" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBCache = interface;</v>
+      </c>
+      <c r="J182" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBCache = class;</v>
+      </c>
+      <c r="K182" s="8" t="str">
+        <f t="shared" ref="K182:K186" si="100">IF(C182="", "  "&amp;G182&amp;" = interface", "  "&amp;G182&amp;" = interface(I"&amp;M182&amp;C182&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCache = interface</v>
+      </c>
+      <c r="L182" s="8" t="str">
+        <f t="shared" ref="L182:L186" si="101">IF(C182="", "  "&amp;H182&amp;" = class(TInterfacedObject, "&amp;G182&amp;")", "  "&amp;H182&amp;" = class(T"&amp;M182&amp;C182&amp;", "&amp;G182&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
+      </c>
+      <c r="M182" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F183" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G183" s="8" t="str">
+        <f t="shared" si="98"/>
+        <v>ITMDBLoginState</v>
+      </c>
+      <c r="H183" s="8" t="str">
+        <f t="shared" si="99"/>
+        <v>TTMDBLoginState</v>
+      </c>
+      <c r="I183" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+      </c>
+      <c r="J183" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+      </c>
+      <c r="K183" s="8" t="str">
+        <f t="shared" si="100"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+      </c>
+      <c r="L183" s="8" t="str">
+        <f t="shared" si="101"/>
+        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+      </c>
+      <c r="M183" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B184" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D168" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E168" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G168" s="8" t="str">
-        <f t="shared" si="56"/>
+      <c r="D184" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G184" s="8" t="str">
+        <f t="shared" si="98"/>
         <v>ITMDBClient</v>
       </c>
-      <c r="H168" s="8" t="str">
-        <f t="shared" si="57"/>
+      <c r="H184" s="8" t="str">
+        <f t="shared" si="99"/>
         <v>TTMDBClient</v>
       </c>
-      <c r="I168" s="8" t="str">
-        <f t="shared" si="44"/>
+      <c r="I184" s="8" t="str">
+        <f t="shared" si="86"/>
         <v xml:space="preserve">  ITMDBClient = interface;</v>
       </c>
-      <c r="J168" s="8" t="str">
-        <f t="shared" si="45"/>
+      <c r="J184" s="8" t="str">
+        <f t="shared" si="87"/>
         <v xml:space="preserve">  TTMDBClient = class;</v>
       </c>
-      <c r="K168" s="8" t="str">
-        <f t="shared" si="58"/>
+      <c r="K184" s="8" t="str">
+        <f t="shared" si="100"/>
         <v xml:space="preserve">  ITMDBClient = interface</v>
       </c>
-      <c r="L168" s="8" t="str">
-        <f t="shared" si="59"/>
+      <c r="L184" s="8" t="str">
+        <f t="shared" si="101"/>
         <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
       </c>
-      <c r="M168" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G169" s="8" t="str">
-        <f t="shared" si="56"/>
+      <c r="M184" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G185" s="8" t="str">
+        <f t="shared" si="98"/>
         <v>ITMDB</v>
       </c>
-      <c r="H169" s="8" t="str">
-        <f t="shared" si="57"/>
+      <c r="H185" s="8" t="str">
+        <f t="shared" si="99"/>
         <v>TTMDB</v>
       </c>
-      <c r="I169" s="8" t="str">
-        <f t="shared" si="44"/>
+      <c r="I185" s="8" t="str">
+        <f t="shared" si="86"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
-      <c r="J169" s="8" t="str">
-        <f t="shared" si="45"/>
+      <c r="J185" s="8" t="str">
+        <f t="shared" si="87"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
-      <c r="K169" s="8" t="str">
-        <f t="shared" si="58"/>
+      <c r="K185" s="8" t="str">
+        <f t="shared" si="100"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
-      <c r="L169" s="8" t="str">
-        <f t="shared" si="59"/>
+      <c r="L185" s="8" t="str">
+        <f t="shared" si="101"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
-      <c r="M169" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G170" s="8" t="str">
-        <f t="shared" si="56"/>
+      <c r="M185" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G186" s="8" t="str">
+        <f t="shared" si="98"/>
         <v>ITMDB</v>
       </c>
-      <c r="H170" s="8" t="str">
-        <f t="shared" si="57"/>
+      <c r="H186" s="8" t="str">
+        <f t="shared" si="99"/>
         <v>TTMDB</v>
       </c>
-      <c r="I170" s="8" t="str">
-        <f t="shared" si="44"/>
+      <c r="I186" s="8" t="str">
+        <f t="shared" si="86"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
-      <c r="J170" s="8" t="str">
-        <f t="shared" si="45"/>
+      <c r="J186" s="8" t="str">
+        <f t="shared" si="87"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
-      <c r="K170" s="8" t="str">
-        <f t="shared" si="58"/>
+      <c r="K186" s="8" t="str">
+        <f t="shared" si="100"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
-      <c r="L170" s="8" t="str">
-        <f t="shared" si="59"/>
+      <c r="L186" s="8" t="str">
+        <f t="shared" si="101"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
-      <c r="M170" s="8" t="s">
+      <c r="M186" s="8" t="s">
         <v>259</v>
       </c>
     </row>
@@ -13244,4 +14117,1594 @@
   <autoFilter ref="A1:L2" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31FFFB5-6413-484E-9C48-18C73A8F4597}">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="6" max="6" width="24.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="79.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="91.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="16" t="str">
+        <f>"Appended"&amp;C2</f>
+        <v>AppendedAccountStates</v>
+      </c>
+      <c r="G2" s="16" t="str">
+        <f>"    function "&amp;F2&amp;": "&amp;D2&amp;"; stdcall;"</f>
+        <v xml:space="preserve">    function AppendedAccountStates: ITMDBAccountStates; stdcall;</v>
+      </c>
+      <c r="H2" s="16" t="str">
+        <f>"function T"&amp;B2&amp;"."&amp;F2&amp;": "&amp;D2&amp;";"</f>
+        <v>function TTTMDBMovieDetail.AppendedAccountStates: ITMDBAccountStates;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="16" t="str">
+        <f>"Appended"&amp;C3</f>
+        <v>AppendedAlternativeTitles</v>
+      </c>
+      <c r="G3" s="16" t="str">
+        <f t="shared" ref="G3:G54" si="0">"    function "&amp;F3&amp;": "&amp;D3&amp;"; stdcall;"</f>
+        <v xml:space="preserve">    function AppendedAlternativeTitles: ITMDBAlternativeTitles; stdcall;</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f t="shared" ref="H3:H54" si="1">"function T"&amp;B3&amp;"."&amp;F3&amp;": "&amp;D3&amp;";"</f>
+        <v>function TTTMDBMovieDetail.AppendedAlternativeTitles: ITMDBAlternativeTitles;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="16" t="str">
+        <f t="shared" ref="F4:F21" si="2">"Appended"&amp;C4</f>
+        <v>AppendedChanges</v>
+      </c>
+      <c r="G4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedChanges: ITMDBChanges; stdcall;</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedChanges: ITMDBChanges;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedCredits</v>
+      </c>
+      <c r="G5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedCredits: ITMDBCredits; stdcall;</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedCredits: ITMDBCredits;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedExternalIDs</v>
+      </c>
+      <c r="G6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedExternalIDs: ITMDBExternalIDs; stdcall;</v>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedImages</v>
+      </c>
+      <c r="G7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedImages: ITMDBMediaImageGroup; stdcall;</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedKeywords</v>
+      </c>
+      <c r="G8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedKeywords: ITMDBKeywords; stdcall;</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedKeywords: ITMDBKeywords;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedLists</v>
+      </c>
+      <c r="G9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedLists: ITMDBListPage; stdcall;</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedLists: ITMDBListPage;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedRecommendations</v>
+      </c>
+      <c r="G10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedRecommendations: ITMDBMediaPage; stdcall;</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedRecommendations: ITMDBMediaPage;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedReleaseDates</v>
+      </c>
+      <c r="G11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedReleaseDates: ITMDBReleaseDates; stdcall;</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedReleaseDates: ITMDBReleaseDates;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedReviews</v>
+      </c>
+      <c r="G12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedReviews: ITMDBReviewPage; stdcall;</v>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedReviews: ITMDBReviewPage;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedSimilar</v>
+      </c>
+      <c r="G13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedSimilar: ITMDBMoviePage; stdcall;</v>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedSimilar: ITMDBMoviePage;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedTranslations</v>
+      </c>
+      <c r="G14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedTranslations: ITMDBTranslations; stdcall;</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedTranslations: ITMDBTranslations;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedVideos</v>
+      </c>
+      <c r="G15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedVideos: ITMDBVideos; stdcall;</v>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBMovieDetail.AppendedVideos: ITMDBVideos;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedChanges</v>
+      </c>
+      <c r="G16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedChanges: ITMDBChanges; stdcall;</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBPersonDetail.AppendedChanges: ITMDBChanges;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedCombinedCredits</v>
+      </c>
+      <c r="G17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedCombinedCredits: ITMDBCombinedCredits; stdcall;</v>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBPersonDetail.AppendedCombinedCredits: ITMDBCombinedCredits;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedExternalIDs</v>
+      </c>
+      <c r="G18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedExternalIDs: ITMDBExternalIDs; stdcall;</v>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBPersonDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedImages</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedImages: ITMDBMediaImageGroup; stdcall;</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBPersonDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" t="s">
+        <v>467</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedMovieCredits</v>
+      </c>
+      <c r="G20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedMovieCredits: ITMDBCombinedCredits; stdcall;</v>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBPersonDetail.AppendedMovieCredits: ITMDBCombinedCredits;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D21" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>AppendedTVCredits</v>
+      </c>
+      <c r="G21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedTVCredits: ITMDBCombinedCredits; stdcall;</v>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBPersonDetail.AppendedTVCredits: ITMDBCombinedCredits;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="16" t="str">
+        <f>"Appended"&amp;C22</f>
+        <v>AppendedTranslations</v>
+      </c>
+      <c r="G22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedTranslations: ITMDBTranslations; stdcall;</v>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBPersonDetail.AppendedTranslations: ITMDBTranslations;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="16" t="str">
+        <f t="shared" ref="F23:F54" si="3">"Appended"&amp;C23</f>
+        <v>AppendedAccountStates</v>
+      </c>
+      <c r="G23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedAccountStates: ITMDBAccountStates; stdcall;</v>
+      </c>
+      <c r="H23" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedAccountStates: ITMDBAccountStates;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedAggregateCredits</v>
+      </c>
+      <c r="G24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedAggregateCredits: ITMDBAggregateCredits; stdcall;</v>
+      </c>
+      <c r="H24" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedAggregateCredits: ITMDBAggregateCredits;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedAlternativeTitles</v>
+      </c>
+      <c r="G25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedAlternativeTitles: ITMDBAlternativeTitles; stdcall;</v>
+      </c>
+      <c r="H25" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedAlternativeTitles: ITMDBAlternativeTitles;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedChanges</v>
+      </c>
+      <c r="G26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedChanges: ITMDBChanges; stdcall;</v>
+      </c>
+      <c r="H26" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedChanges: ITMDBChanges;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedContentRatings</v>
+      </c>
+      <c r="G27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedContentRatings: ITMDBContentRatings; stdcall;</v>
+      </c>
+      <c r="H27" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedContentRatings: ITMDBContentRatings;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F28" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedCredits</v>
+      </c>
+      <c r="G28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedCredits: ITMDBCredits; stdcall;</v>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedCredits: ITMDBCredits;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedEpisodeGroups</v>
+      </c>
+      <c r="G29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedEpisodeGroups: ITMDBEpisodeGroups; stdcall;</v>
+      </c>
+      <c r="H29" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedEpisodeGroups: ITMDBEpisodeGroups;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedExternalIDs</v>
+      </c>
+      <c r="G30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedExternalIDs: ITMDBExternalIDs; stdcall;</v>
+      </c>
+      <c r="H30" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F31" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedImages</v>
+      </c>
+      <c r="G31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedImages: ITMDBMediaImageGroup; stdcall;</v>
+      </c>
+      <c r="H31" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedKeywords</v>
+      </c>
+      <c r="G32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedKeywords: ITMDBKeywords; stdcall;</v>
+      </c>
+      <c r="H32" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedKeywords: ITMDBKeywords;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedLists</v>
+      </c>
+      <c r="G33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedLists: ITMDBListPage; stdcall;</v>
+      </c>
+      <c r="H33" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedLists: ITMDBListPage;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedRecommendations</v>
+      </c>
+      <c r="G34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedRecommendations: ITMDBMediaPage; stdcall;</v>
+      </c>
+      <c r="H34" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedRecommendations: ITMDBMediaPage;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F35" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedReviews</v>
+      </c>
+      <c r="G35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedReviews: ITMDBReviewPage; stdcall;</v>
+      </c>
+      <c r="H35" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedReviews: ITMDBReviewPage;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C36" t="s">
+        <v>471</v>
+      </c>
+      <c r="D36" t="s">
+        <v>472</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedScreenedTheatrically</v>
+      </c>
+      <c r="G36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedScreenedTheatrically: ITMDBScreenedTheatricallyItems; stdcall;</v>
+      </c>
+      <c r="H36" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedScreenedTheatrically: ITMDBScreenedTheatricallyItems;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedSimilar</v>
+      </c>
+      <c r="G37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedSimilar: ITMDBTVSeriesPage; stdcall;</v>
+      </c>
+      <c r="H37" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedSimilar: ITMDBTVSeriesPage;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedTranslations</v>
+      </c>
+      <c r="G38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedTranslations: ITMDBTranslations; stdcall;</v>
+      </c>
+      <c r="H38" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedTranslations: ITMDBTranslations;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="F39" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedVideos</v>
+      </c>
+      <c r="G39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedVideos: ITMDBVideos; stdcall;</v>
+      </c>
+      <c r="H39" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TTTMDBTVSerieDetail.AppendedVideos: ITMDBVideos;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedAccountStates</v>
+      </c>
+      <c r="G40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedAccountStates: ITMDBAccountStates; stdcall;</v>
+      </c>
+      <c r="H40" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVSeasonDetail.AppendedAccountStates: ITMDBAccountStates;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D41" t="s">
+        <v>450</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedAggregateCredits</v>
+      </c>
+      <c r="G41" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedAggregateCredits: ITMDBAggregateCredits; stdcall;</v>
+      </c>
+      <c r="H41" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVSeasonDetail.AppendedAggregateCredits: ITMDBAggregateCredits;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedChanges</v>
+      </c>
+      <c r="G42" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedChanges: ITMDBChanges; stdcall;</v>
+      </c>
+      <c r="H42" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVSeasonDetail.AppendedChanges: ITMDBChanges;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedCredits</v>
+      </c>
+      <c r="G43" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedCredits: ITMDBCredits; stdcall;</v>
+      </c>
+      <c r="H43" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVSeasonDetail.AppendedCredits: ITMDBCredits;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C44" t="s">
+        <v>382</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedExternalIDs</v>
+      </c>
+      <c r="G44" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedExternalIDs: ITMDBExternalIDs; stdcall;</v>
+      </c>
+      <c r="H44" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVSeasonDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedImages</v>
+      </c>
+      <c r="G45" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedImages: ITMDBMediaImageGroup; stdcall;</v>
+      </c>
+      <c r="H45" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVSeasonDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedTranslations</v>
+      </c>
+      <c r="G46" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedTranslations: ITMDBTranslations; stdcall;</v>
+      </c>
+      <c r="H46" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVSeasonDetail.AppendedTranslations: ITMDBTranslations;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedVideos</v>
+      </c>
+      <c r="G47" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedVideos: ITMDBVideos; stdcall;</v>
+      </c>
+      <c r="H47" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVSeasonDetail.AppendedVideos: ITMDBVideos;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedAccountStates</v>
+      </c>
+      <c r="G48" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedAccountStates: ITMDBAccountStates; stdcall;</v>
+      </c>
+      <c r="H48" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVEpisodeDetail.AppendedAccountStates: ITMDBAccountStates;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedChanges</v>
+      </c>
+      <c r="G49" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedChanges: ITMDBChanges; stdcall;</v>
+      </c>
+      <c r="H49" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVEpisodeDetail.AppendedChanges: ITMDBChanges;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F50" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedCredits</v>
+      </c>
+      <c r="G50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedCredits: ITMDBCredits; stdcall;</v>
+      </c>
+      <c r="H50" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVEpisodeDetail.AppendedCredits: ITMDBCredits;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C51" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedExternalIDs</v>
+      </c>
+      <c r="G51" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedExternalIDs: ITMDBExternalIDs; stdcall;</v>
+      </c>
+      <c r="H51" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVEpisodeDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedImages</v>
+      </c>
+      <c r="G52" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedImages: ITMDBMediaImageGroup; stdcall;</v>
+      </c>
+      <c r="H52" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVEpisodeDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedTranslations</v>
+      </c>
+      <c r="G53" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedTranslations: ITMDBTranslations; stdcall;</v>
+      </c>
+      <c r="H53" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVEpisodeDetail.AppendedTranslations: ITMDBTranslations;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>AppendedVideos</v>
+      </c>
+      <c r="G54" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    function AppendedVideos: ITMDBVideos; stdcall;</v>
+      </c>
+      <c r="H54" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>function TITMDBTVEpisodeDetail.AppendedVideos: ITMDBVideos;</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G54" xr:uid="{C31FFFB5-6413-484E-9C48-18C73A8F4597}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B882D4B6-6D65-40BE-A9CF-AD0C7714B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422EB1F5-A85E-42B4-AB14-8555122FFE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="491">
   <si>
     <t>Namespace</t>
   </si>
@@ -1404,9 +1404,6 @@
     <t>ITMDBEpisodeDetail</t>
   </si>
   <si>
-    <t>ITMDBMediaWatchProviders</t>
-  </si>
-  <si>
     <t>GetDetail</t>
   </si>
   <si>
@@ -1510,6 +1507,15 @@
   </si>
   <si>
     <t>CombinedCrewCredits</t>
+  </si>
+  <si>
+    <t>MediaWatchProviderCountry</t>
+  </si>
+  <si>
+    <t>MediaWatchProviderCountries</t>
+  </si>
+  <si>
+    <t>TTMDBMediaWatchProviderCountries</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +1992,8 @@
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +2003,7 @@
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.42578125" customWidth="1"/>
   </cols>
@@ -3735,10 +3741,10 @@
         <v>207</v>
       </c>
       <c r="F76" t="s">
-        <v>453</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>74</v>
+        <v>490</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3942,7 +3948,7 @@
         <v>222</v>
       </c>
       <c r="F85" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>255</v>
@@ -4034,7 +4040,7 @@
         <v>223</v>
       </c>
       <c r="F89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>255</v>
@@ -4057,7 +4063,7 @@
         <v>224</v>
       </c>
       <c r="F90" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>255</v>
@@ -4928,10 +4934,10 @@
         <v>207</v>
       </c>
       <c r="F128" t="s">
-        <v>453</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>74</v>
+        <v>490</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4988,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F131" t="s">
         <v>451</v>
@@ -5198,10 +5204,10 @@
         <v>207</v>
       </c>
       <c r="F140" t="s">
-        <v>453</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>74</v>
+        <v>490</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5218,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F141" t="s">
         <v>452</v>
@@ -5528,11 +5534,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F184" sqref="F184:F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9684,7 +9690,7 @@
         <v>93</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>267</v>
@@ -9731,7 +9737,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>268</v>
@@ -9778,7 +9784,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>267</v>
@@ -9825,7 +9831,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>268</v>
@@ -9872,7 +9878,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>323</v>
@@ -9919,7 +9925,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>324</v>
@@ -9966,7 +9972,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>325</v>
@@ -10013,7 +10019,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>326</v>
@@ -10060,7 +10066,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>377</v>
@@ -10104,7 +10110,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>272</v>
@@ -10151,7 +10157,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>273</v>
@@ -10198,7 +10204,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>272</v>
@@ -10245,7 +10251,7 @@
         <v>93</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>273</v>
@@ -10292,7 +10298,7 @@
         <v>93</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>377</v>
@@ -11546,7 +11552,7 @@
         <v>176</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>267</v>
@@ -11593,7 +11599,7 @@
         <v>176</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>268</v>
@@ -12312,11 +12318,11 @@
         <v>TTMDBWatchProviderPriority</v>
       </c>
       <c r="I147" s="8" t="str">
-        <f t="shared" ref="I147:I186" si="86">"  "&amp;G147&amp;" = interface;"</f>
+        <f t="shared" ref="I147:I188" si="86">"  "&amp;G147&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
       </c>
       <c r="J147" s="8" t="str">
-        <f t="shared" ref="J147:J186" si="87">"  "&amp;H147&amp;" = class;"</f>
+        <f t="shared" ref="J147:J188" si="87">"  "&amp;H147&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
       </c>
       <c r="K147" s="8" t="str">
@@ -12395,11 +12401,11 @@
         <v>74</v>
       </c>
       <c r="G149" s="8" t="str">
-        <f t="shared" ref="G149:G181" si="88">"I"&amp;M149&amp;B149</f>
+        <f t="shared" ref="G149:G183" si="88">"I"&amp;M149&amp;B149</f>
         <v>ITMDBWatchProvider</v>
       </c>
       <c r="H149" s="8" t="str">
-        <f t="shared" ref="H149:H181" si="89">"T"&amp;M149&amp;B149</f>
+        <f t="shared" ref="H149:H183" si="89">"T"&amp;M149&amp;B149</f>
         <v>TTMDBWatchProvider</v>
       </c>
       <c r="I149" s="8" t="str">
@@ -12411,11 +12417,11 @@
         <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
       </c>
       <c r="K149" s="8" t="str">
-        <f t="shared" ref="K149:K181" si="90">IF(C149="", "  "&amp;G149&amp;" = interface", "  "&amp;G149&amp;" = interface(I"&amp;M149&amp;C149&amp;")")</f>
+        <f t="shared" ref="K149:K183" si="90">IF(C149="", "  "&amp;G149&amp;" = interface", "  "&amp;G149&amp;" = interface(I"&amp;M149&amp;C149&amp;")")</f>
         <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L149" s="8" t="str">
-        <f t="shared" ref="L149:L181" si="91">IF(C149="", "  "&amp;H149&amp;" = class(TInterfacedObject, "&amp;G149&amp;")", "  "&amp;H149&amp;" = class(T"&amp;M149&amp;C149&amp;", "&amp;G149&amp;")")</f>
+        <f t="shared" ref="L149:L183" si="91">IF(C149="", "  "&amp;H149&amp;" = class(TInterfacedObject, "&amp;G149&amp;")", "  "&amp;H149&amp;" = class(T"&amp;M149&amp;C149&amp;", "&amp;G149&amp;")")</f>
         <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
       </c>
       <c r="M149" s="8" t="s">
@@ -12474,16 +12480,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D151" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>74</v>
+      <c r="D151" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>74</v>
@@ -12521,16 +12527,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D152" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>74</v>
+      <c r="D152" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>74</v>
@@ -12565,10 +12571,10 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="D153" s="14" t="s">
         <v>377</v>
@@ -12576,32 +12582,32 @@
       <c r="E153" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F153" s="14" t="s">
-        <v>377</v>
+      <c r="F153" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G153" s="8" t="str">
-        <f t="shared" si="88"/>
-        <v>ITMDBNamespace</v>
+        <f t="shared" ref="G153" si="98">"I"&amp;M153&amp;B153</f>
+        <v>ITMDBMediaWatchProviderCountry</v>
       </c>
       <c r="H153" s="8" t="str">
-        <f t="shared" si="89"/>
-        <v>TTMDBNamespace</v>
+        <f t="shared" ref="H153" si="99">"T"&amp;M153&amp;B153</f>
+        <v>TTMDBMediaWatchProviderCountry</v>
       </c>
       <c r="I153" s="8" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
+        <f t="shared" ref="I153" si="100">"  "&amp;G153&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBMediaWatchProviderCountry = interface;</v>
       </c>
       <c r="J153" s="8" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespace = class;</v>
+        <f t="shared" ref="J153" si="101">"  "&amp;H153&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBMediaWatchProviderCountry = class;</v>
       </c>
       <c r="K153" s="8" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespace = interface</v>
+        <f t="shared" ref="K153" si="102">IF(C153="", "  "&amp;G153&amp;" = interface", "  "&amp;G153&amp;" = interface(I"&amp;M153&amp;C153&amp;")")</f>
+        <v xml:space="preserve">  ITMDBMediaWatchProviderCountry = interface</v>
       </c>
       <c r="L153" s="8" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
+        <f t="shared" ref="L153" si="103">IF(C153="", "  "&amp;H153&amp;" = class(TInterfacedObject, "&amp;G153&amp;")", "  "&amp;H153&amp;" = class(T"&amp;M153&amp;C153&amp;", "&amp;G153&amp;")")</f>
+        <v xml:space="preserve">  TTMDBMediaWatchProviderCountry = class(TInterfacedObject, ITMDBMediaWatchProviderCountry)</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>259</v>
@@ -12609,13 +12615,10 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>390</v>
+        <v>489</v>
       </c>
       <c r="D154" s="14" t="s">
         <v>377</v>
@@ -12623,32 +12626,32 @@
       <c r="E154" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F154" s="13" t="s">
-        <v>255</v>
+      <c r="F154" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G154" s="8" t="str">
-        <f t="shared" si="88"/>
-        <v>ITMDBNamespaceAccount</v>
+        <f t="shared" ref="G154" si="104">"I"&amp;M154&amp;B154</f>
+        <v>ITMDBMediaWatchProviderCountries</v>
       </c>
       <c r="H154" s="8" t="str">
-        <f t="shared" si="89"/>
-        <v>TTMDBNamespaceAccount</v>
+        <f t="shared" ref="H154" si="105">"T"&amp;M154&amp;B154</f>
+        <v>TTMDBMediaWatchProviderCountries</v>
       </c>
       <c r="I154" s="8" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
+        <f t="shared" ref="I154" si="106">"  "&amp;G154&amp;" = interface;"</f>
+        <v xml:space="preserve">  ITMDBMediaWatchProviderCountries = interface;</v>
       </c>
       <c r="J154" s="8" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
+        <f t="shared" ref="J154" si="107">"  "&amp;H154&amp;" = class;"</f>
+        <v xml:space="preserve">  TTMDBMediaWatchProviderCountries = class;</v>
       </c>
       <c r="K154" s="8" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
+        <f t="shared" ref="K154" si="108">IF(C154="", "  "&amp;G154&amp;" = interface", "  "&amp;G154&amp;" = interface(I"&amp;M154&amp;C154&amp;")")</f>
+        <v xml:space="preserve">  ITMDBMediaWatchProviderCountries = interface</v>
       </c>
       <c r="L154" s="8" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
+        <f t="shared" ref="L154" si="109">IF(C154="", "  "&amp;H154&amp;" = class(TInterfacedObject, "&amp;G154&amp;")", "  "&amp;H154&amp;" = class(T"&amp;M154&amp;C154&amp;", "&amp;G154&amp;")")</f>
+        <v xml:space="preserve">  TTMDBMediaWatchProviderCountries = class(TInterfacedObject, ITMDBMediaWatchProviderCountries)</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>259</v>
@@ -12659,10 +12662,7 @@
         <v>388</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>377</v>
@@ -12670,32 +12670,32 @@
       <c r="E155" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F155" s="13" t="s">
-        <v>255</v>
+      <c r="F155" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G155" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceAuthentication</v>
+        <v>ITMDBNamespace</v>
       </c>
       <c r="H155" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceAuthentication</v>
+        <v>TTMDBNamespace</v>
       </c>
       <c r="I155" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespace = interface;</v>
       </c>
       <c r="J155" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
+        <v xml:space="preserve">  TTMDBNamespace = class;</v>
       </c>
       <c r="K155" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespace = interface</v>
       </c>
       <c r="L155" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
+        <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>259</v>
@@ -12706,7 +12706,7 @@
         <v>388</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>390</v>
@@ -12717,32 +12717,32 @@
       <c r="E156" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F156" s="14" t="s">
-        <v>377</v>
+      <c r="F156" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G156" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceCertifications</v>
+        <v>ITMDBNamespaceAccount</v>
       </c>
       <c r="H156" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceCertifications</v>
+        <v>TTMDBNamespaceAccount</v>
       </c>
       <c r="I156" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
       </c>
       <c r="J156" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
       </c>
       <c r="K156" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L156" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
+        <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>259</v>
@@ -12753,7 +12753,7 @@
         <v>388</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>390</v>
@@ -12764,32 +12764,32 @@
       <c r="E157" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F157" s="12" t="s">
-        <v>74</v>
+      <c r="F157" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G157" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceChanges</v>
+        <v>ITMDBNamespaceAuthentication</v>
       </c>
       <c r="H157" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceChanges</v>
+        <v>TTMDBNamespaceAuthentication</v>
       </c>
       <c r="I157" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
       </c>
       <c r="J157" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
       </c>
       <c r="K157" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L157" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
+        <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>259</v>
@@ -12800,7 +12800,7 @@
         <v>388</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>390</v>
@@ -12811,32 +12811,32 @@
       <c r="E158" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F158" s="13" t="s">
-        <v>255</v>
+      <c r="F158" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G158" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceCollections</v>
+        <v>ITMDBNamespaceCertifications</v>
       </c>
       <c r="H158" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceCollections</v>
+        <v>TTMDBNamespaceCertifications</v>
       </c>
       <c r="I158" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
       </c>
       <c r="J158" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
       </c>
       <c r="K158" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L158" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>259</v>
@@ -12847,7 +12847,7 @@
         <v>388</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>390</v>
@@ -12858,32 +12858,32 @@
       <c r="E159" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F159" s="13" t="s">
-        <v>255</v>
+      <c r="F159" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G159" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceCompanies</v>
+        <v>ITMDBNamespaceChanges</v>
       </c>
       <c r="H159" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceCompanies</v>
+        <v>TTMDBNamespaceChanges</v>
       </c>
       <c r="I159" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
       </c>
       <c r="J159" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
       </c>
       <c r="K159" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L159" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
+        <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>259</v>
@@ -12894,7 +12894,7 @@
         <v>388</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>390</v>
@@ -12905,32 +12905,32 @@
       <c r="E160" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F160" s="15" t="s">
-        <v>256</v>
+      <c r="F160" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G160" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceConfiguration</v>
+        <v>ITMDBNamespaceCollections</v>
       </c>
       <c r="H160" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceConfiguration</v>
+        <v>TTMDBNamespaceCollections</v>
       </c>
       <c r="I160" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
       </c>
       <c r="J160" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
       </c>
       <c r="K160" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L160" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>259</v>
@@ -12941,7 +12941,7 @@
         <v>388</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>390</v>
@@ -12952,32 +12952,32 @@
       <c r="E161" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F161" s="12" t="s">
-        <v>74</v>
+      <c r="F161" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G161" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceCredits</v>
+        <v>ITMDBNamespaceCompanies</v>
       </c>
       <c r="H161" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceCredits</v>
+        <v>TTMDBNamespaceCompanies</v>
       </c>
       <c r="I161" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
       </c>
       <c r="J161" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
       </c>
       <c r="K161" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L161" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
       </c>
       <c r="M161" s="8" t="s">
         <v>259</v>
@@ -12988,7 +12988,7 @@
         <v>388</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>390</v>
@@ -12999,32 +12999,32 @@
       <c r="E162" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F162" s="12" t="s">
-        <v>74</v>
+      <c r="F162" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G162" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceDiscover</v>
+        <v>ITMDBNamespaceConfiguration</v>
       </c>
       <c r="H162" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceDiscover</v>
+        <v>TTMDBNamespaceConfiguration</v>
       </c>
       <c r="I162" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
       </c>
       <c r="J162" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
       </c>
       <c r="K162" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L162" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
+        <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>259</v>
@@ -13035,7 +13035,7 @@
         <v>388</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>390</v>
@@ -13051,27 +13051,27 @@
       </c>
       <c r="G163" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceFind</v>
+        <v>ITMDBNamespaceCredits</v>
       </c>
       <c r="H163" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceFind</v>
+        <v>TTMDBNamespaceCredits</v>
       </c>
       <c r="I163" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
       </c>
       <c r="J163" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
       </c>
       <c r="K163" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L163" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
+        <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>259</v>
@@ -13082,7 +13082,7 @@
         <v>388</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>390</v>
@@ -13093,32 +13093,32 @@
       <c r="E164" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F164" s="14" t="s">
-        <v>377</v>
+      <c r="F164" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G164" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceGenres</v>
+        <v>ITMDBNamespaceDiscover</v>
       </c>
       <c r="H164" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceGenres</v>
+        <v>TTMDBNamespaceDiscover</v>
       </c>
       <c r="I164" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
       </c>
       <c r="J164" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
       </c>
       <c r="K164" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L164" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
+        <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>259</v>
@@ -13129,7 +13129,7 @@
         <v>388</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C165" s="10" t="s">
         <v>390</v>
@@ -13145,27 +13145,27 @@
       </c>
       <c r="G165" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceGuestSessions</v>
+        <v>ITMDBNamespaceFind</v>
       </c>
       <c r="H165" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceGuestSessions</v>
+        <v>TTMDBNamespaceFind</v>
       </c>
       <c r="I165" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
       </c>
       <c r="J165" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
       </c>
       <c r="K165" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L165" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
+        <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>259</v>
@@ -13176,7 +13176,7 @@
         <v>388</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>390</v>
@@ -13192,27 +13192,27 @@
       </c>
       <c r="G166" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceKeywords</v>
+        <v>ITMDBNamespaceGenres</v>
       </c>
       <c r="H166" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceKeywords</v>
+        <v>TTMDBNamespaceGenres</v>
       </c>
       <c r="I166" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
       </c>
       <c r="J166" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
       </c>
       <c r="K166" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L166" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
+        <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>259</v>
@@ -13223,43 +13223,43 @@
         <v>388</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D167" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>74</v>
+      <c r="D167" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G167" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceLists</v>
+        <v>ITMDBNamespaceGuestSessions</v>
       </c>
       <c r="H167" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceLists</v>
+        <v>TTMDBNamespaceGuestSessions</v>
       </c>
       <c r="I167" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
       </c>
       <c r="J167" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
       </c>
       <c r="K167" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L167" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>259</v>
@@ -13270,7 +13270,7 @@
         <v>388</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>390</v>
@@ -13281,32 +13281,32 @@
       <c r="E168" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F168" s="12" t="s">
-        <v>74</v>
+      <c r="F168" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G168" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceMovieLists</v>
+        <v>ITMDBNamespaceKeywords</v>
       </c>
       <c r="H168" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceMovieLists</v>
+        <v>TTMDBNamespaceKeywords</v>
       </c>
       <c r="I168" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
       </c>
       <c r="J168" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
       </c>
       <c r="K168" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L168" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
       </c>
       <c r="M168" s="8" t="s">
         <v>259</v>
@@ -13317,43 +13317,43 @@
         <v>388</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D169" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>256</v>
+      <c r="D169" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G169" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceMovies</v>
+        <v>ITMDBNamespaceLists</v>
       </c>
       <c r="H169" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceMovies</v>
+        <v>TTMDBNamespaceLists</v>
       </c>
       <c r="I169" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
       </c>
       <c r="J169" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
       </c>
       <c r="K169" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L169" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
+        <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
       </c>
       <c r="M169" s="8" t="s">
         <v>259</v>
@@ -13364,7 +13364,7 @@
         <v>388</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>390</v>
@@ -13375,32 +13375,32 @@
       <c r="E170" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F170" s="15" t="s">
-        <v>256</v>
+      <c r="F170" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G170" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceNetworks</v>
+        <v>ITMDBNamespaceMovieLists</v>
       </c>
       <c r="H170" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceNetworks</v>
+        <v>TTMDBNamespaceMovieLists</v>
       </c>
       <c r="I170" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
       </c>
       <c r="J170" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
       </c>
       <c r="K170" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L170" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
       </c>
       <c r="M170" s="8" t="s">
         <v>259</v>
@@ -13411,43 +13411,43 @@
         <v>388</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C171" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D171" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E171" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>74</v>
+      <c r="D171" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F171" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G171" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespacePeopleLists</v>
+        <v>ITMDBNamespaceMovies</v>
       </c>
       <c r="H171" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespacePeopleLists</v>
+        <v>TTMDBNamespaceMovies</v>
       </c>
       <c r="I171" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
       </c>
       <c r="J171" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
       </c>
       <c r="K171" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L171" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
       </c>
       <c r="M171" s="8" t="s">
         <v>259</v>
@@ -13458,43 +13458,43 @@
         <v>388</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D172" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>256</v>
+      <c r="D172" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F172" s="15" t="s">
         <v>256</v>
       </c>
       <c r="G172" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespacePeople</v>
+        <v>ITMDBNamespaceNetworks</v>
       </c>
       <c r="H172" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespacePeople</v>
+        <v>TTMDBNamespaceNetworks</v>
       </c>
       <c r="I172" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
       </c>
       <c r="J172" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
       </c>
       <c r="K172" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L172" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
+        <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
       </c>
       <c r="M172" s="8" t="s">
         <v>259</v>
@@ -13505,7 +13505,7 @@
         <v>388</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>390</v>
@@ -13521,27 +13521,27 @@
       </c>
       <c r="G173" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceReviews</v>
+        <v>ITMDBNamespacePeopleLists</v>
       </c>
       <c r="H173" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceReviews</v>
+        <v>TTMDBNamespacePeopleLists</v>
       </c>
       <c r="I173" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
       </c>
       <c r="J173" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
       </c>
       <c r="K173" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L173" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
+        <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
       </c>
       <c r="M173" s="8" t="s">
         <v>259</v>
@@ -13552,43 +13552,43 @@
         <v>388</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D174" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>255</v>
+      <c r="D174" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F174" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G174" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceSearch</v>
+        <v>ITMDBNamespacePeople</v>
       </c>
       <c r="H174" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceSearch</v>
+        <v>TTMDBNamespacePeople</v>
       </c>
       <c r="I174" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
       </c>
       <c r="J174" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
       </c>
       <c r="K174" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L174" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
+        <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
       </c>
       <c r="M174" s="8" t="s">
         <v>259</v>
@@ -13599,7 +13599,7 @@
         <v>388</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>390</v>
@@ -13615,27 +13615,27 @@
       </c>
       <c r="G175" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceTrending</v>
+        <v>ITMDBNamespaceReviews</v>
       </c>
       <c r="H175" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceTrending</v>
+        <v>TTMDBNamespaceReviews</v>
       </c>
       <c r="I175" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
       </c>
       <c r="J175" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
       </c>
       <c r="K175" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L175" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
+        <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
       </c>
       <c r="M175" s="8" t="s">
         <v>259</v>
@@ -13646,7 +13646,7 @@
         <v>388</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>390</v>
@@ -13657,32 +13657,32 @@
       <c r="E176" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F176" s="12" t="s">
-        <v>74</v>
+      <c r="F176" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G176" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceTVSeriesLists</v>
+        <v>ITMDBNamespaceSearch</v>
       </c>
       <c r="H176" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceTVSeriesLists</v>
+        <v>TTMDBNamespaceSearch</v>
       </c>
       <c r="I176" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
       </c>
       <c r="J176" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
       </c>
       <c r="K176" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L176" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
+        <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
       </c>
       <c r="M176" s="8" t="s">
         <v>259</v>
@@ -13693,43 +13693,43 @@
         <v>388</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C177" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D177" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F177" s="15" t="s">
-        <v>256</v>
+      <c r="D177" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G177" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceTVSeries</v>
+        <v>ITMDBNamespaceTrending</v>
       </c>
       <c r="H177" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceTVSeries</v>
+        <v>TTMDBNamespaceTrending</v>
       </c>
       <c r="I177" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
       </c>
       <c r="J177" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
       </c>
       <c r="K177" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L177" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
       </c>
       <c r="M177" s="8" t="s">
         <v>259</v>
@@ -13740,43 +13740,43 @@
         <v>388</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D178" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>256</v>
+      <c r="D178" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G178" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceTVSeasons</v>
+        <v>ITMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="H178" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceTVSeasons</v>
+        <v>TTMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="I178" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
       </c>
       <c r="J178" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
       </c>
       <c r="K178" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L178" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
       </c>
       <c r="M178" s="8" t="s">
         <v>259</v>
@@ -13787,7 +13787,7 @@
         <v>388</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>390</v>
@@ -13798,32 +13798,32 @@
       <c r="E179" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F179" s="12" t="s">
-        <v>74</v>
+      <c r="F179" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="G179" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceTVEpisodes</v>
+        <v>ITMDBNamespaceTVSeries</v>
       </c>
       <c r="H179" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceTVEpisodes</v>
+        <v>TTMDBNamespaceTVSeries</v>
       </c>
       <c r="I179" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
       </c>
       <c r="J179" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
       </c>
       <c r="K179" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L179" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
       </c>
       <c r="M179" s="8" t="s">
         <v>259</v>
@@ -13834,7 +13834,7 @@
         <v>388</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>390</v>
@@ -13850,27 +13850,27 @@
       </c>
       <c r="G180" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceTVEpisodeGroups</v>
+        <v>ITMDBNamespaceTVSeasons</v>
       </c>
       <c r="H180" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceTVEpisodeGroups</v>
+        <v>TTMDBNamespaceTVSeasons</v>
       </c>
       <c r="I180" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
       </c>
       <c r="J180" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
       </c>
       <c r="K180" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L180" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
       </c>
       <c r="M180" s="8" t="s">
         <v>259</v>
@@ -13881,43 +13881,43 @@
         <v>388</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C181" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D181" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E181" s="14" t="s">
-        <v>377</v>
+      <c r="D181" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E181" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F181" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G181" s="8" t="str">
         <f t="shared" si="88"/>
-        <v>ITMDBNamespaceWatchProviders</v>
+        <v>ITMDBNamespaceTVEpisodes</v>
       </c>
       <c r="H181" s="8" t="str">
         <f t="shared" si="89"/>
-        <v>TTMDBNamespaceWatchProviders</v>
+        <v>TTMDBNamespaceTVEpisodes</v>
       </c>
       <c r="I181" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
       </c>
       <c r="J181" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
       </c>
       <c r="K181" s="8" t="str">
         <f t="shared" si="90"/>
-        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L181" s="8" t="str">
         <f t="shared" si="91"/>
-        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
       </c>
       <c r="M181" s="8" t="s">
         <v>259</v>
@@ -13925,10 +13925,13 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>366</v>
+        <v>416</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>377</v>
@@ -13936,32 +13939,32 @@
       <c r="E182" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F182" s="13" t="s">
-        <v>255</v>
+      <c r="F182" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G182" s="8" t="str">
-        <f t="shared" ref="G182:G186" si="98">"I"&amp;M182&amp;B182</f>
-        <v>ITMDBCache</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="H182" s="8" t="str">
-        <f t="shared" ref="H182:H186" si="99">"T"&amp;M182&amp;B182</f>
-        <v>TTMDBCache</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="I182" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBCache = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
       </c>
       <c r="J182" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBCache = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
       </c>
       <c r="K182" s="8" t="str">
-        <f t="shared" ref="K182:K186" si="100">IF(C182="", "  "&amp;G182&amp;" = interface", "  "&amp;G182&amp;" = interface(I"&amp;M182&amp;C182&amp;")")</f>
-        <v xml:space="preserve">  ITMDBCache = interface</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L182" s="8" t="str">
-        <f t="shared" ref="L182:L186" si="101">IF(C182="", "  "&amp;H182&amp;" = class(TInterfacedObject, "&amp;G182&amp;")", "  "&amp;H182&amp;" = class(T"&amp;M182&amp;C182&amp;", "&amp;G182&amp;")")</f>
-        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
       </c>
       <c r="M182" s="8" t="s">
         <v>259</v>
@@ -13969,10 +13972,13 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>367</v>
+        <v>417</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="D183" s="14" t="s">
         <v>377</v>
@@ -13980,32 +13986,32 @@
       <c r="E183" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F183" s="13" t="s">
-        <v>255</v>
+      <c r="F183" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G183" s="8" t="str">
-        <f t="shared" si="98"/>
-        <v>ITMDBLoginState</v>
+        <f t="shared" si="88"/>
+        <v>ITMDBNamespaceWatchProviders</v>
       </c>
       <c r="H183" s="8" t="str">
-        <f t="shared" si="99"/>
-        <v>TTMDBLoginState</v>
+        <f t="shared" si="89"/>
+        <v>TTMDBNamespaceWatchProviders</v>
       </c>
       <c r="I183" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
       </c>
       <c r="J183" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBLoginState = class;</v>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
       </c>
       <c r="K183" s="8" t="str">
-        <f t="shared" si="100"/>
-        <v xml:space="preserve">  ITMDBLoginState = interface</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L183" s="8" t="str">
-        <f t="shared" si="101"/>
-        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
       </c>
       <c r="M183" s="8" t="s">
         <v>259</v>
@@ -14016,7 +14022,7 @@
         <v>372</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D184" s="14" t="s">
         <v>377</v>
@@ -14024,92 +14030,180 @@
       <c r="E184" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F184" s="13" t="s">
-        <v>255</v>
+      <c r="F184" s="14" t="s">
+        <v>377</v>
       </c>
       <c r="G184" s="8" t="str">
-        <f t="shared" si="98"/>
-        <v>ITMDBClient</v>
+        <f t="shared" ref="G184:G188" si="110">"I"&amp;M184&amp;B184</f>
+        <v>ITMDBCache</v>
       </c>
       <c r="H184" s="8" t="str">
-        <f t="shared" si="99"/>
-        <v>TTMDBClient</v>
+        <f t="shared" ref="H184:H188" si="111">"T"&amp;M184&amp;B184</f>
+        <v>TTMDBCache</v>
       </c>
       <c r="I184" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDBClient = interface;</v>
+        <v xml:space="preserve">  ITMDBCache = interface;</v>
       </c>
       <c r="J184" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDBClient = class;</v>
+        <v xml:space="preserve">  TTMDBCache = class;</v>
       </c>
       <c r="K184" s="8" t="str">
-        <f t="shared" si="100"/>
-        <v xml:space="preserve">  ITMDBClient = interface</v>
+        <f t="shared" ref="K184:K188" si="112">IF(C184="", "  "&amp;G184&amp;" = interface", "  "&amp;G184&amp;" = interface(I"&amp;M184&amp;C184&amp;")")</f>
+        <v xml:space="preserve">  ITMDBCache = interface</v>
       </c>
       <c r="L184" s="8" t="str">
-        <f t="shared" si="101"/>
-        <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
+        <f t="shared" ref="L184:L188" si="113">IF(C184="", "  "&amp;H184&amp;" = class(TInterfacedObject, "&amp;G184&amp;")", "  "&amp;H184&amp;" = class(T"&amp;M184&amp;C184&amp;", "&amp;G184&amp;")")</f>
+        <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
       </c>
       <c r="M184" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>377</v>
+      </c>
       <c r="G185" s="8" t="str">
-        <f t="shared" si="98"/>
-        <v>ITMDB</v>
+        <f t="shared" si="110"/>
+        <v>ITMDBLoginState</v>
       </c>
       <c r="H185" s="8" t="str">
-        <f t="shared" si="99"/>
-        <v>TTMDB</v>
+        <f t="shared" si="111"/>
+        <v>TTMDBLoginState</v>
       </c>
       <c r="I185" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
+        <v xml:space="preserve">  ITMDBLoginState = interface;</v>
       </c>
       <c r="J185" s="8" t="str">
         <f t="shared" si="87"/>
-        <v xml:space="preserve">  TTMDB = class;</v>
+        <v xml:space="preserve">  TTMDBLoginState = class;</v>
       </c>
       <c r="K185" s="8" t="str">
-        <f t="shared" si="100"/>
-        <v xml:space="preserve">  ITMDB = interface</v>
+        <f t="shared" si="112"/>
+        <v xml:space="preserve">  ITMDBLoginState = interface</v>
       </c>
       <c r="L185" s="8" t="str">
-        <f t="shared" si="101"/>
-        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
+        <f t="shared" si="113"/>
+        <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
       </c>
       <c r="M185" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>377</v>
+      </c>
       <c r="G186" s="8" t="str">
-        <f t="shared" si="98"/>
-        <v>ITMDB</v>
+        <f t="shared" si="110"/>
+        <v>ITMDBClient</v>
       </c>
       <c r="H186" s="8" t="str">
-        <f t="shared" si="99"/>
-        <v>TTMDB</v>
+        <f t="shared" si="111"/>
+        <v>TTMDBClient</v>
       </c>
       <c r="I186" s="8" t="str">
         <f t="shared" si="86"/>
-        <v xml:space="preserve">  ITMDB = interface;</v>
+        <v xml:space="preserve">  ITMDBClient = interface;</v>
       </c>
       <c r="J186" s="8" t="str">
         <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDBClient = class;</v>
+      </c>
+      <c r="K186" s="8" t="str">
+        <f t="shared" si="112"/>
+        <v xml:space="preserve">  ITMDBClient = interface</v>
+      </c>
+      <c r="L186" s="8" t="str">
+        <f t="shared" si="113"/>
+        <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
+      </c>
+      <c r="M186" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G187" s="8" t="str">
+        <f t="shared" si="110"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H187" s="8" t="str">
+        <f t="shared" si="111"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I187" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J187" s="8" t="str">
+        <f t="shared" si="87"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
-      <c r="K186" s="8" t="str">
-        <f t="shared" si="100"/>
+      <c r="K187" s="8" t="str">
+        <f t="shared" si="112"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
-      <c r="L186" s="8" t="str">
-        <f t="shared" si="101"/>
+      <c r="L187" s="8" t="str">
+        <f t="shared" si="113"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
-      <c r="M186" s="8" t="s">
+      <c r="M187" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G188" s="8" t="str">
+        <f t="shared" si="110"/>
+        <v>ITMDB</v>
+      </c>
+      <c r="H188" s="8" t="str">
+        <f t="shared" si="111"/>
+        <v>TTMDB</v>
+      </c>
+      <c r="I188" s="8" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve">  ITMDB = interface;</v>
+      </c>
+      <c r="J188" s="8" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve">  TTMDB = class;</v>
+      </c>
+      <c r="K188" s="8" t="str">
+        <f t="shared" si="112"/>
+        <v xml:space="preserve">  ITMDB = interface</v>
+      </c>
+      <c r="L188" s="8" t="str">
+        <f t="shared" si="113"/>
+        <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
+      </c>
+      <c r="M188" s="8" t="s">
         <v>259</v>
       </c>
     </row>
@@ -14145,25 +14239,25 @@
         <v>269</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>261</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14171,7 +14265,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C2" t="s">
         <v>280</v>
@@ -14200,7 +14294,7 @@
         <v>140</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
         <v>276</v>
@@ -14229,7 +14323,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -14258,7 +14352,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
         <v>93</v>
@@ -14287,7 +14381,7 @@
         <v>140</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
         <v>382</v>
@@ -14316,7 +14410,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -14345,7 +14439,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
@@ -14374,7 +14468,7 @@
         <v>140</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -14403,7 +14497,7 @@
         <v>140</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C10" t="s">
         <v>145</v>
@@ -14432,13 +14526,13 @@
         <v>140</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" t="s">
         <v>460</v>
       </c>
-      <c r="C11" t="s">
-        <v>461</v>
-      </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>377</v>
@@ -14461,7 +14555,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12" t="s">
         <v>147</v>
@@ -14490,7 +14584,7 @@
         <v>140</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -14519,7 +14613,7 @@
         <v>140</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
         <v>84</v>
@@ -14548,7 +14642,7 @@
         <v>140</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
         <v>149</v>
@@ -14577,7 +14671,7 @@
         <v>156</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -14606,13 +14700,13 @@
         <v>156</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" t="s">
         <v>462</v>
       </c>
-      <c r="C17" t="s">
-        <v>463</v>
-      </c>
       <c r="D17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>255</v>
@@ -14635,7 +14729,7 @@
         <v>156</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C18" t="s">
         <v>382</v>
@@ -14664,7 +14758,7 @@
         <v>156</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C19" t="s">
         <v>83</v>
@@ -14693,13 +14787,13 @@
         <v>156</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>255</v>
@@ -14722,13 +14816,13 @@
         <v>156</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>255</v>
@@ -14751,7 +14845,7 @@
         <v>156</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C22" t="s">
         <v>84</v>
@@ -14780,7 +14874,7 @@
         <v>172</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C23" t="s">
         <v>280</v>
@@ -14809,10 +14903,10 @@
         <v>172</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" t="s">
         <v>468</v>
-      </c>
-      <c r="C24" t="s">
-        <v>469</v>
       </c>
       <c r="D24" t="s">
         <v>450</v>
@@ -14838,7 +14932,7 @@
         <v>172</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25" t="s">
         <v>276</v>
@@ -14867,7 +14961,7 @@
         <v>172</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -14896,7 +14990,7 @@
         <v>172</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C27" t="s">
         <v>337</v>
@@ -14925,7 +15019,7 @@
         <v>172</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
@@ -14954,10 +15048,10 @@
         <v>172</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D29" t="s">
         <v>250</v>
@@ -14983,7 +15077,7 @@
         <v>172</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C30" t="s">
         <v>382</v>
@@ -15012,7 +15106,7 @@
         <v>172</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C31" t="s">
         <v>83</v>
@@ -15041,7 +15135,7 @@
         <v>172</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C32" t="s">
         <v>127</v>
@@ -15070,7 +15164,7 @@
         <v>172</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -15099,7 +15193,7 @@
         <v>172</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C34" t="s">
         <v>145</v>
@@ -15128,7 +15222,7 @@
         <v>172</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C35" t="s">
         <v>147</v>
@@ -15157,13 +15251,13 @@
         <v>172</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C36" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" t="s">
         <v>471</v>
-      </c>
-      <c r="D36" t="s">
-        <v>472</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>255</v>
@@ -15186,7 +15280,7 @@
         <v>172</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" t="s">
         <v>148</v>
@@ -15215,7 +15309,7 @@
         <v>172</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C38" t="s">
         <v>84</v>
@@ -15244,7 +15338,7 @@
         <v>172</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C39" t="s">
         <v>149</v>
@@ -15305,7 +15399,7 @@
         <v>451</v>
       </c>
       <c r="C41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D41" t="s">
         <v>450</v>
@@ -15505,7 +15599,7 @@
         <v>178</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C48" t="s">
         <v>280</v>
@@ -15534,7 +15628,7 @@
         <v>178</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -15563,7 +15657,7 @@
         <v>178</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C50" t="s">
         <v>93</v>
@@ -15592,7 +15686,7 @@
         <v>178</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C51" t="s">
         <v>382</v>
@@ -15621,7 +15715,7 @@
         <v>178</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C52" t="s">
         <v>83</v>
@@ -15650,7 +15744,7 @@
         <v>178</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C53" t="s">
         <v>84</v>
@@ -15679,7 +15773,7 @@
         <v>178</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C54" t="s">
         <v>149</v>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECDFD2-22A1-4483-987E-33DC1EF174FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51772D3A-DABF-4D25-90E6-C5A1D36D6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -1994,9 +1994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G149" sqref="G149:G150"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,8 +3243,8 @@
       <c r="F54" t="s">
         <v>186</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>74</v>
+      <c r="G54" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
   <dimension ref="A1:M189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
     </sheetView>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51772D3A-DABF-4D25-90E6-C5A1D36D6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2E29DD-B7D8-4F67-8B7C-8CAA1ED58C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="494">
   <si>
     <t>Namespace</t>
   </si>
@@ -1416,15 +1416,9 @@
     <t>Interfaced Object</t>
   </si>
   <si>
-    <t>TTMDBMovieDetail</t>
-  </si>
-  <si>
     <t>ReleaseDates</t>
   </si>
   <si>
-    <t>TTMDBPersonDetail</t>
-  </si>
-  <si>
     <t>CombinedCredits</t>
   </si>
   <si>
@@ -1440,9 +1434,6 @@
     <t>ITMDBCombinedCredits</t>
   </si>
   <si>
-    <t>TTMDBTVSerieDetail</t>
-  </si>
-  <si>
     <t>AggregateCredits</t>
   </si>
   <si>
@@ -1455,9 +1446,6 @@
     <t>ITMDBScreenedTheatricallyItems</t>
   </si>
   <si>
-    <t>ITMDBTVEpisodeDetail</t>
-  </si>
-  <si>
     <t>Implementation Signature</t>
   </si>
   <si>
@@ -1519,6 +1507,24 @@
   </si>
   <si>
     <t>ITMDBRatingResult</t>
+  </si>
+  <si>
+    <t>Base Name</t>
+  </si>
+  <si>
+    <t>TMDBMovieDetail</t>
+  </si>
+  <si>
+    <t>TMDBPersonDetail</t>
+  </si>
+  <si>
+    <t>TMDBTVSerieDetail</t>
+  </si>
+  <si>
+    <t>TMDBTVSeasonDetail</t>
+  </si>
+  <si>
+    <t>TMDBTVEpisodeDetail</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1658,6 +1664,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1994,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -3744,7 +3753,7 @@
         <v>207</v>
       </c>
       <c r="F76" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>253</v>
@@ -3767,7 +3776,7 @@
         <v>208</v>
       </c>
       <c r="F77" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>253</v>
@@ -3790,7 +3799,7 @@
         <v>209</v>
       </c>
       <c r="F78" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>253</v>
@@ -3951,7 +3960,7 @@
         <v>220</v>
       </c>
       <c r="F85" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>253</v>
@@ -4043,7 +4052,7 @@
         <v>221</v>
       </c>
       <c r="F89" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>253</v>
@@ -4066,7 +4075,7 @@
         <v>222</v>
       </c>
       <c r="F90" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>253</v>
@@ -4937,7 +4946,7 @@
         <v>207</v>
       </c>
       <c r="F128" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>253</v>
@@ -4960,7 +4969,7 @@
         <v>208</v>
       </c>
       <c r="F129" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>253</v>
@@ -4983,7 +4992,7 @@
         <v>209</v>
       </c>
       <c r="F130" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>253</v>
@@ -5213,7 +5222,7 @@
         <v>207</v>
       </c>
       <c r="F140" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>253</v>
@@ -5420,7 +5429,7 @@
         <v>208</v>
       </c>
       <c r="F149" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>253</v>
@@ -5443,7 +5452,7 @@
         <v>209</v>
       </c>
       <c r="F150" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>253</v>
@@ -5552,8 +5561,8 @@
   <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6935,8 +6944,8 @@
       <c r="E31" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>253</v>
+      <c r="F31" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G31" s="8" t="str">
         <f>"I"&amp;M31&amp;B31</f>
@@ -6982,8 +6991,8 @@
       <c r="E32" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>253</v>
+      <c r="F32" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G32" s="8" t="str">
         <f>"I"&amp;M32&amp;B32</f>
@@ -7029,8 +7038,8 @@
       <c r="E33" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>253</v>
+      <c r="F33" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G33" s="8" t="str">
         <f>"I"&amp;M33&amp;B33</f>
@@ -7396,8 +7405,8 @@
       <c r="E41" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>253</v>
+      <c r="F41" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G41" s="8" t="str">
         <f>"I"&amp;M41&amp;B41</f>
@@ -7537,8 +7546,8 @@
       <c r="E44" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>253</v>
+      <c r="F44" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G44" s="8" t="str">
         <f>"I"&amp;M44&amp;B44</f>
@@ -7584,8 +7593,8 @@
       <c r="E45" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>253</v>
+      <c r="F45" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G45" s="8" t="str">
         <f>"I"&amp;M45&amp;B45</f>
@@ -7628,8 +7637,8 @@
       <c r="E46" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>253</v>
+      <c r="F46" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G46" s="8" t="str">
         <f>"I"&amp;M46&amp;B46</f>
@@ -7675,8 +7684,8 @@
       <c r="E47" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>253</v>
+      <c r="F47" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G47" s="8" t="str">
         <f>"I"&amp;M47&amp;B47</f>
@@ -7722,8 +7731,8 @@
       <c r="E48" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>253</v>
+      <c r="F48" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G48" s="8" t="str">
         <f>"I"&amp;M48&amp;B48</f>
@@ -8098,8 +8107,8 @@
       <c r="E56" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>253</v>
+      <c r="F56" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G56" s="8" t="str">
         <f>"I"&amp;M56&amp;B56</f>
@@ -8145,8 +8154,8 @@
       <c r="E57" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>253</v>
+      <c r="F57" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G57" s="8" t="str">
         <f>"I"&amp;M57&amp;B57</f>
@@ -8192,8 +8201,8 @@
       <c r="E58" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>253</v>
+      <c r="F58" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G58" s="8" t="str">
         <f>"I"&amp;M58&amp;B58</f>
@@ -8239,8 +8248,8 @@
       <c r="E59" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>253</v>
+      <c r="F59" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G59" s="8" t="str">
         <f>"I"&amp;M59&amp;B59</f>
@@ -8283,8 +8292,8 @@
       <c r="E60" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>375</v>
+      <c r="F60" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G60" s="8" t="str">
         <f>"I"&amp;M60&amp;B60</f>
@@ -8327,8 +8336,8 @@
       <c r="E61" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>375</v>
+      <c r="F61" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G61" s="8" t="str">
         <f>"I"&amp;M61&amp;B61</f>
@@ -8371,8 +8380,8 @@
       <c r="E62" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F62" s="14" t="s">
-        <v>375</v>
+      <c r="F62" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G62" s="8" t="str">
         <f>"I"&amp;M62&amp;B62</f>
@@ -8415,8 +8424,8 @@
       <c r="E63" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>253</v>
+      <c r="F63" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G63" s="8" t="str">
         <f t="shared" si="0"/>
@@ -8462,8 +8471,8 @@
       <c r="E64" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>253</v>
+      <c r="F64" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G64" s="8" t="str">
         <f t="shared" ref="G64:G77" si="12">"I"&amp;M64&amp;B64</f>
@@ -8509,8 +8518,8 @@
       <c r="E65" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>253</v>
+      <c r="F65" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G65" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8556,8 +8565,8 @@
       <c r="E66" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>253</v>
+      <c r="F66" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G66" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8603,8 +8612,8 @@
       <c r="E67" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>253</v>
+      <c r="F67" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G67" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8650,8 +8659,8 @@
       <c r="E68" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>253</v>
+      <c r="F68" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G68" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8697,8 +8706,8 @@
       <c r="E69" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F69" s="13" t="s">
-        <v>253</v>
+      <c r="F69" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G69" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8744,8 +8753,8 @@
       <c r="E70" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>253</v>
+      <c r="F70" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G70" s="8" t="str">
         <f t="shared" si="12"/>
@@ -8791,8 +8800,8 @@
       <c r="E71" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>253</v>
+      <c r="F71" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G71" s="8" t="str">
         <f t="shared" si="12"/>
@@ -9106,10 +9115,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>375</v>
@@ -9749,7 +9758,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>265</v>
@@ -9796,7 +9805,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>266</v>
@@ -9843,7 +9852,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>265</v>
@@ -9890,7 +9899,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>266</v>
@@ -9937,7 +9946,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>321</v>
@@ -9984,7 +9993,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>322</v>
@@ -10031,7 +10040,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>323</v>
@@ -10078,7 +10087,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>324</v>
@@ -10125,7 +10134,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>375</v>
@@ -10169,7 +10178,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>270</v>
@@ -10216,7 +10225,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>271</v>
@@ -10263,7 +10272,7 @@
         <v>93</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>270</v>
@@ -10310,7 +10319,7 @@
         <v>93</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>271</v>
@@ -10357,7 +10366,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>375</v>
@@ -10597,8 +10606,8 @@
       <c r="E110" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>253</v>
+      <c r="F110" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G110" s="8" t="str">
         <f>"I"&amp;M110&amp;B110</f>
@@ -10644,8 +10653,8 @@
       <c r="E111" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F111" s="13" t="s">
-        <v>253</v>
+      <c r="F111" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G111" s="8" t="str">
         <f>"I"&amp;M111&amp;B111</f>
@@ -10691,8 +10700,8 @@
       <c r="E112" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>253</v>
+      <c r="F112" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G112" s="8" t="str">
         <f>"I"&amp;M112&amp;B112</f>
@@ -10738,8 +10747,8 @@
       <c r="E113" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F113" s="13" t="s">
-        <v>253</v>
+      <c r="F113" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G113" s="8" t="str">
         <f>"I"&amp;M113&amp;B113</f>
@@ -10829,8 +10838,8 @@
       <c r="E115" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F115" s="14" t="s">
-        <v>375</v>
+      <c r="F115" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="22"/>
@@ -10876,8 +10885,8 @@
       <c r="E116" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F116" s="14" t="s">
-        <v>375</v>
+      <c r="F116" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G116" s="8" t="str">
         <f t="shared" si="22"/>
@@ -10923,8 +10932,8 @@
       <c r="E117" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F117" s="14" t="s">
-        <v>375</v>
+      <c r="F117" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G117" s="8" t="str">
         <f t="shared" si="22"/>
@@ -11611,7 +11620,7 @@
         <v>176</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>265</v>
@@ -11658,7 +11667,7 @@
         <v>176</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>266</v>
@@ -12633,7 +12642,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D154" s="14" t="s">
         <v>375</v>
@@ -12677,7 +12686,7 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>375</v>
@@ -12917,8 +12926,8 @@
       <c r="E160" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F160" s="12" t="s">
-        <v>74</v>
+      <c r="F160" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="G160" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13011,8 +13020,8 @@
       <c r="E162" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F162" s="13" t="s">
-        <v>253</v>
+      <c r="F162" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G162" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13105,8 +13114,8 @@
       <c r="E164" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F164" s="12" t="s">
-        <v>74</v>
+      <c r="F164" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G164" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13152,8 +13161,8 @@
       <c r="E165" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F165" s="12" t="s">
-        <v>74</v>
+      <c r="F165" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G165" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13199,8 +13208,8 @@
       <c r="E166" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F166" s="12" t="s">
-        <v>74</v>
+      <c r="F166" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G166" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13381,11 +13390,11 @@
       <c r="C170" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D170" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>74</v>
+      <c r="D170" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="F170" s="12" t="s">
         <v>74</v>
@@ -13434,8 +13443,8 @@
       <c r="E171" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F171" s="12" t="s">
-        <v>74</v>
+      <c r="F171" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G171" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13575,8 +13584,8 @@
       <c r="E174" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F174" s="12" t="s">
-        <v>74</v>
+      <c r="F174" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G174" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13669,8 +13678,8 @@
       <c r="E176" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F176" s="12" t="s">
-        <v>74</v>
+      <c r="F176" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G176" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13716,8 +13725,8 @@
       <c r="E177" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F177" s="14" t="s">
-        <v>375</v>
+      <c r="F177" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G177" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13763,8 +13772,8 @@
       <c r="E178" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F178" s="12" t="s">
-        <v>74</v>
+      <c r="F178" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G178" s="8" t="str">
         <f t="shared" si="94"/>
@@ -13810,8 +13819,8 @@
       <c r="E179" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F179" s="12" t="s">
-        <v>74</v>
+      <c r="F179" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="G179" s="8" t="str">
         <f t="shared" si="94"/>
@@ -14276,9 +14285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31FFFB5-6413-484E-9C48-18C73A8F4597}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14290,7 +14299,7 @@
     <col min="5" max="5" width="9.140625" style="21"/>
     <col min="6" max="6" width="24.140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="79.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -14301,7 +14310,7 @@
         <v>456</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>455</v>
@@ -14313,10 +14322,10 @@
         <v>454</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14324,7 +14333,7 @@
         <v>140</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
         <v>278</v>
@@ -14344,8 +14353,8 @@
         <v xml:space="preserve">    function AppendedAccountStates: ITMDBAccountStates; stdcall;</v>
       </c>
       <c r="H2" s="16" t="str">
-        <f>"function T"&amp;B2&amp;"."&amp;F2&amp;": "&amp;D2&amp;";"</f>
-        <v>function TTTMDBMovieDetail.AppendedAccountStates: ITMDBAccountStates;</v>
+        <f>"    function T"&amp;B2&amp;"."&amp;F2&amp;": "&amp;D2&amp;";"</f>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedAccountStates: ITMDBAccountStates;</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -14353,7 +14362,7 @@
         <v>140</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
         <v>274</v>
@@ -14373,8 +14382,8 @@
         <v xml:space="preserve">    function AppendedAlternativeTitles: ITMDBAlternativeTitles; stdcall;</v>
       </c>
       <c r="H3" s="16" t="str">
-        <f t="shared" ref="H3:H54" si="1">"function T"&amp;B3&amp;"."&amp;F3&amp;": "&amp;D3&amp;";"</f>
-        <v>function TTTMDBMovieDetail.AppendedAlternativeTitles: ITMDBAlternativeTitles;</v>
+        <f t="shared" ref="H3:H54" si="1">"    function T"&amp;B3&amp;"."&amp;F3&amp;": "&amp;D3&amp;";"</f>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedAlternativeTitles: ITMDBAlternativeTitles;</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -14382,7 +14391,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -14390,7 +14399,7 @@
       <c r="D4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F4" s="16" t="str">
@@ -14403,7 +14412,7 @@
       </c>
       <c r="H4" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedChanges: ITMDBChanges;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedChanges: ITMDBChanges;</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -14411,7 +14420,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C5" t="s">
         <v>93</v>
@@ -14432,7 +14441,7 @@
       </c>
       <c r="H5" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedCredits: ITMDBCredits;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedCredits: ITMDBCredits;</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -14440,7 +14449,7 @@
         <v>140</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C6" t="s">
         <v>380</v>
@@ -14461,7 +14470,7 @@
       </c>
       <c r="H6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -14469,7 +14478,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -14490,7 +14499,7 @@
       </c>
       <c r="H7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedImages: ITMDBMediaImageGroup;</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -14498,7 +14507,7 @@
         <v>140</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
@@ -14519,7 +14528,7 @@
       </c>
       <c r="H8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedKeywords: ITMDBKeywords;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedKeywords: ITMDBKeywords;</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -14527,7 +14536,7 @@
         <v>140</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -14535,7 +14544,7 @@
       <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F9" s="16" t="str">
@@ -14548,7 +14557,7 @@
       </c>
       <c r="H9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedLists: ITMDBListPage;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedLists: ITMDBListPage;</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -14556,7 +14565,7 @@
         <v>140</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C10" t="s">
         <v>145</v>
@@ -14564,7 +14573,7 @@
       <c r="D10" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F10" s="16" t="str">
@@ -14577,7 +14586,7 @@
       </c>
       <c r="H10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedRecommendations: ITMDBMediaPage;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedRecommendations: ITMDBMediaPage;</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14585,13 +14594,13 @@
         <v>140</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" t="s">
         <v>457</v>
       </c>
-      <c r="C11" t="s">
-        <v>458</v>
-      </c>
       <c r="D11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>375</v>
@@ -14606,7 +14615,7 @@
       </c>
       <c r="H11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedReleaseDates: ITMDBReleaseDates;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedReleaseDates: ITMDBReleaseDates;</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -14614,7 +14623,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C12" t="s">
         <v>147</v>
@@ -14635,7 +14644,7 @@
       </c>
       <c r="H12" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedReviews: ITMDBReviewPage;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedReviews: ITMDBReviewPage;</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14643,7 +14652,7 @@
         <v>140</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -14651,7 +14660,7 @@
       <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F13" s="16" t="str">
@@ -14664,7 +14673,7 @@
       </c>
       <c r="H13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedSimilar: ITMDBMoviePage;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedSimilar: ITMDBMoviePage;</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -14672,7 +14681,7 @@
         <v>140</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C14" t="s">
         <v>84</v>
@@ -14680,7 +14689,7 @@
       <c r="D14" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F14" s="16" t="str">
@@ -14693,7 +14702,7 @@
       </c>
       <c r="H14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedTranslations: ITMDBTranslations;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedTranslations: ITMDBTranslations;</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -14701,7 +14710,7 @@
         <v>140</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C15" t="s">
         <v>149</v>
@@ -14722,7 +14731,7 @@
       </c>
       <c r="H15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBMovieDetail.AppendedVideos: ITMDBVideos;</v>
+        <v xml:space="preserve">    function TTMDBMovieDetail.AppendedVideos: ITMDBVideos;</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -14730,7 +14739,7 @@
         <v>156</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -14738,7 +14747,7 @@
       <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F16" s="16" t="str">
@@ -14751,7 +14760,7 @@
       </c>
       <c r="H16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBPersonDetail.AppendedChanges: ITMDBChanges;</v>
+        <v xml:space="preserve">    function TTMDBPersonDetail.AppendedChanges: ITMDBChanges;</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -14759,15 +14768,15 @@
         <v>156</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
-      </c>
-      <c r="E17" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F17" s="16" t="str">
@@ -14780,7 +14789,7 @@
       </c>
       <c r="H17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBPersonDetail.AppendedCombinedCredits: ITMDBCombinedCredits;</v>
+        <v xml:space="preserve">    function TTMDBPersonDetail.AppendedCombinedCredits: ITMDBCombinedCredits;</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -14788,7 +14797,7 @@
         <v>156</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="C18" t="s">
         <v>380</v>
@@ -14796,7 +14805,7 @@
       <c r="D18" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F18" s="16" t="str">
@@ -14809,7 +14818,7 @@
       </c>
       <c r="H18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBPersonDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+        <v xml:space="preserve">    function TTMDBPersonDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -14817,7 +14826,7 @@
         <v>156</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="C19" t="s">
         <v>83</v>
@@ -14825,7 +14834,7 @@
       <c r="D19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F19" s="16" t="str">
@@ -14838,7 +14847,7 @@
       </c>
       <c r="H19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBPersonDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+        <v xml:space="preserve">    function TTMDBPersonDetail.AppendedImages: ITMDBMediaImageGroup;</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14846,15 +14855,15 @@
         <v>156</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C20" t="s">
         <v>459</v>
       </c>
-      <c r="C20" t="s">
-        <v>461</v>
-      </c>
       <c r="D20" t="s">
-        <v>464</v>
-      </c>
-      <c r="E20" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F20" s="16" t="str">
@@ -14867,7 +14876,7 @@
       </c>
       <c r="H20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBPersonDetail.AppendedMovieCredits: ITMDBCombinedCredits;</v>
+        <v xml:space="preserve">    function TTMDBPersonDetail.AppendedMovieCredits: ITMDBCombinedCredits;</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -14875,15 +14884,15 @@
         <v>156</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D21" t="s">
         <v>462</v>
       </c>
-      <c r="D21" t="s">
-        <v>464</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F21" s="16" t="str">
@@ -14896,7 +14905,7 @@
       </c>
       <c r="H21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBPersonDetail.AppendedTVCredits: ITMDBCombinedCredits;</v>
+        <v xml:space="preserve">    function TTMDBPersonDetail.AppendedTVCredits: ITMDBCombinedCredits;</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -14904,7 +14913,7 @@
         <v>156</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="C22" t="s">
         <v>84</v>
@@ -14912,7 +14921,7 @@
       <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F22" s="16" t="str">
@@ -14925,7 +14934,7 @@
       </c>
       <c r="H22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBPersonDetail.AppendedTranslations: ITMDBTranslations;</v>
+        <v xml:space="preserve">    function TTMDBPersonDetail.AppendedTranslations: ITMDBTranslations;</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -14933,7 +14942,7 @@
         <v>172</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C23" t="s">
         <v>278</v>
@@ -14954,7 +14963,7 @@
       </c>
       <c r="H23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedAccountStates: ITMDBAccountStates;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedAccountStates: ITMDBAccountStates;</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -14962,15 +14971,15 @@
         <v>172</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
         <v>448</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F24" s="16" t="str">
@@ -14983,7 +14992,7 @@
       </c>
       <c r="H24" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedAggregateCredits: ITMDBAggregateCredits;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedAggregateCredits: ITMDBAggregateCredits;</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -14991,7 +15000,7 @@
         <v>172</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C25" t="s">
         <v>274</v>
@@ -15012,7 +15021,7 @@
       </c>
       <c r="H25" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedAlternativeTitles: ITMDBAlternativeTitles;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedAlternativeTitles: ITMDBAlternativeTitles;</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15020,7 +15029,7 @@
         <v>172</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -15028,7 +15037,7 @@
       <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F26" s="16" t="str">
@@ -15041,7 +15050,7 @@
       </c>
       <c r="H26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedChanges: ITMDBChanges;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedChanges: ITMDBChanges;</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15049,7 +15058,7 @@
         <v>172</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C27" t="s">
         <v>335</v>
@@ -15057,7 +15066,7 @@
       <c r="D27" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F27" s="16" t="str">
@@ -15070,7 +15079,7 @@
       </c>
       <c r="H27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedContentRatings: ITMDBContentRatings;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedContentRatings: ITMDBContentRatings;</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -15078,7 +15087,7 @@
         <v>172</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
@@ -15099,7 +15108,7 @@
       </c>
       <c r="H28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedCredits: ITMDBCredits;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedCredits: ITMDBCredits;</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -15107,15 +15116,15 @@
         <v>172</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C29" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D29" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F29" s="16" t="str">
@@ -15128,7 +15137,7 @@
       </c>
       <c r="H29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedEpisodeGroups: ITMDBEpisodeGroups;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedEpisodeGroups: ITMDBEpisodeGroups;</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15136,7 +15145,7 @@
         <v>172</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C30" t="s">
         <v>380</v>
@@ -15144,7 +15153,7 @@
       <c r="D30" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F30" s="16" t="str">
@@ -15157,7 +15166,7 @@
       </c>
       <c r="H30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15165,7 +15174,7 @@
         <v>172</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C31" t="s">
         <v>83</v>
@@ -15186,7 +15195,7 @@
       </c>
       <c r="H31" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedImages: ITMDBMediaImageGroup;</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -15194,7 +15203,7 @@
         <v>172</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C32" t="s">
         <v>127</v>
@@ -15202,7 +15211,7 @@
       <c r="D32" t="s">
         <v>213</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F32" s="16" t="str">
@@ -15215,7 +15224,7 @@
       </c>
       <c r="H32" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedKeywords: ITMDBKeywords;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedKeywords: ITMDBKeywords;</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -15223,7 +15232,7 @@
         <v>172</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -15231,7 +15240,7 @@
       <c r="D33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F33" s="16" t="str">
@@ -15244,7 +15253,7 @@
       </c>
       <c r="H33" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedLists: ITMDBListPage;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedLists: ITMDBListPage;</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -15252,7 +15261,7 @@
         <v>172</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C34" t="s">
         <v>145</v>
@@ -15260,7 +15269,7 @@
       <c r="D34" t="s">
         <v>236</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F34" s="16" t="str">
@@ -15273,7 +15282,7 @@
       </c>
       <c r="H34" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedRecommendations: ITMDBMediaPage;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedRecommendations: ITMDBMediaPage;</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -15281,7 +15290,7 @@
         <v>172</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C35" t="s">
         <v>147</v>
@@ -15302,7 +15311,7 @@
       </c>
       <c r="H35" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedReviews: ITMDBReviewPage;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedReviews: ITMDBReviewPage;</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -15310,15 +15319,15 @@
         <v>172</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C36" t="s">
         <v>465</v>
       </c>
-      <c r="C36" t="s">
-        <v>468</v>
-      </c>
       <c r="D36" t="s">
-        <v>469</v>
-      </c>
-      <c r="E36" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F36" s="16" t="str">
@@ -15331,7 +15340,7 @@
       </c>
       <c r="H36" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedScreenedTheatrically: ITMDBScreenedTheatricallyItems;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedScreenedTheatrically: ITMDBScreenedTheatricallyItems;</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -15339,7 +15348,7 @@
         <v>172</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C37" t="s">
         <v>148</v>
@@ -15347,7 +15356,7 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F37" s="16" t="str">
@@ -15360,7 +15369,7 @@
       </c>
       <c r="H37" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedSimilar: ITMDBTVSeriesPage;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedSimilar: ITMDBTVSeriesPage;</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -15368,7 +15377,7 @@
         <v>172</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C38" t="s">
         <v>84</v>
@@ -15376,7 +15385,7 @@
       <c r="D38" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F38" s="16" t="str">
@@ -15389,7 +15398,7 @@
       </c>
       <c r="H38" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedTranslations: ITMDBTranslations;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedTranslations: ITMDBTranslations;</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -15397,7 +15406,7 @@
         <v>172</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C39" t="s">
         <v>149</v>
@@ -15418,7 +15427,7 @@
       </c>
       <c r="H39" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TTTMDBTVSerieDetail.AppendedVideos: ITMDBVideos;</v>
+        <v xml:space="preserve">    function TTMDBTVSerieDetail.AppendedVideos: ITMDBVideos;</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -15426,7 +15435,7 @@
         <v>177</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C40" t="s">
         <v>278</v>
@@ -15434,7 +15443,7 @@
       <c r="D40" t="s">
         <v>210</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F40" s="16" t="str">
@@ -15447,7 +15456,7 @@
       </c>
       <c r="H40" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVSeasonDetail.AppendedAccountStates: ITMDBAccountStates;</v>
+        <v xml:space="preserve">    function TTMDBTVSeasonDetail.AppendedAccountStates: ITMDBAccountStates;</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -15455,15 +15464,15 @@
         <v>177</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C41" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D41" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F41" s="16" t="str">
@@ -15476,7 +15485,7 @@
       </c>
       <c r="H41" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVSeasonDetail.AppendedAggregateCredits: ITMDBAggregateCredits;</v>
+        <v xml:space="preserve">    function TTMDBTVSeasonDetail.AppendedAggregateCredits: ITMDBAggregateCredits;</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -15484,7 +15493,7 @@
         <v>177</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -15492,7 +15501,7 @@
       <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F42" s="16" t="str">
@@ -15505,7 +15514,7 @@
       </c>
       <c r="H42" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVSeasonDetail.AppendedChanges: ITMDBChanges;</v>
+        <v xml:space="preserve">    function TTMDBTVSeasonDetail.AppendedChanges: ITMDBChanges;</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -15513,7 +15522,7 @@
         <v>177</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C43" t="s">
         <v>93</v>
@@ -15521,7 +15530,7 @@
       <c r="D43" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F43" s="16" t="str">
@@ -15534,7 +15543,7 @@
       </c>
       <c r="H43" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVSeasonDetail.AppendedCredits: ITMDBCredits;</v>
+        <v xml:space="preserve">    function TTMDBTVSeasonDetail.AppendedCredits: ITMDBCredits;</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -15542,7 +15551,7 @@
         <v>177</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C44" t="s">
         <v>380</v>
@@ -15550,7 +15559,7 @@
       <c r="D44" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F44" s="16" t="str">
@@ -15563,7 +15572,7 @@
       </c>
       <c r="H44" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVSeasonDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+        <v xml:space="preserve">    function TTMDBTVSeasonDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -15571,7 +15580,7 @@
         <v>177</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C45" t="s">
         <v>83</v>
@@ -15579,7 +15588,7 @@
       <c r="D45" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F45" s="16" t="str">
@@ -15592,7 +15601,7 @@
       </c>
       <c r="H45" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVSeasonDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+        <v xml:space="preserve">    function TTMDBTVSeasonDetail.AppendedImages: ITMDBMediaImageGroup;</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -15600,7 +15609,7 @@
         <v>177</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C46" t="s">
         <v>84</v>
@@ -15608,7 +15617,7 @@
       <c r="D46" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F46" s="16" t="str">
@@ -15621,7 +15630,7 @@
       </c>
       <c r="H46" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVSeasonDetail.AppendedTranslations: ITMDBTranslations;</v>
+        <v xml:space="preserve">    function TTMDBTVSeasonDetail.AppendedTranslations: ITMDBTranslations;</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -15629,7 +15638,7 @@
         <v>177</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="C47" t="s">
         <v>149</v>
@@ -15637,7 +15646,7 @@
       <c r="D47" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F47" s="16" t="str">
@@ -15650,7 +15659,7 @@
       </c>
       <c r="H47" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVSeasonDetail.AppendedVideos: ITMDBVideos;</v>
+        <v xml:space="preserve">    function TTMDBTVSeasonDetail.AppendedVideos: ITMDBVideos;</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -15658,7 +15667,7 @@
         <v>178</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C48" t="s">
         <v>278</v>
@@ -15666,7 +15675,7 @@
       <c r="D48" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F48" s="16" t="str">
@@ -15679,7 +15688,7 @@
       </c>
       <c r="H48" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVEpisodeDetail.AppendedAccountStates: ITMDBAccountStates;</v>
+        <v xml:space="preserve">    function TTMDBTVEpisodeDetail.AppendedAccountStates: ITMDBAccountStates;</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -15687,7 +15696,7 @@
         <v>178</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -15695,7 +15704,7 @@
       <c r="D49" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F49" s="16" t="str">
@@ -15708,7 +15717,7 @@
       </c>
       <c r="H49" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVEpisodeDetail.AppendedChanges: ITMDBChanges;</v>
+        <v xml:space="preserve">    function TTMDBTVEpisodeDetail.AppendedChanges: ITMDBChanges;</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -15716,7 +15725,7 @@
         <v>178</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C50" t="s">
         <v>93</v>
@@ -15724,7 +15733,7 @@
       <c r="D50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F50" s="16" t="str">
@@ -15737,7 +15746,7 @@
       </c>
       <c r="H50" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVEpisodeDetail.AppendedCredits: ITMDBCredits;</v>
+        <v xml:space="preserve">    function TTMDBTVEpisodeDetail.AppendedCredits: ITMDBCredits;</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -15745,7 +15754,7 @@
         <v>178</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C51" t="s">
         <v>380</v>
@@ -15753,7 +15762,7 @@
       <c r="D51" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F51" s="16" t="str">
@@ -15766,7 +15775,7 @@
       </c>
       <c r="H51" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVEpisodeDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
+        <v xml:space="preserve">    function TTMDBTVEpisodeDetail.AppendedExternalIDs: ITMDBExternalIDs;</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -15774,7 +15783,7 @@
         <v>178</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C52" t="s">
         <v>83</v>
@@ -15782,7 +15791,7 @@
       <c r="D52" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F52" s="16" t="str">
@@ -15795,7 +15804,7 @@
       </c>
       <c r="H52" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVEpisodeDetail.AppendedImages: ITMDBMediaImageGroup;</v>
+        <v xml:space="preserve">    function TTMDBTVEpisodeDetail.AppendedImages: ITMDBMediaImageGroup;</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -15803,7 +15812,7 @@
         <v>178</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C53" t="s">
         <v>84</v>
@@ -15811,7 +15820,7 @@
       <c r="D53" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F53" s="16" t="str">
@@ -15824,7 +15833,7 @@
       </c>
       <c r="H53" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVEpisodeDetail.AppendedTranslations: ITMDBTranslations;</v>
+        <v xml:space="preserve">    function TTMDBTVEpisodeDetail.AppendedTranslations: ITMDBTranslations;</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -15832,7 +15841,7 @@
         <v>178</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C54" t="s">
         <v>149</v>
@@ -15840,7 +15849,7 @@
       <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F54" s="16" t="str">
@@ -15853,7 +15862,7 @@
       </c>
       <c r="H54" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>function TITMDBTVEpisodeDetail.AppendedVideos: ITMDBVideos;</v>
+        <v xml:space="preserve">    function TTMDBTVEpisodeDetail.AppendedVideos: ITMDBVideos;</v>
       </c>
     </row>
   </sheetData>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2E29DD-B7D8-4F67-8B7C-8CAA1ED58C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF18E5B2-1C47-4C09-8429-68796FEC0B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -1619,7 +1619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1657,16 +1657,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2003,9 +1994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,8 +2749,8 @@
       <c r="F32" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>79</v>
+      <c r="G32" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2804,8 +2795,8 @@
       <c r="F34" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>253</v>
+      <c r="G34" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2873,8 +2864,8 @@
       <c r="F37" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>253</v>
+      <c r="G37" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -6948,27 +6939,27 @@
         <v>375</v>
       </c>
       <c r="G31" s="8" t="str">
-        <f>"I"&amp;M31&amp;B31</f>
+        <f t="shared" ref="G31:G62" si="12">"I"&amp;M31&amp;B31</f>
         <v>ITMDBCompany</v>
       </c>
       <c r="H31" s="8" t="str">
-        <f>"T"&amp;M31&amp;B31</f>
+        <f t="shared" ref="H31:H62" si="13">"T"&amp;M31&amp;B31</f>
         <v>TTMDBCompany</v>
       </c>
       <c r="I31" s="8" t="str">
-        <f>"  "&amp;G31&amp;" = interface;"</f>
+        <f t="shared" ref="I31:I62" si="14">"  "&amp;G31&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBCompany = interface;</v>
       </c>
       <c r="J31" s="8" t="str">
-        <f>"  "&amp;H31&amp;" = class;"</f>
+        <f t="shared" ref="J31:J62" si="15">"  "&amp;H31&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBCompany = class;</v>
       </c>
       <c r="K31" s="8" t="str">
-        <f>IF(C31="", "  "&amp;G31&amp;" = interface", "  "&amp;G31&amp;" = interface(I"&amp;M31&amp;C31&amp;")")</f>
+        <f t="shared" ref="K31:K62" si="16">IF(C31="", "  "&amp;G31&amp;" = interface", "  "&amp;G31&amp;" = interface(I"&amp;M31&amp;C31&amp;")")</f>
         <v xml:space="preserve">  ITMDBCompany = interface(ITMDBItem)</v>
       </c>
       <c r="L31" s="8" t="str">
-        <f>IF(C31="", "  "&amp;H31&amp;" = class(TInterfacedObject, "&amp;G31&amp;")", "  "&amp;H31&amp;" = class(T"&amp;M31&amp;C31&amp;", "&amp;G31&amp;")")</f>
+        <f t="shared" ref="L31:L62" si="17">IF(C31="", "  "&amp;H31&amp;" = class(TInterfacedObject, "&amp;G31&amp;")", "  "&amp;H31&amp;" = class(T"&amp;M31&amp;C31&amp;", "&amp;G31&amp;")")</f>
         <v xml:space="preserve">  TTMDBCompany = class(TTMDBItem, ITMDBCompany)</v>
       </c>
       <c r="M31" s="8" t="s">
@@ -6995,27 +6986,27 @@
         <v>375</v>
       </c>
       <c r="G32" s="8" t="str">
-        <f>"I"&amp;M32&amp;B32</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCompanies</v>
       </c>
       <c r="H32" s="8" t="str">
-        <f>"T"&amp;M32&amp;B32</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCompanies</v>
       </c>
       <c r="I32" s="8" t="str">
-        <f>"  "&amp;G32&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCompanies = interface;</v>
       </c>
       <c r="J32" s="8" t="str">
-        <f>"  "&amp;H32&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCompanies = class;</v>
       </c>
       <c r="K32" s="8" t="str">
-        <f>IF(C32="", "  "&amp;G32&amp;" = interface", "  "&amp;G32&amp;" = interface(I"&amp;M32&amp;C32&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBCompanies = interface(ITMDBItems)</v>
       </c>
       <c r="L32" s="8" t="str">
-        <f>IF(C32="", "  "&amp;H32&amp;" = class(TInterfacedObject, "&amp;G32&amp;")", "  "&amp;H32&amp;" = class(T"&amp;M32&amp;C32&amp;", "&amp;G32&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBCompanies = class(TTMDBItems, ITMDBCompanies)</v>
       </c>
       <c r="M32" s="8" t="s">
@@ -7042,27 +7033,27 @@
         <v>375</v>
       </c>
       <c r="G33" s="8" t="str">
-        <f>"I"&amp;M33&amp;B33</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCompanyPage</v>
       </c>
       <c r="H33" s="8" t="str">
-        <f>"T"&amp;M33&amp;B33</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCompanyPage</v>
       </c>
       <c r="I33" s="8" t="str">
-        <f>"  "&amp;G33&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCompanyPage = interface;</v>
       </c>
       <c r="J33" s="8" t="str">
-        <f>"  "&amp;H33&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCompanyPage = class;</v>
       </c>
       <c r="K33" s="8" t="str">
-        <f>IF(C33="", "  "&amp;G33&amp;" = interface", "  "&amp;G33&amp;" = interface(I"&amp;M33&amp;C33&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBCompanyPage = interface(ITMDBPage)</v>
       </c>
       <c r="L33" s="8" t="str">
-        <f>IF(C33="", "  "&amp;H33&amp;" = class(TInterfacedObject, "&amp;G33&amp;")", "  "&amp;H33&amp;" = class(T"&amp;M33&amp;C33&amp;", "&amp;G33&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBCompanyPage = class(TTMDBPage, ITMDBCompanyPage)</v>
       </c>
       <c r="M33" s="8" t="s">
@@ -7089,27 +7080,27 @@
         <v>253</v>
       </c>
       <c r="G34" s="8" t="str">
-        <f>"I"&amp;M34&amp;B34</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCompanyDetail</v>
       </c>
       <c r="H34" s="8" t="str">
-        <f>"T"&amp;M34&amp;B34</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCompanyDetail</v>
       </c>
       <c r="I34" s="8" t="str">
-        <f>"  "&amp;G34&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCompanyDetail = interface;</v>
       </c>
       <c r="J34" s="8" t="str">
-        <f>"  "&amp;H34&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCompanyDetail = class;</v>
       </c>
       <c r="K34" s="8" t="str">
-        <f>IF(C34="", "  "&amp;G34&amp;" = interface", "  "&amp;G34&amp;" = interface(I"&amp;M34&amp;C34&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBCompanyDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L34" s="8" t="str">
-        <f>IF(C34="", "  "&amp;H34&amp;" = class(TInterfacedObject, "&amp;G34&amp;")", "  "&amp;H34&amp;" = class(T"&amp;M34&amp;C34&amp;", "&amp;G34&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBCompanyDetail = class(TTMDBDetail, ITMDBCompanyDetail)</v>
       </c>
       <c r="M34" s="8" t="s">
@@ -7133,27 +7124,27 @@
         <v>74</v>
       </c>
       <c r="G35" s="8" t="str">
-        <f>"I"&amp;M35&amp;B35</f>
+        <f t="shared" si="12"/>
         <v>ITMDBConfigurationImages</v>
       </c>
       <c r="H35" s="8" t="str">
-        <f>"T"&amp;M35&amp;B35</f>
+        <f t="shared" si="13"/>
         <v>TTMDBConfigurationImages</v>
       </c>
       <c r="I35" s="8" t="str">
-        <f>"  "&amp;G35&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBConfigurationImages = interface;</v>
       </c>
       <c r="J35" s="8" t="str">
-        <f>"  "&amp;H35&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBConfigurationImages = class;</v>
       </c>
       <c r="K35" s="8" t="str">
-        <f>IF(C35="", "  "&amp;G35&amp;" = interface", "  "&amp;G35&amp;" = interface(I"&amp;M35&amp;C35&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBConfigurationImages = interface</v>
       </c>
       <c r="L35" s="8" t="str">
-        <f>IF(C35="", "  "&amp;H35&amp;" = class(TInterfacedObject, "&amp;G35&amp;")", "  "&amp;H35&amp;" = class(T"&amp;M35&amp;C35&amp;", "&amp;G35&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBConfigurationImages = class(TInterfacedObject, ITMDBConfigurationImages)</v>
       </c>
       <c r="M35" s="8" t="s">
@@ -7177,27 +7168,27 @@
         <v>74</v>
       </c>
       <c r="G36" s="8" t="str">
-        <f>"I"&amp;M36&amp;B36</f>
+        <f t="shared" si="12"/>
         <v>ITMDBConfiguration</v>
       </c>
       <c r="H36" s="8" t="str">
-        <f>"T"&amp;M36&amp;B36</f>
+        <f t="shared" si="13"/>
         <v>TTMDBConfiguration</v>
       </c>
       <c r="I36" s="8" t="str">
-        <f>"  "&amp;G36&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBConfiguration = interface;</v>
       </c>
       <c r="J36" s="8" t="str">
-        <f>"  "&amp;H36&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBConfiguration = class;</v>
       </c>
       <c r="K36" s="8" t="str">
-        <f>IF(C36="", "  "&amp;G36&amp;" = interface", "  "&amp;G36&amp;" = interface(I"&amp;M36&amp;C36&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBConfiguration = interface</v>
       </c>
       <c r="L36" s="8" t="str">
-        <f>IF(C36="", "  "&amp;H36&amp;" = class(TInterfacedObject, "&amp;G36&amp;")", "  "&amp;H36&amp;" = class(T"&amp;M36&amp;C36&amp;", "&amp;G36&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBConfiguration = class(TInterfacedObject, ITMDBConfiguration)</v>
       </c>
       <c r="M36" s="8" t="s">
@@ -7224,27 +7215,27 @@
         <v>74</v>
       </c>
       <c r="G37" s="8" t="str">
-        <f>"I"&amp;M37&amp;B37</f>
+        <f t="shared" si="12"/>
         <v>ITMDBContentRating</v>
       </c>
       <c r="H37" s="8" t="str">
-        <f>"T"&amp;M37&amp;B37</f>
+        <f t="shared" si="13"/>
         <v>TTMDBContentRating</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f>"  "&amp;G37&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBContentRating = interface;</v>
       </c>
       <c r="J37" s="8" t="str">
-        <f>"  "&amp;H37&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBContentRating = class;</v>
       </c>
       <c r="K37" s="8" t="str">
-        <f>IF(C37="", "  "&amp;G37&amp;" = interface", "  "&amp;G37&amp;" = interface(I"&amp;M37&amp;C37&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBContentRating = interface(ITMDBItem)</v>
       </c>
       <c r="L37" s="8" t="str">
-        <f>IF(C37="", "  "&amp;H37&amp;" = class(TInterfacedObject, "&amp;G37&amp;")", "  "&amp;H37&amp;" = class(T"&amp;M37&amp;C37&amp;", "&amp;G37&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBContentRating = class(TTMDBItem, ITMDBContentRating)</v>
       </c>
       <c r="M37" s="8" t="s">
@@ -7271,27 +7262,27 @@
         <v>74</v>
       </c>
       <c r="G38" s="8" t="str">
-        <f>"I"&amp;M38&amp;B38</f>
+        <f t="shared" si="12"/>
         <v>ITMDBContentRatings</v>
       </c>
       <c r="H38" s="8" t="str">
-        <f>"T"&amp;M38&amp;B38</f>
+        <f t="shared" si="13"/>
         <v>TTMDBContentRatings</v>
       </c>
       <c r="I38" s="8" t="str">
-        <f>"  "&amp;G38&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBContentRatings = interface;</v>
       </c>
       <c r="J38" s="8" t="str">
-        <f>"  "&amp;H38&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBContentRatings = class;</v>
       </c>
       <c r="K38" s="8" t="str">
-        <f>IF(C38="", "  "&amp;G38&amp;" = interface", "  "&amp;G38&amp;" = interface(I"&amp;M38&amp;C38&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBContentRatings = interface(ITMDBItems)</v>
       </c>
       <c r="L38" s="8" t="str">
-        <f>IF(C38="", "  "&amp;H38&amp;" = class(TInterfacedObject, "&amp;G38&amp;")", "  "&amp;H38&amp;" = class(T"&amp;M38&amp;C38&amp;", "&amp;G38&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBContentRatings = class(TTMDBItems, ITMDBContentRatings)</v>
       </c>
       <c r="M38" s="8" t="s">
@@ -7318,27 +7309,27 @@
         <v>375</v>
       </c>
       <c r="G39" s="8" t="str">
-        <f>"I"&amp;M39&amp;B39</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCountry</v>
       </c>
       <c r="H39" s="8" t="str">
-        <f>"T"&amp;M39&amp;B39</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCountry</v>
       </c>
       <c r="I39" s="8" t="str">
-        <f>"  "&amp;G39&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCountry = interface;</v>
       </c>
       <c r="J39" s="8" t="str">
-        <f>"  "&amp;H39&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCountry = class;</v>
       </c>
       <c r="K39" s="8" t="str">
-        <f>IF(C39="", "  "&amp;G39&amp;" = interface", "  "&amp;G39&amp;" = interface(I"&amp;M39&amp;C39&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBCountry = interface(ITMDBItem)</v>
       </c>
       <c r="L39" s="8" t="str">
-        <f>IF(C39="", "  "&amp;H39&amp;" = class(TInterfacedObject, "&amp;G39&amp;")", "  "&amp;H39&amp;" = class(T"&amp;M39&amp;C39&amp;", "&amp;G39&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBCountry = class(TTMDBItem, ITMDBCountry)</v>
       </c>
       <c r="M39" s="8" t="s">
@@ -7365,27 +7356,27 @@
         <v>375</v>
       </c>
       <c r="G40" s="8" t="str">
-        <f>"I"&amp;M40&amp;B40</f>
+        <f t="shared" si="12"/>
         <v>ITMDBCountries</v>
       </c>
       <c r="H40" s="8" t="str">
-        <f>"T"&amp;M40&amp;B40</f>
+        <f t="shared" si="13"/>
         <v>TTMDBCountries</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f>"  "&amp;G40&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBCountries = interface;</v>
       </c>
       <c r="J40" s="8" t="str">
-        <f>"  "&amp;H40&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBCountries = class;</v>
       </c>
       <c r="K40" s="8" t="str">
-        <f>IF(C40="", "  "&amp;G40&amp;" = interface", "  "&amp;G40&amp;" = interface(I"&amp;M40&amp;C40&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBCountries = interface(ITMDBItems)</v>
       </c>
       <c r="L40" s="8" t="str">
-        <f>IF(C40="", "  "&amp;H40&amp;" = class(TInterfacedObject, "&amp;G40&amp;")", "  "&amp;H40&amp;" = class(T"&amp;M40&amp;C40&amp;", "&amp;G40&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBCountries = class(TTMDBItems, ITMDBCountries)</v>
       </c>
       <c r="M40" s="8" t="s">
@@ -7409,27 +7400,27 @@
         <v>375</v>
       </c>
       <c r="G41" s="8" t="str">
-        <f>"I"&amp;M41&amp;B41</f>
+        <f t="shared" si="12"/>
         <v>ITMDBExternalIDs</v>
       </c>
       <c r="H41" s="8" t="str">
-        <f>"T"&amp;M41&amp;B41</f>
+        <f t="shared" si="13"/>
         <v>TTMDBExternalIDs</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f>"  "&amp;G41&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBExternalIDs = interface;</v>
       </c>
       <c r="J41" s="8" t="str">
-        <f>"  "&amp;H41&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBExternalIDs = class;</v>
       </c>
       <c r="K41" s="8" t="str">
-        <f>IF(C41="", "  "&amp;G41&amp;" = interface", "  "&amp;G41&amp;" = interface(I"&amp;M41&amp;C41&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBExternalIDs = interface</v>
       </c>
       <c r="L41" s="8" t="str">
-        <f>IF(C41="", "  "&amp;H41&amp;" = class(TInterfacedObject, "&amp;G41&amp;")", "  "&amp;H41&amp;" = class(T"&amp;M41&amp;C41&amp;", "&amp;G41&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBExternalIDs = class(TInterfacedObject, ITMDBExternalIDs)</v>
       </c>
       <c r="M41" s="8" t="s">
@@ -7456,27 +7447,27 @@
         <v>375</v>
       </c>
       <c r="G42" s="8" t="str">
-        <f>"I"&amp;M42&amp;B42</f>
+        <f t="shared" si="12"/>
         <v>ITMDBGenre</v>
       </c>
       <c r="H42" s="8" t="str">
-        <f>"T"&amp;M42&amp;B42</f>
+        <f t="shared" si="13"/>
         <v>TTMDBGenre</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f>"  "&amp;G42&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBGenre = interface;</v>
       </c>
       <c r="J42" s="8" t="str">
-        <f>"  "&amp;H42&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBGenre = class;</v>
       </c>
       <c r="K42" s="8" t="str">
-        <f>IF(C42="", "  "&amp;G42&amp;" = interface", "  "&amp;G42&amp;" = interface(I"&amp;M42&amp;C42&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBGenre = interface(ITMDBItem)</v>
       </c>
       <c r="L42" s="8" t="str">
-        <f>IF(C42="", "  "&amp;H42&amp;" = class(TInterfacedObject, "&amp;G42&amp;")", "  "&amp;H42&amp;" = class(T"&amp;M42&amp;C42&amp;", "&amp;G42&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBGenre = class(TTMDBItem, ITMDBGenre)</v>
       </c>
       <c r="M42" s="8" t="s">
@@ -7503,27 +7494,27 @@
         <v>375</v>
       </c>
       <c r="G43" s="8" t="str">
-        <f>"I"&amp;M43&amp;B43</f>
+        <f t="shared" si="12"/>
         <v>ITMDBGenres</v>
       </c>
       <c r="H43" s="8" t="str">
-        <f>"T"&amp;M43&amp;B43</f>
+        <f t="shared" si="13"/>
         <v>TTMDBGenres</v>
       </c>
       <c r="I43" s="8" t="str">
-        <f>"  "&amp;G43&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBGenres = interface;</v>
       </c>
       <c r="J43" s="8" t="str">
-        <f>"  "&amp;H43&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBGenres = class;</v>
       </c>
       <c r="K43" s="8" t="str">
-        <f>IF(C43="", "  "&amp;G43&amp;" = interface", "  "&amp;G43&amp;" = interface(I"&amp;M43&amp;C43&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBGenres = interface(ITMDBItems)</v>
       </c>
       <c r="L43" s="8" t="str">
-        <f>IF(C43="", "  "&amp;H43&amp;" = class(TInterfacedObject, "&amp;G43&amp;")", "  "&amp;H43&amp;" = class(T"&amp;M43&amp;C43&amp;", "&amp;G43&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBGenres = class(TTMDBItems, ITMDBGenres)</v>
       </c>
       <c r="M43" s="8" t="s">
@@ -7550,27 +7541,27 @@
         <v>375</v>
       </c>
       <c r="G44" s="8" t="str">
-        <f>"I"&amp;M44&amp;B44</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMediaImage</v>
       </c>
       <c r="H44" s="8" t="str">
-        <f>"T"&amp;M44&amp;B44</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMediaImage</v>
       </c>
       <c r="I44" s="8" t="str">
-        <f>"  "&amp;G44&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMediaImage = interface;</v>
       </c>
       <c r="J44" s="8" t="str">
-        <f>"  "&amp;H44&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMediaImage = class;</v>
       </c>
       <c r="K44" s="8" t="str">
-        <f>IF(C44="", "  "&amp;G44&amp;" = interface", "  "&amp;G44&amp;" = interface(I"&amp;M44&amp;C44&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBMediaImage = interface(ITMDBItem)</v>
       </c>
       <c r="L44" s="8" t="str">
-        <f>IF(C44="", "  "&amp;H44&amp;" = class(TInterfacedObject, "&amp;G44&amp;")", "  "&amp;H44&amp;" = class(T"&amp;M44&amp;C44&amp;", "&amp;G44&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBMediaImage = class(TTMDBItem, ITMDBMediaImage)</v>
       </c>
       <c r="M44" s="8" t="s">
@@ -7597,27 +7588,27 @@
         <v>375</v>
       </c>
       <c r="G45" s="8" t="str">
-        <f>"I"&amp;M45&amp;B45</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMediaImages</v>
       </c>
       <c r="H45" s="8" t="str">
-        <f>"T"&amp;M45&amp;B45</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMediaImages</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f>"  "&amp;G45&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMediaImages = interface;</v>
       </c>
       <c r="J45" s="8" t="str">
-        <f>"  "&amp;H45&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMediaImages = class;</v>
       </c>
       <c r="K45" s="8" t="str">
-        <f>IF(C45="", "  "&amp;G45&amp;" = interface", "  "&amp;G45&amp;" = interface(I"&amp;M45&amp;C45&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBMediaImages = interface(ITMDBItems)</v>
       </c>
       <c r="L45" s="8" t="str">
-        <f>IF(C45="", "  "&amp;H45&amp;" = class(TInterfacedObject, "&amp;G45&amp;")", "  "&amp;H45&amp;" = class(T"&amp;M45&amp;C45&amp;", "&amp;G45&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBMediaImages = class(TTMDBItems, ITMDBMediaImages)</v>
       </c>
       <c r="M45" s="8" t="s">
@@ -7641,27 +7632,27 @@
         <v>375</v>
       </c>
       <c r="G46" s="8" t="str">
-        <f>"I"&amp;M46&amp;B46</f>
+        <f t="shared" si="12"/>
         <v>ITMDBMediaImageGroup</v>
       </c>
       <c r="H46" s="8" t="str">
-        <f>"T"&amp;M46&amp;B46</f>
+        <f t="shared" si="13"/>
         <v>TTMDBMediaImageGroup</v>
       </c>
       <c r="I46" s="8" t="str">
-        <f>"  "&amp;G46&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBMediaImageGroup = interface;</v>
       </c>
       <c r="J46" s="8" t="str">
-        <f>"  "&amp;H46&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBMediaImageGroup = class;</v>
       </c>
       <c r="K46" s="8" t="str">
-        <f>IF(C46="", "  "&amp;G46&amp;" = interface", "  "&amp;G46&amp;" = interface(I"&amp;M46&amp;C46&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBMediaImageGroup = interface</v>
       </c>
       <c r="L46" s="8" t="str">
-        <f>IF(C46="", "  "&amp;H46&amp;" = class(TInterfacedObject, "&amp;G46&amp;")", "  "&amp;H46&amp;" = class(T"&amp;M46&amp;C46&amp;", "&amp;G46&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBMediaImageGroup = class(TInterfacedObject, ITMDBMediaImageGroup)</v>
       </c>
       <c r="M46" s="8" t="s">
@@ -7688,27 +7679,27 @@
         <v>74</v>
       </c>
       <c r="G47" s="8" t="str">
-        <f>"I"&amp;M47&amp;B47</f>
+        <f t="shared" si="12"/>
         <v>ITMDBJobDepartment</v>
       </c>
       <c r="H47" s="8" t="str">
-        <f>"T"&amp;M47&amp;B47</f>
+        <f t="shared" si="13"/>
         <v>TTMDBJobDepartment</v>
       </c>
       <c r="I47" s="8" t="str">
-        <f>"  "&amp;G47&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBJobDepartment = interface;</v>
       </c>
       <c r="J47" s="8" t="str">
-        <f>"  "&amp;H47&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBJobDepartment = class;</v>
       </c>
       <c r="K47" s="8" t="str">
-        <f>IF(C47="", "  "&amp;G47&amp;" = interface", "  "&amp;G47&amp;" = interface(I"&amp;M47&amp;C47&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBJobDepartment = interface(ITMDBItem)</v>
       </c>
       <c r="L47" s="8" t="str">
-        <f>IF(C47="", "  "&amp;H47&amp;" = class(TInterfacedObject, "&amp;G47&amp;")", "  "&amp;H47&amp;" = class(T"&amp;M47&amp;C47&amp;", "&amp;G47&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBJobDepartment = class(TTMDBItem, ITMDBJobDepartment)</v>
       </c>
       <c r="M47" s="8" t="s">
@@ -7735,27 +7726,27 @@
         <v>74</v>
       </c>
       <c r="G48" s="8" t="str">
-        <f>"I"&amp;M48&amp;B48</f>
+        <f t="shared" si="12"/>
         <v>ITMDBJobDepartments</v>
       </c>
       <c r="H48" s="8" t="str">
-        <f>"T"&amp;M48&amp;B48</f>
+        <f t="shared" si="13"/>
         <v>TTMDBJobDepartments</v>
       </c>
       <c r="I48" s="8" t="str">
-        <f>"  "&amp;G48&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBJobDepartments = interface;</v>
       </c>
       <c r="J48" s="8" t="str">
-        <f>"  "&amp;H48&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBJobDepartments = class;</v>
       </c>
       <c r="K48" s="8" t="str">
-        <f>IF(C48="", "  "&amp;G48&amp;" = interface", "  "&amp;G48&amp;" = interface(I"&amp;M48&amp;C48&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBJobDepartments = interface(ITMDBItems)</v>
       </c>
       <c r="L48" s="8" t="str">
-        <f>IF(C48="", "  "&amp;H48&amp;" = class(TInterfacedObject, "&amp;G48&amp;")", "  "&amp;H48&amp;" = class(T"&amp;M48&amp;C48&amp;", "&amp;G48&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBJobDepartments = class(TTMDBItems, ITMDBJobDepartments)</v>
       </c>
       <c r="M48" s="8" t="s">
@@ -7782,27 +7773,27 @@
         <v>375</v>
       </c>
       <c r="G49" s="8" t="str">
-        <f>"I"&amp;M49&amp;B49</f>
+        <f t="shared" si="12"/>
         <v>ITMDBKeyword</v>
       </c>
       <c r="H49" s="8" t="str">
-        <f>"T"&amp;M49&amp;B49</f>
+        <f t="shared" si="13"/>
         <v>TTMDBKeyword</v>
       </c>
       <c r="I49" s="8" t="str">
-        <f>"  "&amp;G49&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBKeyword = interface;</v>
       </c>
       <c r="J49" s="8" t="str">
-        <f>"  "&amp;H49&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBKeyword = class;</v>
       </c>
       <c r="K49" s="8" t="str">
-        <f>IF(C49="", "  "&amp;G49&amp;" = interface", "  "&amp;G49&amp;" = interface(I"&amp;M49&amp;C49&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBKeyword = interface(ITMDBItem)</v>
       </c>
       <c r="L49" s="8" t="str">
-        <f>IF(C49="", "  "&amp;H49&amp;" = class(TInterfacedObject, "&amp;G49&amp;")", "  "&amp;H49&amp;" = class(T"&amp;M49&amp;C49&amp;", "&amp;G49&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBKeyword = class(TTMDBItem, ITMDBKeyword)</v>
       </c>
       <c r="M49" s="8" t="s">
@@ -7829,27 +7820,27 @@
         <v>375</v>
       </c>
       <c r="G50" s="8" t="str">
-        <f>"I"&amp;M50&amp;B50</f>
+        <f t="shared" si="12"/>
         <v>ITMDBKeywords</v>
       </c>
       <c r="H50" s="8" t="str">
-        <f>"T"&amp;M50&amp;B50</f>
+        <f t="shared" si="13"/>
         <v>TTMDBKeywords</v>
       </c>
       <c r="I50" s="8" t="str">
-        <f>"  "&amp;G50&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBKeywords = interface;</v>
       </c>
       <c r="J50" s="8" t="str">
-        <f>"  "&amp;H50&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBKeywords = class;</v>
       </c>
       <c r="K50" s="8" t="str">
-        <f>IF(C50="", "  "&amp;G50&amp;" = interface", "  "&amp;G50&amp;" = interface(I"&amp;M50&amp;C50&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBKeywords = interface(ITMDBItems)</v>
       </c>
       <c r="L50" s="8" t="str">
-        <f>IF(C50="", "  "&amp;H50&amp;" = class(TInterfacedObject, "&amp;G50&amp;")", "  "&amp;H50&amp;" = class(T"&amp;M50&amp;C50&amp;", "&amp;G50&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBKeywords = class(TTMDBItems, ITMDBKeywords)</v>
       </c>
       <c r="M50" s="8" t="s">
@@ -7876,27 +7867,27 @@
         <v>375</v>
       </c>
       <c r="G51" s="8" t="str">
-        <f>"I"&amp;M51&amp;B51</f>
+        <f t="shared" si="12"/>
         <v>ITMDBKeywordPage</v>
       </c>
       <c r="H51" s="8" t="str">
-        <f>"T"&amp;M51&amp;B51</f>
+        <f t="shared" si="13"/>
         <v>TTMDBKeywordPage</v>
       </c>
       <c r="I51" s="8" t="str">
-        <f>"  "&amp;G51&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBKeywordPage = interface;</v>
       </c>
       <c r="J51" s="8" t="str">
-        <f>"  "&amp;H51&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBKeywordPage = class;</v>
       </c>
       <c r="K51" s="8" t="str">
-        <f>IF(C51="", "  "&amp;G51&amp;" = interface", "  "&amp;G51&amp;" = interface(I"&amp;M51&amp;C51&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBKeywordPage = interface(ITMDBPage)</v>
       </c>
       <c r="L51" s="8" t="str">
-        <f>IF(C51="", "  "&amp;H51&amp;" = class(TInterfacedObject, "&amp;G51&amp;")", "  "&amp;H51&amp;" = class(T"&amp;M51&amp;C51&amp;", "&amp;G51&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBKeywordPage = class(TTMDBPage, ITMDBKeywordPage)</v>
       </c>
       <c r="M51" s="8" t="s">
@@ -7923,27 +7914,27 @@
         <v>375</v>
       </c>
       <c r="G52" s="8" t="str">
-        <f>"I"&amp;M52&amp;B52</f>
+        <f t="shared" si="12"/>
         <v>ITMDBKeywordDetail</v>
       </c>
       <c r="H52" s="8" t="str">
-        <f>"T"&amp;M52&amp;B52</f>
+        <f t="shared" si="13"/>
         <v>TTMDBKeywordDetail</v>
       </c>
       <c r="I52" s="8" t="str">
-        <f>"  "&amp;G52&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBKeywordDetail = interface;</v>
       </c>
       <c r="J52" s="8" t="str">
-        <f>"  "&amp;H52&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBKeywordDetail = class;</v>
       </c>
       <c r="K52" s="8" t="str">
-        <f>IF(C52="", "  "&amp;G52&amp;" = interface", "  "&amp;G52&amp;" = interface(I"&amp;M52&amp;C52&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBKeywordDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L52" s="8" t="str">
-        <f>IF(C52="", "  "&amp;H52&amp;" = class(TInterfacedObject, "&amp;G52&amp;")", "  "&amp;H52&amp;" = class(T"&amp;M52&amp;C52&amp;", "&amp;G52&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBKeywordDetail = class(TTMDBDetail, ITMDBKeywordDetail)</v>
       </c>
       <c r="M52" s="8" t="s">
@@ -7970,27 +7961,27 @@
         <v>375</v>
       </c>
       <c r="G53" s="8" t="str">
-        <f>"I"&amp;M53&amp;B53</f>
+        <f t="shared" si="12"/>
         <v>ITMDBLanguage</v>
       </c>
       <c r="H53" s="8" t="str">
-        <f>"T"&amp;M53&amp;B53</f>
+        <f t="shared" si="13"/>
         <v>TTMDBLanguage</v>
       </c>
       <c r="I53" s="8" t="str">
-        <f>"  "&amp;G53&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBLanguage = interface;</v>
       </c>
       <c r="J53" s="8" t="str">
-        <f>"  "&amp;H53&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBLanguage = class;</v>
       </c>
       <c r="K53" s="8" t="str">
-        <f>IF(C53="", "  "&amp;G53&amp;" = interface", "  "&amp;G53&amp;" = interface(I"&amp;M53&amp;C53&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBLanguage = interface(ITMDBItem)</v>
       </c>
       <c r="L53" s="8" t="str">
-        <f>IF(C53="", "  "&amp;H53&amp;" = class(TInterfacedObject, "&amp;G53&amp;")", "  "&amp;H53&amp;" = class(T"&amp;M53&amp;C53&amp;", "&amp;G53&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBLanguage = class(TTMDBItem, ITMDBLanguage)</v>
       </c>
       <c r="M53" s="8" t="s">
@@ -8017,27 +8008,27 @@
         <v>375</v>
       </c>
       <c r="G54" s="8" t="str">
-        <f>"I"&amp;M54&amp;B54</f>
+        <f t="shared" si="12"/>
         <v>ITMDBLanguages</v>
       </c>
       <c r="H54" s="8" t="str">
-        <f>"T"&amp;M54&amp;B54</f>
+        <f t="shared" si="13"/>
         <v>TTMDBLanguages</v>
       </c>
       <c r="I54" s="8" t="str">
-        <f>"  "&amp;G54&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBLanguages = interface;</v>
       </c>
       <c r="J54" s="8" t="str">
-        <f>"  "&amp;H54&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBLanguages = class;</v>
       </c>
       <c r="K54" s="8" t="str">
-        <f>IF(C54="", "  "&amp;G54&amp;" = interface", "  "&amp;G54&amp;" = interface(I"&amp;M54&amp;C54&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBLanguages = interface(ITMDBItems)</v>
       </c>
       <c r="L54" s="8" t="str">
-        <f>IF(C54="", "  "&amp;H54&amp;" = class(TInterfacedObject, "&amp;G54&amp;")", "  "&amp;H54&amp;" = class(T"&amp;M54&amp;C54&amp;", "&amp;G54&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBLanguages = class(TTMDBItems, ITMDBLanguages)</v>
       </c>
       <c r="M54" s="8" t="s">
@@ -8064,27 +8055,27 @@
         <v>375</v>
       </c>
       <c r="G55" s="8" t="str">
-        <f>"I"&amp;M55&amp;B55</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTVNetwork</v>
       </c>
       <c r="H55" s="8" t="str">
-        <f>"T"&amp;M55&amp;B55</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTVNetwork</v>
       </c>
       <c r="I55" s="8" t="str">
-        <f>"  "&amp;G55&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTVNetwork = interface;</v>
       </c>
       <c r="J55" s="8" t="str">
-        <f>"  "&amp;H55&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTVNetwork = class;</v>
       </c>
       <c r="K55" s="8" t="str">
-        <f>IF(C55="", "  "&amp;G55&amp;" = interface", "  "&amp;G55&amp;" = interface(I"&amp;M55&amp;C55&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBTVNetwork = interface(ITMDBItem)</v>
       </c>
       <c r="L55" s="8" t="str">
-        <f>IF(C55="", "  "&amp;H55&amp;" = class(TInterfacedObject, "&amp;G55&amp;")", "  "&amp;H55&amp;" = class(T"&amp;M55&amp;C55&amp;", "&amp;G55&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBTVNetwork = class(TTMDBItem, ITMDBTVNetwork)</v>
       </c>
       <c r="M55" s="8" t="s">
@@ -8111,27 +8102,27 @@
         <v>74</v>
       </c>
       <c r="G56" s="8" t="str">
-        <f>"I"&amp;M56&amp;B56</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTVNetworks</v>
       </c>
       <c r="H56" s="8" t="str">
-        <f>"T"&amp;M56&amp;B56</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTVNetworks</v>
       </c>
       <c r="I56" s="8" t="str">
-        <f>"  "&amp;G56&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTVNetworks = interface;</v>
       </c>
       <c r="J56" s="8" t="str">
-        <f>"  "&amp;H56&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTVNetworks = class;</v>
       </c>
       <c r="K56" s="8" t="str">
-        <f>IF(C56="", "  "&amp;G56&amp;" = interface", "  "&amp;G56&amp;" = interface(I"&amp;M56&amp;C56&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBTVNetworks = interface(ITMDBItems)</v>
       </c>
       <c r="L56" s="8" t="str">
-        <f>IF(C56="", "  "&amp;H56&amp;" = class(TInterfacedObject, "&amp;G56&amp;")", "  "&amp;H56&amp;" = class(T"&amp;M56&amp;C56&amp;", "&amp;G56&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBTVNetworks = class(TTMDBItems, ITMDBTVNetworks)</v>
       </c>
       <c r="M56" s="8" t="s">
@@ -8158,27 +8149,27 @@
         <v>74</v>
       </c>
       <c r="G57" s="8" t="str">
-        <f>"I"&amp;M57&amp;B57</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTVNetworkDetail</v>
       </c>
       <c r="H57" s="8" t="str">
-        <f>"T"&amp;M57&amp;B57</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTVNetworkDetail</v>
       </c>
       <c r="I57" s="8" t="str">
-        <f>"  "&amp;G57&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTVNetworkDetail = interface;</v>
       </c>
       <c r="J57" s="8" t="str">
-        <f>"  "&amp;H57&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTVNetworkDetail = class;</v>
       </c>
       <c r="K57" s="8" t="str">
-        <f>IF(C57="", "  "&amp;G57&amp;" = interface", "  "&amp;G57&amp;" = interface(I"&amp;M57&amp;C57&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBTVNetworkDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L57" s="8" t="str">
-        <f>IF(C57="", "  "&amp;H57&amp;" = class(TInterfacedObject, "&amp;G57&amp;")", "  "&amp;H57&amp;" = class(T"&amp;M57&amp;C57&amp;", "&amp;G57&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBTVNetworkDetail = class(TTMDBDetail, ITMDBTVNetworkDetail)</v>
       </c>
       <c r="M57" s="8" t="s">
@@ -8205,27 +8196,27 @@
         <v>74</v>
       </c>
       <c r="G58" s="8" t="str">
-        <f>"I"&amp;M58&amp;B58</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTimezone</v>
       </c>
       <c r="H58" s="8" t="str">
-        <f>"T"&amp;M58&amp;B58</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTimezone</v>
       </c>
       <c r="I58" s="8" t="str">
-        <f>"  "&amp;G58&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTimezone = interface;</v>
       </c>
       <c r="J58" s="8" t="str">
-        <f>"  "&amp;H58&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTimezone = class;</v>
       </c>
       <c r="K58" s="8" t="str">
-        <f>IF(C58="", "  "&amp;G58&amp;" = interface", "  "&amp;G58&amp;" = interface(I"&amp;M58&amp;C58&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBTimezone = interface(ITMDBItem)</v>
       </c>
       <c r="L58" s="8" t="str">
-        <f>IF(C58="", "  "&amp;H58&amp;" = class(TInterfacedObject, "&amp;G58&amp;")", "  "&amp;H58&amp;" = class(T"&amp;M58&amp;C58&amp;", "&amp;G58&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBTimezone = class(TTMDBItem, ITMDBTimezone)</v>
       </c>
       <c r="M58" s="8" t="s">
@@ -8252,27 +8243,27 @@
         <v>74</v>
       </c>
       <c r="G59" s="8" t="str">
-        <f>"I"&amp;M59&amp;B59</f>
+        <f t="shared" si="12"/>
         <v>ITMDBTimezones</v>
       </c>
       <c r="H59" s="8" t="str">
-        <f>"T"&amp;M59&amp;B59</f>
+        <f t="shared" si="13"/>
         <v>TTMDBTimezones</v>
       </c>
       <c r="I59" s="8" t="str">
-        <f>"  "&amp;G59&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBTimezones = interface;</v>
       </c>
       <c r="J59" s="8" t="str">
-        <f>"  "&amp;H59&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBTimezones = class;</v>
       </c>
       <c r="K59" s="8" t="str">
-        <f>IF(C59="", "  "&amp;G59&amp;" = interface", "  "&amp;G59&amp;" = interface(I"&amp;M59&amp;C59&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBTimezones = interface(ITMDBItems)</v>
       </c>
       <c r="L59" s="8" t="str">
-        <f>IF(C59="", "  "&amp;H59&amp;" = class(TInterfacedObject, "&amp;G59&amp;")", "  "&amp;H59&amp;" = class(T"&amp;M59&amp;C59&amp;", "&amp;G59&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBTimezones = class(TTMDBItems, ITMDBTimezones)</v>
       </c>
       <c r="M59" s="8" t="s">
@@ -8296,27 +8287,27 @@
         <v>254</v>
       </c>
       <c r="G60" s="8" t="str">
-        <f>"I"&amp;M60&amp;B60</f>
+        <f t="shared" si="12"/>
         <v>ITMDBReleaseDate</v>
       </c>
       <c r="H60" s="8" t="str">
-        <f>"T"&amp;M60&amp;B60</f>
+        <f t="shared" si="13"/>
         <v>TTMDBReleaseDate</v>
       </c>
       <c r="I60" s="8" t="str">
-        <f>"  "&amp;G60&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBReleaseDate = interface;</v>
       </c>
       <c r="J60" s="8" t="str">
-        <f>"  "&amp;H60&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBReleaseDate = class;</v>
       </c>
       <c r="K60" s="8" t="str">
-        <f>IF(C60="", "  "&amp;G60&amp;" = interface", "  "&amp;G60&amp;" = interface(I"&amp;M60&amp;C60&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBReleaseDate = interface</v>
       </c>
       <c r="L60" s="8" t="str">
-        <f>IF(C60="", "  "&amp;H60&amp;" = class(TInterfacedObject, "&amp;G60&amp;")", "  "&amp;H60&amp;" = class(T"&amp;M60&amp;C60&amp;", "&amp;G60&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBReleaseDate = class(TInterfacedObject, ITMDBReleaseDate)</v>
       </c>
       <c r="M60" s="8" t="s">
@@ -8340,27 +8331,27 @@
         <v>254</v>
       </c>
       <c r="G61" s="8" t="str">
-        <f>"I"&amp;M61&amp;B61</f>
+        <f t="shared" si="12"/>
         <v>ITMDBReleaseDateCountry</v>
       </c>
       <c r="H61" s="8" t="str">
-        <f>"T"&amp;M61&amp;B61</f>
+        <f t="shared" si="13"/>
         <v>TTMDBReleaseDateCountry</v>
       </c>
       <c r="I61" s="8" t="str">
-        <f>"  "&amp;G61&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBReleaseDateCountry = interface;</v>
       </c>
       <c r="J61" s="8" t="str">
-        <f>"  "&amp;H61&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBReleaseDateCountry = class;</v>
       </c>
       <c r="K61" s="8" t="str">
-        <f>IF(C61="", "  "&amp;G61&amp;" = interface", "  "&amp;G61&amp;" = interface(I"&amp;M61&amp;C61&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBReleaseDateCountry = interface</v>
       </c>
       <c r="L61" s="8" t="str">
-        <f>IF(C61="", "  "&amp;H61&amp;" = class(TInterfacedObject, "&amp;G61&amp;")", "  "&amp;H61&amp;" = class(T"&amp;M61&amp;C61&amp;", "&amp;G61&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBReleaseDateCountry = class(TInterfacedObject, ITMDBReleaseDateCountry)</v>
       </c>
       <c r="M61" s="8" t="s">
@@ -8384,27 +8375,27 @@
         <v>254</v>
       </c>
       <c r="G62" s="8" t="str">
-        <f>"I"&amp;M62&amp;B62</f>
+        <f t="shared" si="12"/>
         <v>ITMDBReleaseDateCountries</v>
       </c>
       <c r="H62" s="8" t="str">
-        <f>"T"&amp;M62&amp;B62</f>
+        <f t="shared" si="13"/>
         <v>TTMDBReleaseDateCountries</v>
       </c>
       <c r="I62" s="8" t="str">
-        <f>"  "&amp;G62&amp;" = interface;"</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">  ITMDBReleaseDateCountries = interface;</v>
       </c>
       <c r="J62" s="8" t="str">
-        <f>"  "&amp;H62&amp;" = class;"</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">  TTMDBReleaseDateCountries = class;</v>
       </c>
       <c r="K62" s="8" t="str">
-        <f>IF(C62="", "  "&amp;G62&amp;" = interface", "  "&amp;G62&amp;" = interface(I"&amp;M62&amp;C62&amp;")")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">  ITMDBReleaseDateCountries = interface</v>
       </c>
       <c r="L62" s="8" t="str">
-        <f>IF(C62="", "  "&amp;H62&amp;" = class(TInterfacedObject, "&amp;G62&amp;")", "  "&amp;H62&amp;" = class(T"&amp;M62&amp;C62&amp;", "&amp;G62&amp;")")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  TTMDBReleaseDateCountries = class(TInterfacedObject, ITMDBReleaseDateCountries)</v>
       </c>
       <c r="M62" s="8" t="s">
@@ -8475,11 +8466,11 @@
         <v>74</v>
       </c>
       <c r="G64" s="8" t="str">
-        <f t="shared" ref="G64:G77" si="12">"I"&amp;M64&amp;B64</f>
+        <f t="shared" ref="G64:G77" si="18">"I"&amp;M64&amp;B64</f>
         <v>ITMDBMovieTranslationData</v>
       </c>
       <c r="H64" s="8" t="str">
-        <f t="shared" ref="H64:H77" si="13">"T"&amp;M64&amp;B64</f>
+        <f t="shared" ref="H64:H77" si="19">"T"&amp;M64&amp;B64</f>
         <v>TTMDBMovieTranslationData</v>
       </c>
       <c r="I64" s="8" t="str">
@@ -8491,11 +8482,11 @@
         <v xml:space="preserve">  TTMDBMovieTranslationData = class;</v>
       </c>
       <c r="K64" s="8" t="str">
-        <f t="shared" ref="K64:K77" si="14">IF(C64="", "  "&amp;G64&amp;" = interface", "  "&amp;G64&amp;" = interface(I"&amp;M64&amp;C64&amp;")")</f>
+        <f t="shared" ref="K64:K77" si="20">IF(C64="", "  "&amp;G64&amp;" = interface", "  "&amp;G64&amp;" = interface(I"&amp;M64&amp;C64&amp;")")</f>
         <v xml:space="preserve">  ITMDBMovieTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L64" s="8" t="str">
-        <f t="shared" ref="L64:L77" si="15">IF(C64="", "  "&amp;H64&amp;" = class(TInterfacedObject, "&amp;G64&amp;")", "  "&amp;H64&amp;" = class(T"&amp;M64&amp;C64&amp;", "&amp;G64&amp;")")</f>
+        <f t="shared" ref="L64:L77" si="21">IF(C64="", "  "&amp;H64&amp;" = class(TInterfacedObject, "&amp;G64&amp;")", "  "&amp;H64&amp;" = class(T"&amp;M64&amp;C64&amp;", "&amp;G64&amp;")")</f>
         <v xml:space="preserve">  TTMDBMovieTranslationData = class(TTMDBTranslationData, ITMDBMovieTranslationData)</v>
       </c>
       <c r="M64" s="8" t="s">
@@ -8522,11 +8513,11 @@
         <v>74</v>
       </c>
       <c r="G65" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBCollectionTranslationData</v>
       </c>
       <c r="H65" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBCollectionTranslationData</v>
       </c>
       <c r="I65" s="8" t="str">
@@ -8538,11 +8529,11 @@
         <v xml:space="preserve">  TTMDBCollectionTranslationData = class;</v>
       </c>
       <c r="K65" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBCollectionTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L65" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBCollectionTranslationData = class(TTMDBTranslationData, ITMDBCollectionTranslationData)</v>
       </c>
       <c r="M65" s="8" t="s">
@@ -8569,11 +8560,11 @@
         <v>74</v>
       </c>
       <c r="G66" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBPersonTranslationData</v>
       </c>
       <c r="H66" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBPersonTranslationData</v>
       </c>
       <c r="I66" s="8" t="str">
@@ -8585,11 +8576,11 @@
         <v xml:space="preserve">  TTMDBPersonTranslationData = class;</v>
       </c>
       <c r="K66" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBPersonTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L66" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBPersonTranslationData = class(TTMDBTranslationData, ITMDBPersonTranslationData)</v>
       </c>
       <c r="M66" s="8" t="s">
@@ -8616,11 +8607,11 @@
         <v>74</v>
       </c>
       <c r="G67" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBTVSeriesTranslationData</v>
       </c>
       <c r="H67" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBTVSeriesTranslationData</v>
       </c>
       <c r="I67" s="8" t="str">
@@ -8632,11 +8623,11 @@
         <v xml:space="preserve">  TTMDBTVSeriesTranslationData = class;</v>
       </c>
       <c r="K67" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBTVSeriesTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L67" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBTVSeriesTranslationData = class(TTMDBTranslationData, ITMDBTVSeriesTranslationData)</v>
       </c>
       <c r="M67" s="8" t="s">
@@ -8663,11 +8654,11 @@
         <v>74</v>
       </c>
       <c r="G68" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBTVSeasonTranslationData</v>
       </c>
       <c r="H68" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBTVSeasonTranslationData</v>
       </c>
       <c r="I68" s="8" t="str">
@@ -8679,11 +8670,11 @@
         <v xml:space="preserve">  TTMDBTVSeasonTranslationData = class;</v>
       </c>
       <c r="K68" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBTVSeasonTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L68" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBTVSeasonTranslationData = class(TTMDBTranslationData, ITMDBTVSeasonTranslationData)</v>
       </c>
       <c r="M68" s="8" t="s">
@@ -8710,11 +8701,11 @@
         <v>74</v>
       </c>
       <c r="G69" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBTVEpisodeTranslationData</v>
       </c>
       <c r="H69" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBTVEpisodeTranslationData</v>
       </c>
       <c r="I69" s="8" t="str">
@@ -8726,11 +8717,11 @@
         <v xml:space="preserve">  TTMDBTVEpisodeTranslationData = class;</v>
       </c>
       <c r="K69" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBTVEpisodeTranslationData = interface(ITMDBTranslationData)</v>
       </c>
       <c r="L69" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBTVEpisodeTranslationData = class(TTMDBTranslationData, ITMDBTVEpisodeTranslationData)</v>
       </c>
       <c r="M69" s="8" t="s">
@@ -8757,11 +8748,11 @@
         <v>74</v>
       </c>
       <c r="G70" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBTranslation</v>
       </c>
       <c r="H70" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBTranslation</v>
       </c>
       <c r="I70" s="8" t="str">
@@ -8773,11 +8764,11 @@
         <v xml:space="preserve">  TTMDBTranslation = class;</v>
       </c>
       <c r="K70" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBTranslation = interface(ITMDBItem)</v>
       </c>
       <c r="L70" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBTranslation = class(TTMDBItem, ITMDBTranslation)</v>
       </c>
       <c r="M70" s="8" t="s">
@@ -8804,11 +8795,11 @@
         <v>74</v>
       </c>
       <c r="G71" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBTranslations</v>
       </c>
       <c r="H71" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBTranslations</v>
       </c>
       <c r="I71" s="8" t="str">
@@ -8820,11 +8811,11 @@
         <v xml:space="preserve">  TTMDBTranslations = class;</v>
       </c>
       <c r="K71" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBTranslations = interface(ITMDBItems)</v>
       </c>
       <c r="L71" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBTranslations = class(TTMDBItems, ITMDBTranslations)</v>
       </c>
       <c r="M71" s="8" t="s">
@@ -8945,11 +8936,11 @@
         <v>375</v>
       </c>
       <c r="G74" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBCollection</v>
       </c>
       <c r="H74" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBCollection</v>
       </c>
       <c r="I74" s="8" t="str">
@@ -8961,11 +8952,11 @@
         <v xml:space="preserve">  TTMDBCollection = class;</v>
       </c>
       <c r="K74" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBCollection = interface(ITMDBItem)</v>
       </c>
       <c r="L74" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBCollection = class(TTMDBItem, ITMDBCollection)</v>
       </c>
       <c r="M74" s="8" t="s">
@@ -8992,11 +8983,11 @@
         <v>375</v>
       </c>
       <c r="G75" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBCollections</v>
       </c>
       <c r="H75" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBCollections</v>
       </c>
       <c r="I75" s="8" t="str">
@@ -9008,11 +8999,11 @@
         <v xml:space="preserve">  TTMDBCollections = class;</v>
       </c>
       <c r="K75" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBCollections = interface(ITMDBItems)</v>
       </c>
       <c r="L75" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBCollections = class(TTMDBItems, ITMDBCollections)</v>
       </c>
       <c r="M75" s="8" t="s">
@@ -9039,11 +9030,11 @@
         <v>375</v>
       </c>
       <c r="G76" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBCollectionPage</v>
       </c>
       <c r="H76" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBCollectionPage</v>
       </c>
       <c r="I76" s="8" t="str">
@@ -9055,11 +9046,11 @@
         <v xml:space="preserve">  TTMDBCollectionPage = class;</v>
       </c>
       <c r="K76" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBCollectionPage = interface(ITMDBPage)</v>
       </c>
       <c r="L76" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBCollectionPage = class(TTMDBPage, ITMDBCollectionPage)</v>
       </c>
       <c r="M76" s="8" t="s">
@@ -9086,11 +9077,11 @@
         <v>375</v>
       </c>
       <c r="G77" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ITMDBCollectionDetail</v>
       </c>
       <c r="H77" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TTMDBCollectionDetail</v>
       </c>
       <c r="I77" s="8" t="str">
@@ -9102,11 +9093,11 @@
         <v xml:space="preserve">  TTMDBCollectionDetail = class;</v>
       </c>
       <c r="K77" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  ITMDBCollectionDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L77" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  TTMDBCollectionDetail = class(TTMDBDetail, ITMDBCollectionDetail)</v>
       </c>
       <c r="M77" s="8" t="s">
@@ -9130,27 +9121,27 @@
         <v>74</v>
       </c>
       <c r="G78" s="8" t="str">
-        <f t="shared" ref="G78" si="16">"I"&amp;M78&amp;B78</f>
+        <f t="shared" ref="G78" si="22">"I"&amp;M78&amp;B78</f>
         <v>ITMDBRatingResult</v>
       </c>
       <c r="H78" s="8" t="str">
-        <f t="shared" ref="H78" si="17">"T"&amp;M78&amp;B78</f>
+        <f t="shared" ref="H78" si="23">"T"&amp;M78&amp;B78</f>
         <v>TTMDBRatingResult</v>
       </c>
       <c r="I78" s="8" t="str">
-        <f t="shared" ref="I78" si="18">"  "&amp;G78&amp;" = interface;"</f>
+        <f t="shared" ref="I78" si="24">"  "&amp;G78&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBRatingResult = interface;</v>
       </c>
       <c r="J78" s="8" t="str">
-        <f t="shared" ref="J78" si="19">"  "&amp;H78&amp;" = class;"</f>
+        <f t="shared" ref="J78" si="25">"  "&amp;H78&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBRatingResult = class;</v>
       </c>
       <c r="K78" s="8" t="str">
-        <f t="shared" ref="K78" si="20">IF(C78="", "  "&amp;G78&amp;" = interface", "  "&amp;G78&amp;" = interface(I"&amp;M78&amp;C78&amp;")")</f>
+        <f t="shared" ref="K78" si="26">IF(C78="", "  "&amp;G78&amp;" = interface", "  "&amp;G78&amp;" = interface(I"&amp;M78&amp;C78&amp;")")</f>
         <v xml:space="preserve">  ITMDBRatingResult = interface</v>
       </c>
       <c r="L78" s="8" t="str">
-        <f t="shared" ref="L78" si="21">IF(C78="", "  "&amp;H78&amp;" = class(TInterfacedObject, "&amp;G78&amp;")", "  "&amp;H78&amp;" = class(T"&amp;M78&amp;C78&amp;", "&amp;G78&amp;")")</f>
+        <f t="shared" ref="L78" si="27">IF(C78="", "  "&amp;H78&amp;" = class(TInterfacedObject, "&amp;G78&amp;")", "  "&amp;H78&amp;" = class(T"&amp;M78&amp;C78&amp;", "&amp;G78&amp;")")</f>
         <v xml:space="preserve">  TTMDBRatingResult = class(TInterfacedObject, ITMDBRatingResult)</v>
       </c>
       <c r="M78" s="8" t="s">
@@ -9309,27 +9300,27 @@
         <v>253</v>
       </c>
       <c r="G82" s="8" t="str">
-        <f t="shared" ref="G82:G126" si="22">"I"&amp;M82&amp;B82</f>
+        <f t="shared" ref="G82:G126" si="28">"I"&amp;M82&amp;B82</f>
         <v>ITMDBPerson</v>
       </c>
       <c r="H82" s="8" t="str">
-        <f t="shared" ref="H82:H126" si="23">"T"&amp;M82&amp;B82</f>
+        <f t="shared" ref="H82:H126" si="29">"T"&amp;M82&amp;B82</f>
         <v>TTMDBPerson</v>
       </c>
       <c r="I82" s="8" t="str">
-        <f t="shared" ref="I82:I147" si="24">"  "&amp;G82&amp;" = interface;"</f>
+        <f t="shared" ref="I82:I147" si="30">"  "&amp;G82&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBPerson = interface;</v>
       </c>
       <c r="J82" s="8" t="str">
-        <f t="shared" ref="J82:J147" si="25">"  "&amp;H82&amp;" = class;"</f>
+        <f t="shared" ref="J82:J147" si="31">"  "&amp;H82&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBPerson = class;</v>
       </c>
       <c r="K82" s="8" t="str">
-        <f t="shared" ref="K82:K126" si="26">IF(C82="", "  "&amp;G82&amp;" = interface", "  "&amp;G82&amp;" = interface(I"&amp;M82&amp;C82&amp;")")</f>
+        <f t="shared" ref="K82:K126" si="32">IF(C82="", "  "&amp;G82&amp;" = interface", "  "&amp;G82&amp;" = interface(I"&amp;M82&amp;C82&amp;")")</f>
         <v xml:space="preserve">  ITMDBPerson = interface(ITMDBMedium)</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" ref="L82:L126" si="27">IF(C82="", "  "&amp;H82&amp;" = class(TInterfacedObject, "&amp;G82&amp;")", "  "&amp;H82&amp;" = class(T"&amp;M82&amp;C82&amp;", "&amp;G82&amp;")")</f>
+        <f t="shared" ref="L82:L126" si="33">IF(C82="", "  "&amp;H82&amp;" = class(TInterfacedObject, "&amp;G82&amp;")", "  "&amp;H82&amp;" = class(T"&amp;M82&amp;C82&amp;", "&amp;G82&amp;")")</f>
         <v xml:space="preserve">  TTMDBPerson = class(TTMDBMedium, ITMDBPerson)</v>
       </c>
       <c r="M82" s="8" t="s">
@@ -9356,27 +9347,27 @@
         <v>253</v>
       </c>
       <c r="G83" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBPeople</v>
       </c>
       <c r="H83" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBPeople</v>
       </c>
       <c r="I83" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBPeople = interface;</v>
       </c>
       <c r="J83" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBPeople = class;</v>
       </c>
       <c r="K83" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBPeople = interface(ITMDBMedia)</v>
       </c>
       <c r="L83" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBPeople = class(TTMDBMedia, ITMDBPeople)</v>
       </c>
       <c r="M83" s="8" t="s">
@@ -9403,27 +9394,27 @@
         <v>253</v>
       </c>
       <c r="G84" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBPersonPage</v>
       </c>
       <c r="H84" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBPersonPage</v>
       </c>
       <c r="I84" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBPersonPage = interface;</v>
       </c>
       <c r="J84" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBPersonPage = class;</v>
       </c>
       <c r="K84" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBPersonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L84" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBPersonPage = class(TTMDBMediaPage, ITMDBPersonPage)</v>
       </c>
       <c r="M84" s="8" t="s">
@@ -9450,27 +9441,27 @@
         <v>74</v>
       </c>
       <c r="G85" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBPersonDetail</v>
       </c>
       <c r="H85" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBPersonDetail</v>
       </c>
       <c r="I85" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBPersonDetail = interface;</v>
       </c>
       <c r="J85" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBPersonDetail = class;</v>
       </c>
       <c r="K85" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBPersonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L85" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBPersonDetail = class(TTMDBDetail, ITMDBPersonDetail)</v>
       </c>
       <c r="M85" s="8" t="s">
@@ -9497,27 +9488,27 @@
         <v>375</v>
       </c>
       <c r="G86" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBCastPerson</v>
       </c>
       <c r="H86" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBCastPerson</v>
       </c>
       <c r="I86" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBCastPerson = interface;</v>
       </c>
       <c r="J86" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBCastPerson = class;</v>
       </c>
       <c r="K86" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBCastPerson = interface(ITMDBPerson)</v>
       </c>
       <c r="L86" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBCastPerson = class(TTMDBPerson, ITMDBCastPerson)</v>
       </c>
       <c r="M86" s="8" t="s">
@@ -9544,27 +9535,27 @@
         <v>375</v>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBCastPeople</v>
       </c>
       <c r="H87" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBCastPeople</v>
       </c>
       <c r="I87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBCastPeople = interface;</v>
       </c>
       <c r="J87" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBCastPeople = class;</v>
       </c>
       <c r="K87" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBCastPeople = interface(ITMDBPeople)</v>
       </c>
       <c r="L87" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBCastPeople = class(TTMDBPeople, ITMDBCastPeople)</v>
       </c>
       <c r="M87" s="8" t="s">
@@ -9591,27 +9582,27 @@
         <v>375</v>
       </c>
       <c r="G88" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBCrewPerson</v>
       </c>
       <c r="H88" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBCrewPerson</v>
       </c>
       <c r="I88" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBCrewPerson = interface;</v>
       </c>
       <c r="J88" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBCrewPerson = class;</v>
       </c>
       <c r="K88" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBCrewPerson = interface(ITMDBPerson)</v>
       </c>
       <c r="L88" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBCrewPerson = class(TTMDBPerson, ITMDBCrewPerson)</v>
       </c>
       <c r="M88" s="8" t="s">
@@ -9638,27 +9629,27 @@
         <v>375</v>
       </c>
       <c r="G89" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBCrewPeople</v>
       </c>
       <c r="H89" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBCrewPeople</v>
       </c>
       <c r="I89" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBCrewPeople = interface;</v>
       </c>
       <c r="J89" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBCrewPeople = class;</v>
       </c>
       <c r="K89" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBCrewPeople = interface(ITMDBPeople)</v>
       </c>
       <c r="L89" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBCrewPeople = class(TTMDBPeople, ITMDBCrewPeople)</v>
       </c>
       <c r="M89" s="8" t="s">
@@ -9682,27 +9673,27 @@
         <v>375</v>
       </c>
       <c r="G90" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBCredits</v>
       </c>
       <c r="H90" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBCredits</v>
       </c>
       <c r="I90" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBCredits = interface;</v>
       </c>
       <c r="J90" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBCredits = class;</v>
       </c>
       <c r="K90" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBCredits = interface</v>
       </c>
       <c r="L90" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBCredits = class(TInterfacedObject, ITMDBCredits)</v>
       </c>
       <c r="M90" s="8" t="s">
@@ -9726,27 +9717,27 @@
         <v>74</v>
       </c>
       <c r="G91" s="8" t="str">
-        <f t="shared" ref="G91:G100" si="28">"I"&amp;M91&amp;B91</f>
+        <f t="shared" ref="G91:G100" si="34">"I"&amp;M91&amp;B91</f>
         <v>ITMDBCreditDetail</v>
       </c>
       <c r="H91" s="8" t="str">
-        <f t="shared" ref="H91:H100" si="29">"T"&amp;M91&amp;B91</f>
+        <f t="shared" ref="H91:H100" si="35">"T"&amp;M91&amp;B91</f>
         <v>TTMDBCreditDetail</v>
       </c>
       <c r="I91" s="8" t="str">
-        <f t="shared" ref="I91:I100" si="30">"  "&amp;G91&amp;" = interface;"</f>
+        <f t="shared" ref="I91:I100" si="36">"  "&amp;G91&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBCreditDetail = interface;</v>
       </c>
       <c r="J91" s="8" t="str">
-        <f t="shared" ref="J91:J100" si="31">"  "&amp;H91&amp;" = class;"</f>
+        <f t="shared" ref="J91:J100" si="37">"  "&amp;H91&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBCreditDetail = class;</v>
       </c>
       <c r="K91" s="8" t="str">
-        <f t="shared" ref="K91:K100" si="32">IF(C91="", "  "&amp;G91&amp;" = interface", "  "&amp;G91&amp;" = interface(I"&amp;M91&amp;C91&amp;")")</f>
+        <f t="shared" ref="K91:K100" si="38">IF(C91="", "  "&amp;G91&amp;" = interface", "  "&amp;G91&amp;" = interface(I"&amp;M91&amp;C91&amp;")")</f>
         <v xml:space="preserve">  ITMDBCreditDetail = interface</v>
       </c>
       <c r="L91" s="8" t="str">
-        <f t="shared" ref="L91:L100" si="33">IF(C91="", "  "&amp;H91&amp;" = class(TInterfacedObject, "&amp;G91&amp;")", "  "&amp;H91&amp;" = class(T"&amp;M91&amp;C91&amp;", "&amp;G91&amp;")")</f>
+        <f t="shared" ref="L91:L100" si="39">IF(C91="", "  "&amp;H91&amp;" = class(TInterfacedObject, "&amp;G91&amp;")", "  "&amp;H91&amp;" = class(T"&amp;M91&amp;C91&amp;", "&amp;G91&amp;")")</f>
         <v xml:space="preserve">  TTMDBCreditDetail = class(TInterfacedObject, ITMDBCreditDetail)</v>
       </c>
       <c r="M91" s="8" t="s">
@@ -9773,27 +9764,27 @@
         <v>74</v>
       </c>
       <c r="G92" s="8" t="str">
-        <f t="shared" ref="G92:G93" si="34">"I"&amp;M92&amp;B92</f>
+        <f t="shared" ref="G92:G93" si="40">"I"&amp;M92&amp;B92</f>
         <v>ITMDBCreditRole</v>
       </c>
       <c r="H92" s="8" t="str">
-        <f t="shared" ref="H92:H93" si="35">"T"&amp;M92&amp;B92</f>
+        <f t="shared" ref="H92:H93" si="41">"T"&amp;M92&amp;B92</f>
         <v>TTMDBCreditRole</v>
       </c>
       <c r="I92" s="8" t="str">
-        <f t="shared" ref="I92:I93" si="36">"  "&amp;G92&amp;" = interface;"</f>
+        <f t="shared" ref="I92:I93" si="42">"  "&amp;G92&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBCreditRole = interface;</v>
       </c>
       <c r="J92" s="8" t="str">
-        <f t="shared" ref="J92:J93" si="37">"  "&amp;H92&amp;" = class;"</f>
+        <f t="shared" ref="J92:J93" si="43">"  "&amp;H92&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBCreditRole = class;</v>
       </c>
       <c r="K92" s="8" t="str">
-        <f t="shared" ref="K92:K93" si="38">IF(C92="", "  "&amp;G92&amp;" = interface", "  "&amp;G92&amp;" = interface(I"&amp;M92&amp;C92&amp;")")</f>
+        <f t="shared" ref="K92:K93" si="44">IF(C92="", "  "&amp;G92&amp;" = interface", "  "&amp;G92&amp;" = interface(I"&amp;M92&amp;C92&amp;")")</f>
         <v xml:space="preserve">  ITMDBCreditRole = interface(ITMDBItem)</v>
       </c>
       <c r="L92" s="8" t="str">
-        <f t="shared" ref="L92:L93" si="39">IF(C92="", "  "&amp;H92&amp;" = class(TInterfacedObject, "&amp;G92&amp;")", "  "&amp;H92&amp;" = class(T"&amp;M92&amp;C92&amp;", "&amp;G92&amp;")")</f>
+        <f t="shared" ref="L92:L93" si="45">IF(C92="", "  "&amp;H92&amp;" = class(TInterfacedObject, "&amp;G92&amp;")", "  "&amp;H92&amp;" = class(T"&amp;M92&amp;C92&amp;", "&amp;G92&amp;")")</f>
         <v xml:space="preserve">  TTMDBCreditRole = class(TTMDBItem, ITMDBCreditRole)</v>
       </c>
       <c r="M92" s="8" t="s">
@@ -9820,27 +9811,27 @@
         <v>74</v>
       </c>
       <c r="G93" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>ITMDBCreditRoles</v>
       </c>
       <c r="H93" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>TTMDBCreditRoles</v>
       </c>
       <c r="I93" s="8" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">  ITMDBCreditRoles = interface;</v>
       </c>
       <c r="J93" s="8" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v xml:space="preserve">  TTMDBCreditRoles = class;</v>
       </c>
       <c r="K93" s="8" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v xml:space="preserve">  ITMDBCreditRoles = interface(ITMDBItems)</v>
       </c>
       <c r="L93" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">  TTMDBCreditRoles = class(TTMDBItems, ITMDBCreditRoles)</v>
       </c>
       <c r="M93" s="8" t="s">
@@ -9867,27 +9858,27 @@
         <v>74</v>
       </c>
       <c r="G94" s="8" t="str">
-        <f t="shared" ref="G94:G95" si="40">"I"&amp;M94&amp;B94</f>
+        <f t="shared" ref="G94:G95" si="46">"I"&amp;M94&amp;B94</f>
         <v>ITMDBCreditJob</v>
       </c>
       <c r="H94" s="8" t="str">
-        <f t="shared" ref="H94:H95" si="41">"T"&amp;M94&amp;B94</f>
+        <f t="shared" ref="H94:H95" si="47">"T"&amp;M94&amp;B94</f>
         <v>TTMDBCreditJob</v>
       </c>
       <c r="I94" s="8" t="str">
-        <f t="shared" ref="I94:I95" si="42">"  "&amp;G94&amp;" = interface;"</f>
+        <f t="shared" ref="I94:I95" si="48">"  "&amp;G94&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBCreditJob = interface;</v>
       </c>
       <c r="J94" s="8" t="str">
-        <f t="shared" ref="J94:J95" si="43">"  "&amp;H94&amp;" = class;"</f>
+        <f t="shared" ref="J94:J95" si="49">"  "&amp;H94&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBCreditJob = class;</v>
       </c>
       <c r="K94" s="8" t="str">
-        <f t="shared" ref="K94:K95" si="44">IF(C94="", "  "&amp;G94&amp;" = interface", "  "&amp;G94&amp;" = interface(I"&amp;M94&amp;C94&amp;")")</f>
+        <f t="shared" ref="K94:K95" si="50">IF(C94="", "  "&amp;G94&amp;" = interface", "  "&amp;G94&amp;" = interface(I"&amp;M94&amp;C94&amp;")")</f>
         <v xml:space="preserve">  ITMDBCreditJob = interface(ITMDBItem)</v>
       </c>
       <c r="L94" s="8" t="str">
-        <f t="shared" ref="L94:L95" si="45">IF(C94="", "  "&amp;H94&amp;" = class(TInterfacedObject, "&amp;G94&amp;")", "  "&amp;H94&amp;" = class(T"&amp;M94&amp;C94&amp;", "&amp;G94&amp;")")</f>
+        <f t="shared" ref="L94:L95" si="51">IF(C94="", "  "&amp;H94&amp;" = class(TInterfacedObject, "&amp;G94&amp;")", "  "&amp;H94&amp;" = class(T"&amp;M94&amp;C94&amp;", "&amp;G94&amp;")")</f>
         <v xml:space="preserve">  TTMDBCreditJob = class(TTMDBItem, ITMDBCreditJob)</v>
       </c>
       <c r="M94" s="8" t="s">
@@ -9914,27 +9905,27 @@
         <v>74</v>
       </c>
       <c r="G95" s="8" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>ITMDBCreditJobs</v>
       </c>
       <c r="H95" s="8" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>TTMDBCreditJobs</v>
       </c>
       <c r="I95" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve">  ITMDBCreditJobs = interface;</v>
       </c>
       <c r="J95" s="8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve">  TTMDBCreditJobs = class;</v>
       </c>
       <c r="K95" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">  ITMDBCreditJobs = interface(ITMDBItems)</v>
       </c>
       <c r="L95" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">  TTMDBCreditJobs = class(TTMDBItems, ITMDBCreditJobs)</v>
       </c>
       <c r="M95" s="8" t="s">
@@ -9961,27 +9952,27 @@
         <v>74</v>
       </c>
       <c r="G96" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>ITMDBAggregateCastPerson</v>
       </c>
       <c r="H96" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>TTMDBAggregateCastPerson</v>
       </c>
       <c r="I96" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDBAggregateCastPerson = interface;</v>
       </c>
       <c r="J96" s="8" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDBAggregateCastPerson = class;</v>
       </c>
       <c r="K96" s="8" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">  ITMDBAggregateCastPerson = interface(ITMDBCastPerson)</v>
       </c>
       <c r="L96" s="8" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDBAggregateCastPerson = class(TTMDBCastPerson, ITMDBAggregateCastPerson)</v>
       </c>
       <c r="M96" s="8" t="s">
@@ -10008,27 +9999,27 @@
         <v>74</v>
       </c>
       <c r="G97" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>ITMDBAggregateCastPeople</v>
       </c>
       <c r="H97" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>TTMDBAggregateCastPeople</v>
       </c>
       <c r="I97" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDBAggregateCastPeople = interface;</v>
       </c>
       <c r="J97" s="8" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDBAggregateCastPeople = class;</v>
       </c>
       <c r="K97" s="8" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">  ITMDBAggregateCastPeople = interface(ITMDBCastPeople)</v>
       </c>
       <c r="L97" s="8" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDBAggregateCastPeople = class(TTMDBCastPeople, ITMDBAggregateCastPeople)</v>
       </c>
       <c r="M97" s="8" t="s">
@@ -10055,27 +10046,27 @@
         <v>74</v>
       </c>
       <c r="G98" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>ITMDBAggregateCrewPerson</v>
       </c>
       <c r="H98" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>TTMDBAggregateCrewPerson</v>
       </c>
       <c r="I98" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDBAggregateCrewPerson = interface;</v>
       </c>
       <c r="J98" s="8" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDBAggregateCrewPerson = class;</v>
       </c>
       <c r="K98" s="8" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">  ITMDBAggregateCrewPerson = interface(ITMDBCrewPerson)</v>
       </c>
       <c r="L98" s="8" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDBAggregateCrewPerson = class(TTMDBCrewPerson, ITMDBAggregateCrewPerson)</v>
       </c>
       <c r="M98" s="8" t="s">
@@ -10102,27 +10093,27 @@
         <v>74</v>
       </c>
       <c r="G99" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>ITMDBAggregateCrewPeople</v>
       </c>
       <c r="H99" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>TTMDBAggregateCrewPeople</v>
       </c>
       <c r="I99" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDBAggregateCrewPeople = interface;</v>
       </c>
       <c r="J99" s="8" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDBAggregateCrewPeople = class;</v>
       </c>
       <c r="K99" s="8" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">  ITMDBAggregateCrewPeople = interface(ITMDBCrewPeople)</v>
       </c>
       <c r="L99" s="8" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDBAggregateCrewPeople = class(TTMDBCrewPeople, ITMDBAggregateCrewPeople)</v>
       </c>
       <c r="M99" s="8" t="s">
@@ -10146,27 +10137,27 @@
         <v>74</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>ITMDBAggregateCredits</v>
       </c>
       <c r="H100" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>TTMDBAggregateCredits</v>
       </c>
       <c r="I100" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">  ITMDBAggregateCredits = interface;</v>
       </c>
       <c r="J100" s="8" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">  TTMDBAggregateCredits = class;</v>
       </c>
       <c r="K100" s="8" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">  ITMDBAggregateCredits = interface</v>
       </c>
       <c r="L100" s="8" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">  TTMDBAggregateCredits = class(TInterfacedObject, ITMDBAggregateCredits)</v>
       </c>
       <c r="M100" s="8" t="s">
@@ -10193,27 +10184,27 @@
         <v>74</v>
       </c>
       <c r="G101" s="8" t="str">
-        <f t="shared" ref="G101:G102" si="46">"I"&amp;M101&amp;B101</f>
+        <f t="shared" ref="G101:G102" si="52">"I"&amp;M101&amp;B101</f>
         <v>ITMDBCombinedCastCredit</v>
       </c>
       <c r="H101" s="8" t="str">
-        <f t="shared" ref="H101:H102" si="47">"T"&amp;M101&amp;B101</f>
+        <f t="shared" ref="H101:H102" si="53">"T"&amp;M101&amp;B101</f>
         <v>TTMDBCombinedCastCredit</v>
       </c>
       <c r="I101" s="8" t="str">
-        <f t="shared" ref="I101:I102" si="48">"  "&amp;G101&amp;" = interface;"</f>
+        <f t="shared" ref="I101:I102" si="54">"  "&amp;G101&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBCombinedCastCredit = interface;</v>
       </c>
       <c r="J101" s="8" t="str">
-        <f t="shared" ref="J101:J102" si="49">"  "&amp;H101&amp;" = class;"</f>
+        <f t="shared" ref="J101:J102" si="55">"  "&amp;H101&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBCombinedCastCredit = class;</v>
       </c>
       <c r="K101" s="8" t="str">
-        <f t="shared" ref="K101:K102" si="50">IF(C101="", "  "&amp;G101&amp;" = interface", "  "&amp;G101&amp;" = interface(I"&amp;M101&amp;C101&amp;")")</f>
+        <f t="shared" ref="K101:K102" si="56">IF(C101="", "  "&amp;G101&amp;" = interface", "  "&amp;G101&amp;" = interface(I"&amp;M101&amp;C101&amp;")")</f>
         <v xml:space="preserve">  ITMDBCombinedCastCredit = interface(ITMDBMedium)</v>
       </c>
       <c r="L101" s="8" t="str">
-        <f t="shared" ref="L101:L102" si="51">IF(C101="", "  "&amp;H101&amp;" = class(TInterfacedObject, "&amp;G101&amp;")", "  "&amp;H101&amp;" = class(T"&amp;M101&amp;C101&amp;", "&amp;G101&amp;")")</f>
+        <f t="shared" ref="L101:L102" si="57">IF(C101="", "  "&amp;H101&amp;" = class(TInterfacedObject, "&amp;G101&amp;")", "  "&amp;H101&amp;" = class(T"&amp;M101&amp;C101&amp;", "&amp;G101&amp;")")</f>
         <v xml:space="preserve">  TTMDBCombinedCastCredit = class(TTMDBMedium, ITMDBCombinedCastCredit)</v>
       </c>
       <c r="M101" s="8" t="s">
@@ -10240,27 +10231,27 @@
         <v>74</v>
       </c>
       <c r="G102" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>ITMDBCombinedCastCredits</v>
       </c>
       <c r="H102" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>TTMDBCombinedCastCredits</v>
       </c>
       <c r="I102" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve">  ITMDBCombinedCastCredits = interface;</v>
       </c>
       <c r="J102" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve">  TTMDBCombinedCastCredits = class;</v>
       </c>
       <c r="K102" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v xml:space="preserve">  ITMDBCombinedCastCredits = interface(ITMDBMedia)</v>
       </c>
       <c r="L102" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v xml:space="preserve">  TTMDBCombinedCastCredits = class(TTMDBMedia, ITMDBCombinedCastCredits)</v>
       </c>
       <c r="M102" s="8" t="s">
@@ -10287,27 +10278,27 @@
         <v>74</v>
       </c>
       <c r="G103" s="8" t="str">
-        <f t="shared" ref="G103:G104" si="52">"I"&amp;M103&amp;B103</f>
+        <f t="shared" ref="G103:G104" si="58">"I"&amp;M103&amp;B103</f>
         <v>ITMDBCombinedCrewCredit</v>
       </c>
       <c r="H103" s="8" t="str">
-        <f t="shared" ref="H103:H104" si="53">"T"&amp;M103&amp;B103</f>
+        <f t="shared" ref="H103:H104" si="59">"T"&amp;M103&amp;B103</f>
         <v>TTMDBCombinedCrewCredit</v>
       </c>
       <c r="I103" s="8" t="str">
-        <f t="shared" ref="I103:I104" si="54">"  "&amp;G103&amp;" = interface;"</f>
+        <f t="shared" ref="I103:I104" si="60">"  "&amp;G103&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBCombinedCrewCredit = interface;</v>
       </c>
       <c r="J103" s="8" t="str">
-        <f t="shared" ref="J103:J104" si="55">"  "&amp;H103&amp;" = class;"</f>
+        <f t="shared" ref="J103:J104" si="61">"  "&amp;H103&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBCombinedCrewCredit = class;</v>
       </c>
       <c r="K103" s="8" t="str">
-        <f t="shared" ref="K103:K104" si="56">IF(C103="", "  "&amp;G103&amp;" = interface", "  "&amp;G103&amp;" = interface(I"&amp;M103&amp;C103&amp;")")</f>
+        <f t="shared" ref="K103:K104" si="62">IF(C103="", "  "&amp;G103&amp;" = interface", "  "&amp;G103&amp;" = interface(I"&amp;M103&amp;C103&amp;")")</f>
         <v xml:space="preserve">  ITMDBCombinedCrewCredit = interface(ITMDBMedium)</v>
       </c>
       <c r="L103" s="8" t="str">
-        <f t="shared" ref="L103:L104" si="57">IF(C103="", "  "&amp;H103&amp;" = class(TInterfacedObject, "&amp;G103&amp;")", "  "&amp;H103&amp;" = class(T"&amp;M103&amp;C103&amp;", "&amp;G103&amp;")")</f>
+        <f t="shared" ref="L103:L104" si="63">IF(C103="", "  "&amp;H103&amp;" = class(TInterfacedObject, "&amp;G103&amp;")", "  "&amp;H103&amp;" = class(T"&amp;M103&amp;C103&amp;", "&amp;G103&amp;")")</f>
         <v xml:space="preserve">  TTMDBCombinedCrewCredit = class(TTMDBMedium, ITMDBCombinedCrewCredit)</v>
       </c>
       <c r="M103" s="8" t="s">
@@ -10334,27 +10325,27 @@
         <v>74</v>
       </c>
       <c r="G104" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>ITMDBCombinedCrewCredits</v>
       </c>
       <c r="H104" s="8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>TTMDBCombinedCrewCredits</v>
       </c>
       <c r="I104" s="8" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">  ITMDBCombinedCrewCredits = interface;</v>
       </c>
       <c r="J104" s="8" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">  TTMDBCombinedCrewCredits = class;</v>
       </c>
       <c r="K104" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v xml:space="preserve">  ITMDBCombinedCrewCredits = interface(ITMDBMedia)</v>
       </c>
       <c r="L104" s="8" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v xml:space="preserve">  TTMDBCombinedCrewCredits = class(TTMDBMedia, ITMDBCombinedCrewCredits)</v>
       </c>
       <c r="M104" s="8" t="s">
@@ -10378,27 +10369,27 @@
         <v>74</v>
       </c>
       <c r="G105" s="8" t="str">
-        <f t="shared" ref="G105" si="58">"I"&amp;M105&amp;B105</f>
+        <f t="shared" ref="G105" si="64">"I"&amp;M105&amp;B105</f>
         <v>ITMDBCombinedCredits</v>
       </c>
       <c r="H105" s="8" t="str">
-        <f t="shared" ref="H105" si="59">"T"&amp;M105&amp;B105</f>
+        <f t="shared" ref="H105" si="65">"T"&amp;M105&amp;B105</f>
         <v>TTMDBCombinedCredits</v>
       </c>
       <c r="I105" s="8" t="str">
-        <f t="shared" ref="I105" si="60">"  "&amp;G105&amp;" = interface;"</f>
+        <f t="shared" ref="I105" si="66">"  "&amp;G105&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBCombinedCredits = interface;</v>
       </c>
       <c r="J105" s="8" t="str">
-        <f t="shared" ref="J105" si="61">"  "&amp;H105&amp;" = class;"</f>
+        <f t="shared" ref="J105" si="67">"  "&amp;H105&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBCombinedCredits = class;</v>
       </c>
       <c r="K105" s="8" t="str">
-        <f t="shared" ref="K105" si="62">IF(C105="", "  "&amp;G105&amp;" = interface", "  "&amp;G105&amp;" = interface(I"&amp;M105&amp;C105&amp;")")</f>
+        <f t="shared" ref="K105" si="68">IF(C105="", "  "&amp;G105&amp;" = interface", "  "&amp;G105&amp;" = interface(I"&amp;M105&amp;C105&amp;")")</f>
         <v xml:space="preserve">  ITMDBCombinedCredits = interface</v>
       </c>
       <c r="L105" s="8" t="str">
-        <f t="shared" ref="L105" si="63">IF(C105="", "  "&amp;H105&amp;" = class(TInterfacedObject, "&amp;G105&amp;")", "  "&amp;H105&amp;" = class(T"&amp;M105&amp;C105&amp;", "&amp;G105&amp;")")</f>
+        <f t="shared" ref="L105" si="69">IF(C105="", "  "&amp;H105&amp;" = class(TInterfacedObject, "&amp;G105&amp;")", "  "&amp;H105&amp;" = class(T"&amp;M105&amp;C105&amp;", "&amp;G105&amp;")")</f>
         <v xml:space="preserve">  TTMDBCombinedCredits = class(TInterfacedObject, ITMDBCombinedCredits)</v>
       </c>
       <c r="M105" s="8" t="s">
@@ -10425,27 +10416,27 @@
         <v>74</v>
       </c>
       <c r="G106" s="8" t="str">
-        <f>"I"&amp;M106&amp;B106</f>
+        <f t="shared" ref="G106:G114" si="70">"I"&amp;M106&amp;B106</f>
         <v>ITMDBList</v>
       </c>
       <c r="H106" s="8" t="str">
-        <f>"T"&amp;M106&amp;B106</f>
+        <f t="shared" ref="H106:H114" si="71">"T"&amp;M106&amp;B106</f>
         <v>TTMDBList</v>
       </c>
       <c r="I106" s="8" t="str">
-        <f>"  "&amp;G106&amp;" = interface;"</f>
+        <f t="shared" ref="I106:I114" si="72">"  "&amp;G106&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBList = interface;</v>
       </c>
       <c r="J106" s="8" t="str">
-        <f>"  "&amp;H106&amp;" = class;"</f>
+        <f t="shared" ref="J106:J114" si="73">"  "&amp;H106&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBList = class;</v>
       </c>
       <c r="K106" s="8" t="str">
-        <f>IF(C106="", "  "&amp;G106&amp;" = interface", "  "&amp;G106&amp;" = interface(I"&amp;M106&amp;C106&amp;")")</f>
+        <f t="shared" ref="K106:K114" si="74">IF(C106="", "  "&amp;G106&amp;" = interface", "  "&amp;G106&amp;" = interface(I"&amp;M106&amp;C106&amp;")")</f>
         <v xml:space="preserve">  ITMDBList = interface(ITMDBItem)</v>
       </c>
       <c r="L106" s="8" t="str">
-        <f>IF(C106="", "  "&amp;H106&amp;" = class(TInterfacedObject, "&amp;G106&amp;")", "  "&amp;H106&amp;" = class(T"&amp;M106&amp;C106&amp;", "&amp;G106&amp;")")</f>
+        <f t="shared" ref="L106:L114" si="75">IF(C106="", "  "&amp;H106&amp;" = class(TInterfacedObject, "&amp;G106&amp;")", "  "&amp;H106&amp;" = class(T"&amp;M106&amp;C106&amp;", "&amp;G106&amp;")")</f>
         <v xml:space="preserve">  TTMDBList = class(TTMDBItem, ITMDBList)</v>
       </c>
       <c r="M106" s="8" t="s">
@@ -10472,27 +10463,27 @@
         <v>74</v>
       </c>
       <c r="G107" s="8" t="str">
-        <f>"I"&amp;M107&amp;B107</f>
+        <f t="shared" si="70"/>
         <v>ITMDBLists</v>
       </c>
       <c r="H107" s="8" t="str">
-        <f>"T"&amp;M107&amp;B107</f>
+        <f t="shared" si="71"/>
         <v>TTMDBLists</v>
       </c>
       <c r="I107" s="8" t="str">
-        <f>"  "&amp;G107&amp;" = interface;"</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">  ITMDBLists = interface;</v>
       </c>
       <c r="J107" s="8" t="str">
-        <f>"  "&amp;H107&amp;" = class;"</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">  TTMDBLists = class;</v>
       </c>
       <c r="K107" s="8" t="str">
-        <f>IF(C107="", "  "&amp;G107&amp;" = interface", "  "&amp;G107&amp;" = interface(I"&amp;M107&amp;C107&amp;")")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">  ITMDBLists = interface(ITMDBItems)</v>
       </c>
       <c r="L107" s="8" t="str">
-        <f>IF(C107="", "  "&amp;H107&amp;" = class(TInterfacedObject, "&amp;G107&amp;")", "  "&amp;H107&amp;" = class(T"&amp;M107&amp;C107&amp;", "&amp;G107&amp;")")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve">  TTMDBLists = class(TTMDBItems, ITMDBLists)</v>
       </c>
       <c r="M107" s="8" t="s">
@@ -10519,27 +10510,27 @@
         <v>74</v>
       </c>
       <c r="G108" s="8" t="str">
-        <f>"I"&amp;M108&amp;B108</f>
+        <f t="shared" si="70"/>
         <v>ITMDBListPage</v>
       </c>
       <c r="H108" s="8" t="str">
-        <f>"T"&amp;M108&amp;B108</f>
+        <f t="shared" si="71"/>
         <v>TTMDBListPage</v>
       </c>
       <c r="I108" s="8" t="str">
-        <f>"  "&amp;G108&amp;" = interface;"</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">  ITMDBListPage = interface;</v>
       </c>
       <c r="J108" s="8" t="str">
-        <f>"  "&amp;H108&amp;" = class;"</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">  TTMDBListPage = class;</v>
       </c>
       <c r="K108" s="8" t="str">
-        <f>IF(C108="", "  "&amp;G108&amp;" = interface", "  "&amp;G108&amp;" = interface(I"&amp;M108&amp;C108&amp;")")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">  ITMDBListPage = interface(ITMDBPage)</v>
       </c>
       <c r="L108" s="8" t="str">
-        <f>IF(C108="", "  "&amp;H108&amp;" = class(TInterfacedObject, "&amp;G108&amp;")", "  "&amp;H108&amp;" = class(T"&amp;M108&amp;C108&amp;", "&amp;G108&amp;")")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve">  TTMDBListPage = class(TTMDBPage, ITMDBListPage)</v>
       </c>
       <c r="M108" s="8" t="s">
@@ -10566,27 +10557,27 @@
         <v>74</v>
       </c>
       <c r="G109" s="8" t="str">
-        <f>"I"&amp;M109&amp;B109</f>
+        <f t="shared" si="70"/>
         <v>ITMDBListDetail</v>
       </c>
       <c r="H109" s="8" t="str">
-        <f>"T"&amp;M109&amp;B109</f>
+        <f t="shared" si="71"/>
         <v>TTMDBListDetail</v>
       </c>
       <c r="I109" s="8" t="str">
-        <f>"  "&amp;G109&amp;" = interface;"</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">  ITMDBListDetail = interface;</v>
       </c>
       <c r="J109" s="8" t="str">
-        <f>"  "&amp;H109&amp;" = class;"</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">  TTMDBListDetail = class;</v>
       </c>
       <c r="K109" s="8" t="str">
-        <f>IF(C109="", "  "&amp;G109&amp;" = interface", "  "&amp;G109&amp;" = interface(I"&amp;M109&amp;C109&amp;")")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">  ITMDBListDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L109" s="8" t="str">
-        <f>IF(C109="", "  "&amp;H109&amp;" = class(TInterfacedObject, "&amp;G109&amp;")", "  "&amp;H109&amp;" = class(T"&amp;M109&amp;C109&amp;", "&amp;G109&amp;")")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve">  TTMDBListDetail = class(TTMDBDetail, ITMDBListDetail)</v>
       </c>
       <c r="M109" s="8" t="s">
@@ -10610,27 +10601,27 @@
         <v>254</v>
       </c>
       <c r="G110" s="8" t="str">
-        <f>"I"&amp;M110&amp;B110</f>
+        <f t="shared" si="70"/>
         <v>ITMDBReviewAuthor</v>
       </c>
       <c r="H110" s="8" t="str">
-        <f>"T"&amp;M110&amp;B110</f>
+        <f t="shared" si="71"/>
         <v>TTMDBReviewAuthor</v>
       </c>
       <c r="I110" s="8" t="str">
-        <f>"  "&amp;G110&amp;" = interface;"</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">  ITMDBReviewAuthor = interface;</v>
       </c>
       <c r="J110" s="8" t="str">
-        <f>"  "&amp;H110&amp;" = class;"</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">  TTMDBReviewAuthor = class;</v>
       </c>
       <c r="K110" s="8" t="str">
-        <f>IF(C110="", "  "&amp;G110&amp;" = interface", "  "&amp;G110&amp;" = interface(I"&amp;M110&amp;C110&amp;")")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">  ITMDBReviewAuthor = interface</v>
       </c>
       <c r="L110" s="8" t="str">
-        <f>IF(C110="", "  "&amp;H110&amp;" = class(TInterfacedObject, "&amp;G110&amp;")", "  "&amp;H110&amp;" = class(T"&amp;M110&amp;C110&amp;", "&amp;G110&amp;")")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve">  TTMDBReviewAuthor = class(TInterfacedObject, ITMDBReviewAuthor)</v>
       </c>
       <c r="M110" s="8" t="s">
@@ -10657,27 +10648,27 @@
         <v>254</v>
       </c>
       <c r="G111" s="8" t="str">
-        <f>"I"&amp;M111&amp;B111</f>
+        <f t="shared" si="70"/>
         <v>ITMDBReview</v>
       </c>
       <c r="H111" s="8" t="str">
-        <f>"T"&amp;M111&amp;B111</f>
+        <f t="shared" si="71"/>
         <v>TTMDBReview</v>
       </c>
       <c r="I111" s="8" t="str">
-        <f>"  "&amp;G111&amp;" = interface;"</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">  ITMDBReview = interface;</v>
       </c>
       <c r="J111" s="8" t="str">
-        <f>"  "&amp;H111&amp;" = class;"</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">  TTMDBReview = class;</v>
       </c>
       <c r="K111" s="8" t="str">
-        <f>IF(C111="", "  "&amp;G111&amp;" = interface", "  "&amp;G111&amp;" = interface(I"&amp;M111&amp;C111&amp;")")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">  ITMDBReview = interface(ITMDBItem)</v>
       </c>
       <c r="L111" s="8" t="str">
-        <f>IF(C111="", "  "&amp;H111&amp;" = class(TInterfacedObject, "&amp;G111&amp;")", "  "&amp;H111&amp;" = class(T"&amp;M111&amp;C111&amp;", "&amp;G111&amp;")")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve">  TTMDBReview = class(TTMDBItem, ITMDBReview)</v>
       </c>
       <c r="M111" s="8" t="s">
@@ -10704,27 +10695,27 @@
         <v>254</v>
       </c>
       <c r="G112" s="8" t="str">
-        <f>"I"&amp;M112&amp;B112</f>
+        <f t="shared" si="70"/>
         <v>ITMDBReviews</v>
       </c>
       <c r="H112" s="8" t="str">
-        <f>"T"&amp;M112&amp;B112</f>
+        <f t="shared" si="71"/>
         <v>TTMDBReviews</v>
       </c>
       <c r="I112" s="8" t="str">
-        <f>"  "&amp;G112&amp;" = interface;"</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">  ITMDBReviews = interface;</v>
       </c>
       <c r="J112" s="8" t="str">
-        <f>"  "&amp;H112&amp;" = class;"</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">  TTMDBReviews = class;</v>
       </c>
       <c r="K112" s="8" t="str">
-        <f>IF(C112="", "  "&amp;G112&amp;" = interface", "  "&amp;G112&amp;" = interface(I"&amp;M112&amp;C112&amp;")")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">  ITMDBReviews = interface(ITMDBItems)</v>
       </c>
       <c r="L112" s="8" t="str">
-        <f>IF(C112="", "  "&amp;H112&amp;" = class(TInterfacedObject, "&amp;G112&amp;")", "  "&amp;H112&amp;" = class(T"&amp;M112&amp;C112&amp;", "&amp;G112&amp;")")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve">  TTMDBReviews = class(TTMDBItems, ITMDBReviews)</v>
       </c>
       <c r="M112" s="8" t="s">
@@ -10751,27 +10742,27 @@
         <v>254</v>
       </c>
       <c r="G113" s="8" t="str">
-        <f>"I"&amp;M113&amp;B113</f>
+        <f t="shared" si="70"/>
         <v>ITMDBReviewPage</v>
       </c>
       <c r="H113" s="8" t="str">
-        <f>"T"&amp;M113&amp;B113</f>
+        <f t="shared" si="71"/>
         <v>TTMDBReviewPage</v>
       </c>
       <c r="I113" s="8" t="str">
-        <f>"  "&amp;G113&amp;" = interface;"</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">  ITMDBReviewPage = interface;</v>
       </c>
       <c r="J113" s="8" t="str">
-        <f>"  "&amp;H113&amp;" = class;"</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">  TTMDBReviewPage = class;</v>
       </c>
       <c r="K113" s="8" t="str">
-        <f>IF(C113="", "  "&amp;G113&amp;" = interface", "  "&amp;G113&amp;" = interface(I"&amp;M113&amp;C113&amp;")")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">  ITMDBReviewPage = interface(ITMDBPage)</v>
       </c>
       <c r="L113" s="8" t="str">
-        <f>IF(C113="", "  "&amp;H113&amp;" = class(TInterfacedObject, "&amp;G113&amp;")", "  "&amp;H113&amp;" = class(T"&amp;M113&amp;C113&amp;", "&amp;G113&amp;")")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve">  TTMDBReviewPage = class(TTMDBPage, ITMDBReviewPage)</v>
       </c>
       <c r="M113" s="8" t="s">
@@ -10795,27 +10786,27 @@
         <v>74</v>
       </c>
       <c r="G114" s="8" t="str">
-        <f>"I"&amp;M114&amp;B114</f>
+        <f t="shared" si="70"/>
         <v>ITMDBReviewDetail</v>
       </c>
       <c r="H114" s="8" t="str">
-        <f>"T"&amp;M114&amp;B114</f>
+        <f t="shared" si="71"/>
         <v>TTMDBReviewDetail</v>
       </c>
       <c r="I114" s="8" t="str">
-        <f>"  "&amp;G114&amp;" = interface;"</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">  ITMDBReviewDetail = interface;</v>
       </c>
       <c r="J114" s="8" t="str">
-        <f>"  "&amp;H114&amp;" = class;"</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">  TTMDBReviewDetail = class;</v>
       </c>
       <c r="K114" s="8" t="str">
-        <f>IF(C114="", "  "&amp;G114&amp;" = interface", "  "&amp;G114&amp;" = interface(I"&amp;M114&amp;C114&amp;")")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve">  ITMDBReviewDetail = interface</v>
       </c>
       <c r="L114" s="8" t="str">
-        <f>IF(C114="", "  "&amp;H114&amp;" = class(TInterfacedObject, "&amp;G114&amp;")", "  "&amp;H114&amp;" = class(T"&amp;M114&amp;C114&amp;", "&amp;G114&amp;")")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve">  TTMDBReviewDetail = class(TInterfacedObject, ITMDBReviewDetail)</v>
       </c>
       <c r="M114" s="8" t="s">
@@ -10842,27 +10833,27 @@
         <v>254</v>
       </c>
       <c r="G115" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBMovie</v>
       </c>
       <c r="H115" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBMovie</v>
       </c>
       <c r="I115" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBMovie = interface;</v>
       </c>
       <c r="J115" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBMovie = class;</v>
       </c>
       <c r="K115" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBMovie = interface(ITMDBMedium)</v>
       </c>
       <c r="L115" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBMovie = class(TTMDBMedium, ITMDBMovie)</v>
       </c>
       <c r="M115" s="8" t="s">
@@ -10889,27 +10880,27 @@
         <v>254</v>
       </c>
       <c r="G116" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBMovies</v>
       </c>
       <c r="H116" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBMovies</v>
       </c>
       <c r="I116" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBMovies = interface;</v>
       </c>
       <c r="J116" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBMovies = class;</v>
       </c>
       <c r="K116" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBMovies = interface(ITMDBMedia)</v>
       </c>
       <c r="L116" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBMovies = class(TTMDBMedia, ITMDBMovies)</v>
       </c>
       <c r="M116" s="8" t="s">
@@ -10936,27 +10927,27 @@
         <v>254</v>
       </c>
       <c r="G117" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBMoviePage</v>
       </c>
       <c r="H117" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBMoviePage</v>
       </c>
       <c r="I117" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBMoviePage = interface;</v>
       </c>
       <c r="J117" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBMoviePage = class;</v>
       </c>
       <c r="K117" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBMoviePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L117" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBMoviePage = class(TTMDBMediaPage, ITMDBMoviePage)</v>
       </c>
       <c r="M117" s="8" t="s">
@@ -10983,27 +10974,27 @@
         <v>74</v>
       </c>
       <c r="G118" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBRatedMovie</v>
       </c>
       <c r="H118" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBRatedMovie</v>
       </c>
       <c r="I118" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBRatedMovie = interface;</v>
       </c>
       <c r="J118" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBRatedMovie = class;</v>
       </c>
       <c r="K118" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBRatedMovie = interface(ITMDBMovie)</v>
       </c>
       <c r="L118" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBRatedMovie = class(TTMDBMovie, ITMDBRatedMovie)</v>
       </c>
       <c r="M118" s="8" t="s">
@@ -11030,27 +11021,27 @@
         <v>74</v>
       </c>
       <c r="G119" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBRatedMovies</v>
       </c>
       <c r="H119" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBRatedMovies</v>
       </c>
       <c r="I119" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBRatedMovies = interface;</v>
       </c>
       <c r="J119" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBRatedMovies = class;</v>
       </c>
       <c r="K119" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBRatedMovies = interface(ITMDBMovies)</v>
       </c>
       <c r="L119" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBRatedMovies = class(TTMDBMovies, ITMDBRatedMovies)</v>
       </c>
       <c r="M119" s="8" t="s">
@@ -11077,27 +11068,27 @@
         <v>74</v>
       </c>
       <c r="G120" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBRatedMoviePage</v>
       </c>
       <c r="H120" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBRatedMoviePage</v>
       </c>
       <c r="I120" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBRatedMoviePage = interface;</v>
       </c>
       <c r="J120" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBRatedMoviePage = class;</v>
       </c>
       <c r="K120" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBRatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L120" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBRatedMoviePage = class(TTMDBMoviePage, ITMDBRatedMoviePage)</v>
       </c>
       <c r="M120" s="8" t="s">
@@ -11121,27 +11112,27 @@
         <v>74</v>
       </c>
       <c r="G121" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBMovieCollectionRef</v>
       </c>
       <c r="H121" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBMovieCollectionRef</v>
       </c>
       <c r="I121" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBMovieCollectionRef = interface;</v>
       </c>
       <c r="J121" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBMovieCollectionRef = class;</v>
       </c>
       <c r="K121" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBMovieCollectionRef = interface</v>
       </c>
       <c r="L121" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBMovieCollectionRef = class(TInterfacedObject, ITMDBMovieCollectionRef)</v>
       </c>
       <c r="M121" s="8" t="s">
@@ -11168,27 +11159,27 @@
         <v>254</v>
       </c>
       <c r="G122" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBMovieDetail</v>
       </c>
       <c r="H122" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBMovieDetail</v>
       </c>
       <c r="I122" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBMovieDetail = interface;</v>
       </c>
       <c r="J122" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBMovieDetail = class;</v>
       </c>
       <c r="K122" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBMovieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L122" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBMovieDetail = class(TTMDBDetail, ITMDBMovieDetail)</v>
       </c>
       <c r="M122" s="8" t="s">
@@ -11212,27 +11203,27 @@
         <v>74</v>
       </c>
       <c r="G123" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBDateRange</v>
       </c>
       <c r="H123" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBDateRange</v>
       </c>
       <c r="I123" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBDateRange = interface;</v>
       </c>
       <c r="J123" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBDateRange = class;</v>
       </c>
       <c r="K123" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBDateRange = interface</v>
       </c>
       <c r="L123" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBDateRange = class(TInterfacedObject, ITMDBDateRange)</v>
       </c>
       <c r="M123" s="8" t="s">
@@ -11259,27 +11250,27 @@
         <v>74</v>
       </c>
       <c r="G124" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBDatedMoviePage</v>
       </c>
       <c r="H124" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBDatedMoviePage</v>
       </c>
       <c r="I124" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBDatedMoviePage = interface;</v>
       </c>
       <c r="J124" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBDatedMoviePage = class;</v>
       </c>
       <c r="K124" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBDatedMoviePage = interface(ITMDBMoviePage)</v>
       </c>
       <c r="L124" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBDatedMoviePage = class(TTMDBMoviePage, ITMDBDatedMoviePage)</v>
       </c>
       <c r="M124" s="8" t="s">
@@ -11306,27 +11297,27 @@
         <v>254</v>
       </c>
       <c r="G125" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBTVSerie</v>
       </c>
       <c r="H125" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBTVSerie</v>
       </c>
       <c r="I125" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVSerie = interface;</v>
       </c>
       <c r="J125" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVSerie = class;</v>
       </c>
       <c r="K125" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBTVSerie = interface(ITMDBMedium)</v>
       </c>
       <c r="L125" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBTVSerie = class(TTMDBMedium, ITMDBTVSerie)</v>
       </c>
       <c r="M125" s="8" t="s">
@@ -11353,27 +11344,27 @@
         <v>375</v>
       </c>
       <c r="G126" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>ITMDBTVSeries</v>
       </c>
       <c r="H126" s="8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>TTMDBTVSeries</v>
       </c>
       <c r="I126" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVSeries = interface;</v>
       </c>
       <c r="J126" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVSeries = class;</v>
       </c>
       <c r="K126" s="8" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  ITMDBTVSeries = interface(ITMDBMedia)</v>
       </c>
       <c r="L126" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">  TTMDBTVSeries = class(TTMDBMedia, ITMDBTVSeries)</v>
       </c>
       <c r="M126" s="8" t="s">
@@ -11400,27 +11391,27 @@
         <v>375</v>
       </c>
       <c r="G127" s="8" t="str">
-        <f t="shared" ref="G127:G149" si="64">"I"&amp;M127&amp;B127</f>
+        <f t="shared" ref="G127:G149" si="76">"I"&amp;M127&amp;B127</f>
         <v>ITMDBTVSeriesPage</v>
       </c>
       <c r="H127" s="8" t="str">
-        <f t="shared" ref="H127:H149" si="65">"T"&amp;M127&amp;B127</f>
+        <f t="shared" ref="H127:H149" si="77">"T"&amp;M127&amp;B127</f>
         <v>TTMDBTVSeriesPage</v>
       </c>
       <c r="I127" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVSeriesPage = interface;</v>
       </c>
       <c r="J127" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVSeriesPage = class;</v>
       </c>
       <c r="K127" s="8" t="str">
-        <f t="shared" ref="K127:K149" si="66">IF(C127="", "  "&amp;G127&amp;" = interface", "  "&amp;G127&amp;" = interface(I"&amp;M127&amp;C127&amp;")")</f>
+        <f t="shared" ref="K127:K149" si="78">IF(C127="", "  "&amp;G127&amp;" = interface", "  "&amp;G127&amp;" = interface(I"&amp;M127&amp;C127&amp;")")</f>
         <v xml:space="preserve">  ITMDBTVSeriesPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L127" s="8" t="str">
-        <f t="shared" ref="L127:L149" si="67">IF(C127="", "  "&amp;H127&amp;" = class(TInterfacedObject, "&amp;G127&amp;")", "  "&amp;H127&amp;" = class(T"&amp;M127&amp;C127&amp;", "&amp;G127&amp;")")</f>
+        <f t="shared" ref="L127:L149" si="79">IF(C127="", "  "&amp;H127&amp;" = class(TInterfacedObject, "&amp;G127&amp;")", "  "&amp;H127&amp;" = class(T"&amp;M127&amp;C127&amp;", "&amp;G127&amp;")")</f>
         <v xml:space="preserve">  TTMDBTVSeriesPage = class(TTMDBMediaPage, ITMDBTVSeriesPage)</v>
       </c>
       <c r="M127" s="8" t="s">
@@ -11447,27 +11438,27 @@
         <v>74</v>
       </c>
       <c r="G128" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBRatedTVSerie</v>
       </c>
       <c r="H128" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBRatedTVSerie</v>
       </c>
       <c r="I128" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBRatedTVSerie = interface;</v>
       </c>
       <c r="J128" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBRatedTVSerie = class;</v>
       </c>
       <c r="K128" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBRatedTVSerie = interface(ITMDBTVSerie)</v>
       </c>
       <c r="L128" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBRatedTVSerie = class(TTMDBTVSerie, ITMDBRatedTVSerie)</v>
       </c>
       <c r="M128" s="8" t="s">
@@ -11494,27 +11485,27 @@
         <v>74</v>
       </c>
       <c r="G129" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBRatedTVSeries</v>
       </c>
       <c r="H129" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBRatedTVSeries</v>
       </c>
       <c r="I129" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBRatedTVSeries = interface;</v>
       </c>
       <c r="J129" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBRatedTVSeries = class;</v>
       </c>
       <c r="K129" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBRatedTVSeries = interface(ITMDBTVSeries)</v>
       </c>
       <c r="L129" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBRatedTVSeries = class(TTMDBTVSeries, ITMDBRatedTVSeries)</v>
       </c>
       <c r="M129" s="8" t="s">
@@ -11541,27 +11532,27 @@
         <v>74</v>
       </c>
       <c r="G130" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBRatedTVSeriesPage</v>
       </c>
       <c r="H130" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBRatedTVSeriesPage</v>
       </c>
       <c r="I130" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface;</v>
       </c>
       <c r="J130" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class;</v>
       </c>
       <c r="K130" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBRatedTVSeriesPage = interface(ITMDBTVSeriesPage)</v>
       </c>
       <c r="L130" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBRatedTVSeriesPage = class(TTMDBTVSeriesPage, ITMDBRatedTVSeriesPage)</v>
       </c>
       <c r="M130" s="8" t="s">
@@ -11588,27 +11579,27 @@
         <v>254</v>
       </c>
       <c r="G131" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVSerieDetail</v>
       </c>
       <c r="H131" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVSerieDetail</v>
       </c>
       <c r="I131" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVSerieDetail = interface;</v>
       </c>
       <c r="J131" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVSerieDetail = class;</v>
       </c>
       <c r="K131" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVSerieDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L131" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVSerieDetail = class(TTMDBDetail, ITMDBTVSerieDetail)</v>
       </c>
       <c r="M131" s="8" t="s">
@@ -11635,27 +11626,27 @@
         <v>74</v>
       </c>
       <c r="G132" s="8" t="str">
-        <f t="shared" ref="G132" si="68">"I"&amp;M132&amp;B132</f>
+        <f t="shared" ref="G132" si="80">"I"&amp;M132&amp;B132</f>
         <v>ITMDBScreenedTheatricallyRef</v>
       </c>
       <c r="H132" s="8" t="str">
-        <f t="shared" ref="H132" si="69">"T"&amp;M132&amp;B132</f>
+        <f t="shared" ref="H132" si="81">"T"&amp;M132&amp;B132</f>
         <v>TTMDBScreenedTheatricallyRef</v>
       </c>
       <c r="I132" s="8" t="str">
-        <f t="shared" ref="I132" si="70">"  "&amp;G132&amp;" = interface;"</f>
+        <f t="shared" ref="I132" si="82">"  "&amp;G132&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBScreenedTheatricallyRef = interface;</v>
       </c>
       <c r="J132" s="8" t="str">
-        <f t="shared" ref="J132" si="71">"  "&amp;H132&amp;" = class;"</f>
+        <f t="shared" ref="J132" si="83">"  "&amp;H132&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBScreenedTheatricallyRef = class;</v>
       </c>
       <c r="K132" s="8" t="str">
-        <f t="shared" ref="K132" si="72">IF(C132="", "  "&amp;G132&amp;" = interface", "  "&amp;G132&amp;" = interface(I"&amp;M132&amp;C132&amp;")")</f>
+        <f t="shared" ref="K132" si="84">IF(C132="", "  "&amp;G132&amp;" = interface", "  "&amp;G132&amp;" = interface(I"&amp;M132&amp;C132&amp;")")</f>
         <v xml:space="preserve">  ITMDBScreenedTheatricallyRef = interface(ITMDBItem)</v>
       </c>
       <c r="L132" s="8" t="str">
-        <f t="shared" ref="L132" si="73">IF(C132="", "  "&amp;H132&amp;" = class(TInterfacedObject, "&amp;G132&amp;")", "  "&amp;H132&amp;" = class(T"&amp;M132&amp;C132&amp;", "&amp;G132&amp;")")</f>
+        <f t="shared" ref="L132" si="85">IF(C132="", "  "&amp;H132&amp;" = class(TInterfacedObject, "&amp;G132&amp;")", "  "&amp;H132&amp;" = class(T"&amp;M132&amp;C132&amp;", "&amp;G132&amp;")")</f>
         <v xml:space="preserve">  TTMDBScreenedTheatricallyRef = class(TTMDBItem, ITMDBScreenedTheatricallyRef)</v>
       </c>
       <c r="M132" s="8" t="s">
@@ -11682,27 +11673,27 @@
         <v>74</v>
       </c>
       <c r="G133" s="8" t="str">
-        <f t="shared" ref="G133" si="74">"I"&amp;M133&amp;B133</f>
+        <f t="shared" ref="G133" si="86">"I"&amp;M133&amp;B133</f>
         <v>ITMDBScreenedTheatrically</v>
       </c>
       <c r="H133" s="8" t="str">
-        <f t="shared" ref="H133" si="75">"T"&amp;M133&amp;B133</f>
+        <f t="shared" ref="H133" si="87">"T"&amp;M133&amp;B133</f>
         <v>TTMDBScreenedTheatrically</v>
       </c>
       <c r="I133" s="8" t="str">
-        <f t="shared" ref="I133" si="76">"  "&amp;G133&amp;" = interface;"</f>
+        <f t="shared" ref="I133" si="88">"  "&amp;G133&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBScreenedTheatrically = interface;</v>
       </c>
       <c r="J133" s="8" t="str">
-        <f t="shared" ref="J133" si="77">"  "&amp;H133&amp;" = class;"</f>
+        <f t="shared" ref="J133" si="89">"  "&amp;H133&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBScreenedTheatrically = class;</v>
       </c>
       <c r="K133" s="8" t="str">
-        <f t="shared" ref="K133" si="78">IF(C133="", "  "&amp;G133&amp;" = interface", "  "&amp;G133&amp;" = interface(I"&amp;M133&amp;C133&amp;")")</f>
+        <f t="shared" ref="K133" si="90">IF(C133="", "  "&amp;G133&amp;" = interface", "  "&amp;G133&amp;" = interface(I"&amp;M133&amp;C133&amp;")")</f>
         <v xml:space="preserve">  ITMDBScreenedTheatrically = interface(ITMDBItems)</v>
       </c>
       <c r="L133" s="8" t="str">
-        <f t="shared" ref="L133" si="79">IF(C133="", "  "&amp;H133&amp;" = class(TInterfacedObject, "&amp;G133&amp;")", "  "&amp;H133&amp;" = class(T"&amp;M133&amp;C133&amp;", "&amp;G133&amp;")")</f>
+        <f t="shared" ref="L133" si="91">IF(C133="", "  "&amp;H133&amp;" = class(TInterfacedObject, "&amp;G133&amp;")", "  "&amp;H133&amp;" = class(T"&amp;M133&amp;C133&amp;", "&amp;G133&amp;")")</f>
         <v xml:space="preserve">  TTMDBScreenedTheatrically = class(TTMDBItems, ITMDBScreenedTheatrically)</v>
       </c>
       <c r="M133" s="8" t="s">
@@ -11729,27 +11720,27 @@
         <v>74</v>
       </c>
       <c r="G134" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVSeason</v>
       </c>
       <c r="H134" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVSeason</v>
       </c>
       <c r="I134" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVSeason = interface;</v>
       </c>
       <c r="J134" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVSeason = class;</v>
       </c>
       <c r="K134" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVSeason = interface(ITMDBMedium)</v>
       </c>
       <c r="L134" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVSeason = class(TTMDBMedium, ITMDBTVSeason)</v>
       </c>
       <c r="M134" s="8" t="s">
@@ -11776,27 +11767,27 @@
         <v>74</v>
       </c>
       <c r="G135" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVSeasons</v>
       </c>
       <c r="H135" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVSeasons</v>
       </c>
       <c r="I135" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVSeasons = interface;</v>
       </c>
       <c r="J135" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVSeasons = class;</v>
       </c>
       <c r="K135" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVSeasons = interface(ITMDBMedia)</v>
       </c>
       <c r="L135" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVSeasons = class(TTMDBMedia, ITMDBTVSeasons)</v>
       </c>
       <c r="M135" s="8" t="s">
@@ -11823,27 +11814,27 @@
         <v>74</v>
       </c>
       <c r="G136" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVSeasonPage</v>
       </c>
       <c r="H136" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVSeasonPage</v>
       </c>
       <c r="I136" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVSeasonPage = interface;</v>
       </c>
       <c r="J136" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVSeasonPage = class;</v>
       </c>
       <c r="K136" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVSeasonPage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L136" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVSeasonPage = class(TTMDBMediaPage, ITMDBTVSeasonPage)</v>
       </c>
       <c r="M136" s="8" t="s">
@@ -11870,27 +11861,27 @@
         <v>74</v>
       </c>
       <c r="G137" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVSeasonDetail</v>
       </c>
       <c r="H137" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVSeasonDetail</v>
       </c>
       <c r="I137" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVSeasonDetail = interface;</v>
       </c>
       <c r="J137" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVSeasonDetail = class;</v>
       </c>
       <c r="K137" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVSeasonDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L137" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVSeasonDetail = class(TTMDBDetail, ITMDBTVSeasonDetail)</v>
       </c>
       <c r="M137" s="8" t="s">
@@ -11917,27 +11908,27 @@
         <v>74</v>
       </c>
       <c r="G138" s="8" t="str">
-        <f t="shared" ref="G138" si="80">"I"&amp;M138&amp;B138</f>
+        <f t="shared" ref="G138" si="92">"I"&amp;M138&amp;B138</f>
         <v>ITMDBTVSeasonEpisode</v>
       </c>
       <c r="H138" s="8" t="str">
-        <f t="shared" ref="H138" si="81">"T"&amp;M138&amp;B138</f>
+        <f t="shared" ref="H138" si="93">"T"&amp;M138&amp;B138</f>
         <v>TTMDBTVSeasonEpisode</v>
       </c>
       <c r="I138" s="8" t="str">
-        <f t="shared" ref="I138" si="82">"  "&amp;G138&amp;" = interface;"</f>
+        <f t="shared" ref="I138" si="94">"  "&amp;G138&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface;</v>
       </c>
       <c r="J138" s="8" t="str">
-        <f t="shared" ref="J138" si="83">"  "&amp;H138&amp;" = class;"</f>
+        <f t="shared" ref="J138" si="95">"  "&amp;H138&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBTVSeasonEpisode = class;</v>
       </c>
       <c r="K138" s="8" t="str">
-        <f t="shared" ref="K138" si="84">IF(C138="", "  "&amp;G138&amp;" = interface", "  "&amp;G138&amp;" = interface(I"&amp;M138&amp;C138&amp;")")</f>
+        <f t="shared" ref="K138" si="96">IF(C138="", "  "&amp;G138&amp;" = interface", "  "&amp;G138&amp;" = interface(I"&amp;M138&amp;C138&amp;")")</f>
         <v xml:space="preserve">  ITMDBTVSeasonEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="L138" s="8" t="str">
-        <f t="shared" ref="L138" si="85">IF(C138="", "  "&amp;H138&amp;" = class(TInterfacedObject, "&amp;G138&amp;")", "  "&amp;H138&amp;" = class(T"&amp;M138&amp;C138&amp;", "&amp;G138&amp;")")</f>
+        <f t="shared" ref="L138" si="97">IF(C138="", "  "&amp;H138&amp;" = class(TInterfacedObject, "&amp;G138&amp;")", "  "&amp;H138&amp;" = class(T"&amp;M138&amp;C138&amp;", "&amp;G138&amp;")")</f>
         <v xml:space="preserve">  TTMDBTVSeasonEpisode = class(TTMDBTVEpisode, ITMDBTVSeasonEpisode)</v>
       </c>
       <c r="M138" s="8" t="s">
@@ -11964,27 +11955,27 @@
         <v>74</v>
       </c>
       <c r="G139" s="8" t="str">
-        <f t="shared" ref="G139" si="86">"I"&amp;M139&amp;B139</f>
+        <f t="shared" ref="G139" si="98">"I"&amp;M139&amp;B139</f>
         <v>ITMDBTVSeasonEpisodes</v>
       </c>
       <c r="H139" s="8" t="str">
-        <f t="shared" ref="H139" si="87">"T"&amp;M139&amp;B139</f>
+        <f t="shared" ref="H139" si="99">"T"&amp;M139&amp;B139</f>
         <v>TTMDBTVSeasonEpisodes</v>
       </c>
       <c r="I139" s="8" t="str">
-        <f t="shared" ref="I139" si="88">"  "&amp;G139&amp;" = interface;"</f>
+        <f t="shared" ref="I139" si="100">"  "&amp;G139&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface;</v>
       </c>
       <c r="J139" s="8" t="str">
-        <f t="shared" ref="J139" si="89">"  "&amp;H139&amp;" = class;"</f>
+        <f t="shared" ref="J139" si="101">"  "&amp;H139&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class;</v>
       </c>
       <c r="K139" s="8" t="str">
-        <f t="shared" ref="K139" si="90">IF(C139="", "  "&amp;G139&amp;" = interface", "  "&amp;G139&amp;" = interface(I"&amp;M139&amp;C139&amp;")")</f>
+        <f t="shared" ref="K139" si="102">IF(C139="", "  "&amp;G139&amp;" = interface", "  "&amp;G139&amp;" = interface(I"&amp;M139&amp;C139&amp;")")</f>
         <v xml:space="preserve">  ITMDBTVSeasonEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="L139" s="8" t="str">
-        <f t="shared" ref="L139" si="91">IF(C139="", "  "&amp;H139&amp;" = class(TInterfacedObject, "&amp;G139&amp;")", "  "&amp;H139&amp;" = class(T"&amp;M139&amp;C139&amp;", "&amp;G139&amp;")")</f>
+        <f t="shared" ref="L139" si="103">IF(C139="", "  "&amp;H139&amp;" = class(TInterfacedObject, "&amp;G139&amp;")", "  "&amp;H139&amp;" = class(T"&amp;M139&amp;C139&amp;", "&amp;G139&amp;")")</f>
         <v xml:space="preserve">  TTMDBTVSeasonEpisodes = class(TTMDBTVEpisodes, ITMDBTVSeasonEpisodes)</v>
       </c>
       <c r="M139" s="8" t="s">
@@ -12011,27 +12002,27 @@
         <v>74</v>
       </c>
       <c r="G140" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVEpisode</v>
       </c>
       <c r="H140" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVEpisode</v>
       </c>
       <c r="I140" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVEpisode = interface;</v>
       </c>
       <c r="J140" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVEpisode = class;</v>
       </c>
       <c r="K140" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVEpisode = interface(ITMDBMedium)</v>
       </c>
       <c r="L140" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVEpisode = class(TTMDBMedium, ITMDBTVEpisode)</v>
       </c>
       <c r="M140" s="8" t="s">
@@ -12058,27 +12049,27 @@
         <v>74</v>
       </c>
       <c r="G141" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVEpisodes</v>
       </c>
       <c r="H141" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVEpisodes</v>
       </c>
       <c r="I141" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVEpisodes = interface;</v>
       </c>
       <c r="J141" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVEpisodes = class;</v>
       </c>
       <c r="K141" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVEpisodes = interface(ITMDBMedia)</v>
       </c>
       <c r="L141" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVEpisodes = class(TTMDBMedia, ITMDBTVEpisodes)</v>
       </c>
       <c r="M141" s="8" t="s">
@@ -12105,27 +12096,27 @@
         <v>74</v>
       </c>
       <c r="G142" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVEpisodePage</v>
       </c>
       <c r="H142" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVEpisodePage</v>
       </c>
       <c r="I142" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVEpisodePage = interface;</v>
       </c>
       <c r="J142" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVEpisodePage = class;</v>
       </c>
       <c r="K142" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVEpisodePage = interface(ITMDBMediaPage)</v>
       </c>
       <c r="L142" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVEpisodePage = class(TTMDBMediaPage, ITMDBTVEpisodePage)</v>
       </c>
       <c r="M142" s="8" t="s">
@@ -12152,27 +12143,27 @@
         <v>74</v>
       </c>
       <c r="G143" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBRatedTVEpisode</v>
       </c>
       <c r="H143" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBRatedTVEpisode</v>
       </c>
       <c r="I143" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBRatedTVEpisode = interface;</v>
       </c>
       <c r="J143" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBRatedTVEpisode = class;</v>
       </c>
       <c r="K143" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBRatedTVEpisode = interface(ITMDBTVEpisode)</v>
       </c>
       <c r="L143" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBRatedTVEpisode = class(TTMDBTVEpisode, ITMDBRatedTVEpisode)</v>
       </c>
       <c r="M143" s="8" t="s">
@@ -12199,27 +12190,27 @@
         <v>74</v>
       </c>
       <c r="G144" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBRatedTVEpisodes</v>
       </c>
       <c r="H144" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBRatedTVEpisodes</v>
       </c>
       <c r="I144" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface;</v>
       </c>
       <c r="J144" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBRatedTVEpisodes = class;</v>
       </c>
       <c r="K144" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBRatedTVEpisodes = interface(ITMDBTVEpisodes)</v>
       </c>
       <c r="L144" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBRatedTVEpisodes = class(TTMDBTVEpisodes, ITMDBRatedTVEpisodes)</v>
       </c>
       <c r="M144" s="8" t="s">
@@ -12246,27 +12237,27 @@
         <v>74</v>
       </c>
       <c r="G145" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVEpisodeDetail</v>
       </c>
       <c r="H145" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVEpisodeDetail</v>
       </c>
       <c r="I145" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface;</v>
       </c>
       <c r="J145" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVEpisodeDetail = class;</v>
       </c>
       <c r="K145" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVEpisodeDetail = interface(ITMDBDetail)</v>
       </c>
       <c r="L145" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVEpisodeDetail = class(TTMDBDetail, ITMDBTVEpisodeDetail)</v>
       </c>
       <c r="M145" s="8" t="s">
@@ -12290,27 +12281,27 @@
         <v>74</v>
       </c>
       <c r="G146" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVEpisodeGroup</v>
       </c>
       <c r="H146" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVEpisodeGroup</v>
       </c>
       <c r="I146" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface;</v>
       </c>
       <c r="J146" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVEpisodeGroup = class;</v>
       </c>
       <c r="K146" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVEpisodeGroup = interface</v>
       </c>
       <c r="L146" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVEpisodeGroup = class(TInterfacedObject, ITMDBTVEpisodeGroup)</v>
       </c>
       <c r="M146" s="8" t="s">
@@ -12334,27 +12325,27 @@
         <v>74</v>
       </c>
       <c r="G147" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBTVEpisodeGroups</v>
       </c>
       <c r="H147" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBTVEpisodeGroups</v>
       </c>
       <c r="I147" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface;</v>
       </c>
       <c r="J147" s="8" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">  TTMDBTVEpisodeGroups = class;</v>
       </c>
       <c r="K147" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBTVEpisodeGroups = interface</v>
       </c>
       <c r="L147" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBTVEpisodeGroups = class(TInterfacedObject, ITMDBTVEpisodeGroups)</v>
       </c>
       <c r="M147" s="8" t="s">
@@ -12378,27 +12369,27 @@
         <v>74</v>
       </c>
       <c r="G148" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBWatchProviderPriority</v>
       </c>
       <c r="H148" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBWatchProviderPriority</v>
       </c>
       <c r="I148" s="8" t="str">
-        <f t="shared" ref="I148:I189" si="92">"  "&amp;G148&amp;" = interface;"</f>
+        <f t="shared" ref="I148:I189" si="104">"  "&amp;G148&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBWatchProviderPriority = interface;</v>
       </c>
       <c r="J148" s="8" t="str">
-        <f t="shared" ref="J148:J189" si="93">"  "&amp;H148&amp;" = class;"</f>
+        <f t="shared" ref="J148:J189" si="105">"  "&amp;H148&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBWatchProviderPriority = class;</v>
       </c>
       <c r="K148" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBWatchProviderPriority = interface</v>
       </c>
       <c r="L148" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBWatchProviderPriority = class(TInterfacedObject, ITMDBWatchProviderPriority)</v>
       </c>
       <c r="M148" s="8" t="s">
@@ -12422,27 +12413,27 @@
         <v>74</v>
       </c>
       <c r="G149" s="8" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>ITMDBWatchProviderPriorities</v>
       </c>
       <c r="H149" s="8" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>TTMDBWatchProviderPriorities</v>
       </c>
       <c r="I149" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface;</v>
       </c>
       <c r="J149" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBWatchProviderPriorities = class;</v>
       </c>
       <c r="K149" s="8" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v xml:space="preserve">  ITMDBWatchProviderPriorities = interface</v>
       </c>
       <c r="L149" s="8" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v xml:space="preserve">  TTMDBWatchProviderPriorities = class(TInterfacedObject, ITMDBWatchProviderPriorities)</v>
       </c>
       <c r="M149" s="8" t="s">
@@ -12469,27 +12460,27 @@
         <v>74</v>
       </c>
       <c r="G150" s="8" t="str">
-        <f t="shared" ref="G150:G184" si="94">"I"&amp;M150&amp;B150</f>
+        <f t="shared" ref="G150:G184" si="106">"I"&amp;M150&amp;B150</f>
         <v>ITMDBWatchProvider</v>
       </c>
       <c r="H150" s="8" t="str">
-        <f t="shared" ref="H150:H184" si="95">"T"&amp;M150&amp;B150</f>
+        <f t="shared" ref="H150:H184" si="107">"T"&amp;M150&amp;B150</f>
         <v>TTMDBWatchProvider</v>
       </c>
       <c r="I150" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBWatchProvider = interface;</v>
       </c>
       <c r="J150" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBWatchProvider = class;</v>
       </c>
       <c r="K150" s="8" t="str">
-        <f t="shared" ref="K150:K184" si="96">IF(C150="", "  "&amp;G150&amp;" = interface", "  "&amp;G150&amp;" = interface(I"&amp;M150&amp;C150&amp;")")</f>
+        <f t="shared" ref="K150:K184" si="108">IF(C150="", "  "&amp;G150&amp;" = interface", "  "&amp;G150&amp;" = interface(I"&amp;M150&amp;C150&amp;")")</f>
         <v xml:space="preserve">  ITMDBWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L150" s="8" t="str">
-        <f t="shared" ref="L150:L184" si="97">IF(C150="", "  "&amp;H150&amp;" = class(TInterfacedObject, "&amp;G150&amp;")", "  "&amp;H150&amp;" = class(T"&amp;M150&amp;C150&amp;", "&amp;G150&amp;")")</f>
+        <f t="shared" ref="L150:L184" si="109">IF(C150="", "  "&amp;H150&amp;" = class(TInterfacedObject, "&amp;G150&amp;")", "  "&amp;H150&amp;" = class(T"&amp;M150&amp;C150&amp;", "&amp;G150&amp;")")</f>
         <v xml:space="preserve">  TTMDBWatchProvider = class(TTMDBItem, ITMDBWatchProvider)</v>
       </c>
       <c r="M150" s="8" t="s">
@@ -12516,27 +12507,27 @@
         <v>74</v>
       </c>
       <c r="G151" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBWatchProviders</v>
       </c>
       <c r="H151" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBWatchProviders</v>
       </c>
       <c r="I151" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBWatchProviders = interface;</v>
       </c>
       <c r="J151" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBWatchProviders = class;</v>
       </c>
       <c r="K151" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBWatchProviders = interface(ITMDBItems)</v>
       </c>
       <c r="L151" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBWatchProviders = class(TTMDBItems, ITMDBWatchProviders)</v>
       </c>
       <c r="M151" s="8" t="s">
@@ -12563,27 +12554,27 @@
         <v>74</v>
       </c>
       <c r="G152" s="8" t="str">
-        <f t="shared" ref="G152:G153" si="98">"I"&amp;M152&amp;B152</f>
+        <f t="shared" ref="G152:G153" si="110">"I"&amp;M152&amp;B152</f>
         <v>ITMDBMediaWatchProvider</v>
       </c>
       <c r="H152" s="8" t="str">
-        <f t="shared" ref="H152:H153" si="99">"T"&amp;M152&amp;B152</f>
+        <f t="shared" ref="H152:H153" si="111">"T"&amp;M152&amp;B152</f>
         <v>TTMDBMediaWatchProvider</v>
       </c>
       <c r="I152" s="8" t="str">
-        <f t="shared" ref="I152:I153" si="100">"  "&amp;G152&amp;" = interface;"</f>
+        <f t="shared" ref="I152:I153" si="112">"  "&amp;G152&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBMediaWatchProvider = interface;</v>
       </c>
       <c r="J152" s="8" t="str">
-        <f t="shared" ref="J152:J153" si="101">"  "&amp;H152&amp;" = class;"</f>
+        <f t="shared" ref="J152:J153" si="113">"  "&amp;H152&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBMediaWatchProvider = class;</v>
       </c>
       <c r="K152" s="8" t="str">
-        <f t="shared" ref="K152:K153" si="102">IF(C152="", "  "&amp;G152&amp;" = interface", "  "&amp;G152&amp;" = interface(I"&amp;M152&amp;C152&amp;")")</f>
+        <f t="shared" ref="K152:K153" si="114">IF(C152="", "  "&amp;G152&amp;" = interface", "  "&amp;G152&amp;" = interface(I"&amp;M152&amp;C152&amp;")")</f>
         <v xml:space="preserve">  ITMDBMediaWatchProvider = interface(ITMDBItem)</v>
       </c>
       <c r="L152" s="8" t="str">
-        <f t="shared" ref="L152:L153" si="103">IF(C152="", "  "&amp;H152&amp;" = class(TInterfacedObject, "&amp;G152&amp;")", "  "&amp;H152&amp;" = class(T"&amp;M152&amp;C152&amp;", "&amp;G152&amp;")")</f>
+        <f t="shared" ref="L152:L153" si="115">IF(C152="", "  "&amp;H152&amp;" = class(TInterfacedObject, "&amp;G152&amp;")", "  "&amp;H152&amp;" = class(T"&amp;M152&amp;C152&amp;", "&amp;G152&amp;")")</f>
         <v xml:space="preserve">  TTMDBMediaWatchProvider = class(TTMDBItem, ITMDBMediaWatchProvider)</v>
       </c>
       <c r="M152" s="8" t="s">
@@ -12610,27 +12601,27 @@
         <v>74</v>
       </c>
       <c r="G153" s="8" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>ITMDBMediaWatchProviders</v>
       </c>
       <c r="H153" s="8" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>TTMDBMediaWatchProviders</v>
       </c>
       <c r="I153" s="8" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v xml:space="preserve">  ITMDBMediaWatchProviders = interface;</v>
       </c>
       <c r="J153" s="8" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="113"/>
         <v xml:space="preserve">  TTMDBMediaWatchProviders = class;</v>
       </c>
       <c r="K153" s="8" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v xml:space="preserve">  ITMDBMediaWatchProviders = interface(ITMDBItems)</v>
       </c>
       <c r="L153" s="8" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v xml:space="preserve">  TTMDBMediaWatchProviders = class(TTMDBItems, ITMDBMediaWatchProviders)</v>
       </c>
       <c r="M153" s="8" t="s">
@@ -12654,27 +12645,27 @@
         <v>74</v>
       </c>
       <c r="G154" s="8" t="str">
-        <f t="shared" ref="G154" si="104">"I"&amp;M154&amp;B154</f>
+        <f t="shared" ref="G154" si="116">"I"&amp;M154&amp;B154</f>
         <v>ITMDBMediaWatchProviderCountry</v>
       </c>
       <c r="H154" s="8" t="str">
-        <f t="shared" ref="H154" si="105">"T"&amp;M154&amp;B154</f>
+        <f t="shared" ref="H154" si="117">"T"&amp;M154&amp;B154</f>
         <v>TTMDBMediaWatchProviderCountry</v>
       </c>
       <c r="I154" s="8" t="str">
-        <f t="shared" ref="I154" si="106">"  "&amp;G154&amp;" = interface;"</f>
+        <f t="shared" ref="I154" si="118">"  "&amp;G154&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBMediaWatchProviderCountry = interface;</v>
       </c>
       <c r="J154" s="8" t="str">
-        <f t="shared" ref="J154" si="107">"  "&amp;H154&amp;" = class;"</f>
+        <f t="shared" ref="J154" si="119">"  "&amp;H154&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBMediaWatchProviderCountry = class;</v>
       </c>
       <c r="K154" s="8" t="str">
-        <f t="shared" ref="K154" si="108">IF(C154="", "  "&amp;G154&amp;" = interface", "  "&amp;G154&amp;" = interface(I"&amp;M154&amp;C154&amp;")")</f>
+        <f t="shared" ref="K154" si="120">IF(C154="", "  "&amp;G154&amp;" = interface", "  "&amp;G154&amp;" = interface(I"&amp;M154&amp;C154&amp;")")</f>
         <v xml:space="preserve">  ITMDBMediaWatchProviderCountry = interface</v>
       </c>
       <c r="L154" s="8" t="str">
-        <f t="shared" ref="L154" si="109">IF(C154="", "  "&amp;H154&amp;" = class(TInterfacedObject, "&amp;G154&amp;")", "  "&amp;H154&amp;" = class(T"&amp;M154&amp;C154&amp;", "&amp;G154&amp;")")</f>
+        <f t="shared" ref="L154" si="121">IF(C154="", "  "&amp;H154&amp;" = class(TInterfacedObject, "&amp;G154&amp;")", "  "&amp;H154&amp;" = class(T"&amp;M154&amp;C154&amp;", "&amp;G154&amp;")")</f>
         <v xml:space="preserve">  TTMDBMediaWatchProviderCountry = class(TInterfacedObject, ITMDBMediaWatchProviderCountry)</v>
       </c>
       <c r="M154" s="8" t="s">
@@ -12698,27 +12689,27 @@
         <v>74</v>
       </c>
       <c r="G155" s="8" t="str">
-        <f t="shared" ref="G155" si="110">"I"&amp;M155&amp;B155</f>
+        <f t="shared" ref="G155" si="122">"I"&amp;M155&amp;B155</f>
         <v>ITMDBMediaWatchProviderCountries</v>
       </c>
       <c r="H155" s="8" t="str">
-        <f t="shared" ref="H155" si="111">"T"&amp;M155&amp;B155</f>
+        <f t="shared" ref="H155" si="123">"T"&amp;M155&amp;B155</f>
         <v>TTMDBMediaWatchProviderCountries</v>
       </c>
       <c r="I155" s="8" t="str">
-        <f t="shared" ref="I155" si="112">"  "&amp;G155&amp;" = interface;"</f>
+        <f t="shared" ref="I155" si="124">"  "&amp;G155&amp;" = interface;"</f>
         <v xml:space="preserve">  ITMDBMediaWatchProviderCountries = interface;</v>
       </c>
       <c r="J155" s="8" t="str">
-        <f t="shared" ref="J155" si="113">"  "&amp;H155&amp;" = class;"</f>
+        <f t="shared" ref="J155" si="125">"  "&amp;H155&amp;" = class;"</f>
         <v xml:space="preserve">  TTMDBMediaWatchProviderCountries = class;</v>
       </c>
       <c r="K155" s="8" t="str">
-        <f t="shared" ref="K155" si="114">IF(C155="", "  "&amp;G155&amp;" = interface", "  "&amp;G155&amp;" = interface(I"&amp;M155&amp;C155&amp;")")</f>
+        <f t="shared" ref="K155" si="126">IF(C155="", "  "&amp;G155&amp;" = interface", "  "&amp;G155&amp;" = interface(I"&amp;M155&amp;C155&amp;")")</f>
         <v xml:space="preserve">  ITMDBMediaWatchProviderCountries = interface</v>
       </c>
       <c r="L155" s="8" t="str">
-        <f t="shared" ref="L155" si="115">IF(C155="", "  "&amp;H155&amp;" = class(TInterfacedObject, "&amp;G155&amp;")", "  "&amp;H155&amp;" = class(T"&amp;M155&amp;C155&amp;", "&amp;G155&amp;")")</f>
+        <f t="shared" ref="L155" si="127">IF(C155="", "  "&amp;H155&amp;" = class(TInterfacedObject, "&amp;G155&amp;")", "  "&amp;H155&amp;" = class(T"&amp;M155&amp;C155&amp;", "&amp;G155&amp;")")</f>
         <v xml:space="preserve">  TTMDBMediaWatchProviderCountries = class(TInterfacedObject, ITMDBMediaWatchProviderCountries)</v>
       </c>
       <c r="M155" s="8" t="s">
@@ -12742,27 +12733,27 @@
         <v>375</v>
       </c>
       <c r="G156" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespace</v>
       </c>
       <c r="H156" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespace</v>
       </c>
       <c r="I156" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespace = interface;</v>
       </c>
       <c r="J156" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespace = class;</v>
       </c>
       <c r="K156" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespace = interface</v>
       </c>
       <c r="L156" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespace = class(TInterfacedObject, ITMDBNamespace)</v>
       </c>
       <c r="M156" s="8" t="s">
@@ -12789,27 +12780,27 @@
         <v>253</v>
       </c>
       <c r="G157" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceAccount</v>
       </c>
       <c r="H157" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceAccount</v>
       </c>
       <c r="I157" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceAccount = interface;</v>
       </c>
       <c r="J157" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceAccount = class;</v>
       </c>
       <c r="K157" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceAccount = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L157" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceAccount = class(TTMDBITMDBNamespace, ITMDBNamespaceAccount)</v>
       </c>
       <c r="M157" s="8" t="s">
@@ -12836,27 +12827,27 @@
         <v>253</v>
       </c>
       <c r="G158" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceAuthentication</v>
       </c>
       <c r="H158" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceAuthentication</v>
       </c>
       <c r="I158" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface;</v>
       </c>
       <c r="J158" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceAuthentication = class;</v>
       </c>
       <c r="K158" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceAuthentication = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L158" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceAuthentication = class(TTMDBITMDBNamespace, ITMDBNamespaceAuthentication)</v>
       </c>
       <c r="M158" s="8" t="s">
@@ -12883,27 +12874,27 @@
         <v>375</v>
       </c>
       <c r="G159" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceCertifications</v>
       </c>
       <c r="H159" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceCertifications</v>
       </c>
       <c r="I159" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceCertifications = interface;</v>
       </c>
       <c r="J159" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceCertifications = class;</v>
       </c>
       <c r="K159" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceCertifications = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L159" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceCertifications = class(TTMDBITMDBNamespace, ITMDBNamespaceCertifications)</v>
       </c>
       <c r="M159" s="8" t="s">
@@ -12930,27 +12921,27 @@
         <v>253</v>
       </c>
       <c r="G160" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceChanges</v>
       </c>
       <c r="H160" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceChanges</v>
       </c>
       <c r="I160" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceChanges = interface;</v>
       </c>
       <c r="J160" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceChanges = class;</v>
       </c>
       <c r="K160" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceChanges = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L160" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceChanges = class(TTMDBITMDBNamespace, ITMDBNamespaceChanges)</v>
       </c>
       <c r="M160" s="8" t="s">
@@ -12977,27 +12968,27 @@
         <v>253</v>
       </c>
       <c r="G161" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceCollections</v>
       </c>
       <c r="H161" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceCollections</v>
       </c>
       <c r="I161" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceCollections = interface;</v>
       </c>
       <c r="J161" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceCollections = class;</v>
       </c>
       <c r="K161" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceCollections = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L161" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceCollections = class(TTMDBITMDBNamespace, ITMDBNamespaceCollections)</v>
       </c>
       <c r="M161" s="8" t="s">
@@ -13024,27 +13015,27 @@
         <v>254</v>
       </c>
       <c r="G162" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceCompanies</v>
       </c>
       <c r="H162" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceCompanies</v>
       </c>
       <c r="I162" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceCompanies = interface;</v>
       </c>
       <c r="J162" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceCompanies = class;</v>
       </c>
       <c r="K162" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceCompanies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L162" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceCompanies = class(TTMDBITMDBNamespace, ITMDBNamespaceCompanies)</v>
       </c>
       <c r="M162" s="8" t="s">
@@ -13071,27 +13062,27 @@
         <v>254</v>
       </c>
       <c r="G163" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceConfiguration</v>
       </c>
       <c r="H163" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceConfiguration</v>
       </c>
       <c r="I163" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface;</v>
       </c>
       <c r="J163" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceConfiguration = class;</v>
       </c>
       <c r="K163" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceConfiguration = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L163" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceConfiguration = class(TTMDBITMDBNamespace, ITMDBNamespaceConfiguration)</v>
       </c>
       <c r="M163" s="8" t="s">
@@ -13118,27 +13109,27 @@
         <v>254</v>
       </c>
       <c r="G164" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceCredits</v>
       </c>
       <c r="H164" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceCredits</v>
       </c>
       <c r="I164" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceCredits = interface;</v>
       </c>
       <c r="J164" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceCredits = class;</v>
       </c>
       <c r="K164" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceCredits = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L164" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceCredits = class(TTMDBITMDBNamespace, ITMDBNamespaceCredits)</v>
       </c>
       <c r="M164" s="8" t="s">
@@ -13165,27 +13156,27 @@
         <v>254</v>
       </c>
       <c r="G165" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceDiscover</v>
       </c>
       <c r="H165" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceDiscover</v>
       </c>
       <c r="I165" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceDiscover = interface;</v>
       </c>
       <c r="J165" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceDiscover = class;</v>
       </c>
       <c r="K165" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceDiscover = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L165" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceDiscover = class(TTMDBITMDBNamespace, ITMDBNamespaceDiscover)</v>
       </c>
       <c r="M165" s="8" t="s">
@@ -13212,27 +13203,27 @@
         <v>254</v>
       </c>
       <c r="G166" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceFind</v>
       </c>
       <c r="H166" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceFind</v>
       </c>
       <c r="I166" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceFind = interface;</v>
       </c>
       <c r="J166" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceFind = class;</v>
       </c>
       <c r="K166" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceFind = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L166" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceFind = class(TTMDBITMDBNamespace, ITMDBNamespaceFind)</v>
       </c>
       <c r="M166" s="8" t="s">
@@ -13259,27 +13250,27 @@
         <v>375</v>
       </c>
       <c r="G167" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceGenres</v>
       </c>
       <c r="H167" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceGenres</v>
       </c>
       <c r="I167" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceGenres = interface;</v>
       </c>
       <c r="J167" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceGenres = class;</v>
       </c>
       <c r="K167" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceGenres = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L167" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceGenres = class(TTMDBITMDBNamespace, ITMDBNamespaceGenres)</v>
       </c>
       <c r="M167" s="8" t="s">
@@ -13306,27 +13297,27 @@
         <v>74</v>
       </c>
       <c r="G168" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceGuestSessions</v>
       </c>
       <c r="H168" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceGuestSessions</v>
       </c>
       <c r="I168" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface;</v>
       </c>
       <c r="J168" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class;</v>
       </c>
       <c r="K168" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceGuestSessions = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L168" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceGuestSessions = class(TTMDBITMDBNamespace, ITMDBNamespaceGuestSessions)</v>
       </c>
       <c r="M168" s="8" t="s">
@@ -13353,27 +13344,27 @@
         <v>375</v>
       </c>
       <c r="G169" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceKeywords</v>
       </c>
       <c r="H169" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceKeywords</v>
       </c>
       <c r="I169" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceKeywords = interface;</v>
       </c>
       <c r="J169" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceKeywords = class;</v>
       </c>
       <c r="K169" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceKeywords = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L169" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceKeywords = class(TTMDBITMDBNamespace, ITMDBNamespaceKeywords)</v>
       </c>
       <c r="M169" s="8" t="s">
@@ -13400,27 +13391,27 @@
         <v>74</v>
       </c>
       <c r="G170" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceLists</v>
       </c>
       <c r="H170" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceLists</v>
       </c>
       <c r="I170" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceLists = interface;</v>
       </c>
       <c r="J170" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceLists = class;</v>
       </c>
       <c r="K170" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L170" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceLists = class(TTMDBITMDBNamespace, ITMDBNamespaceLists)</v>
       </c>
       <c r="M170" s="8" t="s">
@@ -13447,27 +13438,27 @@
         <v>254</v>
       </c>
       <c r="G171" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceMovieLists</v>
       </c>
       <c r="H171" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceMovieLists</v>
       </c>
       <c r="I171" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface;</v>
       </c>
       <c r="J171" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceMovieLists = class;</v>
       </c>
       <c r="K171" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceMovieLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L171" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceMovieLists = class(TTMDBITMDBNamespace, ITMDBNamespaceMovieLists)</v>
       </c>
       <c r="M171" s="8" t="s">
@@ -13494,27 +13485,27 @@
         <v>254</v>
       </c>
       <c r="G172" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceMovies</v>
       </c>
       <c r="H172" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceMovies</v>
       </c>
       <c r="I172" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceMovies = interface;</v>
       </c>
       <c r="J172" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceMovies = class;</v>
       </c>
       <c r="K172" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceMovies = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L172" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceMovies = class(TTMDBITMDBNamespace, ITMDBNamespaceMovies)</v>
       </c>
       <c r="M172" s="8" t="s">
@@ -13541,27 +13532,27 @@
         <v>254</v>
       </c>
       <c r="G173" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceNetworks</v>
       </c>
       <c r="H173" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceNetworks</v>
       </c>
       <c r="I173" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceNetworks = interface;</v>
       </c>
       <c r="J173" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceNetworks = class;</v>
       </c>
       <c r="K173" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceNetworks = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L173" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceNetworks = class(TTMDBITMDBNamespace, ITMDBNamespaceNetworks)</v>
       </c>
       <c r="M173" s="8" t="s">
@@ -13588,27 +13579,27 @@
         <v>254</v>
       </c>
       <c r="G174" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespacePeopleLists</v>
       </c>
       <c r="H174" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespacePeopleLists</v>
       </c>
       <c r="I174" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface;</v>
       </c>
       <c r="J174" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespacePeopleLists = class;</v>
       </c>
       <c r="K174" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespacePeopleLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L174" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespacePeopleLists = class(TTMDBITMDBNamespace, ITMDBNamespacePeopleLists)</v>
       </c>
       <c r="M174" s="8" t="s">
@@ -13635,27 +13626,27 @@
         <v>254</v>
       </c>
       <c r="G175" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespacePeople</v>
       </c>
       <c r="H175" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespacePeople</v>
       </c>
       <c r="I175" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespacePeople = interface;</v>
       </c>
       <c r="J175" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespacePeople = class;</v>
       </c>
       <c r="K175" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespacePeople = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L175" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespacePeople = class(TTMDBITMDBNamespace, ITMDBNamespacePeople)</v>
       </c>
       <c r="M175" s="8" t="s">
@@ -13682,27 +13673,27 @@
         <v>254</v>
       </c>
       <c r="G176" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceReviews</v>
       </c>
       <c r="H176" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceReviews</v>
       </c>
       <c r="I176" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceReviews = interface;</v>
       </c>
       <c r="J176" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceReviews = class;</v>
       </c>
       <c r="K176" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceReviews = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L176" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceReviews = class(TTMDBITMDBNamespace, ITMDBNamespaceReviews)</v>
       </c>
       <c r="M176" s="8" t="s">
@@ -13729,27 +13720,27 @@
         <v>254</v>
       </c>
       <c r="G177" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceSearch</v>
       </c>
       <c r="H177" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceSearch</v>
       </c>
       <c r="I177" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceSearch = interface;</v>
       </c>
       <c r="J177" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceSearch = class;</v>
       </c>
       <c r="K177" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceSearch = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L177" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceSearch = class(TTMDBITMDBNamespace, ITMDBNamespaceSearch)</v>
       </c>
       <c r="M177" s="8" t="s">
@@ -13776,27 +13767,27 @@
         <v>254</v>
       </c>
       <c r="G178" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceTrending</v>
       </c>
       <c r="H178" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceTrending</v>
       </c>
       <c r="I178" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceTrending = interface;</v>
       </c>
       <c r="J178" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceTrending = class;</v>
       </c>
       <c r="K178" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceTrending = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L178" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceTrending = class(TTMDBITMDBNamespace, ITMDBNamespaceTrending)</v>
       </c>
       <c r="M178" s="8" t="s">
@@ -13823,27 +13814,27 @@
         <v>254</v>
       </c>
       <c r="G179" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="H179" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceTVSeriesLists</v>
       </c>
       <c r="I179" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface;</v>
       </c>
       <c r="J179" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class;</v>
       </c>
       <c r="K179" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceTVSeriesLists = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L179" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceTVSeriesLists = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeriesLists)</v>
       </c>
       <c r="M179" s="8" t="s">
@@ -13870,27 +13861,27 @@
         <v>254</v>
       </c>
       <c r="G180" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceTVSeries</v>
       </c>
       <c r="H180" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceTVSeries</v>
       </c>
       <c r="I180" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface;</v>
       </c>
       <c r="J180" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceTVSeries = class;</v>
       </c>
       <c r="K180" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceTVSeries = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L180" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceTVSeries = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeries)</v>
       </c>
       <c r="M180" s="8" t="s">
@@ -13917,27 +13908,27 @@
         <v>74</v>
       </c>
       <c r="G181" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceTVSeasons</v>
       </c>
       <c r="H181" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceTVSeasons</v>
       </c>
       <c r="I181" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface;</v>
       </c>
       <c r="J181" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class;</v>
       </c>
       <c r="K181" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceTVSeasons = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L181" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceTVSeasons = class(TTMDBITMDBNamespace, ITMDBNamespaceTVSeasons)</v>
       </c>
       <c r="M181" s="8" t="s">
@@ -13964,27 +13955,27 @@
         <v>74</v>
       </c>
       <c r="G182" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceTVEpisodes</v>
       </c>
       <c r="H182" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceTVEpisodes</v>
       </c>
       <c r="I182" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface;</v>
       </c>
       <c r="J182" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class;</v>
       </c>
       <c r="K182" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceTVEpisodes = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L182" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceTVEpisodes = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodes)</v>
       </c>
       <c r="M182" s="8" t="s">
@@ -14011,27 +14002,27 @@
         <v>74</v>
       </c>
       <c r="G183" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="H183" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceTVEpisodeGroups</v>
       </c>
       <c r="I183" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface;</v>
       </c>
       <c r="J183" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class;</v>
       </c>
       <c r="K183" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceTVEpisodeGroups = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L183" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceTVEpisodeGroups = class(TTMDBITMDBNamespace, ITMDBNamespaceTVEpisodeGroups)</v>
       </c>
       <c r="M183" s="8" t="s">
@@ -14058,27 +14049,27 @@
         <v>74</v>
       </c>
       <c r="G184" s="8" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>ITMDBNamespaceWatchProviders</v>
       </c>
       <c r="H184" s="8" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>TTMDBNamespaceWatchProviders</v>
       </c>
       <c r="I184" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface;</v>
       </c>
       <c r="J184" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class;</v>
       </c>
       <c r="K184" s="8" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve">  ITMDBNamespaceWatchProviders = interface(ITMDBITMDBNamespace)</v>
       </c>
       <c r="L184" s="8" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v xml:space="preserve">  TTMDBNamespaceWatchProviders = class(TTMDBITMDBNamespace, ITMDBNamespaceWatchProviders)</v>
       </c>
       <c r="M184" s="8" t="s">
@@ -14102,27 +14093,27 @@
         <v>375</v>
       </c>
       <c r="G185" s="8" t="str">
-        <f t="shared" ref="G185:G189" si="116">"I"&amp;M185&amp;B185</f>
+        <f t="shared" ref="G185:G189" si="128">"I"&amp;M185&amp;B185</f>
         <v>ITMDBCache</v>
       </c>
       <c r="H185" s="8" t="str">
-        <f t="shared" ref="H185:H189" si="117">"T"&amp;M185&amp;B185</f>
+        <f t="shared" ref="H185:H189" si="129">"T"&amp;M185&amp;B185</f>
         <v>TTMDBCache</v>
       </c>
       <c r="I185" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBCache = interface;</v>
       </c>
       <c r="J185" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBCache = class;</v>
       </c>
       <c r="K185" s="8" t="str">
-        <f t="shared" ref="K185:K189" si="118">IF(C185="", "  "&amp;G185&amp;" = interface", "  "&amp;G185&amp;" = interface(I"&amp;M185&amp;C185&amp;")")</f>
+        <f t="shared" ref="K185:K189" si="130">IF(C185="", "  "&amp;G185&amp;" = interface", "  "&amp;G185&amp;" = interface(I"&amp;M185&amp;C185&amp;")")</f>
         <v xml:space="preserve">  ITMDBCache = interface</v>
       </c>
       <c r="L185" s="8" t="str">
-        <f t="shared" ref="L185:L189" si="119">IF(C185="", "  "&amp;H185&amp;" = class(TInterfacedObject, "&amp;G185&amp;")", "  "&amp;H185&amp;" = class(T"&amp;M185&amp;C185&amp;", "&amp;G185&amp;")")</f>
+        <f t="shared" ref="L185:L189" si="131">IF(C185="", "  "&amp;H185&amp;" = class(TInterfacedObject, "&amp;G185&amp;")", "  "&amp;H185&amp;" = class(T"&amp;M185&amp;C185&amp;", "&amp;G185&amp;")")</f>
         <v xml:space="preserve">  TTMDBCache = class(TInterfacedObject, ITMDBCache)</v>
       </c>
       <c r="M185" s="8" t="s">
@@ -14146,27 +14137,27 @@
         <v>375</v>
       </c>
       <c r="G186" s="8" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>ITMDBLoginState</v>
       </c>
       <c r="H186" s="8" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>TTMDBLoginState</v>
       </c>
       <c r="I186" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBLoginState = interface;</v>
       </c>
       <c r="J186" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBLoginState = class;</v>
       </c>
       <c r="K186" s="8" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v xml:space="preserve">  ITMDBLoginState = interface</v>
       </c>
       <c r="L186" s="8" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v xml:space="preserve">  TTMDBLoginState = class(TInterfacedObject, ITMDBLoginState)</v>
       </c>
       <c r="M186" s="8" t="s">
@@ -14190,27 +14181,27 @@
         <v>375</v>
       </c>
       <c r="G187" s="8" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>ITMDBClient</v>
       </c>
       <c r="H187" s="8" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>TTMDBClient</v>
       </c>
       <c r="I187" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDBClient = interface;</v>
       </c>
       <c r="J187" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDBClient = class;</v>
       </c>
       <c r="K187" s="8" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v xml:space="preserve">  ITMDBClient = interface</v>
       </c>
       <c r="L187" s="8" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v xml:space="preserve">  TTMDBClient = class(TInterfacedObject, ITMDBClient)</v>
       </c>
       <c r="M187" s="8" t="s">
@@ -14219,27 +14210,27 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G188" s="8" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>ITMDB</v>
       </c>
       <c r="H188" s="8" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>TTMDB</v>
       </c>
       <c r="I188" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J188" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K188" s="8" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L188" s="8" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M188" s="8" t="s">
@@ -14248,27 +14239,27 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G189" s="8" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>ITMDB</v>
       </c>
       <c r="H189" s="8" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>TTMDB</v>
       </c>
       <c r="I189" s="8" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve">  ITMDB = interface;</v>
       </c>
       <c r="J189" s="8" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve">  TTMDB = class;</v>
       </c>
       <c r="K189" s="8" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v xml:space="preserve">  ITMDB = interface</v>
       </c>
       <c r="L189" s="8" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v xml:space="preserve">  TTMDB = class(TInterfacedObject, ITMDB)</v>
       </c>
       <c r="M189" s="8" t="s">
@@ -14285,54 +14276,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31FFFB5-6413-484E-9C48-18C73A8F4597}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22" style="17" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="24.140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="79.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="92.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C2" t="s">
@@ -14341,7 +14332,7 @@
       <c r="D2" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F2" s="16" t="str">
@@ -14358,10 +14349,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C3" t="s">
@@ -14370,7 +14361,7 @@
       <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F3" s="16" t="str">
@@ -14387,10 +14378,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C4" t="s">
@@ -14399,7 +14390,7 @@
       <c r="D4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F4" s="16" t="str">
@@ -14416,10 +14407,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C5" t="s">
@@ -14428,7 +14419,7 @@
       <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F5" s="16" t="str">
@@ -14445,10 +14436,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C6" t="s">
@@ -14457,7 +14448,7 @@
       <c r="D6" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F6" s="16" t="str">
@@ -14474,10 +14465,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C7" t="s">
@@ -14486,7 +14477,7 @@
       <c r="D7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F7" s="16" t="str">
@@ -14503,10 +14494,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C8" t="s">
@@ -14515,7 +14506,7 @@
       <c r="D8" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F8" s="16" t="str">
@@ -14532,10 +14523,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C9" t="s">
@@ -14544,7 +14535,7 @@
       <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F9" s="16" t="str">
@@ -14561,10 +14552,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C10" t="s">
@@ -14573,7 +14564,7 @@
       <c r="D10" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F10" s="16" t="str">
@@ -14590,10 +14581,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C11" t="s">
@@ -14602,7 +14593,7 @@
       <c r="D11" t="s">
         <v>461</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F11" s="16" t="str">
@@ -14619,10 +14610,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C12" t="s">
@@ -14631,7 +14622,7 @@
       <c r="D12" t="s">
         <v>384</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F12" s="16" t="str">
@@ -14648,10 +14639,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C13" t="s">
@@ -14660,7 +14651,7 @@
       <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F13" s="16" t="str">
@@ -14677,10 +14668,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C14" t="s">
@@ -14689,7 +14680,7 @@
       <c r="D14" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F14" s="16" t="str">
@@ -14706,10 +14697,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C15" t="s">
@@ -14718,7 +14709,7 @@
       <c r="D15" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F15" s="16" t="str">
@@ -14735,10 +14726,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C16" t="s">
@@ -14747,7 +14738,7 @@
       <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F16" s="16" t="str">
@@ -14764,10 +14755,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C17" t="s">
@@ -14776,7 +14767,7 @@
       <c r="D17" t="s">
         <v>462</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F17" s="16" t="str">
@@ -14793,10 +14784,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C18" t="s">
@@ -14805,7 +14796,7 @@
       <c r="D18" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F18" s="16" t="str">
@@ -14822,10 +14813,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C19" t="s">
@@ -14834,7 +14825,7 @@
       <c r="D19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F19" s="16" t="str">
@@ -14851,10 +14842,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C20" t="s">
@@ -14863,7 +14854,7 @@
       <c r="D20" t="s">
         <v>462</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F20" s="16" t="str">
@@ -14880,10 +14871,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C21" t="s">
@@ -14892,7 +14883,7 @@
       <c r="D21" t="s">
         <v>462</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F21" s="16" t="str">
@@ -14909,10 +14900,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="1" t="s">
         <v>490</v>
       </c>
       <c r="C22" t="s">
@@ -14921,7 +14912,7 @@
       <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F22" s="16" t="str">
@@ -14938,10 +14929,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C23" t="s">
@@ -14950,7 +14941,7 @@
       <c r="D23" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F23" s="16" t="str">
@@ -14967,10 +14958,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C24" t="s">
@@ -14979,7 +14970,7 @@
       <c r="D24" t="s">
         <v>448</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F24" s="16" t="str">
@@ -14996,10 +14987,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C25" t="s">
@@ -15008,7 +14999,7 @@
       <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F25" s="16" t="str">
@@ -15025,10 +15016,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C26" t="s">
@@ -15037,7 +15028,7 @@
       <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F26" s="16" t="str">
@@ -15054,10 +15045,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C27" t="s">
@@ -15066,7 +15057,7 @@
       <c r="D27" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F27" s="16" t="str">
@@ -15083,10 +15074,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C28" t="s">
@@ -15095,7 +15086,7 @@
       <c r="D28" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F28" s="16" t="str">
@@ -15112,10 +15103,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C29" t="s">
@@ -15124,7 +15115,7 @@
       <c r="D29" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F29" s="16" t="str">
@@ -15141,10 +15132,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C30" t="s">
@@ -15153,7 +15144,7 @@
       <c r="D30" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F30" s="16" t="str">
@@ -15170,10 +15161,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C31" t="s">
@@ -15182,7 +15173,7 @@
       <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F31" s="16" t="str">
@@ -15199,10 +15190,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C32" t="s">
@@ -15211,7 +15202,7 @@
       <c r="D32" t="s">
         <v>213</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F32" s="16" t="str">
@@ -15228,10 +15219,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C33" t="s">
@@ -15240,7 +15231,7 @@
       <c r="D33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F33" s="16" t="str">
@@ -15257,10 +15248,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C34" t="s">
@@ -15269,7 +15260,7 @@
       <c r="D34" t="s">
         <v>236</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F34" s="16" t="str">
@@ -15286,10 +15277,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C35" t="s">
@@ -15298,7 +15289,7 @@
       <c r="D35" t="s">
         <v>384</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F35" s="16" t="str">
@@ -15315,10 +15306,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C36" t="s">
@@ -15327,7 +15318,7 @@
       <c r="D36" t="s">
         <v>466</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F36" s="16" t="str">
@@ -15344,10 +15335,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C37" t="s">
@@ -15356,7 +15347,7 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F37" s="16" t="str">
@@ -15373,10 +15364,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C38" t="s">
@@ -15385,7 +15376,7 @@
       <c r="D38" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F38" s="16" t="str">
@@ -15402,10 +15393,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C39" t="s">
@@ -15414,7 +15405,7 @@
       <c r="D39" t="s">
         <v>216</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F39" s="16" t="str">
@@ -15431,10 +15422,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C40" t="s">
@@ -15443,7 +15434,7 @@
       <c r="D40" t="s">
         <v>210</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F40" s="16" t="str">
@@ -15460,10 +15451,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C41" t="s">
@@ -15472,7 +15463,7 @@
       <c r="D41" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F41" s="16" t="str">
@@ -15489,10 +15480,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C42" t="s">
@@ -15501,7 +15492,7 @@
       <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F42" s="16" t="str">
@@ -15518,10 +15509,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C43" t="s">
@@ -15530,7 +15521,7 @@
       <c r="D43" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F43" s="16" t="str">
@@ -15547,10 +15538,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C44" t="s">
@@ -15559,7 +15550,7 @@
       <c r="D44" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F44" s="16" t="str">
@@ -15576,10 +15567,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C45" t="s">
@@ -15588,7 +15579,7 @@
       <c r="D45" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F45" s="16" t="str">
@@ -15605,10 +15596,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C46" t="s">
@@ -15617,7 +15608,7 @@
       <c r="D46" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F46" s="16" t="str">
@@ -15634,10 +15625,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C47" t="s">
@@ -15646,7 +15637,7 @@
       <c r="D47" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F47" s="16" t="str">
@@ -15663,10 +15654,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C48" t="s">
@@ -15675,7 +15666,7 @@
       <c r="D48" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F48" s="16" t="str">
@@ -15692,10 +15683,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C49" t="s">
@@ -15704,7 +15695,7 @@
       <c r="D49" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F49" s="16" t="str">
@@ -15721,10 +15712,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C50" t="s">
@@ -15733,7 +15724,7 @@
       <c r="D50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F50" s="16" t="str">
@@ -15750,10 +15741,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C51" t="s">
@@ -15762,7 +15753,7 @@
       <c r="D51" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F51" s="16" t="str">
@@ -15779,10 +15770,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C52" t="s">
@@ -15791,7 +15782,7 @@
       <c r="D52" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F52" s="16" t="str">
@@ -15808,10 +15799,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C53" t="s">
@@ -15820,7 +15811,7 @@
       <c r="D53" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F53" s="16" t="str">
@@ -15837,10 +15828,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C54" t="s">
@@ -15849,7 +15840,7 @@
       <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="5" t="s">
         <v>253</v>
       </c>
       <c r="F54" s="16" t="str">

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF18E5B2-1C47-4C09-8429-68796FEC0B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC343AE-7899-417F-AE55-220F6BD37265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -1994,9 +1994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,8 +3286,8 @@
       <c r="F56" t="s">
         <v>198</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>253</v>
+      <c r="G56" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,8 +3309,8 @@
       <c r="F57" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>253</v>
+      <c r="G57" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3332,8 +3332,8 @@
       <c r="F58" t="s">
         <v>53</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>253</v>
+      <c r="G58" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3355,8 +3355,8 @@
       <c r="F59" t="s">
         <v>198</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>253</v>
+      <c r="G59" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,9 +5551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
   <dimension ref="A1:M189"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10829,8 +10829,8 @@
       <c r="E115" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F115" s="15" t="s">
-        <v>254</v>
+      <c r="F115" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="28"/>
@@ -10876,8 +10876,8 @@
       <c r="E116" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F116" s="15" t="s">
-        <v>254</v>
+      <c r="F116" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G116" s="8" t="str">
         <f t="shared" si="28"/>
@@ -10923,8 +10923,8 @@
       <c r="E117" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F117" s="15" t="s">
-        <v>254</v>
+      <c r="F117" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G117" s="8" t="str">
         <f t="shared" si="28"/>
@@ -11108,8 +11108,8 @@
       <c r="E121" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F121" s="12" t="s">
-        <v>74</v>
+      <c r="F121" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G121" s="8" t="str">
         <f t="shared" si="28"/>
@@ -13434,8 +13434,8 @@
       <c r="E171" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F171" s="15" t="s">
-        <v>254</v>
+      <c r="F171" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="G171" s="8" t="str">
         <f t="shared" si="106"/>

--- a/JD TMDB API Wrapper Progress Tracking.xlsx
+++ b/JD TMDB API Wrapper Progress Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\JD-TMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC343AE-7899-417F-AE55-220F6BD37265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C38DB-384C-488D-A75F-A2B20B71DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F5B41A47-5D3B-4291-895C-865BB695D835}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoint Implementation Status" sheetId="1" r:id="rId1"/>
@@ -1994,9 +1994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB394B0-4279-4C9C-A2E8-1B3086916310}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56:G59"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,8 +3677,8 @@
       <c r="F73" t="s">
         <v>53</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>253</v>
+      <c r="G73" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,9 +5551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449EFBB5-22F1-48B7-A5F5-01E59CD1CC21}">
   <dimension ref="A1:M189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F170" sqref="F170"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14210,7 +14210,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G188" s="8" t="str">
-        <f t="shared" si="128"/>
+        <f>"I"&amp;M188&amp;B188</f>
         <v>ITMDB</v>
       </c>
       <c r="H188" s="8" t="str">
@@ -14277,8 +14277,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
